--- a/BaremeJavaBaseTest2_KL16.xlsx
+++ b/BaremeJavaBaseTest2_KL16.xlsx
@@ -8064,11 +8064,11 @@
   <dimension ref="A1:CL90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2025" ySplit="3630" topLeftCell="W4" activePane="bottomRight"/>
+      <pane xSplit="2025" ySplit="3630" topLeftCell="X8" activePane="bottomRight"/>
       <selection sqref="A1:XFD1"/>
-      <selection pane="topRight" activeCell="AL6" sqref="AL6"/>
+      <selection pane="topRight" activeCell="I6" sqref="I1:CL1048576"/>
       <selection pane="bottomLeft" activeCell="A20" sqref="A20:XFD20"/>
-      <selection pane="bottomRight" activeCell="AJ10" sqref="AJ10"/>
+      <selection pane="bottomRight" activeCell="AN13" sqref="AN13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -8080,36 +8080,36 @@
     <col min="5" max="5" width="6.28515625" style="18" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="6.28515625" style="18" customWidth="1"/>
     <col min="7" max="8" width="8.140625" style="2" customWidth="1"/>
-    <col min="9" max="16" width="4.140625" style="2" customWidth="1"/>
-    <col min="17" max="22" width="4.140625" style="68" customWidth="1"/>
-    <col min="23" max="23" width="4.140625" style="2" customWidth="1"/>
-    <col min="24" max="24" width="4.140625" style="68" customWidth="1"/>
-    <col min="25" max="28" width="4.140625" style="2" customWidth="1"/>
-    <col min="29" max="29" width="4.140625" style="68" customWidth="1"/>
-    <col min="30" max="30" width="4.140625" style="2" customWidth="1"/>
-    <col min="31" max="31" width="4.140625" style="79" customWidth="1"/>
-    <col min="32" max="32" width="4.140625" style="121" customWidth="1"/>
-    <col min="33" max="33" width="4.140625" style="68" customWidth="1"/>
-    <col min="34" max="35" width="4.140625" style="2" customWidth="1"/>
-    <col min="36" max="36" width="4.140625" style="68" customWidth="1"/>
-    <col min="37" max="37" width="4.140625" style="2" customWidth="1"/>
-    <col min="38" max="38" width="4.140625" style="121" customWidth="1"/>
-    <col min="39" max="40" width="4.140625" style="2" customWidth="1"/>
-    <col min="41" max="41" width="4.140625" style="64" customWidth="1"/>
-    <col min="42" max="42" width="4.140625" style="79" customWidth="1"/>
-    <col min="43" max="43" width="4.140625" style="86" customWidth="1"/>
-    <col min="44" max="44" width="4.140625" style="2" customWidth="1"/>
-    <col min="45" max="45" width="4.140625" style="96" customWidth="1"/>
-    <col min="46" max="46" width="4.140625" style="100" customWidth="1"/>
-    <col min="47" max="47" width="4.140625" style="96" customWidth="1"/>
-    <col min="48" max="74" width="4.140625" style="109" customWidth="1"/>
-    <col min="75" max="75" width="4.140625" style="2" customWidth="1"/>
-    <col min="76" max="80" width="4.140625" style="79" customWidth="1"/>
-    <col min="81" max="85" width="4.140625" style="109" customWidth="1"/>
-    <col min="86" max="86" width="4.140625" style="79" customWidth="1"/>
-    <col min="87" max="88" width="4.140625" style="2" customWidth="1"/>
-    <col min="89" max="89" width="4.140625" style="100" customWidth="1"/>
-    <col min="90" max="90" width="4.28515625" style="2" customWidth="1"/>
+    <col min="9" max="16" width="4.5703125" style="2" customWidth="1"/>
+    <col min="17" max="22" width="4.5703125" style="68" customWidth="1"/>
+    <col min="23" max="23" width="4.5703125" style="2" customWidth="1"/>
+    <col min="24" max="24" width="4.5703125" style="68" customWidth="1"/>
+    <col min="25" max="28" width="4.5703125" style="2" customWidth="1"/>
+    <col min="29" max="29" width="4.5703125" style="68" customWidth="1"/>
+    <col min="30" max="30" width="4.5703125" style="2" customWidth="1"/>
+    <col min="31" max="31" width="4.5703125" style="79" customWidth="1"/>
+    <col min="32" max="32" width="4.5703125" style="121" customWidth="1"/>
+    <col min="33" max="33" width="4.5703125" style="68" customWidth="1"/>
+    <col min="34" max="35" width="4.5703125" style="2" customWidth="1"/>
+    <col min="36" max="36" width="4.5703125" style="68" customWidth="1"/>
+    <col min="37" max="37" width="4.5703125" style="2" customWidth="1"/>
+    <col min="38" max="38" width="4.5703125" style="121" customWidth="1"/>
+    <col min="39" max="40" width="4.5703125" style="2" customWidth="1"/>
+    <col min="41" max="41" width="4.5703125" style="64" customWidth="1"/>
+    <col min="42" max="42" width="4.5703125" style="79" customWidth="1"/>
+    <col min="43" max="43" width="4.5703125" style="86" customWidth="1"/>
+    <col min="44" max="44" width="4.5703125" style="2" customWidth="1"/>
+    <col min="45" max="45" width="4.5703125" style="96" customWidth="1"/>
+    <col min="46" max="46" width="4.5703125" style="100" customWidth="1"/>
+    <col min="47" max="47" width="4.5703125" style="96" customWidth="1"/>
+    <col min="48" max="74" width="4.5703125" style="109" customWidth="1"/>
+    <col min="75" max="75" width="4.5703125" style="2" customWidth="1"/>
+    <col min="76" max="80" width="4.5703125" style="79" customWidth="1"/>
+    <col min="81" max="85" width="4.5703125" style="109" customWidth="1"/>
+    <col min="86" max="86" width="4.5703125" style="79" customWidth="1"/>
+    <col min="87" max="88" width="4.5703125" style="2" customWidth="1"/>
+    <col min="89" max="89" width="4.5703125" style="100" customWidth="1"/>
+    <col min="90" max="90" width="4.5703125" style="2" customWidth="1"/>
     <col min="91" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
@@ -9591,20 +9591,20 @@
       <c r="C10" s="4"/>
       <c r="D10" s="108">
         <f>H10/$H$6*20+CL10*$CL$6</f>
-        <v>0.58823529411764708</v>
+        <v>1.3130252100840336</v>
       </c>
       <c r="E10" s="21">
         <f>G10/$H$7*20+CL10*$CL$7</f>
-        <v>0.5714285714285714</v>
+        <v>2.2142857142857144</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="87">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>7.75</v>
       </c>
       <c r="H10" s="87">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>15.625</v>
       </c>
       <c r="I10" s="110">
         <v>1</v>
@@ -9642,12 +9642,24 @@
       <c r="AF10" s="91"/>
       <c r="AG10" s="91"/>
       <c r="AH10" s="91"/>
-      <c r="AI10" s="88"/>
-      <c r="AJ10" s="90"/>
-      <c r="AK10" s="91"/>
-      <c r="AL10" s="91"/>
-      <c r="AM10" s="91"/>
-      <c r="AN10" s="91"/>
+      <c r="AI10" s="88">
+        <v>0.875</v>
+      </c>
+      <c r="AJ10" s="90">
+        <v>1</v>
+      </c>
+      <c r="AK10" s="91">
+        <v>1</v>
+      </c>
+      <c r="AL10" s="91">
+        <v>0.875</v>
+      </c>
+      <c r="AM10" s="91">
+        <v>1</v>
+      </c>
+      <c r="AN10" s="91">
+        <v>1</v>
+      </c>
       <c r="AO10" s="88"/>
       <c r="AP10" s="88"/>
       <c r="AQ10" s="88"/>
@@ -9713,20 +9725,20 @@
       <c r="C11" s="119"/>
       <c r="D11" s="108">
         <f>H11/$H$6*20+CL11*$CL$6</f>
-        <v>0.58823529411764708</v>
+        <v>1.1659663865546219</v>
       </c>
       <c r="E11" s="21">
         <f>G11/$H$7*20+CL11*$CL$7</f>
-        <v>0.5714285714285714</v>
+        <v>1.9642857142857142</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="14">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>6.875</v>
       </c>
       <c r="H11" s="14">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>13.875</v>
       </c>
       <c r="I11" s="110">
         <v>1</v>
@@ -9764,12 +9776,24 @@
       <c r="AF11" s="120"/>
       <c r="AG11" s="67"/>
       <c r="AH11" s="9"/>
-      <c r="AI11" s="13"/>
-      <c r="AJ11" s="65"/>
-      <c r="AK11" s="12"/>
-      <c r="AL11" s="120"/>
-      <c r="AM11" s="25"/>
-      <c r="AN11" s="55"/>
+      <c r="AI11" s="13">
+        <v>0.875</v>
+      </c>
+      <c r="AJ11" s="65">
+        <v>1</v>
+      </c>
+      <c r="AK11" s="12">
+        <v>1</v>
+      </c>
+      <c r="AL11" s="120">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="25">
+        <v>1</v>
+      </c>
+      <c r="AN11" s="55">
+        <v>1</v>
+      </c>
       <c r="AO11" s="63"/>
       <c r="AP11" s="80"/>
       <c r="AQ11" s="83"/>
@@ -9835,20 +9859,20 @@
       <c r="C12" s="4"/>
       <c r="D12" s="108">
         <f>H12/$H$6*20+CL12*$CL$6</f>
-        <v>0.58823529411764708</v>
+        <v>1.3235294117647058</v>
       </c>
       <c r="E12" s="21">
         <f>G12/$H$7*20+CL12*$CL$7</f>
-        <v>0.5714285714285714</v>
+        <v>2.2142857142857144</v>
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="14">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>7.75</v>
       </c>
       <c r="H12" s="14">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>15.75</v>
       </c>
       <c r="I12" s="110">
         <v>1</v>
@@ -9886,12 +9910,24 @@
       <c r="AF12" s="120"/>
       <c r="AG12" s="67"/>
       <c r="AH12" s="9"/>
-      <c r="AI12" s="80"/>
-      <c r="AJ12" s="65"/>
-      <c r="AK12" s="12"/>
-      <c r="AL12" s="120"/>
-      <c r="AM12" s="25"/>
-      <c r="AN12" s="55"/>
+      <c r="AI12" s="80">
+        <v>0.75</v>
+      </c>
+      <c r="AJ12" s="65">
+        <v>1</v>
+      </c>
+      <c r="AK12" s="12">
+        <v>1</v>
+      </c>
+      <c r="AL12" s="120">
+        <v>1</v>
+      </c>
+      <c r="AM12" s="25">
+        <v>1</v>
+      </c>
+      <c r="AN12" s="55">
+        <v>1</v>
+      </c>
       <c r="AO12" s="63"/>
       <c r="AP12" s="80"/>
       <c r="AQ12" s="83"/>
@@ -12665,7 +12701,7 @@
       </c>
       <c r="AI34" s="71">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AJ34" s="71">
         <f t="shared" ref="AJ34:CJ34" si="11">AVERAGE(AJ9:AJ32)</f>
@@ -12677,7 +12713,7 @@
       </c>
       <c r="AL34" s="121">
         <f t="shared" ref="AL34" si="12">AVERAGE(AL9:AL32)</f>
-        <v>0.5</v>
+        <v>0.59375</v>
       </c>
       <c r="AM34" s="71">
         <f t="shared" si="11"/>
@@ -13225,7 +13261,7 @@
     <row r="37" spans="1:90" x14ac:dyDescent="0.25">
       <c r="H37" s="117">
         <f>SUM(I37:CJ37)</f>
-        <v>7</v>
+        <v>15.625</v>
       </c>
       <c r="I37" s="117">
         <f t="shared" ref="I37:AZ37" si="31">I10*I$6</f>
@@ -13333,27 +13369,27 @@
       </c>
       <c r="AI37" s="117">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AJ37" s="117">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK37" s="117">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL37" s="121">
         <f t="shared" ref="AL37" si="33">AL10*AL$6</f>
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AM37" s="117">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN37" s="117">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO37" s="117">
         <f t="shared" si="31"/>
@@ -13559,7 +13595,7 @@
     <row r="38" spans="1:90" x14ac:dyDescent="0.25">
       <c r="H38" s="117">
         <f>SUM(I38:CJ38)</f>
-        <v>7</v>
+        <v>13.875</v>
       </c>
       <c r="I38" s="117">
         <f t="shared" ref="I38:AZ38" si="35">I11*I$6</f>
@@ -13667,15 +13703,15 @@
       </c>
       <c r="AI38" s="117">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AJ38" s="117">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK38" s="117">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL38" s="121">
         <f t="shared" ref="AL38" si="37">AL11*AL$6</f>
@@ -13683,11 +13719,11 @@
       </c>
       <c r="AM38" s="117">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN38" s="117">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO38" s="117">
         <f t="shared" si="35"/>
@@ -13893,7 +13929,7 @@
     <row r="39" spans="1:90" x14ac:dyDescent="0.25">
       <c r="H39" s="117">
         <f>SUM(I39:CJ39)</f>
-        <v>7</v>
+        <v>15.75</v>
       </c>
       <c r="I39" s="117">
         <f t="shared" ref="I39:AZ39" si="39">I12*I$6</f>
@@ -14001,27 +14037,27 @@
       </c>
       <c r="AI39" s="117">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AJ39" s="117">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK39" s="117">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL39" s="121">
         <f t="shared" ref="AL39" si="41">AL12*AL$6</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM39" s="117">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN39" s="117">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO39" s="117">
         <f t="shared" si="39"/>
@@ -21712,7 +21748,7 @@
     <row r="66" spans="4:90" x14ac:dyDescent="0.25">
       <c r="H66" s="117">
         <f>SUM(I66:CJ66)</f>
-        <v>2</v>
+        <v>7.75</v>
       </c>
       <c r="I66" s="117">
         <f t="shared" ref="I66:BV66" si="135">I10*I$7</f>
@@ -21820,27 +21856,27 @@
       </c>
       <c r="AI66" s="117">
         <f t="shared" si="135"/>
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AJ66" s="117">
         <f t="shared" si="135"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK66" s="117">
         <f t="shared" si="135"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL66" s="121">
         <f t="shared" ref="AL66" si="137">AL10*AL$7</f>
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AM66" s="117">
         <f t="shared" si="135"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN66" s="117">
         <f t="shared" si="135"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO66" s="117">
         <f t="shared" si="135"/>
@@ -22046,7 +22082,7 @@
     <row r="67" spans="4:90" x14ac:dyDescent="0.25">
       <c r="H67" s="117">
         <f>SUM(I67:CJ67)</f>
-        <v>2</v>
+        <v>6.875</v>
       </c>
       <c r="I67" s="117">
         <f t="shared" ref="I67:BV67" si="139">I11*I$7</f>
@@ -22154,15 +22190,15 @@
       </c>
       <c r="AI67" s="117">
         <f t="shared" si="139"/>
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AJ67" s="117">
         <f t="shared" si="139"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK67" s="117">
         <f t="shared" si="139"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL67" s="121">
         <f t="shared" ref="AL67" si="141">AL11*AL$7</f>
@@ -22170,11 +22206,11 @@
       </c>
       <c r="AM67" s="117">
         <f t="shared" si="139"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN67" s="117">
         <f t="shared" si="139"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO67" s="117">
         <f t="shared" si="139"/>
@@ -22380,7 +22416,7 @@
     <row r="68" spans="4:90" x14ac:dyDescent="0.25">
       <c r="H68" s="117">
         <f>SUM(I68:CJ68)</f>
-        <v>2</v>
+        <v>7.75</v>
       </c>
       <c r="I68" s="117">
         <f t="shared" ref="I68:BV68" si="143">I12*I$7</f>
@@ -22488,27 +22524,27 @@
       </c>
       <c r="AI68" s="117">
         <f t="shared" si="143"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AJ68" s="117">
         <f t="shared" si="143"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK68" s="117">
         <f t="shared" si="143"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL68" s="121">
         <f t="shared" ref="AL68" si="145">AL12*AL$7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM68" s="117">
         <f t="shared" si="143"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN68" s="117">
         <f t="shared" si="143"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO68" s="117">
         <f t="shared" si="143"/>

--- a/BaremeJavaBaseTest2_KL16.xlsx
+++ b/BaremeJavaBaseTest2_KL16.xlsx
@@ -23,6 +23,714 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Auteur</author>
+  </authors>
+  <commentList>
+    <comment ref="AL9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+manque contrôle contains</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AI10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+type id nok</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AN10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+pas de liste dans le toString</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AI11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+type id nok</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AN11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+pas de liste dans le toString</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AI12" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+liste non instanciée</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AK14" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+manque appel aux setters</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AL14" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+manque contrôle contains</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AJ15" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+manque collections.unmodifiable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AN15" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+pas de liste dans le toString</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AI16" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+type id nok</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AJ16" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+setId non demandé</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AL16" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+manque contrôle contains</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AN16" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+pas de liste dans le toString</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AI17" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+type id nok</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AJ17" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+setTypeRepas pas compris</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AJ18" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+setTypeRepas pas compris</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AH20" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+pas de liste dans le toString</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AN20" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+pas de liste dans le toString</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AL21" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+manque contrôle contains
+manque contrôle null</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AN21" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+pas de liste dans le toString</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AI23" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+type id nok</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AN23" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+pas de liste dans le toString</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AL24" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+manque contrôle null</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AN24" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+pas de liste dans le toString</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AI25" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+type id nok</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AL25" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+manque contrôle contains
+manque contrôle null</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AI27" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+type id nok</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AN27" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+pas de liste dans le toString</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -560,7 +1268,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -587,6 +1295,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1661,7 +2382,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="210">
+  <cellXfs count="211">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2020,6 +2741,9 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2294,7 +3018,154 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="786">
+  <dxfs count="807">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -8060,15 +8931,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CL90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2025" ySplit="3630" topLeftCell="X8" activePane="bottomRight"/>
+      <pane xSplit="2025" ySplit="3630" topLeftCell="T8" activePane="bottomRight"/>
       <selection sqref="A1:XFD1"/>
       <selection pane="topRight" activeCell="I6" sqref="I1:CL1048576"/>
-      <selection pane="bottomLeft" activeCell="A20" sqref="A20:XFD20"/>
-      <selection pane="bottomRight" activeCell="AN13" sqref="AN13"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomRight" activeCell="AK28" sqref="AK28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -8088,12 +8959,12 @@
     <col min="29" max="29" width="4.5703125" style="68" customWidth="1"/>
     <col min="30" max="30" width="4.5703125" style="2" customWidth="1"/>
     <col min="31" max="31" width="4.5703125" style="79" customWidth="1"/>
-    <col min="32" max="32" width="4.5703125" style="121" customWidth="1"/>
+    <col min="32" max="32" width="4.5703125" style="122" customWidth="1"/>
     <col min="33" max="33" width="4.5703125" style="68" customWidth="1"/>
     <col min="34" max="35" width="4.5703125" style="2" customWidth="1"/>
     <col min="36" max="36" width="4.5703125" style="68" customWidth="1"/>
     <col min="37" max="37" width="4.5703125" style="2" customWidth="1"/>
-    <col min="38" max="38" width="4.5703125" style="121" customWidth="1"/>
+    <col min="38" max="38" width="4.5703125" style="122" customWidth="1"/>
     <col min="39" max="40" width="4.5703125" style="2" customWidth="1"/>
     <col min="41" max="41" width="4.5703125" style="64" customWidth="1"/>
     <col min="42" max="42" width="4.5703125" style="79" customWidth="1"/>
@@ -8117,95 +8988,95 @@
       <c r="D1" s="18"/>
       <c r="E1" s="18"/>
       <c r="F1" s="18"/>
-      <c r="I1" s="126" t="s">
+      <c r="I1" s="127" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="126"/>
-      <c r="K1" s="126"/>
-      <c r="L1" s="126"/>
-      <c r="M1" s="126"/>
-      <c r="N1" s="126"/>
-      <c r="O1" s="126"/>
-      <c r="P1" s="126"/>
-      <c r="Q1" s="137" t="s">
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="127"/>
+      <c r="N1" s="127"/>
+      <c r="O1" s="127"/>
+      <c r="P1" s="127"/>
+      <c r="Q1" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="137"/>
-      <c r="S1" s="137"/>
-      <c r="T1" s="137"/>
-      <c r="U1" s="137"/>
-      <c r="V1" s="137"/>
-      <c r="W1" s="128" t="s">
+      <c r="R1" s="138"/>
+      <c r="S1" s="138"/>
+      <c r="T1" s="138"/>
+      <c r="U1" s="138"/>
+      <c r="V1" s="138"/>
+      <c r="W1" s="129" t="s">
         <v>105</v>
       </c>
-      <c r="X1" s="128"/>
-      <c r="Y1" s="128"/>
-      <c r="Z1" s="128"/>
-      <c r="AA1" s="128"/>
-      <c r="AB1" s="128"/>
-      <c r="AC1" s="128"/>
-      <c r="AD1" s="128"/>
-      <c r="AE1" s="128"/>
-      <c r="AF1" s="128"/>
-      <c r="AG1" s="128"/>
-      <c r="AH1" s="128"/>
-      <c r="AI1" s="128"/>
-      <c r="AJ1" s="128"/>
-      <c r="AK1" s="128"/>
-      <c r="AL1" s="128"/>
-      <c r="AM1" s="128"/>
-      <c r="AN1" s="128"/>
-      <c r="AO1" s="128"/>
-      <c r="AP1" s="128"/>
-      <c r="AQ1" s="128"/>
-      <c r="AR1" s="128"/>
-      <c r="AS1" s="128"/>
-      <c r="AT1" s="128"/>
-      <c r="AU1" s="128"/>
-      <c r="AV1" s="128"/>
-      <c r="AW1" s="128"/>
-      <c r="AX1" s="128"/>
-      <c r="AY1" s="128"/>
-      <c r="AZ1" s="128"/>
-      <c r="BA1" s="128"/>
-      <c r="BB1" s="128"/>
-      <c r="BC1" s="128"/>
-      <c r="BD1" s="128"/>
-      <c r="BE1" s="128"/>
-      <c r="BF1" s="128"/>
-      <c r="BG1" s="128"/>
-      <c r="BH1" s="128"/>
-      <c r="BI1" s="128"/>
-      <c r="BJ1" s="128"/>
-      <c r="BK1" s="128"/>
-      <c r="BL1" s="128"/>
-      <c r="BM1" s="128"/>
-      <c r="BN1" s="128"/>
-      <c r="BO1" s="128"/>
-      <c r="BP1" s="128"/>
-      <c r="BQ1" s="128" t="s">
+      <c r="X1" s="129"/>
+      <c r="Y1" s="129"/>
+      <c r="Z1" s="129"/>
+      <c r="AA1" s="129"/>
+      <c r="AB1" s="129"/>
+      <c r="AC1" s="129"/>
+      <c r="AD1" s="129"/>
+      <c r="AE1" s="129"/>
+      <c r="AF1" s="129"/>
+      <c r="AG1" s="129"/>
+      <c r="AH1" s="129"/>
+      <c r="AI1" s="129"/>
+      <c r="AJ1" s="129"/>
+      <c r="AK1" s="129"/>
+      <c r="AL1" s="129"/>
+      <c r="AM1" s="129"/>
+      <c r="AN1" s="129"/>
+      <c r="AO1" s="129"/>
+      <c r="AP1" s="129"/>
+      <c r="AQ1" s="129"/>
+      <c r="AR1" s="129"/>
+      <c r="AS1" s="129"/>
+      <c r="AT1" s="129"/>
+      <c r="AU1" s="129"/>
+      <c r="AV1" s="129"/>
+      <c r="AW1" s="129"/>
+      <c r="AX1" s="129"/>
+      <c r="AY1" s="129"/>
+      <c r="AZ1" s="129"/>
+      <c r="BA1" s="129"/>
+      <c r="BB1" s="129"/>
+      <c r="BC1" s="129"/>
+      <c r="BD1" s="129"/>
+      <c r="BE1" s="129"/>
+      <c r="BF1" s="129"/>
+      <c r="BG1" s="129"/>
+      <c r="BH1" s="129"/>
+      <c r="BI1" s="129"/>
+      <c r="BJ1" s="129"/>
+      <c r="BK1" s="129"/>
+      <c r="BL1" s="129"/>
+      <c r="BM1" s="129"/>
+      <c r="BN1" s="129"/>
+      <c r="BO1" s="129"/>
+      <c r="BP1" s="129"/>
+      <c r="BQ1" s="129" t="s">
         <v>104</v>
       </c>
-      <c r="BR1" s="128"/>
-      <c r="BS1" s="128"/>
-      <c r="BT1" s="128"/>
-      <c r="BU1" s="128"/>
-      <c r="BV1" s="128"/>
-      <c r="BW1" s="128" t="s">
+      <c r="BR1" s="129"/>
+      <c r="BS1" s="129"/>
+      <c r="BT1" s="129"/>
+      <c r="BU1" s="129"/>
+      <c r="BV1" s="129"/>
+      <c r="BW1" s="129" t="s">
         <v>106</v>
       </c>
-      <c r="BX1" s="128"/>
-      <c r="BY1" s="128"/>
-      <c r="BZ1" s="128"/>
-      <c r="CA1" s="128"/>
-      <c r="CB1" s="128"/>
-      <c r="CC1" s="128"/>
-      <c r="CD1" s="128"/>
-      <c r="CE1" s="128"/>
-      <c r="CF1" s="128"/>
-      <c r="CG1" s="128"/>
-      <c r="CH1" s="128"/>
-      <c r="CI1" s="128"/>
+      <c r="BX1" s="129"/>
+      <c r="BY1" s="129"/>
+      <c r="BZ1" s="129"/>
+      <c r="CA1" s="129"/>
+      <c r="CB1" s="129"/>
+      <c r="CC1" s="129"/>
+      <c r="CD1" s="129"/>
+      <c r="CE1" s="129"/>
+      <c r="CF1" s="129"/>
+      <c r="CG1" s="129"/>
+      <c r="CH1" s="129"/>
+      <c r="CI1" s="129"/>
       <c r="CJ1" s="115"/>
     </row>
     <row r="2" spans="1:90" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8217,112 +9088,112 @@
       <c r="F2" s="58"/>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="127"/>
-      <c r="L2" s="127"/>
-      <c r="M2" s="127"/>
-      <c r="N2" s="127"/>
-      <c r="O2" s="127"/>
-      <c r="P2" s="127"/>
-      <c r="Q2" s="126"/>
-      <c r="R2" s="126"/>
-      <c r="S2" s="126"/>
-      <c r="T2" s="126"/>
-      <c r="U2" s="126"/>
-      <c r="V2" s="126"/>
-      <c r="W2" s="131" t="s">
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="128"/>
+      <c r="M2" s="128"/>
+      <c r="N2" s="128"/>
+      <c r="O2" s="128"/>
+      <c r="P2" s="128"/>
+      <c r="Q2" s="127"/>
+      <c r="R2" s="127"/>
+      <c r="S2" s="127"/>
+      <c r="T2" s="127"/>
+      <c r="U2" s="127"/>
+      <c r="V2" s="127"/>
+      <c r="W2" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="X2" s="183"/>
-      <c r="Y2" s="133"/>
-      <c r="Z2" s="133"/>
-      <c r="AA2" s="133"/>
-      <c r="AB2" s="133"/>
-      <c r="AC2" s="133"/>
-      <c r="AD2" s="133"/>
-      <c r="AE2" s="133"/>
-      <c r="AF2" s="133"/>
-      <c r="AG2" s="133"/>
-      <c r="AH2" s="133"/>
-      <c r="AI2" s="133"/>
-      <c r="AJ2" s="133"/>
-      <c r="AK2" s="133"/>
-      <c r="AL2" s="133"/>
-      <c r="AM2" s="133"/>
-      <c r="AN2" s="135"/>
-      <c r="AO2" s="129" t="s">
+      <c r="X2" s="184"/>
+      <c r="Y2" s="134"/>
+      <c r="Z2" s="134"/>
+      <c r="AA2" s="134"/>
+      <c r="AB2" s="134"/>
+      <c r="AC2" s="134"/>
+      <c r="AD2" s="134"/>
+      <c r="AE2" s="134"/>
+      <c r="AF2" s="134"/>
+      <c r="AG2" s="134"/>
+      <c r="AH2" s="134"/>
+      <c r="AI2" s="134"/>
+      <c r="AJ2" s="134"/>
+      <c r="AK2" s="134"/>
+      <c r="AL2" s="134"/>
+      <c r="AM2" s="134"/>
+      <c r="AN2" s="136"/>
+      <c r="AO2" s="130" t="s">
         <v>12</v>
       </c>
-      <c r="AP2" s="127"/>
-      <c r="AQ2" s="127"/>
-      <c r="AR2" s="130"/>
-      <c r="AS2" s="172" t="s">
+      <c r="AP2" s="128"/>
+      <c r="AQ2" s="128"/>
+      <c r="AR2" s="131"/>
+      <c r="AS2" s="173" t="s">
         <v>6</v>
       </c>
-      <c r="AT2" s="127"/>
-      <c r="AU2" s="127"/>
-      <c r="AV2" s="145" t="s">
+      <c r="AT2" s="128"/>
+      <c r="AU2" s="128"/>
+      <c r="AV2" s="146" t="s">
         <v>103</v>
       </c>
-      <c r="AW2" s="126"/>
-      <c r="AX2" s="126"/>
-      <c r="AY2" s="126"/>
-      <c r="AZ2" s="126"/>
-      <c r="BA2" s="126"/>
-      <c r="BB2" s="126"/>
-      <c r="BC2" s="126"/>
-      <c r="BD2" s="126"/>
-      <c r="BE2" s="126"/>
-      <c r="BF2" s="126"/>
-      <c r="BG2" s="146"/>
-      <c r="BH2" s="145" t="s">
+      <c r="AW2" s="127"/>
+      <c r="AX2" s="127"/>
+      <c r="AY2" s="127"/>
+      <c r="AZ2" s="127"/>
+      <c r="BA2" s="127"/>
+      <c r="BB2" s="127"/>
+      <c r="BC2" s="127"/>
+      <c r="BD2" s="127"/>
+      <c r="BE2" s="127"/>
+      <c r="BF2" s="127"/>
+      <c r="BG2" s="147"/>
+      <c r="BH2" s="146" t="s">
         <v>107</v>
       </c>
-      <c r="BI2" s="126"/>
-      <c r="BJ2" s="126"/>
-      <c r="BK2" s="126"/>
-      <c r="BL2" s="126"/>
-      <c r="BM2" s="126"/>
-      <c r="BN2" s="126"/>
-      <c r="BO2" s="126"/>
-      <c r="BP2" s="146"/>
-      <c r="BQ2" s="131" t="s">
+      <c r="BI2" s="127"/>
+      <c r="BJ2" s="127"/>
+      <c r="BK2" s="127"/>
+      <c r="BL2" s="127"/>
+      <c r="BM2" s="127"/>
+      <c r="BN2" s="127"/>
+      <c r="BO2" s="127"/>
+      <c r="BP2" s="147"/>
+      <c r="BQ2" s="132" t="s">
         <v>108</v>
       </c>
-      <c r="BR2" s="133" t="s">
+      <c r="BR2" s="134" t="s">
         <v>109</v>
       </c>
-      <c r="BS2" s="133"/>
-      <c r="BT2" s="133" t="s">
+      <c r="BS2" s="134"/>
+      <c r="BT2" s="134" t="s">
         <v>110</v>
       </c>
-      <c r="BU2" s="133" t="s">
+      <c r="BU2" s="134" t="s">
         <v>111</v>
       </c>
-      <c r="BV2" s="135"/>
-      <c r="BW2" s="145" t="s">
+      <c r="BV2" s="136"/>
+      <c r="BW2" s="146" t="s">
         <v>112</v>
       </c>
-      <c r="BX2" s="126"/>
-      <c r="BY2" s="126"/>
-      <c r="BZ2" s="126"/>
-      <c r="CA2" s="126"/>
-      <c r="CB2" s="126"/>
-      <c r="CC2" s="126"/>
-      <c r="CD2" s="126"/>
-      <c r="CE2" s="126"/>
-      <c r="CF2" s="126"/>
-      <c r="CG2" s="126"/>
-      <c r="CH2" s="126"/>
-      <c r="CI2" s="146"/>
+      <c r="BX2" s="127"/>
+      <c r="BY2" s="127"/>
+      <c r="BZ2" s="127"/>
+      <c r="CA2" s="127"/>
+      <c r="CB2" s="127"/>
+      <c r="CC2" s="127"/>
+      <c r="CD2" s="127"/>
+      <c r="CE2" s="127"/>
+      <c r="CF2" s="127"/>
+      <c r="CG2" s="127"/>
+      <c r="CH2" s="127"/>
+      <c r="CI2" s="147"/>
       <c r="CJ2" s="114" t="s">
         <v>13</v>
       </c>
-      <c r="CK2" s="168" t="s">
+      <c r="CK2" s="169" t="s">
         <v>100</v>
       </c>
-      <c r="CL2" s="168" t="s">
+      <c r="CL2" s="169" t="s">
         <v>102</v>
       </c>
     </row>
@@ -8335,128 +9206,128 @@
       <c r="F3" s="58"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
-      <c r="I3" s="179" t="s">
+      <c r="I3" s="180" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="158" t="s">
+      <c r="J3" s="159" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="158" t="s">
+      <c r="K3" s="159" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="179" t="s">
+      <c r="L3" s="180" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="179" t="s">
+      <c r="M3" s="180" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="158" t="s">
+      <c r="N3" s="159" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="176" t="s">
+      <c r="O3" s="177" t="s">
         <v>72</v>
       </c>
-      <c r="P3" s="158" t="s">
+      <c r="P3" s="159" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="126"/>
-      <c r="R3" s="126"/>
-      <c r="S3" s="126"/>
-      <c r="T3" s="126"/>
-      <c r="U3" s="126"/>
-      <c r="V3" s="126"/>
-      <c r="W3" s="166" t="s">
+      <c r="Q3" s="127"/>
+      <c r="R3" s="127"/>
+      <c r="S3" s="127"/>
+      <c r="T3" s="127"/>
+      <c r="U3" s="127"/>
+      <c r="V3" s="127"/>
+      <c r="W3" s="167" t="s">
         <v>92</v>
       </c>
-      <c r="X3" s="139"/>
-      <c r="Y3" s="139"/>
-      <c r="Z3" s="139"/>
-      <c r="AA3" s="139"/>
-      <c r="AB3" s="173" t="s">
+      <c r="X3" s="140"/>
+      <c r="Y3" s="140"/>
+      <c r="Z3" s="140"/>
+      <c r="AA3" s="140"/>
+      <c r="AB3" s="174" t="s">
         <v>114</v>
       </c>
-      <c r="AC3" s="152"/>
-      <c r="AD3" s="148"/>
-      <c r="AE3" s="148"/>
-      <c r="AF3" s="148"/>
-      <c r="AG3" s="148"/>
-      <c r="AH3" s="148"/>
-      <c r="AI3" s="186" t="s">
+      <c r="AC3" s="153"/>
+      <c r="AD3" s="149"/>
+      <c r="AE3" s="149"/>
+      <c r="AF3" s="149"/>
+      <c r="AG3" s="149"/>
+      <c r="AH3" s="149"/>
+      <c r="AI3" s="187" t="s">
         <v>115</v>
       </c>
-      <c r="AJ3" s="139"/>
-      <c r="AK3" s="139"/>
-      <c r="AL3" s="139"/>
-      <c r="AM3" s="139"/>
-      <c r="AN3" s="140"/>
-      <c r="AO3" s="166" t="s">
+      <c r="AJ3" s="140"/>
+      <c r="AK3" s="140"/>
+      <c r="AL3" s="140"/>
+      <c r="AM3" s="140"/>
+      <c r="AN3" s="141"/>
+      <c r="AO3" s="167" t="s">
         <v>5</v>
       </c>
-      <c r="AP3" s="139"/>
-      <c r="AQ3" s="139"/>
-      <c r="AR3" s="173" t="s">
+      <c r="AP3" s="140"/>
+      <c r="AQ3" s="140"/>
+      <c r="AR3" s="174" t="s">
         <v>22</v>
       </c>
-      <c r="AS3" s="158" t="s">
+      <c r="AS3" s="159" t="s">
         <v>7</v>
       </c>
-      <c r="AT3" s="137"/>
-      <c r="AU3" s="137"/>
-      <c r="AV3" s="153" t="s">
+      <c r="AT3" s="138"/>
+      <c r="AU3" s="138"/>
+      <c r="AV3" s="154" t="s">
         <v>135</v>
       </c>
-      <c r="AW3" s="155" t="s">
+      <c r="AW3" s="156" t="s">
         <v>8</v>
       </c>
-      <c r="AX3" s="138" t="s">
+      <c r="AX3" s="139" t="s">
         <v>123</v>
       </c>
-      <c r="AY3" s="139"/>
-      <c r="AZ3" s="139"/>
-      <c r="BA3" s="139"/>
-      <c r="BB3" s="152"/>
-      <c r="BC3" s="138" t="s">
+      <c r="AY3" s="140"/>
+      <c r="AZ3" s="140"/>
+      <c r="BA3" s="140"/>
+      <c r="BB3" s="153"/>
+      <c r="BC3" s="139" t="s">
         <v>125</v>
       </c>
-      <c r="BD3" s="139"/>
-      <c r="BE3" s="139"/>
-      <c r="BF3" s="139"/>
-      <c r="BG3" s="140"/>
-      <c r="BH3" s="147" t="s">
+      <c r="BD3" s="140"/>
+      <c r="BE3" s="140"/>
+      <c r="BF3" s="140"/>
+      <c r="BG3" s="141"/>
+      <c r="BH3" s="148" t="s">
         <v>71</v>
       </c>
-      <c r="BI3" s="148"/>
-      <c r="BJ3" s="148"/>
-      <c r="BK3" s="148"/>
-      <c r="BL3" s="148"/>
-      <c r="BM3" s="148"/>
-      <c r="BN3" s="148"/>
-      <c r="BO3" s="138"/>
-      <c r="BP3" s="149"/>
-      <c r="BQ3" s="132"/>
-      <c r="BR3" s="134"/>
-      <c r="BS3" s="134"/>
-      <c r="BT3" s="134"/>
-      <c r="BU3" s="134"/>
-      <c r="BV3" s="136"/>
-      <c r="BW3" s="147" t="s">
+      <c r="BI3" s="149"/>
+      <c r="BJ3" s="149"/>
+      <c r="BK3" s="149"/>
+      <c r="BL3" s="149"/>
+      <c r="BM3" s="149"/>
+      <c r="BN3" s="149"/>
+      <c r="BO3" s="139"/>
+      <c r="BP3" s="150"/>
+      <c r="BQ3" s="133"/>
+      <c r="BR3" s="135"/>
+      <c r="BS3" s="135"/>
+      <c r="BT3" s="135"/>
+      <c r="BU3" s="135"/>
+      <c r="BV3" s="137"/>
+      <c r="BW3" s="148" t="s">
         <v>113</v>
       </c>
-      <c r="BX3" s="148"/>
-      <c r="BY3" s="148"/>
-      <c r="BZ3" s="148"/>
-      <c r="CA3" s="148"/>
-      <c r="CB3" s="148"/>
-      <c r="CC3" s="148"/>
-      <c r="CD3" s="148"/>
-      <c r="CE3" s="148"/>
-      <c r="CF3" s="148"/>
-      <c r="CG3" s="148"/>
-      <c r="CH3" s="148"/>
-      <c r="CI3" s="149"/>
-      <c r="CJ3" s="169"/>
-      <c r="CK3" s="168"/>
-      <c r="CL3" s="168"/>
+      <c r="BX3" s="149"/>
+      <c r="BY3" s="149"/>
+      <c r="BZ3" s="149"/>
+      <c r="CA3" s="149"/>
+      <c r="CB3" s="149"/>
+      <c r="CC3" s="149"/>
+      <c r="CD3" s="149"/>
+      <c r="CE3" s="149"/>
+      <c r="CF3" s="149"/>
+      <c r="CG3" s="149"/>
+      <c r="CH3" s="149"/>
+      <c r="CI3" s="150"/>
+      <c r="CJ3" s="170"/>
+      <c r="CK3" s="169"/>
+      <c r="CL3" s="169"/>
     </row>
     <row r="4" spans="1:90" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -8485,15 +9356,15 @@
         <f>CONCATENATE("Note/",H6)</f>
         <v>Note/238</v>
       </c>
-      <c r="I4" s="180"/>
-      <c r="J4" s="157"/>
-      <c r="K4" s="157"/>
-      <c r="L4" s="180"/>
-      <c r="M4" s="180"/>
-      <c r="N4" s="157"/>
-      <c r="O4" s="177"/>
-      <c r="P4" s="157"/>
-      <c r="Q4" s="160" t="s">
+      <c r="I4" s="181"/>
+      <c r="J4" s="158"/>
+      <c r="K4" s="158"/>
+      <c r="L4" s="181"/>
+      <c r="M4" s="181"/>
+      <c r="N4" s="158"/>
+      <c r="O4" s="178"/>
+      <c r="P4" s="158"/>
+      <c r="Q4" s="161" t="s">
         <v>140</v>
       </c>
       <c r="R4" s="81" t="s">
@@ -8511,190 +9382,190 @@
       <c r="V4" s="78" t="s">
         <v>91</v>
       </c>
-      <c r="W4" s="184" t="s">
+      <c r="W4" s="185" t="s">
         <v>52</v>
       </c>
-      <c r="X4" s="164" t="s">
+      <c r="X4" s="165" t="s">
         <v>10</v>
       </c>
-      <c r="Y4" s="141" t="s">
+      <c r="Y4" s="142" t="s">
         <v>11</v>
       </c>
-      <c r="Z4" s="159" t="s">
+      <c r="Z4" s="160" t="s">
         <v>70</v>
       </c>
-      <c r="AA4" s="141" t="s">
+      <c r="AA4" s="142" t="s">
         <v>73</v>
       </c>
-      <c r="AB4" s="162" t="s">
+      <c r="AB4" s="163" t="s">
         <v>52</v>
       </c>
-      <c r="AC4" s="164" t="s">
+      <c r="AC4" s="165" t="s">
         <v>10</v>
       </c>
-      <c r="AD4" s="164" t="s">
+      <c r="AD4" s="165" t="s">
         <v>11</v>
       </c>
-      <c r="AE4" s="159" t="s">
+      <c r="AE4" s="160" t="s">
         <v>173</v>
       </c>
-      <c r="AF4" s="159" t="s">
+      <c r="AF4" s="160" t="s">
         <v>174</v>
       </c>
-      <c r="AG4" s="159" t="s">
+      <c r="AG4" s="160" t="s">
         <v>70</v>
       </c>
-      <c r="AH4" s="141" t="s">
+      <c r="AH4" s="142" t="s">
         <v>73</v>
       </c>
-      <c r="AI4" s="162" t="s">
+      <c r="AI4" s="163" t="s">
         <v>52</v>
       </c>
-      <c r="AJ4" s="164" t="s">
+      <c r="AJ4" s="165" t="s">
         <v>10</v>
       </c>
-      <c r="AK4" s="164" t="s">
+      <c r="AK4" s="165" t="s">
         <v>11</v>
       </c>
-      <c r="AL4" s="159" t="s">
+      <c r="AL4" s="160" t="s">
         <v>174</v>
       </c>
-      <c r="AM4" s="159" t="s">
+      <c r="AM4" s="160" t="s">
         <v>70</v>
       </c>
-      <c r="AN4" s="150" t="s">
+      <c r="AN4" s="151" t="s">
         <v>73</v>
       </c>
-      <c r="AO4" s="143" t="s">
+      <c r="AO4" s="144" t="s">
         <v>116</v>
       </c>
-      <c r="AP4" s="124" t="s">
+      <c r="AP4" s="125" t="s">
         <v>117</v>
       </c>
-      <c r="AQ4" s="125"/>
-      <c r="AR4" s="174"/>
-      <c r="AS4" s="157"/>
-      <c r="AT4" s="126"/>
-      <c r="AU4" s="126"/>
-      <c r="AV4" s="131"/>
-      <c r="AW4" s="133"/>
-      <c r="AX4" s="141" t="s">
+      <c r="AQ4" s="126"/>
+      <c r="AR4" s="175"/>
+      <c r="AS4" s="158"/>
+      <c r="AT4" s="127"/>
+      <c r="AU4" s="127"/>
+      <c r="AV4" s="132"/>
+      <c r="AW4" s="134"/>
+      <c r="AX4" s="142" t="s">
         <v>96</v>
       </c>
-      <c r="AY4" s="141" t="s">
+      <c r="AY4" s="142" t="s">
         <v>121</v>
       </c>
-      <c r="AZ4" s="141" t="s">
+      <c r="AZ4" s="142" t="s">
         <v>124</v>
       </c>
-      <c r="BA4" s="141" t="s">
+      <c r="BA4" s="142" t="s">
         <v>126</v>
       </c>
-      <c r="BB4" s="141" t="s">
+      <c r="BB4" s="142" t="s">
         <v>122</v>
       </c>
-      <c r="BC4" s="141" t="s">
+      <c r="BC4" s="142" t="s">
         <v>96</v>
       </c>
-      <c r="BD4" s="141" t="s">
+      <c r="BD4" s="142" t="s">
         <v>121</v>
       </c>
-      <c r="BE4" s="141" t="s">
+      <c r="BE4" s="142" t="s">
         <v>124</v>
       </c>
-      <c r="BF4" s="141" t="s">
+      <c r="BF4" s="142" t="s">
         <v>126</v>
       </c>
-      <c r="BG4" s="141" t="s">
+      <c r="BG4" s="142" t="s">
         <v>122</v>
       </c>
-      <c r="BH4" s="143" t="s">
+      <c r="BH4" s="144" t="s">
         <v>127</v>
       </c>
-      <c r="BI4" s="141" t="s">
+      <c r="BI4" s="142" t="s">
         <v>134</v>
       </c>
-      <c r="BJ4" s="141" t="s">
+      <c r="BJ4" s="142" t="s">
         <v>128</v>
       </c>
-      <c r="BK4" s="141" t="s">
+      <c r="BK4" s="142" t="s">
         <v>129</v>
       </c>
-      <c r="BL4" s="141" t="s">
+      <c r="BL4" s="142" t="s">
         <v>130</v>
       </c>
-      <c r="BM4" s="141" t="s">
+      <c r="BM4" s="142" t="s">
         <v>131</v>
       </c>
-      <c r="BN4" s="141" t="s">
+      <c r="BN4" s="142" t="s">
         <v>132</v>
       </c>
-      <c r="BO4" s="141" t="s">
+      <c r="BO4" s="142" t="s">
         <v>118</v>
       </c>
-      <c r="BP4" s="150" t="s">
+      <c r="BP4" s="151" t="s">
         <v>133</v>
       </c>
-      <c r="BQ4" s="143" t="s">
+      <c r="BQ4" s="144" t="s">
         <v>96</v>
       </c>
-      <c r="BR4" s="141" t="s">
+      <c r="BR4" s="142" t="s">
         <v>97</v>
       </c>
-      <c r="BS4" s="141" t="s">
+      <c r="BS4" s="142" t="s">
         <v>98</v>
       </c>
-      <c r="BT4" s="141" t="s">
+      <c r="BT4" s="142" t="s">
         <v>94</v>
       </c>
-      <c r="BU4" s="141" t="s">
+      <c r="BU4" s="142" t="s">
         <v>99</v>
       </c>
-      <c r="BV4" s="141" t="s">
+      <c r="BV4" s="142" t="s">
         <v>95</v>
       </c>
-      <c r="BW4" s="143" t="s">
+      <c r="BW4" s="144" t="s">
         <v>141</v>
       </c>
-      <c r="BX4" s="141" t="s">
+      <c r="BX4" s="142" t="s">
         <v>142</v>
       </c>
-      <c r="BY4" s="141" t="s">
+      <c r="BY4" s="142" t="s">
         <v>143</v>
       </c>
-      <c r="BZ4" s="141" t="s">
+      <c r="BZ4" s="142" t="s">
         <v>144</v>
       </c>
-      <c r="CA4" s="141" t="s">
+      <c r="CA4" s="142" t="s">
         <v>145</v>
       </c>
-      <c r="CB4" s="141" t="s">
+      <c r="CB4" s="142" t="s">
         <v>146</v>
       </c>
-      <c r="CC4" s="141" t="s">
+      <c r="CC4" s="142" t="s">
         <v>147</v>
       </c>
-      <c r="CD4" s="141" t="s">
+      <c r="CD4" s="142" t="s">
         <v>137</v>
       </c>
-      <c r="CE4" s="141" t="s">
+      <c r="CE4" s="142" t="s">
         <v>148</v>
       </c>
-      <c r="CF4" s="141" t="s">
+      <c r="CF4" s="142" t="s">
         <v>149</v>
       </c>
-      <c r="CG4" s="141" t="s">
+      <c r="CG4" s="142" t="s">
         <v>150</v>
       </c>
-      <c r="CH4" s="141" t="s">
+      <c r="CH4" s="142" t="s">
         <v>151</v>
       </c>
-      <c r="CI4" s="150" t="s">
+      <c r="CI4" s="151" t="s">
         <v>152</v>
       </c>
-      <c r="CJ4" s="170"/>
-      <c r="CK4" s="168"/>
-      <c r="CL4" s="168"/>
+      <c r="CJ4" s="171"/>
+      <c r="CK4" s="169"/>
+      <c r="CL4" s="169"/>
     </row>
     <row r="5" spans="1:90" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
@@ -8705,15 +9576,15 @@
       <c r="F5" s="17"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
-      <c r="I5" s="181"/>
-      <c r="J5" s="182"/>
-      <c r="K5" s="182"/>
-      <c r="L5" s="181"/>
-      <c r="M5" s="181"/>
-      <c r="N5" s="182"/>
-      <c r="O5" s="178"/>
-      <c r="P5" s="172"/>
-      <c r="Q5" s="161"/>
+      <c r="I5" s="182"/>
+      <c r="J5" s="183"/>
+      <c r="K5" s="183"/>
+      <c r="L5" s="182"/>
+      <c r="M5" s="182"/>
+      <c r="N5" s="183"/>
+      <c r="O5" s="179"/>
+      <c r="P5" s="173"/>
+      <c r="Q5" s="162"/>
       <c r="R5" s="93" t="s">
         <v>136</v>
       </c>
@@ -8729,32 +9600,32 @@
       <c r="V5" s="92" t="s">
         <v>139</v>
       </c>
-      <c r="W5" s="185"/>
-      <c r="X5" s="165"/>
-      <c r="Y5" s="142"/>
-      <c r="Z5" s="156"/>
-      <c r="AA5" s="142"/>
-      <c r="AB5" s="163"/>
-      <c r="AC5" s="165"/>
-      <c r="AD5" s="165"/>
-      <c r="AE5" s="156"/>
-      <c r="AF5" s="156"/>
-      <c r="AG5" s="156"/>
-      <c r="AH5" s="142"/>
-      <c r="AI5" s="163"/>
-      <c r="AJ5" s="165"/>
-      <c r="AK5" s="165"/>
-      <c r="AL5" s="156"/>
-      <c r="AM5" s="156"/>
-      <c r="AN5" s="151"/>
-      <c r="AO5" s="144"/>
+      <c r="W5" s="186"/>
+      <c r="X5" s="166"/>
+      <c r="Y5" s="143"/>
+      <c r="Z5" s="157"/>
+      <c r="AA5" s="143"/>
+      <c r="AB5" s="164"/>
+      <c r="AC5" s="166"/>
+      <c r="AD5" s="166"/>
+      <c r="AE5" s="157"/>
+      <c r="AF5" s="157"/>
+      <c r="AG5" s="157"/>
+      <c r="AH5" s="143"/>
+      <c r="AI5" s="164"/>
+      <c r="AJ5" s="166"/>
+      <c r="AK5" s="166"/>
+      <c r="AL5" s="157"/>
+      <c r="AM5" s="157"/>
+      <c r="AN5" s="152"/>
+      <c r="AO5" s="145"/>
       <c r="AP5" s="94" t="s">
         <v>93</v>
       </c>
       <c r="AQ5" s="94" t="s">
         <v>118</v>
       </c>
-      <c r="AR5" s="175"/>
+      <c r="AR5" s="176"/>
       <c r="AS5" s="102" t="s">
         <v>101</v>
       </c>
@@ -8764,49 +9635,49 @@
       <c r="AU5" s="103" t="s">
         <v>120</v>
       </c>
-      <c r="AV5" s="154"/>
-      <c r="AW5" s="156"/>
-      <c r="AX5" s="142"/>
-      <c r="AY5" s="142"/>
-      <c r="AZ5" s="142"/>
-      <c r="BA5" s="142"/>
-      <c r="BB5" s="142"/>
-      <c r="BC5" s="142"/>
-      <c r="BD5" s="142"/>
-      <c r="BE5" s="142"/>
-      <c r="BF5" s="142"/>
-      <c r="BG5" s="142"/>
-      <c r="BH5" s="144"/>
-      <c r="BI5" s="142"/>
-      <c r="BJ5" s="142"/>
-      <c r="BK5" s="142"/>
-      <c r="BL5" s="142"/>
-      <c r="BM5" s="142"/>
-      <c r="BN5" s="142"/>
-      <c r="BO5" s="142"/>
-      <c r="BP5" s="151"/>
-      <c r="BQ5" s="144"/>
-      <c r="BR5" s="142"/>
-      <c r="BS5" s="142"/>
-      <c r="BT5" s="142"/>
-      <c r="BU5" s="142"/>
-      <c r="BV5" s="142"/>
-      <c r="BW5" s="144"/>
-      <c r="BX5" s="142"/>
-      <c r="BY5" s="142"/>
-      <c r="BZ5" s="142"/>
-      <c r="CA5" s="142"/>
-      <c r="CB5" s="142"/>
-      <c r="CC5" s="142"/>
-      <c r="CD5" s="142"/>
-      <c r="CE5" s="142"/>
-      <c r="CF5" s="142"/>
-      <c r="CG5" s="142"/>
-      <c r="CH5" s="142"/>
-      <c r="CI5" s="151"/>
-      <c r="CJ5" s="171"/>
-      <c r="CK5" s="168"/>
-      <c r="CL5" s="168"/>
+      <c r="AV5" s="155"/>
+      <c r="AW5" s="157"/>
+      <c r="AX5" s="143"/>
+      <c r="AY5" s="143"/>
+      <c r="AZ5" s="143"/>
+      <c r="BA5" s="143"/>
+      <c r="BB5" s="143"/>
+      <c r="BC5" s="143"/>
+      <c r="BD5" s="143"/>
+      <c r="BE5" s="143"/>
+      <c r="BF5" s="143"/>
+      <c r="BG5" s="143"/>
+      <c r="BH5" s="145"/>
+      <c r="BI5" s="143"/>
+      <c r="BJ5" s="143"/>
+      <c r="BK5" s="143"/>
+      <c r="BL5" s="143"/>
+      <c r="BM5" s="143"/>
+      <c r="BN5" s="143"/>
+      <c r="BO5" s="143"/>
+      <c r="BP5" s="152"/>
+      <c r="BQ5" s="145"/>
+      <c r="BR5" s="143"/>
+      <c r="BS5" s="143"/>
+      <c r="BT5" s="143"/>
+      <c r="BU5" s="143"/>
+      <c r="BV5" s="143"/>
+      <c r="BW5" s="145"/>
+      <c r="BX5" s="143"/>
+      <c r="BY5" s="143"/>
+      <c r="BZ5" s="143"/>
+      <c r="CA5" s="143"/>
+      <c r="CB5" s="143"/>
+      <c r="CC5" s="143"/>
+      <c r="CD5" s="143"/>
+      <c r="CE5" s="143"/>
+      <c r="CF5" s="143"/>
+      <c r="CG5" s="143"/>
+      <c r="CH5" s="143"/>
+      <c r="CI5" s="152"/>
+      <c r="CJ5" s="172"/>
+      <c r="CK5" s="169"/>
+      <c r="CL5" s="169"/>
     </row>
     <row r="6" spans="1:90" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -8889,7 +9760,7 @@
       <c r="AE6" s="77">
         <v>4</v>
       </c>
-      <c r="AF6" s="122">
+      <c r="AF6" s="123">
         <v>2</v>
       </c>
       <c r="AG6" s="77">
@@ -8907,7 +9778,7 @@
       <c r="AK6" s="77">
         <v>2</v>
       </c>
-      <c r="AL6" s="122">
+      <c r="AL6" s="123">
         <v>2</v>
       </c>
       <c r="AM6" s="77">
@@ -9343,107 +10214,107 @@
       <c r="N8" s="8"/>
       <c r="O8" s="50"/>
       <c r="P8" s="8"/>
-      <c r="Q8" s="157">
+      <c r="Q8" s="158">
         <f>SUM(Q6:V6)</f>
         <v>25</v>
       </c>
-      <c r="R8" s="126"/>
-      <c r="S8" s="126"/>
-      <c r="T8" s="126"/>
-      <c r="U8" s="126"/>
-      <c r="V8" s="126"/>
-      <c r="W8" s="124">
+      <c r="R8" s="127"/>
+      <c r="S8" s="127"/>
+      <c r="T8" s="127"/>
+      <c r="U8" s="127"/>
+      <c r="V8" s="127"/>
+      <c r="W8" s="125">
         <f>SUM(W6:AA6)</f>
         <v>0</v>
       </c>
-      <c r="X8" s="125"/>
-      <c r="Y8" s="125"/>
-      <c r="Z8" s="125"/>
-      <c r="AA8" s="125"/>
-      <c r="AB8" s="124">
+      <c r="X8" s="126"/>
+      <c r="Y8" s="126"/>
+      <c r="Z8" s="126"/>
+      <c r="AA8" s="126"/>
+      <c r="AB8" s="125">
         <f>SUM(AB6:AH6)</f>
         <v>22</v>
       </c>
-      <c r="AC8" s="125"/>
-      <c r="AD8" s="125"/>
-      <c r="AE8" s="125"/>
-      <c r="AF8" s="125"/>
-      <c r="AG8" s="125"/>
-      <c r="AH8" s="125"/>
-      <c r="AI8" s="124">
+      <c r="AC8" s="126"/>
+      <c r="AD8" s="126"/>
+      <c r="AE8" s="126"/>
+      <c r="AF8" s="126"/>
+      <c r="AG8" s="126"/>
+      <c r="AH8" s="126"/>
+      <c r="AI8" s="125">
         <f>SUM(AI6:AN6)</f>
         <v>9</v>
       </c>
-      <c r="AJ8" s="125"/>
-      <c r="AK8" s="125"/>
-      <c r="AL8" s="125"/>
-      <c r="AM8" s="125"/>
-      <c r="AN8" s="167"/>
-      <c r="AO8" s="124">
+      <c r="AJ8" s="126"/>
+      <c r="AK8" s="126"/>
+      <c r="AL8" s="126"/>
+      <c r="AM8" s="126"/>
+      <c r="AN8" s="168"/>
+      <c r="AO8" s="125">
         <f>SUM(AO6:AQ6)</f>
         <v>5</v>
       </c>
-      <c r="AP8" s="125"/>
-      <c r="AQ8" s="125"/>
+      <c r="AP8" s="126"/>
+      <c r="AQ8" s="126"/>
       <c r="AR8" s="101"/>
-      <c r="AS8" s="124">
+      <c r="AS8" s="125">
         <f>SUM(AS6:AU6)</f>
         <v>7</v>
       </c>
-      <c r="AT8" s="125"/>
-      <c r="AU8" s="125"/>
-      <c r="AV8" s="124">
+      <c r="AT8" s="126"/>
+      <c r="AU8" s="126"/>
+      <c r="AV8" s="125">
         <f>SUM(AV6:BG6)</f>
         <v>42</v>
       </c>
-      <c r="AW8" s="125"/>
-      <c r="AX8" s="125"/>
-      <c r="AY8" s="125"/>
-      <c r="AZ8" s="125"/>
-      <c r="BA8" s="125"/>
-      <c r="BB8" s="125"/>
-      <c r="BC8" s="125"/>
-      <c r="BD8" s="125"/>
-      <c r="BE8" s="125"/>
-      <c r="BF8" s="125"/>
-      <c r="BG8" s="125"/>
-      <c r="BH8" s="124">
+      <c r="AW8" s="126"/>
+      <c r="AX8" s="126"/>
+      <c r="AY8" s="126"/>
+      <c r="AZ8" s="126"/>
+      <c r="BA8" s="126"/>
+      <c r="BB8" s="126"/>
+      <c r="BC8" s="126"/>
+      <c r="BD8" s="126"/>
+      <c r="BE8" s="126"/>
+      <c r="BF8" s="126"/>
+      <c r="BG8" s="126"/>
+      <c r="BH8" s="125">
         <f>SUM(BH6:BP6)</f>
         <v>31</v>
       </c>
-      <c r="BI8" s="125"/>
-      <c r="BJ8" s="125"/>
-      <c r="BK8" s="125"/>
-      <c r="BL8" s="125"/>
-      <c r="BM8" s="125"/>
-      <c r="BN8" s="125"/>
-      <c r="BO8" s="125"/>
-      <c r="BP8" s="125"/>
-      <c r="BQ8" s="124">
+      <c r="BI8" s="126"/>
+      <c r="BJ8" s="126"/>
+      <c r="BK8" s="126"/>
+      <c r="BL8" s="126"/>
+      <c r="BM8" s="126"/>
+      <c r="BN8" s="126"/>
+      <c r="BO8" s="126"/>
+      <c r="BP8" s="126"/>
+      <c r="BQ8" s="125">
         <f>SUM(BQ6:BV6)</f>
         <v>22</v>
       </c>
-      <c r="BR8" s="125"/>
-      <c r="BS8" s="125"/>
-      <c r="BT8" s="125"/>
-      <c r="BU8" s="125"/>
-      <c r="BV8" s="125"/>
-      <c r="BW8" s="124">
+      <c r="BR8" s="126"/>
+      <c r="BS8" s="126"/>
+      <c r="BT8" s="126"/>
+      <c r="BU8" s="126"/>
+      <c r="BV8" s="126"/>
+      <c r="BW8" s="125">
         <f>SUM(BW6:CI6)</f>
         <v>43</v>
       </c>
-      <c r="BX8" s="125"/>
-      <c r="BY8" s="125"/>
-      <c r="BZ8" s="125"/>
-      <c r="CA8" s="125"/>
-      <c r="CB8" s="125"/>
-      <c r="CC8" s="125"/>
-      <c r="CD8" s="125"/>
-      <c r="CE8" s="125"/>
-      <c r="CF8" s="125"/>
-      <c r="CG8" s="125"/>
-      <c r="CH8" s="125"/>
-      <c r="CI8" s="125"/>
+      <c r="BX8" s="126"/>
+      <c r="BY8" s="126"/>
+      <c r="BZ8" s="126"/>
+      <c r="CA8" s="126"/>
+      <c r="CB8" s="126"/>
+      <c r="CC8" s="126"/>
+      <c r="CD8" s="126"/>
+      <c r="CE8" s="126"/>
+      <c r="CF8" s="126"/>
+      <c r="CG8" s="126"/>
+      <c r="CH8" s="126"/>
+      <c r="CI8" s="126"/>
       <c r="CJ8" s="2">
         <f>CJ6</f>
         <v>0</v>
@@ -9496,16 +10367,26 @@
       <c r="T9" s="15"/>
       <c r="U9" s="15"/>
       <c r="V9" s="15"/>
-      <c r="W9" s="8"/>
-      <c r="X9" s="69"/>
-      <c r="Y9" s="9"/>
-      <c r="Z9" s="55"/>
-      <c r="AA9" s="9"/>
+      <c r="W9" s="8">
+        <v>99</v>
+      </c>
+      <c r="X9" s="69">
+        <v>99</v>
+      </c>
+      <c r="Y9" s="9">
+        <v>99</v>
+      </c>
+      <c r="Z9" s="55">
+        <v>99</v>
+      </c>
+      <c r="AA9" s="9">
+        <v>99</v>
+      </c>
       <c r="AB9" s="8"/>
       <c r="AC9" s="65"/>
       <c r="AD9" s="9"/>
       <c r="AE9" s="74"/>
-      <c r="AF9" s="120"/>
+      <c r="AF9" s="121"/>
       <c r="AG9" s="67"/>
       <c r="AH9" s="9"/>
       <c r="AI9" s="13">
@@ -9517,7 +10398,7 @@
       <c r="AK9" s="12">
         <v>1</v>
       </c>
-      <c r="AL9" s="120">
+      <c r="AL9" s="121">
         <v>0.5</v>
       </c>
       <c r="AM9" s="25">
@@ -9591,20 +10472,20 @@
       <c r="C10" s="4"/>
       <c r="D10" s="108">
         <f>H10/$H$6*20+CL10*$CL$6</f>
-        <v>1.3130252100840336</v>
+        <v>1.2920168067226891</v>
       </c>
       <c r="E10" s="21">
         <f>G10/$H$7*20+CL10*$CL$7</f>
-        <v>2.2142857142857144</v>
+        <v>2.1428571428571428</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="87">
         <f t="shared" si="0"/>
-        <v>7.75</v>
+        <v>7.5</v>
       </c>
       <c r="H10" s="87">
         <f t="shared" si="1"/>
-        <v>15.625</v>
+        <v>15.375</v>
       </c>
       <c r="I10" s="110">
         <v>1</v>
@@ -9630,11 +10511,21 @@
       <c r="T10" s="88"/>
       <c r="U10" s="88"/>
       <c r="V10" s="88"/>
-      <c r="W10" s="88"/>
-      <c r="X10" s="90"/>
-      <c r="Y10" s="91"/>
-      <c r="Z10" s="91"/>
-      <c r="AA10" s="91"/>
+      <c r="W10" s="88">
+        <v>99</v>
+      </c>
+      <c r="X10" s="90">
+        <v>99</v>
+      </c>
+      <c r="Y10" s="91">
+        <v>99</v>
+      </c>
+      <c r="Z10" s="91">
+        <v>99</v>
+      </c>
+      <c r="AA10" s="91">
+        <v>99</v>
+      </c>
       <c r="AB10" s="88"/>
       <c r="AC10" s="90"/>
       <c r="AD10" s="91"/>
@@ -9658,7 +10549,7 @@
         <v>1</v>
       </c>
       <c r="AN10" s="91">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AO10" s="88"/>
       <c r="AP10" s="88"/>
@@ -9725,20 +10616,20 @@
       <c r="C11" s="119"/>
       <c r="D11" s="108">
         <f>H11/$H$6*20+CL11*$CL$6</f>
-        <v>1.1659663865546219</v>
+        <v>1.1449579831932772</v>
       </c>
       <c r="E11" s="21">
         <f>G11/$H$7*20+CL11*$CL$7</f>
-        <v>1.9642857142857142</v>
+        <v>1.8928571428571428</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="14">
         <f t="shared" si="0"/>
-        <v>6.875</v>
+        <v>6.625</v>
       </c>
       <c r="H11" s="14">
         <f t="shared" si="1"/>
-        <v>13.875</v>
+        <v>13.625</v>
       </c>
       <c r="I11" s="110">
         <v>1</v>
@@ -9764,16 +10655,26 @@
       <c r="T11" s="69"/>
       <c r="U11" s="69"/>
       <c r="V11" s="69"/>
-      <c r="W11" s="8"/>
-      <c r="X11" s="65"/>
-      <c r="Y11" s="74"/>
-      <c r="Z11" s="55"/>
-      <c r="AA11" s="9"/>
+      <c r="W11" s="8">
+        <v>99</v>
+      </c>
+      <c r="X11" s="65">
+        <v>99</v>
+      </c>
+      <c r="Y11" s="74">
+        <v>99</v>
+      </c>
+      <c r="Z11" s="55">
+        <v>99</v>
+      </c>
+      <c r="AA11" s="9">
+        <v>99</v>
+      </c>
       <c r="AB11" s="8"/>
       <c r="AC11" s="65"/>
       <c r="AD11" s="74"/>
       <c r="AE11" s="74"/>
-      <c r="AF11" s="120"/>
+      <c r="AF11" s="121"/>
       <c r="AG11" s="67"/>
       <c r="AH11" s="9"/>
       <c r="AI11" s="13">
@@ -9785,14 +10686,14 @@
       <c r="AK11" s="12">
         <v>1</v>
       </c>
-      <c r="AL11" s="120">
+      <c r="AL11" s="121">
         <v>0</v>
       </c>
       <c r="AM11" s="25">
         <v>1</v>
       </c>
       <c r="AN11" s="55">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AO11" s="63"/>
       <c r="AP11" s="80"/>
@@ -9898,16 +10799,26 @@
       <c r="T12" s="69"/>
       <c r="U12" s="69"/>
       <c r="V12" s="69"/>
-      <c r="W12" s="8"/>
-      <c r="X12" s="65"/>
-      <c r="Y12" s="9"/>
-      <c r="Z12" s="55"/>
-      <c r="AA12" s="9"/>
+      <c r="W12" s="8">
+        <v>99</v>
+      </c>
+      <c r="X12" s="65">
+        <v>99</v>
+      </c>
+      <c r="Y12" s="9">
+        <v>99</v>
+      </c>
+      <c r="Z12" s="55">
+        <v>99</v>
+      </c>
+      <c r="AA12" s="9">
+        <v>99</v>
+      </c>
       <c r="AB12" s="80"/>
       <c r="AC12" s="85"/>
       <c r="AD12" s="9"/>
       <c r="AE12" s="74"/>
-      <c r="AF12" s="120"/>
+      <c r="AF12" s="121"/>
       <c r="AG12" s="67"/>
       <c r="AH12" s="9"/>
       <c r="AI12" s="80">
@@ -9919,7 +10830,7 @@
       <c r="AK12" s="12">
         <v>1</v>
       </c>
-      <c r="AL12" s="120">
+      <c r="AL12" s="121">
         <v>1</v>
       </c>
       <c r="AM12" s="25">
@@ -9993,20 +10904,20 @@
       <c r="C13" s="119"/>
       <c r="D13" s="108">
         <f>H13/$H$6*20+CL13*$CL$6</f>
-        <v>0.42016806722689082</v>
+        <v>1.1764705882352942</v>
       </c>
       <c r="E13" s="21">
         <f>G13/$H$7*20+CL13*$CL$7</f>
-        <v>0.2857142857142857</v>
+        <v>2</v>
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="87">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H13" s="87">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="I13" s="110">
         <v>0</v>
@@ -10032,11 +10943,21 @@
       <c r="T13" s="88"/>
       <c r="U13" s="88"/>
       <c r="V13" s="88"/>
-      <c r="W13" s="88"/>
-      <c r="X13" s="90"/>
-      <c r="Y13" s="91"/>
-      <c r="Z13" s="91"/>
-      <c r="AA13" s="91"/>
+      <c r="W13" s="88">
+        <v>99</v>
+      </c>
+      <c r="X13" s="90">
+        <v>99</v>
+      </c>
+      <c r="Y13" s="91">
+        <v>99</v>
+      </c>
+      <c r="Z13" s="91">
+        <v>99</v>
+      </c>
+      <c r="AA13" s="91">
+        <v>99</v>
+      </c>
       <c r="AB13" s="80"/>
       <c r="AC13" s="85"/>
       <c r="AD13" s="91"/>
@@ -10044,12 +10965,24 @@
       <c r="AF13" s="91"/>
       <c r="AG13" s="91"/>
       <c r="AH13" s="91"/>
-      <c r="AI13" s="88"/>
-      <c r="AJ13" s="90"/>
-      <c r="AK13" s="91"/>
-      <c r="AL13" s="91"/>
-      <c r="AM13" s="91"/>
-      <c r="AN13" s="91"/>
+      <c r="AI13" s="88">
+        <v>1</v>
+      </c>
+      <c r="AJ13" s="90">
+        <v>1</v>
+      </c>
+      <c r="AK13" s="91">
+        <v>1</v>
+      </c>
+      <c r="AL13" s="91">
+        <v>1</v>
+      </c>
+      <c r="AM13" s="91">
+        <v>1</v>
+      </c>
+      <c r="AN13" s="91">
+        <v>1</v>
+      </c>
       <c r="AO13" s="88"/>
       <c r="AP13" s="88"/>
       <c r="AQ13" s="88"/>
@@ -10115,20 +11048,20 @@
       <c r="C14" s="119"/>
       <c r="D14" s="108">
         <f>H14/$H$6*20+CL14*$CL$6</f>
-        <v>0.58823529411764708</v>
+        <v>1.0924369747899161</v>
       </c>
       <c r="E14" s="21">
         <f>G14/$H$7*20+CL14*$CL$7</f>
-        <v>0.5714285714285714</v>
+        <v>1.7142857142857144</v>
       </c>
       <c r="F14" s="21"/>
       <c r="G14" s="14">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H14" s="14">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="I14" s="110">
         <v>1</v>
@@ -10154,24 +11087,46 @@
       <c r="T14" s="69"/>
       <c r="U14" s="69"/>
       <c r="V14" s="69"/>
-      <c r="W14" s="8"/>
-      <c r="X14" s="90"/>
-      <c r="Y14" s="9"/>
-      <c r="Z14" s="55"/>
-      <c r="AA14" s="9"/>
+      <c r="W14" s="8">
+        <v>99</v>
+      </c>
+      <c r="X14" s="90">
+        <v>99</v>
+      </c>
+      <c r="Y14" s="9">
+        <v>99</v>
+      </c>
+      <c r="Z14" s="55">
+        <v>99</v>
+      </c>
+      <c r="AA14" s="9">
+        <v>99</v>
+      </c>
       <c r="AB14" s="8"/>
       <c r="AC14" s="85"/>
       <c r="AD14" s="84"/>
       <c r="AE14" s="74"/>
-      <c r="AF14" s="120"/>
+      <c r="AF14" s="121"/>
       <c r="AG14" s="67"/>
       <c r="AH14" s="9"/>
-      <c r="AI14" s="69"/>
-      <c r="AJ14" s="65"/>
-      <c r="AK14" s="67"/>
-      <c r="AL14" s="120"/>
-      <c r="AM14" s="67"/>
-      <c r="AN14" s="67"/>
+      <c r="AI14" s="69">
+        <v>1</v>
+      </c>
+      <c r="AJ14" s="65">
+        <v>1</v>
+      </c>
+      <c r="AK14" s="67">
+        <v>0.5</v>
+      </c>
+      <c r="AL14" s="121">
+        <v>0.5</v>
+      </c>
+      <c r="AM14" s="67">
+        <v>0</v>
+      </c>
+      <c r="AN14" s="67">
+        <v>1</v>
+      </c>
       <c r="AO14" s="63"/>
       <c r="AP14" s="80"/>
       <c r="AQ14" s="83"/>
@@ -10237,20 +11192,20 @@
       <c r="C15" s="4"/>
       <c r="D15" s="108">
         <f>H15/$H$6*20+CL15*$CL$6</f>
-        <v>0.42016806722689082</v>
+        <v>1.1134453781512605</v>
       </c>
       <c r="E15" s="21">
         <f>G15/$H$7*20+CL15*$CL$7</f>
-        <v>0.2857142857142857</v>
+        <v>1.8571428571428572</v>
       </c>
       <c r="F15" s="21"/>
       <c r="G15" s="14">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>6.5</v>
       </c>
       <c r="H15" s="14">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>13.25</v>
       </c>
       <c r="I15" s="110">
         <v>0</v>
@@ -10276,24 +11231,46 @@
       <c r="T15" s="69"/>
       <c r="U15" s="69"/>
       <c r="V15" s="69"/>
-      <c r="W15" s="8"/>
-      <c r="X15" s="90"/>
-      <c r="Y15" s="9"/>
-      <c r="Z15" s="55"/>
-      <c r="AA15" s="9"/>
+      <c r="W15" s="8">
+        <v>99</v>
+      </c>
+      <c r="X15" s="90">
+        <v>99</v>
+      </c>
+      <c r="Y15" s="9">
+        <v>99</v>
+      </c>
+      <c r="Z15" s="55">
+        <v>99</v>
+      </c>
+      <c r="AA15" s="9">
+        <v>99</v>
+      </c>
       <c r="AB15" s="8"/>
       <c r="AC15" s="85"/>
       <c r="AD15" s="84"/>
       <c r="AE15" s="85"/>
-      <c r="AF15" s="120"/>
+      <c r="AF15" s="121"/>
       <c r="AG15" s="67"/>
       <c r="AH15" s="9"/>
-      <c r="AI15" s="13"/>
-      <c r="AJ15" s="65"/>
-      <c r="AK15" s="12"/>
-      <c r="AL15" s="120"/>
-      <c r="AM15" s="25"/>
-      <c r="AN15" s="55"/>
+      <c r="AI15" s="13">
+        <v>1</v>
+      </c>
+      <c r="AJ15" s="65">
+        <v>0.75</v>
+      </c>
+      <c r="AK15" s="12">
+        <v>1</v>
+      </c>
+      <c r="AL15" s="121">
+        <v>1</v>
+      </c>
+      <c r="AM15" s="25">
+        <v>1</v>
+      </c>
+      <c r="AN15" s="55">
+        <v>0.75</v>
+      </c>
       <c r="AO15" s="63"/>
       <c r="AP15" s="80"/>
       <c r="AQ15" s="83"/>
@@ -10359,20 +11336,20 @@
       <c r="C16" s="4"/>
       <c r="D16" s="108">
         <f>H16/$H$6*20+CL16*$CL$6</f>
-        <v>0</v>
+        <v>0.61974789915966388</v>
       </c>
       <c r="E16" s="21">
         <f>G16/$H$7*20+CL16*$CL$7</f>
-        <v>0</v>
+        <v>1.4285714285714284</v>
       </c>
       <c r="F16" s="21"/>
       <c r="G16" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H16" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7.375</v>
       </c>
       <c r="I16" s="110">
         <v>0</v>
@@ -10398,24 +11375,46 @@
       <c r="T16" s="69"/>
       <c r="U16" s="69"/>
       <c r="V16" s="69"/>
-      <c r="W16" s="8"/>
-      <c r="X16" s="90"/>
-      <c r="Y16" s="9"/>
-      <c r="Z16" s="55"/>
-      <c r="AA16" s="9"/>
+      <c r="W16" s="8">
+        <v>99</v>
+      </c>
+      <c r="X16" s="90">
+        <v>99</v>
+      </c>
+      <c r="Y16" s="9">
+        <v>99</v>
+      </c>
+      <c r="Z16" s="55">
+        <v>99</v>
+      </c>
+      <c r="AA16" s="9">
+        <v>99</v>
+      </c>
       <c r="AB16" s="8"/>
       <c r="AC16" s="85"/>
       <c r="AD16" s="9"/>
       <c r="AE16" s="74"/>
-      <c r="AF16" s="120"/>
+      <c r="AF16" s="121"/>
       <c r="AG16" s="67"/>
       <c r="AH16" s="9"/>
-      <c r="AI16" s="13"/>
-      <c r="AJ16" s="65"/>
-      <c r="AK16" s="12"/>
-      <c r="AL16" s="120"/>
-      <c r="AM16" s="25"/>
-      <c r="AN16" s="55"/>
+      <c r="AI16" s="13">
+        <v>0.875</v>
+      </c>
+      <c r="AJ16" s="65">
+        <v>0.875</v>
+      </c>
+      <c r="AK16" s="12">
+        <v>1</v>
+      </c>
+      <c r="AL16" s="121">
+        <v>0.5</v>
+      </c>
+      <c r="AM16" s="121">
+        <v>1</v>
+      </c>
+      <c r="AN16" s="121">
+        <v>0.75</v>
+      </c>
       <c r="AO16" s="63"/>
       <c r="AP16" s="80"/>
       <c r="AQ16" s="83"/>
@@ -10481,20 +11480,20 @@
       <c r="C17" s="4"/>
       <c r="D17" s="108">
         <f>H17/$H$6*20+CL17*$CL$6</f>
-        <v>0.58823529411764708</v>
+        <v>1.2920168067226891</v>
       </c>
       <c r="E17" s="21">
         <f>G17/$H$7*20+CL17*$CL$7</f>
-        <v>0.5714285714285714</v>
+        <v>2.1785714285714288</v>
       </c>
       <c r="F17" s="21"/>
       <c r="G17" s="14">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>7.625</v>
       </c>
       <c r="H17" s="14">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>15.375</v>
       </c>
       <c r="I17" s="110">
         <v>1</v>
@@ -10520,24 +11519,46 @@
       <c r="T17" s="69"/>
       <c r="U17" s="69"/>
       <c r="V17" s="69"/>
-      <c r="W17" s="8"/>
-      <c r="X17" s="90"/>
-      <c r="Y17" s="9"/>
-      <c r="Z17" s="55"/>
-      <c r="AA17" s="9"/>
+      <c r="W17" s="8">
+        <v>99</v>
+      </c>
+      <c r="X17" s="90">
+        <v>99</v>
+      </c>
+      <c r="Y17" s="9">
+        <v>99</v>
+      </c>
+      <c r="Z17" s="55">
+        <v>99</v>
+      </c>
+      <c r="AA17" s="9">
+        <v>99</v>
+      </c>
       <c r="AB17" s="8"/>
       <c r="AC17" s="85"/>
       <c r="AD17" s="9"/>
       <c r="AE17" s="74"/>
-      <c r="AF17" s="120"/>
+      <c r="AF17" s="121"/>
       <c r="AG17" s="67"/>
       <c r="AH17" s="9"/>
-      <c r="AI17" s="13"/>
-      <c r="AJ17" s="65"/>
-      <c r="AK17" s="12"/>
-      <c r="AL17" s="120"/>
-      <c r="AM17" s="25"/>
-      <c r="AN17" s="55"/>
+      <c r="AI17" s="120">
+        <v>0.875</v>
+      </c>
+      <c r="AJ17" s="65">
+        <v>0.75</v>
+      </c>
+      <c r="AK17" s="12">
+        <v>1</v>
+      </c>
+      <c r="AL17" s="121">
+        <v>1</v>
+      </c>
+      <c r="AM17" s="25">
+        <v>1</v>
+      </c>
+      <c r="AN17" s="55">
+        <v>1</v>
+      </c>
       <c r="AO17" s="63"/>
       <c r="AP17" s="80"/>
       <c r="AQ17" s="83"/>
@@ -10603,20 +11624,20 @@
       <c r="C18" s="4"/>
       <c r="D18" s="108">
         <f>H18/$H$6*20+CL18*$CL$6</f>
-        <v>0.21008403361344541</v>
+        <v>0.92436974789915971</v>
       </c>
       <c r="E18" s="21">
         <f>G18/$H$7*20+CL18*$CL$7</f>
-        <v>0.14285714285714285</v>
+        <v>1.7857142857142858</v>
       </c>
       <c r="F18" s="21"/>
       <c r="G18" s="14">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>6.25</v>
       </c>
       <c r="H18" s="14">
         <f t="shared" si="1"/>
-        <v>2.5</v>
+        <v>11</v>
       </c>
       <c r="I18" s="110">
         <v>0</v>
@@ -10642,24 +11663,46 @@
       <c r="T18" s="69"/>
       <c r="U18" s="69"/>
       <c r="V18" s="69"/>
-      <c r="W18" s="8"/>
-      <c r="X18" s="65"/>
-      <c r="Y18" s="9"/>
-      <c r="Z18" s="55"/>
-      <c r="AA18" s="9"/>
+      <c r="W18" s="8">
+        <v>99</v>
+      </c>
+      <c r="X18" s="65">
+        <v>99</v>
+      </c>
+      <c r="Y18" s="9">
+        <v>99</v>
+      </c>
+      <c r="Z18" s="55">
+        <v>99</v>
+      </c>
+      <c r="AA18" s="9">
+        <v>99</v>
+      </c>
       <c r="AB18" s="8"/>
       <c r="AC18" s="85"/>
       <c r="AD18" s="84"/>
       <c r="AE18" s="74"/>
-      <c r="AF18" s="120"/>
+      <c r="AF18" s="121"/>
       <c r="AG18" s="67"/>
       <c r="AH18" s="9"/>
-      <c r="AI18" s="13"/>
-      <c r="AJ18" s="65"/>
-      <c r="AK18" s="12"/>
-      <c r="AL18" s="120"/>
-      <c r="AM18" s="25"/>
-      <c r="AN18" s="55"/>
+      <c r="AI18" s="13">
+        <v>1</v>
+      </c>
+      <c r="AJ18" s="85">
+        <v>0.75</v>
+      </c>
+      <c r="AK18" s="12">
+        <v>1</v>
+      </c>
+      <c r="AL18" s="121">
+        <v>1</v>
+      </c>
+      <c r="AM18" s="25">
+        <v>1</v>
+      </c>
+      <c r="AN18" s="55">
+        <v>1</v>
+      </c>
       <c r="AO18" s="63"/>
       <c r="AP18" s="80"/>
       <c r="AQ18" s="83"/>
@@ -10722,20 +11765,20 @@
       <c r="C19" s="119"/>
       <c r="D19" s="108">
         <f>H19/$H$6*20+CL19*$CL$6</f>
-        <v>0</v>
+        <v>0.75630252100840334</v>
       </c>
       <c r="E19" s="21">
         <f>G19/$H$7*20+CL19*$CL$7</f>
-        <v>0</v>
+        <v>1.7142857142857144</v>
       </c>
       <c r="F19" s="21"/>
       <c r="G19" s="87">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H19" s="87">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I19" s="110">
         <v>0</v>
@@ -10761,11 +11804,21 @@
       <c r="T19" s="88"/>
       <c r="U19" s="88"/>
       <c r="V19" s="88"/>
-      <c r="W19" s="88"/>
-      <c r="X19" s="90"/>
-      <c r="Y19" s="91"/>
-      <c r="Z19" s="91"/>
-      <c r="AA19" s="91"/>
+      <c r="W19" s="88">
+        <v>99</v>
+      </c>
+      <c r="X19" s="90">
+        <v>99</v>
+      </c>
+      <c r="Y19" s="91">
+        <v>99</v>
+      </c>
+      <c r="Z19" s="91">
+        <v>99</v>
+      </c>
+      <c r="AA19" s="91">
+        <v>99</v>
+      </c>
       <c r="AB19" s="88"/>
       <c r="AC19" s="90"/>
       <c r="AD19" s="91"/>
@@ -10773,12 +11826,24 @@
       <c r="AF19" s="91"/>
       <c r="AG19" s="91"/>
       <c r="AH19" s="91"/>
-      <c r="AI19" s="88"/>
-      <c r="AJ19" s="90"/>
-      <c r="AK19" s="91"/>
-      <c r="AL19" s="91"/>
-      <c r="AM19" s="91"/>
-      <c r="AN19" s="91"/>
+      <c r="AI19" s="88">
+        <v>1</v>
+      </c>
+      <c r="AJ19" s="90">
+        <v>1</v>
+      </c>
+      <c r="AK19" s="91">
+        <v>1</v>
+      </c>
+      <c r="AL19" s="91">
+        <v>1</v>
+      </c>
+      <c r="AM19" s="91">
+        <v>1</v>
+      </c>
+      <c r="AN19" s="91">
+        <v>1</v>
+      </c>
       <c r="AO19" s="88"/>
       <c r="AP19" s="88"/>
       <c r="AQ19" s="88"/>
@@ -10844,20 +11909,20 @@
       <c r="C20" s="119"/>
       <c r="D20" s="108">
         <f>H20/$H$6*20+CL20*$CL$6</f>
-        <v>0</v>
+        <v>0.44117647058823534</v>
       </c>
       <c r="E20" s="21">
         <f>G20/$H$7*20+CL20*$CL$7</f>
-        <v>0</v>
+        <v>1.0714285714285714</v>
       </c>
       <c r="F20" s="21"/>
       <c r="G20" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="H20" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5.25</v>
       </c>
       <c r="I20" s="110">
         <v>0</v>
@@ -10883,27 +11948,69 @@
       <c r="T20" s="69"/>
       <c r="U20" s="69"/>
       <c r="V20" s="69"/>
-      <c r="W20" s="8"/>
-      <c r="X20" s="65"/>
-      <c r="Y20" s="9"/>
-      <c r="Z20" s="55"/>
-      <c r="AA20" s="9"/>
-      <c r="AB20" s="8"/>
-      <c r="AC20" s="85"/>
-      <c r="AD20" s="9"/>
-      <c r="AE20" s="74"/>
-      <c r="AF20" s="120"/>
-      <c r="AG20" s="67"/>
-      <c r="AH20" s="9"/>
-      <c r="AI20" s="13"/>
-      <c r="AJ20" s="65"/>
-      <c r="AK20" s="12"/>
-      <c r="AL20" s="120"/>
-      <c r="AM20" s="25"/>
-      <c r="AN20" s="55"/>
-      <c r="AO20" s="63"/>
-      <c r="AP20" s="83"/>
-      <c r="AQ20" s="83"/>
+      <c r="W20" s="8">
+        <v>99</v>
+      </c>
+      <c r="X20" s="65">
+        <v>99</v>
+      </c>
+      <c r="Y20" s="9">
+        <v>99</v>
+      </c>
+      <c r="Z20" s="55">
+        <v>99</v>
+      </c>
+      <c r="AA20" s="9">
+        <v>99</v>
+      </c>
+      <c r="AB20" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="AC20" s="85">
+        <v>0.125</v>
+      </c>
+      <c r="AD20" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="74">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="121">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="67">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="121">
+        <v>0.75</v>
+      </c>
+      <c r="AI20" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AJ20" s="65">
+        <v>0.125</v>
+      </c>
+      <c r="AK20" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL20" s="121">
+        <v>0</v>
+      </c>
+      <c r="AM20" s="25">
+        <v>0</v>
+      </c>
+      <c r="AN20" s="121">
+        <v>0.75</v>
+      </c>
+      <c r="AO20" s="63">
+        <v>1</v>
+      </c>
+      <c r="AP20" s="83">
+        <v>0</v>
+      </c>
+      <c r="AQ20" s="83">
+        <v>0</v>
+      </c>
       <c r="AR20" s="69">
         <v>99</v>
       </c>
@@ -10966,20 +12073,20 @@
       <c r="C21" s="4"/>
       <c r="D21" s="108">
         <f>H21/$H$6*20+CL21*$CL$6</f>
-        <v>0.16806722689075629</v>
+        <v>0.71428571428571419</v>
       </c>
       <c r="E21" s="21">
         <f>G21/$H$7*20+CL21*$CL$7</f>
-        <v>0.2857142857142857</v>
+        <v>1.5</v>
       </c>
       <c r="F21" s="21"/>
       <c r="G21" s="14">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>5.25</v>
       </c>
       <c r="H21" s="14">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>8.5</v>
       </c>
       <c r="I21" s="110">
         <v>1</v>
@@ -11005,24 +12112,46 @@
       <c r="T21" s="69"/>
       <c r="U21" s="69"/>
       <c r="V21" s="69"/>
-      <c r="W21" s="8"/>
-      <c r="X21" s="65"/>
-      <c r="Y21" s="9"/>
-      <c r="Z21" s="55"/>
-      <c r="AA21" s="9"/>
+      <c r="W21" s="8">
+        <v>99</v>
+      </c>
+      <c r="X21" s="65">
+        <v>99</v>
+      </c>
+      <c r="Y21" s="9">
+        <v>99</v>
+      </c>
+      <c r="Z21" s="55">
+        <v>99</v>
+      </c>
+      <c r="AA21" s="9">
+        <v>99</v>
+      </c>
       <c r="AB21" s="8"/>
       <c r="AC21" s="65"/>
       <c r="AD21" s="9"/>
       <c r="AE21" s="74"/>
-      <c r="AF21" s="120"/>
+      <c r="AF21" s="121"/>
       <c r="AG21" s="67"/>
       <c r="AH21" s="9"/>
-      <c r="AI21" s="13"/>
-      <c r="AJ21" s="65"/>
-      <c r="AK21" s="74"/>
-      <c r="AL21" s="120"/>
-      <c r="AM21" s="25"/>
-      <c r="AN21" s="55"/>
+      <c r="AI21" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="AJ21" s="65">
+        <v>1</v>
+      </c>
+      <c r="AK21" s="74">
+        <v>1</v>
+      </c>
+      <c r="AL21" s="121">
+        <v>0.25</v>
+      </c>
+      <c r="AM21" s="121">
+        <v>0</v>
+      </c>
+      <c r="AN21" s="121">
+        <v>0.75</v>
+      </c>
       <c r="AO21" s="63"/>
       <c r="AP21" s="80"/>
       <c r="AQ21" s="83"/>
@@ -11088,7 +12217,7 @@
       <c r="C22" s="119"/>
       <c r="D22" s="108">
         <f>H22/$H$6*20+CL22*$CL$6</f>
-        <v>0.42016806722689082</v>
+        <v>1.1764705882352942</v>
       </c>
       <c r="E22" s="21">
         <f>G22/$H$7*20+CL22*$CL$7</f>
@@ -11101,7 +12230,7 @@
       </c>
       <c r="H22" s="14">
         <f>H55</f>
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="I22" s="110">
         <v>1</v>
@@ -11127,24 +12256,46 @@
       <c r="T22" s="69"/>
       <c r="U22" s="69"/>
       <c r="V22" s="69"/>
-      <c r="W22" s="69"/>
-      <c r="X22" s="65"/>
-      <c r="Y22" s="74"/>
-      <c r="Z22" s="67"/>
-      <c r="AA22" s="67"/>
+      <c r="W22" s="69">
+        <v>99</v>
+      </c>
+      <c r="X22" s="65">
+        <v>99</v>
+      </c>
+      <c r="Y22" s="74">
+        <v>99</v>
+      </c>
+      <c r="Z22" s="67">
+        <v>99</v>
+      </c>
+      <c r="AA22" s="67">
+        <v>99</v>
+      </c>
       <c r="AB22" s="69"/>
       <c r="AC22" s="85"/>
       <c r="AD22" s="84"/>
       <c r="AE22" s="74"/>
-      <c r="AF22" s="120"/>
+      <c r="AF22" s="121"/>
       <c r="AG22" s="67"/>
       <c r="AH22" s="67"/>
-      <c r="AI22" s="69"/>
-      <c r="AJ22" s="65"/>
-      <c r="AK22" s="74"/>
-      <c r="AL22" s="120"/>
-      <c r="AM22" s="67"/>
-      <c r="AN22" s="67"/>
+      <c r="AI22" s="69">
+        <v>1</v>
+      </c>
+      <c r="AJ22" s="65">
+        <v>1</v>
+      </c>
+      <c r="AK22" s="74">
+        <v>1</v>
+      </c>
+      <c r="AL22" s="121">
+        <v>1</v>
+      </c>
+      <c r="AM22" s="67">
+        <v>1</v>
+      </c>
+      <c r="AN22" s="67">
+        <v>1</v>
+      </c>
       <c r="AO22" s="69"/>
       <c r="AP22" s="80"/>
       <c r="AQ22" s="83"/>
@@ -11249,11 +12400,21 @@
       <c r="T23" s="88"/>
       <c r="U23" s="88"/>
       <c r="V23" s="88"/>
-      <c r="W23" s="88"/>
-      <c r="X23" s="90"/>
-      <c r="Y23" s="74"/>
-      <c r="Z23" s="91"/>
-      <c r="AA23" s="91"/>
+      <c r="W23" s="88">
+        <v>99</v>
+      </c>
+      <c r="X23" s="90">
+        <v>99</v>
+      </c>
+      <c r="Y23" s="74">
+        <v>99</v>
+      </c>
+      <c r="Z23" s="91">
+        <v>99</v>
+      </c>
+      <c r="AA23" s="91">
+        <v>99</v>
+      </c>
       <c r="AB23" s="88"/>
       <c r="AC23" s="85"/>
       <c r="AD23" s="84"/>
@@ -11261,12 +12422,24 @@
       <c r="AF23" s="91"/>
       <c r="AG23" s="91"/>
       <c r="AH23" s="91"/>
-      <c r="AI23" s="88"/>
-      <c r="AJ23" s="90"/>
-      <c r="AK23" s="74"/>
-      <c r="AL23" s="91"/>
-      <c r="AM23" s="91"/>
-      <c r="AN23" s="91"/>
+      <c r="AI23" s="120">
+        <v>0.875</v>
+      </c>
+      <c r="AJ23" s="90">
+        <v>0.125</v>
+      </c>
+      <c r="AK23" s="74">
+        <v>1</v>
+      </c>
+      <c r="AL23" s="91">
+        <v>1</v>
+      </c>
+      <c r="AM23" s="121">
+        <v>0</v>
+      </c>
+      <c r="AN23" s="121">
+        <v>0.75</v>
+      </c>
       <c r="AO23" s="88"/>
       <c r="AP23" s="88"/>
       <c r="AQ23" s="88"/>
@@ -11371,11 +12544,21 @@
       <c r="T24" s="88"/>
       <c r="U24" s="88"/>
       <c r="V24" s="88"/>
-      <c r="W24" s="88"/>
-      <c r="X24" s="85"/>
-      <c r="Y24" s="91"/>
-      <c r="Z24" s="91"/>
-      <c r="AA24" s="91"/>
+      <c r="W24" s="88">
+        <v>99</v>
+      </c>
+      <c r="X24" s="85">
+        <v>99</v>
+      </c>
+      <c r="Y24" s="91">
+        <v>99</v>
+      </c>
+      <c r="Z24" s="91">
+        <v>99</v>
+      </c>
+      <c r="AA24" s="91">
+        <v>99</v>
+      </c>
       <c r="AB24" s="88"/>
       <c r="AC24" s="90"/>
       <c r="AD24" s="91"/>
@@ -11383,12 +12566,24 @@
       <c r="AF24" s="91"/>
       <c r="AG24" s="91"/>
       <c r="AH24" s="91"/>
-      <c r="AI24" s="88"/>
-      <c r="AJ24" s="90"/>
-      <c r="AK24" s="91"/>
-      <c r="AL24" s="91"/>
-      <c r="AM24" s="91"/>
-      <c r="AN24" s="91"/>
+      <c r="AI24" s="88">
+        <v>1</v>
+      </c>
+      <c r="AJ24" s="90">
+        <v>0.125</v>
+      </c>
+      <c r="AK24" s="91">
+        <v>1</v>
+      </c>
+      <c r="AL24" s="121">
+        <v>0.5</v>
+      </c>
+      <c r="AM24" s="91">
+        <v>0</v>
+      </c>
+      <c r="AN24" s="121">
+        <v>0.75</v>
+      </c>
       <c r="AO24" s="88"/>
       <c r="AP24" s="111"/>
       <c r="AQ24" s="111"/>
@@ -11493,11 +12688,21 @@
       <c r="T25" s="88"/>
       <c r="U25" s="88"/>
       <c r="V25" s="88"/>
-      <c r="W25" s="88"/>
-      <c r="X25" s="85"/>
-      <c r="Y25" s="91"/>
-      <c r="Z25" s="91"/>
-      <c r="AA25" s="91"/>
+      <c r="W25" s="88">
+        <v>99</v>
+      </c>
+      <c r="X25" s="85">
+        <v>99</v>
+      </c>
+      <c r="Y25" s="91">
+        <v>99</v>
+      </c>
+      <c r="Z25" s="91">
+        <v>99</v>
+      </c>
+      <c r="AA25" s="91">
+        <v>99</v>
+      </c>
       <c r="AB25" s="88"/>
       <c r="AC25" s="90"/>
       <c r="AD25" s="91"/>
@@ -11505,12 +12710,24 @@
       <c r="AF25" s="91"/>
       <c r="AG25" s="91"/>
       <c r="AH25" s="91"/>
-      <c r="AI25" s="88"/>
-      <c r="AJ25" s="90"/>
-      <c r="AK25" s="91"/>
-      <c r="AL25" s="91"/>
-      <c r="AM25" s="91"/>
-      <c r="AN25" s="91"/>
+      <c r="AI25" s="120">
+        <v>0.875</v>
+      </c>
+      <c r="AJ25" s="90">
+        <v>0.125</v>
+      </c>
+      <c r="AK25" s="91">
+        <v>1</v>
+      </c>
+      <c r="AL25" s="121">
+        <v>0.25</v>
+      </c>
+      <c r="AM25" s="91">
+        <v>0</v>
+      </c>
+      <c r="AN25" s="91">
+        <v>0</v>
+      </c>
       <c r="AO25" s="88"/>
       <c r="AP25" s="111"/>
       <c r="AQ25" s="111"/>
@@ -11615,11 +12832,21 @@
       <c r="T26" s="88"/>
       <c r="U26" s="88"/>
       <c r="V26" s="88"/>
-      <c r="W26" s="88"/>
-      <c r="X26" s="85"/>
-      <c r="Y26" s="91"/>
-      <c r="Z26" s="91"/>
-      <c r="AA26" s="91"/>
+      <c r="W26" s="88">
+        <v>99</v>
+      </c>
+      <c r="X26" s="85">
+        <v>99</v>
+      </c>
+      <c r="Y26" s="91">
+        <v>99</v>
+      </c>
+      <c r="Z26" s="91">
+        <v>99</v>
+      </c>
+      <c r="AA26" s="91">
+        <v>99</v>
+      </c>
       <c r="AB26" s="88"/>
       <c r="AC26" s="90"/>
       <c r="AD26" s="91"/>
@@ -11627,12 +12854,24 @@
       <c r="AF26" s="91"/>
       <c r="AG26" s="91"/>
       <c r="AH26" s="91"/>
-      <c r="AI26" s="88"/>
-      <c r="AJ26" s="90"/>
-      <c r="AK26" s="91"/>
-      <c r="AL26" s="91"/>
-      <c r="AM26" s="91"/>
-      <c r="AN26" s="91"/>
+      <c r="AI26" s="88">
+        <v>1</v>
+      </c>
+      <c r="AJ26" s="90">
+        <v>0.25</v>
+      </c>
+      <c r="AK26" s="91">
+        <v>1</v>
+      </c>
+      <c r="AL26" s="91">
+        <v>1</v>
+      </c>
+      <c r="AM26" s="91">
+        <v>1</v>
+      </c>
+      <c r="AN26" s="91">
+        <v>1</v>
+      </c>
       <c r="AO26" s="88"/>
       <c r="AP26" s="111"/>
       <c r="AQ26" s="111"/>
@@ -11737,11 +12976,21 @@
       <c r="T27" s="88"/>
       <c r="U27" s="88"/>
       <c r="V27" s="88"/>
-      <c r="W27" s="88"/>
-      <c r="X27" s="85"/>
-      <c r="Y27" s="91"/>
-      <c r="Z27" s="91"/>
-      <c r="AA27" s="91"/>
+      <c r="W27" s="88">
+        <v>99</v>
+      </c>
+      <c r="X27" s="85">
+        <v>99</v>
+      </c>
+      <c r="Y27" s="91">
+        <v>99</v>
+      </c>
+      <c r="Z27" s="91">
+        <v>99</v>
+      </c>
+      <c r="AA27" s="91">
+        <v>99</v>
+      </c>
       <c r="AB27" s="88"/>
       <c r="AC27" s="90"/>
       <c r="AD27" s="91"/>
@@ -11749,12 +12998,24 @@
       <c r="AF27" s="91"/>
       <c r="AG27" s="91"/>
       <c r="AH27" s="91"/>
-      <c r="AI27" s="88"/>
-      <c r="AJ27" s="90"/>
-      <c r="AK27" s="91"/>
-      <c r="AL27" s="91"/>
-      <c r="AM27" s="91"/>
-      <c r="AN27" s="91"/>
+      <c r="AI27" s="120">
+        <v>0.875</v>
+      </c>
+      <c r="AJ27" s="90">
+        <v>1</v>
+      </c>
+      <c r="AK27" s="91">
+        <v>1</v>
+      </c>
+      <c r="AL27" s="91">
+        <v>1</v>
+      </c>
+      <c r="AM27" s="91">
+        <v>1</v>
+      </c>
+      <c r="AN27" s="121">
+        <v>0.75</v>
+      </c>
       <c r="AO27" s="88"/>
       <c r="AP27" s="111"/>
       <c r="AQ27" s="111"/>
@@ -11859,11 +13120,21 @@
       <c r="T28" s="88"/>
       <c r="U28" s="88"/>
       <c r="V28" s="88"/>
-      <c r="W28" s="88"/>
-      <c r="X28" s="85"/>
-      <c r="Y28" s="91"/>
-      <c r="Z28" s="91"/>
-      <c r="AA28" s="91"/>
+      <c r="W28" s="88">
+        <v>99</v>
+      </c>
+      <c r="X28" s="85">
+        <v>99</v>
+      </c>
+      <c r="Y28" s="91">
+        <v>99</v>
+      </c>
+      <c r="Z28" s="91">
+        <v>99</v>
+      </c>
+      <c r="AA28" s="91">
+        <v>99</v>
+      </c>
       <c r="AB28" s="88"/>
       <c r="AC28" s="90"/>
       <c r="AD28" s="91"/>
@@ -11871,12 +13142,24 @@
       <c r="AF28" s="91"/>
       <c r="AG28" s="91"/>
       <c r="AH28" s="91"/>
-      <c r="AI28" s="88"/>
-      <c r="AJ28" s="90"/>
-      <c r="AK28" s="91"/>
-      <c r="AL28" s="91"/>
-      <c r="AM28" s="91"/>
-      <c r="AN28" s="91"/>
+      <c r="AI28" s="88">
+        <v>1</v>
+      </c>
+      <c r="AJ28" s="90">
+        <v>1</v>
+      </c>
+      <c r="AK28" s="91">
+        <v>1</v>
+      </c>
+      <c r="AL28" s="91">
+        <v>1</v>
+      </c>
+      <c r="AM28" s="91">
+        <v>1</v>
+      </c>
+      <c r="AN28" s="91">
+        <v>1</v>
+      </c>
       <c r="AO28" s="88"/>
       <c r="AP28" s="111"/>
       <c r="AQ28" s="111"/>
@@ -11935,19 +13218,25 @@
       </c>
     </row>
     <row r="29" spans="1:90" s="113" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="123"/>
-      <c r="B29" s="123"/>
-      <c r="C29" s="123"/>
+      <c r="A29" s="124"/>
+      <c r="B29" s="124"/>
+      <c r="C29" s="124"/>
       <c r="D29" s="108"/>
       <c r="E29" s="21"/>
       <c r="F29" s="21"/>
       <c r="G29" s="87"/>
       <c r="H29" s="87"/>
       <c r="I29" s="111"/>
-      <c r="J29" s="88"/>
-      <c r="K29" s="88"/>
+      <c r="J29" s="88">
+        <v>99</v>
+      </c>
+      <c r="K29" s="88">
+        <v>99</v>
+      </c>
       <c r="L29" s="88"/>
-      <c r="M29" s="88"/>
+      <c r="M29" s="88">
+        <v>99</v>
+      </c>
       <c r="N29" s="88"/>
       <c r="O29" s="89"/>
       <c r="P29" s="112"/>
@@ -11957,11 +13246,21 @@
       <c r="T29" s="88"/>
       <c r="U29" s="88"/>
       <c r="V29" s="88"/>
-      <c r="W29" s="88"/>
-      <c r="X29" s="85"/>
-      <c r="Y29" s="91"/>
-      <c r="Z29" s="91"/>
-      <c r="AA29" s="91"/>
+      <c r="W29" s="88">
+        <v>99</v>
+      </c>
+      <c r="X29" s="85">
+        <v>99</v>
+      </c>
+      <c r="Y29" s="91">
+        <v>99</v>
+      </c>
+      <c r="Z29" s="91">
+        <v>99</v>
+      </c>
+      <c r="AA29" s="91">
+        <v>99</v>
+      </c>
       <c r="AB29" s="88"/>
       <c r="AC29" s="90"/>
       <c r="AD29" s="91"/>
@@ -12033,19 +13332,25 @@
       </c>
     </row>
     <row r="30" spans="1:90" s="113" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="123"/>
-      <c r="B30" s="123"/>
-      <c r="C30" s="123"/>
+      <c r="A30" s="124"/>
+      <c r="B30" s="124"/>
+      <c r="C30" s="124"/>
       <c r="D30" s="108"/>
       <c r="E30" s="21"/>
       <c r="F30" s="21"/>
       <c r="G30" s="87"/>
       <c r="H30" s="87"/>
       <c r="I30" s="111"/>
-      <c r="J30" s="88"/>
-      <c r="K30" s="88"/>
+      <c r="J30" s="88">
+        <v>99</v>
+      </c>
+      <c r="K30" s="88">
+        <v>99</v>
+      </c>
       <c r="L30" s="88"/>
-      <c r="M30" s="88"/>
+      <c r="M30" s="88">
+        <v>99</v>
+      </c>
       <c r="N30" s="88"/>
       <c r="O30" s="89"/>
       <c r="P30" s="112"/>
@@ -12055,11 +13360,21 @@
       <c r="T30" s="88"/>
       <c r="U30" s="88"/>
       <c r="V30" s="88"/>
-      <c r="W30" s="88"/>
-      <c r="X30" s="85"/>
-      <c r="Y30" s="91"/>
-      <c r="Z30" s="91"/>
-      <c r="AA30" s="91"/>
+      <c r="W30" s="88">
+        <v>99</v>
+      </c>
+      <c r="X30" s="85">
+        <v>99</v>
+      </c>
+      <c r="Y30" s="91">
+        <v>99</v>
+      </c>
+      <c r="Z30" s="91">
+        <v>99</v>
+      </c>
+      <c r="AA30" s="91">
+        <v>99</v>
+      </c>
       <c r="AB30" s="88"/>
       <c r="AC30" s="90"/>
       <c r="AD30" s="91"/>
@@ -12131,19 +13446,25 @@
       </c>
     </row>
     <row r="31" spans="1:90" s="117" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="123"/>
-      <c r="B31" s="123"/>
-      <c r="C31" s="123"/>
+      <c r="A31" s="124"/>
+      <c r="B31" s="124"/>
+      <c r="C31" s="124"/>
       <c r="D31" s="108"/>
       <c r="E31" s="21"/>
       <c r="F31" s="21"/>
       <c r="G31" s="87"/>
       <c r="H31" s="87"/>
       <c r="I31" s="118"/>
-      <c r="J31" s="88"/>
-      <c r="K31" s="88"/>
+      <c r="J31" s="88">
+        <v>99</v>
+      </c>
+      <c r="K31" s="88">
+        <v>99</v>
+      </c>
       <c r="L31" s="88"/>
-      <c r="M31" s="88"/>
+      <c r="M31" s="88">
+        <v>99</v>
+      </c>
       <c r="N31" s="88"/>
       <c r="O31" s="89"/>
       <c r="P31" s="116"/>
@@ -12153,11 +13474,21 @@
       <c r="T31" s="88"/>
       <c r="U31" s="88"/>
       <c r="V31" s="88"/>
-      <c r="W31" s="88"/>
-      <c r="X31" s="85"/>
-      <c r="Y31" s="91"/>
-      <c r="Z31" s="91"/>
-      <c r="AA31" s="91"/>
+      <c r="W31" s="88">
+        <v>99</v>
+      </c>
+      <c r="X31" s="85">
+        <v>99</v>
+      </c>
+      <c r="Y31" s="91">
+        <v>99</v>
+      </c>
+      <c r="Z31" s="91">
+        <v>99</v>
+      </c>
+      <c r="AA31" s="91">
+        <v>99</v>
+      </c>
       <c r="AB31" s="88"/>
       <c r="AC31" s="90"/>
       <c r="AD31" s="91"/>
@@ -12229,19 +13560,25 @@
       </c>
     </row>
     <row r="32" spans="1:90" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="123"/>
-      <c r="B32" s="123"/>
-      <c r="C32" s="123"/>
+      <c r="A32" s="124"/>
+      <c r="B32" s="124"/>
+      <c r="C32" s="124"/>
       <c r="D32" s="108"/>
       <c r="E32" s="21"/>
       <c r="F32" s="21"/>
       <c r="G32" s="87"/>
       <c r="H32" s="87"/>
       <c r="I32" s="110"/>
-      <c r="J32" s="88"/>
-      <c r="K32" s="88"/>
+      <c r="J32" s="88">
+        <v>99</v>
+      </c>
+      <c r="K32" s="88">
+        <v>99</v>
+      </c>
       <c r="L32" s="88"/>
-      <c r="M32" s="88"/>
+      <c r="M32" s="88">
+        <v>99</v>
+      </c>
       <c r="N32" s="88"/>
       <c r="O32" s="89"/>
       <c r="P32" s="107"/>
@@ -12251,11 +13588,21 @@
       <c r="T32" s="88"/>
       <c r="U32" s="88"/>
       <c r="V32" s="88"/>
-      <c r="W32" s="88"/>
-      <c r="X32" s="75"/>
-      <c r="Y32" s="91"/>
-      <c r="Z32" s="91"/>
-      <c r="AA32" s="91"/>
+      <c r="W32" s="88">
+        <v>99</v>
+      </c>
+      <c r="X32" s="75">
+        <v>99</v>
+      </c>
+      <c r="Y32" s="91">
+        <v>99</v>
+      </c>
+      <c r="Z32" s="91">
+        <v>99</v>
+      </c>
+      <c r="AA32" s="91">
+        <v>99</v>
+      </c>
       <c r="AB32" s="88"/>
       <c r="AC32" s="90"/>
       <c r="AD32" s="91"/>
@@ -12416,7 +13763,7 @@
       <c r="AE33" s="74">
         <v>1</v>
       </c>
-      <c r="AF33" s="120">
+      <c r="AF33" s="121">
         <v>1</v>
       </c>
       <c r="AG33" s="67">
@@ -12434,7 +13781,7 @@
       <c r="AK33" s="67">
         <v>1</v>
       </c>
-      <c r="AL33" s="120">
+      <c r="AL33" s="121">
         <v>1</v>
       </c>
       <c r="AM33" s="67">
@@ -12651,89 +13998,89 @@
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W34" s="71" t="e">
+      <c r="W34" s="71">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X34" s="71" t="e">
+        <v>99</v>
+      </c>
+      <c r="X34" s="71">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y34" s="71" t="e">
+        <v>99</v>
+      </c>
+      <c r="Y34" s="71">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z34" s="71" t="e">
+        <v>99</v>
+      </c>
+      <c r="Z34" s="71">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA34" s="71" t="e">
+        <v>99</v>
+      </c>
+      <c r="AA34" s="71">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB34" s="71" t="e">
+        <v>99</v>
+      </c>
+      <c r="AB34" s="71">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC34" s="71" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="AC34" s="71">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD34" s="71" t="e">
+        <v>0.125</v>
+      </c>
+      <c r="AD34" s="71">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE34" s="79" t="e">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="79">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF34" s="121" t="e">
+        <v>0</v>
+      </c>
+      <c r="AF34" s="122">
         <f t="shared" ref="AF34" si="10">AVERAGE(AF9:AF32)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG34" s="71" t="e">
+        <v>0</v>
+      </c>
+      <c r="AG34" s="71">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH34" s="71" t="e">
+        <v>0</v>
+      </c>
+      <c r="AH34" s="71">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>0.75</v>
       </c>
       <c r="AI34" s="71">
         <f t="shared" si="9"/>
-        <v>0.875</v>
+        <v>0.93125000000000002</v>
       </c>
       <c r="AJ34" s="71">
         <f t="shared" ref="AJ34:CJ34" si="11">AVERAGE(AJ9:AJ32)</f>
-        <v>1</v>
+        <v>0.74375000000000002</v>
       </c>
       <c r="AK34" s="71">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="AL34" s="121">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="AL34" s="122">
         <f t="shared" ref="AL34" si="12">AVERAGE(AL9:AL32)</f>
-        <v>0.59375</v>
+        <v>0.71875</v>
       </c>
       <c r="AM34" s="71">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AN34" s="71">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="AO34" s="71" t="e">
+        <v>0.83750000000000002</v>
+      </c>
+      <c r="AO34" s="71">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AP34" s="79" t="e">
+        <v>1</v>
+      </c>
+      <c r="AP34" s="79">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AQ34" s="86" t="e">
+        <v>0</v>
+      </c>
+      <c r="AQ34" s="86">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="AR34" s="71">
         <f t="shared" si="11"/>
@@ -13021,7 +14368,7 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AF36" s="121">
+      <c r="AF36" s="122">
         <f t="shared" ref="AF36" si="21">AF9*AF$6</f>
         <v>0</v>
       </c>
@@ -13045,7 +14392,7 @@
         <f t="shared" si="22"/>
         <v>2</v>
       </c>
-      <c r="AL36" s="121">
+      <c r="AL36" s="122">
         <f t="shared" ref="AL36" si="23">AL9*AL$6</f>
         <v>1</v>
       </c>
@@ -13261,7 +14608,7 @@
     <row r="37" spans="1:90" x14ac:dyDescent="0.25">
       <c r="H37" s="117">
         <f>SUM(I37:CJ37)</f>
-        <v>15.625</v>
+        <v>15.375</v>
       </c>
       <c r="I37" s="117">
         <f t="shared" ref="I37:AZ37" si="31">I10*I$6</f>
@@ -13355,7 +14702,7 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="AF37" s="121">
+      <c r="AF37" s="122">
         <f t="shared" ref="AF37" si="32">AF10*AF$6</f>
         <v>0</v>
       </c>
@@ -13379,7 +14726,7 @@
         <f t="shared" si="31"/>
         <v>2</v>
       </c>
-      <c r="AL37" s="121">
+      <c r="AL37" s="122">
         <f t="shared" ref="AL37" si="33">AL10*AL$6</f>
         <v>1.75</v>
       </c>
@@ -13389,7 +14736,7 @@
       </c>
       <c r="AN37" s="117">
         <f t="shared" si="31"/>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AO37" s="117">
         <f t="shared" si="31"/>
@@ -13595,7 +14942,7 @@
     <row r="38" spans="1:90" x14ac:dyDescent="0.25">
       <c r="H38" s="117">
         <f>SUM(I38:CJ38)</f>
-        <v>13.875</v>
+        <v>13.625</v>
       </c>
       <c r="I38" s="117">
         <f t="shared" ref="I38:AZ38" si="35">I11*I$6</f>
@@ -13689,7 +15036,7 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="AF38" s="121">
+      <c r="AF38" s="122">
         <f t="shared" ref="AF38" si="36">AF11*AF$6</f>
         <v>0</v>
       </c>
@@ -13713,7 +15060,7 @@
         <f t="shared" si="35"/>
         <v>2</v>
       </c>
-      <c r="AL38" s="121">
+      <c r="AL38" s="122">
         <f t="shared" ref="AL38" si="37">AL11*AL$6</f>
         <v>0</v>
       </c>
@@ -13723,7 +15070,7 @@
       </c>
       <c r="AN38" s="117">
         <f t="shared" si="35"/>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AO38" s="117">
         <f t="shared" si="35"/>
@@ -14023,7 +15370,7 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="AF39" s="121">
+      <c r="AF39" s="122">
         <f t="shared" ref="AF39" si="40">AF12*AF$6</f>
         <v>0</v>
       </c>
@@ -14047,7 +15394,7 @@
         <f t="shared" si="39"/>
         <v>2</v>
       </c>
-      <c r="AL39" s="121">
+      <c r="AL39" s="122">
         <f t="shared" ref="AL39" si="41">AL12*AL$6</f>
         <v>2</v>
       </c>
@@ -14263,7 +15610,7 @@
     <row r="40" spans="1:90" x14ac:dyDescent="0.25">
       <c r="H40" s="117">
         <f>SUM(I40:CJ40)</f>
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="I40" s="117">
         <f t="shared" ref="I40:AZ40" si="43">I13*I$6</f>
@@ -14357,7 +15704,7 @@
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="AF40" s="121">
+      <c r="AF40" s="122">
         <f t="shared" ref="AF40" si="44">AF13*AF$6</f>
         <v>0</v>
       </c>
@@ -14371,27 +15718,27 @@
       </c>
       <c r="AI40" s="117">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ40" s="117">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK40" s="117">
         <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="AL40" s="121">
+        <v>2</v>
+      </c>
+      <c r="AL40" s="122">
         <f t="shared" ref="AL40" si="45">AL13*AL$6</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM40" s="117">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN40" s="117">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO40" s="117">
         <f t="shared" si="43"/>
@@ -14597,7 +15944,7 @@
     <row r="41" spans="1:90" x14ac:dyDescent="0.25">
       <c r="H41" s="117">
         <f>SUM(I41:CJ41)</f>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="I41" s="117">
         <f t="shared" ref="I41:AZ41" si="47">I14*I$6</f>
@@ -14691,7 +16038,7 @@
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="AF41" s="121">
+      <c r="AF41" s="122">
         <f t="shared" ref="AF41" si="48">AF14*AF$6</f>
         <v>0</v>
       </c>
@@ -14705,19 +16052,19 @@
       </c>
       <c r="AI41" s="117">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ41" s="117">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK41" s="117">
         <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="AL41" s="121">
+        <v>1</v>
+      </c>
+      <c r="AL41" s="122">
         <f t="shared" ref="AL41" si="49">AL14*AL$6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM41" s="117">
         <f t="shared" si="47"/>
@@ -14725,7 +16072,7 @@
       </c>
       <c r="AN41" s="117">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO41" s="117">
         <f t="shared" si="47"/>
@@ -14931,7 +16278,7 @@
     <row r="42" spans="1:90" x14ac:dyDescent="0.25">
       <c r="H42" s="117">
         <f>SUM(I42:CJ42)</f>
-        <v>5</v>
+        <v>13.25</v>
       </c>
       <c r="I42" s="117">
         <f t="shared" ref="I42:AZ42" si="51">I15*I$6</f>
@@ -15025,7 +16372,7 @@
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="AF42" s="121">
+      <c r="AF42" s="122">
         <f t="shared" ref="AF42" si="52">AF15*AF$6</f>
         <v>0</v>
       </c>
@@ -15039,27 +16386,27 @@
       </c>
       <c r="AI42" s="117">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ42" s="117">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AK42" s="117">
         <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="AL42" s="121">
+        <v>2</v>
+      </c>
+      <c r="AL42" s="122">
         <f t="shared" ref="AL42" si="53">AL15*AL$6</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM42" s="117">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN42" s="117">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AO42" s="117">
         <f t="shared" si="51"/>
@@ -15265,7 +16612,7 @@
     <row r="43" spans="1:90" x14ac:dyDescent="0.25">
       <c r="H43" s="117">
         <f>SUM(I43:CJ43)</f>
-        <v>0</v>
+        <v>7.375</v>
       </c>
       <c r="I43" s="117">
         <f t="shared" ref="I43:AZ43" si="55">I16*I$6</f>
@@ -15359,7 +16706,7 @@
         <f t="shared" si="55"/>
         <v>0</v>
       </c>
-      <c r="AF43" s="121">
+      <c r="AF43" s="122">
         <f t="shared" ref="AF43" si="56">AF16*AF$6</f>
         <v>0</v>
       </c>
@@ -15373,27 +16720,27 @@
       </c>
       <c r="AI43" s="117">
         <f t="shared" si="55"/>
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AJ43" s="117">
         <f t="shared" si="55"/>
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AK43" s="117">
         <f t="shared" si="55"/>
-        <v>0</v>
-      </c>
-      <c r="AL43" s="121">
+        <v>2</v>
+      </c>
+      <c r="AL43" s="122">
         <f t="shared" ref="AL43" si="57">AL16*AL$6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM43" s="117">
         <f t="shared" si="55"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN43" s="117">
         <f t="shared" si="55"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AO43" s="117">
         <f t="shared" si="55"/>
@@ -15599,7 +16946,7 @@
     <row r="44" spans="1:90" x14ac:dyDescent="0.25">
       <c r="H44" s="117">
         <f>SUM(I44:CJ44)</f>
-        <v>7</v>
+        <v>15.375</v>
       </c>
       <c r="I44" s="117">
         <f t="shared" ref="I44:AZ44" si="59">I17*I$6</f>
@@ -15693,7 +17040,7 @@
         <f t="shared" si="59"/>
         <v>0</v>
       </c>
-      <c r="AF44" s="121">
+      <c r="AF44" s="122">
         <f t="shared" ref="AF44" si="60">AF17*AF$6</f>
         <v>0</v>
       </c>
@@ -15707,27 +17054,27 @@
       </c>
       <c r="AI44" s="117">
         <f t="shared" si="59"/>
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AJ44" s="117">
         <f t="shared" si="59"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AK44" s="117">
         <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="AL44" s="121">
+        <v>2</v>
+      </c>
+      <c r="AL44" s="122">
         <f t="shared" ref="AL44" si="61">AL17*AL$6</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM44" s="117">
         <f t="shared" si="59"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN44" s="117">
         <f t="shared" si="59"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO44" s="117">
         <f t="shared" si="59"/>
@@ -15933,7 +17280,7 @@
     <row r="45" spans="1:90" x14ac:dyDescent="0.25">
       <c r="H45" s="117">
         <f>SUM(I45:CJ45)</f>
-        <v>2.5</v>
+        <v>11</v>
       </c>
       <c r="I45" s="117">
         <f t="shared" ref="I45:AZ45" si="63">I18*I$6</f>
@@ -16027,7 +17374,7 @@
         <f t="shared" si="63"/>
         <v>0</v>
       </c>
-      <c r="AF45" s="121">
+      <c r="AF45" s="122">
         <f t="shared" ref="AF45" si="64">AF18*AF$6</f>
         <v>0</v>
       </c>
@@ -16041,27 +17388,27 @@
       </c>
       <c r="AI45" s="117">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ45" s="117">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AK45" s="117">
         <f t="shared" si="63"/>
-        <v>0</v>
-      </c>
-      <c r="AL45" s="121">
+        <v>2</v>
+      </c>
+      <c r="AL45" s="122">
         <f t="shared" ref="AL45" si="65">AL18*AL$6</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM45" s="117">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN45" s="117">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO45" s="117">
         <f t="shared" si="63"/>
@@ -16267,7 +17614,7 @@
     <row r="46" spans="1:90" x14ac:dyDescent="0.25">
       <c r="H46" s="117">
         <f>SUM(I46:CJ46)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I46" s="117">
         <f t="shared" ref="I46:AZ46" si="67">I19*I$6</f>
@@ -16361,7 +17708,7 @@
         <f t="shared" si="67"/>
         <v>0</v>
       </c>
-      <c r="AF46" s="121">
+      <c r="AF46" s="122">
         <f t="shared" ref="AF46" si="68">AF19*AF$6</f>
         <v>0</v>
       </c>
@@ -16375,27 +17722,27 @@
       </c>
       <c r="AI46" s="117">
         <f t="shared" si="67"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ46" s="117">
         <f t="shared" si="67"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK46" s="117">
         <f t="shared" si="67"/>
-        <v>0</v>
-      </c>
-      <c r="AL46" s="121">
+        <v>2</v>
+      </c>
+      <c r="AL46" s="122">
         <f t="shared" ref="AL46" si="69">AL19*AL$6</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM46" s="117">
         <f t="shared" si="67"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN46" s="117">
         <f t="shared" si="67"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO46" s="117">
         <f t="shared" si="67"/>
@@ -16601,7 +17948,7 @@
     <row r="47" spans="1:90" x14ac:dyDescent="0.25">
       <c r="H47" s="117">
         <f>SUM(I47:CJ47)</f>
-        <v>0</v>
+        <v>5.25</v>
       </c>
       <c r="I47" s="117">
         <f t="shared" ref="I47:AZ47" si="71">I20*I$6</f>
@@ -16681,11 +18028,11 @@
       </c>
       <c r="AB47" s="117">
         <f t="shared" si="71"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC47" s="117">
         <f t="shared" si="71"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD47" s="117">
         <f t="shared" si="71"/>
@@ -16695,7 +18042,7 @@
         <f t="shared" si="71"/>
         <v>0</v>
       </c>
-      <c r="AF47" s="121">
+      <c r="AF47" s="122">
         <f t="shared" ref="AF47" si="72">AF20*AF$6</f>
         <v>0</v>
       </c>
@@ -16705,21 +18052,21 @@
       </c>
       <c r="AH47" s="117">
         <f t="shared" si="71"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AI47" s="117">
         <f t="shared" si="71"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AJ47" s="117">
         <f t="shared" si="71"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AK47" s="117">
         <f t="shared" si="71"/>
         <v>0</v>
       </c>
-      <c r="AL47" s="121">
+      <c r="AL47" s="122">
         <f t="shared" ref="AL47" si="73">AL20*AL$6</f>
         <v>0</v>
       </c>
@@ -16729,11 +18076,11 @@
       </c>
       <c r="AN47" s="117">
         <f t="shared" si="71"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AO47" s="117">
         <f t="shared" si="71"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP47" s="117">
         <f t="shared" si="71"/>
@@ -16935,7 +18282,7 @@
     <row r="48" spans="1:90" x14ac:dyDescent="0.25">
       <c r="H48" s="117">
         <f>SUM(I48:CJ48)</f>
-        <v>2</v>
+        <v>8.5</v>
       </c>
       <c r="I48" s="117">
         <f t="shared" ref="I48:AZ48" si="75">I21*I$6</f>
@@ -17029,7 +18376,7 @@
         <f t="shared" si="75"/>
         <v>0</v>
       </c>
-      <c r="AF48" s="121">
+      <c r="AF48" s="122">
         <f t="shared" ref="AF48" si="76">AF21*AF$6</f>
         <v>0</v>
       </c>
@@ -17043,19 +18390,19 @@
       </c>
       <c r="AI48" s="117">
         <f t="shared" si="75"/>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AJ48" s="117">
         <f t="shared" si="75"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK48" s="117">
         <f t="shared" si="75"/>
-        <v>0</v>
-      </c>
-      <c r="AL48" s="121">
+        <v>2</v>
+      </c>
+      <c r="AL48" s="122">
         <f t="shared" ref="AL48" si="77">AL21*AL$6</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AM48" s="117">
         <f t="shared" si="75"/>
@@ -17063,7 +18410,7 @@
       </c>
       <c r="AN48" s="117">
         <f t="shared" si="75"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AO48" s="117">
         <f t="shared" si="75"/>
@@ -17272,7 +18619,7 @@
       <c r="F49" s="18"/>
       <c r="H49" s="117">
         <f>SUM(I49:CJ49)</f>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="I49" s="117">
         <f t="shared" ref="I49:AZ49" si="79">I22*I$6</f>
@@ -17366,7 +18713,7 @@
         <f t="shared" si="79"/>
         <v>0</v>
       </c>
-      <c r="AF49" s="121">
+      <c r="AF49" s="122">
         <f t="shared" ref="AF49" si="80">AF22*AF$6</f>
         <v>0</v>
       </c>
@@ -17380,27 +18727,27 @@
       </c>
       <c r="AI49" s="117">
         <f t="shared" si="79"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ49" s="117">
         <f t="shared" si="79"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK49" s="117">
         <f t="shared" si="79"/>
-        <v>0</v>
-      </c>
-      <c r="AL49" s="121">
+        <v>2</v>
+      </c>
+      <c r="AL49" s="122">
         <f t="shared" ref="AL49" si="81">AL22*AL$6</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM49" s="117">
         <f t="shared" si="79"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN49" s="117">
         <f t="shared" si="79"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO49" s="117">
         <f t="shared" si="79"/>
@@ -17609,7 +18956,7 @@
       <c r="F50" s="18"/>
       <c r="H50" s="117">
         <f>SUM(I50:CJ50)</f>
-        <v>2</v>
+        <v>7.875</v>
       </c>
       <c r="I50" s="117">
         <f t="shared" ref="I50:AZ50" si="83">I23*I$6</f>
@@ -17703,7 +19050,7 @@
         <f t="shared" si="83"/>
         <v>0</v>
       </c>
-      <c r="AF50" s="121">
+      <c r="AF50" s="122">
         <f t="shared" ref="AF50" si="84">AF23*AF$6</f>
         <v>0</v>
       </c>
@@ -17717,19 +19064,19 @@
       </c>
       <c r="AI50" s="117">
         <f t="shared" si="83"/>
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AJ50" s="117">
         <f t="shared" si="83"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AK50" s="117">
         <f t="shared" si="83"/>
-        <v>0</v>
-      </c>
-      <c r="AL50" s="121">
+        <v>2</v>
+      </c>
+      <c r="AL50" s="122">
         <f t="shared" ref="AL50" si="85">AL23*AL$6</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM50" s="117">
         <f t="shared" si="83"/>
@@ -17737,7 +19084,7 @@
       </c>
       <c r="AN50" s="117">
         <f t="shared" si="83"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AO50" s="117">
         <f t="shared" si="83"/>
@@ -17946,7 +19293,7 @@
       <c r="F51" s="18"/>
       <c r="H51" s="117">
         <f>SUM(I51:CJ51)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I51" s="117">
         <f t="shared" ref="I51:AZ51" si="87">I24*I$6</f>
@@ -18040,7 +19387,7 @@
         <f t="shared" si="87"/>
         <v>0</v>
       </c>
-      <c r="AF51" s="121">
+      <c r="AF51" s="122">
         <f t="shared" ref="AF51" si="88">AF24*AF$6</f>
         <v>0</v>
       </c>
@@ -18054,19 +19401,19 @@
       </c>
       <c r="AI51" s="117">
         <f t="shared" si="87"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ51" s="117">
         <f t="shared" si="87"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AK51" s="117">
         <f t="shared" si="87"/>
-        <v>0</v>
-      </c>
-      <c r="AL51" s="121">
+        <v>2</v>
+      </c>
+      <c r="AL51" s="122">
         <f t="shared" ref="AL51" si="89">AL24*AL$6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM51" s="117">
         <f t="shared" si="87"/>
@@ -18074,7 +19421,7 @@
       </c>
       <c r="AN51" s="117">
         <f t="shared" si="87"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AO51" s="117">
         <f t="shared" si="87"/>
@@ -18283,7 +19630,7 @@
       <c r="F52" s="18"/>
       <c r="H52" s="117">
         <f>SUM(I52:CJ52)</f>
-        <v>7</v>
+        <v>10.625</v>
       </c>
       <c r="I52" s="117">
         <f t="shared" ref="I52:BV60" si="91">I25*I$6</f>
@@ -18377,7 +19724,7 @@
         <f t="shared" si="91"/>
         <v>0</v>
       </c>
-      <c r="AF52" s="121">
+      <c r="AF52" s="122">
         <f t="shared" ref="AF52" si="92">AF25*AF$6</f>
         <v>0</v>
       </c>
@@ -18391,19 +19738,19 @@
       </c>
       <c r="AI52" s="117">
         <f t="shared" si="91"/>
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AJ52" s="117">
         <f t="shared" si="91"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AK52" s="117">
         <f t="shared" si="91"/>
-        <v>0</v>
-      </c>
-      <c r="AL52" s="121">
+        <v>2</v>
+      </c>
+      <c r="AL52" s="122">
         <f t="shared" ref="AL52" si="93">AL25*AL$6</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AM52" s="117">
         <f t="shared" si="91"/>
@@ -18620,7 +19967,7 @@
       <c r="F53" s="18"/>
       <c r="H53" s="117">
         <f>SUM(I53:CJ53)</f>
-        <v>5</v>
+        <v>12.5</v>
       </c>
       <c r="I53" s="117">
         <f t="shared" ref="I53:AZ53" si="95">I26*I$6</f>
@@ -18714,7 +20061,7 @@
         <f t="shared" si="95"/>
         <v>0</v>
       </c>
-      <c r="AF53" s="121">
+      <c r="AF53" s="122">
         <f t="shared" ref="AF53" si="96">AF26*AF$6</f>
         <v>0</v>
       </c>
@@ -18728,27 +20075,27 @@
       </c>
       <c r="AI53" s="117">
         <f t="shared" si="95"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ53" s="117">
         <f t="shared" si="95"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AK53" s="117">
         <f t="shared" si="95"/>
-        <v>0</v>
-      </c>
-      <c r="AL53" s="121">
+        <v>2</v>
+      </c>
+      <c r="AL53" s="122">
         <f t="shared" ref="AL53" si="97">AL26*AL$6</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM53" s="117">
         <f t="shared" si="95"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN53" s="117">
         <f t="shared" si="95"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO53" s="117">
         <f t="shared" si="95"/>
@@ -18957,7 +20304,7 @@
       <c r="F54" s="18"/>
       <c r="H54" s="117">
         <f>SUM(I54:CJ54)</f>
-        <v>7</v>
+        <v>15.625</v>
       </c>
       <c r="I54" s="117">
         <f t="shared" ref="I54:AZ54" si="99">I27*I$6</f>
@@ -19051,7 +20398,7 @@
         <f t="shared" si="99"/>
         <v>0</v>
       </c>
-      <c r="AF54" s="121">
+      <c r="AF54" s="122">
         <f t="shared" ref="AF54" si="100">AF27*AF$6</f>
         <v>0</v>
       </c>
@@ -19065,27 +20412,27 @@
       </c>
       <c r="AI54" s="117">
         <f t="shared" si="99"/>
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AJ54" s="117">
         <f t="shared" si="99"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK54" s="117">
         <f t="shared" si="99"/>
-        <v>0</v>
-      </c>
-      <c r="AL54" s="121">
+        <v>2</v>
+      </c>
+      <c r="AL54" s="122">
         <f t="shared" ref="AL54" si="101">AL27*AL$6</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM54" s="117">
         <f t="shared" si="99"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN54" s="117">
         <f t="shared" si="99"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AO54" s="117">
         <f t="shared" si="99"/>
@@ -19291,7 +20638,7 @@
     <row r="55" spans="4:90" x14ac:dyDescent="0.25">
       <c r="H55" s="117">
         <f>SUM(I55:CJ55)</f>
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="I55" s="117">
         <f t="shared" ref="I55:AZ55" si="103">I28*I$6</f>
@@ -19385,7 +20732,7 @@
         <f t="shared" si="103"/>
         <v>0</v>
       </c>
-      <c r="AF55" s="121">
+      <c r="AF55" s="122">
         <f t="shared" ref="AF55" si="104">AF28*AF$6</f>
         <v>0</v>
       </c>
@@ -19399,27 +20746,27 @@
       </c>
       <c r="AI55" s="117">
         <f t="shared" si="103"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ55" s="117">
         <f t="shared" si="103"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK55" s="117">
         <f t="shared" si="103"/>
-        <v>0</v>
-      </c>
-      <c r="AL55" s="121">
+        <v>2</v>
+      </c>
+      <c r="AL55" s="122">
         <f t="shared" ref="AL55" si="105">AL28*AL$6</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM55" s="117">
         <f t="shared" si="103"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN55" s="117">
         <f t="shared" si="103"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO55" s="117">
         <f t="shared" si="103"/>
@@ -19722,7 +21069,7 @@
         <f t="shared" si="107"/>
         <v>0</v>
       </c>
-      <c r="AF56" s="121">
+      <c r="AF56" s="122">
         <f t="shared" ref="AF56" si="108">AF29*AF$6</f>
         <v>0</v>
       </c>
@@ -19746,7 +21093,7 @@
         <f t="shared" si="107"/>
         <v>0</v>
       </c>
-      <c r="AL56" s="121">
+      <c r="AL56" s="122">
         <f t="shared" ref="AL56" si="109">AL29*AL$6</f>
         <v>0</v>
       </c>
@@ -20059,7 +21406,7 @@
         <f t="shared" si="111"/>
         <v>0</v>
       </c>
-      <c r="AF57" s="121">
+      <c r="AF57" s="122">
         <f t="shared" ref="AF57" si="112">AF30*AF$6</f>
         <v>0</v>
       </c>
@@ -20083,7 +21430,7 @@
         <f t="shared" si="111"/>
         <v>0</v>
       </c>
-      <c r="AL57" s="121">
+      <c r="AL57" s="122">
         <f t="shared" ref="AL57" si="113">AL30*AL$6</f>
         <v>0</v>
       </c>
@@ -20396,7 +21743,7 @@
         <f t="shared" si="115"/>
         <v>0</v>
       </c>
-      <c r="AF58" s="121">
+      <c r="AF58" s="122">
         <f t="shared" ref="AF58" si="116">AF31*AF$6</f>
         <v>0</v>
       </c>
@@ -20420,7 +21767,7 @@
         <f t="shared" si="115"/>
         <v>0</v>
       </c>
-      <c r="AL58" s="121">
+      <c r="AL58" s="122">
         <f t="shared" ref="AL58" si="117">AL31*AL$6</f>
         <v>0</v>
       </c>
@@ -20733,7 +22080,7 @@
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="AF59" s="121">
+      <c r="AF59" s="122">
         <f t="shared" ref="AF59" si="120">AF32*AF$6</f>
         <v>0</v>
       </c>
@@ -20757,7 +22104,7 @@
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="AL59" s="121">
+      <c r="AL59" s="122">
         <f t="shared" ref="AL59" si="121">AL32*AL$6</f>
         <v>0</v>
       </c>
@@ -21070,7 +22417,7 @@
         <f t="shared" si="123"/>
         <v>4</v>
       </c>
-      <c r="AF60" s="121">
+      <c r="AF60" s="122">
         <f t="shared" ref="AF60" si="124">AF33*AF$6</f>
         <v>2</v>
       </c>
@@ -21094,7 +22441,7 @@
         <f t="shared" si="123"/>
         <v>2</v>
       </c>
-      <c r="AL60" s="121">
+      <c r="AL60" s="122">
         <f t="shared" ref="AL60" si="125">AL33*AL$6</f>
         <v>2</v>
       </c>
@@ -21312,8 +22659,8 @@
       <c r="E61" s="18"/>
       <c r="F61" s="18"/>
       <c r="AE61" s="79"/>
-      <c r="AF61" s="121"/>
-      <c r="AL61" s="121"/>
+      <c r="AF61" s="122"/>
+      <c r="AL61" s="122"/>
       <c r="AP61" s="79"/>
       <c r="AQ61" s="86"/>
       <c r="AS61" s="96"/>
@@ -21364,8 +22711,8 @@
       <c r="E62" s="18"/>
       <c r="F62" s="18"/>
       <c r="AE62" s="79"/>
-      <c r="AF62" s="121"/>
-      <c r="AL62" s="121"/>
+      <c r="AF62" s="122"/>
+      <c r="AL62" s="122"/>
       <c r="AP62" s="79"/>
       <c r="AQ62" s="86"/>
       <c r="AS62" s="96"/>
@@ -21508,7 +22855,7 @@
         <f t="shared" si="127"/>
         <v>0</v>
       </c>
-      <c r="AF65" s="121">
+      <c r="AF65" s="122">
         <f t="shared" ref="AF65" si="128">AF9*AF$7</f>
         <v>0</v>
       </c>
@@ -21532,7 +22879,7 @@
         <f t="shared" si="129"/>
         <v>1</v>
       </c>
-      <c r="AL65" s="121">
+      <c r="AL65" s="122">
         <f t="shared" ref="AL65" si="130">AL9*AL$7</f>
         <v>0.5</v>
       </c>
@@ -21748,7 +23095,7 @@
     <row r="66" spans="4:90" x14ac:dyDescent="0.25">
       <c r="H66" s="117">
         <f>SUM(I66:CJ66)</f>
-        <v>7.75</v>
+        <v>7.5</v>
       </c>
       <c r="I66" s="117">
         <f t="shared" ref="I66:BV66" si="135">I10*I$7</f>
@@ -21842,7 +23189,7 @@
         <f t="shared" si="135"/>
         <v>0</v>
       </c>
-      <c r="AF66" s="121">
+      <c r="AF66" s="122">
         <f t="shared" ref="AF66" si="136">AF10*AF$7</f>
         <v>0</v>
       </c>
@@ -21866,7 +23213,7 @@
         <f t="shared" si="135"/>
         <v>1</v>
       </c>
-      <c r="AL66" s="121">
+      <c r="AL66" s="122">
         <f t="shared" ref="AL66" si="137">AL10*AL$7</f>
         <v>0.875</v>
       </c>
@@ -21876,7 +23223,7 @@
       </c>
       <c r="AN66" s="117">
         <f t="shared" si="135"/>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AO66" s="117">
         <f t="shared" si="135"/>
@@ -22082,7 +23429,7 @@
     <row r="67" spans="4:90" x14ac:dyDescent="0.25">
       <c r="H67" s="117">
         <f>SUM(I67:CJ67)</f>
-        <v>6.875</v>
+        <v>6.625</v>
       </c>
       <c r="I67" s="117">
         <f t="shared" ref="I67:BV67" si="139">I11*I$7</f>
@@ -22176,7 +23523,7 @@
         <f t="shared" si="139"/>
         <v>0</v>
       </c>
-      <c r="AF67" s="121">
+      <c r="AF67" s="122">
         <f t="shared" ref="AF67" si="140">AF11*AF$7</f>
         <v>0</v>
       </c>
@@ -22200,7 +23547,7 @@
         <f t="shared" si="139"/>
         <v>1</v>
       </c>
-      <c r="AL67" s="121">
+      <c r="AL67" s="122">
         <f t="shared" ref="AL67" si="141">AL11*AL$7</f>
         <v>0</v>
       </c>
@@ -22210,7 +23557,7 @@
       </c>
       <c r="AN67" s="117">
         <f t="shared" si="139"/>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AO67" s="117">
         <f t="shared" si="139"/>
@@ -22510,7 +23857,7 @@
         <f t="shared" si="143"/>
         <v>0</v>
       </c>
-      <c r="AF68" s="121">
+      <c r="AF68" s="122">
         <f t="shared" ref="AF68" si="144">AF12*AF$7</f>
         <v>0</v>
       </c>
@@ -22534,7 +23881,7 @@
         <f t="shared" si="143"/>
         <v>1</v>
       </c>
-      <c r="AL68" s="121">
+      <c r="AL68" s="122">
         <f t="shared" ref="AL68" si="145">AL12*AL$7</f>
         <v>1</v>
       </c>
@@ -22750,7 +24097,7 @@
     <row r="69" spans="4:90" x14ac:dyDescent="0.25">
       <c r="H69" s="117">
         <f>SUM(I69:CJ69)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I69" s="117">
         <f t="shared" ref="I69:BV69" si="147">I13*I$7</f>
@@ -22844,7 +24191,7 @@
         <f t="shared" si="147"/>
         <v>0</v>
       </c>
-      <c r="AF69" s="121">
+      <c r="AF69" s="122">
         <f t="shared" ref="AF69" si="148">AF13*AF$7</f>
         <v>0</v>
       </c>
@@ -22858,27 +24205,27 @@
       </c>
       <c r="AI69" s="117">
         <f t="shared" si="147"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ69" s="117">
         <f t="shared" si="147"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK69" s="117">
         <f t="shared" si="147"/>
-        <v>0</v>
-      </c>
-      <c r="AL69" s="121">
+        <v>1</v>
+      </c>
+      <c r="AL69" s="122">
         <f t="shared" ref="AL69" si="149">AL13*AL$7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM69" s="117">
         <f t="shared" si="147"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN69" s="117">
         <f t="shared" si="147"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO69" s="117">
         <f t="shared" si="147"/>
@@ -23084,7 +24431,7 @@
     <row r="70" spans="4:90" x14ac:dyDescent="0.25">
       <c r="H70" s="117">
         <f>SUM(I70:CJ70)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I70" s="117">
         <f t="shared" ref="I70:BV70" si="151">I14*I$7</f>
@@ -23178,7 +24525,7 @@
         <f t="shared" si="151"/>
         <v>0</v>
       </c>
-      <c r="AF70" s="121">
+      <c r="AF70" s="122">
         <f t="shared" ref="AF70" si="152">AF14*AF$7</f>
         <v>0</v>
       </c>
@@ -23192,19 +24539,19 @@
       </c>
       <c r="AI70" s="117">
         <f t="shared" si="151"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ70" s="117">
         <f t="shared" si="151"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK70" s="117">
         <f t="shared" si="151"/>
-        <v>0</v>
-      </c>
-      <c r="AL70" s="121">
+        <v>0.5</v>
+      </c>
+      <c r="AL70" s="122">
         <f t="shared" ref="AL70" si="153">AL14*AL$7</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AM70" s="117">
         <f t="shared" si="151"/>
@@ -23212,7 +24559,7 @@
       </c>
       <c r="AN70" s="117">
         <f t="shared" si="151"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO70" s="117">
         <f t="shared" si="151"/>
@@ -23418,7 +24765,7 @@
     <row r="71" spans="4:90" x14ac:dyDescent="0.25">
       <c r="H71" s="117">
         <f>SUM(I71:CJ71)</f>
-        <v>1</v>
+        <v>6.5</v>
       </c>
       <c r="I71" s="117">
         <f t="shared" ref="I71:BV71" si="155">I15*I$7</f>
@@ -23512,7 +24859,7 @@
         <f t="shared" si="155"/>
         <v>0</v>
       </c>
-      <c r="AF71" s="121">
+      <c r="AF71" s="122">
         <f t="shared" ref="AF71" si="156">AF15*AF$7</f>
         <v>0</v>
       </c>
@@ -23526,27 +24873,27 @@
       </c>
       <c r="AI71" s="117">
         <f t="shared" si="155"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ71" s="117">
         <f t="shared" si="155"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AK71" s="117">
         <f t="shared" si="155"/>
-        <v>0</v>
-      </c>
-      <c r="AL71" s="121">
+        <v>1</v>
+      </c>
+      <c r="AL71" s="122">
         <f t="shared" ref="AL71" si="157">AL15*AL$7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM71" s="117">
         <f t="shared" si="155"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN71" s="117">
         <f t="shared" si="155"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AO71" s="117">
         <f t="shared" si="155"/>
@@ -23752,7 +25099,7 @@
     <row r="72" spans="4:90" x14ac:dyDescent="0.25">
       <c r="H72" s="117">
         <f>SUM(I72:CJ72)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I72" s="117">
         <f t="shared" ref="I72:BV72" si="159">I16*I$7</f>
@@ -23846,7 +25193,7 @@
         <f t="shared" si="159"/>
         <v>0</v>
       </c>
-      <c r="AF72" s="121">
+      <c r="AF72" s="122">
         <f t="shared" ref="AF72" si="160">AF16*AF$7</f>
         <v>0</v>
       </c>
@@ -23860,27 +25207,27 @@
       </c>
       <c r="AI72" s="117">
         <f t="shared" si="159"/>
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AJ72" s="117">
         <f t="shared" si="159"/>
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AK72" s="117">
         <f t="shared" si="159"/>
-        <v>0</v>
-      </c>
-      <c r="AL72" s="121">
+        <v>1</v>
+      </c>
+      <c r="AL72" s="122">
         <f t="shared" ref="AL72" si="161">AL16*AL$7</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AM72" s="117">
         <f t="shared" si="159"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN72" s="117">
         <f t="shared" si="159"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AO72" s="117">
         <f t="shared" si="159"/>
@@ -24086,7 +25433,7 @@
     <row r="73" spans="4:90" x14ac:dyDescent="0.25">
       <c r="H73" s="117">
         <f>SUM(I73:CJ73)</f>
-        <v>2</v>
+        <v>7.625</v>
       </c>
       <c r="I73" s="117">
         <f t="shared" ref="I73:BV73" si="163">I17*I$7</f>
@@ -24180,7 +25527,7 @@
         <f t="shared" si="163"/>
         <v>0</v>
       </c>
-      <c r="AF73" s="121">
+      <c r="AF73" s="122">
         <f t="shared" ref="AF73" si="164">AF17*AF$7</f>
         <v>0</v>
       </c>
@@ -24194,27 +25541,27 @@
       </c>
       <c r="AI73" s="117">
         <f t="shared" si="163"/>
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AJ73" s="117">
         <f t="shared" si="163"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AK73" s="117">
         <f t="shared" si="163"/>
-        <v>0</v>
-      </c>
-      <c r="AL73" s="121">
+        <v>1</v>
+      </c>
+      <c r="AL73" s="122">
         <f t="shared" ref="AL73" si="165">AL17*AL$7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM73" s="117">
         <f t="shared" si="163"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN73" s="117">
         <f t="shared" si="163"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO73" s="117">
         <f t="shared" si="163"/>
@@ -24420,7 +25767,7 @@
     <row r="74" spans="4:90" x14ac:dyDescent="0.25">
       <c r="H74" s="117">
         <f>SUM(I74:CJ74)</f>
-        <v>0.5</v>
+        <v>6.25</v>
       </c>
       <c r="I74" s="117">
         <f t="shared" ref="I74:BV74" si="167">I18*I$7</f>
@@ -24514,7 +25861,7 @@
         <f t="shared" si="167"/>
         <v>0</v>
       </c>
-      <c r="AF74" s="121">
+      <c r="AF74" s="122">
         <f t="shared" ref="AF74" si="168">AF18*AF$7</f>
         <v>0</v>
       </c>
@@ -24528,27 +25875,27 @@
       </c>
       <c r="AI74" s="117">
         <f t="shared" si="167"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ74" s="117">
         <f t="shared" si="167"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AK74" s="117">
         <f t="shared" si="167"/>
-        <v>0</v>
-      </c>
-      <c r="AL74" s="121">
+        <v>1</v>
+      </c>
+      <c r="AL74" s="122">
         <f t="shared" ref="AL74" si="169">AL18*AL$7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM74" s="117">
         <f t="shared" si="167"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN74" s="117">
         <f t="shared" si="167"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO74" s="117">
         <f t="shared" si="167"/>
@@ -24754,7 +26101,7 @@
     <row r="75" spans="4:90" x14ac:dyDescent="0.25">
       <c r="H75" s="117">
         <f>SUM(I75:CJ75)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I75" s="117">
         <f t="shared" ref="I75:BV75" si="171">I19*I$7</f>
@@ -24848,7 +26195,7 @@
         <f t="shared" si="171"/>
         <v>0</v>
       </c>
-      <c r="AF75" s="121">
+      <c r="AF75" s="122">
         <f t="shared" ref="AF75" si="172">AF19*AF$7</f>
         <v>0</v>
       </c>
@@ -24862,27 +26209,27 @@
       </c>
       <c r="AI75" s="117">
         <f t="shared" si="171"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ75" s="117">
         <f t="shared" si="171"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK75" s="117">
         <f t="shared" si="171"/>
-        <v>0</v>
-      </c>
-      <c r="AL75" s="121">
+        <v>1</v>
+      </c>
+      <c r="AL75" s="122">
         <f t="shared" ref="AL75" si="173">AL19*AL$7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM75" s="117">
         <f t="shared" si="171"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN75" s="117">
         <f t="shared" si="171"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO75" s="117">
         <f t="shared" si="171"/>
@@ -25088,7 +26435,7 @@
     <row r="76" spans="4:90" x14ac:dyDescent="0.25">
       <c r="H76" s="117">
         <f>SUM(I76:CJ76)</f>
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="I76" s="117">
         <f t="shared" ref="I76:BV76" si="175">I20*I$7</f>
@@ -25168,11 +26515,11 @@
       </c>
       <c r="AB76" s="117">
         <f t="shared" si="175"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AC76" s="117">
         <f t="shared" si="175"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="AD76" s="117">
         <f t="shared" si="175"/>
@@ -25182,7 +26529,7 @@
         <f t="shared" si="175"/>
         <v>0</v>
       </c>
-      <c r="AF76" s="121">
+      <c r="AF76" s="122">
         <f t="shared" ref="AF76" si="176">AF20*AF$7</f>
         <v>0</v>
       </c>
@@ -25192,21 +26539,21 @@
       </c>
       <c r="AH76" s="117">
         <f t="shared" si="175"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AI76" s="117">
         <f t="shared" si="175"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AJ76" s="117">
         <f t="shared" si="175"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="AK76" s="117">
         <f t="shared" si="175"/>
         <v>0</v>
       </c>
-      <c r="AL76" s="121">
+      <c r="AL76" s="122">
         <f t="shared" ref="AL76" si="177">AL20*AL$7</f>
         <v>0</v>
       </c>
@@ -25216,11 +26563,11 @@
       </c>
       <c r="AN76" s="117">
         <f t="shared" si="175"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AO76" s="117">
         <f t="shared" si="175"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP76" s="117">
         <f t="shared" si="175"/>
@@ -25422,7 +26769,7 @@
     <row r="77" spans="4:90" x14ac:dyDescent="0.25">
       <c r="H77" s="117">
         <f>SUM(I77:CJ77)</f>
-        <v>1</v>
+        <v>5.25</v>
       </c>
       <c r="I77" s="117">
         <f t="shared" ref="I77:BV77" si="179">I21*I$7</f>
@@ -25516,7 +26863,7 @@
         <f t="shared" si="179"/>
         <v>0</v>
       </c>
-      <c r="AF77" s="121">
+      <c r="AF77" s="122">
         <f t="shared" ref="AF77" si="180">AF21*AF$7</f>
         <v>0</v>
       </c>
@@ -25530,19 +26877,19 @@
       </c>
       <c r="AI77" s="117">
         <f t="shared" si="179"/>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AJ77" s="117">
         <f t="shared" si="179"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK77" s="117">
         <f t="shared" si="179"/>
-        <v>0</v>
-      </c>
-      <c r="AL77" s="121">
+        <v>1</v>
+      </c>
+      <c r="AL77" s="122">
         <f t="shared" ref="AL77" si="181">AL21*AL$7</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AM77" s="117">
         <f t="shared" si="179"/>
@@ -25550,7 +26897,7 @@
       </c>
       <c r="AN77" s="117">
         <f t="shared" si="179"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AO77" s="117">
         <f t="shared" si="179"/>
@@ -25759,7 +27106,7 @@
       <c r="F78" s="18"/>
       <c r="H78" s="117">
         <f>SUM(I78:CJ78)</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I78" s="117">
         <f t="shared" ref="I78:BV78" si="183">I22*I$7</f>
@@ -25853,7 +27200,7 @@
         <f t="shared" si="183"/>
         <v>0</v>
       </c>
-      <c r="AF78" s="121">
+      <c r="AF78" s="122">
         <f t="shared" ref="AF78" si="184">AF22*AF$7</f>
         <v>0</v>
       </c>
@@ -25867,27 +27214,27 @@
       </c>
       <c r="AI78" s="117">
         <f t="shared" si="183"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ78" s="117">
         <f t="shared" si="183"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK78" s="117">
         <f t="shared" si="183"/>
-        <v>0</v>
-      </c>
-      <c r="AL78" s="121">
+        <v>1</v>
+      </c>
+      <c r="AL78" s="122">
         <f t="shared" ref="AL78" si="185">AL22*AL$7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM78" s="117">
         <f t="shared" si="183"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN78" s="117">
         <f t="shared" si="183"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO78" s="117">
         <f t="shared" si="183"/>
@@ -26096,7 +27443,7 @@
       <c r="F79" s="18"/>
       <c r="H79" s="117">
         <f>SUM(I79:CJ79)</f>
-        <v>1</v>
+        <v>4.75</v>
       </c>
       <c r="I79" s="117">
         <f t="shared" ref="I79:BV79" si="187">I23*I$7</f>
@@ -26190,7 +27537,7 @@
         <f t="shared" si="187"/>
         <v>0</v>
       </c>
-      <c r="AF79" s="121">
+      <c r="AF79" s="122">
         <f t="shared" ref="AF79" si="188">AF23*AF$7</f>
         <v>0</v>
       </c>
@@ -26204,19 +27551,19 @@
       </c>
       <c r="AI79" s="117">
         <f t="shared" si="187"/>
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AJ79" s="117">
         <f t="shared" si="187"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="AK79" s="117">
         <f t="shared" si="187"/>
-        <v>0</v>
-      </c>
-      <c r="AL79" s="121">
+        <v>1</v>
+      </c>
+      <c r="AL79" s="122">
         <f t="shared" ref="AL79" si="189">AL23*AL$7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM79" s="117">
         <f t="shared" si="187"/>
@@ -26224,7 +27571,7 @@
       </c>
       <c r="AN79" s="117">
         <f t="shared" si="187"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AO79" s="117">
         <f t="shared" si="187"/>
@@ -26433,7 +27780,7 @@
       <c r="F80" s="18"/>
       <c r="H80" s="117">
         <f>SUM(I80:CJ80)</f>
-        <v>1</v>
+        <v>4.375</v>
       </c>
       <c r="I80" s="117">
         <f t="shared" ref="I80:BV80" si="191">I24*I$7</f>
@@ -26527,7 +27874,7 @@
         <f t="shared" si="191"/>
         <v>0</v>
       </c>
-      <c r="AF80" s="121">
+      <c r="AF80" s="122">
         <f t="shared" ref="AF80" si="192">AF24*AF$7</f>
         <v>0</v>
       </c>
@@ -26541,19 +27888,19 @@
       </c>
       <c r="AI80" s="117">
         <f t="shared" si="191"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ80" s="117">
         <f t="shared" si="191"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="AK80" s="117">
         <f t="shared" si="191"/>
-        <v>0</v>
-      </c>
-      <c r="AL80" s="121">
+        <v>1</v>
+      </c>
+      <c r="AL80" s="122">
         <f t="shared" ref="AL80" si="193">AL24*AL$7</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AM80" s="117">
         <f t="shared" si="191"/>
@@ -26561,7 +27908,7 @@
       </c>
       <c r="AN80" s="117">
         <f t="shared" si="191"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AO80" s="117">
         <f t="shared" si="191"/>
@@ -26770,7 +28117,7 @@
       <c r="F81" s="18"/>
       <c r="H81" s="117">
         <f>SUM(I81:CJ81)</f>
-        <v>2</v>
+        <v>4.25</v>
       </c>
       <c r="I81" s="117">
         <f t="shared" ref="I81:BV81" si="195">I25*I$7</f>
@@ -26864,7 +28211,7 @@
         <f t="shared" si="195"/>
         <v>0</v>
       </c>
-      <c r="AF81" s="121">
+      <c r="AF81" s="122">
         <f t="shared" ref="AF81" si="196">AF25*AF$7</f>
         <v>0</v>
       </c>
@@ -26878,19 +28225,19 @@
       </c>
       <c r="AI81" s="117">
         <f t="shared" si="195"/>
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AJ81" s="117">
         <f t="shared" si="195"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="AK81" s="117">
         <f t="shared" si="195"/>
-        <v>0</v>
-      </c>
-      <c r="AL81" s="121">
+        <v>1</v>
+      </c>
+      <c r="AL81" s="122">
         <f t="shared" ref="AL81" si="197">AL25*AL$7</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AM81" s="117">
         <f t="shared" si="195"/>
@@ -27107,7 +28454,7 @@
       <c r="F82" s="18"/>
       <c r="H82" s="117">
         <f>SUM(I82:CJ82)</f>
-        <v>1</v>
+        <v>6.25</v>
       </c>
       <c r="I82" s="117">
         <f t="shared" ref="I82:BV82" si="199">I26*I$7</f>
@@ -27201,7 +28548,7 @@
         <f t="shared" si="199"/>
         <v>0</v>
       </c>
-      <c r="AF82" s="121">
+      <c r="AF82" s="122">
         <f t="shared" ref="AF82" si="200">AF26*AF$7</f>
         <v>0</v>
       </c>
@@ -27215,27 +28562,27 @@
       </c>
       <c r="AI82" s="117">
         <f t="shared" si="199"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ82" s="117">
         <f t="shared" si="199"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AK82" s="117">
         <f t="shared" si="199"/>
-        <v>0</v>
-      </c>
-      <c r="AL82" s="121">
+        <v>1</v>
+      </c>
+      <c r="AL82" s="122">
         <f t="shared" ref="AL82" si="201">AL26*AL$7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM82" s="117">
         <f t="shared" si="199"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN82" s="117">
         <f t="shared" si="199"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO82" s="117">
         <f t="shared" si="199"/>
@@ -27444,7 +28791,7 @@
       <c r="F83" s="18"/>
       <c r="H83" s="117">
         <f>SUM(I83:CJ83)</f>
-        <v>2</v>
+        <v>7.625</v>
       </c>
       <c r="I83" s="117">
         <f t="shared" ref="I83:BV83" si="203">I27*I$7</f>
@@ -27538,7 +28885,7 @@
         <f t="shared" si="203"/>
         <v>0</v>
       </c>
-      <c r="AF83" s="121">
+      <c r="AF83" s="122">
         <f t="shared" ref="AF83" si="204">AF27*AF$7</f>
         <v>0</v>
       </c>
@@ -27552,27 +28899,27 @@
       </c>
       <c r="AI83" s="117">
         <f t="shared" si="203"/>
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AJ83" s="117">
         <f t="shared" si="203"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK83" s="117">
         <f t="shared" si="203"/>
-        <v>0</v>
-      </c>
-      <c r="AL83" s="121">
+        <v>1</v>
+      </c>
+      <c r="AL83" s="122">
         <f t="shared" ref="AL83" si="205">AL27*AL$7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM83" s="117">
         <f t="shared" si="203"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN83" s="117">
         <f t="shared" si="203"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AO83" s="117">
         <f t="shared" si="203"/>
@@ -27781,7 +29128,7 @@
       <c r="F84" s="18"/>
       <c r="H84" s="117">
         <f>SUM(I84:CJ84)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I84" s="117">
         <f t="shared" ref="I84:BV84" si="207">I28*I$7</f>
@@ -27875,7 +29222,7 @@
         <f t="shared" si="207"/>
         <v>0</v>
       </c>
-      <c r="AF84" s="121">
+      <c r="AF84" s="122">
         <f t="shared" ref="AF84" si="208">AF28*AF$7</f>
         <v>0</v>
       </c>
@@ -27889,27 +29236,27 @@
       </c>
       <c r="AI84" s="117">
         <f t="shared" si="207"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ84" s="117">
         <f t="shared" si="207"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK84" s="117">
         <f t="shared" si="207"/>
-        <v>0</v>
-      </c>
-      <c r="AL84" s="121">
+        <v>1</v>
+      </c>
+      <c r="AL84" s="122">
         <f t="shared" ref="AL84" si="209">AL28*AL$7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM84" s="117">
         <f t="shared" si="207"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN84" s="117">
         <f t="shared" si="207"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO84" s="117">
         <f t="shared" si="207"/>
@@ -28209,7 +29556,7 @@
         <f t="shared" si="211"/>
         <v>0</v>
       </c>
-      <c r="AF85" s="121">
+      <c r="AF85" s="122">
         <f t="shared" ref="AF85" si="212">AF29*AF$7</f>
         <v>0</v>
       </c>
@@ -28233,7 +29580,7 @@
         <f t="shared" si="211"/>
         <v>0</v>
       </c>
-      <c r="AL85" s="121">
+      <c r="AL85" s="122">
         <f t="shared" ref="AL85" si="213">AL29*AL$7</f>
         <v>0</v>
       </c>
@@ -28543,7 +29890,7 @@
         <f t="shared" si="215"/>
         <v>0</v>
       </c>
-      <c r="AF86" s="121">
+      <c r="AF86" s="122">
         <f t="shared" ref="AF86" si="216">AF30*AF$7</f>
         <v>0</v>
       </c>
@@ -28567,7 +29914,7 @@
         <f t="shared" si="215"/>
         <v>0</v>
       </c>
-      <c r="AL86" s="121">
+      <c r="AL86" s="122">
         <f t="shared" ref="AL86" si="217">AL30*AL$7</f>
         <v>0</v>
       </c>
@@ -28877,7 +30224,7 @@
         <f t="shared" si="219"/>
         <v>0</v>
       </c>
-      <c r="AF87" s="121">
+      <c r="AF87" s="122">
         <f t="shared" ref="AF87" si="220">AF31*AF$7</f>
         <v>0</v>
       </c>
@@ -28901,7 +30248,7 @@
         <f t="shared" si="219"/>
         <v>0</v>
       </c>
-      <c r="AL87" s="121">
+      <c r="AL87" s="122">
         <f t="shared" ref="AL87" si="221">AL31*AL$7</f>
         <v>0</v>
       </c>
@@ -29211,7 +30558,7 @@
         <f t="shared" si="223"/>
         <v>0</v>
       </c>
-      <c r="AF88" s="121">
+      <c r="AF88" s="122">
         <f t="shared" ref="AF88" si="224">AF32*AF$7</f>
         <v>0</v>
       </c>
@@ -29235,7 +30582,7 @@
         <f t="shared" si="223"/>
         <v>0</v>
       </c>
-      <c r="AL88" s="121">
+      <c r="AL88" s="122">
         <f t="shared" ref="AL88" si="225">AL32*AL$7</f>
         <v>0</v>
       </c>
@@ -29545,7 +30892,7 @@
         <f t="shared" si="227"/>
         <v>1</v>
       </c>
-      <c r="AF89" s="121">
+      <c r="AF89" s="122">
         <f t="shared" ref="AF89" si="228">AF33*AF$7</f>
         <v>1</v>
       </c>
@@ -29569,7 +30916,7 @@
         <f t="shared" si="227"/>
         <v>1</v>
       </c>
-      <c r="AL89" s="121">
+      <c r="AL89" s="122">
         <f t="shared" ref="AL89" si="229">AL33*AL$7</f>
         <v>1</v>
       </c>
@@ -29921,197 +31268,288 @@
     <mergeCell ref="BJ4:BJ5"/>
   </mergeCells>
   <conditionalFormatting sqref="D9:F23 D32:F33">
-    <cfRule type="cellIs" dxfId="785" priority="898" operator="between">
+    <cfRule type="cellIs" dxfId="806" priority="919" operator="between">
       <formula>8</formula>
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="784" priority="899" operator="lessThan">
+    <cfRule type="cellIs" dxfId="805" priority="920" operator="lessThan">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CL9:CL21 BZ9:CB23 AO22:AO23 BW9:BX23 AR9:AU23 J9:AD23 CH9:CJ23 CH32:CJ33 J32:AD33 AR32:AU33 BW32:BX33 BZ32:CB33 AG32:AK33 AG9:AK23 AM9:AN23 AM32:AO33">
-    <cfRule type="cellIs" dxfId="783" priority="893" operator="equal">
+  <conditionalFormatting sqref="CL9:CL21 BZ9:CB23 AO22:AO23 BW9:BX23 AR9:AU23 J9:AD23 CH9:CJ23 CH32:CJ33 J32:AD33 AR32:AU33 BW32:BX33 BZ32:CB33 AG32:AK33 AM32:AO33 AG9:AK23 AM9:AN23">
+    <cfRule type="cellIs" dxfId="804" priority="914" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="782" priority="894" operator="between">
+    <cfRule type="cellIs" dxfId="803" priority="915" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="781" priority="895" operator="between">
+    <cfRule type="cellIs" dxfId="802" priority="916" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO9:AO21">
-    <cfRule type="cellIs" dxfId="780" priority="887" operator="equal">
+    <cfRule type="cellIs" dxfId="801" priority="908" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="779" priority="888" operator="between">
+    <cfRule type="cellIs" dxfId="800" priority="909" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="778" priority="889" operator="between">
+    <cfRule type="cellIs" dxfId="799" priority="910" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP9:AP19 AP21">
-    <cfRule type="cellIs" dxfId="777" priority="869" operator="equal">
+    <cfRule type="cellIs" dxfId="798" priority="890" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="776" priority="870" operator="between">
+    <cfRule type="cellIs" dxfId="797" priority="891" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="775" priority="871" operator="between">
+    <cfRule type="cellIs" dxfId="796" priority="892" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP22:AP23 AP33">
-    <cfRule type="cellIs" dxfId="774" priority="866" operator="equal">
+    <cfRule type="cellIs" dxfId="795" priority="887" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="773" priority="867" operator="between">
+    <cfRule type="cellIs" dxfId="794" priority="888" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="772" priority="868" operator="between">
+    <cfRule type="cellIs" dxfId="793" priority="889" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE9:AE14 AE16:AE23 AE32:AE33">
-    <cfRule type="cellIs" dxfId="771" priority="842" operator="equal">
+    <cfRule type="cellIs" dxfId="792" priority="863" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="770" priority="843" operator="between">
+    <cfRule type="cellIs" dxfId="791" priority="864" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="769" priority="844" operator="between">
+    <cfRule type="cellIs" dxfId="790" priority="865" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BY9:BY23 BY33">
-    <cfRule type="cellIs" dxfId="768" priority="827" operator="equal">
+    <cfRule type="cellIs" dxfId="789" priority="848" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="767" priority="828" operator="between">
+    <cfRule type="cellIs" dxfId="788" priority="849" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="766" priority="829" operator="between">
+    <cfRule type="cellIs" dxfId="787" priority="850" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE15">
-    <cfRule type="cellIs" dxfId="765" priority="821" operator="equal">
+    <cfRule type="cellIs" dxfId="786" priority="842" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="764" priority="822" operator="between">
+    <cfRule type="cellIs" dxfId="785" priority="843" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="763" priority="823" operator="between">
+    <cfRule type="cellIs" dxfId="784" priority="844" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ9:AQ19 AQ21">
-    <cfRule type="cellIs" dxfId="762" priority="812" operator="equal">
+    <cfRule type="cellIs" dxfId="783" priority="833" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="761" priority="813" operator="between">
+    <cfRule type="cellIs" dxfId="782" priority="834" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="760" priority="814" operator="between">
+    <cfRule type="cellIs" dxfId="781" priority="835" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ22:AQ23 AQ33">
-    <cfRule type="cellIs" dxfId="759" priority="809" operator="equal">
+    <cfRule type="cellIs" dxfId="780" priority="830" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="758" priority="810" operator="between">
+    <cfRule type="cellIs" dxfId="779" priority="831" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="757" priority="811" operator="between">
+    <cfRule type="cellIs" dxfId="778" priority="832" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP20">
-    <cfRule type="cellIs" dxfId="756" priority="782" operator="equal">
+    <cfRule type="cellIs" dxfId="777" priority="803" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="755" priority="783" operator="between">
+    <cfRule type="cellIs" dxfId="776" priority="804" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="754" priority="784" operator="between">
+    <cfRule type="cellIs" dxfId="775" priority="805" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ20">
-    <cfRule type="cellIs" dxfId="753" priority="776" operator="equal">
+    <cfRule type="cellIs" dxfId="774" priority="797" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="752" priority="777" operator="between">
+    <cfRule type="cellIs" dxfId="773" priority="798" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="751" priority="778" operator="between">
+    <cfRule type="cellIs" dxfId="772" priority="799" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP32">
-    <cfRule type="cellIs" dxfId="750" priority="770" operator="equal">
+    <cfRule type="cellIs" dxfId="771" priority="791" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="749" priority="771" operator="between">
+    <cfRule type="cellIs" dxfId="770" priority="792" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="748" priority="772" operator="between">
+    <cfRule type="cellIs" dxfId="769" priority="793" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ32">
-    <cfRule type="cellIs" dxfId="747" priority="764" operator="equal">
+    <cfRule type="cellIs" dxfId="768" priority="785" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="746" priority="765" operator="between">
+    <cfRule type="cellIs" dxfId="767" priority="786" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="745" priority="766" operator="between">
+    <cfRule type="cellIs" dxfId="766" priority="787" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CK9:CK21">
-    <cfRule type="cellIs" dxfId="744" priority="746" operator="equal">
+    <cfRule type="cellIs" dxfId="765" priority="767" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="743" priority="747" operator="between">
+    <cfRule type="cellIs" dxfId="764" priority="768" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="742" priority="748" operator="between">
+    <cfRule type="cellIs" dxfId="763" priority="769" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BY32">
+    <cfRule type="cellIs" dxfId="762" priority="761" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="761" priority="762" operator="between">
+      <formula>0.01</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="760" priority="763" operator="between">
+      <formula>0.26</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BB9:BD23 AV9:AV23 BF9:BG23 AY9:AY23 AY32:AY33 BF32:BG33 AV32:AV33 BB32:BD33">
+    <cfRule type="cellIs" dxfId="759" priority="758" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="758" priority="759" operator="between">
+      <formula>0.01</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="757" priority="760" operator="between">
+      <formula>0.26</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AZ9:AZ23 AZ33">
+    <cfRule type="cellIs" dxfId="756" priority="755" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="755" priority="756" operator="between">
+      <formula>0.01</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="754" priority="757" operator="between">
+      <formula>0.26</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AZ32">
+    <cfRule type="cellIs" dxfId="753" priority="752" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="752" priority="753" operator="between">
+      <formula>0.01</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="751" priority="754" operator="between">
+      <formula>0.26</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BK9:BN23 BH9:BI23 BP9:BP23 BP32:BP33 BH32:BI33 BK32:BN33">
+    <cfRule type="cellIs" dxfId="750" priority="749" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="749" priority="750" operator="between">
+      <formula>0.01</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="748" priority="751" operator="between">
+      <formula>0.26</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BJ9:BJ23 BJ33">
+    <cfRule type="cellIs" dxfId="747" priority="746" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="746" priority="747" operator="between">
+      <formula>0.01</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="745" priority="748" operator="between">
+      <formula>0.26</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BJ32">
+    <cfRule type="cellIs" dxfId="744" priority="743" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="743" priority="744" operator="between">
+      <formula>0.01</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="742" priority="745" operator="between">
+      <formula>0.26</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BT9:BV23 BQ9:BR23 BQ32:BR33 BT32:BV33">
     <cfRule type="cellIs" dxfId="741" priority="740" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -30124,7 +31562,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BB9:BD23 AV9:AV23 BF9:BG23 AY9:AY23 AY32:AY33 BF32:BG33 AV32:AV33 BB32:BD33">
+  <conditionalFormatting sqref="BS9:BS23 BS33">
     <cfRule type="cellIs" dxfId="738" priority="737" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -30137,7 +31575,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AZ9:AZ23 AZ33">
+  <conditionalFormatting sqref="BS32">
     <cfRule type="cellIs" dxfId="735" priority="734" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -30150,7 +31588,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AZ32">
+  <conditionalFormatting sqref="BA9:BA23 BA32:BA33">
     <cfRule type="cellIs" dxfId="732" priority="731" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -30163,7 +31601,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BK9:BN23 BH9:BI23 BP9:BP23 BP32:BP33 BH32:BI33 BK32:BN33">
+  <conditionalFormatting sqref="BE9:BE23 BE32:BE33">
     <cfRule type="cellIs" dxfId="729" priority="728" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -30176,7 +31614,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BJ9:BJ23 BJ33">
+  <conditionalFormatting sqref="BO9:BO23 BO32:BO33">
     <cfRule type="cellIs" dxfId="726" priority="725" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -30189,7 +31627,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BJ32">
+  <conditionalFormatting sqref="AX9:AX23 AX32:AX33">
     <cfRule type="cellIs" dxfId="723" priority="722" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -30202,7 +31640,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BT9:BV23 BQ9:BR23 BQ32:BR33 BT32:BV33">
+  <conditionalFormatting sqref="AW9:AW23 AW32:AW33">
     <cfRule type="cellIs" dxfId="720" priority="719" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -30215,7 +31653,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BS9:BS23 BS33">
+  <conditionalFormatting sqref="CC9:CC23 CC32:CC33">
     <cfRule type="cellIs" dxfId="717" priority="716" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -30228,7 +31666,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BS32">
+  <conditionalFormatting sqref="CD9:CD23 CD32:CD33">
     <cfRule type="cellIs" dxfId="714" priority="713" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -30241,7 +31679,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BA9:BA23 BA32:BA33">
+  <conditionalFormatting sqref="CE9:CE23 CE32:CE33">
     <cfRule type="cellIs" dxfId="711" priority="710" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -30254,7 +31692,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BE9:BE23 BE32:BE33">
+  <conditionalFormatting sqref="CF9:CF23 CF32:CF33">
     <cfRule type="cellIs" dxfId="708" priority="707" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -30267,7 +31705,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BO9:BO23 BO32:BO33">
+  <conditionalFormatting sqref="CG9:CG23 CG32:CG33">
     <cfRule type="cellIs" dxfId="705" priority="704" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -30280,7 +31718,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX9:AX23 AX32:AX33">
+  <conditionalFormatting sqref="CL22:CL23 CL32">
     <cfRule type="cellIs" dxfId="702" priority="701" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -30293,7 +31731,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AW9:AW23 AW32:AW33">
+  <conditionalFormatting sqref="CK22:CK23 CK32">
     <cfRule type="cellIs" dxfId="699" priority="698" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -30306,7 +31744,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CC9:CC23 CC32:CC33">
+  <conditionalFormatting sqref="I9:I23 I32">
     <cfRule type="cellIs" dxfId="696" priority="695" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -30319,107 +31757,107 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CD9:CD23 CD32:CD33">
-    <cfRule type="cellIs" dxfId="693" priority="692" operator="equal">
+  <conditionalFormatting sqref="D24:F24">
+    <cfRule type="cellIs" dxfId="693" priority="693" operator="between">
+      <formula>8</formula>
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="692" priority="694" operator="lessThan">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CH24:CJ24 J24:AD24 AR24:AU24 BW24:BX24 BZ24:CB24 AG24:AK24 AM24 AO24">
+    <cfRule type="cellIs" dxfId="691" priority="690" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="692" priority="693" operator="between">
+    <cfRule type="cellIs" dxfId="690" priority="691" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="691" priority="694" operator="between">
+    <cfRule type="cellIs" dxfId="689" priority="692" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CE9:CE23 CE32:CE33">
-    <cfRule type="cellIs" dxfId="690" priority="689" operator="equal">
+  <conditionalFormatting sqref="AE24">
+    <cfRule type="cellIs" dxfId="688" priority="687" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="689" priority="690" operator="between">
+    <cfRule type="cellIs" dxfId="687" priority="688" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="688" priority="691" operator="between">
+    <cfRule type="cellIs" dxfId="686" priority="689" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CF9:CF23 CF32:CF33">
-    <cfRule type="cellIs" dxfId="687" priority="686" operator="equal">
+  <conditionalFormatting sqref="AP24">
+    <cfRule type="cellIs" dxfId="685" priority="684" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="686" priority="687" operator="between">
+    <cfRule type="cellIs" dxfId="684" priority="685" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="685" priority="688" operator="between">
+    <cfRule type="cellIs" dxfId="683" priority="686" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CG9:CG23 CG32:CG33">
-    <cfRule type="cellIs" dxfId="684" priority="683" operator="equal">
+  <conditionalFormatting sqref="AQ24">
+    <cfRule type="cellIs" dxfId="682" priority="681" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="683" priority="684" operator="between">
+    <cfRule type="cellIs" dxfId="681" priority="682" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="682" priority="685" operator="between">
+    <cfRule type="cellIs" dxfId="680" priority="683" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CL22:CL23 CL32">
-    <cfRule type="cellIs" dxfId="681" priority="680" operator="equal">
+  <conditionalFormatting sqref="BY24">
+    <cfRule type="cellIs" dxfId="679" priority="678" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="680" priority="681" operator="between">
+    <cfRule type="cellIs" dxfId="678" priority="679" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="679" priority="682" operator="between">
+    <cfRule type="cellIs" dxfId="677" priority="680" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CK22:CK23 CK32">
-    <cfRule type="cellIs" dxfId="678" priority="677" operator="equal">
+  <conditionalFormatting sqref="AY24 BF24:BG24 AV24 BB24:BD24">
+    <cfRule type="cellIs" dxfId="676" priority="675" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="677" priority="678" operator="between">
+    <cfRule type="cellIs" dxfId="675" priority="676" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="676" priority="679" operator="between">
+    <cfRule type="cellIs" dxfId="674" priority="677" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I9:I23 I32">
-    <cfRule type="cellIs" dxfId="675" priority="674" operator="equal">
+  <conditionalFormatting sqref="AZ24">
+    <cfRule type="cellIs" dxfId="673" priority="672" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="674" priority="675" operator="between">
+    <cfRule type="cellIs" dxfId="672" priority="673" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="673" priority="676" operator="between">
+    <cfRule type="cellIs" dxfId="671" priority="674" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D24:F24">
-    <cfRule type="cellIs" dxfId="672" priority="672" operator="between">
-      <formula>8</formula>
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="671" priority="673" operator="lessThan">
-      <formula>8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CH24:CJ24 J24:AD24 AR24:AU24 BW24:BX24 BZ24:CB24 AG24:AK24 AM24:AO24">
+  <conditionalFormatting sqref="BP24 BH24:BI24 BK24:BN24">
     <cfRule type="cellIs" dxfId="670" priority="669" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -30432,7 +31870,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE24">
+  <conditionalFormatting sqref="BJ24">
     <cfRule type="cellIs" dxfId="667" priority="666" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -30445,7 +31883,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP24">
+  <conditionalFormatting sqref="BQ24:BR24 BT24:BV24">
     <cfRule type="cellIs" dxfId="664" priority="663" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -30458,7 +31896,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ24">
+  <conditionalFormatting sqref="BS24">
     <cfRule type="cellIs" dxfId="661" priority="660" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -30471,7 +31909,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BY24">
+  <conditionalFormatting sqref="BA24">
     <cfRule type="cellIs" dxfId="658" priority="657" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -30484,7 +31922,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY24 BF24:BG24 AV24 BB24:BD24">
+  <conditionalFormatting sqref="BE24">
     <cfRule type="cellIs" dxfId="655" priority="654" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -30497,7 +31935,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AZ24">
+  <conditionalFormatting sqref="BO24">
     <cfRule type="cellIs" dxfId="652" priority="651" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -30510,7 +31948,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BP24 BH24:BI24 BK24:BN24">
+  <conditionalFormatting sqref="AX24">
     <cfRule type="cellIs" dxfId="649" priority="648" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -30523,7 +31961,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BJ24">
+  <conditionalFormatting sqref="AW24">
     <cfRule type="cellIs" dxfId="646" priority="645" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -30536,7 +31974,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BQ24:BR24 BT24:BV24">
+  <conditionalFormatting sqref="CC24">
     <cfRule type="cellIs" dxfId="643" priority="642" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -30549,7 +31987,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BS24">
+  <conditionalFormatting sqref="CD24">
     <cfRule type="cellIs" dxfId="640" priority="639" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -30562,7 +32000,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BA24">
+  <conditionalFormatting sqref="CE24">
     <cfRule type="cellIs" dxfId="637" priority="636" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -30575,7 +32013,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BE24">
+  <conditionalFormatting sqref="CF24">
     <cfRule type="cellIs" dxfId="634" priority="633" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -30588,7 +32026,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BO24">
+  <conditionalFormatting sqref="CG24">
     <cfRule type="cellIs" dxfId="631" priority="630" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -30601,7 +32039,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX24">
+  <conditionalFormatting sqref="CL24">
     <cfRule type="cellIs" dxfId="628" priority="627" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -30614,7 +32052,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AW24">
+  <conditionalFormatting sqref="CK24">
     <cfRule type="cellIs" dxfId="625" priority="624" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -30627,7 +32065,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CC24">
+  <conditionalFormatting sqref="I24">
     <cfRule type="cellIs" dxfId="622" priority="621" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -30640,107 +32078,107 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CD24">
-    <cfRule type="cellIs" dxfId="619" priority="618" operator="equal">
+  <conditionalFormatting sqref="D25:F25">
+    <cfRule type="cellIs" dxfId="619" priority="619" operator="between">
+      <formula>8</formula>
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="618" priority="620" operator="lessThan">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CH25:CJ25 J25:AD25 AR25:AU25 BW25:BX25 BZ25:CB25 AG25:AH25 AM25:AO25 AK25">
+    <cfRule type="cellIs" dxfId="617" priority="616" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="618" priority="619" operator="between">
+    <cfRule type="cellIs" dxfId="616" priority="617" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="617" priority="620" operator="between">
+    <cfRule type="cellIs" dxfId="615" priority="618" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CE24">
-    <cfRule type="cellIs" dxfId="616" priority="615" operator="equal">
+  <conditionalFormatting sqref="AE25">
+    <cfRule type="cellIs" dxfId="614" priority="613" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="615" priority="616" operator="between">
+    <cfRule type="cellIs" dxfId="613" priority="614" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="614" priority="617" operator="between">
+    <cfRule type="cellIs" dxfId="612" priority="615" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CF24">
-    <cfRule type="cellIs" dxfId="613" priority="612" operator="equal">
+  <conditionalFormatting sqref="AP25">
+    <cfRule type="cellIs" dxfId="611" priority="610" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="612" priority="613" operator="between">
+    <cfRule type="cellIs" dxfId="610" priority="611" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="611" priority="614" operator="between">
+    <cfRule type="cellIs" dxfId="609" priority="612" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CG24">
-    <cfRule type="cellIs" dxfId="610" priority="609" operator="equal">
+  <conditionalFormatting sqref="AQ25">
+    <cfRule type="cellIs" dxfId="608" priority="607" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="609" priority="610" operator="between">
+    <cfRule type="cellIs" dxfId="607" priority="608" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="608" priority="611" operator="between">
+    <cfRule type="cellIs" dxfId="606" priority="609" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CL24">
-    <cfRule type="cellIs" dxfId="607" priority="606" operator="equal">
+  <conditionalFormatting sqref="BY25">
+    <cfRule type="cellIs" dxfId="605" priority="604" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="606" priority="607" operator="between">
+    <cfRule type="cellIs" dxfId="604" priority="605" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="605" priority="608" operator="between">
+    <cfRule type="cellIs" dxfId="603" priority="606" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CK24">
-    <cfRule type="cellIs" dxfId="604" priority="603" operator="equal">
+  <conditionalFormatting sqref="AY25 BF25:BG25 AV25 BB25:BD25">
+    <cfRule type="cellIs" dxfId="602" priority="601" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="603" priority="604" operator="between">
+    <cfRule type="cellIs" dxfId="601" priority="602" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="602" priority="605" operator="between">
+    <cfRule type="cellIs" dxfId="600" priority="603" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I24">
-    <cfRule type="cellIs" dxfId="601" priority="600" operator="equal">
+  <conditionalFormatting sqref="AZ25">
+    <cfRule type="cellIs" dxfId="599" priority="598" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="600" priority="601" operator="between">
+    <cfRule type="cellIs" dxfId="598" priority="599" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="599" priority="602" operator="between">
+    <cfRule type="cellIs" dxfId="597" priority="600" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D25:F25">
-    <cfRule type="cellIs" dxfId="598" priority="598" operator="between">
-      <formula>8</formula>
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="597" priority="599" operator="lessThan">
-      <formula>8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CH25:CJ25 J25:AD25 AR25:AU25 BW25:BX25 BZ25:CB25 AG25:AK25 AM25:AO25">
+  <conditionalFormatting sqref="BP25 BH25:BI25 BK25:BN25">
     <cfRule type="cellIs" dxfId="596" priority="595" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -30753,7 +32191,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE25">
+  <conditionalFormatting sqref="BJ25">
     <cfRule type="cellIs" dxfId="593" priority="592" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -30766,7 +32204,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP25">
+  <conditionalFormatting sqref="BQ25:BR25 BT25:BV25">
     <cfRule type="cellIs" dxfId="590" priority="589" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -30779,7 +32217,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ25">
+  <conditionalFormatting sqref="BS25">
     <cfRule type="cellIs" dxfId="587" priority="586" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -30792,7 +32230,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BY25">
+  <conditionalFormatting sqref="BA25">
     <cfRule type="cellIs" dxfId="584" priority="583" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -30805,7 +32243,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY25 BF25:BG25 AV25 BB25:BD25">
+  <conditionalFormatting sqref="BE25">
     <cfRule type="cellIs" dxfId="581" priority="580" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -30818,7 +32256,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AZ25">
+  <conditionalFormatting sqref="BO25">
     <cfRule type="cellIs" dxfId="578" priority="577" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -30831,7 +32269,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BP25 BH25:BI25 BK25:BN25">
+  <conditionalFormatting sqref="AX25">
     <cfRule type="cellIs" dxfId="575" priority="574" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -30844,7 +32282,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BJ25">
+  <conditionalFormatting sqref="AW25">
     <cfRule type="cellIs" dxfId="572" priority="571" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -30857,7 +32295,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BQ25:BR25 BT25:BV25">
+  <conditionalFormatting sqref="CC25">
     <cfRule type="cellIs" dxfId="569" priority="568" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -30870,7 +32308,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BS25">
+  <conditionalFormatting sqref="CD25">
     <cfRule type="cellIs" dxfId="566" priority="565" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -30883,7 +32321,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BA25">
+  <conditionalFormatting sqref="CE25">
     <cfRule type="cellIs" dxfId="563" priority="562" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -30896,7 +32334,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BE25">
+  <conditionalFormatting sqref="CF25">
     <cfRule type="cellIs" dxfId="560" priority="559" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -30909,7 +32347,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BO25">
+  <conditionalFormatting sqref="CG25">
     <cfRule type="cellIs" dxfId="557" priority="556" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -30922,7 +32360,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX25">
+  <conditionalFormatting sqref="CL25">
     <cfRule type="cellIs" dxfId="554" priority="553" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -30935,7 +32373,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AW25">
+  <conditionalFormatting sqref="CK25">
     <cfRule type="cellIs" dxfId="551" priority="550" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -30948,7 +32386,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CC25">
+  <conditionalFormatting sqref="I25">
     <cfRule type="cellIs" dxfId="548" priority="547" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -30961,107 +32399,107 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CD25">
-    <cfRule type="cellIs" dxfId="545" priority="544" operator="equal">
+  <conditionalFormatting sqref="D26:F26">
+    <cfRule type="cellIs" dxfId="545" priority="545" operator="between">
+      <formula>8</formula>
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="544" priority="546" operator="lessThan">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CH26:CJ26 J26:AD26 AR26:AU26 BW26:BX26 BZ26:CB26 AG26:AK26 AM26:AO26">
+    <cfRule type="cellIs" dxfId="543" priority="542" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="544" priority="545" operator="between">
+    <cfRule type="cellIs" dxfId="542" priority="543" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="543" priority="546" operator="between">
+    <cfRule type="cellIs" dxfId="541" priority="544" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CE25">
-    <cfRule type="cellIs" dxfId="542" priority="541" operator="equal">
+  <conditionalFormatting sqref="AE26">
+    <cfRule type="cellIs" dxfId="540" priority="539" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="541" priority="542" operator="between">
+    <cfRule type="cellIs" dxfId="539" priority="540" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="540" priority="543" operator="between">
+    <cfRule type="cellIs" dxfId="538" priority="541" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CF25">
-    <cfRule type="cellIs" dxfId="539" priority="538" operator="equal">
+  <conditionalFormatting sqref="AP26">
+    <cfRule type="cellIs" dxfId="537" priority="536" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="538" priority="539" operator="between">
+    <cfRule type="cellIs" dxfId="536" priority="537" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="537" priority="540" operator="between">
+    <cfRule type="cellIs" dxfId="535" priority="538" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CG25">
-    <cfRule type="cellIs" dxfId="536" priority="535" operator="equal">
+  <conditionalFormatting sqref="AQ26">
+    <cfRule type="cellIs" dxfId="534" priority="533" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="535" priority="536" operator="between">
+    <cfRule type="cellIs" dxfId="533" priority="534" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="534" priority="537" operator="between">
+    <cfRule type="cellIs" dxfId="532" priority="535" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CL25">
-    <cfRule type="cellIs" dxfId="533" priority="532" operator="equal">
+  <conditionalFormatting sqref="BY26">
+    <cfRule type="cellIs" dxfId="531" priority="530" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="532" priority="533" operator="between">
+    <cfRule type="cellIs" dxfId="530" priority="531" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="531" priority="534" operator="between">
+    <cfRule type="cellIs" dxfId="529" priority="532" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CK25">
-    <cfRule type="cellIs" dxfId="530" priority="529" operator="equal">
+  <conditionalFormatting sqref="AY26 BF26:BG26 AV26 BB26:BD26">
+    <cfRule type="cellIs" dxfId="528" priority="527" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="529" priority="530" operator="between">
+    <cfRule type="cellIs" dxfId="527" priority="528" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="528" priority="531" operator="between">
+    <cfRule type="cellIs" dxfId="526" priority="529" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I25">
-    <cfRule type="cellIs" dxfId="527" priority="526" operator="equal">
+  <conditionalFormatting sqref="AZ26">
+    <cfRule type="cellIs" dxfId="525" priority="524" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="526" priority="527" operator="between">
+    <cfRule type="cellIs" dxfId="524" priority="525" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="525" priority="528" operator="between">
+    <cfRule type="cellIs" dxfId="523" priority="526" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D26:F26">
-    <cfRule type="cellIs" dxfId="524" priority="524" operator="between">
-      <formula>8</formula>
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="523" priority="525" operator="lessThan">
-      <formula>8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CH26:CJ26 J26:AD26 AR26:AU26 BW26:BX26 BZ26:CB26 AG26:AK26 AM26:AO26">
+  <conditionalFormatting sqref="BP26 BH26:BI26 BK26:BN26">
     <cfRule type="cellIs" dxfId="522" priority="521" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -31074,7 +32512,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE26">
+  <conditionalFormatting sqref="BJ26">
     <cfRule type="cellIs" dxfId="519" priority="518" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -31087,7 +32525,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP26">
+  <conditionalFormatting sqref="BQ26:BR26 BT26:BV26">
     <cfRule type="cellIs" dxfId="516" priority="515" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -31100,7 +32538,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ26">
+  <conditionalFormatting sqref="BS26">
     <cfRule type="cellIs" dxfId="513" priority="512" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -31113,7 +32551,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BY26">
+  <conditionalFormatting sqref="BA26">
     <cfRule type="cellIs" dxfId="510" priority="509" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -31126,7 +32564,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY26 BF26:BG26 AV26 BB26:BD26">
+  <conditionalFormatting sqref="BE26">
     <cfRule type="cellIs" dxfId="507" priority="506" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -31139,7 +32577,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AZ26">
+  <conditionalFormatting sqref="BO26">
     <cfRule type="cellIs" dxfId="504" priority="503" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -31152,7 +32590,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BP26 BH26:BI26 BK26:BN26">
+  <conditionalFormatting sqref="AX26">
     <cfRule type="cellIs" dxfId="501" priority="500" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -31165,7 +32603,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BJ26">
+  <conditionalFormatting sqref="AW26">
     <cfRule type="cellIs" dxfId="498" priority="497" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -31178,7 +32616,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BQ26:BR26 BT26:BV26">
+  <conditionalFormatting sqref="CC26">
     <cfRule type="cellIs" dxfId="495" priority="494" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -31191,7 +32629,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BS26">
+  <conditionalFormatting sqref="CD26">
     <cfRule type="cellIs" dxfId="492" priority="491" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -31204,7 +32642,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BA26">
+  <conditionalFormatting sqref="CE26">
     <cfRule type="cellIs" dxfId="489" priority="488" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -31217,7 +32655,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BE26">
+  <conditionalFormatting sqref="CF26">
     <cfRule type="cellIs" dxfId="486" priority="485" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -31230,7 +32668,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BO26">
+  <conditionalFormatting sqref="CG26">
     <cfRule type="cellIs" dxfId="483" priority="482" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -31243,7 +32681,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX26">
+  <conditionalFormatting sqref="CL26">
     <cfRule type="cellIs" dxfId="480" priority="479" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -31256,7 +32694,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AW26">
+  <conditionalFormatting sqref="CK26">
     <cfRule type="cellIs" dxfId="477" priority="476" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -31269,7 +32707,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CC26">
+  <conditionalFormatting sqref="I26">
     <cfRule type="cellIs" dxfId="474" priority="473" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -31282,107 +32720,107 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CD26">
-    <cfRule type="cellIs" dxfId="471" priority="470" operator="equal">
+  <conditionalFormatting sqref="D27:F27">
+    <cfRule type="cellIs" dxfId="471" priority="471" operator="between">
+      <formula>8</formula>
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="470" priority="472" operator="lessThan">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CH27:CJ27 J27:AD27 AR27:AU27 BW27:BX27 BZ27:CB27 AG27:AH27 AM27 AJ27:AK27 AO27">
+    <cfRule type="cellIs" dxfId="469" priority="468" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="470" priority="471" operator="between">
+    <cfRule type="cellIs" dxfId="468" priority="469" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="469" priority="472" operator="between">
+    <cfRule type="cellIs" dxfId="467" priority="470" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CE26">
-    <cfRule type="cellIs" dxfId="468" priority="467" operator="equal">
+  <conditionalFormatting sqref="AE27">
+    <cfRule type="cellIs" dxfId="466" priority="465" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="467" priority="468" operator="between">
+    <cfRule type="cellIs" dxfId="465" priority="466" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="466" priority="469" operator="between">
+    <cfRule type="cellIs" dxfId="464" priority="467" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CF26">
-    <cfRule type="cellIs" dxfId="465" priority="464" operator="equal">
+  <conditionalFormatting sqref="AP27">
+    <cfRule type="cellIs" dxfId="463" priority="462" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="464" priority="465" operator="between">
+    <cfRule type="cellIs" dxfId="462" priority="463" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="463" priority="466" operator="between">
+    <cfRule type="cellIs" dxfId="461" priority="464" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CG26">
-    <cfRule type="cellIs" dxfId="462" priority="461" operator="equal">
+  <conditionalFormatting sqref="AQ27">
+    <cfRule type="cellIs" dxfId="460" priority="459" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="461" priority="462" operator="between">
+    <cfRule type="cellIs" dxfId="459" priority="460" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="460" priority="463" operator="between">
+    <cfRule type="cellIs" dxfId="458" priority="461" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CL26">
-    <cfRule type="cellIs" dxfId="459" priority="458" operator="equal">
+  <conditionalFormatting sqref="BY27">
+    <cfRule type="cellIs" dxfId="457" priority="456" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="458" priority="459" operator="between">
+    <cfRule type="cellIs" dxfId="456" priority="457" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="457" priority="460" operator="between">
+    <cfRule type="cellIs" dxfId="455" priority="458" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CK26">
-    <cfRule type="cellIs" dxfId="456" priority="455" operator="equal">
+  <conditionalFormatting sqref="AY27 BF27:BG27 AV27 BB27:BD27">
+    <cfRule type="cellIs" dxfId="454" priority="453" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="455" priority="456" operator="between">
+    <cfRule type="cellIs" dxfId="453" priority="454" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="454" priority="457" operator="between">
+    <cfRule type="cellIs" dxfId="452" priority="455" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I26">
-    <cfRule type="cellIs" dxfId="453" priority="452" operator="equal">
+  <conditionalFormatting sqref="AZ27">
+    <cfRule type="cellIs" dxfId="451" priority="450" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="452" priority="453" operator="between">
+    <cfRule type="cellIs" dxfId="450" priority="451" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="451" priority="454" operator="between">
+    <cfRule type="cellIs" dxfId="449" priority="452" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27:F27">
-    <cfRule type="cellIs" dxfId="450" priority="450" operator="between">
-      <formula>8</formula>
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="449" priority="451" operator="lessThan">
-      <formula>8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CH27:CJ27 J27:AD27 AR27:AU27 BW27:BX27 BZ27:CB27 AG27:AK27 AM27:AO27">
+  <conditionalFormatting sqref="BP27 BH27:BI27 BK27:BN27">
     <cfRule type="cellIs" dxfId="448" priority="447" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -31395,7 +32833,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE27">
+  <conditionalFormatting sqref="BJ27">
     <cfRule type="cellIs" dxfId="445" priority="444" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -31408,7 +32846,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP27">
+  <conditionalFormatting sqref="BQ27:BR27 BT27:BV27">
     <cfRule type="cellIs" dxfId="442" priority="441" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -31421,7 +32859,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ27">
+  <conditionalFormatting sqref="BS27">
     <cfRule type="cellIs" dxfId="439" priority="438" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -31434,7 +32872,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BY27">
+  <conditionalFormatting sqref="BA27">
     <cfRule type="cellIs" dxfId="436" priority="435" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -31447,7 +32885,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY27 BF27:BG27 AV27 BB27:BD27">
+  <conditionalFormatting sqref="BE27">
     <cfRule type="cellIs" dxfId="433" priority="432" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -31460,7 +32898,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AZ27">
+  <conditionalFormatting sqref="BO27">
     <cfRule type="cellIs" dxfId="430" priority="429" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -31473,7 +32911,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BP27 BH27:BI27 BK27:BN27">
+  <conditionalFormatting sqref="AX27">
     <cfRule type="cellIs" dxfId="427" priority="426" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -31486,7 +32924,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BJ27">
+  <conditionalFormatting sqref="AW27">
     <cfRule type="cellIs" dxfId="424" priority="423" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -31499,7 +32937,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BQ27:BR27 BT27:BV27">
+  <conditionalFormatting sqref="CC27">
     <cfRule type="cellIs" dxfId="421" priority="420" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -31512,7 +32950,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BS27">
+  <conditionalFormatting sqref="CD27">
     <cfRule type="cellIs" dxfId="418" priority="417" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -31525,7 +32963,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BA27">
+  <conditionalFormatting sqref="CE27">
     <cfRule type="cellIs" dxfId="415" priority="414" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -31538,7 +32976,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BE27">
+  <conditionalFormatting sqref="CF27">
     <cfRule type="cellIs" dxfId="412" priority="411" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -31551,7 +32989,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BO27">
+  <conditionalFormatting sqref="CG27">
     <cfRule type="cellIs" dxfId="409" priority="408" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -31564,7 +33002,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX27">
+  <conditionalFormatting sqref="CL27">
     <cfRule type="cellIs" dxfId="406" priority="405" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -31577,7 +33015,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AW27">
+  <conditionalFormatting sqref="CK27">
     <cfRule type="cellIs" dxfId="403" priority="402" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -31590,7 +33028,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CC27">
+  <conditionalFormatting sqref="I27">
     <cfRule type="cellIs" dxfId="400" priority="399" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -31603,107 +33041,107 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CD27">
-    <cfRule type="cellIs" dxfId="397" priority="396" operator="equal">
+  <conditionalFormatting sqref="D28:F28">
+    <cfRule type="cellIs" dxfId="397" priority="397" operator="between">
+      <formula>8</formula>
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="396" priority="398" operator="lessThan">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CH28:CJ28 J28:AD28 AR28:AU28 BW28:BX28 BZ28:CB28 AG28:AK28 AM28:AO28">
+    <cfRule type="cellIs" dxfId="395" priority="394" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="396" priority="397" operator="between">
+    <cfRule type="cellIs" dxfId="394" priority="395" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="395" priority="398" operator="between">
+    <cfRule type="cellIs" dxfId="393" priority="396" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CE27">
-    <cfRule type="cellIs" dxfId="394" priority="393" operator="equal">
+  <conditionalFormatting sqref="AE28">
+    <cfRule type="cellIs" dxfId="392" priority="391" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="393" priority="394" operator="between">
+    <cfRule type="cellIs" dxfId="391" priority="392" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="392" priority="395" operator="between">
+    <cfRule type="cellIs" dxfId="390" priority="393" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CF27">
-    <cfRule type="cellIs" dxfId="391" priority="390" operator="equal">
+  <conditionalFormatting sqref="AP28">
+    <cfRule type="cellIs" dxfId="389" priority="388" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="390" priority="391" operator="between">
+    <cfRule type="cellIs" dxfId="388" priority="389" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="389" priority="392" operator="between">
+    <cfRule type="cellIs" dxfId="387" priority="390" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CG27">
-    <cfRule type="cellIs" dxfId="388" priority="387" operator="equal">
+  <conditionalFormatting sqref="AQ28">
+    <cfRule type="cellIs" dxfId="386" priority="385" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="387" priority="388" operator="between">
+    <cfRule type="cellIs" dxfId="385" priority="386" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="386" priority="389" operator="between">
+    <cfRule type="cellIs" dxfId="384" priority="387" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CL27">
-    <cfRule type="cellIs" dxfId="385" priority="384" operator="equal">
+  <conditionalFormatting sqref="BY28">
+    <cfRule type="cellIs" dxfId="383" priority="382" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="384" priority="385" operator="between">
+    <cfRule type="cellIs" dxfId="382" priority="383" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="383" priority="386" operator="between">
+    <cfRule type="cellIs" dxfId="381" priority="384" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CK27">
-    <cfRule type="cellIs" dxfId="382" priority="381" operator="equal">
+  <conditionalFormatting sqref="AY28 BF28:BG28 AV28 BB28:BD28">
+    <cfRule type="cellIs" dxfId="380" priority="379" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="381" priority="382" operator="between">
+    <cfRule type="cellIs" dxfId="379" priority="380" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="380" priority="383" operator="between">
+    <cfRule type="cellIs" dxfId="378" priority="381" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I27">
-    <cfRule type="cellIs" dxfId="379" priority="378" operator="equal">
+  <conditionalFormatting sqref="AZ28">
+    <cfRule type="cellIs" dxfId="377" priority="376" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="378" priority="379" operator="between">
+    <cfRule type="cellIs" dxfId="376" priority="377" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="377" priority="380" operator="between">
+    <cfRule type="cellIs" dxfId="375" priority="378" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D28:F28">
-    <cfRule type="cellIs" dxfId="376" priority="376" operator="between">
-      <formula>8</formula>
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="375" priority="377" operator="lessThan">
-      <formula>8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CH28:CJ28 J28:AD28 AR28:AU28 BW28:BX28 BZ28:CB28 AG28:AK28 AM28:AO28">
+  <conditionalFormatting sqref="BP28 BH28:BI28 BK28:BN28">
     <cfRule type="cellIs" dxfId="374" priority="373" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -31716,7 +33154,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE28">
+  <conditionalFormatting sqref="BJ28">
     <cfRule type="cellIs" dxfId="371" priority="370" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -31729,7 +33167,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP28">
+  <conditionalFormatting sqref="BQ28:BR28 BT28:BV28">
     <cfRule type="cellIs" dxfId="368" priority="367" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -31742,7 +33180,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ28">
+  <conditionalFormatting sqref="BS28">
     <cfRule type="cellIs" dxfId="365" priority="364" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -31755,7 +33193,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BY28">
+  <conditionalFormatting sqref="BA28">
     <cfRule type="cellIs" dxfId="362" priority="361" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -31768,7 +33206,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY28 BF28:BG28 AV28 BB28:BD28">
+  <conditionalFormatting sqref="BE28">
     <cfRule type="cellIs" dxfId="359" priority="358" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -31781,7 +33219,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AZ28">
+  <conditionalFormatting sqref="BO28">
     <cfRule type="cellIs" dxfId="356" priority="355" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -31794,7 +33232,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BP28 BH28:BI28 BK28:BN28">
+  <conditionalFormatting sqref="AX28">
     <cfRule type="cellIs" dxfId="353" priority="352" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -31807,7 +33245,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BJ28">
+  <conditionalFormatting sqref="AW28">
     <cfRule type="cellIs" dxfId="350" priority="349" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -31820,7 +33258,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BQ28:BR28 BT28:BV28">
+  <conditionalFormatting sqref="CC28">
     <cfRule type="cellIs" dxfId="347" priority="346" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -31833,7 +33271,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BS28">
+  <conditionalFormatting sqref="CD28">
     <cfRule type="cellIs" dxfId="344" priority="343" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -31846,7 +33284,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BA28">
+  <conditionalFormatting sqref="CE28">
     <cfRule type="cellIs" dxfId="341" priority="340" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -31859,7 +33297,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BE28">
+  <conditionalFormatting sqref="CF28">
     <cfRule type="cellIs" dxfId="338" priority="337" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -31872,7 +33310,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BO28">
+  <conditionalFormatting sqref="CG28">
     <cfRule type="cellIs" dxfId="335" priority="334" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -31885,7 +33323,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX28">
+  <conditionalFormatting sqref="CL28">
     <cfRule type="cellIs" dxfId="332" priority="331" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -31898,7 +33336,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AW28">
+  <conditionalFormatting sqref="CK28">
     <cfRule type="cellIs" dxfId="329" priority="328" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -31911,7 +33349,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CC28">
+  <conditionalFormatting sqref="I28">
     <cfRule type="cellIs" dxfId="326" priority="325" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -31924,107 +33362,107 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CD28">
-    <cfRule type="cellIs" dxfId="323" priority="322" operator="equal">
+  <conditionalFormatting sqref="D29:F29">
+    <cfRule type="cellIs" dxfId="323" priority="323" operator="between">
+      <formula>8</formula>
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="322" priority="324" operator="lessThan">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CH29:CJ29 J29:AD29 AR29:AU29 BW29:BX29 BZ29:CB29 AG29:AK29 AM29:AO29">
+    <cfRule type="cellIs" dxfId="321" priority="320" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="322" priority="323" operator="between">
+    <cfRule type="cellIs" dxfId="320" priority="321" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="321" priority="324" operator="between">
+    <cfRule type="cellIs" dxfId="319" priority="322" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CE28">
-    <cfRule type="cellIs" dxfId="320" priority="319" operator="equal">
+  <conditionalFormatting sqref="AE29">
+    <cfRule type="cellIs" dxfId="318" priority="317" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="319" priority="320" operator="between">
+    <cfRule type="cellIs" dxfId="317" priority="318" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="318" priority="321" operator="between">
+    <cfRule type="cellIs" dxfId="316" priority="319" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CF28">
-    <cfRule type="cellIs" dxfId="317" priority="316" operator="equal">
+  <conditionalFormatting sqref="AP29">
+    <cfRule type="cellIs" dxfId="315" priority="314" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="316" priority="317" operator="between">
+    <cfRule type="cellIs" dxfId="314" priority="315" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="315" priority="318" operator="between">
+    <cfRule type="cellIs" dxfId="313" priority="316" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CG28">
-    <cfRule type="cellIs" dxfId="314" priority="313" operator="equal">
+  <conditionalFormatting sqref="AQ29">
+    <cfRule type="cellIs" dxfId="312" priority="311" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="313" priority="314" operator="between">
+    <cfRule type="cellIs" dxfId="311" priority="312" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="312" priority="315" operator="between">
+    <cfRule type="cellIs" dxfId="310" priority="313" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CL28">
-    <cfRule type="cellIs" dxfId="311" priority="310" operator="equal">
+  <conditionalFormatting sqref="BY29">
+    <cfRule type="cellIs" dxfId="309" priority="308" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="310" priority="311" operator="between">
+    <cfRule type="cellIs" dxfId="308" priority="309" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="309" priority="312" operator="between">
+    <cfRule type="cellIs" dxfId="307" priority="310" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CK28">
-    <cfRule type="cellIs" dxfId="308" priority="307" operator="equal">
+  <conditionalFormatting sqref="AY29 BF29:BG29 AV29 BB29:BD29">
+    <cfRule type="cellIs" dxfId="306" priority="305" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="307" priority="308" operator="between">
+    <cfRule type="cellIs" dxfId="305" priority="306" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="306" priority="309" operator="between">
+    <cfRule type="cellIs" dxfId="304" priority="307" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I28">
-    <cfRule type="cellIs" dxfId="305" priority="304" operator="equal">
+  <conditionalFormatting sqref="AZ29">
+    <cfRule type="cellIs" dxfId="303" priority="302" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="304" priority="305" operator="between">
+    <cfRule type="cellIs" dxfId="302" priority="303" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="303" priority="306" operator="between">
+    <cfRule type="cellIs" dxfId="301" priority="304" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D29:F29">
-    <cfRule type="cellIs" dxfId="302" priority="302" operator="between">
-      <formula>8</formula>
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="301" priority="303" operator="lessThan">
-      <formula>8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CH29:CJ29 J29:AD29 AR29:AU29 BW29:BX29 BZ29:CB29 AG29:AK29 AM29:AO29">
+  <conditionalFormatting sqref="BP29 BH29:BI29 BK29:BN29">
     <cfRule type="cellIs" dxfId="300" priority="299" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32037,7 +33475,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE29">
+  <conditionalFormatting sqref="BJ29">
     <cfRule type="cellIs" dxfId="297" priority="296" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32050,7 +33488,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP29">
+  <conditionalFormatting sqref="BQ29:BR29 BT29:BV29">
     <cfRule type="cellIs" dxfId="294" priority="293" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32063,7 +33501,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ29">
+  <conditionalFormatting sqref="BS29">
     <cfRule type="cellIs" dxfId="291" priority="290" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32076,7 +33514,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BY29">
+  <conditionalFormatting sqref="BA29">
     <cfRule type="cellIs" dxfId="288" priority="287" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32089,7 +33527,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY29 BF29:BG29 AV29 BB29:BD29">
+  <conditionalFormatting sqref="BE29">
     <cfRule type="cellIs" dxfId="285" priority="284" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32102,7 +33540,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AZ29">
+  <conditionalFormatting sqref="BO29">
     <cfRule type="cellIs" dxfId="282" priority="281" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32115,7 +33553,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BP29 BH29:BI29 BK29:BN29">
+  <conditionalFormatting sqref="AX29">
     <cfRule type="cellIs" dxfId="279" priority="278" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32128,7 +33566,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BJ29">
+  <conditionalFormatting sqref="AW29">
     <cfRule type="cellIs" dxfId="276" priority="275" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32141,7 +33579,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BQ29:BR29 BT29:BV29">
+  <conditionalFormatting sqref="CC29">
     <cfRule type="cellIs" dxfId="273" priority="272" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32154,7 +33592,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BS29">
+  <conditionalFormatting sqref="CD29">
     <cfRule type="cellIs" dxfId="270" priority="269" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32167,7 +33605,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BA29">
+  <conditionalFormatting sqref="CE29">
     <cfRule type="cellIs" dxfId="267" priority="266" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32180,7 +33618,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BE29">
+  <conditionalFormatting sqref="CF29">
     <cfRule type="cellIs" dxfId="264" priority="263" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32193,7 +33631,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BO29">
+  <conditionalFormatting sqref="CG29">
     <cfRule type="cellIs" dxfId="261" priority="260" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32206,7 +33644,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX29">
+  <conditionalFormatting sqref="CL29">
     <cfRule type="cellIs" dxfId="258" priority="257" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32219,7 +33657,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AW29">
+  <conditionalFormatting sqref="CK29">
     <cfRule type="cellIs" dxfId="255" priority="254" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32232,7 +33670,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CC29">
+  <conditionalFormatting sqref="I29">
     <cfRule type="cellIs" dxfId="252" priority="251" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32245,107 +33683,107 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CD29">
-    <cfRule type="cellIs" dxfId="249" priority="248" operator="equal">
+  <conditionalFormatting sqref="D30:F30">
+    <cfRule type="cellIs" dxfId="249" priority="249" operator="between">
+      <formula>8</formula>
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="248" priority="250" operator="lessThan">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CH30:CJ30 J30:AD30 AR30:AU30 BW30:BX30 BZ30:CB30 AG30:AK30 AM30:AO30">
+    <cfRule type="cellIs" dxfId="247" priority="246" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="248" priority="249" operator="between">
+    <cfRule type="cellIs" dxfId="246" priority="247" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="247" priority="250" operator="between">
+    <cfRule type="cellIs" dxfId="245" priority="248" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CE29">
-    <cfRule type="cellIs" dxfId="246" priority="245" operator="equal">
+  <conditionalFormatting sqref="AE30">
+    <cfRule type="cellIs" dxfId="244" priority="243" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="245" priority="246" operator="between">
+    <cfRule type="cellIs" dxfId="243" priority="244" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="244" priority="247" operator="between">
+    <cfRule type="cellIs" dxfId="242" priority="245" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CF29">
-    <cfRule type="cellIs" dxfId="243" priority="242" operator="equal">
+  <conditionalFormatting sqref="AP30">
+    <cfRule type="cellIs" dxfId="241" priority="240" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="242" priority="243" operator="between">
+    <cfRule type="cellIs" dxfId="240" priority="241" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="241" priority="244" operator="between">
+    <cfRule type="cellIs" dxfId="239" priority="242" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CG29">
-    <cfRule type="cellIs" dxfId="240" priority="239" operator="equal">
+  <conditionalFormatting sqref="AQ30">
+    <cfRule type="cellIs" dxfId="238" priority="237" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="239" priority="240" operator="between">
+    <cfRule type="cellIs" dxfId="237" priority="238" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="238" priority="241" operator="between">
+    <cfRule type="cellIs" dxfId="236" priority="239" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CL29">
-    <cfRule type="cellIs" dxfId="237" priority="236" operator="equal">
+  <conditionalFormatting sqref="BY30">
+    <cfRule type="cellIs" dxfId="235" priority="234" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="236" priority="237" operator="between">
+    <cfRule type="cellIs" dxfId="234" priority="235" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="235" priority="238" operator="between">
+    <cfRule type="cellIs" dxfId="233" priority="236" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CK29">
-    <cfRule type="cellIs" dxfId="234" priority="233" operator="equal">
+  <conditionalFormatting sqref="AY30 BF30:BG30 AV30 BB30:BD30">
+    <cfRule type="cellIs" dxfId="232" priority="231" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="233" priority="234" operator="between">
+    <cfRule type="cellIs" dxfId="231" priority="232" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="232" priority="235" operator="between">
+    <cfRule type="cellIs" dxfId="230" priority="233" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I29">
-    <cfRule type="cellIs" dxfId="231" priority="230" operator="equal">
+  <conditionalFormatting sqref="AZ30">
+    <cfRule type="cellIs" dxfId="229" priority="228" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="230" priority="231" operator="between">
+    <cfRule type="cellIs" dxfId="228" priority="229" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="229" priority="232" operator="between">
+    <cfRule type="cellIs" dxfId="227" priority="230" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D30:F30">
-    <cfRule type="cellIs" dxfId="228" priority="228" operator="between">
-      <formula>8</formula>
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="227" priority="229" operator="lessThan">
-      <formula>8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CH30:CJ30 J30:AD30 AR30:AU30 BW30:BX30 BZ30:CB30 AG30:AK30 AM30:AO30">
+  <conditionalFormatting sqref="BP30 BH30:BI30 BK30:BN30">
     <cfRule type="cellIs" dxfId="226" priority="225" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32358,7 +33796,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE30">
+  <conditionalFormatting sqref="BJ30">
     <cfRule type="cellIs" dxfId="223" priority="222" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32371,7 +33809,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP30">
+  <conditionalFormatting sqref="BQ30:BR30 BT30:BV30">
     <cfRule type="cellIs" dxfId="220" priority="219" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32384,7 +33822,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ30">
+  <conditionalFormatting sqref="BS30">
     <cfRule type="cellIs" dxfId="217" priority="216" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32397,7 +33835,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BY30">
+  <conditionalFormatting sqref="BA30">
     <cfRule type="cellIs" dxfId="214" priority="213" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32410,7 +33848,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY30 BF30:BG30 AV30 BB30:BD30">
+  <conditionalFormatting sqref="BE30">
     <cfRule type="cellIs" dxfId="211" priority="210" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32423,7 +33861,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AZ30">
+  <conditionalFormatting sqref="BO30">
     <cfRule type="cellIs" dxfId="208" priority="207" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32436,7 +33874,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BP30 BH30:BI30 BK30:BN30">
+  <conditionalFormatting sqref="AX30">
     <cfRule type="cellIs" dxfId="205" priority="204" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32449,7 +33887,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BJ30">
+  <conditionalFormatting sqref="AW30">
     <cfRule type="cellIs" dxfId="202" priority="201" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32462,7 +33900,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BQ30:BR30 BT30:BV30">
+  <conditionalFormatting sqref="CC30">
     <cfRule type="cellIs" dxfId="199" priority="198" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32475,7 +33913,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BS30">
+  <conditionalFormatting sqref="CD30">
     <cfRule type="cellIs" dxfId="196" priority="195" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32488,7 +33926,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BA30">
+  <conditionalFormatting sqref="CE30">
     <cfRule type="cellIs" dxfId="193" priority="192" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32501,7 +33939,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BE30">
+  <conditionalFormatting sqref="CF30">
     <cfRule type="cellIs" dxfId="190" priority="189" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32514,7 +33952,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BO30">
+  <conditionalFormatting sqref="CG30">
     <cfRule type="cellIs" dxfId="187" priority="186" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32527,7 +33965,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX30">
+  <conditionalFormatting sqref="CL30">
     <cfRule type="cellIs" dxfId="184" priority="183" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32540,7 +33978,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AW30">
+  <conditionalFormatting sqref="CK30">
     <cfRule type="cellIs" dxfId="181" priority="180" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32553,7 +33991,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CC30">
+  <conditionalFormatting sqref="I30">
     <cfRule type="cellIs" dxfId="178" priority="177" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32566,107 +34004,107 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CD30">
-    <cfRule type="cellIs" dxfId="175" priority="174" operator="equal">
+  <conditionalFormatting sqref="D31:F31">
+    <cfRule type="cellIs" dxfId="175" priority="175" operator="between">
+      <formula>8</formula>
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="174" priority="176" operator="lessThan">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CH31:CJ31 J31:AD31 AR31:AU31 BW31:BX31 BZ31:CB31 AG31:AK31 AM31:AO31">
+    <cfRule type="cellIs" dxfId="173" priority="172" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="175" operator="between">
+    <cfRule type="cellIs" dxfId="172" priority="173" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="173" priority="176" operator="between">
+    <cfRule type="cellIs" dxfId="171" priority="174" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CE30">
-    <cfRule type="cellIs" dxfId="172" priority="171" operator="equal">
+  <conditionalFormatting sqref="AE31">
+    <cfRule type="cellIs" dxfId="170" priority="169" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="171" priority="172" operator="between">
+    <cfRule type="cellIs" dxfId="169" priority="170" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="173" operator="between">
+    <cfRule type="cellIs" dxfId="168" priority="171" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CF30">
-    <cfRule type="cellIs" dxfId="169" priority="168" operator="equal">
+  <conditionalFormatting sqref="AP31">
+    <cfRule type="cellIs" dxfId="167" priority="166" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="169" operator="between">
+    <cfRule type="cellIs" dxfId="166" priority="167" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="167" priority="170" operator="between">
+    <cfRule type="cellIs" dxfId="165" priority="168" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CG30">
-    <cfRule type="cellIs" dxfId="166" priority="165" operator="equal">
+  <conditionalFormatting sqref="AQ31">
+    <cfRule type="cellIs" dxfId="164" priority="163" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="166" operator="between">
+    <cfRule type="cellIs" dxfId="163" priority="164" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="167" operator="between">
+    <cfRule type="cellIs" dxfId="162" priority="165" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CL30">
-    <cfRule type="cellIs" dxfId="163" priority="162" operator="equal">
+  <conditionalFormatting sqref="BY31">
+    <cfRule type="cellIs" dxfId="161" priority="160" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="163" operator="between">
+    <cfRule type="cellIs" dxfId="160" priority="161" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="164" operator="between">
+    <cfRule type="cellIs" dxfId="159" priority="162" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CK30">
-    <cfRule type="cellIs" dxfId="160" priority="159" operator="equal">
+  <conditionalFormatting sqref="AY31 BF31:BG31 AV31 BB31:BD31">
+    <cfRule type="cellIs" dxfId="158" priority="157" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="160" operator="between">
+    <cfRule type="cellIs" dxfId="157" priority="158" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="161" operator="between">
+    <cfRule type="cellIs" dxfId="156" priority="159" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I30">
-    <cfRule type="cellIs" dxfId="157" priority="156" operator="equal">
+  <conditionalFormatting sqref="AZ31">
+    <cfRule type="cellIs" dxfId="155" priority="154" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="157" operator="between">
+    <cfRule type="cellIs" dxfId="154" priority="155" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="155" priority="158" operator="between">
+    <cfRule type="cellIs" dxfId="153" priority="156" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31:F31">
-    <cfRule type="cellIs" dxfId="154" priority="154" operator="between">
-      <formula>8</formula>
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="155" operator="lessThan">
-      <formula>8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CH31:CJ31 J31:AD31 AR31:AU31 BW31:BX31 BZ31:CB31 AG31:AK31 AM31:AO31">
+  <conditionalFormatting sqref="BP31 BH31:BI31 BK31:BN31">
     <cfRule type="cellIs" dxfId="152" priority="151" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32679,7 +34117,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE31">
+  <conditionalFormatting sqref="BJ31">
     <cfRule type="cellIs" dxfId="149" priority="148" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32692,7 +34130,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP31">
+  <conditionalFormatting sqref="BQ31:BR31 BT31:BV31">
     <cfRule type="cellIs" dxfId="146" priority="145" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32705,7 +34143,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ31">
+  <conditionalFormatting sqref="BS31">
     <cfRule type="cellIs" dxfId="143" priority="142" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32718,7 +34156,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BY31">
+  <conditionalFormatting sqref="BA31">
     <cfRule type="cellIs" dxfId="140" priority="139" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32731,7 +34169,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY31 BF31:BG31 AV31 BB31:BD31">
+  <conditionalFormatting sqref="BE31">
     <cfRule type="cellIs" dxfId="137" priority="136" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32744,7 +34182,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AZ31">
+  <conditionalFormatting sqref="BO31">
     <cfRule type="cellIs" dxfId="134" priority="133" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32757,7 +34195,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BP31 BH31:BI31 BK31:BN31">
+  <conditionalFormatting sqref="AX31">
     <cfRule type="cellIs" dxfId="131" priority="130" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32770,7 +34208,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BJ31">
+  <conditionalFormatting sqref="AW31">
     <cfRule type="cellIs" dxfId="128" priority="127" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32783,7 +34221,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BQ31:BR31 BT31:BV31">
+  <conditionalFormatting sqref="CC31">
     <cfRule type="cellIs" dxfId="125" priority="124" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32796,7 +34234,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BS31">
+  <conditionalFormatting sqref="CD31">
     <cfRule type="cellIs" dxfId="122" priority="121" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32809,7 +34247,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BA31">
+  <conditionalFormatting sqref="CE31">
     <cfRule type="cellIs" dxfId="119" priority="118" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32822,7 +34260,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BE31">
+  <conditionalFormatting sqref="CF31">
     <cfRule type="cellIs" dxfId="116" priority="115" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32835,7 +34273,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BO31">
+  <conditionalFormatting sqref="CG31">
     <cfRule type="cellIs" dxfId="113" priority="112" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32848,7 +34286,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX31">
+  <conditionalFormatting sqref="CL31">
     <cfRule type="cellIs" dxfId="110" priority="109" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32861,7 +34299,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AW31">
+  <conditionalFormatting sqref="CK31">
     <cfRule type="cellIs" dxfId="107" priority="106" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32874,7 +34312,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CC31">
+  <conditionalFormatting sqref="I31">
     <cfRule type="cellIs" dxfId="104" priority="103" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32887,98 +34325,72 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CD31">
-    <cfRule type="cellIs" dxfId="101" priority="100" operator="equal">
+  <conditionalFormatting sqref="AL32:AL33 AL9:AL23">
+    <cfRule type="cellIs" dxfId="101" priority="73" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="101" operator="between">
+    <cfRule type="cellIs" dxfId="100" priority="74" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="102" operator="between">
+    <cfRule type="cellIs" dxfId="99" priority="75" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CE31">
-    <cfRule type="cellIs" dxfId="98" priority="97" operator="equal">
+  <conditionalFormatting sqref="AL26">
+    <cfRule type="cellIs" dxfId="92" priority="64" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="98" operator="between">
+    <cfRule type="cellIs" dxfId="91" priority="65" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="99" operator="between">
+    <cfRule type="cellIs" dxfId="90" priority="66" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CF31">
-    <cfRule type="cellIs" dxfId="95" priority="94" operator="equal">
+  <conditionalFormatting sqref="AL27">
+    <cfRule type="cellIs" dxfId="89" priority="61" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="95" operator="between">
+    <cfRule type="cellIs" dxfId="88" priority="62" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="96" operator="between">
+    <cfRule type="cellIs" dxfId="87" priority="63" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CG31">
-    <cfRule type="cellIs" dxfId="92" priority="91" operator="equal">
+  <conditionalFormatting sqref="AL28">
+    <cfRule type="cellIs" dxfId="86" priority="58" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="92" operator="between">
+    <cfRule type="cellIs" dxfId="85" priority="59" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="93" operator="between">
+    <cfRule type="cellIs" dxfId="84" priority="60" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CL31">
-    <cfRule type="cellIs" dxfId="89" priority="88" operator="equal">
+  <conditionalFormatting sqref="AL29">
+    <cfRule type="cellIs" dxfId="83" priority="55" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="89" operator="between">
+    <cfRule type="cellIs" dxfId="82" priority="56" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="90" operator="between">
+    <cfRule type="cellIs" dxfId="81" priority="57" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CK31">
-    <cfRule type="cellIs" dxfId="86" priority="85" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="86" operator="between">
-      <formula>0.01</formula>
-      <formula>0.25</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="87" operator="between">
-      <formula>0.26</formula>
-      <formula>0.5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I31">
-    <cfRule type="cellIs" dxfId="83" priority="82" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="83" operator="between">
-      <formula>0.01</formula>
-      <formula>0.25</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="84" operator="between">
-      <formula>0.26</formula>
-      <formula>0.5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL9:AL23 AL32:AL33">
+  <conditionalFormatting sqref="AL30">
     <cfRule type="cellIs" dxfId="80" priority="52" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32991,7 +34403,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL24">
+  <conditionalFormatting sqref="AL31">
     <cfRule type="cellIs" dxfId="77" priority="49" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33004,98 +34416,98 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL25">
-    <cfRule type="cellIs" dxfId="74" priority="46" operator="equal">
+  <conditionalFormatting sqref="AF32:AF33 AF9:AF23">
+    <cfRule type="cellIs" dxfId="47" priority="46" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="47" operator="between">
+    <cfRule type="cellIs" dxfId="46" priority="47" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="48" operator="between">
+    <cfRule type="cellIs" dxfId="45" priority="48" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL26">
-    <cfRule type="cellIs" dxfId="71" priority="43" operator="equal">
+  <conditionalFormatting sqref="AF24">
+    <cfRule type="cellIs" dxfId="44" priority="43" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="44" operator="between">
+    <cfRule type="cellIs" dxfId="43" priority="44" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="45" operator="between">
+    <cfRule type="cellIs" dxfId="42" priority="45" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL27">
-    <cfRule type="cellIs" dxfId="68" priority="40" operator="equal">
+  <conditionalFormatting sqref="AF25">
+    <cfRule type="cellIs" dxfId="41" priority="40" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="41" operator="between">
+    <cfRule type="cellIs" dxfId="40" priority="41" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="42" operator="between">
+    <cfRule type="cellIs" dxfId="39" priority="42" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL28">
-    <cfRule type="cellIs" dxfId="65" priority="37" operator="equal">
+  <conditionalFormatting sqref="AF26">
+    <cfRule type="cellIs" dxfId="38" priority="37" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="38" operator="between">
+    <cfRule type="cellIs" dxfId="37" priority="38" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="39" operator="between">
+    <cfRule type="cellIs" dxfId="36" priority="39" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL29">
-    <cfRule type="cellIs" dxfId="62" priority="34" operator="equal">
+  <conditionalFormatting sqref="AF27">
+    <cfRule type="cellIs" dxfId="35" priority="34" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="35" operator="between">
+    <cfRule type="cellIs" dxfId="34" priority="35" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="36" operator="between">
+    <cfRule type="cellIs" dxfId="33" priority="36" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL30">
-    <cfRule type="cellIs" dxfId="59" priority="31" operator="equal">
+  <conditionalFormatting sqref="AF28">
+    <cfRule type="cellIs" dxfId="32" priority="31" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="32" operator="between">
+    <cfRule type="cellIs" dxfId="31" priority="32" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="33" operator="between">
+    <cfRule type="cellIs" dxfId="30" priority="33" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL31">
-    <cfRule type="cellIs" dxfId="56" priority="28" operator="equal">
+  <conditionalFormatting sqref="AF29">
+    <cfRule type="cellIs" dxfId="29" priority="28" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="29" operator="between">
+    <cfRule type="cellIs" dxfId="28" priority="29" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="30" operator="between">
+    <cfRule type="cellIs" dxfId="27" priority="30" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF32:AF33 AF9:AF23">
+  <conditionalFormatting sqref="AF30">
     <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33108,7 +34520,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF24">
+  <conditionalFormatting sqref="AF31">
     <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33121,7 +34533,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF25">
+  <conditionalFormatting sqref="AL24">
     <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33134,7 +34546,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF26">
+  <conditionalFormatting sqref="AN24">
     <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33147,7 +34559,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF27">
+  <conditionalFormatting sqref="AI25">
     <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33160,7 +34572,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF28">
+  <conditionalFormatting sqref="AJ25">
     <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33173,7 +34585,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF29">
+  <conditionalFormatting sqref="AL25">
     <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33186,7 +34598,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF30">
+  <conditionalFormatting sqref="AI27">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33199,7 +34611,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF31">
+  <conditionalFormatting sqref="AN27">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33214,6 +34626,7 @@
   </conditionalFormatting>
   <pageMargins left="0" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -33370,144 +34783,144 @@
       <c r="C1" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="191" t="s">
+      <c r="D1" s="192" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="193"/>
-      <c r="F1" s="191" t="s">
+      <c r="E1" s="194"/>
+      <c r="F1" s="192" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="192"/>
-      <c r="H1" s="192"/>
-      <c r="I1" s="192"/>
-      <c r="J1" s="192"/>
-      <c r="K1" s="192"/>
-      <c r="L1" s="192"/>
-      <c r="M1" s="192"/>
-      <c r="N1" s="192"/>
-      <c r="O1" s="192"/>
-      <c r="P1" s="192"/>
-      <c r="Q1" s="192"/>
-      <c r="R1" s="192"/>
-      <c r="S1" s="192"/>
-      <c r="T1" s="192"/>
-      <c r="U1" s="192"/>
-      <c r="V1" s="192"/>
-      <c r="W1" s="192"/>
-      <c r="X1" s="192"/>
-      <c r="Y1" s="192"/>
-      <c r="Z1" s="192"/>
-      <c r="AA1" s="192"/>
-      <c r="AB1" s="192"/>
-      <c r="AC1" s="198"/>
-      <c r="AD1" s="198"/>
-      <c r="AE1" s="198"/>
-      <c r="AF1" s="198"/>
-      <c r="AG1" s="198"/>
-      <c r="AH1" s="198"/>
-      <c r="AI1" s="198"/>
-      <c r="AJ1" s="199"/>
-      <c r="AK1" s="195" t="s">
+      <c r="G1" s="193"/>
+      <c r="H1" s="193"/>
+      <c r="I1" s="193"/>
+      <c r="J1" s="193"/>
+      <c r="K1" s="193"/>
+      <c r="L1" s="193"/>
+      <c r="M1" s="193"/>
+      <c r="N1" s="193"/>
+      <c r="O1" s="193"/>
+      <c r="P1" s="193"/>
+      <c r="Q1" s="193"/>
+      <c r="R1" s="193"/>
+      <c r="S1" s="193"/>
+      <c r="T1" s="193"/>
+      <c r="U1" s="193"/>
+      <c r="V1" s="193"/>
+      <c r="W1" s="193"/>
+      <c r="X1" s="193"/>
+      <c r="Y1" s="193"/>
+      <c r="Z1" s="193"/>
+      <c r="AA1" s="193"/>
+      <c r="AB1" s="193"/>
+      <c r="AC1" s="199"/>
+      <c r="AD1" s="199"/>
+      <c r="AE1" s="199"/>
+      <c r="AF1" s="199"/>
+      <c r="AG1" s="199"/>
+      <c r="AH1" s="199"/>
+      <c r="AI1" s="199"/>
+      <c r="AJ1" s="200"/>
+      <c r="AK1" s="196" t="s">
         <v>51</v>
       </c>
-      <c r="AL1" s="196"/>
-      <c r="AM1" s="196"/>
-      <c r="AN1" s="196"/>
-      <c r="AO1" s="196"/>
-      <c r="AP1" s="196"/>
-      <c r="AQ1" s="197"/>
-      <c r="AR1" s="191" t="s">
+      <c r="AL1" s="197"/>
+      <c r="AM1" s="197"/>
+      <c r="AN1" s="197"/>
+      <c r="AO1" s="197"/>
+      <c r="AP1" s="197"/>
+      <c r="AQ1" s="198"/>
+      <c r="AR1" s="192" t="s">
         <v>50</v>
       </c>
-      <c r="AS1" s="193"/>
+      <c r="AS1" s="194"/>
     </row>
     <row r="2" spans="2:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="28"/>
       <c r="C2" s="32"/>
       <c r="D2" s="35"/>
       <c r="E2" s="36"/>
-      <c r="F2" s="206" t="s">
+      <c r="F2" s="207" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="207"/>
-      <c r="H2" s="207"/>
-      <c r="I2" s="207"/>
-      <c r="J2" s="207"/>
-      <c r="K2" s="207"/>
-      <c r="L2" s="207"/>
-      <c r="M2" s="207"/>
-      <c r="N2" s="207"/>
-      <c r="O2" s="207"/>
-      <c r="P2" s="207"/>
-      <c r="Q2" s="207"/>
-      <c r="R2" s="207"/>
-      <c r="S2" s="207"/>
-      <c r="T2" s="207"/>
-      <c r="U2" s="207"/>
-      <c r="V2" s="207"/>
-      <c r="W2" s="207"/>
-      <c r="X2" s="207"/>
-      <c r="Y2" s="207"/>
-      <c r="Z2" s="207"/>
-      <c r="AA2" s="207"/>
-      <c r="AB2" s="207"/>
-      <c r="AC2" s="204" t="s">
+      <c r="G2" s="208"/>
+      <c r="H2" s="208"/>
+      <c r="I2" s="208"/>
+      <c r="J2" s="208"/>
+      <c r="K2" s="208"/>
+      <c r="L2" s="208"/>
+      <c r="M2" s="208"/>
+      <c r="N2" s="208"/>
+      <c r="O2" s="208"/>
+      <c r="P2" s="208"/>
+      <c r="Q2" s="208"/>
+      <c r="R2" s="208"/>
+      <c r="S2" s="208"/>
+      <c r="T2" s="208"/>
+      <c r="U2" s="208"/>
+      <c r="V2" s="208"/>
+      <c r="W2" s="208"/>
+      <c r="X2" s="208"/>
+      <c r="Y2" s="208"/>
+      <c r="Z2" s="208"/>
+      <c r="AA2" s="208"/>
+      <c r="AB2" s="208"/>
+      <c r="AC2" s="205" t="s">
         <v>36</v>
       </c>
-      <c r="AD2" s="208"/>
-      <c r="AE2" s="204" t="s">
+      <c r="AD2" s="209"/>
+      <c r="AE2" s="205" t="s">
         <v>5</v>
       </c>
-      <c r="AF2" s="208"/>
-      <c r="AG2" s="204" t="s">
+      <c r="AF2" s="209"/>
+      <c r="AG2" s="205" t="s">
         <v>39</v>
       </c>
-      <c r="AH2" s="205"/>
-      <c r="AI2" s="208"/>
+      <c r="AH2" s="206"/>
+      <c r="AI2" s="209"/>
       <c r="AJ2" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="AK2" s="204" t="s">
+      <c r="AK2" s="205" t="s">
         <v>43</v>
       </c>
-      <c r="AL2" s="205"/>
-      <c r="AM2" s="208"/>
+      <c r="AL2" s="206"/>
+      <c r="AM2" s="209"/>
       <c r="AN2" s="31"/>
       <c r="AO2" s="31"/>
       <c r="AP2" s="31"/>
       <c r="AQ2" s="43"/>
-      <c r="AR2" s="200" t="s">
+      <c r="AR2" s="201" t="s">
         <v>48</v>
       </c>
-      <c r="AS2" s="202" t="s">
+      <c r="AS2" s="203" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="3" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B3" s="28"/>
-      <c r="C3" s="187" t="s">
+      <c r="C3" s="188" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="188" t="s">
+      <c r="D3" s="189" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="190" t="s">
+      <c r="E3" s="191" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="191" t="s">
+      <c r="F3" s="192" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="192"/>
-      <c r="H3" s="192"/>
-      <c r="I3" s="192"/>
-      <c r="J3" s="192"/>
-      <c r="K3" s="193"/>
-      <c r="L3" s="191" t="s">
+      <c r="G3" s="193"/>
+      <c r="H3" s="193"/>
+      <c r="I3" s="193"/>
+      <c r="J3" s="193"/>
+      <c r="K3" s="194"/>
+      <c r="L3" s="192" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="192"/>
-      <c r="N3" s="192"/>
-      <c r="O3" s="193"/>
+      <c r="M3" s="193"/>
+      <c r="N3" s="193"/>
+      <c r="O3" s="194"/>
       <c r="P3" s="31" t="s">
         <v>27</v>
       </c>
@@ -33517,20 +34930,20 @@
       <c r="R3" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="S3" s="204" t="s">
+      <c r="S3" s="205" t="s">
         <v>25</v>
       </c>
-      <c r="T3" s="205"/>
-      <c r="U3" s="205"/>
-      <c r="V3" s="205"/>
-      <c r="W3" s="205"/>
-      <c r="X3" s="208"/>
-      <c r="Y3" s="204" t="s">
+      <c r="T3" s="206"/>
+      <c r="U3" s="206"/>
+      <c r="V3" s="206"/>
+      <c r="W3" s="206"/>
+      <c r="X3" s="209"/>
+      <c r="Y3" s="205" t="s">
         <v>29</v>
       </c>
-      <c r="Z3" s="205"/>
-      <c r="AA3" s="205"/>
-      <c r="AB3" s="205"/>
+      <c r="Z3" s="206"/>
+      <c r="AA3" s="206"/>
+      <c r="AB3" s="206"/>
       <c r="AC3" s="35" t="s">
         <v>37</v>
       </c>
@@ -33543,11 +34956,11 @@
       <c r="AF3" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="AG3" s="188" t="s">
+      <c r="AG3" s="189" t="s">
         <v>35</v>
       </c>
-      <c r="AH3" s="189"/>
-      <c r="AI3" s="190"/>
+      <c r="AH3" s="190"/>
+      <c r="AI3" s="191"/>
       <c r="AJ3" s="32" t="s">
         <v>7</v>
       </c>
@@ -33572,77 +34985,77 @@
       <c r="AQ3" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="AR3" s="201"/>
-      <c r="AS3" s="203"/>
+      <c r="AR3" s="202"/>
+      <c r="AS3" s="204"/>
     </row>
     <row r="4" spans="2:45" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="28"/>
-      <c r="C4" s="187"/>
-      <c r="D4" s="188"/>
-      <c r="E4" s="190"/>
-      <c r="F4" s="188" t="s">
+      <c r="C4" s="188"/>
+      <c r="D4" s="189"/>
+      <c r="E4" s="191"/>
+      <c r="F4" s="189" t="s">
         <v>52</v>
       </c>
-      <c r="G4" s="189" t="s">
+      <c r="G4" s="190" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="189" t="s">
+      <c r="H4" s="190" t="s">
         <v>53</v>
       </c>
-      <c r="I4" s="189" t="s">
+      <c r="I4" s="190" t="s">
         <v>54</v>
       </c>
-      <c r="J4" s="189" t="s">
+      <c r="J4" s="190" t="s">
         <v>55</v>
       </c>
-      <c r="K4" s="190"/>
-      <c r="L4" s="188" t="s">
+      <c r="K4" s="191"/>
+      <c r="L4" s="189" t="s">
         <v>52</v>
       </c>
-      <c r="M4" s="189" t="s">
+      <c r="M4" s="190" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="189" t="s">
+      <c r="N4" s="190" t="s">
         <v>53</v>
       </c>
-      <c r="O4" s="190" t="s">
+      <c r="O4" s="191" t="s">
         <v>54</v>
       </c>
-      <c r="P4" s="187" t="s">
+      <c r="P4" s="188" t="s">
         <v>56</v>
       </c>
-      <c r="Q4" s="187" t="s">
+      <c r="Q4" s="188" t="s">
         <v>56</v>
       </c>
-      <c r="R4" s="187" t="s">
+      <c r="R4" s="188" t="s">
         <v>56</v>
       </c>
-      <c r="S4" s="188" t="s">
+      <c r="S4" s="189" t="s">
         <v>52</v>
       </c>
-      <c r="T4" s="189" t="s">
+      <c r="T4" s="190" t="s">
         <v>10</v>
       </c>
-      <c r="U4" s="189" t="s">
+      <c r="U4" s="190" t="s">
         <v>53</v>
       </c>
-      <c r="V4" s="189" t="s">
+      <c r="V4" s="190" t="s">
         <v>54</v>
       </c>
-      <c r="W4" s="194" t="s">
+      <c r="W4" s="195" t="s">
         <v>55</v>
       </c>
-      <c r="X4" s="190"/>
-      <c r="Y4" s="188" t="s">
+      <c r="X4" s="191"/>
+      <c r="Y4" s="189" t="s">
         <v>52</v>
       </c>
-      <c r="Z4" s="189" t="s">
+      <c r="Z4" s="190" t="s">
         <v>10</v>
       </c>
-      <c r="AA4" s="189" t="s">
+      <c r="AA4" s="190" t="s">
         <v>53</v>
       </c>
-      <c r="AB4" s="209" t="s">
+      <c r="AB4" s="210" t="s">
         <v>54</v>
       </c>
       <c r="AC4" s="35"/>
@@ -33671,40 +35084,40 @@
     </row>
     <row r="5" spans="2:45" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="28"/>
-      <c r="C5" s="187"/>
-      <c r="D5" s="188"/>
-      <c r="E5" s="190"/>
-      <c r="F5" s="188"/>
-      <c r="G5" s="189"/>
-      <c r="H5" s="189"/>
-      <c r="I5" s="189"/>
+      <c r="C5" s="188"/>
+      <c r="D5" s="189"/>
+      <c r="E5" s="191"/>
+      <c r="F5" s="189"/>
+      <c r="G5" s="190"/>
+      <c r="H5" s="190"/>
+      <c r="I5" s="190"/>
       <c r="J5" s="26" t="s">
         <v>57</v>
       </c>
       <c r="K5" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="L5" s="188"/>
-      <c r="M5" s="189"/>
-      <c r="N5" s="189"/>
-      <c r="O5" s="190"/>
-      <c r="P5" s="187"/>
-      <c r="Q5" s="187"/>
-      <c r="R5" s="187"/>
-      <c r="S5" s="188"/>
-      <c r="T5" s="189"/>
-      <c r="U5" s="189"/>
-      <c r="V5" s="189"/>
+      <c r="L5" s="189"/>
+      <c r="M5" s="190"/>
+      <c r="N5" s="190"/>
+      <c r="O5" s="191"/>
+      <c r="P5" s="188"/>
+      <c r="Q5" s="188"/>
+      <c r="R5" s="188"/>
+      <c r="S5" s="189"/>
+      <c r="T5" s="190"/>
+      <c r="U5" s="190"/>
+      <c r="V5" s="190"/>
       <c r="W5" s="29" t="s">
         <v>59</v>
       </c>
       <c r="X5" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="Y5" s="188"/>
-      <c r="Z5" s="189"/>
-      <c r="AA5" s="189"/>
-      <c r="AB5" s="209"/>
+      <c r="Y5" s="189"/>
+      <c r="Z5" s="190"/>
+      <c r="AA5" s="190"/>
+      <c r="AB5" s="210"/>
       <c r="AC5" s="35"/>
       <c r="AD5" s="36"/>
       <c r="AE5" s="35"/>

--- a/BaremeJavaBaseTest2_KL16.xlsx
+++ b/BaremeJavaBaseTest2_KL16.xlsx
@@ -8939,7 +8939,7 @@
       <selection sqref="A1:XFD1"/>
       <selection pane="topRight" activeCell="I6" sqref="I1:CL1048576"/>
       <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
-      <selection pane="bottomRight" activeCell="AK28" sqref="AK28"/>
+      <selection pane="bottomRight" activeCell="AM29" sqref="AM29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>

--- a/BaremeJavaBaseTest2_KL16.xlsx
+++ b/BaremeJavaBaseTest2_KL16.xlsx
@@ -52,6 +52,30 @@
           </rPr>
           <t xml:space="preserve">
 manque contrôle contains</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+type id nok</t>
         </r>
       </text>
     </comment>
@@ -8939,7 +8963,7 @@
       <selection sqref="A1:XFD1"/>
       <selection pane="topRight" activeCell="I6" sqref="I1:CL1048576"/>
       <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
-      <selection pane="bottomRight" activeCell="AM29" sqref="AM29"/>
+      <selection pane="bottomRight" activeCell="AB10" sqref="AB10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -10328,20 +10352,20 @@
       <c r="C9" s="119"/>
       <c r="D9" s="108">
         <f>H9/$H$6*20+CL9*$CL$6</f>
-        <v>1.2605042016806722</v>
+        <v>3.1092436974789917</v>
       </c>
       <c r="E9" s="21">
         <f>G9/$H$7*20+CL9*$CL$7</f>
-        <v>2.1428571428571428</v>
+        <v>4.1428571428571432</v>
       </c>
       <c r="F9" s="21"/>
       <c r="G9" s="14">
         <f t="shared" ref="G9:G21" si="0">H65</f>
-        <v>7.5</v>
+        <v>14.5</v>
       </c>
       <c r="H9" s="14">
         <f t="shared" ref="H9:H21" si="1">H36</f>
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="I9" s="110">
         <v>1</v>
@@ -10382,13 +10406,27 @@
       <c r="AA9" s="9">
         <v>99</v>
       </c>
-      <c r="AB9" s="8"/>
-      <c r="AC9" s="65"/>
-      <c r="AD9" s="9"/>
-      <c r="AE9" s="74"/>
-      <c r="AF9" s="121"/>
-      <c r="AG9" s="67"/>
-      <c r="AH9" s="9"/>
+      <c r="AB9" s="8">
+        <v>1</v>
+      </c>
+      <c r="AC9" s="65">
+        <v>1</v>
+      </c>
+      <c r="AD9" s="9">
+        <v>1</v>
+      </c>
+      <c r="AE9" s="74">
+        <v>1</v>
+      </c>
+      <c r="AF9" s="121">
+        <v>1</v>
+      </c>
+      <c r="AG9" s="67">
+        <v>1</v>
+      </c>
+      <c r="AH9" s="9">
+        <v>1</v>
+      </c>
       <c r="AI9" s="13">
         <v>1</v>
       </c>
@@ -10472,20 +10510,20 @@
       <c r="C10" s="4"/>
       <c r="D10" s="108">
         <f>H10/$H$6*20+CL10*$CL$6</f>
-        <v>1.2920168067226891</v>
+        <v>1.7752100840336136</v>
       </c>
       <c r="E10" s="21">
         <f>G10/$H$7*20+CL10*$CL$7</f>
-        <v>2.1428571428571428</v>
+        <v>2.6785714285714284</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="87">
         <f t="shared" si="0"/>
-        <v>7.5</v>
+        <v>9.375</v>
       </c>
       <c r="H10" s="87">
         <f t="shared" si="1"/>
-        <v>15.375</v>
+        <v>21.125</v>
       </c>
       <c r="I10" s="110">
         <v>1</v>
@@ -10526,9 +10564,13 @@
       <c r="AA10" s="91">
         <v>99</v>
       </c>
-      <c r="AB10" s="88"/>
+      <c r="AB10" s="88">
+        <v>0.875</v>
+      </c>
       <c r="AC10" s="90"/>
-      <c r="AD10" s="91"/>
+      <c r="AD10" s="91">
+        <v>1</v>
+      </c>
       <c r="AE10" s="91"/>
       <c r="AF10" s="91"/>
       <c r="AG10" s="91"/>
@@ -14020,31 +14062,31 @@
       </c>
       <c r="AB34" s="71">
         <f t="shared" si="9"/>
-        <v>0.5</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="AC34" s="71">
         <f t="shared" si="9"/>
-        <v>0.125</v>
+        <v>0.5625</v>
       </c>
       <c r="AD34" s="71">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AE34" s="79">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AF34" s="122">
         <f t="shared" ref="AF34" si="10">AVERAGE(AF9:AF32)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AG34" s="71">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AH34" s="71">
         <f t="shared" si="9"/>
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="AI34" s="71">
         <f t="shared" si="9"/>
@@ -14274,7 +14316,7 @@
     <row r="36" spans="1:90" x14ac:dyDescent="0.25">
       <c r="H36" s="2">
         <f>SUM(I36:CJ36)</f>
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="I36" s="2">
         <f t="shared" ref="I36:AI36" si="20">I9*I$6</f>
@@ -14354,31 +14396,31 @@
       </c>
       <c r="AB36" s="71">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC36" s="71">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD36" s="71">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AE36" s="79">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AF36" s="122">
         <f t="shared" ref="AF36" si="21">AF9*AF$6</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG36" s="71">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH36" s="71">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI36" s="71">
         <f t="shared" si="20"/>
@@ -14608,7 +14650,7 @@
     <row r="37" spans="1:90" x14ac:dyDescent="0.25">
       <c r="H37" s="117">
         <f>SUM(I37:CJ37)</f>
-        <v>15.375</v>
+        <v>21.125</v>
       </c>
       <c r="I37" s="117">
         <f t="shared" ref="I37:AZ37" si="31">I10*I$6</f>
@@ -14688,7 +14730,7 @@
       </c>
       <c r="AB37" s="117">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AC37" s="117">
         <f t="shared" si="31"/>
@@ -14696,7 +14738,7 @@
       </c>
       <c r="AD37" s="117">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AE37" s="117">
         <f t="shared" si="31"/>
@@ -22761,7 +22803,7 @@
     <row r="65" spans="4:90" x14ac:dyDescent="0.25">
       <c r="H65" s="2">
         <f>SUM(I65:CJ65)</f>
-        <v>7.5</v>
+        <v>14.5</v>
       </c>
       <c r="I65" s="2">
         <f t="shared" ref="I65:AI65" si="127">I9*I$7</f>
@@ -22841,31 +22883,31 @@
       </c>
       <c r="AB65" s="68">
         <f t="shared" si="127"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC65" s="68">
         <f t="shared" si="127"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD65" s="68">
         <f t="shared" si="127"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE65" s="79">
         <f t="shared" si="127"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF65" s="122">
         <f t="shared" ref="AF65" si="128">AF9*AF$7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG65" s="68">
         <f t="shared" si="127"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH65" s="68">
         <f t="shared" si="127"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI65" s="68">
         <f t="shared" si="127"/>
@@ -23095,7 +23137,7 @@
     <row r="66" spans="4:90" x14ac:dyDescent="0.25">
       <c r="H66" s="117">
         <f>SUM(I66:CJ66)</f>
-        <v>7.5</v>
+        <v>9.375</v>
       </c>
       <c r="I66" s="117">
         <f t="shared" ref="I66:BV66" si="135">I10*I$7</f>
@@ -23175,7 +23217,7 @@
       </c>
       <c r="AB66" s="117">
         <f t="shared" si="135"/>
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC66" s="117">
         <f t="shared" si="135"/>
@@ -23183,7 +23225,7 @@
       </c>
       <c r="AD66" s="117">
         <f t="shared" si="135"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE66" s="117">
         <f t="shared" si="135"/>
@@ -31276,7 +31318,7 @@
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CL9:CL21 BZ9:CB23 AO22:AO23 BW9:BX23 AR9:AU23 J9:AD23 CH9:CJ23 CH32:CJ33 J32:AD33 AR32:AU33 BW32:BX33 BZ32:CB33 AG32:AK33 AM32:AO33 AG9:AK23 AM9:AN23">
+  <conditionalFormatting sqref="CL9:CL21 BZ9:CB23 AO22:AO23 BW9:BX23 AR9:AU23 CH9:CJ23 CH32:CJ33 J32:AD33 AR32:AU33 BW32:BX33 BZ32:CB33 AG32:AK33 AM32:AO33 AG9:AK23 AM9:AN23 J9:AD23">
     <cfRule type="cellIs" dxfId="804" priority="914" operator="equal">
       <formula>0</formula>
     </cfRule>

--- a/BaremeJavaBaseTest2_KL16.xlsx
+++ b/BaremeJavaBaseTest2_KL16.xlsx
@@ -76,6 +76,54 @@
           </rPr>
           <t xml:space="preserve">
 type id nok</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AE10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+manque contrôle contains</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AH10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+pas de liste dans le toString</t>
         </r>
       </text>
     </comment>
@@ -3042,7 +3090,49 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="807">
+  <dxfs count="813">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -8963,7 +9053,7 @@
       <selection sqref="A1:XFD1"/>
       <selection pane="topRight" activeCell="I6" sqref="I1:CL1048576"/>
       <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
-      <selection pane="bottomRight" activeCell="AB10" sqref="AB10"/>
+      <selection pane="bottomRight" activeCell="AC10" sqref="AC10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -10510,20 +10600,20 @@
       <c r="C10" s="4"/>
       <c r="D10" s="108">
         <f>H10/$H$6*20+CL10*$CL$6</f>
-        <v>1.7752100840336136</v>
+        <v>2.9096638655462188</v>
       </c>
       <c r="E10" s="21">
         <f>G10/$H$7*20+CL10*$CL$7</f>
-        <v>2.6785714285714284</v>
+        <v>3.8571428571428572</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="87">
         <f t="shared" si="0"/>
-        <v>9.375</v>
+        <v>13.5</v>
       </c>
       <c r="H10" s="87">
         <f t="shared" si="1"/>
-        <v>21.125</v>
+        <v>34.625</v>
       </c>
       <c r="I10" s="110">
         <v>1</v>
@@ -10567,14 +10657,24 @@
       <c r="AB10" s="88">
         <v>0.875</v>
       </c>
-      <c r="AC10" s="90"/>
+      <c r="AC10" s="90">
+        <v>1</v>
+      </c>
       <c r="AD10" s="91">
         <v>1</v>
       </c>
-      <c r="AE10" s="91"/>
-      <c r="AF10" s="91"/>
-      <c r="AG10" s="91"/>
-      <c r="AH10" s="91"/>
+      <c r="AE10" s="121">
+        <v>0.5</v>
+      </c>
+      <c r="AF10" s="91">
+        <v>0.875</v>
+      </c>
+      <c r="AG10" s="91">
+        <v>1</v>
+      </c>
+      <c r="AH10" s="121">
+        <v>0.75</v>
+      </c>
       <c r="AI10" s="88">
         <v>0.875</v>
       </c>
@@ -14066,7 +14166,7 @@
       </c>
       <c r="AC34" s="71">
         <f t="shared" si="9"/>
-        <v>0.5625</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="AD34" s="71">
         <f t="shared" si="9"/>
@@ -14078,15 +14178,15 @@
       </c>
       <c r="AF34" s="122">
         <f t="shared" ref="AF34" si="10">AVERAGE(AF9:AF32)</f>
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="AG34" s="71">
         <f t="shared" si="9"/>
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AH34" s="71">
         <f t="shared" si="9"/>
-        <v>0.875</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="AI34" s="71">
         <f t="shared" si="9"/>
@@ -14650,7 +14750,7 @@
     <row r="37" spans="1:90" x14ac:dyDescent="0.25">
       <c r="H37" s="117">
         <f>SUM(I37:CJ37)</f>
-        <v>21.125</v>
+        <v>34.625</v>
       </c>
       <c r="I37" s="117">
         <f t="shared" ref="I37:AZ37" si="31">I10*I$6</f>
@@ -14734,7 +14834,7 @@
       </c>
       <c r="AC37" s="117">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD37" s="117">
         <f t="shared" si="31"/>
@@ -14742,19 +14842,19 @@
       </c>
       <c r="AE37" s="117">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF37" s="122">
         <f t="shared" ref="AF37" si="32">AF10*AF$6</f>
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AG37" s="117">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH37" s="117">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AI37" s="117">
         <f t="shared" si="31"/>
@@ -23137,7 +23237,7 @@
     <row r="66" spans="4:90" x14ac:dyDescent="0.25">
       <c r="H66" s="117">
         <f>SUM(I66:CJ66)</f>
-        <v>9.375</v>
+        <v>13.5</v>
       </c>
       <c r="I66" s="117">
         <f t="shared" ref="I66:BV66" si="135">I10*I$7</f>
@@ -23221,7 +23321,7 @@
       </c>
       <c r="AC66" s="117">
         <f t="shared" si="135"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD66" s="117">
         <f t="shared" si="135"/>
@@ -23229,19 +23329,19 @@
       </c>
       <c r="AE66" s="117">
         <f t="shared" si="135"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AF66" s="122">
         <f t="shared" ref="AF66" si="136">AF10*AF$7</f>
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AG66" s="117">
         <f t="shared" si="135"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH66" s="117">
         <f t="shared" si="135"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AI66" s="117">
         <f t="shared" si="135"/>
@@ -31310,197 +31410,223 @@
     <mergeCell ref="BJ4:BJ5"/>
   </mergeCells>
   <conditionalFormatting sqref="D9:F23 D32:F33">
-    <cfRule type="cellIs" dxfId="806" priority="919" operator="between">
+    <cfRule type="cellIs" dxfId="812" priority="925" operator="between">
       <formula>8</formula>
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="805" priority="920" operator="lessThan">
+    <cfRule type="cellIs" dxfId="811" priority="926" operator="lessThan">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CL9:CL21 BZ9:CB23 AO22:AO23 BW9:BX23 AR9:AU23 CH9:CJ23 CH32:CJ33 J32:AD33 AR32:AU33 BW32:BX33 BZ32:CB33 AG32:AK33 AM32:AO33 AG9:AK23 AM9:AN23 J9:AD23">
-    <cfRule type="cellIs" dxfId="804" priority="914" operator="equal">
+  <conditionalFormatting sqref="CL9:CL21 BZ9:CB23 AO22:AO23 BW9:BX23 AR9:AU23 CH9:CJ23 CH32:CJ33 J32:AD33 AR32:AU33 BW32:BX33 BZ32:CB33 AG32:AK33 AM32:AO33 AM9:AN23 J9:AD23 AG9:AK23">
+    <cfRule type="cellIs" dxfId="810" priority="920" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="803" priority="915" operator="between">
+    <cfRule type="cellIs" dxfId="809" priority="921" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="802" priority="916" operator="between">
+    <cfRule type="cellIs" dxfId="808" priority="922" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO9:AO21">
-    <cfRule type="cellIs" dxfId="801" priority="908" operator="equal">
+    <cfRule type="cellIs" dxfId="807" priority="914" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="800" priority="909" operator="between">
+    <cfRule type="cellIs" dxfId="806" priority="915" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="799" priority="910" operator="between">
+    <cfRule type="cellIs" dxfId="805" priority="916" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP9:AP19 AP21">
-    <cfRule type="cellIs" dxfId="798" priority="890" operator="equal">
+    <cfRule type="cellIs" dxfId="804" priority="896" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="797" priority="891" operator="between">
+    <cfRule type="cellIs" dxfId="803" priority="897" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="796" priority="892" operator="between">
+    <cfRule type="cellIs" dxfId="802" priority="898" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP22:AP23 AP33">
-    <cfRule type="cellIs" dxfId="795" priority="887" operator="equal">
+    <cfRule type="cellIs" dxfId="801" priority="893" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="794" priority="888" operator="between">
+    <cfRule type="cellIs" dxfId="800" priority="894" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="793" priority="889" operator="between">
+    <cfRule type="cellIs" dxfId="799" priority="895" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE9:AE14 AE16:AE23 AE32:AE33">
-    <cfRule type="cellIs" dxfId="792" priority="863" operator="equal">
+  <conditionalFormatting sqref="AE9 AE16:AE23 AE32:AE33 AE11:AE14">
+    <cfRule type="cellIs" dxfId="798" priority="869" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="791" priority="864" operator="between">
+    <cfRule type="cellIs" dxfId="797" priority="870" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="790" priority="865" operator="between">
+    <cfRule type="cellIs" dxfId="796" priority="871" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BY9:BY23 BY33">
-    <cfRule type="cellIs" dxfId="789" priority="848" operator="equal">
+    <cfRule type="cellIs" dxfId="795" priority="854" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="788" priority="849" operator="between">
+    <cfRule type="cellIs" dxfId="794" priority="855" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="787" priority="850" operator="between">
+    <cfRule type="cellIs" dxfId="793" priority="856" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE15">
-    <cfRule type="cellIs" dxfId="786" priority="842" operator="equal">
+    <cfRule type="cellIs" dxfId="792" priority="848" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="785" priority="843" operator="between">
+    <cfRule type="cellIs" dxfId="791" priority="849" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="784" priority="844" operator="between">
+    <cfRule type="cellIs" dxfId="790" priority="850" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ9:AQ19 AQ21">
-    <cfRule type="cellIs" dxfId="783" priority="833" operator="equal">
+    <cfRule type="cellIs" dxfId="789" priority="839" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="782" priority="834" operator="between">
+    <cfRule type="cellIs" dxfId="788" priority="840" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="781" priority="835" operator="between">
+    <cfRule type="cellIs" dxfId="787" priority="841" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ22:AQ23 AQ33">
-    <cfRule type="cellIs" dxfId="780" priority="830" operator="equal">
+    <cfRule type="cellIs" dxfId="786" priority="836" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="779" priority="831" operator="between">
+    <cfRule type="cellIs" dxfId="785" priority="837" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="778" priority="832" operator="between">
+    <cfRule type="cellIs" dxfId="784" priority="838" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP20">
-    <cfRule type="cellIs" dxfId="777" priority="803" operator="equal">
+    <cfRule type="cellIs" dxfId="783" priority="809" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="776" priority="804" operator="between">
+    <cfRule type="cellIs" dxfId="782" priority="810" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="775" priority="805" operator="between">
+    <cfRule type="cellIs" dxfId="781" priority="811" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ20">
-    <cfRule type="cellIs" dxfId="774" priority="797" operator="equal">
+    <cfRule type="cellIs" dxfId="780" priority="803" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="773" priority="798" operator="between">
+    <cfRule type="cellIs" dxfId="779" priority="804" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="772" priority="799" operator="between">
+    <cfRule type="cellIs" dxfId="778" priority="805" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP32">
-    <cfRule type="cellIs" dxfId="771" priority="791" operator="equal">
+    <cfRule type="cellIs" dxfId="777" priority="797" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="770" priority="792" operator="between">
+    <cfRule type="cellIs" dxfId="776" priority="798" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="769" priority="793" operator="between">
+    <cfRule type="cellIs" dxfId="775" priority="799" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ32">
-    <cfRule type="cellIs" dxfId="768" priority="785" operator="equal">
+    <cfRule type="cellIs" dxfId="774" priority="791" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="767" priority="786" operator="between">
+    <cfRule type="cellIs" dxfId="773" priority="792" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="766" priority="787" operator="between">
+    <cfRule type="cellIs" dxfId="772" priority="793" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CK9:CK21">
-    <cfRule type="cellIs" dxfId="765" priority="767" operator="equal">
+    <cfRule type="cellIs" dxfId="771" priority="773" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="764" priority="768" operator="between">
+    <cfRule type="cellIs" dxfId="770" priority="774" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="763" priority="769" operator="between">
+    <cfRule type="cellIs" dxfId="769" priority="775" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BY32">
+    <cfRule type="cellIs" dxfId="768" priority="767" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="767" priority="768" operator="between">
+      <formula>0.01</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="766" priority="769" operator="between">
+      <formula>0.26</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BB9:BD23 AV9:AV23 BF9:BG23 AY9:AY23 AY32:AY33 BF32:BG33 AV32:AV33 BB32:BD33">
+    <cfRule type="cellIs" dxfId="765" priority="764" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="764" priority="765" operator="between">
+      <formula>0.01</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="763" priority="766" operator="between">
+      <formula>0.26</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AZ9:AZ23 AZ33">
     <cfRule type="cellIs" dxfId="762" priority="761" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -31513,7 +31639,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BB9:BD23 AV9:AV23 BF9:BG23 AY9:AY23 AY32:AY33 BF32:BG33 AV32:AV33 BB32:BD33">
+  <conditionalFormatting sqref="AZ32">
     <cfRule type="cellIs" dxfId="759" priority="758" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -31526,7 +31652,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AZ9:AZ23 AZ33">
+  <conditionalFormatting sqref="BK9:BN23 BH9:BI23 BP9:BP23 BP32:BP33 BH32:BI33 BK32:BN33">
     <cfRule type="cellIs" dxfId="756" priority="755" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -31539,7 +31665,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AZ32">
+  <conditionalFormatting sqref="BJ9:BJ23 BJ33">
     <cfRule type="cellIs" dxfId="753" priority="752" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -31552,7 +31678,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BK9:BN23 BH9:BI23 BP9:BP23 BP32:BP33 BH32:BI33 BK32:BN33">
+  <conditionalFormatting sqref="BJ32">
     <cfRule type="cellIs" dxfId="750" priority="749" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -31565,7 +31691,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BJ9:BJ23 BJ33">
+  <conditionalFormatting sqref="BT9:BV23 BQ9:BR23 BQ32:BR33 BT32:BV33">
     <cfRule type="cellIs" dxfId="747" priority="746" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -31578,7 +31704,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BJ32">
+  <conditionalFormatting sqref="BS9:BS23 BS33">
     <cfRule type="cellIs" dxfId="744" priority="743" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -31591,7 +31717,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BT9:BV23 BQ9:BR23 BQ32:BR33 BT32:BV33">
+  <conditionalFormatting sqref="BS32">
     <cfRule type="cellIs" dxfId="741" priority="740" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -31604,7 +31730,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BS9:BS23 BS33">
+  <conditionalFormatting sqref="BA9:BA23 BA32:BA33">
     <cfRule type="cellIs" dxfId="738" priority="737" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -31617,7 +31743,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BS32">
+  <conditionalFormatting sqref="BE9:BE23 BE32:BE33">
     <cfRule type="cellIs" dxfId="735" priority="734" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -31630,7 +31756,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BA9:BA23 BA32:BA33">
+  <conditionalFormatting sqref="BO9:BO23 BO32:BO33">
     <cfRule type="cellIs" dxfId="732" priority="731" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -31643,7 +31769,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BE9:BE23 BE32:BE33">
+  <conditionalFormatting sqref="AX9:AX23 AX32:AX33">
     <cfRule type="cellIs" dxfId="729" priority="728" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -31656,7 +31782,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BO9:BO23 BO32:BO33">
+  <conditionalFormatting sqref="AW9:AW23 AW32:AW33">
     <cfRule type="cellIs" dxfId="726" priority="725" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -31669,7 +31795,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX9:AX23 AX32:AX33">
+  <conditionalFormatting sqref="CC9:CC23 CC32:CC33">
     <cfRule type="cellIs" dxfId="723" priority="722" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -31682,7 +31808,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AW9:AW23 AW32:AW33">
+  <conditionalFormatting sqref="CD9:CD23 CD32:CD33">
     <cfRule type="cellIs" dxfId="720" priority="719" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -31695,7 +31821,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CC9:CC23 CC32:CC33">
+  <conditionalFormatting sqref="CE9:CE23 CE32:CE33">
     <cfRule type="cellIs" dxfId="717" priority="716" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -31708,7 +31834,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CD9:CD23 CD32:CD33">
+  <conditionalFormatting sqref="CF9:CF23 CF32:CF33">
     <cfRule type="cellIs" dxfId="714" priority="713" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -31721,7 +31847,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CE9:CE23 CE32:CE33">
+  <conditionalFormatting sqref="CG9:CG23 CG32:CG33">
     <cfRule type="cellIs" dxfId="711" priority="710" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -31734,7 +31860,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CF9:CF23 CF32:CF33">
+  <conditionalFormatting sqref="CL22:CL23 CL32">
     <cfRule type="cellIs" dxfId="708" priority="707" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -31747,7 +31873,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CG9:CG23 CG32:CG33">
+  <conditionalFormatting sqref="CK22:CK23 CK32">
     <cfRule type="cellIs" dxfId="705" priority="704" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -31760,7 +31886,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CL22:CL23 CL32">
+  <conditionalFormatting sqref="I9:I23 I32">
     <cfRule type="cellIs" dxfId="702" priority="701" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -31773,42 +31899,42 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CK22:CK23 CK32">
-    <cfRule type="cellIs" dxfId="699" priority="698" operator="equal">
+  <conditionalFormatting sqref="D24:F24">
+    <cfRule type="cellIs" dxfId="699" priority="699" operator="between">
+      <formula>8</formula>
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="698" priority="700" operator="lessThan">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CH24:CJ24 J24:AD24 AR24:AU24 BW24:BX24 BZ24:CB24 AG24:AK24 AM24 AO24">
+    <cfRule type="cellIs" dxfId="697" priority="696" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="698" priority="699" operator="between">
+    <cfRule type="cellIs" dxfId="696" priority="697" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="697" priority="700" operator="between">
+    <cfRule type="cellIs" dxfId="695" priority="698" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I9:I23 I32">
-    <cfRule type="cellIs" dxfId="696" priority="695" operator="equal">
+  <conditionalFormatting sqref="AE24">
+    <cfRule type="cellIs" dxfId="694" priority="693" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="695" priority="696" operator="between">
+    <cfRule type="cellIs" dxfId="693" priority="694" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="694" priority="697" operator="between">
+    <cfRule type="cellIs" dxfId="692" priority="695" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D24:F24">
-    <cfRule type="cellIs" dxfId="693" priority="693" operator="between">
-      <formula>8</formula>
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="692" priority="694" operator="lessThan">
-      <formula>8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CH24:CJ24 J24:AD24 AR24:AU24 BW24:BX24 BZ24:CB24 AG24:AK24 AM24 AO24">
+  <conditionalFormatting sqref="AP24">
     <cfRule type="cellIs" dxfId="691" priority="690" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -31821,7 +31947,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE24">
+  <conditionalFormatting sqref="AQ24">
     <cfRule type="cellIs" dxfId="688" priority="687" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -31834,7 +31960,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP24">
+  <conditionalFormatting sqref="BY24">
     <cfRule type="cellIs" dxfId="685" priority="684" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -31847,7 +31973,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ24">
+  <conditionalFormatting sqref="AY24 BF24:BG24 AV24 BB24:BD24">
     <cfRule type="cellIs" dxfId="682" priority="681" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -31860,7 +31986,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BY24">
+  <conditionalFormatting sqref="AZ24">
     <cfRule type="cellIs" dxfId="679" priority="678" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -31873,7 +31999,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY24 BF24:BG24 AV24 BB24:BD24">
+  <conditionalFormatting sqref="BP24 BH24:BI24 BK24:BN24">
     <cfRule type="cellIs" dxfId="676" priority="675" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -31886,7 +32012,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AZ24">
+  <conditionalFormatting sqref="BJ24">
     <cfRule type="cellIs" dxfId="673" priority="672" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -31899,7 +32025,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BP24 BH24:BI24 BK24:BN24">
+  <conditionalFormatting sqref="BQ24:BR24 BT24:BV24">
     <cfRule type="cellIs" dxfId="670" priority="669" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -31912,7 +32038,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BJ24">
+  <conditionalFormatting sqref="BS24">
     <cfRule type="cellIs" dxfId="667" priority="666" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -31925,7 +32051,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BQ24:BR24 BT24:BV24">
+  <conditionalFormatting sqref="BA24">
     <cfRule type="cellIs" dxfId="664" priority="663" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -31938,7 +32064,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BS24">
+  <conditionalFormatting sqref="BE24">
     <cfRule type="cellIs" dxfId="661" priority="660" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -31951,7 +32077,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BA24">
+  <conditionalFormatting sqref="BO24">
     <cfRule type="cellIs" dxfId="658" priority="657" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -31964,7 +32090,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BE24">
+  <conditionalFormatting sqref="AX24">
     <cfRule type="cellIs" dxfId="655" priority="654" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -31977,7 +32103,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BO24">
+  <conditionalFormatting sqref="AW24">
     <cfRule type="cellIs" dxfId="652" priority="651" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -31990,7 +32116,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX24">
+  <conditionalFormatting sqref="CC24">
     <cfRule type="cellIs" dxfId="649" priority="648" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32003,7 +32129,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AW24">
+  <conditionalFormatting sqref="CD24">
     <cfRule type="cellIs" dxfId="646" priority="645" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32016,7 +32142,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CC24">
+  <conditionalFormatting sqref="CE24">
     <cfRule type="cellIs" dxfId="643" priority="642" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32029,7 +32155,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CD24">
+  <conditionalFormatting sqref="CF24">
     <cfRule type="cellIs" dxfId="640" priority="639" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32042,7 +32168,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CE24">
+  <conditionalFormatting sqref="CG24">
     <cfRule type="cellIs" dxfId="637" priority="636" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32055,7 +32181,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CF24">
+  <conditionalFormatting sqref="CL24">
     <cfRule type="cellIs" dxfId="634" priority="633" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32068,7 +32194,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CG24">
+  <conditionalFormatting sqref="CK24">
     <cfRule type="cellIs" dxfId="631" priority="630" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32081,7 +32207,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CL24">
+  <conditionalFormatting sqref="I24">
     <cfRule type="cellIs" dxfId="628" priority="627" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32094,42 +32220,42 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CK24">
-    <cfRule type="cellIs" dxfId="625" priority="624" operator="equal">
+  <conditionalFormatting sqref="D25:F25">
+    <cfRule type="cellIs" dxfId="625" priority="625" operator="between">
+      <formula>8</formula>
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="624" priority="626" operator="lessThan">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CH25:CJ25 J25:AD25 AR25:AU25 BW25:BX25 BZ25:CB25 AG25:AH25 AM25:AO25 AK25">
+    <cfRule type="cellIs" dxfId="623" priority="622" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="624" priority="625" operator="between">
+    <cfRule type="cellIs" dxfId="622" priority="623" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="623" priority="626" operator="between">
+    <cfRule type="cellIs" dxfId="621" priority="624" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I24">
-    <cfRule type="cellIs" dxfId="622" priority="621" operator="equal">
+  <conditionalFormatting sqref="AE25">
+    <cfRule type="cellIs" dxfId="620" priority="619" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="621" priority="622" operator="between">
+    <cfRule type="cellIs" dxfId="619" priority="620" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="620" priority="623" operator="between">
+    <cfRule type="cellIs" dxfId="618" priority="621" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D25:F25">
-    <cfRule type="cellIs" dxfId="619" priority="619" operator="between">
-      <formula>8</formula>
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="618" priority="620" operator="lessThan">
-      <formula>8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CH25:CJ25 J25:AD25 AR25:AU25 BW25:BX25 BZ25:CB25 AG25:AH25 AM25:AO25 AK25">
+  <conditionalFormatting sqref="AP25">
     <cfRule type="cellIs" dxfId="617" priority="616" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32142,7 +32268,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE25">
+  <conditionalFormatting sqref="AQ25">
     <cfRule type="cellIs" dxfId="614" priority="613" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32155,7 +32281,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP25">
+  <conditionalFormatting sqref="BY25">
     <cfRule type="cellIs" dxfId="611" priority="610" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32168,7 +32294,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ25">
+  <conditionalFormatting sqref="AY25 BF25:BG25 AV25 BB25:BD25">
     <cfRule type="cellIs" dxfId="608" priority="607" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32181,7 +32307,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BY25">
+  <conditionalFormatting sqref="AZ25">
     <cfRule type="cellIs" dxfId="605" priority="604" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32194,7 +32320,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY25 BF25:BG25 AV25 BB25:BD25">
+  <conditionalFormatting sqref="BP25 BH25:BI25 BK25:BN25">
     <cfRule type="cellIs" dxfId="602" priority="601" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32207,7 +32333,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AZ25">
+  <conditionalFormatting sqref="BJ25">
     <cfRule type="cellIs" dxfId="599" priority="598" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32220,7 +32346,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BP25 BH25:BI25 BK25:BN25">
+  <conditionalFormatting sqref="BQ25:BR25 BT25:BV25">
     <cfRule type="cellIs" dxfId="596" priority="595" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32233,7 +32359,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BJ25">
+  <conditionalFormatting sqref="BS25">
     <cfRule type="cellIs" dxfId="593" priority="592" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32246,7 +32372,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BQ25:BR25 BT25:BV25">
+  <conditionalFormatting sqref="BA25">
     <cfRule type="cellIs" dxfId="590" priority="589" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32259,7 +32385,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BS25">
+  <conditionalFormatting sqref="BE25">
     <cfRule type="cellIs" dxfId="587" priority="586" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32272,7 +32398,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BA25">
+  <conditionalFormatting sqref="BO25">
     <cfRule type="cellIs" dxfId="584" priority="583" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32285,7 +32411,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BE25">
+  <conditionalFormatting sqref="AX25">
     <cfRule type="cellIs" dxfId="581" priority="580" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32298,7 +32424,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BO25">
+  <conditionalFormatting sqref="AW25">
     <cfRule type="cellIs" dxfId="578" priority="577" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32311,7 +32437,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX25">
+  <conditionalFormatting sqref="CC25">
     <cfRule type="cellIs" dxfId="575" priority="574" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32324,7 +32450,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AW25">
+  <conditionalFormatting sqref="CD25">
     <cfRule type="cellIs" dxfId="572" priority="571" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32337,7 +32463,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CC25">
+  <conditionalFormatting sqref="CE25">
     <cfRule type="cellIs" dxfId="569" priority="568" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32350,7 +32476,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CD25">
+  <conditionalFormatting sqref="CF25">
     <cfRule type="cellIs" dxfId="566" priority="565" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32363,7 +32489,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CE25">
+  <conditionalFormatting sqref="CG25">
     <cfRule type="cellIs" dxfId="563" priority="562" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32376,7 +32502,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CF25">
+  <conditionalFormatting sqref="CL25">
     <cfRule type="cellIs" dxfId="560" priority="559" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32389,7 +32515,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CG25">
+  <conditionalFormatting sqref="CK25">
     <cfRule type="cellIs" dxfId="557" priority="556" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32402,7 +32528,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CL25">
+  <conditionalFormatting sqref="I25">
     <cfRule type="cellIs" dxfId="554" priority="553" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32415,42 +32541,42 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CK25">
-    <cfRule type="cellIs" dxfId="551" priority="550" operator="equal">
+  <conditionalFormatting sqref="D26:F26">
+    <cfRule type="cellIs" dxfId="551" priority="551" operator="between">
+      <formula>8</formula>
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="550" priority="552" operator="lessThan">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CH26:CJ26 J26:AD26 AR26:AU26 BW26:BX26 BZ26:CB26 AG26:AK26 AM26:AO26">
+    <cfRule type="cellIs" dxfId="549" priority="548" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="550" priority="551" operator="between">
+    <cfRule type="cellIs" dxfId="548" priority="549" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="549" priority="552" operator="between">
+    <cfRule type="cellIs" dxfId="547" priority="550" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I25">
-    <cfRule type="cellIs" dxfId="548" priority="547" operator="equal">
+  <conditionalFormatting sqref="AE26">
+    <cfRule type="cellIs" dxfId="546" priority="545" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="547" priority="548" operator="between">
+    <cfRule type="cellIs" dxfId="545" priority="546" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="546" priority="549" operator="between">
+    <cfRule type="cellIs" dxfId="544" priority="547" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D26:F26">
-    <cfRule type="cellIs" dxfId="545" priority="545" operator="between">
-      <formula>8</formula>
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="544" priority="546" operator="lessThan">
-      <formula>8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CH26:CJ26 J26:AD26 AR26:AU26 BW26:BX26 BZ26:CB26 AG26:AK26 AM26:AO26">
+  <conditionalFormatting sqref="AP26">
     <cfRule type="cellIs" dxfId="543" priority="542" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32463,7 +32589,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE26">
+  <conditionalFormatting sqref="AQ26">
     <cfRule type="cellIs" dxfId="540" priority="539" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32476,7 +32602,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP26">
+  <conditionalFormatting sqref="BY26">
     <cfRule type="cellIs" dxfId="537" priority="536" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32489,7 +32615,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ26">
+  <conditionalFormatting sqref="AY26 BF26:BG26 AV26 BB26:BD26">
     <cfRule type="cellIs" dxfId="534" priority="533" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32502,7 +32628,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BY26">
+  <conditionalFormatting sqref="AZ26">
     <cfRule type="cellIs" dxfId="531" priority="530" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32515,7 +32641,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY26 BF26:BG26 AV26 BB26:BD26">
+  <conditionalFormatting sqref="BP26 BH26:BI26 BK26:BN26">
     <cfRule type="cellIs" dxfId="528" priority="527" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32528,7 +32654,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AZ26">
+  <conditionalFormatting sqref="BJ26">
     <cfRule type="cellIs" dxfId="525" priority="524" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32541,7 +32667,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BP26 BH26:BI26 BK26:BN26">
+  <conditionalFormatting sqref="BQ26:BR26 BT26:BV26">
     <cfRule type="cellIs" dxfId="522" priority="521" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32554,7 +32680,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BJ26">
+  <conditionalFormatting sqref="BS26">
     <cfRule type="cellIs" dxfId="519" priority="518" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32567,7 +32693,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BQ26:BR26 BT26:BV26">
+  <conditionalFormatting sqref="BA26">
     <cfRule type="cellIs" dxfId="516" priority="515" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32580,7 +32706,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BS26">
+  <conditionalFormatting sqref="BE26">
     <cfRule type="cellIs" dxfId="513" priority="512" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32593,7 +32719,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BA26">
+  <conditionalFormatting sqref="BO26">
     <cfRule type="cellIs" dxfId="510" priority="509" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32606,7 +32732,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BE26">
+  <conditionalFormatting sqref="AX26">
     <cfRule type="cellIs" dxfId="507" priority="506" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32619,7 +32745,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BO26">
+  <conditionalFormatting sqref="AW26">
     <cfRule type="cellIs" dxfId="504" priority="503" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32632,7 +32758,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX26">
+  <conditionalFormatting sqref="CC26">
     <cfRule type="cellIs" dxfId="501" priority="500" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32645,7 +32771,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AW26">
+  <conditionalFormatting sqref="CD26">
     <cfRule type="cellIs" dxfId="498" priority="497" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32658,7 +32784,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CC26">
+  <conditionalFormatting sqref="CE26">
     <cfRule type="cellIs" dxfId="495" priority="494" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32671,7 +32797,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CD26">
+  <conditionalFormatting sqref="CF26">
     <cfRule type="cellIs" dxfId="492" priority="491" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32684,7 +32810,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CE26">
+  <conditionalFormatting sqref="CG26">
     <cfRule type="cellIs" dxfId="489" priority="488" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32697,7 +32823,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CF26">
+  <conditionalFormatting sqref="CL26">
     <cfRule type="cellIs" dxfId="486" priority="485" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32710,7 +32836,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CG26">
+  <conditionalFormatting sqref="CK26">
     <cfRule type="cellIs" dxfId="483" priority="482" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32723,7 +32849,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CL26">
+  <conditionalFormatting sqref="I26">
     <cfRule type="cellIs" dxfId="480" priority="479" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32736,42 +32862,42 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CK26">
-    <cfRule type="cellIs" dxfId="477" priority="476" operator="equal">
+  <conditionalFormatting sqref="D27:F27">
+    <cfRule type="cellIs" dxfId="477" priority="477" operator="between">
+      <formula>8</formula>
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="476" priority="478" operator="lessThan">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CH27:CJ27 J27:AD27 AR27:AU27 BW27:BX27 BZ27:CB27 AG27:AH27 AM27 AJ27:AK27 AO27">
+    <cfRule type="cellIs" dxfId="475" priority="474" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="476" priority="477" operator="between">
+    <cfRule type="cellIs" dxfId="474" priority="475" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="475" priority="478" operator="between">
+    <cfRule type="cellIs" dxfId="473" priority="476" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I26">
-    <cfRule type="cellIs" dxfId="474" priority="473" operator="equal">
+  <conditionalFormatting sqref="AE27">
+    <cfRule type="cellIs" dxfId="472" priority="471" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="473" priority="474" operator="between">
+    <cfRule type="cellIs" dxfId="471" priority="472" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="472" priority="475" operator="between">
+    <cfRule type="cellIs" dxfId="470" priority="473" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27:F27">
-    <cfRule type="cellIs" dxfId="471" priority="471" operator="between">
-      <formula>8</formula>
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="470" priority="472" operator="lessThan">
-      <formula>8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CH27:CJ27 J27:AD27 AR27:AU27 BW27:BX27 BZ27:CB27 AG27:AH27 AM27 AJ27:AK27 AO27">
+  <conditionalFormatting sqref="AP27">
     <cfRule type="cellIs" dxfId="469" priority="468" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32784,7 +32910,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE27">
+  <conditionalFormatting sqref="AQ27">
     <cfRule type="cellIs" dxfId="466" priority="465" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32797,7 +32923,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP27">
+  <conditionalFormatting sqref="BY27">
     <cfRule type="cellIs" dxfId="463" priority="462" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32810,7 +32936,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ27">
+  <conditionalFormatting sqref="AY27 BF27:BG27 AV27 BB27:BD27">
     <cfRule type="cellIs" dxfId="460" priority="459" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32823,7 +32949,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BY27">
+  <conditionalFormatting sqref="AZ27">
     <cfRule type="cellIs" dxfId="457" priority="456" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32836,7 +32962,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY27 BF27:BG27 AV27 BB27:BD27">
+  <conditionalFormatting sqref="BP27 BH27:BI27 BK27:BN27">
     <cfRule type="cellIs" dxfId="454" priority="453" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32849,7 +32975,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AZ27">
+  <conditionalFormatting sqref="BJ27">
     <cfRule type="cellIs" dxfId="451" priority="450" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32862,7 +32988,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BP27 BH27:BI27 BK27:BN27">
+  <conditionalFormatting sqref="BQ27:BR27 BT27:BV27">
     <cfRule type="cellIs" dxfId="448" priority="447" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32875,7 +33001,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BJ27">
+  <conditionalFormatting sqref="BS27">
     <cfRule type="cellIs" dxfId="445" priority="444" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32888,7 +33014,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BQ27:BR27 BT27:BV27">
+  <conditionalFormatting sqref="BA27">
     <cfRule type="cellIs" dxfId="442" priority="441" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32901,7 +33027,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BS27">
+  <conditionalFormatting sqref="BE27">
     <cfRule type="cellIs" dxfId="439" priority="438" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32914,7 +33040,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BA27">
+  <conditionalFormatting sqref="BO27">
     <cfRule type="cellIs" dxfId="436" priority="435" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32927,7 +33053,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BE27">
+  <conditionalFormatting sqref="AX27">
     <cfRule type="cellIs" dxfId="433" priority="432" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32940,7 +33066,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BO27">
+  <conditionalFormatting sqref="AW27">
     <cfRule type="cellIs" dxfId="430" priority="429" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32953,7 +33079,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX27">
+  <conditionalFormatting sqref="CC27">
     <cfRule type="cellIs" dxfId="427" priority="426" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32966,7 +33092,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AW27">
+  <conditionalFormatting sqref="CD27">
     <cfRule type="cellIs" dxfId="424" priority="423" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32979,7 +33105,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CC27">
+  <conditionalFormatting sqref="CE27">
     <cfRule type="cellIs" dxfId="421" priority="420" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32992,7 +33118,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CD27">
+  <conditionalFormatting sqref="CF27">
     <cfRule type="cellIs" dxfId="418" priority="417" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33005,7 +33131,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CE27">
+  <conditionalFormatting sqref="CG27">
     <cfRule type="cellIs" dxfId="415" priority="414" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33018,7 +33144,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CF27">
+  <conditionalFormatting sqref="CL27">
     <cfRule type="cellIs" dxfId="412" priority="411" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33031,7 +33157,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CG27">
+  <conditionalFormatting sqref="CK27">
     <cfRule type="cellIs" dxfId="409" priority="408" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33044,7 +33170,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CL27">
+  <conditionalFormatting sqref="I27">
     <cfRule type="cellIs" dxfId="406" priority="405" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33057,42 +33183,42 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CK27">
-    <cfRule type="cellIs" dxfId="403" priority="402" operator="equal">
+  <conditionalFormatting sqref="D28:F28">
+    <cfRule type="cellIs" dxfId="403" priority="403" operator="between">
+      <formula>8</formula>
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="402" priority="404" operator="lessThan">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CH28:CJ28 J28:AD28 AR28:AU28 BW28:BX28 BZ28:CB28 AG28:AK28 AM28:AO28">
+    <cfRule type="cellIs" dxfId="401" priority="400" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="402" priority="403" operator="between">
+    <cfRule type="cellIs" dxfId="400" priority="401" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="401" priority="404" operator="between">
+    <cfRule type="cellIs" dxfId="399" priority="402" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I27">
-    <cfRule type="cellIs" dxfId="400" priority="399" operator="equal">
+  <conditionalFormatting sqref="AE28">
+    <cfRule type="cellIs" dxfId="398" priority="397" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="399" priority="400" operator="between">
+    <cfRule type="cellIs" dxfId="397" priority="398" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="398" priority="401" operator="between">
+    <cfRule type="cellIs" dxfId="396" priority="399" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D28:F28">
-    <cfRule type="cellIs" dxfId="397" priority="397" operator="between">
-      <formula>8</formula>
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="396" priority="398" operator="lessThan">
-      <formula>8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CH28:CJ28 J28:AD28 AR28:AU28 BW28:BX28 BZ28:CB28 AG28:AK28 AM28:AO28">
+  <conditionalFormatting sqref="AP28">
     <cfRule type="cellIs" dxfId="395" priority="394" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33105,7 +33231,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE28">
+  <conditionalFormatting sqref="AQ28">
     <cfRule type="cellIs" dxfId="392" priority="391" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33118,7 +33244,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP28">
+  <conditionalFormatting sqref="BY28">
     <cfRule type="cellIs" dxfId="389" priority="388" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33131,7 +33257,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ28">
+  <conditionalFormatting sqref="AY28 BF28:BG28 AV28 BB28:BD28">
     <cfRule type="cellIs" dxfId="386" priority="385" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33144,7 +33270,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BY28">
+  <conditionalFormatting sqref="AZ28">
     <cfRule type="cellIs" dxfId="383" priority="382" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33157,7 +33283,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY28 BF28:BG28 AV28 BB28:BD28">
+  <conditionalFormatting sqref="BP28 BH28:BI28 BK28:BN28">
     <cfRule type="cellIs" dxfId="380" priority="379" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33170,7 +33296,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AZ28">
+  <conditionalFormatting sqref="BJ28">
     <cfRule type="cellIs" dxfId="377" priority="376" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33183,7 +33309,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BP28 BH28:BI28 BK28:BN28">
+  <conditionalFormatting sqref="BQ28:BR28 BT28:BV28">
     <cfRule type="cellIs" dxfId="374" priority="373" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33196,7 +33322,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BJ28">
+  <conditionalFormatting sqref="BS28">
     <cfRule type="cellIs" dxfId="371" priority="370" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33209,7 +33335,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BQ28:BR28 BT28:BV28">
+  <conditionalFormatting sqref="BA28">
     <cfRule type="cellIs" dxfId="368" priority="367" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33222,7 +33348,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BS28">
+  <conditionalFormatting sqref="BE28">
     <cfRule type="cellIs" dxfId="365" priority="364" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33235,7 +33361,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BA28">
+  <conditionalFormatting sqref="BO28">
     <cfRule type="cellIs" dxfId="362" priority="361" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33248,7 +33374,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BE28">
+  <conditionalFormatting sqref="AX28">
     <cfRule type="cellIs" dxfId="359" priority="358" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33261,7 +33387,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BO28">
+  <conditionalFormatting sqref="AW28">
     <cfRule type="cellIs" dxfId="356" priority="355" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33274,7 +33400,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX28">
+  <conditionalFormatting sqref="CC28">
     <cfRule type="cellIs" dxfId="353" priority="352" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33287,7 +33413,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AW28">
+  <conditionalFormatting sqref="CD28">
     <cfRule type="cellIs" dxfId="350" priority="349" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33300,7 +33426,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CC28">
+  <conditionalFormatting sqref="CE28">
     <cfRule type="cellIs" dxfId="347" priority="346" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33313,7 +33439,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CD28">
+  <conditionalFormatting sqref="CF28">
     <cfRule type="cellIs" dxfId="344" priority="343" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33326,7 +33452,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CE28">
+  <conditionalFormatting sqref="CG28">
     <cfRule type="cellIs" dxfId="341" priority="340" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33339,7 +33465,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CF28">
+  <conditionalFormatting sqref="CL28">
     <cfRule type="cellIs" dxfId="338" priority="337" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33352,7 +33478,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CG28">
+  <conditionalFormatting sqref="CK28">
     <cfRule type="cellIs" dxfId="335" priority="334" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33365,7 +33491,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CL28">
+  <conditionalFormatting sqref="I28">
     <cfRule type="cellIs" dxfId="332" priority="331" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33378,42 +33504,42 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CK28">
-    <cfRule type="cellIs" dxfId="329" priority="328" operator="equal">
+  <conditionalFormatting sqref="D29:F29">
+    <cfRule type="cellIs" dxfId="329" priority="329" operator="between">
+      <formula>8</formula>
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="328" priority="330" operator="lessThan">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CH29:CJ29 J29:AD29 AR29:AU29 BW29:BX29 BZ29:CB29 AG29:AK29 AM29:AO29">
+    <cfRule type="cellIs" dxfId="327" priority="326" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="328" priority="329" operator="between">
+    <cfRule type="cellIs" dxfId="326" priority="327" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="327" priority="330" operator="between">
+    <cfRule type="cellIs" dxfId="325" priority="328" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I28">
-    <cfRule type="cellIs" dxfId="326" priority="325" operator="equal">
+  <conditionalFormatting sqref="AE29">
+    <cfRule type="cellIs" dxfId="324" priority="323" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="325" priority="326" operator="between">
+    <cfRule type="cellIs" dxfId="323" priority="324" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="324" priority="327" operator="between">
+    <cfRule type="cellIs" dxfId="322" priority="325" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D29:F29">
-    <cfRule type="cellIs" dxfId="323" priority="323" operator="between">
-      <formula>8</formula>
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="322" priority="324" operator="lessThan">
-      <formula>8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CH29:CJ29 J29:AD29 AR29:AU29 BW29:BX29 BZ29:CB29 AG29:AK29 AM29:AO29">
+  <conditionalFormatting sqref="AP29">
     <cfRule type="cellIs" dxfId="321" priority="320" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33426,7 +33552,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE29">
+  <conditionalFormatting sqref="AQ29">
     <cfRule type="cellIs" dxfId="318" priority="317" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33439,7 +33565,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP29">
+  <conditionalFormatting sqref="BY29">
     <cfRule type="cellIs" dxfId="315" priority="314" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33452,7 +33578,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ29">
+  <conditionalFormatting sqref="AY29 BF29:BG29 AV29 BB29:BD29">
     <cfRule type="cellIs" dxfId="312" priority="311" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33465,7 +33591,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BY29">
+  <conditionalFormatting sqref="AZ29">
     <cfRule type="cellIs" dxfId="309" priority="308" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33478,7 +33604,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY29 BF29:BG29 AV29 BB29:BD29">
+  <conditionalFormatting sqref="BP29 BH29:BI29 BK29:BN29">
     <cfRule type="cellIs" dxfId="306" priority="305" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33491,7 +33617,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AZ29">
+  <conditionalFormatting sqref="BJ29">
     <cfRule type="cellIs" dxfId="303" priority="302" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33504,7 +33630,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BP29 BH29:BI29 BK29:BN29">
+  <conditionalFormatting sqref="BQ29:BR29 BT29:BV29">
     <cfRule type="cellIs" dxfId="300" priority="299" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33517,7 +33643,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BJ29">
+  <conditionalFormatting sqref="BS29">
     <cfRule type="cellIs" dxfId="297" priority="296" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33530,7 +33656,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BQ29:BR29 BT29:BV29">
+  <conditionalFormatting sqref="BA29">
     <cfRule type="cellIs" dxfId="294" priority="293" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33543,7 +33669,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BS29">
+  <conditionalFormatting sqref="BE29">
     <cfRule type="cellIs" dxfId="291" priority="290" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33556,7 +33682,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BA29">
+  <conditionalFormatting sqref="BO29">
     <cfRule type="cellIs" dxfId="288" priority="287" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33569,7 +33695,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BE29">
+  <conditionalFormatting sqref="AX29">
     <cfRule type="cellIs" dxfId="285" priority="284" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33582,7 +33708,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BO29">
+  <conditionalFormatting sqref="AW29">
     <cfRule type="cellIs" dxfId="282" priority="281" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33595,7 +33721,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX29">
+  <conditionalFormatting sqref="CC29">
     <cfRule type="cellIs" dxfId="279" priority="278" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33608,7 +33734,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AW29">
+  <conditionalFormatting sqref="CD29">
     <cfRule type="cellIs" dxfId="276" priority="275" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33621,7 +33747,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CC29">
+  <conditionalFormatting sqref="CE29">
     <cfRule type="cellIs" dxfId="273" priority="272" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33634,7 +33760,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CD29">
+  <conditionalFormatting sqref="CF29">
     <cfRule type="cellIs" dxfId="270" priority="269" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33647,7 +33773,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CE29">
+  <conditionalFormatting sqref="CG29">
     <cfRule type="cellIs" dxfId="267" priority="266" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33660,7 +33786,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CF29">
+  <conditionalFormatting sqref="CL29">
     <cfRule type="cellIs" dxfId="264" priority="263" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33673,7 +33799,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CG29">
+  <conditionalFormatting sqref="CK29">
     <cfRule type="cellIs" dxfId="261" priority="260" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33686,7 +33812,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CL29">
+  <conditionalFormatting sqref="I29">
     <cfRule type="cellIs" dxfId="258" priority="257" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33699,42 +33825,42 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CK29">
-    <cfRule type="cellIs" dxfId="255" priority="254" operator="equal">
+  <conditionalFormatting sqref="D30:F30">
+    <cfRule type="cellIs" dxfId="255" priority="255" operator="between">
+      <formula>8</formula>
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="254" priority="256" operator="lessThan">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CH30:CJ30 J30:AD30 AR30:AU30 BW30:BX30 BZ30:CB30 AG30:AK30 AM30:AO30">
+    <cfRule type="cellIs" dxfId="253" priority="252" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="254" priority="255" operator="between">
+    <cfRule type="cellIs" dxfId="252" priority="253" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="253" priority="256" operator="between">
+    <cfRule type="cellIs" dxfId="251" priority="254" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I29">
-    <cfRule type="cellIs" dxfId="252" priority="251" operator="equal">
+  <conditionalFormatting sqref="AE30">
+    <cfRule type="cellIs" dxfId="250" priority="249" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="251" priority="252" operator="between">
+    <cfRule type="cellIs" dxfId="249" priority="250" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="250" priority="253" operator="between">
+    <cfRule type="cellIs" dxfId="248" priority="251" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D30:F30">
-    <cfRule type="cellIs" dxfId="249" priority="249" operator="between">
-      <formula>8</formula>
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="248" priority="250" operator="lessThan">
-      <formula>8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CH30:CJ30 J30:AD30 AR30:AU30 BW30:BX30 BZ30:CB30 AG30:AK30 AM30:AO30">
+  <conditionalFormatting sqref="AP30">
     <cfRule type="cellIs" dxfId="247" priority="246" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33747,7 +33873,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE30">
+  <conditionalFormatting sqref="AQ30">
     <cfRule type="cellIs" dxfId="244" priority="243" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33760,7 +33886,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP30">
+  <conditionalFormatting sqref="BY30">
     <cfRule type="cellIs" dxfId="241" priority="240" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33773,7 +33899,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ30">
+  <conditionalFormatting sqref="AY30 BF30:BG30 AV30 BB30:BD30">
     <cfRule type="cellIs" dxfId="238" priority="237" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33786,7 +33912,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BY30">
+  <conditionalFormatting sqref="AZ30">
     <cfRule type="cellIs" dxfId="235" priority="234" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33799,7 +33925,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY30 BF30:BG30 AV30 BB30:BD30">
+  <conditionalFormatting sqref="BP30 BH30:BI30 BK30:BN30">
     <cfRule type="cellIs" dxfId="232" priority="231" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33812,7 +33938,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AZ30">
+  <conditionalFormatting sqref="BJ30">
     <cfRule type="cellIs" dxfId="229" priority="228" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33825,7 +33951,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BP30 BH30:BI30 BK30:BN30">
+  <conditionalFormatting sqref="BQ30:BR30 BT30:BV30">
     <cfRule type="cellIs" dxfId="226" priority="225" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33838,7 +33964,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BJ30">
+  <conditionalFormatting sqref="BS30">
     <cfRule type="cellIs" dxfId="223" priority="222" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33851,7 +33977,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BQ30:BR30 BT30:BV30">
+  <conditionalFormatting sqref="BA30">
     <cfRule type="cellIs" dxfId="220" priority="219" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33864,7 +33990,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BS30">
+  <conditionalFormatting sqref="BE30">
     <cfRule type="cellIs" dxfId="217" priority="216" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33877,7 +34003,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BA30">
+  <conditionalFormatting sqref="BO30">
     <cfRule type="cellIs" dxfId="214" priority="213" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33890,7 +34016,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BE30">
+  <conditionalFormatting sqref="AX30">
     <cfRule type="cellIs" dxfId="211" priority="210" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33903,7 +34029,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BO30">
+  <conditionalFormatting sqref="AW30">
     <cfRule type="cellIs" dxfId="208" priority="207" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33916,7 +34042,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX30">
+  <conditionalFormatting sqref="CC30">
     <cfRule type="cellIs" dxfId="205" priority="204" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33929,7 +34055,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AW30">
+  <conditionalFormatting sqref="CD30">
     <cfRule type="cellIs" dxfId="202" priority="201" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33942,7 +34068,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CC30">
+  <conditionalFormatting sqref="CE30">
     <cfRule type="cellIs" dxfId="199" priority="198" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33955,7 +34081,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CD30">
+  <conditionalFormatting sqref="CF30">
     <cfRule type="cellIs" dxfId="196" priority="195" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33968,7 +34094,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CE30">
+  <conditionalFormatting sqref="CG30">
     <cfRule type="cellIs" dxfId="193" priority="192" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33981,7 +34107,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CF30">
+  <conditionalFormatting sqref="CL30">
     <cfRule type="cellIs" dxfId="190" priority="189" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33994,7 +34120,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CG30">
+  <conditionalFormatting sqref="CK30">
     <cfRule type="cellIs" dxfId="187" priority="186" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34007,7 +34133,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CL30">
+  <conditionalFormatting sqref="I30">
     <cfRule type="cellIs" dxfId="184" priority="183" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34020,42 +34146,42 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CK30">
-    <cfRule type="cellIs" dxfId="181" priority="180" operator="equal">
+  <conditionalFormatting sqref="D31:F31">
+    <cfRule type="cellIs" dxfId="181" priority="181" operator="between">
+      <formula>8</formula>
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="180" priority="182" operator="lessThan">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CH31:CJ31 J31:AD31 AR31:AU31 BW31:BX31 BZ31:CB31 AG31:AK31 AM31:AO31">
+    <cfRule type="cellIs" dxfId="179" priority="178" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="181" operator="between">
+    <cfRule type="cellIs" dxfId="178" priority="179" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="179" priority="182" operator="between">
+    <cfRule type="cellIs" dxfId="177" priority="180" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I30">
-    <cfRule type="cellIs" dxfId="178" priority="177" operator="equal">
+  <conditionalFormatting sqref="AE31">
+    <cfRule type="cellIs" dxfId="176" priority="175" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="178" operator="between">
+    <cfRule type="cellIs" dxfId="175" priority="176" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="179" operator="between">
+    <cfRule type="cellIs" dxfId="174" priority="177" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31:F31">
-    <cfRule type="cellIs" dxfId="175" priority="175" operator="between">
-      <formula>8</formula>
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="176" operator="lessThan">
-      <formula>8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CH31:CJ31 J31:AD31 AR31:AU31 BW31:BX31 BZ31:CB31 AG31:AK31 AM31:AO31">
+  <conditionalFormatting sqref="AP31">
     <cfRule type="cellIs" dxfId="173" priority="172" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34068,7 +34194,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE31">
+  <conditionalFormatting sqref="AQ31">
     <cfRule type="cellIs" dxfId="170" priority="169" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34081,7 +34207,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP31">
+  <conditionalFormatting sqref="BY31">
     <cfRule type="cellIs" dxfId="167" priority="166" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34094,7 +34220,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ31">
+  <conditionalFormatting sqref="AY31 BF31:BG31 AV31 BB31:BD31">
     <cfRule type="cellIs" dxfId="164" priority="163" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34107,7 +34233,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BY31">
+  <conditionalFormatting sqref="AZ31">
     <cfRule type="cellIs" dxfId="161" priority="160" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34120,7 +34246,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY31 BF31:BG31 AV31 BB31:BD31">
+  <conditionalFormatting sqref="BP31 BH31:BI31 BK31:BN31">
     <cfRule type="cellIs" dxfId="158" priority="157" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34133,7 +34259,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AZ31">
+  <conditionalFormatting sqref="BJ31">
     <cfRule type="cellIs" dxfId="155" priority="154" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34146,7 +34272,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BP31 BH31:BI31 BK31:BN31">
+  <conditionalFormatting sqref="BQ31:BR31 BT31:BV31">
     <cfRule type="cellIs" dxfId="152" priority="151" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34159,7 +34285,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BJ31">
+  <conditionalFormatting sqref="BS31">
     <cfRule type="cellIs" dxfId="149" priority="148" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34172,7 +34298,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BQ31:BR31 BT31:BV31">
+  <conditionalFormatting sqref="BA31">
     <cfRule type="cellIs" dxfId="146" priority="145" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34185,7 +34311,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BS31">
+  <conditionalFormatting sqref="BE31">
     <cfRule type="cellIs" dxfId="143" priority="142" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34198,7 +34324,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BA31">
+  <conditionalFormatting sqref="BO31">
     <cfRule type="cellIs" dxfId="140" priority="139" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34211,7 +34337,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BE31">
+  <conditionalFormatting sqref="AX31">
     <cfRule type="cellIs" dxfId="137" priority="136" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34224,7 +34350,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BO31">
+  <conditionalFormatting sqref="AW31">
     <cfRule type="cellIs" dxfId="134" priority="133" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34237,7 +34363,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX31">
+  <conditionalFormatting sqref="CC31">
     <cfRule type="cellIs" dxfId="131" priority="130" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34250,7 +34376,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AW31">
+  <conditionalFormatting sqref="CD31">
     <cfRule type="cellIs" dxfId="128" priority="127" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34263,7 +34389,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CC31">
+  <conditionalFormatting sqref="CE31">
     <cfRule type="cellIs" dxfId="125" priority="124" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34276,7 +34402,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CD31">
+  <conditionalFormatting sqref="CF31">
     <cfRule type="cellIs" dxfId="122" priority="121" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34289,7 +34415,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CE31">
+  <conditionalFormatting sqref="CG31">
     <cfRule type="cellIs" dxfId="119" priority="118" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34302,7 +34428,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CF31">
+  <conditionalFormatting sqref="CL31">
     <cfRule type="cellIs" dxfId="116" priority="115" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34315,7 +34441,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CG31">
+  <conditionalFormatting sqref="CK31">
     <cfRule type="cellIs" dxfId="113" priority="112" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34328,7 +34454,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CL31">
+  <conditionalFormatting sqref="I31">
     <cfRule type="cellIs" dxfId="110" priority="109" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34341,46 +34467,46 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CK31">
-    <cfRule type="cellIs" dxfId="107" priority="106" operator="equal">
+  <conditionalFormatting sqref="AL32:AL33 AL9:AL23">
+    <cfRule type="cellIs" dxfId="107" priority="79" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="107" operator="between">
+    <cfRule type="cellIs" dxfId="106" priority="80" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="108" operator="between">
+    <cfRule type="cellIs" dxfId="105" priority="81" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I31">
-    <cfRule type="cellIs" dxfId="104" priority="103" operator="equal">
+  <conditionalFormatting sqref="AL26">
+    <cfRule type="cellIs" dxfId="98" priority="70" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="104" operator="between">
+    <cfRule type="cellIs" dxfId="97" priority="71" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="105" operator="between">
+    <cfRule type="cellIs" dxfId="96" priority="72" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL32:AL33 AL9:AL23">
-    <cfRule type="cellIs" dxfId="101" priority="73" operator="equal">
+  <conditionalFormatting sqref="AL27">
+    <cfRule type="cellIs" dxfId="95" priority="67" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="74" operator="between">
+    <cfRule type="cellIs" dxfId="94" priority="68" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="75" operator="between">
+    <cfRule type="cellIs" dxfId="93" priority="69" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL26">
+  <conditionalFormatting sqref="AL28">
     <cfRule type="cellIs" dxfId="92" priority="64" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34393,7 +34519,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL27">
+  <conditionalFormatting sqref="AL29">
     <cfRule type="cellIs" dxfId="89" priority="61" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34406,7 +34532,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL28">
+  <conditionalFormatting sqref="AL30">
     <cfRule type="cellIs" dxfId="86" priority="58" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34419,7 +34545,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL29">
+  <conditionalFormatting sqref="AL31">
     <cfRule type="cellIs" dxfId="83" priority="55" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34432,33 +34558,33 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL30">
-    <cfRule type="cellIs" dxfId="80" priority="52" operator="equal">
+  <conditionalFormatting sqref="AF32:AF33 AF9 AF11:AF23">
+    <cfRule type="cellIs" dxfId="53" priority="52" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="53" operator="between">
+    <cfRule type="cellIs" dxfId="52" priority="53" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="54" operator="between">
+    <cfRule type="cellIs" dxfId="51" priority="54" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL31">
-    <cfRule type="cellIs" dxfId="77" priority="49" operator="equal">
+  <conditionalFormatting sqref="AF24">
+    <cfRule type="cellIs" dxfId="50" priority="49" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="50" operator="between">
+    <cfRule type="cellIs" dxfId="49" priority="50" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="51" operator="between">
+    <cfRule type="cellIs" dxfId="48" priority="51" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF32:AF33 AF9:AF23">
+  <conditionalFormatting sqref="AF25">
     <cfRule type="cellIs" dxfId="47" priority="46" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34471,7 +34597,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF24">
+  <conditionalFormatting sqref="AF26">
     <cfRule type="cellIs" dxfId="44" priority="43" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34484,7 +34610,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF25">
+  <conditionalFormatting sqref="AF27">
     <cfRule type="cellIs" dxfId="41" priority="40" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34497,7 +34623,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF26">
+  <conditionalFormatting sqref="AF28">
     <cfRule type="cellIs" dxfId="38" priority="37" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34510,7 +34636,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF27">
+  <conditionalFormatting sqref="AF29">
     <cfRule type="cellIs" dxfId="35" priority="34" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34523,7 +34649,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF28">
+  <conditionalFormatting sqref="AF30">
     <cfRule type="cellIs" dxfId="32" priority="31" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34536,7 +34662,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF29">
+  <conditionalFormatting sqref="AF31">
     <cfRule type="cellIs" dxfId="29" priority="28" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34549,7 +34675,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF30">
+  <conditionalFormatting sqref="AL24">
     <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34562,7 +34688,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF31">
+  <conditionalFormatting sqref="AN24">
     <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34575,7 +34701,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL24">
+  <conditionalFormatting sqref="AI25">
     <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34588,7 +34714,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN24">
+  <conditionalFormatting sqref="AJ25">
     <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34601,7 +34727,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI25">
+  <conditionalFormatting sqref="AL25">
     <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34614,7 +34740,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ25">
+  <conditionalFormatting sqref="AI27">
     <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34627,7 +34753,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL25">
+  <conditionalFormatting sqref="AN27">
     <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34640,7 +34766,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI27">
+  <conditionalFormatting sqref="AE10">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34653,7 +34779,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN27">
+  <conditionalFormatting sqref="AF10">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>

--- a/BaremeJavaBaseTest2_KL16.xlsx
+++ b/BaremeJavaBaseTest2_KL16.xlsx
@@ -535,6 +535,54 @@
         </r>
       </text>
     </comment>
+    <comment ref="AE16" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+manque contrôle contains</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AI16" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+pas de liste dans le toString</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="AJ16" authorId="0" shapeId="0">
       <text>
         <r>
@@ -628,6 +676,30 @@
           </rPr>
           <t xml:space="preserve">
 pas de liste dans le toString</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB17" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+type id nok</t>
         </r>
       </text>
     </comment>
@@ -3310,7 +3382,28 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="810">
+  <dxfs count="813">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -9252,7 +9345,7 @@
       <selection sqref="A1:XFD1"/>
       <selection pane="topRight" activeCell="AG6" sqref="AG6"/>
       <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
-      <selection pane="bottomRight" activeCell="AB16" sqref="AB16"/>
+      <selection pane="bottomRight" activeCell="AF17" sqref="AF17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -11783,20 +11876,20 @@
       <c r="C16" s="4"/>
       <c r="D16" s="108">
         <f t="shared" si="0"/>
-        <v>0.61458333333333326</v>
+        <v>2.4270833333333335</v>
       </c>
       <c r="E16" s="21">
         <f t="shared" si="1"/>
-        <v>1.4084507042253522</v>
+        <v>3.4507042253521125</v>
       </c>
       <c r="F16" s="21"/>
       <c r="G16" s="14">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>12.25</v>
       </c>
       <c r="H16" s="14">
         <f t="shared" si="3"/>
-        <v>7.375</v>
+        <v>29.125</v>
       </c>
       <c r="I16" s="110">
         <v>0</v>
@@ -11837,14 +11930,30 @@
       <c r="AA16" s="9">
         <v>99</v>
       </c>
-      <c r="AB16" s="8"/>
-      <c r="AC16" s="85"/>
-      <c r="AD16" s="9"/>
-      <c r="AE16" s="74"/>
-      <c r="AF16" s="126"/>
-      <c r="AG16" s="121"/>
-      <c r="AH16" s="67"/>
-      <c r="AI16" s="9"/>
+      <c r="AB16" s="8">
+        <v>1</v>
+      </c>
+      <c r="AC16" s="85">
+        <v>1</v>
+      </c>
+      <c r="AD16" s="9">
+        <v>1</v>
+      </c>
+      <c r="AE16" s="126">
+        <v>0.5</v>
+      </c>
+      <c r="AF16" s="126">
+        <v>1</v>
+      </c>
+      <c r="AG16" s="121">
+        <v>1</v>
+      </c>
+      <c r="AH16" s="91">
+        <v>1</v>
+      </c>
+      <c r="AI16" s="126">
+        <v>0.75</v>
+      </c>
       <c r="AJ16" s="13">
         <v>0.875</v>
       </c>
@@ -11928,20 +12037,20 @@
       <c r="C17" s="4"/>
       <c r="D17" s="108">
         <f t="shared" si="0"/>
-        <v>1.28125</v>
+        <v>2.760416666666667</v>
       </c>
       <c r="E17" s="21">
         <f t="shared" si="1"/>
-        <v>2.147887323943662</v>
+        <v>3.23943661971831</v>
       </c>
       <c r="F17" s="21"/>
       <c r="G17" s="14">
         <f t="shared" si="2"/>
-        <v>7.625</v>
+        <v>11.5</v>
       </c>
       <c r="H17" s="14">
         <f t="shared" si="3"/>
-        <v>15.375</v>
+        <v>33.125</v>
       </c>
       <c r="I17" s="110">
         <v>1</v>
@@ -11982,10 +12091,18 @@
       <c r="AA17" s="9">
         <v>99</v>
       </c>
-      <c r="AB17" s="8"/>
-      <c r="AC17" s="85"/>
-      <c r="AD17" s="9"/>
-      <c r="AE17" s="74"/>
+      <c r="AB17" s="88">
+        <v>0.875</v>
+      </c>
+      <c r="AC17" s="85">
+        <v>1</v>
+      </c>
+      <c r="AD17" s="9">
+        <v>1</v>
+      </c>
+      <c r="AE17" s="74">
+        <v>1</v>
+      </c>
       <c r="AF17" s="126"/>
       <c r="AG17" s="121"/>
       <c r="AH17" s="67"/>
@@ -14489,35 +14606,35 @@
       </c>
       <c r="AB34" s="71">
         <f t="shared" si="11"/>
-        <v>0.890625</v>
+        <v>0.9</v>
       </c>
       <c r="AC34" s="71">
         <f t="shared" si="11"/>
-        <v>0.78437500000000004</v>
+        <v>0.82750000000000001</v>
       </c>
       <c r="AD34" s="71">
         <f t="shared" si="11"/>
-        <v>0.8125</v>
+        <v>0.85</v>
       </c>
       <c r="AE34" s="79">
         <f t="shared" si="11"/>
-        <v>0.6875</v>
+        <v>0.7</v>
       </c>
       <c r="AF34" s="127">
         <f t="shared" ref="AF34:AG34" si="12">AVERAGE(AF9:AF32)</f>
-        <v>0.859375</v>
+        <v>0.875</v>
       </c>
       <c r="AG34" s="122">
         <f t="shared" si="12"/>
-        <v>0.375</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="AH34" s="71">
         <f t="shared" si="11"/>
-        <v>0.75</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="AI34" s="71">
         <f t="shared" si="11"/>
-        <v>0.875</v>
+        <v>0.86111111111111116</v>
       </c>
       <c r="AJ34" s="71">
         <f t="shared" si="11"/>
@@ -17113,7 +17230,7 @@
     <row r="43" spans="1:91" x14ac:dyDescent="0.25">
       <c r="H43" s="117">
         <f t="shared" si="22"/>
-        <v>7.375</v>
+        <v>29.125</v>
       </c>
       <c r="I43" s="117">
         <f t="shared" ref="I43:BA43" si="58">I16*I$6</f>
@@ -17193,35 +17310,35 @@
       </c>
       <c r="AB43" s="117">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC43" s="117">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD43" s="117">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AE43" s="117">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF43" s="127">
         <f t="shared" ref="AF43:AG43" si="59">AF16*AF$6</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG43" s="122">
         <f t="shared" si="59"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH43" s="117">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI43" s="117">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AJ43" s="117">
         <f t="shared" si="58"/>
@@ -17451,7 +17568,7 @@
     <row r="44" spans="1:91" x14ac:dyDescent="0.25">
       <c r="H44" s="117">
         <f t="shared" si="22"/>
-        <v>15.375</v>
+        <v>33.125</v>
       </c>
       <c r="I44" s="117">
         <f t="shared" ref="I44:BA44" si="62">I17*I$6</f>
@@ -17531,19 +17648,19 @@
       </c>
       <c r="AB44" s="117">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AC44" s="117">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD44" s="117">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AE44" s="117">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AF44" s="127">
         <f t="shared" ref="AF44:AG44" si="63">AF17*AF$6</f>
@@ -25702,7 +25819,7 @@
     <row r="72" spans="4:91" x14ac:dyDescent="0.25">
       <c r="H72" s="117">
         <f t="shared" si="130"/>
-        <v>5</v>
+        <v>12.25</v>
       </c>
       <c r="I72" s="117">
         <f t="shared" ref="I72:BW72" si="163">I16*I$7</f>
@@ -25782,35 +25899,35 @@
       </c>
       <c r="AB72" s="117">
         <f t="shared" si="163"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC72" s="117">
         <f t="shared" si="163"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD72" s="117">
         <f t="shared" si="163"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE72" s="117">
         <f t="shared" si="163"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AF72" s="127">
         <f t="shared" ref="AF72:AG72" si="164">AF16*AF$7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG72" s="122">
         <f t="shared" si="164"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH72" s="117">
         <f t="shared" si="163"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI72" s="117">
         <f t="shared" si="163"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AJ72" s="117">
         <f t="shared" si="163"/>
@@ -26040,7 +26157,7 @@
     <row r="73" spans="4:91" x14ac:dyDescent="0.25">
       <c r="H73" s="117">
         <f t="shared" si="130"/>
-        <v>7.625</v>
+        <v>11.5</v>
       </c>
       <c r="I73" s="117">
         <f t="shared" ref="I73:BW73" si="167">I17*I$7</f>
@@ -26120,19 +26237,19 @@
       </c>
       <c r="AB73" s="117">
         <f t="shared" si="167"/>
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC73" s="117">
         <f t="shared" si="167"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD73" s="117">
         <f t="shared" si="167"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE73" s="117">
         <f t="shared" si="167"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF73" s="127">
         <f t="shared" ref="AF73:AG73" si="168">AF17*AF$7</f>
@@ -31944,41 +32061,54 @@
     <mergeCell ref="AM4:AM5"/>
   </mergeCells>
   <conditionalFormatting sqref="D9:F23 D32:F33">
-    <cfRule type="cellIs" dxfId="809" priority="955" operator="between">
+    <cfRule type="cellIs" dxfId="812" priority="958" operator="between">
       <formula>8</formula>
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="808" priority="956" operator="lessThan">
+    <cfRule type="cellIs" dxfId="811" priority="959" operator="lessThan">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CM9:CM21 CA9:CC23 AP22:AP23 BX9:BY23 AS9:AV23 CI9:CK23 CI32:CK33 J32:AD33 AS32:AV33 BX32:BY33 CA32:CC33 AH32:AL33 AN32:AP33 AN9:AO23 J9:AD23 AH9:AL23">
-    <cfRule type="cellIs" dxfId="807" priority="950" operator="equal">
+  <conditionalFormatting sqref="CM9:CM21 CA9:CC23 AP22:AP23 BX9:BY23 AS9:AV23 CI9:CK23 CI32:CK33 J32:AD33 AS32:AV33 BX32:BY33 CA32:CC33 AH32:AL33 AN32:AP33 AN9:AO23 AH9:AL23 J9:AD23">
+    <cfRule type="cellIs" dxfId="810" priority="953" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="806" priority="951" operator="between">
+    <cfRule type="cellIs" dxfId="809" priority="954" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="805" priority="952" operator="between">
+    <cfRule type="cellIs" dxfId="808" priority="955" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP9:AP21">
-    <cfRule type="cellIs" dxfId="804" priority="944" operator="equal">
+    <cfRule type="cellIs" dxfId="807" priority="947" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="803" priority="945" operator="between">
+    <cfRule type="cellIs" dxfId="806" priority="948" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="802" priority="946" operator="between">
+    <cfRule type="cellIs" dxfId="805" priority="949" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ9:AQ19 AQ21">
+    <cfRule type="cellIs" dxfId="804" priority="929" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="803" priority="930" operator="between">
+      <formula>0.01</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="802" priority="931" operator="between">
+      <formula>0.26</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ22:AQ23 AQ33">
     <cfRule type="cellIs" dxfId="801" priority="926" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -31991,59 +32121,59 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ22:AQ23 AQ33">
-    <cfRule type="cellIs" dxfId="798" priority="923" operator="equal">
+  <conditionalFormatting sqref="AE9 AE17:AE23 AE32:AE33 AE11:AE14">
+    <cfRule type="cellIs" dxfId="798" priority="902" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="797" priority="924" operator="between">
+    <cfRule type="cellIs" dxfId="797" priority="903" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="796" priority="925" operator="between">
+    <cfRule type="cellIs" dxfId="796" priority="904" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE9 AE16:AE23 AE32:AE33 AE11:AE14">
-    <cfRule type="cellIs" dxfId="795" priority="899" operator="equal">
+  <conditionalFormatting sqref="BZ9:BZ23 BZ33">
+    <cfRule type="cellIs" dxfId="795" priority="887" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="794" priority="900" operator="between">
+    <cfRule type="cellIs" dxfId="794" priority="888" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="793" priority="901" operator="between">
+    <cfRule type="cellIs" dxfId="793" priority="889" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BZ9:BZ23 BZ33">
-    <cfRule type="cellIs" dxfId="792" priority="884" operator="equal">
+  <conditionalFormatting sqref="AE15">
+    <cfRule type="cellIs" dxfId="792" priority="881" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="791" priority="885" operator="between">
+    <cfRule type="cellIs" dxfId="791" priority="882" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="790" priority="886" operator="between">
+    <cfRule type="cellIs" dxfId="790" priority="883" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE15">
-    <cfRule type="cellIs" dxfId="789" priority="878" operator="equal">
+  <conditionalFormatting sqref="AR9:AR19 AR21">
+    <cfRule type="cellIs" dxfId="789" priority="872" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="788" priority="879" operator="between">
+    <cfRule type="cellIs" dxfId="788" priority="873" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="787" priority="880" operator="between">
+    <cfRule type="cellIs" dxfId="787" priority="874" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AR9:AR19 AR21">
+  <conditionalFormatting sqref="AR22:AR23 AR33">
     <cfRule type="cellIs" dxfId="786" priority="869" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32056,85 +32186,85 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AR22:AR23 AR33">
-    <cfRule type="cellIs" dxfId="783" priority="866" operator="equal">
+  <conditionalFormatting sqref="AQ20">
+    <cfRule type="cellIs" dxfId="783" priority="842" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="782" priority="867" operator="between">
+    <cfRule type="cellIs" dxfId="782" priority="843" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="781" priority="868" operator="between">
+    <cfRule type="cellIs" dxfId="781" priority="844" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ20">
-    <cfRule type="cellIs" dxfId="780" priority="839" operator="equal">
+  <conditionalFormatting sqref="AR20">
+    <cfRule type="cellIs" dxfId="780" priority="836" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="779" priority="840" operator="between">
+    <cfRule type="cellIs" dxfId="779" priority="837" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="778" priority="841" operator="between">
+    <cfRule type="cellIs" dxfId="778" priority="838" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AR20">
-    <cfRule type="cellIs" dxfId="777" priority="833" operator="equal">
+  <conditionalFormatting sqref="AQ32">
+    <cfRule type="cellIs" dxfId="777" priority="830" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="776" priority="834" operator="between">
+    <cfRule type="cellIs" dxfId="776" priority="831" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="775" priority="835" operator="between">
+    <cfRule type="cellIs" dxfId="775" priority="832" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ32">
-    <cfRule type="cellIs" dxfId="774" priority="827" operator="equal">
+  <conditionalFormatting sqref="AR32">
+    <cfRule type="cellIs" dxfId="774" priority="824" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="773" priority="828" operator="between">
+    <cfRule type="cellIs" dxfId="773" priority="825" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="772" priority="829" operator="between">
+    <cfRule type="cellIs" dxfId="772" priority="826" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AR32">
-    <cfRule type="cellIs" dxfId="771" priority="821" operator="equal">
+  <conditionalFormatting sqref="CL9:CL21">
+    <cfRule type="cellIs" dxfId="771" priority="806" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="770" priority="822" operator="between">
+    <cfRule type="cellIs" dxfId="770" priority="807" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="769" priority="823" operator="between">
+    <cfRule type="cellIs" dxfId="769" priority="808" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CL9:CL21">
-    <cfRule type="cellIs" dxfId="768" priority="803" operator="equal">
+  <conditionalFormatting sqref="BZ32">
+    <cfRule type="cellIs" dxfId="768" priority="800" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="767" priority="804" operator="between">
+    <cfRule type="cellIs" dxfId="767" priority="801" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="766" priority="805" operator="between">
+    <cfRule type="cellIs" dxfId="766" priority="802" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BZ32">
+  <conditionalFormatting sqref="BC9:BE23 AW9:AW23 BG9:BH23 AZ9:AZ23 AZ32:AZ33 BG32:BH33 AW32:AW33 BC32:BE33">
     <cfRule type="cellIs" dxfId="765" priority="797" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32147,7 +32277,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BC9:BE23 AW9:AW23 BG9:BH23 AZ9:AZ23 AZ32:AZ33 BG32:BH33 AW32:AW33 BC32:BE33">
+  <conditionalFormatting sqref="BA9:BA23 BA33">
     <cfRule type="cellIs" dxfId="762" priority="794" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32160,7 +32290,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BA9:BA23 BA33">
+  <conditionalFormatting sqref="BA32">
     <cfRule type="cellIs" dxfId="759" priority="791" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32173,7 +32303,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BA32">
+  <conditionalFormatting sqref="BL9:BO23 BI9:BJ23 BQ9:BQ23 BQ32:BQ33 BI32:BJ33 BL32:BO33">
     <cfRule type="cellIs" dxfId="756" priority="788" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32186,7 +32316,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BL9:BO23 BI9:BJ23 BQ9:BQ23 BQ32:BQ33 BI32:BJ33 BL32:BO33">
+  <conditionalFormatting sqref="BK9:BK23 BK33">
     <cfRule type="cellIs" dxfId="753" priority="785" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32199,7 +32329,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BK9:BK23 BK33">
+  <conditionalFormatting sqref="BK32">
     <cfRule type="cellIs" dxfId="750" priority="782" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32212,7 +32342,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BK32">
+  <conditionalFormatting sqref="BU9:BW23 BR9:BS23 BR32:BS33 BU32:BW33">
     <cfRule type="cellIs" dxfId="747" priority="779" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32225,7 +32355,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BU9:BW23 BR9:BS23 BR32:BS33 BU32:BW33">
+  <conditionalFormatting sqref="BT9:BT23 BT33">
     <cfRule type="cellIs" dxfId="744" priority="776" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32238,7 +32368,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BT9:BT23 BT33">
+  <conditionalFormatting sqref="BT32">
     <cfRule type="cellIs" dxfId="741" priority="773" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32251,7 +32381,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BT32">
+  <conditionalFormatting sqref="BB9:BB23 BB32:BB33">
     <cfRule type="cellIs" dxfId="738" priority="770" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32264,7 +32394,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BB9:BB23 BB32:BB33">
+  <conditionalFormatting sqref="BF9:BF23 BF32:BF33">
     <cfRule type="cellIs" dxfId="735" priority="767" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32277,7 +32407,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BF9:BF23 BF32:BF33">
+  <conditionalFormatting sqref="BP9:BP23 BP32:BP33">
     <cfRule type="cellIs" dxfId="732" priority="764" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32290,7 +32420,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BP9:BP23 BP32:BP33">
+  <conditionalFormatting sqref="AY9:AY23 AY32:AY33">
     <cfRule type="cellIs" dxfId="729" priority="761" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32303,7 +32433,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY9:AY23 AY32:AY33">
+  <conditionalFormatting sqref="AX9:AX23 AX32:AX33">
     <cfRule type="cellIs" dxfId="726" priority="758" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32316,7 +32446,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX9:AX23 AX32:AX33">
+  <conditionalFormatting sqref="CD9:CD23 CD32:CD33">
     <cfRule type="cellIs" dxfId="723" priority="755" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32329,7 +32459,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CD9:CD23 CD32:CD33">
+  <conditionalFormatting sqref="CE9:CE23 CE32:CE33">
     <cfRule type="cellIs" dxfId="720" priority="752" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32342,7 +32472,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CE9:CE23 CE32:CE33">
+  <conditionalFormatting sqref="CF9:CF23 CF32:CF33">
     <cfRule type="cellIs" dxfId="717" priority="749" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32355,7 +32485,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CF9:CF23 CF32:CF33">
+  <conditionalFormatting sqref="CG9:CG23 CG32:CG33">
     <cfRule type="cellIs" dxfId="714" priority="746" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32368,7 +32498,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CG9:CG23 CG32:CG33">
+  <conditionalFormatting sqref="CH9:CH23 CH32:CH33">
     <cfRule type="cellIs" dxfId="711" priority="743" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32381,7 +32511,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CH9:CH23 CH32:CH33">
+  <conditionalFormatting sqref="CM22:CM23 CM32">
     <cfRule type="cellIs" dxfId="708" priority="740" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32394,7 +32524,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CM22:CM23 CM32">
+  <conditionalFormatting sqref="CL22:CL23 CL32">
     <cfRule type="cellIs" dxfId="705" priority="737" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32407,7 +32537,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CL22:CL23 CL32">
+  <conditionalFormatting sqref="I9:I23 I32">
     <cfRule type="cellIs" dxfId="702" priority="734" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32420,29 +32550,29 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I9:I23 I32">
-    <cfRule type="cellIs" dxfId="699" priority="731" operator="equal">
+  <conditionalFormatting sqref="D24:F24">
+    <cfRule type="cellIs" dxfId="699" priority="732" operator="between">
+      <formula>8</formula>
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="698" priority="733" operator="lessThan">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CI24:CK24 J24:AD24 AS24:AV24 BX24:BY24 CA24:CC24 AH24:AL24 AN24 AP24">
+    <cfRule type="cellIs" dxfId="697" priority="729" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="698" priority="732" operator="between">
+    <cfRule type="cellIs" dxfId="696" priority="730" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="697" priority="733" operator="between">
+    <cfRule type="cellIs" dxfId="695" priority="731" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D24:F24">
-    <cfRule type="cellIs" dxfId="696" priority="729" operator="between">
-      <formula>8</formula>
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="695" priority="730" operator="lessThan">
-      <formula>8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CI24:CK24 J24:AD24 AS24:AV24 BX24:BY24 CA24:CC24 AH24:AL24 AN24 AP24">
+  <conditionalFormatting sqref="AE24">
     <cfRule type="cellIs" dxfId="694" priority="726" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32455,7 +32585,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE24">
+  <conditionalFormatting sqref="AQ24">
     <cfRule type="cellIs" dxfId="691" priority="723" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32468,7 +32598,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ24">
+  <conditionalFormatting sqref="AR24">
     <cfRule type="cellIs" dxfId="688" priority="720" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32481,7 +32611,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AR24">
+  <conditionalFormatting sqref="BZ24">
     <cfRule type="cellIs" dxfId="685" priority="717" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32494,7 +32624,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BZ24">
+  <conditionalFormatting sqref="AZ24 BG24:BH24 AW24 BC24:BE24">
     <cfRule type="cellIs" dxfId="682" priority="714" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32507,7 +32637,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AZ24 BG24:BH24 AW24 BC24:BE24">
+  <conditionalFormatting sqref="BA24">
     <cfRule type="cellIs" dxfId="679" priority="711" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32520,7 +32650,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BA24">
+  <conditionalFormatting sqref="BQ24 BI24:BJ24 BL24:BO24">
     <cfRule type="cellIs" dxfId="676" priority="708" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32533,7 +32663,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BQ24 BI24:BJ24 BL24:BO24">
+  <conditionalFormatting sqref="BK24">
     <cfRule type="cellIs" dxfId="673" priority="705" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32546,7 +32676,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BK24">
+  <conditionalFormatting sqref="BR24:BS24 BU24:BW24">
     <cfRule type="cellIs" dxfId="670" priority="702" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32559,7 +32689,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BR24:BS24 BU24:BW24">
+  <conditionalFormatting sqref="BT24">
     <cfRule type="cellIs" dxfId="667" priority="699" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32572,7 +32702,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BT24">
+  <conditionalFormatting sqref="BB24">
     <cfRule type="cellIs" dxfId="664" priority="696" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32585,7 +32715,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BB24">
+  <conditionalFormatting sqref="BF24">
     <cfRule type="cellIs" dxfId="661" priority="693" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32598,7 +32728,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BF24">
+  <conditionalFormatting sqref="BP24">
     <cfRule type="cellIs" dxfId="658" priority="690" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32611,7 +32741,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BP24">
+  <conditionalFormatting sqref="AY24">
     <cfRule type="cellIs" dxfId="655" priority="687" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32624,7 +32754,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY24">
+  <conditionalFormatting sqref="AX24">
     <cfRule type="cellIs" dxfId="652" priority="684" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32637,7 +32767,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX24">
+  <conditionalFormatting sqref="CD24">
     <cfRule type="cellIs" dxfId="649" priority="681" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32650,7 +32780,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CD24">
+  <conditionalFormatting sqref="CE24">
     <cfRule type="cellIs" dxfId="646" priority="678" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32663,7 +32793,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CE24">
+  <conditionalFormatting sqref="CF24">
     <cfRule type="cellIs" dxfId="643" priority="675" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32676,7 +32806,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CF24">
+  <conditionalFormatting sqref="CG24">
     <cfRule type="cellIs" dxfId="640" priority="672" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32689,7 +32819,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CG24">
+  <conditionalFormatting sqref="CH24">
     <cfRule type="cellIs" dxfId="637" priority="669" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32702,7 +32832,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CH24">
+  <conditionalFormatting sqref="CM24">
     <cfRule type="cellIs" dxfId="634" priority="666" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32715,7 +32845,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CM24">
+  <conditionalFormatting sqref="CL24">
     <cfRule type="cellIs" dxfId="631" priority="663" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32728,7 +32858,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CL24">
+  <conditionalFormatting sqref="I24">
     <cfRule type="cellIs" dxfId="628" priority="660" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32741,29 +32871,29 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I24">
-    <cfRule type="cellIs" dxfId="625" priority="657" operator="equal">
+  <conditionalFormatting sqref="D25:F25">
+    <cfRule type="cellIs" dxfId="625" priority="658" operator="between">
+      <formula>8</formula>
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="624" priority="659" operator="lessThan">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CI25:CK25 J25:AD25 AS25:AV25 BX25:BY25 CA25:CC25 AH25:AI25 AN25:AP25 AL25">
+    <cfRule type="cellIs" dxfId="623" priority="655" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="624" priority="658" operator="between">
+    <cfRule type="cellIs" dxfId="622" priority="656" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="623" priority="659" operator="between">
+    <cfRule type="cellIs" dxfId="621" priority="657" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D25:F25">
-    <cfRule type="cellIs" dxfId="622" priority="655" operator="between">
-      <formula>8</formula>
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="621" priority="656" operator="lessThan">
-      <formula>8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CI25:CK25 J25:AD25 AS25:AV25 BX25:BY25 CA25:CC25 AH25:AI25 AN25:AP25 AL25">
+  <conditionalFormatting sqref="AE25">
     <cfRule type="cellIs" dxfId="620" priority="652" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32776,7 +32906,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE25">
+  <conditionalFormatting sqref="AQ25">
     <cfRule type="cellIs" dxfId="617" priority="649" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32789,7 +32919,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ25">
+  <conditionalFormatting sqref="AR25">
     <cfRule type="cellIs" dxfId="614" priority="646" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32802,7 +32932,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AR25">
+  <conditionalFormatting sqref="BZ25">
     <cfRule type="cellIs" dxfId="611" priority="643" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32815,7 +32945,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BZ25">
+  <conditionalFormatting sqref="AZ25 BG25:BH25 AW25 BC25:BE25">
     <cfRule type="cellIs" dxfId="608" priority="640" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32828,7 +32958,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AZ25 BG25:BH25 AW25 BC25:BE25">
+  <conditionalFormatting sqref="BA25">
     <cfRule type="cellIs" dxfId="605" priority="637" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32841,7 +32971,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BA25">
+  <conditionalFormatting sqref="BQ25 BI25:BJ25 BL25:BO25">
     <cfRule type="cellIs" dxfId="602" priority="634" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32854,7 +32984,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BQ25 BI25:BJ25 BL25:BO25">
+  <conditionalFormatting sqref="BK25">
     <cfRule type="cellIs" dxfId="599" priority="631" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32867,7 +32997,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BK25">
+  <conditionalFormatting sqref="BR25:BS25 BU25:BW25">
     <cfRule type="cellIs" dxfId="596" priority="628" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32880,7 +33010,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BR25:BS25 BU25:BW25">
+  <conditionalFormatting sqref="BT25">
     <cfRule type="cellIs" dxfId="593" priority="625" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32893,7 +33023,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BT25">
+  <conditionalFormatting sqref="BB25">
     <cfRule type="cellIs" dxfId="590" priority="622" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32906,7 +33036,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BB25">
+  <conditionalFormatting sqref="BF25">
     <cfRule type="cellIs" dxfId="587" priority="619" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32919,7 +33049,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BF25">
+  <conditionalFormatting sqref="BP25">
     <cfRule type="cellIs" dxfId="584" priority="616" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32932,7 +33062,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BP25">
+  <conditionalFormatting sqref="AY25">
     <cfRule type="cellIs" dxfId="581" priority="613" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32945,7 +33075,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY25">
+  <conditionalFormatting sqref="AX25">
     <cfRule type="cellIs" dxfId="578" priority="610" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32958,7 +33088,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX25">
+  <conditionalFormatting sqref="CD25">
     <cfRule type="cellIs" dxfId="575" priority="607" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32971,7 +33101,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CD25">
+  <conditionalFormatting sqref="CE25">
     <cfRule type="cellIs" dxfId="572" priority="604" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32984,7 +33114,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CE25">
+  <conditionalFormatting sqref="CF25">
     <cfRule type="cellIs" dxfId="569" priority="601" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32997,7 +33127,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CF25">
+  <conditionalFormatting sqref="CG25">
     <cfRule type="cellIs" dxfId="566" priority="598" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33010,7 +33140,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CG25">
+  <conditionalFormatting sqref="CH25">
     <cfRule type="cellIs" dxfId="563" priority="595" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33023,7 +33153,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CH25">
+  <conditionalFormatting sqref="CM25">
     <cfRule type="cellIs" dxfId="560" priority="592" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33036,7 +33166,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CM25">
+  <conditionalFormatting sqref="CL25">
     <cfRule type="cellIs" dxfId="557" priority="589" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33049,7 +33179,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CL25">
+  <conditionalFormatting sqref="I25">
     <cfRule type="cellIs" dxfId="554" priority="586" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33062,29 +33192,29 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I25">
-    <cfRule type="cellIs" dxfId="551" priority="583" operator="equal">
+  <conditionalFormatting sqref="D26:F26">
+    <cfRule type="cellIs" dxfId="551" priority="584" operator="between">
+      <formula>8</formula>
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="550" priority="585" operator="lessThan">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CI26:CK26 J26:AD26 AS26:AV26 BX26:BY26 CA26:CC26 AH26:AL26 AN26:AP26">
+    <cfRule type="cellIs" dxfId="549" priority="581" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="550" priority="584" operator="between">
+    <cfRule type="cellIs" dxfId="548" priority="582" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="549" priority="585" operator="between">
+    <cfRule type="cellIs" dxfId="547" priority="583" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D26:F26">
-    <cfRule type="cellIs" dxfId="548" priority="581" operator="between">
-      <formula>8</formula>
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="547" priority="582" operator="lessThan">
-      <formula>8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CI26:CK26 J26:AD26 AS26:AV26 BX26:BY26 CA26:CC26 AH26:AL26 AN26:AP26">
+  <conditionalFormatting sqref="AE26">
     <cfRule type="cellIs" dxfId="546" priority="578" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33097,7 +33227,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE26">
+  <conditionalFormatting sqref="AQ26">
     <cfRule type="cellIs" dxfId="543" priority="575" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33110,7 +33240,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ26">
+  <conditionalFormatting sqref="AR26">
     <cfRule type="cellIs" dxfId="540" priority="572" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33123,7 +33253,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AR26">
+  <conditionalFormatting sqref="BZ26">
     <cfRule type="cellIs" dxfId="537" priority="569" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33136,7 +33266,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BZ26">
+  <conditionalFormatting sqref="AZ26 BG26:BH26 AW26 BC26:BE26">
     <cfRule type="cellIs" dxfId="534" priority="566" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33149,7 +33279,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AZ26 BG26:BH26 AW26 BC26:BE26">
+  <conditionalFormatting sqref="BA26">
     <cfRule type="cellIs" dxfId="531" priority="563" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33162,7 +33292,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BA26">
+  <conditionalFormatting sqref="BQ26 BI26:BJ26 BL26:BO26">
     <cfRule type="cellIs" dxfId="528" priority="560" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33175,7 +33305,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BQ26 BI26:BJ26 BL26:BO26">
+  <conditionalFormatting sqref="BK26">
     <cfRule type="cellIs" dxfId="525" priority="557" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33188,7 +33318,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BK26">
+  <conditionalFormatting sqref="BR26:BS26 BU26:BW26">
     <cfRule type="cellIs" dxfId="522" priority="554" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33201,7 +33331,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BR26:BS26 BU26:BW26">
+  <conditionalFormatting sqref="BT26">
     <cfRule type="cellIs" dxfId="519" priority="551" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33214,7 +33344,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BT26">
+  <conditionalFormatting sqref="BB26">
     <cfRule type="cellIs" dxfId="516" priority="548" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33227,7 +33357,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BB26">
+  <conditionalFormatting sqref="BF26">
     <cfRule type="cellIs" dxfId="513" priority="545" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33240,7 +33370,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BF26">
+  <conditionalFormatting sqref="BP26">
     <cfRule type="cellIs" dxfId="510" priority="542" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33253,7 +33383,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BP26">
+  <conditionalFormatting sqref="AY26">
     <cfRule type="cellIs" dxfId="507" priority="539" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33266,7 +33396,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY26">
+  <conditionalFormatting sqref="AX26">
     <cfRule type="cellIs" dxfId="504" priority="536" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33279,7 +33409,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX26">
+  <conditionalFormatting sqref="CD26">
     <cfRule type="cellIs" dxfId="501" priority="533" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33292,7 +33422,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CD26">
+  <conditionalFormatting sqref="CE26">
     <cfRule type="cellIs" dxfId="498" priority="530" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33305,7 +33435,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CE26">
+  <conditionalFormatting sqref="CF26">
     <cfRule type="cellIs" dxfId="495" priority="527" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33318,7 +33448,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CF26">
+  <conditionalFormatting sqref="CG26">
     <cfRule type="cellIs" dxfId="492" priority="524" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33331,7 +33461,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CG26">
+  <conditionalFormatting sqref="CH26">
     <cfRule type="cellIs" dxfId="489" priority="521" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33344,7 +33474,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CH26">
+  <conditionalFormatting sqref="CM26">
     <cfRule type="cellIs" dxfId="486" priority="518" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33357,7 +33487,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CM26">
+  <conditionalFormatting sqref="CL26">
     <cfRule type="cellIs" dxfId="483" priority="515" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33370,7 +33500,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CL26">
+  <conditionalFormatting sqref="I26">
     <cfRule type="cellIs" dxfId="480" priority="512" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33383,29 +33513,29 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I26">
-    <cfRule type="cellIs" dxfId="477" priority="509" operator="equal">
+  <conditionalFormatting sqref="D27:F27">
+    <cfRule type="cellIs" dxfId="477" priority="510" operator="between">
+      <formula>8</formula>
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="476" priority="511" operator="lessThan">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CI27:CK27 J27:AD27 AS27:AV27 BX27:BY27 CA27:CC27 AH27:AI27 AN27 AK27:AL27 AP27">
+    <cfRule type="cellIs" dxfId="475" priority="507" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="476" priority="510" operator="between">
+    <cfRule type="cellIs" dxfId="474" priority="508" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="475" priority="511" operator="between">
+    <cfRule type="cellIs" dxfId="473" priority="509" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27:F27">
-    <cfRule type="cellIs" dxfId="474" priority="507" operator="between">
-      <formula>8</formula>
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="473" priority="508" operator="lessThan">
-      <formula>8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CI27:CK27 J27:AD27 AS27:AV27 BX27:BY27 CA27:CC27 AH27:AI27 AN27 AK27:AL27 AP27">
+  <conditionalFormatting sqref="AE27">
     <cfRule type="cellIs" dxfId="472" priority="504" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33418,7 +33548,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE27">
+  <conditionalFormatting sqref="AQ27">
     <cfRule type="cellIs" dxfId="469" priority="501" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33431,7 +33561,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ27">
+  <conditionalFormatting sqref="AR27">
     <cfRule type="cellIs" dxfId="466" priority="498" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33444,7 +33574,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AR27">
+  <conditionalFormatting sqref="BZ27">
     <cfRule type="cellIs" dxfId="463" priority="495" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33457,7 +33587,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BZ27">
+  <conditionalFormatting sqref="AZ27 BG27:BH27 AW27 BC27:BE27">
     <cfRule type="cellIs" dxfId="460" priority="492" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33470,7 +33600,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AZ27 BG27:BH27 AW27 BC27:BE27">
+  <conditionalFormatting sqref="BA27">
     <cfRule type="cellIs" dxfId="457" priority="489" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33483,7 +33613,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BA27">
+  <conditionalFormatting sqref="BQ27 BI27:BJ27 BL27:BO27">
     <cfRule type="cellIs" dxfId="454" priority="486" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33496,7 +33626,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BQ27 BI27:BJ27 BL27:BO27">
+  <conditionalFormatting sqref="BK27">
     <cfRule type="cellIs" dxfId="451" priority="483" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33509,7 +33639,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BK27">
+  <conditionalFormatting sqref="BR27:BS27 BU27:BW27">
     <cfRule type="cellIs" dxfId="448" priority="480" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33522,7 +33652,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BR27:BS27 BU27:BW27">
+  <conditionalFormatting sqref="BT27">
     <cfRule type="cellIs" dxfId="445" priority="477" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33535,7 +33665,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BT27">
+  <conditionalFormatting sqref="BB27">
     <cfRule type="cellIs" dxfId="442" priority="474" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33548,7 +33678,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BB27">
+  <conditionalFormatting sqref="BF27">
     <cfRule type="cellIs" dxfId="439" priority="471" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33561,7 +33691,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BF27">
+  <conditionalFormatting sqref="BP27">
     <cfRule type="cellIs" dxfId="436" priority="468" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33574,7 +33704,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BP27">
+  <conditionalFormatting sqref="AY27">
     <cfRule type="cellIs" dxfId="433" priority="465" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33587,7 +33717,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY27">
+  <conditionalFormatting sqref="AX27">
     <cfRule type="cellIs" dxfId="430" priority="462" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33600,7 +33730,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX27">
+  <conditionalFormatting sqref="CD27">
     <cfRule type="cellIs" dxfId="427" priority="459" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33613,7 +33743,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CD27">
+  <conditionalFormatting sqref="CE27">
     <cfRule type="cellIs" dxfId="424" priority="456" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33626,7 +33756,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CE27">
+  <conditionalFormatting sqref="CF27">
     <cfRule type="cellIs" dxfId="421" priority="453" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33639,7 +33769,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CF27">
+  <conditionalFormatting sqref="CG27">
     <cfRule type="cellIs" dxfId="418" priority="450" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33652,7 +33782,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CG27">
+  <conditionalFormatting sqref="CH27">
     <cfRule type="cellIs" dxfId="415" priority="447" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33665,7 +33795,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CH27">
+  <conditionalFormatting sqref="CM27">
     <cfRule type="cellIs" dxfId="412" priority="444" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33678,7 +33808,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CM27">
+  <conditionalFormatting sqref="CL27">
     <cfRule type="cellIs" dxfId="409" priority="441" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33691,7 +33821,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CL27">
+  <conditionalFormatting sqref="I27">
     <cfRule type="cellIs" dxfId="406" priority="438" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33704,29 +33834,29 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I27">
-    <cfRule type="cellIs" dxfId="403" priority="435" operator="equal">
+  <conditionalFormatting sqref="D28:F28">
+    <cfRule type="cellIs" dxfId="403" priority="436" operator="between">
+      <formula>8</formula>
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="402" priority="437" operator="lessThan">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CI28:CK28 J28:AD28 AS28:AV28 BX28:BY28 CA28:CC28 AH28:AL28 AN28:AP28">
+    <cfRule type="cellIs" dxfId="401" priority="433" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="402" priority="436" operator="between">
+    <cfRule type="cellIs" dxfId="400" priority="434" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="401" priority="437" operator="between">
+    <cfRule type="cellIs" dxfId="399" priority="435" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D28:F28">
-    <cfRule type="cellIs" dxfId="400" priority="433" operator="between">
-      <formula>8</formula>
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="399" priority="434" operator="lessThan">
-      <formula>8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CI28:CK28 J28:AD28 AS28:AV28 BX28:BY28 CA28:CC28 AH28:AL28 AN28:AP28">
+  <conditionalFormatting sqref="AE28">
     <cfRule type="cellIs" dxfId="398" priority="430" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33739,7 +33869,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE28">
+  <conditionalFormatting sqref="AQ28">
     <cfRule type="cellIs" dxfId="395" priority="427" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33752,7 +33882,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ28">
+  <conditionalFormatting sqref="AR28">
     <cfRule type="cellIs" dxfId="392" priority="424" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33765,7 +33895,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AR28">
+  <conditionalFormatting sqref="BZ28">
     <cfRule type="cellIs" dxfId="389" priority="421" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33778,7 +33908,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BZ28">
+  <conditionalFormatting sqref="AZ28 BG28:BH28 AW28 BC28:BE28">
     <cfRule type="cellIs" dxfId="386" priority="418" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33791,7 +33921,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AZ28 BG28:BH28 AW28 BC28:BE28">
+  <conditionalFormatting sqref="BA28">
     <cfRule type="cellIs" dxfId="383" priority="415" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33804,7 +33934,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BA28">
+  <conditionalFormatting sqref="BQ28 BI28:BJ28 BL28:BO28">
     <cfRule type="cellIs" dxfId="380" priority="412" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33817,7 +33947,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BQ28 BI28:BJ28 BL28:BO28">
+  <conditionalFormatting sqref="BK28">
     <cfRule type="cellIs" dxfId="377" priority="409" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33830,7 +33960,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BK28">
+  <conditionalFormatting sqref="BR28:BS28 BU28:BW28">
     <cfRule type="cellIs" dxfId="374" priority="406" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33843,7 +33973,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BR28:BS28 BU28:BW28">
+  <conditionalFormatting sqref="BT28">
     <cfRule type="cellIs" dxfId="371" priority="403" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33856,7 +33986,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BT28">
+  <conditionalFormatting sqref="BB28">
     <cfRule type="cellIs" dxfId="368" priority="400" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33869,7 +33999,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BB28">
+  <conditionalFormatting sqref="BF28">
     <cfRule type="cellIs" dxfId="365" priority="397" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33882,7 +34012,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BF28">
+  <conditionalFormatting sqref="BP28">
     <cfRule type="cellIs" dxfId="362" priority="394" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33895,7 +34025,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BP28">
+  <conditionalFormatting sqref="AY28">
     <cfRule type="cellIs" dxfId="359" priority="391" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33908,7 +34038,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY28">
+  <conditionalFormatting sqref="AX28">
     <cfRule type="cellIs" dxfId="356" priority="388" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33921,7 +34051,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX28">
+  <conditionalFormatting sqref="CD28">
     <cfRule type="cellIs" dxfId="353" priority="385" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33934,7 +34064,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CD28">
+  <conditionalFormatting sqref="CE28">
     <cfRule type="cellIs" dxfId="350" priority="382" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33947,7 +34077,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CE28">
+  <conditionalFormatting sqref="CF28">
     <cfRule type="cellIs" dxfId="347" priority="379" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33960,7 +34090,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CF28">
+  <conditionalFormatting sqref="CG28">
     <cfRule type="cellIs" dxfId="344" priority="376" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33973,7 +34103,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CG28">
+  <conditionalFormatting sqref="CH28">
     <cfRule type="cellIs" dxfId="341" priority="373" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33986,7 +34116,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CH28">
+  <conditionalFormatting sqref="CM28">
     <cfRule type="cellIs" dxfId="338" priority="370" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33999,7 +34129,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CM28">
+  <conditionalFormatting sqref="CL28">
     <cfRule type="cellIs" dxfId="335" priority="367" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34012,7 +34142,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CL28">
+  <conditionalFormatting sqref="I28">
     <cfRule type="cellIs" dxfId="332" priority="364" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34025,29 +34155,29 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I28">
-    <cfRule type="cellIs" dxfId="329" priority="361" operator="equal">
+  <conditionalFormatting sqref="D29:F29">
+    <cfRule type="cellIs" dxfId="329" priority="362" operator="between">
+      <formula>8</formula>
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="328" priority="363" operator="lessThan">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CI29:CK29 J29:AD29 AS29:AV29 BX29:BY29 CA29:CC29 AH29:AL29 AN29:AP29">
+    <cfRule type="cellIs" dxfId="327" priority="359" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="328" priority="362" operator="between">
+    <cfRule type="cellIs" dxfId="326" priority="360" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="327" priority="363" operator="between">
+    <cfRule type="cellIs" dxfId="325" priority="361" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D29:F29">
-    <cfRule type="cellIs" dxfId="326" priority="359" operator="between">
-      <formula>8</formula>
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="325" priority="360" operator="lessThan">
-      <formula>8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CI29:CK29 J29:AD29 AS29:AV29 BX29:BY29 CA29:CC29 AH29:AL29 AN29:AP29">
+  <conditionalFormatting sqref="AE29">
     <cfRule type="cellIs" dxfId="324" priority="356" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34060,7 +34190,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE29">
+  <conditionalFormatting sqref="AQ29">
     <cfRule type="cellIs" dxfId="321" priority="353" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34073,7 +34203,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ29">
+  <conditionalFormatting sqref="AR29">
     <cfRule type="cellIs" dxfId="318" priority="350" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34086,7 +34216,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AR29">
+  <conditionalFormatting sqref="BZ29">
     <cfRule type="cellIs" dxfId="315" priority="347" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34099,7 +34229,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BZ29">
+  <conditionalFormatting sqref="AZ29 BG29:BH29 AW29 BC29:BE29">
     <cfRule type="cellIs" dxfId="312" priority="344" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34112,7 +34242,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AZ29 BG29:BH29 AW29 BC29:BE29">
+  <conditionalFormatting sqref="BA29">
     <cfRule type="cellIs" dxfId="309" priority="341" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34125,7 +34255,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BA29">
+  <conditionalFormatting sqref="BQ29 BI29:BJ29 BL29:BO29">
     <cfRule type="cellIs" dxfId="306" priority="338" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34138,7 +34268,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BQ29 BI29:BJ29 BL29:BO29">
+  <conditionalFormatting sqref="BK29">
     <cfRule type="cellIs" dxfId="303" priority="335" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34151,7 +34281,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BK29">
+  <conditionalFormatting sqref="BR29:BS29 BU29:BW29">
     <cfRule type="cellIs" dxfId="300" priority="332" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34164,7 +34294,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BR29:BS29 BU29:BW29">
+  <conditionalFormatting sqref="BT29">
     <cfRule type="cellIs" dxfId="297" priority="329" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34177,7 +34307,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BT29">
+  <conditionalFormatting sqref="BB29">
     <cfRule type="cellIs" dxfId="294" priority="326" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34190,7 +34320,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BB29">
+  <conditionalFormatting sqref="BF29">
     <cfRule type="cellIs" dxfId="291" priority="323" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34203,7 +34333,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BF29">
+  <conditionalFormatting sqref="BP29">
     <cfRule type="cellIs" dxfId="288" priority="320" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34216,7 +34346,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BP29">
+  <conditionalFormatting sqref="AY29">
     <cfRule type="cellIs" dxfId="285" priority="317" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34229,7 +34359,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY29">
+  <conditionalFormatting sqref="AX29">
     <cfRule type="cellIs" dxfId="282" priority="314" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34242,7 +34372,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX29">
+  <conditionalFormatting sqref="CD29">
     <cfRule type="cellIs" dxfId="279" priority="311" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34255,7 +34385,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CD29">
+  <conditionalFormatting sqref="CE29">
     <cfRule type="cellIs" dxfId="276" priority="308" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34268,7 +34398,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CE29">
+  <conditionalFormatting sqref="CF29">
     <cfRule type="cellIs" dxfId="273" priority="305" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34281,7 +34411,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CF29">
+  <conditionalFormatting sqref="CG29">
     <cfRule type="cellIs" dxfId="270" priority="302" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34294,7 +34424,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CG29">
+  <conditionalFormatting sqref="CH29">
     <cfRule type="cellIs" dxfId="267" priority="299" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34307,7 +34437,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CH29">
+  <conditionalFormatting sqref="CM29">
     <cfRule type="cellIs" dxfId="264" priority="296" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34320,7 +34450,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CM29">
+  <conditionalFormatting sqref="CL29">
     <cfRule type="cellIs" dxfId="261" priority="293" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34333,7 +34463,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CL29">
+  <conditionalFormatting sqref="I29">
     <cfRule type="cellIs" dxfId="258" priority="290" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34346,29 +34476,29 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I29">
-    <cfRule type="cellIs" dxfId="255" priority="287" operator="equal">
+  <conditionalFormatting sqref="D30:F30">
+    <cfRule type="cellIs" dxfId="255" priority="288" operator="between">
+      <formula>8</formula>
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="254" priority="289" operator="lessThan">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CI30:CK30 J30:AD30 AS30:AV30 BX30:BY30 CA30:CC30 AH30:AL30 AN30:AP30">
+    <cfRule type="cellIs" dxfId="253" priority="285" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="254" priority="288" operator="between">
+    <cfRule type="cellIs" dxfId="252" priority="286" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="253" priority="289" operator="between">
+    <cfRule type="cellIs" dxfId="251" priority="287" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D30:F30">
-    <cfRule type="cellIs" dxfId="252" priority="285" operator="between">
-      <formula>8</formula>
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="251" priority="286" operator="lessThan">
-      <formula>8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CI30:CK30 J30:AD30 AS30:AV30 BX30:BY30 CA30:CC30 AH30:AL30 AN30:AP30">
+  <conditionalFormatting sqref="AE30">
     <cfRule type="cellIs" dxfId="250" priority="282" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34381,7 +34511,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE30">
+  <conditionalFormatting sqref="AQ30">
     <cfRule type="cellIs" dxfId="247" priority="279" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34394,7 +34524,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ30">
+  <conditionalFormatting sqref="AR30">
     <cfRule type="cellIs" dxfId="244" priority="276" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34407,7 +34537,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AR30">
+  <conditionalFormatting sqref="BZ30">
     <cfRule type="cellIs" dxfId="241" priority="273" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34420,7 +34550,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BZ30">
+  <conditionalFormatting sqref="AZ30 BG30:BH30 AW30 BC30:BE30">
     <cfRule type="cellIs" dxfId="238" priority="270" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34433,7 +34563,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AZ30 BG30:BH30 AW30 BC30:BE30">
+  <conditionalFormatting sqref="BA30">
     <cfRule type="cellIs" dxfId="235" priority="267" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34446,7 +34576,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BA30">
+  <conditionalFormatting sqref="BQ30 BI30:BJ30 BL30:BO30">
     <cfRule type="cellIs" dxfId="232" priority="264" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34459,7 +34589,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BQ30 BI30:BJ30 BL30:BO30">
+  <conditionalFormatting sqref="BK30">
     <cfRule type="cellIs" dxfId="229" priority="261" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34472,7 +34602,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BK30">
+  <conditionalFormatting sqref="BR30:BS30 BU30:BW30">
     <cfRule type="cellIs" dxfId="226" priority="258" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34485,7 +34615,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BR30:BS30 BU30:BW30">
+  <conditionalFormatting sqref="BT30">
     <cfRule type="cellIs" dxfId="223" priority="255" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34498,7 +34628,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BT30">
+  <conditionalFormatting sqref="BB30">
     <cfRule type="cellIs" dxfId="220" priority="252" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34511,7 +34641,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BB30">
+  <conditionalFormatting sqref="BF30">
     <cfRule type="cellIs" dxfId="217" priority="249" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34524,7 +34654,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BF30">
+  <conditionalFormatting sqref="BP30">
     <cfRule type="cellIs" dxfId="214" priority="246" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34537,7 +34667,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BP30">
+  <conditionalFormatting sqref="AY30">
     <cfRule type="cellIs" dxfId="211" priority="243" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34550,7 +34680,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY30">
+  <conditionalFormatting sqref="AX30">
     <cfRule type="cellIs" dxfId="208" priority="240" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34563,7 +34693,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX30">
+  <conditionalFormatting sqref="CD30">
     <cfRule type="cellIs" dxfId="205" priority="237" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34576,7 +34706,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CD30">
+  <conditionalFormatting sqref="CE30">
     <cfRule type="cellIs" dxfId="202" priority="234" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34589,7 +34719,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CE30">
+  <conditionalFormatting sqref="CF30">
     <cfRule type="cellIs" dxfId="199" priority="231" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34602,7 +34732,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CF30">
+  <conditionalFormatting sqref="CG30">
     <cfRule type="cellIs" dxfId="196" priority="228" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34615,7 +34745,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CG30">
+  <conditionalFormatting sqref="CH30">
     <cfRule type="cellIs" dxfId="193" priority="225" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34628,7 +34758,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CH30">
+  <conditionalFormatting sqref="CM30">
     <cfRule type="cellIs" dxfId="190" priority="222" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34641,7 +34771,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CM30">
+  <conditionalFormatting sqref="CL30">
     <cfRule type="cellIs" dxfId="187" priority="219" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34654,7 +34784,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CL30">
+  <conditionalFormatting sqref="I30">
     <cfRule type="cellIs" dxfId="184" priority="216" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34667,29 +34797,29 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I30">
-    <cfRule type="cellIs" dxfId="181" priority="213" operator="equal">
+  <conditionalFormatting sqref="D31:F31">
+    <cfRule type="cellIs" dxfId="181" priority="214" operator="between">
+      <formula>8</formula>
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="180" priority="215" operator="lessThan">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CI31:CK31 J31:AD31 AS31:AV31 BX31:BY31 CA31:CC31 AH31:AL31 AN31:AP31">
+    <cfRule type="cellIs" dxfId="179" priority="211" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="214" operator="between">
+    <cfRule type="cellIs" dxfId="178" priority="212" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="179" priority="215" operator="between">
+    <cfRule type="cellIs" dxfId="177" priority="213" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31:F31">
-    <cfRule type="cellIs" dxfId="178" priority="211" operator="between">
-      <formula>8</formula>
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="212" operator="lessThan">
-      <formula>8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CI31:CK31 J31:AD31 AS31:AV31 BX31:BY31 CA31:CC31 AH31:AL31 AN31:AP31">
+  <conditionalFormatting sqref="AE31">
     <cfRule type="cellIs" dxfId="176" priority="208" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34702,7 +34832,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE31">
+  <conditionalFormatting sqref="AQ31">
     <cfRule type="cellIs" dxfId="173" priority="205" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34715,7 +34845,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ31">
+  <conditionalFormatting sqref="AR31">
     <cfRule type="cellIs" dxfId="170" priority="202" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34728,7 +34858,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AR31">
+  <conditionalFormatting sqref="BZ31">
     <cfRule type="cellIs" dxfId="167" priority="199" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34741,7 +34871,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BZ31">
+  <conditionalFormatting sqref="AZ31 BG31:BH31 AW31 BC31:BE31">
     <cfRule type="cellIs" dxfId="164" priority="196" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34754,7 +34884,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AZ31 BG31:BH31 AW31 BC31:BE31">
+  <conditionalFormatting sqref="BA31">
     <cfRule type="cellIs" dxfId="161" priority="193" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34767,7 +34897,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BA31">
+  <conditionalFormatting sqref="BQ31 BI31:BJ31 BL31:BO31">
     <cfRule type="cellIs" dxfId="158" priority="190" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34780,7 +34910,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BQ31 BI31:BJ31 BL31:BO31">
+  <conditionalFormatting sqref="BK31">
     <cfRule type="cellIs" dxfId="155" priority="187" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34793,7 +34923,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BK31">
+  <conditionalFormatting sqref="BR31:BS31 BU31:BW31">
     <cfRule type="cellIs" dxfId="152" priority="184" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34806,7 +34936,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BR31:BS31 BU31:BW31">
+  <conditionalFormatting sqref="BT31">
     <cfRule type="cellIs" dxfId="149" priority="181" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34819,7 +34949,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BT31">
+  <conditionalFormatting sqref="BB31">
     <cfRule type="cellIs" dxfId="146" priority="178" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34832,7 +34962,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BB31">
+  <conditionalFormatting sqref="BF31">
     <cfRule type="cellIs" dxfId="143" priority="175" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34845,7 +34975,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BF31">
+  <conditionalFormatting sqref="BP31">
     <cfRule type="cellIs" dxfId="140" priority="172" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34858,7 +34988,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BP31">
+  <conditionalFormatting sqref="AY31">
     <cfRule type="cellIs" dxfId="137" priority="169" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34871,7 +35001,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY31">
+  <conditionalFormatting sqref="AX31">
     <cfRule type="cellIs" dxfId="134" priority="166" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34884,7 +35014,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX31">
+  <conditionalFormatting sqref="CD31">
     <cfRule type="cellIs" dxfId="131" priority="163" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34897,7 +35027,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CD31">
+  <conditionalFormatting sqref="CE31">
     <cfRule type="cellIs" dxfId="128" priority="160" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34910,7 +35040,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CE31">
+  <conditionalFormatting sqref="CF31">
     <cfRule type="cellIs" dxfId="125" priority="157" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34923,7 +35053,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CF31">
+  <conditionalFormatting sqref="CG31">
     <cfRule type="cellIs" dxfId="122" priority="154" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34936,7 +35066,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CG31">
+  <conditionalFormatting sqref="CH31">
     <cfRule type="cellIs" dxfId="119" priority="151" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34949,7 +35079,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CH31">
+  <conditionalFormatting sqref="CM31">
     <cfRule type="cellIs" dxfId="116" priority="148" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34962,7 +35092,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CM31">
+  <conditionalFormatting sqref="CL31">
     <cfRule type="cellIs" dxfId="113" priority="145" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34975,7 +35105,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CL31">
+  <conditionalFormatting sqref="I31">
     <cfRule type="cellIs" dxfId="110" priority="142" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34988,33 +35118,33 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I31">
-    <cfRule type="cellIs" dxfId="107" priority="139" operator="equal">
+  <conditionalFormatting sqref="AM32:AM33 AM9:AM23">
+    <cfRule type="cellIs" dxfId="107" priority="112" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="140" operator="between">
+    <cfRule type="cellIs" dxfId="106" priority="113" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="141" operator="between">
+    <cfRule type="cellIs" dxfId="105" priority="114" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM32:AM33 AM9:AM23">
-    <cfRule type="cellIs" dxfId="104" priority="109" operator="equal">
+  <conditionalFormatting sqref="AM26">
+    <cfRule type="cellIs" dxfId="104" priority="103" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="110" operator="between">
+    <cfRule type="cellIs" dxfId="103" priority="104" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="111" operator="between">
+    <cfRule type="cellIs" dxfId="102" priority="105" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM26">
+  <conditionalFormatting sqref="AM27">
     <cfRule type="cellIs" dxfId="101" priority="100" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -35027,7 +35157,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM27">
+  <conditionalFormatting sqref="AM28">
     <cfRule type="cellIs" dxfId="98" priority="97" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -35040,7 +35170,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM28">
+  <conditionalFormatting sqref="AM29">
     <cfRule type="cellIs" dxfId="95" priority="94" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -35053,7 +35183,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM29">
+  <conditionalFormatting sqref="AM30">
     <cfRule type="cellIs" dxfId="92" priority="91" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -35066,7 +35196,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM30">
+  <conditionalFormatting sqref="AM31">
     <cfRule type="cellIs" dxfId="89" priority="88" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -35079,7 +35209,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM31">
+  <conditionalFormatting sqref="AG32:AG33 AG9 AG11:AG23">
     <cfRule type="cellIs" dxfId="86" priority="85" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -35092,7 +35222,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG32:AG33 AG9 AG11:AG23">
+  <conditionalFormatting sqref="AG24">
     <cfRule type="cellIs" dxfId="83" priority="82" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -35105,7 +35235,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG24">
+  <conditionalFormatting sqref="AG25">
     <cfRule type="cellIs" dxfId="80" priority="79" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -35118,7 +35248,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG25">
+  <conditionalFormatting sqref="AG26">
     <cfRule type="cellIs" dxfId="77" priority="76" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -35131,7 +35261,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG26">
+  <conditionalFormatting sqref="AG27">
     <cfRule type="cellIs" dxfId="74" priority="73" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -35144,7 +35274,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG27">
+  <conditionalFormatting sqref="AG28">
     <cfRule type="cellIs" dxfId="71" priority="70" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -35157,7 +35287,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG28">
+  <conditionalFormatting sqref="AG29">
     <cfRule type="cellIs" dxfId="68" priority="67" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -35170,7 +35300,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG29">
+  <conditionalFormatting sqref="AG30">
     <cfRule type="cellIs" dxfId="65" priority="64" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -35183,7 +35313,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG30">
+  <conditionalFormatting sqref="AG31">
     <cfRule type="cellIs" dxfId="62" priority="61" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -35196,7 +35326,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG31">
+  <conditionalFormatting sqref="AM24">
     <cfRule type="cellIs" dxfId="59" priority="58" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -35209,7 +35339,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM24">
+  <conditionalFormatting sqref="AO24">
     <cfRule type="cellIs" dxfId="56" priority="55" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -35222,7 +35352,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO24">
+  <conditionalFormatting sqref="AJ25">
     <cfRule type="cellIs" dxfId="53" priority="52" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -35235,7 +35365,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ25">
+  <conditionalFormatting sqref="AK25">
     <cfRule type="cellIs" dxfId="50" priority="49" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -35248,7 +35378,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK25">
+  <conditionalFormatting sqref="AM25">
     <cfRule type="cellIs" dxfId="47" priority="46" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -35261,7 +35391,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM25">
+  <conditionalFormatting sqref="AJ27">
     <cfRule type="cellIs" dxfId="44" priority="43" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -35274,7 +35404,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ27">
+  <conditionalFormatting sqref="AO27">
     <cfRule type="cellIs" dxfId="41" priority="40" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -35287,7 +35417,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO27">
+  <conditionalFormatting sqref="AE10">
     <cfRule type="cellIs" dxfId="38" priority="37" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -35300,7 +35430,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE10">
+  <conditionalFormatting sqref="AG10">
     <cfRule type="cellIs" dxfId="35" priority="34" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -35313,7 +35443,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG10">
+  <conditionalFormatting sqref="AF32:AF33 AF9 AF11:AF23">
     <cfRule type="cellIs" dxfId="32" priority="31" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -35326,7 +35456,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF32:AF33 AF9 AF11:AF23">
+  <conditionalFormatting sqref="AF24">
     <cfRule type="cellIs" dxfId="29" priority="28" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -35339,7 +35469,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF24">
+  <conditionalFormatting sqref="AF25">
     <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -35352,7 +35482,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF25">
+  <conditionalFormatting sqref="AF26">
     <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -35365,7 +35495,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF26">
+  <conditionalFormatting sqref="AF27">
     <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -35378,7 +35508,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF27">
+  <conditionalFormatting sqref="AF28">
     <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -35391,7 +35521,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF28">
+  <conditionalFormatting sqref="AF29">
     <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -35404,7 +35534,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF29">
+  <conditionalFormatting sqref="AF30">
     <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -35417,7 +35547,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF30">
+  <conditionalFormatting sqref="AF31">
     <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -35430,7 +35560,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF31">
+  <conditionalFormatting sqref="AF10">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -35443,7 +35573,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF10">
+  <conditionalFormatting sqref="AE16">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>

--- a/BaremeJavaBaseTest2_KL16.xlsx
+++ b/BaremeJavaBaseTest2_KL16.xlsx
@@ -99,7 +99,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-manque contrôle contains</t>
+manque contrôle regime alimentaire</t>
         </r>
       </text>
     </comment>
@@ -555,7 +555,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-manque contrôle contains</t>
+manque contrôle regime alimentaire</t>
         </r>
       </text>
     </comment>
@@ -703,6 +703,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="AF17" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+manque contrôle null</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="AJ17" authorId="0" shapeId="0">
       <text>
         <r>
@@ -751,6 +775,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="AC18" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+manque collections.unmodifiable</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="AK18" authorId="0" shapeId="0">
       <text>
         <r>
@@ -772,6 +820,30 @@
           </rPr>
           <t xml:space="preserve">
 setTypeRepas pas compris</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC19" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+pas de setter de list</t>
         </r>
       </text>
     </comment>
@@ -800,6 +872,55 @@
       </text>
     </comment>
     <comment ref="AO20" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+pas de liste dans le toString</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AF21" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+manque contrôle contains
+manque contrôle null</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AI21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -872,6 +993,127 @@
         </r>
       </text>
     </comment>
+    <comment ref="AB22" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+manque le private sur deux attributs</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC22" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+pas de setter de list</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC23" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+manque collections.unmodifiable
+on contrôle le null avant les autres controles</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AE23" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+manque contrôle regime alimentaire</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AI23" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+pas de liste dans le toString</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="AJ23" authorId="0" shapeId="0">
       <text>
         <r>
@@ -917,6 +1159,30 @@
           </rPr>
           <t xml:space="preserve">
 pas de liste dans le toString</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AF24" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+manque contrôle null</t>
         </r>
       </text>
     </comment>
@@ -3382,7 +3648,112 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="813">
+  <dxfs count="828">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -9345,7 +9716,7 @@
       <selection sqref="A1:XFD1"/>
       <selection pane="topRight" activeCell="AG6" sqref="AG6"/>
       <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
-      <selection pane="bottomRight" activeCell="AF17" sqref="AF17"/>
+      <selection pane="bottomRight" activeCell="AF24" sqref="AF24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -9751,7 +10122,7 @@
       </c>
       <c r="D4" s="16" t="str">
         <f>CONCATENATE("Note/20 ( sur ",H6,")")</f>
-        <v>Note/20 ( sur 240)</v>
+        <v>Note/20 ( sur 241)</v>
       </c>
       <c r="E4" s="17" t="str">
         <f>CONCATENATE("Note/20 ( sur ",H7,")")</f>
@@ -9764,7 +10135,7 @@
       </c>
       <c r="H4" s="6" t="str">
         <f>CONCATENATE("Note/",H6)</f>
-        <v>Note/240</v>
+        <v>Note/241</v>
       </c>
       <c r="I4" s="138"/>
       <c r="J4" s="141"/>
@@ -10103,7 +10474,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6">
         <f>SUM(I6:CK6)</f>
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I6" s="59">
         <v>2</v>
@@ -10178,7 +10549,7 @@
         <v>2</v>
       </c>
       <c r="AG6" s="123">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH6" s="77">
         <v>1</v>
@@ -10653,7 +11024,7 @@
       <c r="AA8" s="177"/>
       <c r="AB8" s="176">
         <f>SUM(AB6:AI6)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AC8" s="177"/>
       <c r="AD8" s="177"/>
@@ -10749,7 +11120,7 @@
       <c r="C9" s="119"/>
       <c r="D9" s="108">
         <f t="shared" ref="D9:D28" si="0">H9/$H$6*20+CM9*$CM$6</f>
-        <v>3.25</v>
+        <v>3.3195020746887964</v>
       </c>
       <c r="E9" s="21">
         <f t="shared" ref="E9:E28" si="1">G9/$H$7*20+CM9*$CM$7</f>
@@ -10762,7 +11133,7 @@
       </c>
       <c r="H9" s="14">
         <f t="shared" ref="H9:H21" si="3">H36</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I9" s="110">
         <v>1</v>
@@ -10910,20 +11281,20 @@
       <c r="C10" s="4"/>
       <c r="D10" s="108">
         <f t="shared" si="0"/>
-        <v>2.8854166666666665</v>
+        <v>2.9564315352697097</v>
       </c>
       <c r="E10" s="21">
         <f t="shared" si="1"/>
-        <v>3.8028169014084505</v>
+        <v>3.873239436619718</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="87">
         <f t="shared" si="2"/>
-        <v>13.5</v>
+        <v>13.75</v>
       </c>
       <c r="H10" s="87">
         <f t="shared" si="3"/>
-        <v>34.625</v>
+        <v>35.625</v>
       </c>
       <c r="I10" s="110">
         <v>1</v>
@@ -10973,8 +11344,8 @@
       <c r="AD10" s="91">
         <v>1</v>
       </c>
-      <c r="AE10" s="121">
-        <v>0.5</v>
+      <c r="AE10" s="126">
+        <v>0.75</v>
       </c>
       <c r="AF10" s="91">
         <v>0.875</v>
@@ -11071,7 +11442,7 @@
       <c r="C11" s="119"/>
       <c r="D11" s="108">
         <f t="shared" si="0"/>
-        <v>2.4479166666666665</v>
+        <v>2.4377593360995848</v>
       </c>
       <c r="E11" s="21">
         <f t="shared" si="1"/>
@@ -11232,20 +11603,20 @@
       <c r="C12" s="4"/>
       <c r="D12" s="108">
         <f t="shared" si="0"/>
-        <v>3.229166666666667</v>
+        <v>3.091286307053942</v>
       </c>
       <c r="E12" s="21">
         <f t="shared" si="1"/>
-        <v>4.295774647887324</v>
+        <v>4.154929577464789</v>
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="14">
         <f t="shared" si="2"/>
-        <v>15.25</v>
+        <v>14.75</v>
       </c>
       <c r="H12" s="14">
         <f t="shared" si="3"/>
-        <v>38.75</v>
+        <v>37.25</v>
       </c>
       <c r="I12" s="110">
         <v>1</v>
@@ -11296,7 +11667,7 @@
         <v>1</v>
       </c>
       <c r="AE12" s="74">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AF12" s="126">
         <v>1</v>
@@ -11393,7 +11764,7 @@
       <c r="C13" s="119"/>
       <c r="D13" s="108">
         <f t="shared" si="0"/>
-        <v>3.0166666666666671</v>
+        <v>3.0456431535269712</v>
       </c>
       <c r="E13" s="21">
         <f t="shared" si="1"/>
@@ -11406,7 +11777,7 @@
       </c>
       <c r="H13" s="87">
         <f t="shared" si="3"/>
-        <v>36.200000000000003</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="I13" s="110">
         <v>0</v>
@@ -11554,7 +11925,7 @@
       <c r="C14" s="119"/>
       <c r="D14" s="108">
         <f t="shared" si="0"/>
-        <v>2.458333333333333</v>
+        <v>2.4481327800829873</v>
       </c>
       <c r="E14" s="21">
         <f t="shared" si="1"/>
@@ -11715,7 +12086,7 @@
       <c r="C15" s="4"/>
       <c r="D15" s="108">
         <f t="shared" si="0"/>
-        <v>2.916666666666667</v>
+        <v>2.9875518672199171</v>
       </c>
       <c r="E15" s="21">
         <f t="shared" si="1"/>
@@ -11728,7 +12099,7 @@
       </c>
       <c r="H15" s="14">
         <f t="shared" si="3"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I15" s="110">
         <v>0</v>
@@ -11876,20 +12247,20 @@
       <c r="C16" s="4"/>
       <c r="D16" s="108">
         <f t="shared" si="0"/>
-        <v>2.4270833333333335</v>
+        <v>2.5829875518672201</v>
       </c>
       <c r="E16" s="21">
         <f t="shared" si="1"/>
-        <v>3.4507042253521125</v>
+        <v>3.52112676056338</v>
       </c>
       <c r="F16" s="21"/>
       <c r="G16" s="14">
         <f t="shared" si="2"/>
-        <v>12.25</v>
+        <v>12.5</v>
       </c>
       <c r="H16" s="14">
         <f t="shared" si="3"/>
-        <v>29.125</v>
+        <v>31.125</v>
       </c>
       <c r="I16" s="110">
         <v>0</v>
@@ -11940,7 +12311,7 @@
         <v>1</v>
       </c>
       <c r="AE16" s="126">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AF16" s="126">
         <v>1</v>
@@ -12037,20 +12408,20 @@
       <c r="C17" s="4"/>
       <c r="D17" s="108">
         <f t="shared" si="0"/>
-        <v>2.760416666666667</v>
+        <v>3.2468879668049793</v>
       </c>
       <c r="E17" s="21">
         <f t="shared" si="1"/>
-        <v>3.23943661971831</v>
+        <v>4.225352112676056</v>
       </c>
       <c r="F17" s="21"/>
       <c r="G17" s="14">
         <f t="shared" si="2"/>
-        <v>11.5</v>
+        <v>15</v>
       </c>
       <c r="H17" s="14">
         <f t="shared" si="3"/>
-        <v>33.125</v>
+        <v>39.125</v>
       </c>
       <c r="I17" s="110">
         <v>1</v>
@@ -12103,10 +12474,18 @@
       <c r="AE17" s="74">
         <v>1</v>
       </c>
-      <c r="AF17" s="126"/>
-      <c r="AG17" s="121"/>
-      <c r="AH17" s="67"/>
-      <c r="AI17" s="9"/>
+      <c r="AF17" s="126">
+        <v>0.5</v>
+      </c>
+      <c r="AG17" s="121">
+        <v>1</v>
+      </c>
+      <c r="AH17" s="67">
+        <v>1</v>
+      </c>
+      <c r="AI17" s="9">
+        <v>1</v>
+      </c>
       <c r="AJ17" s="120">
         <v>0.875</v>
       </c>
@@ -12190,20 +12569,20 @@
       <c r="C18" s="4"/>
       <c r="D18" s="108">
         <f t="shared" si="0"/>
-        <v>0.91666666666666663</v>
+        <v>2.4066390041493775</v>
       </c>
       <c r="E18" s="21">
         <f t="shared" si="1"/>
-        <v>1.76056338028169</v>
+        <v>3.52112676056338</v>
       </c>
       <c r="F18" s="21"/>
       <c r="G18" s="14">
         <f t="shared" si="2"/>
-        <v>6.25</v>
+        <v>12.5</v>
       </c>
       <c r="H18" s="14">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="I18" s="110">
         <v>0</v>
@@ -12244,14 +12623,30 @@
       <c r="AA18" s="9">
         <v>99</v>
       </c>
-      <c r="AB18" s="8"/>
-      <c r="AC18" s="85"/>
-      <c r="AD18" s="84"/>
-      <c r="AE18" s="74"/>
-      <c r="AF18" s="126"/>
-      <c r="AG18" s="121"/>
-      <c r="AH18" s="67"/>
-      <c r="AI18" s="9"/>
+      <c r="AB18" s="8">
+        <v>1</v>
+      </c>
+      <c r="AC18" s="85">
+        <v>0.75</v>
+      </c>
+      <c r="AD18" s="84">
+        <v>1</v>
+      </c>
+      <c r="AE18" s="74">
+        <v>0.5</v>
+      </c>
+      <c r="AF18" s="126">
+        <v>1</v>
+      </c>
+      <c r="AG18" s="121">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="67">
+        <v>1</v>
+      </c>
+      <c r="AI18" s="9">
+        <v>1</v>
+      </c>
       <c r="AJ18" s="13">
         <v>1</v>
       </c>
@@ -12332,20 +12727,20 @@
       <c r="C19" s="119"/>
       <c r="D19" s="108">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>2.3651452282157677</v>
       </c>
       <c r="E19" s="21">
         <f t="shared" si="1"/>
-        <v>1.6901408450704225</v>
+        <v>3.52112676056338</v>
       </c>
       <c r="F19" s="21"/>
       <c r="G19" s="87">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>12.5</v>
       </c>
       <c r="H19" s="87">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>28.5</v>
       </c>
       <c r="I19" s="110">
         <v>0</v>
@@ -12386,14 +12781,30 @@
       <c r="AA19" s="91">
         <v>99</v>
       </c>
-      <c r="AB19" s="88"/>
-      <c r="AC19" s="90"/>
-      <c r="AD19" s="91"/>
-      <c r="AE19" s="91"/>
-      <c r="AF19" s="91"/>
-      <c r="AG19" s="91"/>
-      <c r="AH19" s="91"/>
-      <c r="AI19" s="91"/>
+      <c r="AB19" s="88">
+        <v>1</v>
+      </c>
+      <c r="AC19" s="90">
+        <v>0.75</v>
+      </c>
+      <c r="AD19" s="91">
+        <v>1</v>
+      </c>
+      <c r="AE19" s="91">
+        <v>1</v>
+      </c>
+      <c r="AF19" s="91">
+        <v>0.75</v>
+      </c>
+      <c r="AG19" s="91">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="91">
+        <v>1</v>
+      </c>
+      <c r="AI19" s="91">
+        <v>1</v>
+      </c>
       <c r="AJ19" s="88">
         <v>1</v>
       </c>
@@ -12477,7 +12888,7 @@
       <c r="C20" s="119"/>
       <c r="D20" s="108">
         <f t="shared" si="0"/>
-        <v>0.4375</v>
+        <v>0.43568464730290457</v>
       </c>
       <c r="E20" s="21">
         <f t="shared" si="1"/>
@@ -12644,20 +13055,20 @@
       <c r="C21" s="4"/>
       <c r="D21" s="108">
         <f t="shared" si="0"/>
-        <v>0.70833333333333326</v>
+        <v>2.3029045643153525</v>
       </c>
       <c r="E21" s="21">
         <f t="shared" si="1"/>
-        <v>1.4788732394366197</v>
+        <v>2.887323943661972</v>
       </c>
       <c r="F21" s="21"/>
       <c r="G21" s="14">
         <f t="shared" si="2"/>
-        <v>5.25</v>
+        <v>10.25</v>
       </c>
       <c r="H21" s="14">
         <f t="shared" si="3"/>
-        <v>8.5</v>
+        <v>27.75</v>
       </c>
       <c r="I21" s="110">
         <v>1</v>
@@ -12698,14 +13109,30 @@
       <c r="AA21" s="9">
         <v>99</v>
       </c>
-      <c r="AB21" s="8"/>
-      <c r="AC21" s="65"/>
-      <c r="AD21" s="9"/>
-      <c r="AE21" s="74"/>
-      <c r="AF21" s="126"/>
-      <c r="AG21" s="121"/>
-      <c r="AH21" s="67"/>
-      <c r="AI21" s="9"/>
+      <c r="AB21" s="8">
+        <v>1</v>
+      </c>
+      <c r="AC21" s="65">
+        <v>1</v>
+      </c>
+      <c r="AD21" s="9">
+        <v>1</v>
+      </c>
+      <c r="AE21" s="74">
+        <v>1</v>
+      </c>
+      <c r="AF21" s="126">
+        <v>0.25</v>
+      </c>
+      <c r="AG21" s="121">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="67">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="126">
+        <v>0.75</v>
+      </c>
       <c r="AJ21" s="13">
         <v>1.25</v>
       </c>
@@ -12789,7 +13216,7 @@
       <c r="C22" s="119"/>
       <c r="D22" s="108">
         <f t="shared" si="0"/>
-        <v>1.1666666666666667</v>
+        <v>1.1618257261410789</v>
       </c>
       <c r="E22" s="21">
         <f t="shared" si="1"/>
@@ -12843,14 +13270,30 @@
       <c r="AA22" s="67">
         <v>99</v>
       </c>
-      <c r="AB22" s="69"/>
-      <c r="AC22" s="85"/>
-      <c r="AD22" s="84"/>
-      <c r="AE22" s="74"/>
-      <c r="AF22" s="126"/>
-      <c r="AG22" s="121"/>
-      <c r="AH22" s="67"/>
-      <c r="AI22" s="67"/>
+      <c r="AB22" s="69">
+        <v>0.75</v>
+      </c>
+      <c r="AC22" s="90">
+        <v>0.75</v>
+      </c>
+      <c r="AD22" s="84">
+        <v>1</v>
+      </c>
+      <c r="AE22" s="74">
+        <v>1</v>
+      </c>
+      <c r="AF22" s="126">
+        <v>1</v>
+      </c>
+      <c r="AG22" s="121">
+        <v>0</v>
+      </c>
+      <c r="AH22" s="67">
+        <v>1</v>
+      </c>
+      <c r="AI22" s="67">
+        <v>1</v>
+      </c>
       <c r="AJ22" s="69">
         <v>1</v>
       </c>
@@ -12988,14 +13431,30 @@
       <c r="AA23" s="91">
         <v>99</v>
       </c>
-      <c r="AB23" s="88"/>
-      <c r="AC23" s="85"/>
-      <c r="AD23" s="84"/>
-      <c r="AE23" s="91"/>
-      <c r="AF23" s="91"/>
-      <c r="AG23" s="91"/>
-      <c r="AH23" s="91"/>
-      <c r="AI23" s="91"/>
+      <c r="AB23" s="88">
+        <v>1</v>
+      </c>
+      <c r="AC23" s="85">
+        <v>0.5</v>
+      </c>
+      <c r="AD23" s="84">
+        <v>1</v>
+      </c>
+      <c r="AE23" s="126">
+        <v>0.75</v>
+      </c>
+      <c r="AF23" s="91">
+        <v>1</v>
+      </c>
+      <c r="AG23" s="91">
+        <v>0</v>
+      </c>
+      <c r="AH23" s="126">
+        <v>0</v>
+      </c>
+      <c r="AI23" s="126">
+        <v>0.75</v>
+      </c>
       <c r="AJ23" s="120">
         <v>0.875</v>
       </c>
@@ -13133,13 +13592,23 @@
       <c r="AA24" s="91">
         <v>99</v>
       </c>
-      <c r="AB24" s="88"/>
-      <c r="AC24" s="90"/>
-      <c r="AD24" s="91"/>
+      <c r="AB24" s="88">
+        <v>1</v>
+      </c>
+      <c r="AC24" s="90">
+        <v>0.125</v>
+      </c>
+      <c r="AD24" s="91">
+        <v>1</v>
+      </c>
       <c r="AE24" s="91"/>
-      <c r="AF24" s="91"/>
+      <c r="AF24" s="126">
+        <v>0.5</v>
+      </c>
       <c r="AG24" s="91"/>
-      <c r="AH24" s="91"/>
+      <c r="AH24" s="91">
+        <v>0</v>
+      </c>
       <c r="AI24" s="91"/>
       <c r="AJ24" s="88">
         <v>1</v>
@@ -14275,7 +14744,7 @@
       </c>
       <c r="H33" s="14">
         <f t="shared" ref="H33" si="10">H60</f>
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I33" s="69">
         <v>1</v>
@@ -14606,35 +15075,35 @@
       </c>
       <c r="AB34" s="71">
         <f t="shared" si="11"/>
-        <v>0.9</v>
+        <v>0.921875</v>
       </c>
       <c r="AC34" s="71">
         <f t="shared" si="11"/>
-        <v>0.82750000000000001</v>
+        <v>0.75937500000000002</v>
       </c>
       <c r="AD34" s="71">
         <f t="shared" si="11"/>
-        <v>0.85</v>
+        <v>0.90625</v>
       </c>
       <c r="AE34" s="79">
         <f t="shared" si="11"/>
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="AF34" s="127">
         <f t="shared" ref="AF34:AG34" si="12">AVERAGE(AF9:AF32)</f>
-        <v>0.875</v>
+        <v>0.8046875</v>
       </c>
       <c r="AG34" s="122">
         <f t="shared" si="12"/>
-        <v>0.44444444444444442</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AH34" s="71">
         <f t="shared" si="11"/>
-        <v>0.77777777777777779</v>
+        <v>0.6875</v>
       </c>
       <c r="AI34" s="71">
         <f t="shared" si="11"/>
-        <v>0.86111111111111116</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="AJ34" s="71">
         <f t="shared" si="11"/>
@@ -14864,7 +15333,7 @@
     <row r="36" spans="1:91" x14ac:dyDescent="0.25">
       <c r="H36" s="2">
         <f t="shared" ref="H36:H60" si="22">SUM(I36:CK36)</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I36" s="2">
         <f t="shared" ref="I36:AJ36" si="23">I9*I$6</f>
@@ -14964,7 +15433,7 @@
       </c>
       <c r="AG36" s="122">
         <f t="shared" si="24"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH36" s="71">
         <f t="shared" si="23"/>
@@ -15202,7 +15671,7 @@
     <row r="37" spans="1:91" x14ac:dyDescent="0.25">
       <c r="H37" s="117">
         <f t="shared" si="22"/>
-        <v>34.625</v>
+        <v>35.625</v>
       </c>
       <c r="I37" s="117">
         <f t="shared" ref="I37:BA37" si="34">I10*I$6</f>
@@ -15294,7 +15763,7 @@
       </c>
       <c r="AE37" s="117">
         <f t="shared" si="34"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF37" s="127">
         <f t="shared" ref="AF37:AG37" si="35">AF10*AF$6</f>
@@ -15878,7 +16347,7 @@
     <row r="39" spans="1:91" x14ac:dyDescent="0.25">
       <c r="H39" s="117">
         <f t="shared" si="22"/>
-        <v>38.75</v>
+        <v>37.25</v>
       </c>
       <c r="I39" s="117">
         <f t="shared" ref="I39:BA39" si="42">I12*I$6</f>
@@ -15970,7 +16439,7 @@
       </c>
       <c r="AE39" s="117">
         <f t="shared" si="42"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AF39" s="127">
         <f t="shared" ref="AF39:AG39" si="43">AF12*AF$6</f>
@@ -15978,7 +16447,7 @@
       </c>
       <c r="AG39" s="122">
         <f t="shared" si="43"/>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AH39" s="117">
         <f t="shared" si="42"/>
@@ -16216,7 +16685,7 @@
     <row r="40" spans="1:91" x14ac:dyDescent="0.25">
       <c r="H40" s="117">
         <f t="shared" si="22"/>
-        <v>36.200000000000003</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="I40" s="117">
         <f t="shared" ref="I40:BA40" si="46">I13*I$6</f>
@@ -16316,7 +16785,7 @@
       </c>
       <c r="AG40" s="122">
         <f t="shared" si="47"/>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AH40" s="117">
         <f t="shared" si="46"/>
@@ -16892,7 +17361,7 @@
     <row r="42" spans="1:91" x14ac:dyDescent="0.25">
       <c r="H42" s="117">
         <f t="shared" si="22"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I42" s="117">
         <f t="shared" ref="I42:BA42" si="54">I15*I$6</f>
@@ -16992,7 +17461,7 @@
       </c>
       <c r="AG42" s="122">
         <f t="shared" si="55"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH42" s="117">
         <f t="shared" si="54"/>
@@ -17230,7 +17699,7 @@
     <row r="43" spans="1:91" x14ac:dyDescent="0.25">
       <c r="H43" s="117">
         <f t="shared" si="22"/>
-        <v>29.125</v>
+        <v>31.125</v>
       </c>
       <c r="I43" s="117">
         <f t="shared" ref="I43:BA43" si="58">I16*I$6</f>
@@ -17322,7 +17791,7 @@
       </c>
       <c r="AE43" s="117">
         <f t="shared" si="58"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF43" s="127">
         <f t="shared" ref="AF43:AG43" si="59">AF16*AF$6</f>
@@ -17330,7 +17799,7 @@
       </c>
       <c r="AG43" s="122">
         <f t="shared" si="59"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH43" s="117">
         <f t="shared" si="58"/>
@@ -17568,7 +18037,7 @@
     <row r="44" spans="1:91" x14ac:dyDescent="0.25">
       <c r="H44" s="117">
         <f t="shared" si="22"/>
-        <v>33.125</v>
+        <v>39.125</v>
       </c>
       <c r="I44" s="117">
         <f t="shared" ref="I44:BA44" si="62">I17*I$6</f>
@@ -17664,19 +18133,19 @@
       </c>
       <c r="AF44" s="127">
         <f t="shared" ref="AF44:AG44" si="63">AF17*AF$6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG44" s="122">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH44" s="117">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI44" s="117">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ44" s="117">
         <f t="shared" si="62"/>
@@ -17906,7 +18375,7 @@
     <row r="45" spans="1:91" x14ac:dyDescent="0.25">
       <c r="H45" s="117">
         <f t="shared" si="22"/>
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="I45" s="117">
         <f t="shared" ref="I45:BA45" si="66">I18*I$6</f>
@@ -17986,23 +18455,23 @@
       </c>
       <c r="AB45" s="117">
         <f t="shared" si="66"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC45" s="117">
         <f t="shared" si="66"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AD45" s="117">
         <f t="shared" si="66"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AE45" s="117">
         <f t="shared" si="66"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF45" s="127">
         <f t="shared" ref="AF45:AG45" si="67">AF18*AF$6</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG45" s="122">
         <f t="shared" si="67"/>
@@ -18010,11 +18479,11 @@
       </c>
       <c r="AH45" s="117">
         <f t="shared" si="66"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI45" s="117">
         <f t="shared" si="66"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ45" s="117">
         <f t="shared" si="66"/>
@@ -18244,7 +18713,7 @@
     <row r="46" spans="1:91" x14ac:dyDescent="0.25">
       <c r="H46" s="117">
         <f t="shared" si="22"/>
-        <v>9</v>
+        <v>28.5</v>
       </c>
       <c r="I46" s="117">
         <f t="shared" ref="I46:BA46" si="70">I19*I$6</f>
@@ -18324,23 +18793,23 @@
       </c>
       <c r="AB46" s="117">
         <f t="shared" si="70"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC46" s="117">
         <f t="shared" si="70"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AD46" s="117">
         <f t="shared" si="70"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AE46" s="117">
         <f t="shared" si="70"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AF46" s="127">
         <f t="shared" ref="AF46:AG46" si="71">AF19*AF$6</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AG46" s="122">
         <f t="shared" si="71"/>
@@ -18348,11 +18817,11 @@
       </c>
       <c r="AH46" s="117">
         <f t="shared" si="70"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI46" s="117">
         <f t="shared" si="70"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ46" s="117">
         <f t="shared" si="70"/>
@@ -18920,7 +19389,7 @@
     <row r="48" spans="1:91" x14ac:dyDescent="0.25">
       <c r="H48" s="117">
         <f t="shared" si="22"/>
-        <v>8.5</v>
+        <v>27.75</v>
       </c>
       <c r="I48" s="117">
         <f t="shared" ref="I48:BA48" si="78">I21*I$6</f>
@@ -19000,23 +19469,23 @@
       </c>
       <c r="AB48" s="117">
         <f t="shared" si="78"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC48" s="117">
         <f t="shared" si="78"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD48" s="117">
         <f t="shared" si="78"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AE48" s="117">
         <f t="shared" si="78"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AF48" s="127">
         <f t="shared" ref="AF48:AG48" si="79">AF21*AF$6</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AG48" s="122">
         <f t="shared" si="79"/>
@@ -19028,7 +19497,7 @@
       </c>
       <c r="AI48" s="117">
         <f t="shared" si="78"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AJ48" s="117">
         <f t="shared" si="78"/>
@@ -19261,7 +19730,7 @@
       <c r="F49" s="18"/>
       <c r="H49" s="117">
         <f t="shared" si="22"/>
-        <v>16</v>
+        <v>35.5</v>
       </c>
       <c r="I49" s="117">
         <f t="shared" ref="I49:BA49" si="82">I22*I$6</f>
@@ -19341,23 +19810,23 @@
       </c>
       <c r="AB49" s="117">
         <f t="shared" si="82"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AC49" s="117">
         <f t="shared" si="82"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AD49" s="117">
         <f t="shared" si="82"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AE49" s="117">
         <f t="shared" si="82"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AF49" s="127">
         <f t="shared" ref="AF49:AG49" si="83">AF22*AF$6</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG49" s="122">
         <f t="shared" si="83"/>
@@ -19365,11 +19834,11 @@
       </c>
       <c r="AH49" s="117">
         <f t="shared" si="82"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI49" s="117">
         <f t="shared" si="82"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ49" s="117">
         <f t="shared" si="82"/>
@@ -19602,7 +20071,7 @@
       <c r="F50" s="18"/>
       <c r="H50" s="117">
         <f t="shared" si="22"/>
-        <v>7.875</v>
+        <v>23.625</v>
       </c>
       <c r="I50" s="117">
         <f t="shared" ref="I50:BA50" si="86">I23*I$6</f>
@@ -19682,23 +20151,23 @@
       </c>
       <c r="AB50" s="117">
         <f t="shared" si="86"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC50" s="117">
         <f t="shared" si="86"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AD50" s="117">
         <f t="shared" si="86"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AE50" s="117">
         <f t="shared" si="86"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AF50" s="127">
         <f t="shared" ref="AF50:AG50" si="87">AF23*AF$6</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG50" s="122">
         <f t="shared" si="87"/>
@@ -19710,7 +20179,7 @@
       </c>
       <c r="AI50" s="117">
         <f t="shared" si="86"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AJ50" s="117">
         <f t="shared" si="86"/>
@@ -19943,7 +20412,7 @@
       <c r="F51" s="18"/>
       <c r="H51" s="117">
         <f t="shared" si="22"/>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="I51" s="117">
         <f t="shared" ref="I51:BA51" si="90">I24*I$6</f>
@@ -20023,15 +20492,15 @@
       </c>
       <c r="AB51" s="117">
         <f t="shared" si="90"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC51" s="117">
         <f t="shared" si="90"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD51" s="117">
         <f t="shared" si="90"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AE51" s="117">
         <f t="shared" si="90"/>
@@ -20039,7 +20508,7 @@
       </c>
       <c r="AF51" s="127">
         <f t="shared" ref="AF51:AG51" si="91">AF24*AF$6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG51" s="122">
         <f t="shared" si="91"/>
@@ -23009,7 +23478,7 @@
       <c r="F60" s="18"/>
       <c r="H60" s="117">
         <f t="shared" si="22"/>
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I60" s="117">
         <f t="shared" ref="I60:BA60" si="126">I33*I$6</f>
@@ -23109,7 +23578,7 @@
       </c>
       <c r="AG60" s="122">
         <f t="shared" si="127"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH60" s="117">
         <f t="shared" si="126"/>
@@ -23791,7 +24260,7 @@
     <row r="66" spans="4:91" x14ac:dyDescent="0.25">
       <c r="H66" s="117">
         <f t="shared" si="130"/>
-        <v>13.5</v>
+        <v>13.75</v>
       </c>
       <c r="I66" s="117">
         <f t="shared" ref="I66:BW66" si="139">I10*I$7</f>
@@ -23883,7 +24352,7 @@
       </c>
       <c r="AE66" s="117">
         <f t="shared" si="139"/>
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AF66" s="127">
         <f t="shared" ref="AF66:AG66" si="140">AF10*AF$7</f>
@@ -24467,7 +24936,7 @@
     <row r="68" spans="4:91" x14ac:dyDescent="0.25">
       <c r="H68" s="117">
         <f t="shared" si="130"/>
-        <v>15.25</v>
+        <v>14.75</v>
       </c>
       <c r="I68" s="117">
         <f t="shared" ref="I68:BW68" si="147">I12*I$7</f>
@@ -24559,7 +25028,7 @@
       </c>
       <c r="AE68" s="117">
         <f t="shared" si="147"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AF68" s="127">
         <f t="shared" ref="AF68:AG68" si="148">AF12*AF$7</f>
@@ -25819,7 +26288,7 @@
     <row r="72" spans="4:91" x14ac:dyDescent="0.25">
       <c r="H72" s="117">
         <f t="shared" si="130"/>
-        <v>12.25</v>
+        <v>12.5</v>
       </c>
       <c r="I72" s="117">
         <f t="shared" ref="I72:BW72" si="163">I16*I$7</f>
@@ -25911,7 +26380,7 @@
       </c>
       <c r="AE72" s="117">
         <f t="shared" si="163"/>
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AF72" s="127">
         <f t="shared" ref="AF72:AG72" si="164">AF16*AF$7</f>
@@ -26157,7 +26626,7 @@
     <row r="73" spans="4:91" x14ac:dyDescent="0.25">
       <c r="H73" s="117">
         <f t="shared" si="130"/>
-        <v>11.5</v>
+        <v>15</v>
       </c>
       <c r="I73" s="117">
         <f t="shared" ref="I73:BW73" si="167">I17*I$7</f>
@@ -26253,19 +26722,19 @@
       </c>
       <c r="AF73" s="127">
         <f t="shared" ref="AF73:AG73" si="168">AF17*AF$7</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AG73" s="122">
         <f t="shared" si="168"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH73" s="117">
         <f t="shared" si="167"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI73" s="117">
         <f t="shared" si="167"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ73" s="117">
         <f t="shared" si="167"/>
@@ -26495,7 +26964,7 @@
     <row r="74" spans="4:91" x14ac:dyDescent="0.25">
       <c r="H74" s="117">
         <f t="shared" si="130"/>
-        <v>6.25</v>
+        <v>12.5</v>
       </c>
       <c r="I74" s="117">
         <f t="shared" ref="I74:BW74" si="171">I18*I$7</f>
@@ -26575,23 +27044,23 @@
       </c>
       <c r="AB74" s="117">
         <f t="shared" si="171"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC74" s="117">
         <f t="shared" si="171"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AD74" s="117">
         <f t="shared" si="171"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE74" s="117">
         <f t="shared" si="171"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AF74" s="127">
         <f t="shared" ref="AF74:AG74" si="172">AF18*AF$7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG74" s="122">
         <f t="shared" si="172"/>
@@ -26599,11 +27068,11 @@
       </c>
       <c r="AH74" s="117">
         <f t="shared" si="171"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI74" s="117">
         <f t="shared" si="171"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ74" s="117">
         <f t="shared" si="171"/>
@@ -26833,7 +27302,7 @@
     <row r="75" spans="4:91" x14ac:dyDescent="0.25">
       <c r="H75" s="117">
         <f t="shared" si="130"/>
-        <v>6</v>
+        <v>12.5</v>
       </c>
       <c r="I75" s="117">
         <f t="shared" ref="I75:BW75" si="175">I19*I$7</f>
@@ -26913,23 +27382,23 @@
       </c>
       <c r="AB75" s="117">
         <f t="shared" si="175"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC75" s="117">
         <f t="shared" si="175"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AD75" s="117">
         <f t="shared" si="175"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE75" s="117">
         <f t="shared" si="175"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF75" s="127">
         <f t="shared" ref="AF75:AG75" si="176">AF19*AF$7</f>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AG75" s="122">
         <f t="shared" si="176"/>
@@ -26937,11 +27406,11 @@
       </c>
       <c r="AH75" s="117">
         <f t="shared" si="175"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI75" s="117">
         <f t="shared" si="175"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ75" s="117">
         <f t="shared" si="175"/>
@@ -27509,7 +27978,7 @@
     <row r="77" spans="4:91" x14ac:dyDescent="0.25">
       <c r="H77" s="117">
         <f t="shared" si="130"/>
-        <v>5.25</v>
+        <v>10.25</v>
       </c>
       <c r="I77" s="117">
         <f t="shared" ref="I77:BW77" si="183">I21*I$7</f>
@@ -27589,23 +28058,23 @@
       </c>
       <c r="AB77" s="117">
         <f t="shared" si="183"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC77" s="117">
         <f t="shared" si="183"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD77" s="117">
         <f t="shared" si="183"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE77" s="117">
         <f t="shared" si="183"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF77" s="127">
         <f t="shared" ref="AF77:AG77" si="184">AF21*AF$7</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AG77" s="122">
         <f t="shared" si="184"/>
@@ -27617,7 +28086,7 @@
       </c>
       <c r="AI77" s="117">
         <f t="shared" si="183"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AJ77" s="117">
         <f t="shared" si="183"/>
@@ -27850,7 +28319,7 @@
       <c r="F78" s="18"/>
       <c r="H78" s="117">
         <f t="shared" si="130"/>
-        <v>8</v>
+        <v>14.5</v>
       </c>
       <c r="I78" s="117">
         <f t="shared" ref="I78:BW78" si="187">I22*I$7</f>
@@ -27930,23 +28399,23 @@
       </c>
       <c r="AB78" s="117">
         <f t="shared" si="187"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AC78" s="117">
         <f t="shared" si="187"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AD78" s="117">
         <f t="shared" si="187"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE78" s="117">
         <f t="shared" si="187"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF78" s="127">
         <f t="shared" ref="AF78:AG78" si="188">AF22*AF$7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG78" s="122">
         <f t="shared" si="188"/>
@@ -27954,11 +28423,11 @@
       </c>
       <c r="AH78" s="117">
         <f t="shared" si="187"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI78" s="117">
         <f t="shared" si="187"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ78" s="117">
         <f t="shared" si="187"/>
@@ -28191,7 +28660,7 @@
       <c r="F79" s="18"/>
       <c r="H79" s="117">
         <f t="shared" si="130"/>
-        <v>4.75</v>
+        <v>9.75</v>
       </c>
       <c r="I79" s="117">
         <f t="shared" ref="I79:BW79" si="191">I23*I$7</f>
@@ -28271,23 +28740,23 @@
       </c>
       <c r="AB79" s="117">
         <f t="shared" si="191"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC79" s="117">
         <f t="shared" si="191"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AD79" s="117">
         <f t="shared" si="191"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE79" s="117">
         <f t="shared" si="191"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AF79" s="127">
         <f t="shared" ref="AF79:AG79" si="192">AF23*AF$7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG79" s="122">
         <f t="shared" si="192"/>
@@ -28299,7 +28768,7 @@
       </c>
       <c r="AI79" s="117">
         <f t="shared" si="191"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AJ79" s="117">
         <f t="shared" si="191"/>
@@ -28532,7 +29001,7 @@
       <c r="F80" s="18"/>
       <c r="H80" s="117">
         <f t="shared" si="130"/>
-        <v>4.375</v>
+        <v>7</v>
       </c>
       <c r="I80" s="117">
         <f t="shared" ref="I80:BW80" si="195">I24*I$7</f>
@@ -28612,15 +29081,15 @@
       </c>
       <c r="AB80" s="117">
         <f t="shared" si="195"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC80" s="117">
         <f t="shared" si="195"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="AD80" s="117">
         <f t="shared" si="195"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE80" s="117">
         <f t="shared" si="195"/>
@@ -28628,7 +29097,7 @@
       </c>
       <c r="AF80" s="127">
         <f t="shared" ref="AF80:AG80" si="196">AF24*AF$7</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AG80" s="122">
         <f t="shared" si="196"/>
@@ -32061,197 +32530,262 @@
     <mergeCell ref="AM4:AM5"/>
   </mergeCells>
   <conditionalFormatting sqref="D9:F23 D32:F33">
-    <cfRule type="cellIs" dxfId="812" priority="958" operator="between">
+    <cfRule type="cellIs" dxfId="827" priority="973" operator="between">
       <formula>8</formula>
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="811" priority="959" operator="lessThan">
+    <cfRule type="cellIs" dxfId="826" priority="974" operator="lessThan">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CM9:CM21 CA9:CC23 AP22:AP23 BX9:BY23 AS9:AV23 CI9:CK23 CI32:CK33 J32:AD33 AS32:AV33 BX32:BY33 CA32:CC33 AH32:AL33 AN32:AP33 AN9:AO23 AH9:AL23 J9:AD23">
-    <cfRule type="cellIs" dxfId="810" priority="953" operator="equal">
+  <conditionalFormatting sqref="CM9:CM21 CA9:CC23 AP22:AP23 BX9:BY23 AS9:AV23 CI9:CK23 CI32:CK33 J32:AD33 AS32:AV33 BX32:BY33 CA32:CC33 AH32:AL33 AN32:AP33 AN9:AO23 J9:AD23 AH9:AL23">
+    <cfRule type="cellIs" dxfId="825" priority="968" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="809" priority="954" operator="between">
+    <cfRule type="cellIs" dxfId="824" priority="969" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="808" priority="955" operator="between">
+    <cfRule type="cellIs" dxfId="823" priority="970" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP9:AP21">
-    <cfRule type="cellIs" dxfId="807" priority="947" operator="equal">
+    <cfRule type="cellIs" dxfId="822" priority="962" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="806" priority="948" operator="between">
+    <cfRule type="cellIs" dxfId="821" priority="963" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="805" priority="949" operator="between">
+    <cfRule type="cellIs" dxfId="820" priority="964" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ9:AQ19 AQ21">
-    <cfRule type="cellIs" dxfId="804" priority="929" operator="equal">
+    <cfRule type="cellIs" dxfId="819" priority="944" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="803" priority="930" operator="between">
+    <cfRule type="cellIs" dxfId="818" priority="945" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="802" priority="931" operator="between">
+    <cfRule type="cellIs" dxfId="817" priority="946" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ22:AQ23 AQ33">
-    <cfRule type="cellIs" dxfId="801" priority="926" operator="equal">
+    <cfRule type="cellIs" dxfId="816" priority="941" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="800" priority="927" operator="between">
+    <cfRule type="cellIs" dxfId="815" priority="942" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="799" priority="928" operator="between">
+    <cfRule type="cellIs" dxfId="814" priority="943" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE9 AE17:AE23 AE32:AE33 AE11:AE14">
-    <cfRule type="cellIs" dxfId="798" priority="902" operator="equal">
+  <conditionalFormatting sqref="AE9 AE17:AE22 AE32:AE33 AE11:AE14">
+    <cfRule type="cellIs" dxfId="813" priority="917" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="797" priority="903" operator="between">
+    <cfRule type="cellIs" dxfId="812" priority="918" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="796" priority="904" operator="between">
+    <cfRule type="cellIs" dxfId="811" priority="919" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BZ9:BZ23 BZ33">
-    <cfRule type="cellIs" dxfId="795" priority="887" operator="equal">
+    <cfRule type="cellIs" dxfId="810" priority="902" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="794" priority="888" operator="between">
+    <cfRule type="cellIs" dxfId="809" priority="903" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="793" priority="889" operator="between">
+    <cfRule type="cellIs" dxfId="808" priority="904" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE15">
-    <cfRule type="cellIs" dxfId="792" priority="881" operator="equal">
+    <cfRule type="cellIs" dxfId="807" priority="896" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="791" priority="882" operator="between">
+    <cfRule type="cellIs" dxfId="806" priority="897" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="790" priority="883" operator="between">
+    <cfRule type="cellIs" dxfId="805" priority="898" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR9:AR19 AR21">
-    <cfRule type="cellIs" dxfId="789" priority="872" operator="equal">
+    <cfRule type="cellIs" dxfId="804" priority="887" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="788" priority="873" operator="between">
+    <cfRule type="cellIs" dxfId="803" priority="888" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="787" priority="874" operator="between">
+    <cfRule type="cellIs" dxfId="802" priority="889" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR22:AR23 AR33">
-    <cfRule type="cellIs" dxfId="786" priority="869" operator="equal">
+    <cfRule type="cellIs" dxfId="801" priority="884" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="785" priority="870" operator="between">
+    <cfRule type="cellIs" dxfId="800" priority="885" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="784" priority="871" operator="between">
+    <cfRule type="cellIs" dxfId="799" priority="886" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ20">
-    <cfRule type="cellIs" dxfId="783" priority="842" operator="equal">
+    <cfRule type="cellIs" dxfId="798" priority="857" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="782" priority="843" operator="between">
+    <cfRule type="cellIs" dxfId="797" priority="858" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="781" priority="844" operator="between">
+    <cfRule type="cellIs" dxfId="796" priority="859" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR20">
-    <cfRule type="cellIs" dxfId="780" priority="836" operator="equal">
+    <cfRule type="cellIs" dxfId="795" priority="851" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="779" priority="837" operator="between">
+    <cfRule type="cellIs" dxfId="794" priority="852" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="778" priority="838" operator="between">
+    <cfRule type="cellIs" dxfId="793" priority="853" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ32">
-    <cfRule type="cellIs" dxfId="777" priority="830" operator="equal">
+    <cfRule type="cellIs" dxfId="792" priority="845" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="776" priority="831" operator="between">
+    <cfRule type="cellIs" dxfId="791" priority="846" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="775" priority="832" operator="between">
+    <cfRule type="cellIs" dxfId="790" priority="847" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR32">
-    <cfRule type="cellIs" dxfId="774" priority="824" operator="equal">
+    <cfRule type="cellIs" dxfId="789" priority="839" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="773" priority="825" operator="between">
+    <cfRule type="cellIs" dxfId="788" priority="840" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="772" priority="826" operator="between">
+    <cfRule type="cellIs" dxfId="787" priority="841" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CL9:CL21">
-    <cfRule type="cellIs" dxfId="771" priority="806" operator="equal">
+    <cfRule type="cellIs" dxfId="786" priority="821" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="770" priority="807" operator="between">
+    <cfRule type="cellIs" dxfId="785" priority="822" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="769" priority="808" operator="between">
+    <cfRule type="cellIs" dxfId="784" priority="823" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BZ32">
+    <cfRule type="cellIs" dxfId="783" priority="815" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="782" priority="816" operator="between">
+      <formula>0.01</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="781" priority="817" operator="between">
+      <formula>0.26</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BC9:BE23 AW9:AW23 BG9:BH23 AZ9:AZ23 AZ32:AZ33 BG32:BH33 AW32:AW33 BC32:BE33">
+    <cfRule type="cellIs" dxfId="780" priority="812" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="779" priority="813" operator="between">
+      <formula>0.01</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="778" priority="814" operator="between">
+      <formula>0.26</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BA9:BA23 BA33">
+    <cfRule type="cellIs" dxfId="777" priority="809" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="776" priority="810" operator="between">
+      <formula>0.01</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="775" priority="811" operator="between">
+      <formula>0.26</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BA32">
+    <cfRule type="cellIs" dxfId="774" priority="806" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="773" priority="807" operator="between">
+      <formula>0.01</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="772" priority="808" operator="between">
+      <formula>0.26</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BL9:BO23 BI9:BJ23 BQ9:BQ23 BQ32:BQ33 BI32:BJ33 BL32:BO33">
+    <cfRule type="cellIs" dxfId="771" priority="803" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="770" priority="804" operator="between">
+      <formula>0.01</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="769" priority="805" operator="between">
+      <formula>0.26</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BK9:BK23 BK33">
     <cfRule type="cellIs" dxfId="768" priority="800" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32264,7 +32798,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BC9:BE23 AW9:AW23 BG9:BH23 AZ9:AZ23 AZ32:AZ33 BG32:BH33 AW32:AW33 BC32:BE33">
+  <conditionalFormatting sqref="BK32">
     <cfRule type="cellIs" dxfId="765" priority="797" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32277,7 +32811,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BA9:BA23 BA33">
+  <conditionalFormatting sqref="BU9:BW23 BR9:BS23 BR32:BS33 BU32:BW33">
     <cfRule type="cellIs" dxfId="762" priority="794" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32290,7 +32824,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BA32">
+  <conditionalFormatting sqref="BT9:BT23 BT33">
     <cfRule type="cellIs" dxfId="759" priority="791" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32303,7 +32837,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BL9:BO23 BI9:BJ23 BQ9:BQ23 BQ32:BQ33 BI32:BJ33 BL32:BO33">
+  <conditionalFormatting sqref="BT32">
     <cfRule type="cellIs" dxfId="756" priority="788" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32316,7 +32850,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BK9:BK23 BK33">
+  <conditionalFormatting sqref="BB9:BB23 BB32:BB33">
     <cfRule type="cellIs" dxfId="753" priority="785" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32329,7 +32863,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BK32">
+  <conditionalFormatting sqref="BF9:BF23 BF32:BF33">
     <cfRule type="cellIs" dxfId="750" priority="782" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32342,7 +32876,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BU9:BW23 BR9:BS23 BR32:BS33 BU32:BW33">
+  <conditionalFormatting sqref="BP9:BP23 BP32:BP33">
     <cfRule type="cellIs" dxfId="747" priority="779" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32355,7 +32889,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BT9:BT23 BT33">
+  <conditionalFormatting sqref="AY9:AY23 AY32:AY33">
     <cfRule type="cellIs" dxfId="744" priority="776" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32368,7 +32902,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BT32">
+  <conditionalFormatting sqref="AX9:AX23 AX32:AX33">
     <cfRule type="cellIs" dxfId="741" priority="773" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32381,7 +32915,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BB9:BB23 BB32:BB33">
+  <conditionalFormatting sqref="CD9:CD23 CD32:CD33">
     <cfRule type="cellIs" dxfId="738" priority="770" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32394,7 +32928,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BF9:BF23 BF32:BF33">
+  <conditionalFormatting sqref="CE9:CE23 CE32:CE33">
     <cfRule type="cellIs" dxfId="735" priority="767" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32407,7 +32941,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BP9:BP23 BP32:BP33">
+  <conditionalFormatting sqref="CF9:CF23 CF32:CF33">
     <cfRule type="cellIs" dxfId="732" priority="764" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32420,7 +32954,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY9:AY23 AY32:AY33">
+  <conditionalFormatting sqref="CG9:CG23 CG32:CG33">
     <cfRule type="cellIs" dxfId="729" priority="761" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32433,7 +32967,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX9:AX23 AX32:AX33">
+  <conditionalFormatting sqref="CH9:CH23 CH32:CH33">
     <cfRule type="cellIs" dxfId="726" priority="758" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32446,7 +32980,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CD9:CD23 CD32:CD33">
+  <conditionalFormatting sqref="CM22:CM23 CM32">
     <cfRule type="cellIs" dxfId="723" priority="755" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32459,7 +32993,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CE9:CE23 CE32:CE33">
+  <conditionalFormatting sqref="CL22:CL23 CL32">
     <cfRule type="cellIs" dxfId="720" priority="752" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32472,7 +33006,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CF9:CF23 CF32:CF33">
+  <conditionalFormatting sqref="I9:I23 I32">
     <cfRule type="cellIs" dxfId="717" priority="749" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32485,81 +33019,81 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CG9:CG23 CG32:CG33">
-    <cfRule type="cellIs" dxfId="714" priority="746" operator="equal">
+  <conditionalFormatting sqref="D24:F24">
+    <cfRule type="cellIs" dxfId="714" priority="747" operator="between">
+      <formula>8</formula>
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="713" priority="748" operator="lessThan">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CI24:CK24 J24:AD24 AS24:AV24 BX24:BY24 CA24:CC24 AH24:AL24 AN24 AP24">
+    <cfRule type="cellIs" dxfId="712" priority="744" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="713" priority="747" operator="between">
+    <cfRule type="cellIs" dxfId="711" priority="745" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="712" priority="748" operator="between">
+    <cfRule type="cellIs" dxfId="710" priority="746" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CH9:CH23 CH32:CH33">
-    <cfRule type="cellIs" dxfId="711" priority="743" operator="equal">
+  <conditionalFormatting sqref="AE24">
+    <cfRule type="cellIs" dxfId="709" priority="741" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="710" priority="744" operator="between">
+    <cfRule type="cellIs" dxfId="708" priority="742" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="709" priority="745" operator="between">
+    <cfRule type="cellIs" dxfId="707" priority="743" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CM22:CM23 CM32">
-    <cfRule type="cellIs" dxfId="708" priority="740" operator="equal">
+  <conditionalFormatting sqref="AQ24">
+    <cfRule type="cellIs" dxfId="706" priority="738" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="707" priority="741" operator="between">
+    <cfRule type="cellIs" dxfId="705" priority="739" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="706" priority="742" operator="between">
+    <cfRule type="cellIs" dxfId="704" priority="740" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CL22:CL23 CL32">
-    <cfRule type="cellIs" dxfId="705" priority="737" operator="equal">
+  <conditionalFormatting sqref="AR24">
+    <cfRule type="cellIs" dxfId="703" priority="735" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="704" priority="738" operator="between">
+    <cfRule type="cellIs" dxfId="702" priority="736" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="703" priority="739" operator="between">
+    <cfRule type="cellIs" dxfId="701" priority="737" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I9:I23 I32">
-    <cfRule type="cellIs" dxfId="702" priority="734" operator="equal">
+  <conditionalFormatting sqref="BZ24">
+    <cfRule type="cellIs" dxfId="700" priority="732" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="701" priority="735" operator="between">
+    <cfRule type="cellIs" dxfId="699" priority="733" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="700" priority="736" operator="between">
+    <cfRule type="cellIs" dxfId="698" priority="734" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D24:F24">
-    <cfRule type="cellIs" dxfId="699" priority="732" operator="between">
-      <formula>8</formula>
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="698" priority="733" operator="lessThan">
-      <formula>8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CI24:CK24 J24:AD24 AS24:AV24 BX24:BY24 CA24:CC24 AH24:AL24 AN24 AP24">
+  <conditionalFormatting sqref="AZ24 BG24:BH24 AW24 BC24:BE24">
     <cfRule type="cellIs" dxfId="697" priority="729" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32572,7 +33106,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE24">
+  <conditionalFormatting sqref="BA24">
     <cfRule type="cellIs" dxfId="694" priority="726" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32585,7 +33119,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ24">
+  <conditionalFormatting sqref="BQ24 BI24:BJ24 BL24:BO24">
     <cfRule type="cellIs" dxfId="691" priority="723" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32598,7 +33132,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AR24">
+  <conditionalFormatting sqref="BK24">
     <cfRule type="cellIs" dxfId="688" priority="720" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32611,7 +33145,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BZ24">
+  <conditionalFormatting sqref="BR24:BS24 BU24:BW24">
     <cfRule type="cellIs" dxfId="685" priority="717" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32624,7 +33158,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AZ24 BG24:BH24 AW24 BC24:BE24">
+  <conditionalFormatting sqref="BT24">
     <cfRule type="cellIs" dxfId="682" priority="714" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32637,7 +33171,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BA24">
+  <conditionalFormatting sqref="BB24">
     <cfRule type="cellIs" dxfId="679" priority="711" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32650,7 +33184,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BQ24 BI24:BJ24 BL24:BO24">
+  <conditionalFormatting sqref="BF24">
     <cfRule type="cellIs" dxfId="676" priority="708" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32663,7 +33197,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BK24">
+  <conditionalFormatting sqref="BP24">
     <cfRule type="cellIs" dxfId="673" priority="705" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32676,7 +33210,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BR24:BS24 BU24:BW24">
+  <conditionalFormatting sqref="AY24">
     <cfRule type="cellIs" dxfId="670" priority="702" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32689,7 +33223,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BT24">
+  <conditionalFormatting sqref="AX24">
     <cfRule type="cellIs" dxfId="667" priority="699" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32702,7 +33236,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BB24">
+  <conditionalFormatting sqref="CD24">
     <cfRule type="cellIs" dxfId="664" priority="696" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32715,7 +33249,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BF24">
+  <conditionalFormatting sqref="CE24">
     <cfRule type="cellIs" dxfId="661" priority="693" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32728,7 +33262,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BP24">
+  <conditionalFormatting sqref="CF24">
     <cfRule type="cellIs" dxfId="658" priority="690" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32741,7 +33275,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY24">
+  <conditionalFormatting sqref="CG24">
     <cfRule type="cellIs" dxfId="655" priority="687" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32754,7 +33288,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX24">
+  <conditionalFormatting sqref="CH24">
     <cfRule type="cellIs" dxfId="652" priority="684" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32767,7 +33301,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CD24">
+  <conditionalFormatting sqref="CM24">
     <cfRule type="cellIs" dxfId="649" priority="681" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32780,7 +33314,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CE24">
+  <conditionalFormatting sqref="CL24">
     <cfRule type="cellIs" dxfId="646" priority="678" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32793,7 +33327,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CF24">
+  <conditionalFormatting sqref="I24">
     <cfRule type="cellIs" dxfId="643" priority="675" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32806,81 +33340,81 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CG24">
-    <cfRule type="cellIs" dxfId="640" priority="672" operator="equal">
+  <conditionalFormatting sqref="D25:F25">
+    <cfRule type="cellIs" dxfId="640" priority="673" operator="between">
+      <formula>8</formula>
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="639" priority="674" operator="lessThan">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CI25:CK25 J25:AD25 AS25:AV25 BX25:BY25 CA25:CC25 AH25:AI25 AN25:AP25 AL25">
+    <cfRule type="cellIs" dxfId="638" priority="670" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="639" priority="673" operator="between">
+    <cfRule type="cellIs" dxfId="637" priority="671" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="638" priority="674" operator="between">
+    <cfRule type="cellIs" dxfId="636" priority="672" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CH24">
-    <cfRule type="cellIs" dxfId="637" priority="669" operator="equal">
+  <conditionalFormatting sqref="AE25">
+    <cfRule type="cellIs" dxfId="635" priority="667" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="636" priority="670" operator="between">
+    <cfRule type="cellIs" dxfId="634" priority="668" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="635" priority="671" operator="between">
+    <cfRule type="cellIs" dxfId="633" priority="669" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CM24">
-    <cfRule type="cellIs" dxfId="634" priority="666" operator="equal">
+  <conditionalFormatting sqref="AQ25">
+    <cfRule type="cellIs" dxfId="632" priority="664" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="633" priority="667" operator="between">
+    <cfRule type="cellIs" dxfId="631" priority="665" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="632" priority="668" operator="between">
+    <cfRule type="cellIs" dxfId="630" priority="666" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CL24">
-    <cfRule type="cellIs" dxfId="631" priority="663" operator="equal">
+  <conditionalFormatting sqref="AR25">
+    <cfRule type="cellIs" dxfId="629" priority="661" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="630" priority="664" operator="between">
+    <cfRule type="cellIs" dxfId="628" priority="662" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="629" priority="665" operator="between">
+    <cfRule type="cellIs" dxfId="627" priority="663" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I24">
-    <cfRule type="cellIs" dxfId="628" priority="660" operator="equal">
+  <conditionalFormatting sqref="BZ25">
+    <cfRule type="cellIs" dxfId="626" priority="658" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="627" priority="661" operator="between">
+    <cfRule type="cellIs" dxfId="625" priority="659" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="626" priority="662" operator="between">
+    <cfRule type="cellIs" dxfId="624" priority="660" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D25:F25">
-    <cfRule type="cellIs" dxfId="625" priority="658" operator="between">
-      <formula>8</formula>
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="624" priority="659" operator="lessThan">
-      <formula>8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CI25:CK25 J25:AD25 AS25:AV25 BX25:BY25 CA25:CC25 AH25:AI25 AN25:AP25 AL25">
+  <conditionalFormatting sqref="AZ25 BG25:BH25 AW25 BC25:BE25">
     <cfRule type="cellIs" dxfId="623" priority="655" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32893,7 +33427,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE25">
+  <conditionalFormatting sqref="BA25">
     <cfRule type="cellIs" dxfId="620" priority="652" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32906,7 +33440,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ25">
+  <conditionalFormatting sqref="BQ25 BI25:BJ25 BL25:BO25">
     <cfRule type="cellIs" dxfId="617" priority="649" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32919,7 +33453,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AR25">
+  <conditionalFormatting sqref="BK25">
     <cfRule type="cellIs" dxfId="614" priority="646" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32932,7 +33466,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BZ25">
+  <conditionalFormatting sqref="BR25:BS25 BU25:BW25">
     <cfRule type="cellIs" dxfId="611" priority="643" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32945,7 +33479,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AZ25 BG25:BH25 AW25 BC25:BE25">
+  <conditionalFormatting sqref="BT25">
     <cfRule type="cellIs" dxfId="608" priority="640" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32958,7 +33492,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BA25">
+  <conditionalFormatting sqref="BB25">
     <cfRule type="cellIs" dxfId="605" priority="637" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32971,7 +33505,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BQ25 BI25:BJ25 BL25:BO25">
+  <conditionalFormatting sqref="BF25">
     <cfRule type="cellIs" dxfId="602" priority="634" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32984,7 +33518,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BK25">
+  <conditionalFormatting sqref="BP25">
     <cfRule type="cellIs" dxfId="599" priority="631" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -32997,7 +33531,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BR25:BS25 BU25:BW25">
+  <conditionalFormatting sqref="AY25">
     <cfRule type="cellIs" dxfId="596" priority="628" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33010,7 +33544,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BT25">
+  <conditionalFormatting sqref="AX25">
     <cfRule type="cellIs" dxfId="593" priority="625" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33023,7 +33557,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BB25">
+  <conditionalFormatting sqref="CD25">
     <cfRule type="cellIs" dxfId="590" priority="622" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33036,7 +33570,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BF25">
+  <conditionalFormatting sqref="CE25">
     <cfRule type="cellIs" dxfId="587" priority="619" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33049,7 +33583,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BP25">
+  <conditionalFormatting sqref="CF25">
     <cfRule type="cellIs" dxfId="584" priority="616" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33062,7 +33596,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY25">
+  <conditionalFormatting sqref="CG25">
     <cfRule type="cellIs" dxfId="581" priority="613" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33075,7 +33609,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX25">
+  <conditionalFormatting sqref="CH25">
     <cfRule type="cellIs" dxfId="578" priority="610" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33088,7 +33622,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CD25">
+  <conditionalFormatting sqref="CM25">
     <cfRule type="cellIs" dxfId="575" priority="607" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33101,7 +33635,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CE25">
+  <conditionalFormatting sqref="CL25">
     <cfRule type="cellIs" dxfId="572" priority="604" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33114,7 +33648,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CF25">
+  <conditionalFormatting sqref="I25">
     <cfRule type="cellIs" dxfId="569" priority="601" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33127,81 +33661,81 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CG25">
-    <cfRule type="cellIs" dxfId="566" priority="598" operator="equal">
+  <conditionalFormatting sqref="D26:F26">
+    <cfRule type="cellIs" dxfId="566" priority="599" operator="between">
+      <formula>8</formula>
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="565" priority="600" operator="lessThan">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CI26:CK26 J26:AD26 AS26:AV26 BX26:BY26 CA26:CC26 AH26:AL26 AN26:AP26">
+    <cfRule type="cellIs" dxfId="564" priority="596" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="565" priority="599" operator="between">
+    <cfRule type="cellIs" dxfId="563" priority="597" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="564" priority="600" operator="between">
+    <cfRule type="cellIs" dxfId="562" priority="598" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CH25">
-    <cfRule type="cellIs" dxfId="563" priority="595" operator="equal">
+  <conditionalFormatting sqref="AE26">
+    <cfRule type="cellIs" dxfId="561" priority="593" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="562" priority="596" operator="between">
+    <cfRule type="cellIs" dxfId="560" priority="594" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="561" priority="597" operator="between">
+    <cfRule type="cellIs" dxfId="559" priority="595" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CM25">
-    <cfRule type="cellIs" dxfId="560" priority="592" operator="equal">
+  <conditionalFormatting sqref="AQ26">
+    <cfRule type="cellIs" dxfId="558" priority="590" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="559" priority="593" operator="between">
+    <cfRule type="cellIs" dxfId="557" priority="591" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="558" priority="594" operator="between">
+    <cfRule type="cellIs" dxfId="556" priority="592" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CL25">
-    <cfRule type="cellIs" dxfId="557" priority="589" operator="equal">
+  <conditionalFormatting sqref="AR26">
+    <cfRule type="cellIs" dxfId="555" priority="587" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="556" priority="590" operator="between">
+    <cfRule type="cellIs" dxfId="554" priority="588" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="555" priority="591" operator="between">
+    <cfRule type="cellIs" dxfId="553" priority="589" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I25">
-    <cfRule type="cellIs" dxfId="554" priority="586" operator="equal">
+  <conditionalFormatting sqref="BZ26">
+    <cfRule type="cellIs" dxfId="552" priority="584" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="553" priority="587" operator="between">
+    <cfRule type="cellIs" dxfId="551" priority="585" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="552" priority="588" operator="between">
+    <cfRule type="cellIs" dxfId="550" priority="586" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D26:F26">
-    <cfRule type="cellIs" dxfId="551" priority="584" operator="between">
-      <formula>8</formula>
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="550" priority="585" operator="lessThan">
-      <formula>8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CI26:CK26 J26:AD26 AS26:AV26 BX26:BY26 CA26:CC26 AH26:AL26 AN26:AP26">
+  <conditionalFormatting sqref="AZ26 BG26:BH26 AW26 BC26:BE26">
     <cfRule type="cellIs" dxfId="549" priority="581" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33214,7 +33748,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE26">
+  <conditionalFormatting sqref="BA26">
     <cfRule type="cellIs" dxfId="546" priority="578" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33227,7 +33761,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ26">
+  <conditionalFormatting sqref="BQ26 BI26:BJ26 BL26:BO26">
     <cfRule type="cellIs" dxfId="543" priority="575" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33240,7 +33774,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AR26">
+  <conditionalFormatting sqref="BK26">
     <cfRule type="cellIs" dxfId="540" priority="572" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33253,7 +33787,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BZ26">
+  <conditionalFormatting sqref="BR26:BS26 BU26:BW26">
     <cfRule type="cellIs" dxfId="537" priority="569" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33266,7 +33800,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AZ26 BG26:BH26 AW26 BC26:BE26">
+  <conditionalFormatting sqref="BT26">
     <cfRule type="cellIs" dxfId="534" priority="566" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33279,7 +33813,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BA26">
+  <conditionalFormatting sqref="BB26">
     <cfRule type="cellIs" dxfId="531" priority="563" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33292,7 +33826,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BQ26 BI26:BJ26 BL26:BO26">
+  <conditionalFormatting sqref="BF26">
     <cfRule type="cellIs" dxfId="528" priority="560" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33305,7 +33839,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BK26">
+  <conditionalFormatting sqref="BP26">
     <cfRule type="cellIs" dxfId="525" priority="557" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33318,7 +33852,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BR26:BS26 BU26:BW26">
+  <conditionalFormatting sqref="AY26">
     <cfRule type="cellIs" dxfId="522" priority="554" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33331,7 +33865,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BT26">
+  <conditionalFormatting sqref="AX26">
     <cfRule type="cellIs" dxfId="519" priority="551" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33344,7 +33878,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BB26">
+  <conditionalFormatting sqref="CD26">
     <cfRule type="cellIs" dxfId="516" priority="548" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33357,7 +33891,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BF26">
+  <conditionalFormatting sqref="CE26">
     <cfRule type="cellIs" dxfId="513" priority="545" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33370,7 +33904,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BP26">
+  <conditionalFormatting sqref="CF26">
     <cfRule type="cellIs" dxfId="510" priority="542" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33383,7 +33917,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY26">
+  <conditionalFormatting sqref="CG26">
     <cfRule type="cellIs" dxfId="507" priority="539" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33396,7 +33930,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX26">
+  <conditionalFormatting sqref="CH26">
     <cfRule type="cellIs" dxfId="504" priority="536" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33409,7 +33943,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CD26">
+  <conditionalFormatting sqref="CM26">
     <cfRule type="cellIs" dxfId="501" priority="533" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33422,7 +33956,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CE26">
+  <conditionalFormatting sqref="CL26">
     <cfRule type="cellIs" dxfId="498" priority="530" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33435,7 +33969,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CF26">
+  <conditionalFormatting sqref="I26">
     <cfRule type="cellIs" dxfId="495" priority="527" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33448,81 +33982,81 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CG26">
-    <cfRule type="cellIs" dxfId="492" priority="524" operator="equal">
+  <conditionalFormatting sqref="D27:F27">
+    <cfRule type="cellIs" dxfId="492" priority="525" operator="between">
+      <formula>8</formula>
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="491" priority="526" operator="lessThan">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CI27:CK27 J27:AD27 AS27:AV27 BX27:BY27 CA27:CC27 AH27:AI27 AN27 AK27:AL27 AP27">
+    <cfRule type="cellIs" dxfId="490" priority="522" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="491" priority="525" operator="between">
+    <cfRule type="cellIs" dxfId="489" priority="523" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="490" priority="526" operator="between">
+    <cfRule type="cellIs" dxfId="488" priority="524" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CH26">
-    <cfRule type="cellIs" dxfId="489" priority="521" operator="equal">
+  <conditionalFormatting sqref="AE27">
+    <cfRule type="cellIs" dxfId="487" priority="519" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="488" priority="522" operator="between">
+    <cfRule type="cellIs" dxfId="486" priority="520" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="487" priority="523" operator="between">
+    <cfRule type="cellIs" dxfId="485" priority="521" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CM26">
-    <cfRule type="cellIs" dxfId="486" priority="518" operator="equal">
+  <conditionalFormatting sqref="AQ27">
+    <cfRule type="cellIs" dxfId="484" priority="516" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="485" priority="519" operator="between">
+    <cfRule type="cellIs" dxfId="483" priority="517" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="484" priority="520" operator="between">
+    <cfRule type="cellIs" dxfId="482" priority="518" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CL26">
-    <cfRule type="cellIs" dxfId="483" priority="515" operator="equal">
+  <conditionalFormatting sqref="AR27">
+    <cfRule type="cellIs" dxfId="481" priority="513" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="482" priority="516" operator="between">
+    <cfRule type="cellIs" dxfId="480" priority="514" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="481" priority="517" operator="between">
+    <cfRule type="cellIs" dxfId="479" priority="515" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I26">
-    <cfRule type="cellIs" dxfId="480" priority="512" operator="equal">
+  <conditionalFormatting sqref="BZ27">
+    <cfRule type="cellIs" dxfId="478" priority="510" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="479" priority="513" operator="between">
+    <cfRule type="cellIs" dxfId="477" priority="511" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="478" priority="514" operator="between">
+    <cfRule type="cellIs" dxfId="476" priority="512" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27:F27">
-    <cfRule type="cellIs" dxfId="477" priority="510" operator="between">
-      <formula>8</formula>
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="476" priority="511" operator="lessThan">
-      <formula>8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CI27:CK27 J27:AD27 AS27:AV27 BX27:BY27 CA27:CC27 AH27:AI27 AN27 AK27:AL27 AP27">
+  <conditionalFormatting sqref="AZ27 BG27:BH27 AW27 BC27:BE27">
     <cfRule type="cellIs" dxfId="475" priority="507" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33535,7 +34069,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE27">
+  <conditionalFormatting sqref="BA27">
     <cfRule type="cellIs" dxfId="472" priority="504" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33548,7 +34082,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ27">
+  <conditionalFormatting sqref="BQ27 BI27:BJ27 BL27:BO27">
     <cfRule type="cellIs" dxfId="469" priority="501" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33561,7 +34095,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AR27">
+  <conditionalFormatting sqref="BK27">
     <cfRule type="cellIs" dxfId="466" priority="498" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33574,7 +34108,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BZ27">
+  <conditionalFormatting sqref="BR27:BS27 BU27:BW27">
     <cfRule type="cellIs" dxfId="463" priority="495" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33587,7 +34121,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AZ27 BG27:BH27 AW27 BC27:BE27">
+  <conditionalFormatting sqref="BT27">
     <cfRule type="cellIs" dxfId="460" priority="492" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33600,7 +34134,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BA27">
+  <conditionalFormatting sqref="BB27">
     <cfRule type="cellIs" dxfId="457" priority="489" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33613,7 +34147,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BQ27 BI27:BJ27 BL27:BO27">
+  <conditionalFormatting sqref="BF27">
     <cfRule type="cellIs" dxfId="454" priority="486" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33626,7 +34160,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BK27">
+  <conditionalFormatting sqref="BP27">
     <cfRule type="cellIs" dxfId="451" priority="483" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33639,7 +34173,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BR27:BS27 BU27:BW27">
+  <conditionalFormatting sqref="AY27">
     <cfRule type="cellIs" dxfId="448" priority="480" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33652,7 +34186,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BT27">
+  <conditionalFormatting sqref="AX27">
     <cfRule type="cellIs" dxfId="445" priority="477" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33665,7 +34199,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BB27">
+  <conditionalFormatting sqref="CD27">
     <cfRule type="cellIs" dxfId="442" priority="474" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33678,7 +34212,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BF27">
+  <conditionalFormatting sqref="CE27">
     <cfRule type="cellIs" dxfId="439" priority="471" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33691,7 +34225,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BP27">
+  <conditionalFormatting sqref="CF27">
     <cfRule type="cellIs" dxfId="436" priority="468" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33704,7 +34238,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY27">
+  <conditionalFormatting sqref="CG27">
     <cfRule type="cellIs" dxfId="433" priority="465" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33717,7 +34251,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX27">
+  <conditionalFormatting sqref="CH27">
     <cfRule type="cellIs" dxfId="430" priority="462" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33730,7 +34264,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CD27">
+  <conditionalFormatting sqref="CM27">
     <cfRule type="cellIs" dxfId="427" priority="459" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33743,7 +34277,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CE27">
+  <conditionalFormatting sqref="CL27">
     <cfRule type="cellIs" dxfId="424" priority="456" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33756,7 +34290,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CF27">
+  <conditionalFormatting sqref="I27">
     <cfRule type="cellIs" dxfId="421" priority="453" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33769,81 +34303,81 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CG27">
-    <cfRule type="cellIs" dxfId="418" priority="450" operator="equal">
+  <conditionalFormatting sqref="D28:F28">
+    <cfRule type="cellIs" dxfId="418" priority="451" operator="between">
+      <formula>8</formula>
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="417" priority="452" operator="lessThan">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CI28:CK28 J28:AD28 AS28:AV28 BX28:BY28 CA28:CC28 AH28:AL28 AN28:AP28">
+    <cfRule type="cellIs" dxfId="416" priority="448" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="417" priority="451" operator="between">
+    <cfRule type="cellIs" dxfId="415" priority="449" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="416" priority="452" operator="between">
+    <cfRule type="cellIs" dxfId="414" priority="450" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CH27">
-    <cfRule type="cellIs" dxfId="415" priority="447" operator="equal">
+  <conditionalFormatting sqref="AE28">
+    <cfRule type="cellIs" dxfId="413" priority="445" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="414" priority="448" operator="between">
+    <cfRule type="cellIs" dxfId="412" priority="446" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="413" priority="449" operator="between">
+    <cfRule type="cellIs" dxfId="411" priority="447" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CM27">
-    <cfRule type="cellIs" dxfId="412" priority="444" operator="equal">
+  <conditionalFormatting sqref="AQ28">
+    <cfRule type="cellIs" dxfId="410" priority="442" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="411" priority="445" operator="between">
+    <cfRule type="cellIs" dxfId="409" priority="443" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="410" priority="446" operator="between">
+    <cfRule type="cellIs" dxfId="408" priority="444" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CL27">
-    <cfRule type="cellIs" dxfId="409" priority="441" operator="equal">
+  <conditionalFormatting sqref="AR28">
+    <cfRule type="cellIs" dxfId="407" priority="439" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="408" priority="442" operator="between">
+    <cfRule type="cellIs" dxfId="406" priority="440" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="407" priority="443" operator="between">
+    <cfRule type="cellIs" dxfId="405" priority="441" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I27">
-    <cfRule type="cellIs" dxfId="406" priority="438" operator="equal">
+  <conditionalFormatting sqref="BZ28">
+    <cfRule type="cellIs" dxfId="404" priority="436" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="405" priority="439" operator="between">
+    <cfRule type="cellIs" dxfId="403" priority="437" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="404" priority="440" operator="between">
+    <cfRule type="cellIs" dxfId="402" priority="438" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D28:F28">
-    <cfRule type="cellIs" dxfId="403" priority="436" operator="between">
-      <formula>8</formula>
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="402" priority="437" operator="lessThan">
-      <formula>8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CI28:CK28 J28:AD28 AS28:AV28 BX28:BY28 CA28:CC28 AH28:AL28 AN28:AP28">
+  <conditionalFormatting sqref="AZ28 BG28:BH28 AW28 BC28:BE28">
     <cfRule type="cellIs" dxfId="401" priority="433" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33856,7 +34390,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE28">
+  <conditionalFormatting sqref="BA28">
     <cfRule type="cellIs" dxfId="398" priority="430" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33869,7 +34403,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ28">
+  <conditionalFormatting sqref="BQ28 BI28:BJ28 BL28:BO28">
     <cfRule type="cellIs" dxfId="395" priority="427" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33882,7 +34416,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AR28">
+  <conditionalFormatting sqref="BK28">
     <cfRule type="cellIs" dxfId="392" priority="424" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33895,7 +34429,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BZ28">
+  <conditionalFormatting sqref="BR28:BS28 BU28:BW28">
     <cfRule type="cellIs" dxfId="389" priority="421" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33908,7 +34442,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AZ28 BG28:BH28 AW28 BC28:BE28">
+  <conditionalFormatting sqref="BT28">
     <cfRule type="cellIs" dxfId="386" priority="418" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33921,7 +34455,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BA28">
+  <conditionalFormatting sqref="BB28">
     <cfRule type="cellIs" dxfId="383" priority="415" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33934,7 +34468,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BQ28 BI28:BJ28 BL28:BO28">
+  <conditionalFormatting sqref="BF28">
     <cfRule type="cellIs" dxfId="380" priority="412" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33947,7 +34481,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BK28">
+  <conditionalFormatting sqref="BP28">
     <cfRule type="cellIs" dxfId="377" priority="409" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33960,7 +34494,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BR28:BS28 BU28:BW28">
+  <conditionalFormatting sqref="AY28">
     <cfRule type="cellIs" dxfId="374" priority="406" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33973,7 +34507,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BT28">
+  <conditionalFormatting sqref="AX28">
     <cfRule type="cellIs" dxfId="371" priority="403" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33986,7 +34520,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BB28">
+  <conditionalFormatting sqref="CD28">
     <cfRule type="cellIs" dxfId="368" priority="400" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -33999,7 +34533,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BF28">
+  <conditionalFormatting sqref="CE28">
     <cfRule type="cellIs" dxfId="365" priority="397" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34012,7 +34546,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BP28">
+  <conditionalFormatting sqref="CF28">
     <cfRule type="cellIs" dxfId="362" priority="394" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34025,7 +34559,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY28">
+  <conditionalFormatting sqref="CG28">
     <cfRule type="cellIs" dxfId="359" priority="391" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34038,7 +34572,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX28">
+  <conditionalFormatting sqref="CH28">
     <cfRule type="cellIs" dxfId="356" priority="388" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34051,7 +34585,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CD28">
+  <conditionalFormatting sqref="CM28">
     <cfRule type="cellIs" dxfId="353" priority="385" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34064,7 +34598,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CE28">
+  <conditionalFormatting sqref="CL28">
     <cfRule type="cellIs" dxfId="350" priority="382" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34077,7 +34611,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CF28">
+  <conditionalFormatting sqref="I28">
     <cfRule type="cellIs" dxfId="347" priority="379" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34090,81 +34624,81 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CG28">
-    <cfRule type="cellIs" dxfId="344" priority="376" operator="equal">
+  <conditionalFormatting sqref="D29:F29">
+    <cfRule type="cellIs" dxfId="344" priority="377" operator="between">
+      <formula>8</formula>
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="343" priority="378" operator="lessThan">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CI29:CK29 J29:AD29 AS29:AV29 BX29:BY29 CA29:CC29 AH29:AL29 AN29:AP29">
+    <cfRule type="cellIs" dxfId="342" priority="374" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="343" priority="377" operator="between">
+    <cfRule type="cellIs" dxfId="341" priority="375" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="342" priority="378" operator="between">
+    <cfRule type="cellIs" dxfId="340" priority="376" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CH28">
-    <cfRule type="cellIs" dxfId="341" priority="373" operator="equal">
+  <conditionalFormatting sqref="AE29">
+    <cfRule type="cellIs" dxfId="339" priority="371" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="340" priority="374" operator="between">
+    <cfRule type="cellIs" dxfId="338" priority="372" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="339" priority="375" operator="between">
+    <cfRule type="cellIs" dxfId="337" priority="373" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CM28">
-    <cfRule type="cellIs" dxfId="338" priority="370" operator="equal">
+  <conditionalFormatting sqref="AQ29">
+    <cfRule type="cellIs" dxfId="336" priority="368" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="337" priority="371" operator="between">
+    <cfRule type="cellIs" dxfId="335" priority="369" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="336" priority="372" operator="between">
+    <cfRule type="cellIs" dxfId="334" priority="370" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CL28">
-    <cfRule type="cellIs" dxfId="335" priority="367" operator="equal">
+  <conditionalFormatting sqref="AR29">
+    <cfRule type="cellIs" dxfId="333" priority="365" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="334" priority="368" operator="between">
+    <cfRule type="cellIs" dxfId="332" priority="366" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="333" priority="369" operator="between">
+    <cfRule type="cellIs" dxfId="331" priority="367" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I28">
-    <cfRule type="cellIs" dxfId="332" priority="364" operator="equal">
+  <conditionalFormatting sqref="BZ29">
+    <cfRule type="cellIs" dxfId="330" priority="362" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="331" priority="365" operator="between">
+    <cfRule type="cellIs" dxfId="329" priority="363" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="330" priority="366" operator="between">
+    <cfRule type="cellIs" dxfId="328" priority="364" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D29:F29">
-    <cfRule type="cellIs" dxfId="329" priority="362" operator="between">
-      <formula>8</formula>
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="328" priority="363" operator="lessThan">
-      <formula>8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CI29:CK29 J29:AD29 AS29:AV29 BX29:BY29 CA29:CC29 AH29:AL29 AN29:AP29">
+  <conditionalFormatting sqref="AZ29 BG29:BH29 AW29 BC29:BE29">
     <cfRule type="cellIs" dxfId="327" priority="359" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34177,7 +34711,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE29">
+  <conditionalFormatting sqref="BA29">
     <cfRule type="cellIs" dxfId="324" priority="356" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34190,7 +34724,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ29">
+  <conditionalFormatting sqref="BQ29 BI29:BJ29 BL29:BO29">
     <cfRule type="cellIs" dxfId="321" priority="353" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34203,7 +34737,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AR29">
+  <conditionalFormatting sqref="BK29">
     <cfRule type="cellIs" dxfId="318" priority="350" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34216,7 +34750,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BZ29">
+  <conditionalFormatting sqref="BR29:BS29 BU29:BW29">
     <cfRule type="cellIs" dxfId="315" priority="347" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34229,7 +34763,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AZ29 BG29:BH29 AW29 BC29:BE29">
+  <conditionalFormatting sqref="BT29">
     <cfRule type="cellIs" dxfId="312" priority="344" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34242,7 +34776,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BA29">
+  <conditionalFormatting sqref="BB29">
     <cfRule type="cellIs" dxfId="309" priority="341" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34255,7 +34789,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BQ29 BI29:BJ29 BL29:BO29">
+  <conditionalFormatting sqref="BF29">
     <cfRule type="cellIs" dxfId="306" priority="338" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34268,7 +34802,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BK29">
+  <conditionalFormatting sqref="BP29">
     <cfRule type="cellIs" dxfId="303" priority="335" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34281,7 +34815,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BR29:BS29 BU29:BW29">
+  <conditionalFormatting sqref="AY29">
     <cfRule type="cellIs" dxfId="300" priority="332" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34294,7 +34828,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BT29">
+  <conditionalFormatting sqref="AX29">
     <cfRule type="cellIs" dxfId="297" priority="329" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34307,7 +34841,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BB29">
+  <conditionalFormatting sqref="CD29">
     <cfRule type="cellIs" dxfId="294" priority="326" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34320,7 +34854,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BF29">
+  <conditionalFormatting sqref="CE29">
     <cfRule type="cellIs" dxfId="291" priority="323" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34333,7 +34867,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BP29">
+  <conditionalFormatting sqref="CF29">
     <cfRule type="cellIs" dxfId="288" priority="320" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34346,7 +34880,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY29">
+  <conditionalFormatting sqref="CG29">
     <cfRule type="cellIs" dxfId="285" priority="317" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34359,7 +34893,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX29">
+  <conditionalFormatting sqref="CH29">
     <cfRule type="cellIs" dxfId="282" priority="314" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34372,7 +34906,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CD29">
+  <conditionalFormatting sqref="CM29">
     <cfRule type="cellIs" dxfId="279" priority="311" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34385,7 +34919,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CE29">
+  <conditionalFormatting sqref="CL29">
     <cfRule type="cellIs" dxfId="276" priority="308" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34398,7 +34932,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CF29">
+  <conditionalFormatting sqref="I29">
     <cfRule type="cellIs" dxfId="273" priority="305" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34411,81 +34945,81 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CG29">
-    <cfRule type="cellIs" dxfId="270" priority="302" operator="equal">
+  <conditionalFormatting sqref="D30:F30">
+    <cfRule type="cellIs" dxfId="270" priority="303" operator="between">
+      <formula>8</formula>
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="269" priority="304" operator="lessThan">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CI30:CK30 J30:AD30 AS30:AV30 BX30:BY30 CA30:CC30 AH30:AL30 AN30:AP30">
+    <cfRule type="cellIs" dxfId="268" priority="300" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="269" priority="303" operator="between">
+    <cfRule type="cellIs" dxfId="267" priority="301" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="268" priority="304" operator="between">
+    <cfRule type="cellIs" dxfId="266" priority="302" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CH29">
-    <cfRule type="cellIs" dxfId="267" priority="299" operator="equal">
+  <conditionalFormatting sqref="AE30">
+    <cfRule type="cellIs" dxfId="265" priority="297" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="266" priority="300" operator="between">
+    <cfRule type="cellIs" dxfId="264" priority="298" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="265" priority="301" operator="between">
+    <cfRule type="cellIs" dxfId="263" priority="299" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CM29">
-    <cfRule type="cellIs" dxfId="264" priority="296" operator="equal">
+  <conditionalFormatting sqref="AQ30">
+    <cfRule type="cellIs" dxfId="262" priority="294" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="263" priority="297" operator="between">
+    <cfRule type="cellIs" dxfId="261" priority="295" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="262" priority="298" operator="between">
+    <cfRule type="cellIs" dxfId="260" priority="296" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CL29">
-    <cfRule type="cellIs" dxfId="261" priority="293" operator="equal">
+  <conditionalFormatting sqref="AR30">
+    <cfRule type="cellIs" dxfId="259" priority="291" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="260" priority="294" operator="between">
+    <cfRule type="cellIs" dxfId="258" priority="292" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="259" priority="295" operator="between">
+    <cfRule type="cellIs" dxfId="257" priority="293" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I29">
-    <cfRule type="cellIs" dxfId="258" priority="290" operator="equal">
+  <conditionalFormatting sqref="BZ30">
+    <cfRule type="cellIs" dxfId="256" priority="288" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="257" priority="291" operator="between">
+    <cfRule type="cellIs" dxfId="255" priority="289" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="256" priority="292" operator="between">
+    <cfRule type="cellIs" dxfId="254" priority="290" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D30:F30">
-    <cfRule type="cellIs" dxfId="255" priority="288" operator="between">
-      <formula>8</formula>
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="254" priority="289" operator="lessThan">
-      <formula>8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CI30:CK30 J30:AD30 AS30:AV30 BX30:BY30 CA30:CC30 AH30:AL30 AN30:AP30">
+  <conditionalFormatting sqref="AZ30 BG30:BH30 AW30 BC30:BE30">
     <cfRule type="cellIs" dxfId="253" priority="285" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34498,7 +35032,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE30">
+  <conditionalFormatting sqref="BA30">
     <cfRule type="cellIs" dxfId="250" priority="282" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34511,7 +35045,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ30">
+  <conditionalFormatting sqref="BQ30 BI30:BJ30 BL30:BO30">
     <cfRule type="cellIs" dxfId="247" priority="279" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34524,7 +35058,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AR30">
+  <conditionalFormatting sqref="BK30">
     <cfRule type="cellIs" dxfId="244" priority="276" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34537,7 +35071,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BZ30">
+  <conditionalFormatting sqref="BR30:BS30 BU30:BW30">
     <cfRule type="cellIs" dxfId="241" priority="273" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34550,7 +35084,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AZ30 BG30:BH30 AW30 BC30:BE30">
+  <conditionalFormatting sqref="BT30">
     <cfRule type="cellIs" dxfId="238" priority="270" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34563,7 +35097,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BA30">
+  <conditionalFormatting sqref="BB30">
     <cfRule type="cellIs" dxfId="235" priority="267" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34576,7 +35110,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BQ30 BI30:BJ30 BL30:BO30">
+  <conditionalFormatting sqref="BF30">
     <cfRule type="cellIs" dxfId="232" priority="264" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34589,7 +35123,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BK30">
+  <conditionalFormatting sqref="BP30">
     <cfRule type="cellIs" dxfId="229" priority="261" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34602,7 +35136,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BR30:BS30 BU30:BW30">
+  <conditionalFormatting sqref="AY30">
     <cfRule type="cellIs" dxfId="226" priority="258" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34615,7 +35149,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BT30">
+  <conditionalFormatting sqref="AX30">
     <cfRule type="cellIs" dxfId="223" priority="255" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34628,7 +35162,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BB30">
+  <conditionalFormatting sqref="CD30">
     <cfRule type="cellIs" dxfId="220" priority="252" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34641,7 +35175,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BF30">
+  <conditionalFormatting sqref="CE30">
     <cfRule type="cellIs" dxfId="217" priority="249" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34654,7 +35188,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BP30">
+  <conditionalFormatting sqref="CF30">
     <cfRule type="cellIs" dxfId="214" priority="246" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34667,7 +35201,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY30">
+  <conditionalFormatting sqref="CG30">
     <cfRule type="cellIs" dxfId="211" priority="243" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34680,7 +35214,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX30">
+  <conditionalFormatting sqref="CH30">
     <cfRule type="cellIs" dxfId="208" priority="240" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34693,7 +35227,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CD30">
+  <conditionalFormatting sqref="CM30">
     <cfRule type="cellIs" dxfId="205" priority="237" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34706,7 +35240,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CE30">
+  <conditionalFormatting sqref="CL30">
     <cfRule type="cellIs" dxfId="202" priority="234" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34719,7 +35253,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CF30">
+  <conditionalFormatting sqref="I30">
     <cfRule type="cellIs" dxfId="199" priority="231" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34732,81 +35266,81 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CG30">
-    <cfRule type="cellIs" dxfId="196" priority="228" operator="equal">
+  <conditionalFormatting sqref="D31:F31">
+    <cfRule type="cellIs" dxfId="196" priority="229" operator="between">
+      <formula>8</formula>
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="195" priority="230" operator="lessThan">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CI31:CK31 J31:AD31 AS31:AV31 BX31:BY31 CA31:CC31 AH31:AL31 AN31:AP31">
+    <cfRule type="cellIs" dxfId="194" priority="226" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="195" priority="229" operator="between">
+    <cfRule type="cellIs" dxfId="193" priority="227" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="194" priority="230" operator="between">
+    <cfRule type="cellIs" dxfId="192" priority="228" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CH30">
-    <cfRule type="cellIs" dxfId="193" priority="225" operator="equal">
+  <conditionalFormatting sqref="AE31">
+    <cfRule type="cellIs" dxfId="191" priority="223" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="226" operator="between">
+    <cfRule type="cellIs" dxfId="190" priority="224" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="191" priority="227" operator="between">
+    <cfRule type="cellIs" dxfId="189" priority="225" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CM30">
-    <cfRule type="cellIs" dxfId="190" priority="222" operator="equal">
+  <conditionalFormatting sqref="AQ31">
+    <cfRule type="cellIs" dxfId="188" priority="220" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="223" operator="between">
+    <cfRule type="cellIs" dxfId="187" priority="221" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="188" priority="224" operator="between">
+    <cfRule type="cellIs" dxfId="186" priority="222" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CL30">
-    <cfRule type="cellIs" dxfId="187" priority="219" operator="equal">
+  <conditionalFormatting sqref="AR31">
+    <cfRule type="cellIs" dxfId="185" priority="217" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="220" operator="between">
+    <cfRule type="cellIs" dxfId="184" priority="218" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="185" priority="221" operator="between">
+    <cfRule type="cellIs" dxfId="183" priority="219" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I30">
-    <cfRule type="cellIs" dxfId="184" priority="216" operator="equal">
+  <conditionalFormatting sqref="BZ31">
+    <cfRule type="cellIs" dxfId="182" priority="214" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="183" priority="217" operator="between">
+    <cfRule type="cellIs" dxfId="181" priority="215" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="182" priority="218" operator="between">
+    <cfRule type="cellIs" dxfId="180" priority="216" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31:F31">
-    <cfRule type="cellIs" dxfId="181" priority="214" operator="between">
-      <formula>8</formula>
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="215" operator="lessThan">
-      <formula>8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CI31:CK31 J31:AD31 AS31:AV31 BX31:BY31 CA31:CC31 AH31:AL31 AN31:AP31">
+  <conditionalFormatting sqref="AZ31 BG31:BH31 AW31 BC31:BE31">
     <cfRule type="cellIs" dxfId="179" priority="211" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34819,7 +35353,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE31">
+  <conditionalFormatting sqref="BA31">
     <cfRule type="cellIs" dxfId="176" priority="208" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34832,7 +35366,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ31">
+  <conditionalFormatting sqref="BQ31 BI31:BJ31 BL31:BO31">
     <cfRule type="cellIs" dxfId="173" priority="205" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34845,7 +35379,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AR31">
+  <conditionalFormatting sqref="BK31">
     <cfRule type="cellIs" dxfId="170" priority="202" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34858,7 +35392,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BZ31">
+  <conditionalFormatting sqref="BR31:BS31 BU31:BW31">
     <cfRule type="cellIs" dxfId="167" priority="199" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34871,7 +35405,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AZ31 BG31:BH31 AW31 BC31:BE31">
+  <conditionalFormatting sqref="BT31">
     <cfRule type="cellIs" dxfId="164" priority="196" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34884,7 +35418,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BA31">
+  <conditionalFormatting sqref="BB31">
     <cfRule type="cellIs" dxfId="161" priority="193" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34897,7 +35431,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BQ31 BI31:BJ31 BL31:BO31">
+  <conditionalFormatting sqref="BF31">
     <cfRule type="cellIs" dxfId="158" priority="190" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34910,7 +35444,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BK31">
+  <conditionalFormatting sqref="BP31">
     <cfRule type="cellIs" dxfId="155" priority="187" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34923,7 +35457,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BR31:BS31 BU31:BW31">
+  <conditionalFormatting sqref="AY31">
     <cfRule type="cellIs" dxfId="152" priority="184" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34936,7 +35470,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BT31">
+  <conditionalFormatting sqref="AX31">
     <cfRule type="cellIs" dxfId="149" priority="181" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34949,7 +35483,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BB31">
+  <conditionalFormatting sqref="CD31">
     <cfRule type="cellIs" dxfId="146" priority="178" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34962,7 +35496,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BF31">
+  <conditionalFormatting sqref="CE31">
     <cfRule type="cellIs" dxfId="143" priority="175" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34975,7 +35509,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BP31">
+  <conditionalFormatting sqref="CF31">
     <cfRule type="cellIs" dxfId="140" priority="172" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -34988,7 +35522,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY31">
+  <conditionalFormatting sqref="CG31">
     <cfRule type="cellIs" dxfId="137" priority="169" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -35001,7 +35535,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX31">
+  <conditionalFormatting sqref="CH31">
     <cfRule type="cellIs" dxfId="134" priority="166" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -35014,7 +35548,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CD31">
+  <conditionalFormatting sqref="CM31">
     <cfRule type="cellIs" dxfId="131" priority="163" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -35027,7 +35561,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CE31">
+  <conditionalFormatting sqref="CL31">
     <cfRule type="cellIs" dxfId="128" priority="160" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -35040,7 +35574,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CF31">
+  <conditionalFormatting sqref="I31">
     <cfRule type="cellIs" dxfId="125" priority="157" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -35053,85 +35587,85 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CG31">
-    <cfRule type="cellIs" dxfId="122" priority="154" operator="equal">
+  <conditionalFormatting sqref="AM32:AM33 AM9:AM23">
+    <cfRule type="cellIs" dxfId="122" priority="127" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="155" operator="between">
+    <cfRule type="cellIs" dxfId="121" priority="128" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="156" operator="between">
+    <cfRule type="cellIs" dxfId="120" priority="129" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CH31">
-    <cfRule type="cellIs" dxfId="119" priority="151" operator="equal">
+  <conditionalFormatting sqref="AM26">
+    <cfRule type="cellIs" dxfId="119" priority="118" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="152" operator="between">
+    <cfRule type="cellIs" dxfId="118" priority="119" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="153" operator="between">
+    <cfRule type="cellIs" dxfId="117" priority="120" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CM31">
-    <cfRule type="cellIs" dxfId="116" priority="148" operator="equal">
+  <conditionalFormatting sqref="AM27">
+    <cfRule type="cellIs" dxfId="116" priority="115" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="149" operator="between">
+    <cfRule type="cellIs" dxfId="115" priority="116" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="150" operator="between">
+    <cfRule type="cellIs" dxfId="114" priority="117" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CL31">
-    <cfRule type="cellIs" dxfId="113" priority="145" operator="equal">
+  <conditionalFormatting sqref="AM28">
+    <cfRule type="cellIs" dxfId="113" priority="112" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="146" operator="between">
+    <cfRule type="cellIs" dxfId="112" priority="113" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="147" operator="between">
+    <cfRule type="cellIs" dxfId="111" priority="114" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I31">
-    <cfRule type="cellIs" dxfId="110" priority="142" operator="equal">
+  <conditionalFormatting sqref="AM29">
+    <cfRule type="cellIs" dxfId="110" priority="109" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="143" operator="between">
+    <cfRule type="cellIs" dxfId="109" priority="110" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="144" operator="between">
+    <cfRule type="cellIs" dxfId="108" priority="111" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM32:AM33 AM9:AM23">
-    <cfRule type="cellIs" dxfId="107" priority="112" operator="equal">
+  <conditionalFormatting sqref="AM30">
+    <cfRule type="cellIs" dxfId="107" priority="106" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="113" operator="between">
+    <cfRule type="cellIs" dxfId="106" priority="107" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="114" operator="between">
+    <cfRule type="cellIs" dxfId="105" priority="108" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM26">
+  <conditionalFormatting sqref="AM31">
     <cfRule type="cellIs" dxfId="104" priority="103" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -35144,7 +35678,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM27">
+  <conditionalFormatting sqref="AG32:AG33 AG9 AG11:AG23">
     <cfRule type="cellIs" dxfId="101" priority="100" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -35157,7 +35691,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM28">
+  <conditionalFormatting sqref="AG24">
     <cfRule type="cellIs" dxfId="98" priority="97" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -35170,7 +35704,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM29">
+  <conditionalFormatting sqref="AG25">
     <cfRule type="cellIs" dxfId="95" priority="94" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -35183,7 +35717,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM30">
+  <conditionalFormatting sqref="AG26">
     <cfRule type="cellIs" dxfId="92" priority="91" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -35196,7 +35730,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM31">
+  <conditionalFormatting sqref="AG27">
     <cfRule type="cellIs" dxfId="89" priority="88" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -35209,7 +35743,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG32:AG33 AG9 AG11:AG23">
+  <conditionalFormatting sqref="AG28">
     <cfRule type="cellIs" dxfId="86" priority="85" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -35222,7 +35756,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG24">
+  <conditionalFormatting sqref="AG29">
     <cfRule type="cellIs" dxfId="83" priority="82" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -35235,7 +35769,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG25">
+  <conditionalFormatting sqref="AG30">
     <cfRule type="cellIs" dxfId="80" priority="79" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -35248,7 +35782,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG26">
+  <conditionalFormatting sqref="AG31">
     <cfRule type="cellIs" dxfId="77" priority="76" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -35261,7 +35795,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG27">
+  <conditionalFormatting sqref="AM24">
     <cfRule type="cellIs" dxfId="74" priority="73" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -35274,7 +35808,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG28">
+  <conditionalFormatting sqref="AO24">
     <cfRule type="cellIs" dxfId="71" priority="70" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -35287,7 +35821,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG29">
+  <conditionalFormatting sqref="AJ25">
     <cfRule type="cellIs" dxfId="68" priority="67" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -35300,7 +35834,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG30">
+  <conditionalFormatting sqref="AK25">
     <cfRule type="cellIs" dxfId="65" priority="64" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -35313,7 +35847,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG31">
+  <conditionalFormatting sqref="AM25">
     <cfRule type="cellIs" dxfId="62" priority="61" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -35326,7 +35860,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM24">
+  <conditionalFormatting sqref="AJ27">
     <cfRule type="cellIs" dxfId="59" priority="58" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -35339,7 +35873,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO24">
+  <conditionalFormatting sqref="AO27">
     <cfRule type="cellIs" dxfId="56" priority="55" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -35352,20 +35886,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ25">
-    <cfRule type="cellIs" dxfId="53" priority="52" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="53" operator="between">
-      <formula>0.01</formula>
-      <formula>0.25</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="54" operator="between">
-      <formula>0.26</formula>
-      <formula>0.5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK25">
+  <conditionalFormatting sqref="AG10">
     <cfRule type="cellIs" dxfId="50" priority="49" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -35378,7 +35899,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM25">
+  <conditionalFormatting sqref="AF32:AF33 AF9 AF11:AF16 AF18:AF20 AF22:AF23">
     <cfRule type="cellIs" dxfId="47" priority="46" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -35391,20 +35912,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ27">
-    <cfRule type="cellIs" dxfId="44" priority="43" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="44" operator="between">
-      <formula>0.01</formula>
-      <formula>0.25</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="45" operator="between">
-      <formula>0.26</formula>
-      <formula>0.5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO27">
+  <conditionalFormatting sqref="AF25">
     <cfRule type="cellIs" dxfId="41" priority="40" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -35417,7 +35925,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE10">
+  <conditionalFormatting sqref="AF26">
     <cfRule type="cellIs" dxfId="38" priority="37" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -35430,7 +35938,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG10">
+  <conditionalFormatting sqref="AF27">
     <cfRule type="cellIs" dxfId="35" priority="34" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -35443,7 +35951,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF32:AF33 AF9 AF11:AF23">
+  <conditionalFormatting sqref="AF28">
     <cfRule type="cellIs" dxfId="32" priority="31" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -35456,7 +35964,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF24">
+  <conditionalFormatting sqref="AF29">
     <cfRule type="cellIs" dxfId="29" priority="28" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -35469,7 +35977,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF25">
+  <conditionalFormatting sqref="AF30">
     <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -35482,7 +35990,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF26">
+  <conditionalFormatting sqref="AF31">
     <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -35495,7 +36003,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF27">
+  <conditionalFormatting sqref="AF10">
     <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -35508,7 +36016,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF28">
+  <conditionalFormatting sqref="AE16">
     <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -35521,7 +36029,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF29">
+  <conditionalFormatting sqref="AF17">
     <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -35534,7 +36042,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF30">
+  <conditionalFormatting sqref="AE10">
     <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -35547,7 +36055,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF31">
+  <conditionalFormatting sqref="AF21">
     <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -35560,7 +36068,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF10">
+  <conditionalFormatting sqref="AE23">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -35573,7 +36081,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE16">
+  <conditionalFormatting sqref="AF24">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>

--- a/BaremeJavaBaseTest2_KL16.xlsx
+++ b/BaremeJavaBaseTest2_KL16.xlsx
@@ -9716,7 +9716,7 @@
       <selection sqref="A1:XFD1"/>
       <selection pane="topRight" activeCell="AG6" sqref="AG6"/>
       <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
-      <selection pane="bottomRight" activeCell="AF24" sqref="AF24"/>
+      <selection pane="bottomRight" activeCell="AG25" sqref="AG25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -13601,15 +13601,21 @@
       <c r="AD24" s="91">
         <v>1</v>
       </c>
-      <c r="AE24" s="91"/>
+      <c r="AE24" s="91">
+        <v>1</v>
+      </c>
       <c r="AF24" s="126">
         <v>0.5</v>
       </c>
-      <c r="AG24" s="91"/>
+      <c r="AG24" s="91">
+        <v>0.5</v>
+      </c>
       <c r="AH24" s="91">
         <v>0</v>
       </c>
-      <c r="AI24" s="91"/>
+      <c r="AI24" s="91">
+        <v>0</v>
+      </c>
       <c r="AJ24" s="88">
         <v>1</v>
       </c>
@@ -15087,7 +15093,7 @@
       </c>
       <c r="AE34" s="79">
         <f t="shared" si="11"/>
-        <v>0.75</v>
+        <v>0.765625</v>
       </c>
       <c r="AF34" s="127">
         <f t="shared" ref="AF34:AG34" si="12">AVERAGE(AF9:AF32)</f>
@@ -15095,7 +15101,7 @@
       </c>
       <c r="AG34" s="122">
         <f t="shared" si="12"/>
-        <v>0.33333333333333331</v>
+        <v>0.34375</v>
       </c>
       <c r="AH34" s="71">
         <f t="shared" si="11"/>
@@ -15103,7 +15109,7 @@
       </c>
       <c r="AI34" s="71">
         <f t="shared" si="11"/>
-        <v>0.8833333333333333</v>
+        <v>0.828125</v>
       </c>
       <c r="AJ34" s="71">
         <f t="shared" si="11"/>
@@ -20412,7 +20418,7 @@
       <c r="F51" s="18"/>
       <c r="H51" s="117">
         <f t="shared" si="22"/>
-        <v>18</v>
+        <v>23.5</v>
       </c>
       <c r="I51" s="117">
         <f t="shared" ref="I51:BA51" si="90">I24*I$6</f>
@@ -20504,7 +20510,7 @@
       </c>
       <c r="AE51" s="117">
         <f t="shared" si="90"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AF51" s="127">
         <f t="shared" ref="AF51:AG51" si="91">AF24*AF$6</f>
@@ -20512,7 +20518,7 @@
       </c>
       <c r="AG51" s="122">
         <f t="shared" si="91"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AH51" s="117">
         <f t="shared" si="90"/>
@@ -29001,7 +29007,7 @@
       <c r="F80" s="18"/>
       <c r="H80" s="117">
         <f t="shared" si="130"/>
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="I80" s="117">
         <f t="shared" ref="I80:BW80" si="195">I24*I$7</f>
@@ -29093,7 +29099,7 @@
       </c>
       <c r="AE80" s="117">
         <f t="shared" si="195"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF80" s="127">
         <f t="shared" ref="AF80:AG80" si="196">AF24*AF$7</f>
@@ -29101,7 +29107,7 @@
       </c>
       <c r="AG80" s="122">
         <f t="shared" si="196"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AH80" s="117">
         <f t="shared" si="195"/>

--- a/BaremeJavaBaseTest2_KL16.xlsx
+++ b/BaremeJavaBaseTest2_KL16.xlsx
@@ -1234,6 +1234,54 @@
         </r>
       </text>
     </comment>
+    <comment ref="AB25" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+type id nok</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AF25" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+manque contrôle null</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="AJ25" authorId="0" shapeId="0">
       <text>
         <r>
@@ -1283,6 +1331,54 @@
         </r>
       </text>
     </comment>
+    <comment ref="AB27" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+type id nok</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AE27" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+manque contrôle regime alimentaire</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="AJ27" authorId="0" shapeId="0">
       <text>
         <r>
@@ -1328,6 +1424,30 @@
           </rPr>
           <t xml:space="preserve">
 pas de liste dans le toString</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC28" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+gestion de la date pas terrible</t>
         </r>
       </text>
     </comment>
@@ -3000,7 +3120,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="215">
+  <cellXfs count="216">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3386,10 +3506,154 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3419,61 +3683,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3482,118 +3695,31 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3603,9 +3729,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3641,14 +3764,77 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="828">
+  <dxfs count="837">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -9712,11 +9898,11 @@
   <dimension ref="A1:CM90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2025" ySplit="3630" topLeftCell="T8" activePane="bottomRight"/>
+      <pane xSplit="2025" ySplit="3630" topLeftCell="T7" activePane="bottomRight"/>
       <selection sqref="A1:XFD1"/>
       <selection pane="topRight" activeCell="AG6" sqref="AG6"/>
       <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
-      <selection pane="bottomRight" activeCell="AG25" sqref="AG25"/>
+      <selection pane="bottomRight" activeCell="AH28" sqref="AH28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -9766,96 +9952,96 @@
       <c r="D1" s="18"/>
       <c r="E1" s="18"/>
       <c r="F1" s="18"/>
-      <c r="I1" s="170" t="s">
+      <c r="I1" s="134" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="170"/>
-      <c r="K1" s="170"/>
-      <c r="L1" s="170"/>
-      <c r="M1" s="170"/>
-      <c r="N1" s="170"/>
-      <c r="O1" s="170"/>
-      <c r="P1" s="170"/>
-      <c r="Q1" s="178" t="s">
+      <c r="J1" s="134"/>
+      <c r="K1" s="134"/>
+      <c r="L1" s="134"/>
+      <c r="M1" s="134"/>
+      <c r="N1" s="134"/>
+      <c r="O1" s="134"/>
+      <c r="P1" s="134"/>
+      <c r="Q1" s="145" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="178"/>
-      <c r="S1" s="178"/>
-      <c r="T1" s="178"/>
-      <c r="U1" s="178"/>
-      <c r="V1" s="178"/>
-      <c r="W1" s="186" t="s">
+      <c r="R1" s="145"/>
+      <c r="S1" s="145"/>
+      <c r="T1" s="145"/>
+      <c r="U1" s="145"/>
+      <c r="V1" s="145"/>
+      <c r="W1" s="136" t="s">
         <v>105</v>
       </c>
-      <c r="X1" s="186"/>
-      <c r="Y1" s="186"/>
-      <c r="Z1" s="186"/>
-      <c r="AA1" s="186"/>
-      <c r="AB1" s="186"/>
-      <c r="AC1" s="186"/>
-      <c r="AD1" s="186"/>
-      <c r="AE1" s="186"/>
-      <c r="AF1" s="186"/>
-      <c r="AG1" s="186"/>
-      <c r="AH1" s="186"/>
-      <c r="AI1" s="186"/>
-      <c r="AJ1" s="186"/>
-      <c r="AK1" s="186"/>
-      <c r="AL1" s="186"/>
-      <c r="AM1" s="186"/>
-      <c r="AN1" s="186"/>
-      <c r="AO1" s="186"/>
-      <c r="AP1" s="186"/>
-      <c r="AQ1" s="186"/>
-      <c r="AR1" s="186"/>
-      <c r="AS1" s="186"/>
-      <c r="AT1" s="186"/>
-      <c r="AU1" s="186"/>
-      <c r="AV1" s="186"/>
-      <c r="AW1" s="186"/>
-      <c r="AX1" s="186"/>
-      <c r="AY1" s="186"/>
-      <c r="AZ1" s="186"/>
-      <c r="BA1" s="186"/>
-      <c r="BB1" s="186"/>
-      <c r="BC1" s="186"/>
-      <c r="BD1" s="186"/>
-      <c r="BE1" s="186"/>
-      <c r="BF1" s="186"/>
-      <c r="BG1" s="186"/>
-      <c r="BH1" s="186"/>
-      <c r="BI1" s="186"/>
-      <c r="BJ1" s="186"/>
-      <c r="BK1" s="186"/>
-      <c r="BL1" s="186"/>
-      <c r="BM1" s="186"/>
-      <c r="BN1" s="186"/>
-      <c r="BO1" s="186"/>
-      <c r="BP1" s="186"/>
-      <c r="BQ1" s="186"/>
-      <c r="BR1" s="186" t="s">
+      <c r="X1" s="136"/>
+      <c r="Y1" s="136"/>
+      <c r="Z1" s="136"/>
+      <c r="AA1" s="136"/>
+      <c r="AB1" s="136"/>
+      <c r="AC1" s="136"/>
+      <c r="AD1" s="136"/>
+      <c r="AE1" s="136"/>
+      <c r="AF1" s="136"/>
+      <c r="AG1" s="136"/>
+      <c r="AH1" s="136"/>
+      <c r="AI1" s="136"/>
+      <c r="AJ1" s="136"/>
+      <c r="AK1" s="136"/>
+      <c r="AL1" s="136"/>
+      <c r="AM1" s="136"/>
+      <c r="AN1" s="136"/>
+      <c r="AO1" s="136"/>
+      <c r="AP1" s="136"/>
+      <c r="AQ1" s="136"/>
+      <c r="AR1" s="136"/>
+      <c r="AS1" s="136"/>
+      <c r="AT1" s="136"/>
+      <c r="AU1" s="136"/>
+      <c r="AV1" s="136"/>
+      <c r="AW1" s="136"/>
+      <c r="AX1" s="136"/>
+      <c r="AY1" s="136"/>
+      <c r="AZ1" s="136"/>
+      <c r="BA1" s="136"/>
+      <c r="BB1" s="136"/>
+      <c r="BC1" s="136"/>
+      <c r="BD1" s="136"/>
+      <c r="BE1" s="136"/>
+      <c r="BF1" s="136"/>
+      <c r="BG1" s="136"/>
+      <c r="BH1" s="136"/>
+      <c r="BI1" s="136"/>
+      <c r="BJ1" s="136"/>
+      <c r="BK1" s="136"/>
+      <c r="BL1" s="136"/>
+      <c r="BM1" s="136"/>
+      <c r="BN1" s="136"/>
+      <c r="BO1" s="136"/>
+      <c r="BP1" s="136"/>
+      <c r="BQ1" s="136"/>
+      <c r="BR1" s="136" t="s">
         <v>104</v>
       </c>
-      <c r="BS1" s="186"/>
-      <c r="BT1" s="186"/>
-      <c r="BU1" s="186"/>
-      <c r="BV1" s="186"/>
-      <c r="BW1" s="186"/>
-      <c r="BX1" s="186" t="s">
+      <c r="BS1" s="136"/>
+      <c r="BT1" s="136"/>
+      <c r="BU1" s="136"/>
+      <c r="BV1" s="136"/>
+      <c r="BW1" s="136"/>
+      <c r="BX1" s="136" t="s">
         <v>106</v>
       </c>
-      <c r="BY1" s="186"/>
-      <c r="BZ1" s="186"/>
-      <c r="CA1" s="186"/>
-      <c r="CB1" s="186"/>
-      <c r="CC1" s="186"/>
-      <c r="CD1" s="186"/>
-      <c r="CE1" s="186"/>
-      <c r="CF1" s="186"/>
-      <c r="CG1" s="186"/>
-      <c r="CH1" s="186"/>
-      <c r="CI1" s="186"/>
-      <c r="CJ1" s="186"/>
+      <c r="BY1" s="136"/>
+      <c r="BZ1" s="136"/>
+      <c r="CA1" s="136"/>
+      <c r="CB1" s="136"/>
+      <c r="CC1" s="136"/>
+      <c r="CD1" s="136"/>
+      <c r="CE1" s="136"/>
+      <c r="CF1" s="136"/>
+      <c r="CG1" s="136"/>
+      <c r="CH1" s="136"/>
+      <c r="CI1" s="136"/>
+      <c r="CJ1" s="136"/>
       <c r="CK1" s="115"/>
     </row>
     <row r="2" spans="1:91" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9867,113 +10053,113 @@
       <c r="F2" s="58"/>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="130"/>
-      <c r="M2" s="130"/>
-      <c r="N2" s="130"/>
-      <c r="O2" s="130"/>
-      <c r="P2" s="130"/>
-      <c r="Q2" s="170"/>
-      <c r="R2" s="170"/>
-      <c r="S2" s="170"/>
-      <c r="T2" s="170"/>
-      <c r="U2" s="170"/>
-      <c r="V2" s="170"/>
-      <c r="W2" s="153" t="s">
+      <c r="I2" s="135"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="135"/>
+      <c r="L2" s="135"/>
+      <c r="M2" s="135"/>
+      <c r="N2" s="135"/>
+      <c r="O2" s="135"/>
+      <c r="P2" s="135"/>
+      <c r="Q2" s="134"/>
+      <c r="R2" s="134"/>
+      <c r="S2" s="134"/>
+      <c r="T2" s="134"/>
+      <c r="U2" s="134"/>
+      <c r="V2" s="134"/>
+      <c r="W2" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="X2" s="154"/>
-      <c r="Y2" s="155"/>
-      <c r="Z2" s="155"/>
-      <c r="AA2" s="155"/>
-      <c r="AB2" s="155"/>
-      <c r="AC2" s="155"/>
-      <c r="AD2" s="155"/>
-      <c r="AE2" s="155"/>
-      <c r="AF2" s="155"/>
-      <c r="AG2" s="155"/>
-      <c r="AH2" s="155"/>
-      <c r="AI2" s="155"/>
-      <c r="AJ2" s="155"/>
-      <c r="AK2" s="155"/>
-      <c r="AL2" s="155"/>
-      <c r="AM2" s="155"/>
-      <c r="AN2" s="155"/>
-      <c r="AO2" s="156"/>
-      <c r="AP2" s="187" t="s">
+      <c r="X2" s="189"/>
+      <c r="Y2" s="141"/>
+      <c r="Z2" s="141"/>
+      <c r="AA2" s="141"/>
+      <c r="AB2" s="141"/>
+      <c r="AC2" s="141"/>
+      <c r="AD2" s="141"/>
+      <c r="AE2" s="141"/>
+      <c r="AF2" s="141"/>
+      <c r="AG2" s="141"/>
+      <c r="AH2" s="141"/>
+      <c r="AI2" s="141"/>
+      <c r="AJ2" s="141"/>
+      <c r="AK2" s="141"/>
+      <c r="AL2" s="141"/>
+      <c r="AM2" s="141"/>
+      <c r="AN2" s="141"/>
+      <c r="AO2" s="143"/>
+      <c r="AP2" s="137" t="s">
         <v>12</v>
       </c>
-      <c r="AQ2" s="130"/>
-      <c r="AR2" s="130"/>
-      <c r="AS2" s="188"/>
-      <c r="AT2" s="129" t="s">
+      <c r="AQ2" s="135"/>
+      <c r="AR2" s="135"/>
+      <c r="AS2" s="138"/>
+      <c r="AT2" s="178" t="s">
         <v>6</v>
       </c>
-      <c r="AU2" s="130"/>
-      <c r="AV2" s="130"/>
-      <c r="AW2" s="169" t="s">
+      <c r="AU2" s="135"/>
+      <c r="AV2" s="135"/>
+      <c r="AW2" s="153" t="s">
         <v>103</v>
       </c>
-      <c r="AX2" s="170"/>
-      <c r="AY2" s="170"/>
-      <c r="AZ2" s="170"/>
-      <c r="BA2" s="170"/>
-      <c r="BB2" s="170"/>
-      <c r="BC2" s="170"/>
-      <c r="BD2" s="170"/>
-      <c r="BE2" s="170"/>
-      <c r="BF2" s="170"/>
-      <c r="BG2" s="170"/>
-      <c r="BH2" s="171"/>
-      <c r="BI2" s="169" t="s">
+      <c r="AX2" s="134"/>
+      <c r="AY2" s="134"/>
+      <c r="AZ2" s="134"/>
+      <c r="BA2" s="134"/>
+      <c r="BB2" s="134"/>
+      <c r="BC2" s="134"/>
+      <c r="BD2" s="134"/>
+      <c r="BE2" s="134"/>
+      <c r="BF2" s="134"/>
+      <c r="BG2" s="134"/>
+      <c r="BH2" s="154"/>
+      <c r="BI2" s="153" t="s">
         <v>107</v>
       </c>
-      <c r="BJ2" s="170"/>
-      <c r="BK2" s="170"/>
-      <c r="BL2" s="170"/>
-      <c r="BM2" s="170"/>
-      <c r="BN2" s="170"/>
-      <c r="BO2" s="170"/>
-      <c r="BP2" s="170"/>
-      <c r="BQ2" s="171"/>
-      <c r="BR2" s="153" t="s">
+      <c r="BJ2" s="134"/>
+      <c r="BK2" s="134"/>
+      <c r="BL2" s="134"/>
+      <c r="BM2" s="134"/>
+      <c r="BN2" s="134"/>
+      <c r="BO2" s="134"/>
+      <c r="BP2" s="134"/>
+      <c r="BQ2" s="154"/>
+      <c r="BR2" s="139" t="s">
         <v>108</v>
       </c>
-      <c r="BS2" s="155" t="s">
+      <c r="BS2" s="141" t="s">
         <v>109</v>
       </c>
-      <c r="BT2" s="155"/>
-      <c r="BU2" s="155" t="s">
+      <c r="BT2" s="141"/>
+      <c r="BU2" s="141" t="s">
         <v>110</v>
       </c>
-      <c r="BV2" s="155" t="s">
+      <c r="BV2" s="141" t="s">
         <v>111</v>
       </c>
-      <c r="BW2" s="156"/>
-      <c r="BX2" s="169" t="s">
+      <c r="BW2" s="143"/>
+      <c r="BX2" s="153" t="s">
         <v>112</v>
       </c>
-      <c r="BY2" s="170"/>
-      <c r="BZ2" s="170"/>
-      <c r="CA2" s="170"/>
-      <c r="CB2" s="170"/>
-      <c r="CC2" s="170"/>
-      <c r="CD2" s="170"/>
-      <c r="CE2" s="170"/>
-      <c r="CF2" s="170"/>
-      <c r="CG2" s="170"/>
-      <c r="CH2" s="170"/>
-      <c r="CI2" s="170"/>
-      <c r="CJ2" s="171"/>
+      <c r="BY2" s="134"/>
+      <c r="BZ2" s="134"/>
+      <c r="CA2" s="134"/>
+      <c r="CB2" s="134"/>
+      <c r="CC2" s="134"/>
+      <c r="CD2" s="134"/>
+      <c r="CE2" s="134"/>
+      <c r="CF2" s="134"/>
+      <c r="CG2" s="134"/>
+      <c r="CH2" s="134"/>
+      <c r="CI2" s="134"/>
+      <c r="CJ2" s="154"/>
       <c r="CK2" s="114" t="s">
         <v>13</v>
       </c>
-      <c r="CL2" s="165" t="s">
+      <c r="CL2" s="174" t="s">
         <v>100</v>
       </c>
-      <c r="CM2" s="165" t="s">
+      <c r="CM2" s="174" t="s">
         <v>102</v>
       </c>
     </row>
@@ -9986,129 +10172,129 @@
       <c r="F3" s="58"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
-      <c r="I3" s="137" t="s">
+      <c r="I3" s="185" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="140" t="s">
+      <c r="J3" s="165" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="140" t="s">
+      <c r="K3" s="165" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="137" t="s">
+      <c r="L3" s="185" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="137" t="s">
+      <c r="M3" s="185" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="140" t="s">
+      <c r="N3" s="165" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="134" t="s">
+      <c r="O3" s="182" t="s">
         <v>72</v>
       </c>
-      <c r="P3" s="140" t="s">
+      <c r="P3" s="165" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="170"/>
-      <c r="R3" s="170"/>
-      <c r="S3" s="170"/>
-      <c r="T3" s="170"/>
-      <c r="U3" s="170"/>
-      <c r="V3" s="170"/>
-      <c r="W3" s="147" t="s">
+      <c r="Q3" s="134"/>
+      <c r="R3" s="134"/>
+      <c r="S3" s="134"/>
+      <c r="T3" s="134"/>
+      <c r="U3" s="134"/>
+      <c r="V3" s="134"/>
+      <c r="W3" s="172" t="s">
         <v>92</v>
       </c>
-      <c r="X3" s="148"/>
-      <c r="Y3" s="148"/>
-      <c r="Z3" s="148"/>
-      <c r="AA3" s="148"/>
-      <c r="AB3" s="131" t="s">
+      <c r="X3" s="147"/>
+      <c r="Y3" s="147"/>
+      <c r="Z3" s="147"/>
+      <c r="AA3" s="147"/>
+      <c r="AB3" s="179" t="s">
         <v>114</v>
       </c>
-      <c r="AC3" s="157"/>
-      <c r="AD3" s="158"/>
-      <c r="AE3" s="158"/>
-      <c r="AF3" s="158"/>
-      <c r="AG3" s="158"/>
-      <c r="AH3" s="158"/>
-      <c r="AI3" s="158"/>
-      <c r="AJ3" s="163" t="s">
+      <c r="AC3" s="160"/>
+      <c r="AD3" s="156"/>
+      <c r="AE3" s="156"/>
+      <c r="AF3" s="156"/>
+      <c r="AG3" s="156"/>
+      <c r="AH3" s="156"/>
+      <c r="AI3" s="156"/>
+      <c r="AJ3" s="192" t="s">
         <v>115</v>
       </c>
-      <c r="AK3" s="148"/>
-      <c r="AL3" s="148"/>
-      <c r="AM3" s="148"/>
-      <c r="AN3" s="148"/>
-      <c r="AO3" s="164"/>
-      <c r="AP3" s="147" t="s">
+      <c r="AK3" s="147"/>
+      <c r="AL3" s="147"/>
+      <c r="AM3" s="147"/>
+      <c r="AN3" s="147"/>
+      <c r="AO3" s="148"/>
+      <c r="AP3" s="172" t="s">
         <v>5</v>
       </c>
-      <c r="AQ3" s="148"/>
-      <c r="AR3" s="148"/>
-      <c r="AS3" s="131" t="s">
+      <c r="AQ3" s="147"/>
+      <c r="AR3" s="147"/>
+      <c r="AS3" s="179" t="s">
         <v>22</v>
       </c>
-      <c r="AT3" s="140" t="s">
+      <c r="AT3" s="165" t="s">
         <v>7</v>
       </c>
-      <c r="AU3" s="178"/>
-      <c r="AV3" s="178"/>
-      <c r="AW3" s="183" t="s">
+      <c r="AU3" s="145"/>
+      <c r="AV3" s="145"/>
+      <c r="AW3" s="161" t="s">
         <v>135</v>
       </c>
-      <c r="AX3" s="185" t="s">
+      <c r="AX3" s="163" t="s">
         <v>8</v>
       </c>
-      <c r="AY3" s="182" t="s">
+      <c r="AY3" s="146" t="s">
         <v>123</v>
       </c>
-      <c r="AZ3" s="148"/>
-      <c r="BA3" s="148"/>
-      <c r="BB3" s="148"/>
-      <c r="BC3" s="157"/>
-      <c r="BD3" s="182" t="s">
+      <c r="AZ3" s="147"/>
+      <c r="BA3" s="147"/>
+      <c r="BB3" s="147"/>
+      <c r="BC3" s="160"/>
+      <c r="BD3" s="146" t="s">
         <v>125</v>
       </c>
-      <c r="BE3" s="148"/>
-      <c r="BF3" s="148"/>
-      <c r="BG3" s="148"/>
-      <c r="BH3" s="164"/>
-      <c r="BI3" s="172" t="s">
+      <c r="BE3" s="147"/>
+      <c r="BF3" s="147"/>
+      <c r="BG3" s="147"/>
+      <c r="BH3" s="148"/>
+      <c r="BI3" s="155" t="s">
         <v>71</v>
       </c>
-      <c r="BJ3" s="158"/>
-      <c r="BK3" s="158"/>
-      <c r="BL3" s="158"/>
-      <c r="BM3" s="158"/>
-      <c r="BN3" s="158"/>
-      <c r="BO3" s="158"/>
-      <c r="BP3" s="182"/>
-      <c r="BQ3" s="173"/>
-      <c r="BR3" s="189"/>
-      <c r="BS3" s="190"/>
-      <c r="BT3" s="190"/>
-      <c r="BU3" s="190"/>
-      <c r="BV3" s="190"/>
-      <c r="BW3" s="191"/>
-      <c r="BX3" s="172" t="s">
+      <c r="BJ3" s="156"/>
+      <c r="BK3" s="156"/>
+      <c r="BL3" s="156"/>
+      <c r="BM3" s="156"/>
+      <c r="BN3" s="156"/>
+      <c r="BO3" s="156"/>
+      <c r="BP3" s="146"/>
+      <c r="BQ3" s="157"/>
+      <c r="BR3" s="140"/>
+      <c r="BS3" s="142"/>
+      <c r="BT3" s="142"/>
+      <c r="BU3" s="142"/>
+      <c r="BV3" s="142"/>
+      <c r="BW3" s="144"/>
+      <c r="BX3" s="155" t="s">
         <v>113</v>
       </c>
-      <c r="BY3" s="158"/>
-      <c r="BZ3" s="158"/>
-      <c r="CA3" s="158"/>
-      <c r="CB3" s="158"/>
-      <c r="CC3" s="158"/>
-      <c r="CD3" s="158"/>
-      <c r="CE3" s="158"/>
-      <c r="CF3" s="158"/>
-      <c r="CG3" s="158"/>
-      <c r="CH3" s="158"/>
-      <c r="CI3" s="158"/>
-      <c r="CJ3" s="173"/>
-      <c r="CK3" s="166"/>
-      <c r="CL3" s="165"/>
-      <c r="CM3" s="165"/>
+      <c r="BY3" s="156"/>
+      <c r="BZ3" s="156"/>
+      <c r="CA3" s="156"/>
+      <c r="CB3" s="156"/>
+      <c r="CC3" s="156"/>
+      <c r="CD3" s="156"/>
+      <c r="CE3" s="156"/>
+      <c r="CF3" s="156"/>
+      <c r="CG3" s="156"/>
+      <c r="CH3" s="156"/>
+      <c r="CI3" s="156"/>
+      <c r="CJ3" s="157"/>
+      <c r="CK3" s="175"/>
+      <c r="CL3" s="174"/>
+      <c r="CM3" s="174"/>
     </row>
     <row r="4" spans="1:91" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -10137,15 +10323,15 @@
         <f>CONCATENATE("Note/",H6)</f>
         <v>Note/241</v>
       </c>
-      <c r="I4" s="138"/>
-      <c r="J4" s="141"/>
-      <c r="K4" s="141"/>
-      <c r="L4" s="138"/>
-      <c r="M4" s="138"/>
-      <c r="N4" s="141"/>
-      <c r="O4" s="135"/>
-      <c r="P4" s="141"/>
-      <c r="Q4" s="179" t="s">
+      <c r="I4" s="186"/>
+      <c r="J4" s="164"/>
+      <c r="K4" s="164"/>
+      <c r="L4" s="186"/>
+      <c r="M4" s="186"/>
+      <c r="N4" s="164"/>
+      <c r="O4" s="183"/>
+      <c r="P4" s="164"/>
+      <c r="Q4" s="166" t="s">
         <v>140</v>
       </c>
       <c r="R4" s="81" t="s">
@@ -10163,193 +10349,193 @@
       <c r="V4" s="78" t="s">
         <v>91</v>
       </c>
-      <c r="W4" s="159" t="s">
+      <c r="W4" s="190" t="s">
         <v>52</v>
       </c>
-      <c r="X4" s="143" t="s">
+      <c r="X4" s="170" t="s">
         <v>10</v>
       </c>
-      <c r="Y4" s="174" t="s">
+      <c r="Y4" s="149" t="s">
         <v>11</v>
       </c>
-      <c r="Z4" s="151" t="s">
+      <c r="Z4" s="130" t="s">
         <v>70</v>
       </c>
-      <c r="AA4" s="174" t="s">
+      <c r="AA4" s="149" t="s">
         <v>73</v>
       </c>
-      <c r="AB4" s="161" t="s">
+      <c r="AB4" s="168" t="s">
         <v>52</v>
       </c>
-      <c r="AC4" s="143" t="s">
+      <c r="AC4" s="170" t="s">
         <v>10</v>
       </c>
-      <c r="AD4" s="143" t="s">
+      <c r="AD4" s="170" t="s">
         <v>11</v>
       </c>
-      <c r="AE4" s="151" t="s">
+      <c r="AE4" s="130" t="s">
         <v>173</v>
       </c>
-      <c r="AF4" s="151" t="s">
+      <c r="AF4" s="130" t="s">
         <v>174</v>
       </c>
-      <c r="AG4" s="151" t="s">
+      <c r="AG4" s="130" t="s">
         <v>175</v>
       </c>
-      <c r="AH4" s="151" t="s">
+      <c r="AH4" s="130" t="s">
         <v>70</v>
       </c>
-      <c r="AI4" s="174" t="s">
+      <c r="AI4" s="149" t="s">
         <v>73</v>
       </c>
-      <c r="AJ4" s="161" t="s">
+      <c r="AJ4" s="168" t="s">
         <v>52</v>
       </c>
-      <c r="AK4" s="143" t="s">
+      <c r="AK4" s="170" t="s">
         <v>10</v>
       </c>
-      <c r="AL4" s="143" t="s">
+      <c r="AL4" s="170" t="s">
         <v>11</v>
       </c>
-      <c r="AM4" s="151" t="s">
+      <c r="AM4" s="130" t="s">
         <v>174</v>
       </c>
-      <c r="AN4" s="151" t="s">
+      <c r="AN4" s="130" t="s">
         <v>70</v>
       </c>
-      <c r="AO4" s="149" t="s">
+      <c r="AO4" s="158" t="s">
         <v>73</v>
       </c>
-      <c r="AP4" s="145" t="s">
+      <c r="AP4" s="151" t="s">
         <v>116</v>
       </c>
-      <c r="AQ4" s="176" t="s">
+      <c r="AQ4" s="132" t="s">
         <v>117</v>
       </c>
-      <c r="AR4" s="177"/>
-      <c r="AS4" s="132"/>
-      <c r="AT4" s="141"/>
-      <c r="AU4" s="170"/>
-      <c r="AV4" s="170"/>
-      <c r="AW4" s="153"/>
-      <c r="AX4" s="155"/>
-      <c r="AY4" s="174" t="s">
+      <c r="AR4" s="133"/>
+      <c r="AS4" s="180"/>
+      <c r="AT4" s="164"/>
+      <c r="AU4" s="134"/>
+      <c r="AV4" s="134"/>
+      <c r="AW4" s="139"/>
+      <c r="AX4" s="141"/>
+      <c r="AY4" s="149" t="s">
         <v>96</v>
       </c>
-      <c r="AZ4" s="174" t="s">
+      <c r="AZ4" s="149" t="s">
         <v>121</v>
       </c>
-      <c r="BA4" s="174" t="s">
+      <c r="BA4" s="149" t="s">
         <v>124</v>
       </c>
-      <c r="BB4" s="174" t="s">
+      <c r="BB4" s="149" t="s">
         <v>126</v>
       </c>
-      <c r="BC4" s="174" t="s">
+      <c r="BC4" s="149" t="s">
         <v>122</v>
       </c>
-      <c r="BD4" s="174" t="s">
+      <c r="BD4" s="149" t="s">
         <v>96</v>
       </c>
-      <c r="BE4" s="174" t="s">
+      <c r="BE4" s="149" t="s">
         <v>121</v>
       </c>
-      <c r="BF4" s="174" t="s">
+      <c r="BF4" s="149" t="s">
         <v>124</v>
       </c>
-      <c r="BG4" s="174" t="s">
+      <c r="BG4" s="149" t="s">
         <v>126</v>
       </c>
-      <c r="BH4" s="174" t="s">
+      <c r="BH4" s="149" t="s">
         <v>122</v>
       </c>
-      <c r="BI4" s="145" t="s">
+      <c r="BI4" s="151" t="s">
         <v>127</v>
       </c>
-      <c r="BJ4" s="174" t="s">
+      <c r="BJ4" s="149" t="s">
         <v>134</v>
       </c>
-      <c r="BK4" s="174" t="s">
+      <c r="BK4" s="149" t="s">
         <v>128</v>
       </c>
-      <c r="BL4" s="174" t="s">
+      <c r="BL4" s="149" t="s">
         <v>129</v>
       </c>
-      <c r="BM4" s="174" t="s">
+      <c r="BM4" s="149" t="s">
         <v>130</v>
       </c>
-      <c r="BN4" s="174" t="s">
+      <c r="BN4" s="149" t="s">
         <v>131</v>
       </c>
-      <c r="BO4" s="174" t="s">
+      <c r="BO4" s="149" t="s">
         <v>132</v>
       </c>
-      <c r="BP4" s="174" t="s">
+      <c r="BP4" s="149" t="s">
         <v>118</v>
       </c>
-      <c r="BQ4" s="149" t="s">
+      <c r="BQ4" s="158" t="s">
         <v>133</v>
       </c>
-      <c r="BR4" s="145" t="s">
+      <c r="BR4" s="151" t="s">
         <v>96</v>
       </c>
-      <c r="BS4" s="174" t="s">
+      <c r="BS4" s="149" t="s">
         <v>97</v>
       </c>
-      <c r="BT4" s="174" t="s">
+      <c r="BT4" s="149" t="s">
         <v>98</v>
       </c>
-      <c r="BU4" s="174" t="s">
+      <c r="BU4" s="149" t="s">
         <v>94</v>
       </c>
-      <c r="BV4" s="174" t="s">
+      <c r="BV4" s="149" t="s">
         <v>99</v>
       </c>
-      <c r="BW4" s="174" t="s">
+      <c r="BW4" s="149" t="s">
         <v>95</v>
       </c>
-      <c r="BX4" s="145" t="s">
+      <c r="BX4" s="151" t="s">
         <v>141</v>
       </c>
-      <c r="BY4" s="174" t="s">
+      <c r="BY4" s="149" t="s">
         <v>142</v>
       </c>
-      <c r="BZ4" s="174" t="s">
+      <c r="BZ4" s="149" t="s">
         <v>143</v>
       </c>
-      <c r="CA4" s="174" t="s">
+      <c r="CA4" s="149" t="s">
         <v>144</v>
       </c>
-      <c r="CB4" s="174" t="s">
+      <c r="CB4" s="149" t="s">
         <v>145</v>
       </c>
-      <c r="CC4" s="174" t="s">
+      <c r="CC4" s="149" t="s">
         <v>146</v>
       </c>
-      <c r="CD4" s="174" t="s">
+      <c r="CD4" s="149" t="s">
         <v>147</v>
       </c>
-      <c r="CE4" s="174" t="s">
+      <c r="CE4" s="149" t="s">
         <v>137</v>
       </c>
-      <c r="CF4" s="174" t="s">
+      <c r="CF4" s="149" t="s">
         <v>148</v>
       </c>
-      <c r="CG4" s="174" t="s">
+      <c r="CG4" s="149" t="s">
         <v>149</v>
       </c>
-      <c r="CH4" s="174" t="s">
+      <c r="CH4" s="149" t="s">
         <v>150</v>
       </c>
-      <c r="CI4" s="174" t="s">
+      <c r="CI4" s="149" t="s">
         <v>151</v>
       </c>
-      <c r="CJ4" s="149" t="s">
+      <c r="CJ4" s="158" t="s">
         <v>152</v>
       </c>
-      <c r="CK4" s="167"/>
-      <c r="CL4" s="165"/>
-      <c r="CM4" s="165"/>
+      <c r="CK4" s="176"/>
+      <c r="CL4" s="174"/>
+      <c r="CM4" s="174"/>
     </row>
     <row r="5" spans="1:91" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
@@ -10360,15 +10546,15 @@
       <c r="F5" s="17"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
-      <c r="I5" s="139"/>
-      <c r="J5" s="142"/>
-      <c r="K5" s="142"/>
-      <c r="L5" s="139"/>
-      <c r="M5" s="139"/>
-      <c r="N5" s="142"/>
-      <c r="O5" s="136"/>
-      <c r="P5" s="129"/>
-      <c r="Q5" s="180"/>
+      <c r="I5" s="187"/>
+      <c r="J5" s="188"/>
+      <c r="K5" s="188"/>
+      <c r="L5" s="187"/>
+      <c r="M5" s="187"/>
+      <c r="N5" s="188"/>
+      <c r="O5" s="184"/>
+      <c r="P5" s="178"/>
+      <c r="Q5" s="167"/>
       <c r="R5" s="93" t="s">
         <v>136</v>
       </c>
@@ -10384,33 +10570,33 @@
       <c r="V5" s="92" t="s">
         <v>139</v>
       </c>
-      <c r="W5" s="160"/>
-      <c r="X5" s="144"/>
-      <c r="Y5" s="175"/>
-      <c r="Z5" s="152"/>
-      <c r="AA5" s="175"/>
-      <c r="AB5" s="162"/>
-      <c r="AC5" s="144"/>
-      <c r="AD5" s="144"/>
-      <c r="AE5" s="152"/>
-      <c r="AF5" s="152"/>
-      <c r="AG5" s="152"/>
-      <c r="AH5" s="152"/>
-      <c r="AI5" s="175"/>
-      <c r="AJ5" s="162"/>
-      <c r="AK5" s="144"/>
-      <c r="AL5" s="144"/>
-      <c r="AM5" s="152"/>
-      <c r="AN5" s="152"/>
-      <c r="AO5" s="150"/>
-      <c r="AP5" s="146"/>
+      <c r="W5" s="191"/>
+      <c r="X5" s="171"/>
+      <c r="Y5" s="150"/>
+      <c r="Z5" s="131"/>
+      <c r="AA5" s="150"/>
+      <c r="AB5" s="169"/>
+      <c r="AC5" s="171"/>
+      <c r="AD5" s="171"/>
+      <c r="AE5" s="131"/>
+      <c r="AF5" s="131"/>
+      <c r="AG5" s="131"/>
+      <c r="AH5" s="131"/>
+      <c r="AI5" s="150"/>
+      <c r="AJ5" s="169"/>
+      <c r="AK5" s="171"/>
+      <c r="AL5" s="171"/>
+      <c r="AM5" s="131"/>
+      <c r="AN5" s="131"/>
+      <c r="AO5" s="159"/>
+      <c r="AP5" s="152"/>
       <c r="AQ5" s="94" t="s">
         <v>93</v>
       </c>
       <c r="AR5" s="94" t="s">
         <v>118</v>
       </c>
-      <c r="AS5" s="133"/>
+      <c r="AS5" s="181"/>
       <c r="AT5" s="102" t="s">
         <v>101</v>
       </c>
@@ -10420,49 +10606,49 @@
       <c r="AV5" s="103" t="s">
         <v>120</v>
       </c>
-      <c r="AW5" s="184"/>
-      <c r="AX5" s="152"/>
-      <c r="AY5" s="175"/>
-      <c r="AZ5" s="175"/>
-      <c r="BA5" s="175"/>
-      <c r="BB5" s="175"/>
-      <c r="BC5" s="175"/>
-      <c r="BD5" s="175"/>
-      <c r="BE5" s="175"/>
-      <c r="BF5" s="175"/>
-      <c r="BG5" s="175"/>
-      <c r="BH5" s="175"/>
-      <c r="BI5" s="146"/>
-      <c r="BJ5" s="175"/>
-      <c r="BK5" s="175"/>
-      <c r="BL5" s="175"/>
-      <c r="BM5" s="175"/>
-      <c r="BN5" s="175"/>
-      <c r="BO5" s="175"/>
-      <c r="BP5" s="175"/>
-      <c r="BQ5" s="150"/>
-      <c r="BR5" s="146"/>
-      <c r="BS5" s="175"/>
-      <c r="BT5" s="175"/>
-      <c r="BU5" s="175"/>
-      <c r="BV5" s="175"/>
-      <c r="BW5" s="175"/>
-      <c r="BX5" s="146"/>
-      <c r="BY5" s="175"/>
-      <c r="BZ5" s="175"/>
-      <c r="CA5" s="175"/>
-      <c r="CB5" s="175"/>
-      <c r="CC5" s="175"/>
-      <c r="CD5" s="175"/>
-      <c r="CE5" s="175"/>
-      <c r="CF5" s="175"/>
-      <c r="CG5" s="175"/>
-      <c r="CH5" s="175"/>
-      <c r="CI5" s="175"/>
-      <c r="CJ5" s="150"/>
-      <c r="CK5" s="168"/>
-      <c r="CL5" s="165"/>
-      <c r="CM5" s="165"/>
+      <c r="AW5" s="162"/>
+      <c r="AX5" s="131"/>
+      <c r="AY5" s="150"/>
+      <c r="AZ5" s="150"/>
+      <c r="BA5" s="150"/>
+      <c r="BB5" s="150"/>
+      <c r="BC5" s="150"/>
+      <c r="BD5" s="150"/>
+      <c r="BE5" s="150"/>
+      <c r="BF5" s="150"/>
+      <c r="BG5" s="150"/>
+      <c r="BH5" s="150"/>
+      <c r="BI5" s="152"/>
+      <c r="BJ5" s="150"/>
+      <c r="BK5" s="150"/>
+      <c r="BL5" s="150"/>
+      <c r="BM5" s="150"/>
+      <c r="BN5" s="150"/>
+      <c r="BO5" s="150"/>
+      <c r="BP5" s="150"/>
+      <c r="BQ5" s="159"/>
+      <c r="BR5" s="152"/>
+      <c r="BS5" s="150"/>
+      <c r="BT5" s="150"/>
+      <c r="BU5" s="150"/>
+      <c r="BV5" s="150"/>
+      <c r="BW5" s="150"/>
+      <c r="BX5" s="152"/>
+      <c r="BY5" s="150"/>
+      <c r="BZ5" s="150"/>
+      <c r="CA5" s="150"/>
+      <c r="CB5" s="150"/>
+      <c r="CC5" s="150"/>
+      <c r="CD5" s="150"/>
+      <c r="CE5" s="150"/>
+      <c r="CF5" s="150"/>
+      <c r="CG5" s="150"/>
+      <c r="CH5" s="150"/>
+      <c r="CI5" s="150"/>
+      <c r="CJ5" s="159"/>
+      <c r="CK5" s="177"/>
+      <c r="CL5" s="174"/>
+      <c r="CM5" s="174"/>
     </row>
     <row r="6" spans="1:91" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -11005,108 +11191,108 @@
       <c r="N8" s="8"/>
       <c r="O8" s="50"/>
       <c r="P8" s="8"/>
-      <c r="Q8" s="141">
+      <c r="Q8" s="164">
         <f>SUM(Q6:V6)</f>
         <v>25</v>
       </c>
-      <c r="R8" s="170"/>
-      <c r="S8" s="170"/>
-      <c r="T8" s="170"/>
-      <c r="U8" s="170"/>
-      <c r="V8" s="170"/>
-      <c r="W8" s="176">
+      <c r="R8" s="134"/>
+      <c r="S8" s="134"/>
+      <c r="T8" s="134"/>
+      <c r="U8" s="134"/>
+      <c r="V8" s="134"/>
+      <c r="W8" s="132">
         <f>SUM(W6:AA6)</f>
         <v>0</v>
       </c>
-      <c r="X8" s="177"/>
-      <c r="Y8" s="177"/>
-      <c r="Z8" s="177"/>
-      <c r="AA8" s="177"/>
-      <c r="AB8" s="176">
+      <c r="X8" s="133"/>
+      <c r="Y8" s="133"/>
+      <c r="Z8" s="133"/>
+      <c r="AA8" s="133"/>
+      <c r="AB8" s="132">
         <f>SUM(AB6:AI6)</f>
         <v>25</v>
       </c>
-      <c r="AC8" s="177"/>
-      <c r="AD8" s="177"/>
-      <c r="AE8" s="177"/>
-      <c r="AF8" s="177"/>
-      <c r="AG8" s="177"/>
-      <c r="AH8" s="177"/>
-      <c r="AI8" s="177"/>
-      <c r="AJ8" s="176">
+      <c r="AC8" s="133"/>
+      <c r="AD8" s="133"/>
+      <c r="AE8" s="133"/>
+      <c r="AF8" s="133"/>
+      <c r="AG8" s="133"/>
+      <c r="AH8" s="133"/>
+      <c r="AI8" s="133"/>
+      <c r="AJ8" s="132">
         <f>SUM(AJ6:AO6)</f>
         <v>9</v>
       </c>
-      <c r="AK8" s="177"/>
-      <c r="AL8" s="177"/>
-      <c r="AM8" s="177"/>
-      <c r="AN8" s="177"/>
-      <c r="AO8" s="181"/>
-      <c r="AP8" s="176">
+      <c r="AK8" s="133"/>
+      <c r="AL8" s="133"/>
+      <c r="AM8" s="133"/>
+      <c r="AN8" s="133"/>
+      <c r="AO8" s="173"/>
+      <c r="AP8" s="132">
         <f>SUM(AP6:AR6)</f>
         <v>5</v>
       </c>
-      <c r="AQ8" s="177"/>
-      <c r="AR8" s="177"/>
+      <c r="AQ8" s="133"/>
+      <c r="AR8" s="133"/>
       <c r="AS8" s="101"/>
-      <c r="AT8" s="176">
+      <c r="AT8" s="132">
         <f>SUM(AT6:AV6)</f>
         <v>7</v>
       </c>
-      <c r="AU8" s="177"/>
-      <c r="AV8" s="177"/>
-      <c r="AW8" s="176">
+      <c r="AU8" s="133"/>
+      <c r="AV8" s="133"/>
+      <c r="AW8" s="132">
         <f>SUM(AW6:BH6)</f>
         <v>42</v>
       </c>
-      <c r="AX8" s="177"/>
-      <c r="AY8" s="177"/>
-      <c r="AZ8" s="177"/>
-      <c r="BA8" s="177"/>
-      <c r="BB8" s="177"/>
-      <c r="BC8" s="177"/>
-      <c r="BD8" s="177"/>
-      <c r="BE8" s="177"/>
-      <c r="BF8" s="177"/>
-      <c r="BG8" s="177"/>
-      <c r="BH8" s="177"/>
-      <c r="BI8" s="176">
+      <c r="AX8" s="133"/>
+      <c r="AY8" s="133"/>
+      <c r="AZ8" s="133"/>
+      <c r="BA8" s="133"/>
+      <c r="BB8" s="133"/>
+      <c r="BC8" s="133"/>
+      <c r="BD8" s="133"/>
+      <c r="BE8" s="133"/>
+      <c r="BF8" s="133"/>
+      <c r="BG8" s="133"/>
+      <c r="BH8" s="133"/>
+      <c r="BI8" s="132">
         <f>SUM(BI6:BQ6)</f>
         <v>31</v>
       </c>
-      <c r="BJ8" s="177"/>
-      <c r="BK8" s="177"/>
-      <c r="BL8" s="177"/>
-      <c r="BM8" s="177"/>
-      <c r="BN8" s="177"/>
-      <c r="BO8" s="177"/>
-      <c r="BP8" s="177"/>
-      <c r="BQ8" s="177"/>
-      <c r="BR8" s="176">
+      <c r="BJ8" s="133"/>
+      <c r="BK8" s="133"/>
+      <c r="BL8" s="133"/>
+      <c r="BM8" s="133"/>
+      <c r="BN8" s="133"/>
+      <c r="BO8" s="133"/>
+      <c r="BP8" s="133"/>
+      <c r="BQ8" s="133"/>
+      <c r="BR8" s="132">
         <f>SUM(BR6:BW6)</f>
         <v>22</v>
       </c>
-      <c r="BS8" s="177"/>
-      <c r="BT8" s="177"/>
-      <c r="BU8" s="177"/>
-      <c r="BV8" s="177"/>
-      <c r="BW8" s="177"/>
-      <c r="BX8" s="176">
+      <c r="BS8" s="133"/>
+      <c r="BT8" s="133"/>
+      <c r="BU8" s="133"/>
+      <c r="BV8" s="133"/>
+      <c r="BW8" s="133"/>
+      <c r="BX8" s="132">
         <f>SUM(BX6:CJ6)</f>
         <v>43</v>
       </c>
-      <c r="BY8" s="177"/>
-      <c r="BZ8" s="177"/>
-      <c r="CA8" s="177"/>
-      <c r="CB8" s="177"/>
-      <c r="CC8" s="177"/>
-      <c r="CD8" s="177"/>
-      <c r="CE8" s="177"/>
-      <c r="CF8" s="177"/>
-      <c r="CG8" s="177"/>
-      <c r="CH8" s="177"/>
-      <c r="CI8" s="177"/>
-      <c r="CJ8" s="177"/>
+      <c r="BY8" s="133"/>
+      <c r="BZ8" s="133"/>
+      <c r="CA8" s="133"/>
+      <c r="CB8" s="133"/>
+      <c r="CC8" s="133"/>
+      <c r="CD8" s="133"/>
+      <c r="CE8" s="133"/>
+      <c r="CF8" s="133"/>
+      <c r="CG8" s="133"/>
+      <c r="CH8" s="133"/>
+      <c r="CI8" s="133"/>
+      <c r="CJ8" s="133"/>
       <c r="CK8" s="2">
         <f>CK6</f>
         <v>0</v>
@@ -13216,7 +13402,7 @@
       <c r="C22" s="119"/>
       <c r="D22" s="108">
         <f t="shared" si="0"/>
-        <v>1.1618257261410789</v>
+        <v>2.6721991701244816</v>
       </c>
       <c r="E22" s="21">
         <f t="shared" si="1"/>
@@ -13229,7 +13415,7 @@
       </c>
       <c r="H22" s="14">
         <f>H55</f>
-        <v>14</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="I22" s="110">
         <v>1</v>
@@ -13753,14 +13939,30 @@
       <c r="AA25" s="91">
         <v>99</v>
       </c>
-      <c r="AB25" s="88"/>
-      <c r="AC25" s="90"/>
-      <c r="AD25" s="91"/>
-      <c r="AE25" s="91"/>
-      <c r="AF25" s="91"/>
-      <c r="AG25" s="91"/>
-      <c r="AH25" s="91"/>
-      <c r="AI25" s="91"/>
+      <c r="AB25" s="88">
+        <v>0.875</v>
+      </c>
+      <c r="AC25" s="90">
+        <v>0.13</v>
+      </c>
+      <c r="AD25" s="91">
+        <v>1</v>
+      </c>
+      <c r="AE25" s="91">
+        <v>0.5</v>
+      </c>
+      <c r="AF25" s="129">
+        <v>0.5</v>
+      </c>
+      <c r="AG25" s="91">
+        <v>0</v>
+      </c>
+      <c r="AH25" s="91">
+        <v>0</v>
+      </c>
+      <c r="AI25" s="91">
+        <v>0</v>
+      </c>
       <c r="AJ25" s="120">
         <v>0.875</v>
       </c>
@@ -13898,14 +14100,30 @@
       <c r="AA26" s="91">
         <v>99</v>
       </c>
-      <c r="AB26" s="88"/>
-      <c r="AC26" s="90"/>
-      <c r="AD26" s="91"/>
-      <c r="AE26" s="91"/>
-      <c r="AF26" s="91"/>
-      <c r="AG26" s="91"/>
-      <c r="AH26" s="91"/>
-      <c r="AI26" s="91"/>
+      <c r="AB26" s="88">
+        <v>1</v>
+      </c>
+      <c r="AC26" s="90">
+        <v>0.5</v>
+      </c>
+      <c r="AD26" s="91">
+        <v>1</v>
+      </c>
+      <c r="AE26" s="91">
+        <v>1</v>
+      </c>
+      <c r="AF26" s="91">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="91">
+        <v>0</v>
+      </c>
+      <c r="AH26" s="91">
+        <v>1</v>
+      </c>
+      <c r="AI26" s="91">
+        <v>1</v>
+      </c>
       <c r="AJ26" s="88">
         <v>1</v>
       </c>
@@ -14043,14 +14261,30 @@
       <c r="AA27" s="91">
         <v>99</v>
       </c>
-      <c r="AB27" s="88"/>
-      <c r="AC27" s="90"/>
-      <c r="AD27" s="91"/>
-      <c r="AE27" s="91"/>
-      <c r="AF27" s="91"/>
-      <c r="AG27" s="91"/>
-      <c r="AH27" s="91"/>
-      <c r="AI27" s="91"/>
+      <c r="AB27" s="88">
+        <v>0.875</v>
+      </c>
+      <c r="AC27" s="90">
+        <v>1</v>
+      </c>
+      <c r="AD27" s="91">
+        <v>1</v>
+      </c>
+      <c r="AE27" s="129">
+        <v>0.75</v>
+      </c>
+      <c r="AF27" s="91">
+        <v>1</v>
+      </c>
+      <c r="AG27" s="91">
+        <v>0</v>
+      </c>
+      <c r="AH27" s="91">
+        <v>1</v>
+      </c>
+      <c r="AI27" s="91">
+        <v>1</v>
+      </c>
       <c r="AJ27" s="120">
         <v>0.875</v>
       </c>
@@ -14188,14 +14422,30 @@
       <c r="AA28" s="91">
         <v>99</v>
       </c>
-      <c r="AB28" s="88"/>
-      <c r="AC28" s="90"/>
-      <c r="AD28" s="91"/>
-      <c r="AE28" s="91"/>
-      <c r="AF28" s="91"/>
-      <c r="AG28" s="91"/>
-      <c r="AH28" s="91"/>
-      <c r="AI28" s="91"/>
+      <c r="AB28" s="88">
+        <v>1</v>
+      </c>
+      <c r="AC28" s="85">
+        <v>0.9</v>
+      </c>
+      <c r="AD28" s="91">
+        <v>1</v>
+      </c>
+      <c r="AE28" s="91">
+        <v>0.5</v>
+      </c>
+      <c r="AF28" s="91">
+        <v>0.5</v>
+      </c>
+      <c r="AG28" s="91">
+        <v>0</v>
+      </c>
+      <c r="AH28" s="91">
+        <v>1</v>
+      </c>
+      <c r="AI28" s="91">
+        <v>1</v>
+      </c>
       <c r="AJ28" s="88">
         <v>1</v>
       </c>
@@ -15081,35 +15331,35 @@
       </c>
       <c r="AB34" s="71">
         <f t="shared" si="11"/>
-        <v>0.921875</v>
+        <v>0.92500000000000004</v>
       </c>
       <c r="AC34" s="71">
         <f t="shared" si="11"/>
-        <v>0.75937500000000002</v>
+        <v>0.7340000000000001</v>
       </c>
       <c r="AD34" s="71">
         <f t="shared" si="11"/>
-        <v>0.90625</v>
+        <v>0.92500000000000004</v>
       </c>
       <c r="AE34" s="79">
         <f t="shared" si="11"/>
-        <v>0.765625</v>
+        <v>0.75</v>
       </c>
       <c r="AF34" s="127">
         <f t="shared" ref="AF34:AG34" si="12">AVERAGE(AF9:AF32)</f>
-        <v>0.8046875</v>
+        <v>0.74375000000000002</v>
       </c>
       <c r="AG34" s="122">
         <f t="shared" si="12"/>
-        <v>0.34375</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="AH34" s="71">
         <f t="shared" si="11"/>
-        <v>0.6875</v>
+        <v>0.7</v>
       </c>
       <c r="AI34" s="71">
         <f t="shared" si="11"/>
-        <v>0.828125</v>
+        <v>0.8125</v>
       </c>
       <c r="AJ34" s="71">
         <f t="shared" si="11"/>
@@ -20759,7 +21009,7 @@
       <c r="F52" s="18"/>
       <c r="H52" s="117">
         <f t="shared" si="22"/>
-        <v>10.625</v>
+        <v>20.414999999999999</v>
       </c>
       <c r="I52" s="117">
         <f t="shared" ref="I52:BW60" si="94">I25*I$6</f>
@@ -20839,23 +21089,23 @@
       </c>
       <c r="AB52" s="117">
         <f t="shared" si="94"/>
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AC52" s="117">
         <f t="shared" si="94"/>
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="AD52" s="117">
         <f t="shared" si="94"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AE52" s="117">
         <f t="shared" si="94"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF52" s="127">
         <f t="shared" ref="AF52:AG52" si="95">AF25*AF$6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG52" s="122">
         <f t="shared" si="95"/>
@@ -21100,7 +21350,7 @@
       <c r="F53" s="18"/>
       <c r="H53" s="117">
         <f t="shared" si="22"/>
-        <v>12.5</v>
+        <v>28.5</v>
       </c>
       <c r="I53" s="117">
         <f t="shared" ref="I53:BA53" si="98">I26*I$6</f>
@@ -21180,19 +21430,19 @@
       </c>
       <c r="AB53" s="117">
         <f t="shared" si="98"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC53" s="117">
         <f t="shared" si="98"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AD53" s="117">
         <f t="shared" si="98"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AE53" s="117">
         <f t="shared" si="98"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AF53" s="127">
         <f t="shared" ref="AF53:AG53" si="99">AF26*AF$6</f>
@@ -21204,11 +21454,11 @@
       </c>
       <c r="AH53" s="117">
         <f t="shared" si="98"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI53" s="117">
         <f t="shared" si="98"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ53" s="117">
         <f t="shared" si="98"/>
@@ -21441,7 +21691,7 @@
       <c r="F54" s="18"/>
       <c r="H54" s="117">
         <f t="shared" si="22"/>
-        <v>15.625</v>
+        <v>36.375</v>
       </c>
       <c r="I54" s="117">
         <f t="shared" ref="I54:BA54" si="102">I27*I$6</f>
@@ -21521,23 +21771,23 @@
       </c>
       <c r="AB54" s="117">
         <f t="shared" si="102"/>
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AC54" s="117">
         <f t="shared" si="102"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD54" s="117">
         <f t="shared" si="102"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AE54" s="117">
         <f t="shared" si="102"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AF54" s="127">
         <f t="shared" ref="AF54:AG54" si="103">AF27*AF$6</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG54" s="122">
         <f t="shared" si="103"/>
@@ -21545,11 +21795,11 @@
       </c>
       <c r="AH54" s="117">
         <f t="shared" si="102"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI54" s="117">
         <f t="shared" si="102"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ54" s="117">
         <f t="shared" si="102"/>
@@ -21779,7 +22029,7 @@
     <row r="55" spans="4:91" x14ac:dyDescent="0.25">
       <c r="H55" s="117">
         <f t="shared" si="22"/>
-        <v>14</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="I55" s="117">
         <f t="shared" ref="I55:BA55" si="106">I28*I$6</f>
@@ -21859,23 +22109,23 @@
       </c>
       <c r="AB55" s="117">
         <f t="shared" si="106"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC55" s="117">
         <f t="shared" si="106"/>
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AD55" s="117">
         <f t="shared" si="106"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AE55" s="117">
         <f t="shared" si="106"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF55" s="127">
         <f t="shared" ref="AF55:AG55" si="107">AF28*AF$6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG55" s="122">
         <f t="shared" si="107"/>
@@ -21883,11 +22133,11 @@
       </c>
       <c r="AH55" s="117">
         <f t="shared" si="106"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI55" s="117">
         <f t="shared" si="106"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ55" s="117">
         <f t="shared" si="106"/>
@@ -29348,7 +29598,7 @@
       <c r="F81" s="18"/>
       <c r="H81" s="117">
         <f t="shared" si="130"/>
-        <v>4.25</v>
+        <v>7.2549999999999999</v>
       </c>
       <c r="I81" s="117">
         <f t="shared" ref="I81:BW81" si="199">I25*I$7</f>
@@ -29428,23 +29678,23 @@
       </c>
       <c r="AB81" s="117">
         <f t="shared" si="199"/>
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC81" s="117">
         <f t="shared" si="199"/>
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="AD81" s="117">
         <f t="shared" si="199"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE81" s="117">
         <f t="shared" si="199"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AF81" s="127">
         <f t="shared" ref="AF81:AG81" si="200">AF25*AF$7</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AG81" s="122">
         <f t="shared" si="200"/>
@@ -29689,7 +29939,7 @@
       <c r="F82" s="18"/>
       <c r="H82" s="117">
         <f t="shared" si="130"/>
-        <v>6.25</v>
+        <v>11.75</v>
       </c>
       <c r="I82" s="117">
         <f t="shared" ref="I82:BW82" si="203">I26*I$7</f>
@@ -29769,19 +30019,19 @@
       </c>
       <c r="AB82" s="117">
         <f t="shared" si="203"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC82" s="117">
         <f t="shared" si="203"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AD82" s="117">
         <f t="shared" si="203"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE82" s="117">
         <f t="shared" si="203"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF82" s="127">
         <f t="shared" ref="AF82:AG82" si="204">AF26*AF$7</f>
@@ -29793,11 +30043,11 @@
       </c>
       <c r="AH82" s="117">
         <f t="shared" si="203"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI82" s="117">
         <f t="shared" si="203"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ82" s="117">
         <f t="shared" si="203"/>
@@ -30030,7 +30280,7 @@
       <c r="F83" s="18"/>
       <c r="H83" s="117">
         <f t="shared" si="130"/>
-        <v>7.625</v>
+        <v>14.25</v>
       </c>
       <c r="I83" s="117">
         <f t="shared" ref="I83:BW83" si="207">I27*I$7</f>
@@ -30110,23 +30360,23 @@
       </c>
       <c r="AB83" s="117">
         <f t="shared" si="207"/>
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC83" s="117">
         <f t="shared" si="207"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD83" s="117">
         <f t="shared" si="207"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE83" s="117">
         <f t="shared" si="207"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AF83" s="127">
         <f t="shared" ref="AF83:AG83" si="208">AF27*AF$7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG83" s="122">
         <f t="shared" si="208"/>
@@ -30134,11 +30384,11 @@
       </c>
       <c r="AH83" s="117">
         <f t="shared" si="207"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI83" s="117">
         <f t="shared" si="207"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ83" s="117">
         <f t="shared" si="207"/>
@@ -30371,7 +30621,7 @@
       <c r="F84" s="18"/>
       <c r="H84" s="117">
         <f t="shared" si="130"/>
-        <v>7</v>
+        <v>12.9</v>
       </c>
       <c r="I84" s="117">
         <f t="shared" ref="I84:BW84" si="211">I28*I$7</f>
@@ -30451,23 +30701,23 @@
       </c>
       <c r="AB84" s="117">
         <f t="shared" si="211"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC84" s="117">
         <f t="shared" si="211"/>
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="AD84" s="117">
         <f t="shared" si="211"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE84" s="117">
         <f t="shared" si="211"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AF84" s="127">
         <f t="shared" ref="AF84:AG84" si="212">AF28*AF$7</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AG84" s="122">
         <f t="shared" si="212"/>
@@ -30475,11 +30725,11 @@
       </c>
       <c r="AH84" s="117">
         <f t="shared" si="211"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI84" s="117">
         <f t="shared" si="211"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ84" s="117">
         <f t="shared" si="211"/>
@@ -32426,6 +32676,90 @@
     </row>
   </sheetData>
   <mergeCells count="108">
+    <mergeCell ref="AT2:AV2"/>
+    <mergeCell ref="AS3:AS5"/>
+    <mergeCell ref="O3:O5"/>
+    <mergeCell ref="I3:I5"/>
+    <mergeCell ref="J3:J5"/>
+    <mergeCell ref="K3:K5"/>
+    <mergeCell ref="L3:L5"/>
+    <mergeCell ref="M3:M5"/>
+    <mergeCell ref="N3:N5"/>
+    <mergeCell ref="X4:X5"/>
+    <mergeCell ref="AP4:AP5"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="P3:P5"/>
+    <mergeCell ref="AO4:AO5"/>
+    <mergeCell ref="AL4:AL5"/>
+    <mergeCell ref="AN4:AN5"/>
+    <mergeCell ref="W2:AO2"/>
+    <mergeCell ref="AB3:AI3"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="AB4:AB5"/>
+    <mergeCell ref="AD4:AD5"/>
+    <mergeCell ref="Z4:Z5"/>
+    <mergeCell ref="AJ3:AO3"/>
+    <mergeCell ref="AM4:AM5"/>
+    <mergeCell ref="CM2:CM5"/>
+    <mergeCell ref="CK3:CK5"/>
+    <mergeCell ref="BX2:CJ2"/>
+    <mergeCell ref="BX3:CJ3"/>
+    <mergeCell ref="BX4:BX5"/>
+    <mergeCell ref="CI4:CI5"/>
+    <mergeCell ref="CJ4:CJ5"/>
+    <mergeCell ref="BY4:BY5"/>
+    <mergeCell ref="BZ4:BZ5"/>
+    <mergeCell ref="CA4:CA5"/>
+    <mergeCell ref="CL2:CL5"/>
+    <mergeCell ref="CB4:CB5"/>
+    <mergeCell ref="CC4:CC5"/>
+    <mergeCell ref="CD4:CD5"/>
+    <mergeCell ref="CE4:CE5"/>
+    <mergeCell ref="CF4:CF5"/>
+    <mergeCell ref="CG4:CG5"/>
+    <mergeCell ref="CH4:CH5"/>
+    <mergeCell ref="BX8:CJ8"/>
+    <mergeCell ref="Q8:V8"/>
+    <mergeCell ref="AT3:AV4"/>
+    <mergeCell ref="AT8:AV8"/>
+    <mergeCell ref="AQ4:AR4"/>
+    <mergeCell ref="AE4:AE5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="Y4:Y5"/>
+    <mergeCell ref="AA4:AA5"/>
+    <mergeCell ref="AI4:AI5"/>
+    <mergeCell ref="AJ4:AJ5"/>
+    <mergeCell ref="AC4:AC5"/>
+    <mergeCell ref="AK4:AK5"/>
+    <mergeCell ref="AH4:AH5"/>
+    <mergeCell ref="W3:AA3"/>
+    <mergeCell ref="AP8:AR8"/>
+    <mergeCell ref="AJ8:AO8"/>
+    <mergeCell ref="AB8:AI8"/>
+    <mergeCell ref="W8:AA8"/>
+    <mergeCell ref="BU4:BU5"/>
+    <mergeCell ref="BV4:BV5"/>
+    <mergeCell ref="BW4:BW5"/>
+    <mergeCell ref="AG4:AG5"/>
+    <mergeCell ref="BL4:BL5"/>
+    <mergeCell ref="BK4:BK5"/>
+    <mergeCell ref="BM4:BM5"/>
+    <mergeCell ref="BN4:BN5"/>
+    <mergeCell ref="BO4:BO5"/>
+    <mergeCell ref="BQ4:BQ5"/>
+    <mergeCell ref="BI8:BQ8"/>
+    <mergeCell ref="AW2:BH2"/>
+    <mergeCell ref="AZ4:AZ5"/>
+    <mergeCell ref="BA4:BA5"/>
+    <mergeCell ref="BC4:BC5"/>
+    <mergeCell ref="BD4:BD5"/>
+    <mergeCell ref="BE4:BE5"/>
+    <mergeCell ref="AY4:AY5"/>
+    <mergeCell ref="AY3:BC3"/>
+    <mergeCell ref="AW3:AW5"/>
+    <mergeCell ref="AX3:AX5"/>
+    <mergeCell ref="BG4:BG5"/>
+    <mergeCell ref="BH4:BH5"/>
     <mergeCell ref="AF4:AF5"/>
     <mergeCell ref="BR8:BW8"/>
     <mergeCell ref="I1:P2"/>
@@ -32450,3150 +32784,3092 @@
     <mergeCell ref="BI3:BQ3"/>
     <mergeCell ref="BI4:BI5"/>
     <mergeCell ref="BJ4:BJ5"/>
-    <mergeCell ref="BK4:BK5"/>
-    <mergeCell ref="BM4:BM5"/>
-    <mergeCell ref="BN4:BN5"/>
-    <mergeCell ref="BO4:BO5"/>
-    <mergeCell ref="BQ4:BQ5"/>
-    <mergeCell ref="BI8:BQ8"/>
-    <mergeCell ref="AW2:BH2"/>
-    <mergeCell ref="AZ4:AZ5"/>
-    <mergeCell ref="BA4:BA5"/>
-    <mergeCell ref="BC4:BC5"/>
-    <mergeCell ref="BD4:BD5"/>
-    <mergeCell ref="BE4:BE5"/>
-    <mergeCell ref="AY4:AY5"/>
-    <mergeCell ref="AY3:BC3"/>
-    <mergeCell ref="AW3:AW5"/>
-    <mergeCell ref="AX3:AX5"/>
-    <mergeCell ref="BG4:BG5"/>
-    <mergeCell ref="BH4:BH5"/>
-    <mergeCell ref="BX8:CJ8"/>
-    <mergeCell ref="Q8:V8"/>
-    <mergeCell ref="AT3:AV4"/>
-    <mergeCell ref="AT8:AV8"/>
-    <mergeCell ref="AQ4:AR4"/>
-    <mergeCell ref="AE4:AE5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="Y4:Y5"/>
-    <mergeCell ref="AA4:AA5"/>
-    <mergeCell ref="AI4:AI5"/>
-    <mergeCell ref="AJ4:AJ5"/>
-    <mergeCell ref="AC4:AC5"/>
-    <mergeCell ref="AK4:AK5"/>
-    <mergeCell ref="AH4:AH5"/>
-    <mergeCell ref="W3:AA3"/>
-    <mergeCell ref="AP8:AR8"/>
-    <mergeCell ref="AJ8:AO8"/>
-    <mergeCell ref="AB8:AI8"/>
-    <mergeCell ref="W8:AA8"/>
-    <mergeCell ref="BU4:BU5"/>
-    <mergeCell ref="BV4:BV5"/>
-    <mergeCell ref="BW4:BW5"/>
-    <mergeCell ref="AG4:AG5"/>
-    <mergeCell ref="BL4:BL5"/>
-    <mergeCell ref="CM2:CM5"/>
-    <mergeCell ref="CK3:CK5"/>
-    <mergeCell ref="BX2:CJ2"/>
-    <mergeCell ref="BX3:CJ3"/>
-    <mergeCell ref="BX4:BX5"/>
-    <mergeCell ref="CI4:CI5"/>
-    <mergeCell ref="CJ4:CJ5"/>
-    <mergeCell ref="BY4:BY5"/>
-    <mergeCell ref="BZ4:BZ5"/>
-    <mergeCell ref="CA4:CA5"/>
-    <mergeCell ref="CL2:CL5"/>
-    <mergeCell ref="CB4:CB5"/>
-    <mergeCell ref="CC4:CC5"/>
-    <mergeCell ref="CD4:CD5"/>
-    <mergeCell ref="CE4:CE5"/>
-    <mergeCell ref="CF4:CF5"/>
-    <mergeCell ref="CG4:CG5"/>
-    <mergeCell ref="CH4:CH5"/>
-    <mergeCell ref="AT2:AV2"/>
-    <mergeCell ref="AS3:AS5"/>
-    <mergeCell ref="O3:O5"/>
-    <mergeCell ref="I3:I5"/>
-    <mergeCell ref="J3:J5"/>
-    <mergeCell ref="K3:K5"/>
-    <mergeCell ref="L3:L5"/>
-    <mergeCell ref="M3:M5"/>
-    <mergeCell ref="N3:N5"/>
-    <mergeCell ref="X4:X5"/>
-    <mergeCell ref="AP4:AP5"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="P3:P5"/>
-    <mergeCell ref="AO4:AO5"/>
-    <mergeCell ref="AL4:AL5"/>
-    <mergeCell ref="AN4:AN5"/>
-    <mergeCell ref="W2:AO2"/>
-    <mergeCell ref="AB3:AI3"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="AB4:AB5"/>
-    <mergeCell ref="AD4:AD5"/>
-    <mergeCell ref="Z4:Z5"/>
-    <mergeCell ref="AJ3:AO3"/>
-    <mergeCell ref="AM4:AM5"/>
   </mergeCells>
   <conditionalFormatting sqref="D9:F23 D32:F33">
-    <cfRule type="cellIs" dxfId="827" priority="973" operator="between">
+    <cfRule type="cellIs" dxfId="836" priority="988" operator="between">
       <formula>8</formula>
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="826" priority="974" operator="lessThan">
+    <cfRule type="cellIs" dxfId="835" priority="989" operator="lessThan">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CM9:CM21 CA9:CC23 AP22:AP23 BX9:BY23 AS9:AV23 CI9:CK23 CI32:CK33 J32:AD33 AS32:AV33 BX32:BY33 CA32:CC33 AH32:AL33 AN32:AP33 AN9:AO23 J9:AD23 AH9:AL23">
-    <cfRule type="cellIs" dxfId="825" priority="968" operator="equal">
+    <cfRule type="cellIs" dxfId="834" priority="983" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="824" priority="969" operator="between">
+    <cfRule type="cellIs" dxfId="833" priority="984" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="823" priority="970" operator="between">
+    <cfRule type="cellIs" dxfId="832" priority="985" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP9:AP21">
-    <cfRule type="cellIs" dxfId="822" priority="962" operator="equal">
+    <cfRule type="cellIs" dxfId="831" priority="977" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="821" priority="963" operator="between">
+    <cfRule type="cellIs" dxfId="830" priority="978" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="820" priority="964" operator="between">
+    <cfRule type="cellIs" dxfId="829" priority="979" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ9:AQ19 AQ21">
-    <cfRule type="cellIs" dxfId="819" priority="944" operator="equal">
+    <cfRule type="cellIs" dxfId="828" priority="959" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="818" priority="945" operator="between">
+    <cfRule type="cellIs" dxfId="827" priority="960" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="817" priority="946" operator="between">
+    <cfRule type="cellIs" dxfId="826" priority="961" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ22:AQ23 AQ33">
-    <cfRule type="cellIs" dxfId="816" priority="941" operator="equal">
+    <cfRule type="cellIs" dxfId="825" priority="956" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="815" priority="942" operator="between">
+    <cfRule type="cellIs" dxfId="824" priority="957" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="814" priority="943" operator="between">
+    <cfRule type="cellIs" dxfId="823" priority="958" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE9 AE17:AE22 AE32:AE33 AE11:AE14">
-    <cfRule type="cellIs" dxfId="813" priority="917" operator="equal">
+    <cfRule type="cellIs" dxfId="822" priority="932" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="812" priority="918" operator="between">
+    <cfRule type="cellIs" dxfId="821" priority="933" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="811" priority="919" operator="between">
+    <cfRule type="cellIs" dxfId="820" priority="934" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BZ9:BZ23 BZ33">
-    <cfRule type="cellIs" dxfId="810" priority="902" operator="equal">
+    <cfRule type="cellIs" dxfId="819" priority="917" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="809" priority="903" operator="between">
+    <cfRule type="cellIs" dxfId="818" priority="918" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="808" priority="904" operator="between">
+    <cfRule type="cellIs" dxfId="817" priority="919" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE15">
-    <cfRule type="cellIs" dxfId="807" priority="896" operator="equal">
+    <cfRule type="cellIs" dxfId="816" priority="911" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="806" priority="897" operator="between">
+    <cfRule type="cellIs" dxfId="815" priority="912" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="805" priority="898" operator="between">
+    <cfRule type="cellIs" dxfId="814" priority="913" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR9:AR19 AR21">
-    <cfRule type="cellIs" dxfId="804" priority="887" operator="equal">
+    <cfRule type="cellIs" dxfId="813" priority="902" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="803" priority="888" operator="between">
+    <cfRule type="cellIs" dxfId="812" priority="903" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="802" priority="889" operator="between">
+    <cfRule type="cellIs" dxfId="811" priority="904" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR22:AR23 AR33">
-    <cfRule type="cellIs" dxfId="801" priority="884" operator="equal">
+    <cfRule type="cellIs" dxfId="810" priority="899" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="800" priority="885" operator="between">
+    <cfRule type="cellIs" dxfId="809" priority="900" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="799" priority="886" operator="between">
+    <cfRule type="cellIs" dxfId="808" priority="901" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ20">
-    <cfRule type="cellIs" dxfId="798" priority="857" operator="equal">
+    <cfRule type="cellIs" dxfId="807" priority="872" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="797" priority="858" operator="between">
+    <cfRule type="cellIs" dxfId="806" priority="873" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="796" priority="859" operator="between">
+    <cfRule type="cellIs" dxfId="805" priority="874" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR20">
-    <cfRule type="cellIs" dxfId="795" priority="851" operator="equal">
+    <cfRule type="cellIs" dxfId="804" priority="866" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="794" priority="852" operator="between">
+    <cfRule type="cellIs" dxfId="803" priority="867" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="793" priority="853" operator="between">
+    <cfRule type="cellIs" dxfId="802" priority="868" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ32">
-    <cfRule type="cellIs" dxfId="792" priority="845" operator="equal">
+    <cfRule type="cellIs" dxfId="801" priority="860" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="791" priority="846" operator="between">
+    <cfRule type="cellIs" dxfId="800" priority="861" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="790" priority="847" operator="between">
+    <cfRule type="cellIs" dxfId="799" priority="862" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR32">
-    <cfRule type="cellIs" dxfId="789" priority="839" operator="equal">
+    <cfRule type="cellIs" dxfId="798" priority="854" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="788" priority="840" operator="between">
+    <cfRule type="cellIs" dxfId="797" priority="855" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="787" priority="841" operator="between">
+    <cfRule type="cellIs" dxfId="796" priority="856" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CL9:CL21">
-    <cfRule type="cellIs" dxfId="786" priority="821" operator="equal">
+    <cfRule type="cellIs" dxfId="795" priority="836" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="785" priority="822" operator="between">
+    <cfRule type="cellIs" dxfId="794" priority="837" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="784" priority="823" operator="between">
+    <cfRule type="cellIs" dxfId="793" priority="838" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BZ32">
-    <cfRule type="cellIs" dxfId="783" priority="815" operator="equal">
+    <cfRule type="cellIs" dxfId="792" priority="830" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="782" priority="816" operator="between">
+    <cfRule type="cellIs" dxfId="791" priority="831" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="781" priority="817" operator="between">
+    <cfRule type="cellIs" dxfId="790" priority="832" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BC9:BE23 AW9:AW23 BG9:BH23 AZ9:AZ23 AZ32:AZ33 BG32:BH33 AW32:AW33 BC32:BE33">
-    <cfRule type="cellIs" dxfId="780" priority="812" operator="equal">
+    <cfRule type="cellIs" dxfId="789" priority="827" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="779" priority="813" operator="between">
+    <cfRule type="cellIs" dxfId="788" priority="828" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="778" priority="814" operator="between">
+    <cfRule type="cellIs" dxfId="787" priority="829" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA9:BA23 BA33">
-    <cfRule type="cellIs" dxfId="777" priority="809" operator="equal">
+    <cfRule type="cellIs" dxfId="786" priority="824" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="776" priority="810" operator="between">
+    <cfRule type="cellIs" dxfId="785" priority="825" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="775" priority="811" operator="between">
+    <cfRule type="cellIs" dxfId="784" priority="826" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA32">
-    <cfRule type="cellIs" dxfId="774" priority="806" operator="equal">
+    <cfRule type="cellIs" dxfId="783" priority="821" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="773" priority="807" operator="between">
+    <cfRule type="cellIs" dxfId="782" priority="822" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="772" priority="808" operator="between">
+    <cfRule type="cellIs" dxfId="781" priority="823" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BL9:BO23 BI9:BJ23 BQ9:BQ23 BQ32:BQ33 BI32:BJ33 BL32:BO33">
-    <cfRule type="cellIs" dxfId="771" priority="803" operator="equal">
+    <cfRule type="cellIs" dxfId="780" priority="818" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="770" priority="804" operator="between">
+    <cfRule type="cellIs" dxfId="779" priority="819" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="769" priority="805" operator="between">
+    <cfRule type="cellIs" dxfId="778" priority="820" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK9:BK23 BK33">
-    <cfRule type="cellIs" dxfId="768" priority="800" operator="equal">
+    <cfRule type="cellIs" dxfId="777" priority="815" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="767" priority="801" operator="between">
+    <cfRule type="cellIs" dxfId="776" priority="816" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="766" priority="802" operator="between">
+    <cfRule type="cellIs" dxfId="775" priority="817" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK32">
-    <cfRule type="cellIs" dxfId="765" priority="797" operator="equal">
+    <cfRule type="cellIs" dxfId="774" priority="812" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="764" priority="798" operator="between">
+    <cfRule type="cellIs" dxfId="773" priority="813" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="763" priority="799" operator="between">
+    <cfRule type="cellIs" dxfId="772" priority="814" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BU9:BW23 BR9:BS23 BR32:BS33 BU32:BW33">
-    <cfRule type="cellIs" dxfId="762" priority="794" operator="equal">
+    <cfRule type="cellIs" dxfId="771" priority="809" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="761" priority="795" operator="between">
+    <cfRule type="cellIs" dxfId="770" priority="810" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="760" priority="796" operator="between">
+    <cfRule type="cellIs" dxfId="769" priority="811" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BT9:BT23 BT33">
-    <cfRule type="cellIs" dxfId="759" priority="791" operator="equal">
+    <cfRule type="cellIs" dxfId="768" priority="806" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="758" priority="792" operator="between">
+    <cfRule type="cellIs" dxfId="767" priority="807" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="757" priority="793" operator="between">
+    <cfRule type="cellIs" dxfId="766" priority="808" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BT32">
-    <cfRule type="cellIs" dxfId="756" priority="788" operator="equal">
+    <cfRule type="cellIs" dxfId="765" priority="803" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="755" priority="789" operator="between">
+    <cfRule type="cellIs" dxfId="764" priority="804" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="754" priority="790" operator="between">
+    <cfRule type="cellIs" dxfId="763" priority="805" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB9:BB23 BB32:BB33">
-    <cfRule type="cellIs" dxfId="753" priority="785" operator="equal">
+    <cfRule type="cellIs" dxfId="762" priority="800" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="752" priority="786" operator="between">
+    <cfRule type="cellIs" dxfId="761" priority="801" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="751" priority="787" operator="between">
+    <cfRule type="cellIs" dxfId="760" priority="802" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF9:BF23 BF32:BF33">
-    <cfRule type="cellIs" dxfId="750" priority="782" operator="equal">
+    <cfRule type="cellIs" dxfId="759" priority="797" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="749" priority="783" operator="between">
+    <cfRule type="cellIs" dxfId="758" priority="798" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="748" priority="784" operator="between">
+    <cfRule type="cellIs" dxfId="757" priority="799" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP9:BP23 BP32:BP33">
-    <cfRule type="cellIs" dxfId="747" priority="779" operator="equal">
+    <cfRule type="cellIs" dxfId="756" priority="794" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="746" priority="780" operator="between">
+    <cfRule type="cellIs" dxfId="755" priority="795" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="745" priority="781" operator="between">
+    <cfRule type="cellIs" dxfId="754" priority="796" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY9:AY23 AY32:AY33">
-    <cfRule type="cellIs" dxfId="744" priority="776" operator="equal">
+    <cfRule type="cellIs" dxfId="753" priority="791" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="743" priority="777" operator="between">
+    <cfRule type="cellIs" dxfId="752" priority="792" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="742" priority="778" operator="between">
+    <cfRule type="cellIs" dxfId="751" priority="793" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX9:AX23 AX32:AX33">
-    <cfRule type="cellIs" dxfId="741" priority="773" operator="equal">
+    <cfRule type="cellIs" dxfId="750" priority="788" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="740" priority="774" operator="between">
+    <cfRule type="cellIs" dxfId="749" priority="789" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="739" priority="775" operator="between">
+    <cfRule type="cellIs" dxfId="748" priority="790" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CD9:CD23 CD32:CD33">
-    <cfRule type="cellIs" dxfId="738" priority="770" operator="equal">
+    <cfRule type="cellIs" dxfId="747" priority="785" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="737" priority="771" operator="between">
+    <cfRule type="cellIs" dxfId="746" priority="786" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="736" priority="772" operator="between">
+    <cfRule type="cellIs" dxfId="745" priority="787" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CE9:CE23 CE32:CE33">
-    <cfRule type="cellIs" dxfId="735" priority="767" operator="equal">
+    <cfRule type="cellIs" dxfId="744" priority="782" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="734" priority="768" operator="between">
+    <cfRule type="cellIs" dxfId="743" priority="783" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="733" priority="769" operator="between">
+    <cfRule type="cellIs" dxfId="742" priority="784" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CF9:CF23 CF32:CF33">
-    <cfRule type="cellIs" dxfId="732" priority="764" operator="equal">
+    <cfRule type="cellIs" dxfId="741" priority="779" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="731" priority="765" operator="between">
+    <cfRule type="cellIs" dxfId="740" priority="780" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="730" priority="766" operator="between">
+    <cfRule type="cellIs" dxfId="739" priority="781" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CG9:CG23 CG32:CG33">
-    <cfRule type="cellIs" dxfId="729" priority="761" operator="equal">
+    <cfRule type="cellIs" dxfId="738" priority="776" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="728" priority="762" operator="between">
+    <cfRule type="cellIs" dxfId="737" priority="777" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="727" priority="763" operator="between">
+    <cfRule type="cellIs" dxfId="736" priority="778" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CH9:CH23 CH32:CH33">
-    <cfRule type="cellIs" dxfId="726" priority="758" operator="equal">
+    <cfRule type="cellIs" dxfId="735" priority="773" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="725" priority="759" operator="between">
+    <cfRule type="cellIs" dxfId="734" priority="774" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="724" priority="760" operator="between">
+    <cfRule type="cellIs" dxfId="733" priority="775" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CM22:CM23 CM32">
-    <cfRule type="cellIs" dxfId="723" priority="755" operator="equal">
+    <cfRule type="cellIs" dxfId="732" priority="770" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="722" priority="756" operator="between">
+    <cfRule type="cellIs" dxfId="731" priority="771" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="721" priority="757" operator="between">
+    <cfRule type="cellIs" dxfId="730" priority="772" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CL22:CL23 CL32">
-    <cfRule type="cellIs" dxfId="720" priority="752" operator="equal">
+    <cfRule type="cellIs" dxfId="729" priority="767" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="719" priority="753" operator="between">
+    <cfRule type="cellIs" dxfId="728" priority="768" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="718" priority="754" operator="between">
+    <cfRule type="cellIs" dxfId="727" priority="769" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9:I23 I32">
-    <cfRule type="cellIs" dxfId="717" priority="749" operator="equal">
+    <cfRule type="cellIs" dxfId="726" priority="764" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="716" priority="750" operator="between">
+    <cfRule type="cellIs" dxfId="725" priority="765" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="715" priority="751" operator="between">
+    <cfRule type="cellIs" dxfId="724" priority="766" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:F24">
-    <cfRule type="cellIs" dxfId="714" priority="747" operator="between">
+    <cfRule type="cellIs" dxfId="723" priority="762" operator="between">
       <formula>8</formula>
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="713" priority="748" operator="lessThan">
+    <cfRule type="cellIs" dxfId="722" priority="763" operator="lessThan">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CI24:CK24 J24:AD24 AS24:AV24 BX24:BY24 CA24:CC24 AH24:AL24 AN24 AP24">
-    <cfRule type="cellIs" dxfId="712" priority="744" operator="equal">
+    <cfRule type="cellIs" dxfId="721" priority="759" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="711" priority="745" operator="between">
+    <cfRule type="cellIs" dxfId="720" priority="760" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="710" priority="746" operator="between">
+    <cfRule type="cellIs" dxfId="719" priority="761" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE24">
-    <cfRule type="cellIs" dxfId="709" priority="741" operator="equal">
+    <cfRule type="cellIs" dxfId="718" priority="756" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="708" priority="742" operator="between">
+    <cfRule type="cellIs" dxfId="717" priority="757" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="707" priority="743" operator="between">
+    <cfRule type="cellIs" dxfId="716" priority="758" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ24">
-    <cfRule type="cellIs" dxfId="706" priority="738" operator="equal">
+    <cfRule type="cellIs" dxfId="715" priority="753" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="705" priority="739" operator="between">
+    <cfRule type="cellIs" dxfId="714" priority="754" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="704" priority="740" operator="between">
+    <cfRule type="cellIs" dxfId="713" priority="755" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR24">
-    <cfRule type="cellIs" dxfId="703" priority="735" operator="equal">
+    <cfRule type="cellIs" dxfId="712" priority="750" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="702" priority="736" operator="between">
+    <cfRule type="cellIs" dxfId="711" priority="751" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="701" priority="737" operator="between">
+    <cfRule type="cellIs" dxfId="710" priority="752" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BZ24">
-    <cfRule type="cellIs" dxfId="700" priority="732" operator="equal">
+    <cfRule type="cellIs" dxfId="709" priority="747" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="699" priority="733" operator="between">
+    <cfRule type="cellIs" dxfId="708" priority="748" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="698" priority="734" operator="between">
+    <cfRule type="cellIs" dxfId="707" priority="749" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ24 BG24:BH24 AW24 BC24:BE24">
-    <cfRule type="cellIs" dxfId="697" priority="729" operator="equal">
+    <cfRule type="cellIs" dxfId="706" priority="744" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="696" priority="730" operator="between">
+    <cfRule type="cellIs" dxfId="705" priority="745" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="695" priority="731" operator="between">
+    <cfRule type="cellIs" dxfId="704" priority="746" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA24">
-    <cfRule type="cellIs" dxfId="694" priority="726" operator="equal">
+    <cfRule type="cellIs" dxfId="703" priority="741" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="693" priority="727" operator="between">
+    <cfRule type="cellIs" dxfId="702" priority="742" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="692" priority="728" operator="between">
+    <cfRule type="cellIs" dxfId="701" priority="743" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BQ24 BI24:BJ24 BL24:BO24">
-    <cfRule type="cellIs" dxfId="691" priority="723" operator="equal">
+    <cfRule type="cellIs" dxfId="700" priority="738" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="690" priority="724" operator="between">
+    <cfRule type="cellIs" dxfId="699" priority="739" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="689" priority="725" operator="between">
+    <cfRule type="cellIs" dxfId="698" priority="740" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK24">
-    <cfRule type="cellIs" dxfId="688" priority="720" operator="equal">
+    <cfRule type="cellIs" dxfId="697" priority="735" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="687" priority="721" operator="between">
+    <cfRule type="cellIs" dxfId="696" priority="736" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="686" priority="722" operator="between">
+    <cfRule type="cellIs" dxfId="695" priority="737" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BR24:BS24 BU24:BW24">
-    <cfRule type="cellIs" dxfId="685" priority="717" operator="equal">
+    <cfRule type="cellIs" dxfId="694" priority="732" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="684" priority="718" operator="between">
+    <cfRule type="cellIs" dxfId="693" priority="733" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="683" priority="719" operator="between">
+    <cfRule type="cellIs" dxfId="692" priority="734" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BT24">
-    <cfRule type="cellIs" dxfId="682" priority="714" operator="equal">
+    <cfRule type="cellIs" dxfId="691" priority="729" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="681" priority="715" operator="between">
+    <cfRule type="cellIs" dxfId="690" priority="730" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="680" priority="716" operator="between">
+    <cfRule type="cellIs" dxfId="689" priority="731" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB24">
-    <cfRule type="cellIs" dxfId="679" priority="711" operator="equal">
+    <cfRule type="cellIs" dxfId="688" priority="726" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="678" priority="712" operator="between">
+    <cfRule type="cellIs" dxfId="687" priority="727" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="677" priority="713" operator="between">
+    <cfRule type="cellIs" dxfId="686" priority="728" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF24">
-    <cfRule type="cellIs" dxfId="676" priority="708" operator="equal">
+    <cfRule type="cellIs" dxfId="685" priority="723" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="675" priority="709" operator="between">
+    <cfRule type="cellIs" dxfId="684" priority="724" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="674" priority="710" operator="between">
+    <cfRule type="cellIs" dxfId="683" priority="725" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP24">
-    <cfRule type="cellIs" dxfId="673" priority="705" operator="equal">
+    <cfRule type="cellIs" dxfId="682" priority="720" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="672" priority="706" operator="between">
+    <cfRule type="cellIs" dxfId="681" priority="721" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="671" priority="707" operator="between">
+    <cfRule type="cellIs" dxfId="680" priority="722" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY24">
-    <cfRule type="cellIs" dxfId="670" priority="702" operator="equal">
+    <cfRule type="cellIs" dxfId="679" priority="717" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="669" priority="703" operator="between">
+    <cfRule type="cellIs" dxfId="678" priority="718" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="668" priority="704" operator="between">
+    <cfRule type="cellIs" dxfId="677" priority="719" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX24">
-    <cfRule type="cellIs" dxfId="667" priority="699" operator="equal">
+    <cfRule type="cellIs" dxfId="676" priority="714" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="666" priority="700" operator="between">
+    <cfRule type="cellIs" dxfId="675" priority="715" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="665" priority="701" operator="between">
+    <cfRule type="cellIs" dxfId="674" priority="716" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CD24">
-    <cfRule type="cellIs" dxfId="664" priority="696" operator="equal">
+    <cfRule type="cellIs" dxfId="673" priority="711" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="663" priority="697" operator="between">
+    <cfRule type="cellIs" dxfId="672" priority="712" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="662" priority="698" operator="between">
+    <cfRule type="cellIs" dxfId="671" priority="713" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CE24">
-    <cfRule type="cellIs" dxfId="661" priority="693" operator="equal">
+    <cfRule type="cellIs" dxfId="670" priority="708" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="660" priority="694" operator="between">
+    <cfRule type="cellIs" dxfId="669" priority="709" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="659" priority="695" operator="between">
+    <cfRule type="cellIs" dxfId="668" priority="710" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CF24">
-    <cfRule type="cellIs" dxfId="658" priority="690" operator="equal">
+    <cfRule type="cellIs" dxfId="667" priority="705" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="657" priority="691" operator="between">
+    <cfRule type="cellIs" dxfId="666" priority="706" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="656" priority="692" operator="between">
+    <cfRule type="cellIs" dxfId="665" priority="707" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CG24">
-    <cfRule type="cellIs" dxfId="655" priority="687" operator="equal">
+    <cfRule type="cellIs" dxfId="664" priority="702" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="654" priority="688" operator="between">
+    <cfRule type="cellIs" dxfId="663" priority="703" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="653" priority="689" operator="between">
+    <cfRule type="cellIs" dxfId="662" priority="704" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CH24">
-    <cfRule type="cellIs" dxfId="652" priority="684" operator="equal">
+    <cfRule type="cellIs" dxfId="661" priority="699" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="651" priority="685" operator="between">
+    <cfRule type="cellIs" dxfId="660" priority="700" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="650" priority="686" operator="between">
+    <cfRule type="cellIs" dxfId="659" priority="701" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CM24">
-    <cfRule type="cellIs" dxfId="649" priority="681" operator="equal">
+    <cfRule type="cellIs" dxfId="658" priority="696" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="648" priority="682" operator="between">
+    <cfRule type="cellIs" dxfId="657" priority="697" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="647" priority="683" operator="between">
+    <cfRule type="cellIs" dxfId="656" priority="698" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CL24">
-    <cfRule type="cellIs" dxfId="646" priority="678" operator="equal">
+    <cfRule type="cellIs" dxfId="655" priority="693" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="645" priority="679" operator="between">
+    <cfRule type="cellIs" dxfId="654" priority="694" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="644" priority="680" operator="between">
+    <cfRule type="cellIs" dxfId="653" priority="695" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24">
-    <cfRule type="cellIs" dxfId="643" priority="675" operator="equal">
+    <cfRule type="cellIs" dxfId="652" priority="690" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="642" priority="676" operator="between">
+    <cfRule type="cellIs" dxfId="651" priority="691" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="641" priority="677" operator="between">
+    <cfRule type="cellIs" dxfId="650" priority="692" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:F25">
-    <cfRule type="cellIs" dxfId="640" priority="673" operator="between">
+    <cfRule type="cellIs" dxfId="649" priority="688" operator="between">
       <formula>8</formula>
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="639" priority="674" operator="lessThan">
+    <cfRule type="cellIs" dxfId="648" priority="689" operator="lessThan">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CI25:CK25 J25:AD25 AS25:AV25 BX25:BY25 CA25:CC25 AH25:AI25 AN25:AP25 AL25">
-    <cfRule type="cellIs" dxfId="638" priority="670" operator="equal">
+  <conditionalFormatting sqref="CI25:CK25 J25:AA25 AS25:AV25 BX25:BY25 CA25:CC25 AH25:AI25 AN25:AP25 AL25 AC25:AD25">
+    <cfRule type="cellIs" dxfId="647" priority="685" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="637" priority="671" operator="between">
+    <cfRule type="cellIs" dxfId="646" priority="686" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="636" priority="672" operator="between">
+    <cfRule type="cellIs" dxfId="645" priority="687" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE25">
-    <cfRule type="cellIs" dxfId="635" priority="667" operator="equal">
+    <cfRule type="cellIs" dxfId="644" priority="682" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="634" priority="668" operator="between">
+    <cfRule type="cellIs" dxfId="643" priority="683" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="633" priority="669" operator="between">
+    <cfRule type="cellIs" dxfId="642" priority="684" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ25">
-    <cfRule type="cellIs" dxfId="632" priority="664" operator="equal">
+    <cfRule type="cellIs" dxfId="641" priority="679" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="631" priority="665" operator="between">
+    <cfRule type="cellIs" dxfId="640" priority="680" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="630" priority="666" operator="between">
+    <cfRule type="cellIs" dxfId="639" priority="681" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR25">
-    <cfRule type="cellIs" dxfId="629" priority="661" operator="equal">
+    <cfRule type="cellIs" dxfId="638" priority="676" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="628" priority="662" operator="between">
+    <cfRule type="cellIs" dxfId="637" priority="677" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="627" priority="663" operator="between">
+    <cfRule type="cellIs" dxfId="636" priority="678" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BZ25">
-    <cfRule type="cellIs" dxfId="626" priority="658" operator="equal">
+    <cfRule type="cellIs" dxfId="635" priority="673" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="625" priority="659" operator="between">
+    <cfRule type="cellIs" dxfId="634" priority="674" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="624" priority="660" operator="between">
+    <cfRule type="cellIs" dxfId="633" priority="675" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ25 BG25:BH25 AW25 BC25:BE25">
-    <cfRule type="cellIs" dxfId="623" priority="655" operator="equal">
+    <cfRule type="cellIs" dxfId="632" priority="670" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="622" priority="656" operator="between">
+    <cfRule type="cellIs" dxfId="631" priority="671" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="621" priority="657" operator="between">
+    <cfRule type="cellIs" dxfId="630" priority="672" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA25">
-    <cfRule type="cellIs" dxfId="620" priority="652" operator="equal">
+    <cfRule type="cellIs" dxfId="629" priority="667" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="619" priority="653" operator="between">
+    <cfRule type="cellIs" dxfId="628" priority="668" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="618" priority="654" operator="between">
+    <cfRule type="cellIs" dxfId="627" priority="669" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BQ25 BI25:BJ25 BL25:BO25">
-    <cfRule type="cellIs" dxfId="617" priority="649" operator="equal">
+    <cfRule type="cellIs" dxfId="626" priority="664" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="616" priority="650" operator="between">
+    <cfRule type="cellIs" dxfId="625" priority="665" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="615" priority="651" operator="between">
+    <cfRule type="cellIs" dxfId="624" priority="666" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK25">
-    <cfRule type="cellIs" dxfId="614" priority="646" operator="equal">
+    <cfRule type="cellIs" dxfId="623" priority="661" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="613" priority="647" operator="between">
+    <cfRule type="cellIs" dxfId="622" priority="662" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="612" priority="648" operator="between">
+    <cfRule type="cellIs" dxfId="621" priority="663" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BR25:BS25 BU25:BW25">
-    <cfRule type="cellIs" dxfId="611" priority="643" operator="equal">
+    <cfRule type="cellIs" dxfId="620" priority="658" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="610" priority="644" operator="between">
+    <cfRule type="cellIs" dxfId="619" priority="659" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="609" priority="645" operator="between">
+    <cfRule type="cellIs" dxfId="618" priority="660" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BT25">
-    <cfRule type="cellIs" dxfId="608" priority="640" operator="equal">
+    <cfRule type="cellIs" dxfId="617" priority="655" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="607" priority="641" operator="between">
+    <cfRule type="cellIs" dxfId="616" priority="656" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="606" priority="642" operator="between">
+    <cfRule type="cellIs" dxfId="615" priority="657" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB25">
-    <cfRule type="cellIs" dxfId="605" priority="637" operator="equal">
+    <cfRule type="cellIs" dxfId="614" priority="652" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="604" priority="638" operator="between">
+    <cfRule type="cellIs" dxfId="613" priority="653" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="603" priority="639" operator="between">
+    <cfRule type="cellIs" dxfId="612" priority="654" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF25">
-    <cfRule type="cellIs" dxfId="602" priority="634" operator="equal">
+    <cfRule type="cellIs" dxfId="611" priority="649" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="601" priority="635" operator="between">
+    <cfRule type="cellIs" dxfId="610" priority="650" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="600" priority="636" operator="between">
+    <cfRule type="cellIs" dxfId="609" priority="651" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP25">
-    <cfRule type="cellIs" dxfId="599" priority="631" operator="equal">
+    <cfRule type="cellIs" dxfId="608" priority="646" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="598" priority="632" operator="between">
+    <cfRule type="cellIs" dxfId="607" priority="647" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="597" priority="633" operator="between">
+    <cfRule type="cellIs" dxfId="606" priority="648" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY25">
-    <cfRule type="cellIs" dxfId="596" priority="628" operator="equal">
+    <cfRule type="cellIs" dxfId="605" priority="643" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="595" priority="629" operator="between">
+    <cfRule type="cellIs" dxfId="604" priority="644" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="594" priority="630" operator="between">
+    <cfRule type="cellIs" dxfId="603" priority="645" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX25">
-    <cfRule type="cellIs" dxfId="593" priority="625" operator="equal">
+    <cfRule type="cellIs" dxfId="602" priority="640" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="592" priority="626" operator="between">
+    <cfRule type="cellIs" dxfId="601" priority="641" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="591" priority="627" operator="between">
+    <cfRule type="cellIs" dxfId="600" priority="642" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CD25">
-    <cfRule type="cellIs" dxfId="590" priority="622" operator="equal">
+    <cfRule type="cellIs" dxfId="599" priority="637" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="589" priority="623" operator="between">
+    <cfRule type="cellIs" dxfId="598" priority="638" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="588" priority="624" operator="between">
+    <cfRule type="cellIs" dxfId="597" priority="639" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CE25">
-    <cfRule type="cellIs" dxfId="587" priority="619" operator="equal">
+    <cfRule type="cellIs" dxfId="596" priority="634" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="586" priority="620" operator="between">
+    <cfRule type="cellIs" dxfId="595" priority="635" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="585" priority="621" operator="between">
+    <cfRule type="cellIs" dxfId="594" priority="636" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CF25">
-    <cfRule type="cellIs" dxfId="584" priority="616" operator="equal">
+    <cfRule type="cellIs" dxfId="593" priority="631" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="583" priority="617" operator="between">
+    <cfRule type="cellIs" dxfId="592" priority="632" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="582" priority="618" operator="between">
+    <cfRule type="cellIs" dxfId="591" priority="633" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CG25">
-    <cfRule type="cellIs" dxfId="581" priority="613" operator="equal">
+    <cfRule type="cellIs" dxfId="590" priority="628" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="580" priority="614" operator="between">
+    <cfRule type="cellIs" dxfId="589" priority="629" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="579" priority="615" operator="between">
+    <cfRule type="cellIs" dxfId="588" priority="630" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CH25">
-    <cfRule type="cellIs" dxfId="578" priority="610" operator="equal">
+    <cfRule type="cellIs" dxfId="587" priority="625" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="577" priority="611" operator="between">
+    <cfRule type="cellIs" dxfId="586" priority="626" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="576" priority="612" operator="between">
+    <cfRule type="cellIs" dxfId="585" priority="627" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CM25">
-    <cfRule type="cellIs" dxfId="575" priority="607" operator="equal">
+    <cfRule type="cellIs" dxfId="584" priority="622" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="574" priority="608" operator="between">
+    <cfRule type="cellIs" dxfId="583" priority="623" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="573" priority="609" operator="between">
+    <cfRule type="cellIs" dxfId="582" priority="624" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CL25">
-    <cfRule type="cellIs" dxfId="572" priority="604" operator="equal">
+    <cfRule type="cellIs" dxfId="581" priority="619" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="571" priority="605" operator="between">
+    <cfRule type="cellIs" dxfId="580" priority="620" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="570" priority="606" operator="between">
+    <cfRule type="cellIs" dxfId="579" priority="621" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I25">
-    <cfRule type="cellIs" dxfId="569" priority="601" operator="equal">
+    <cfRule type="cellIs" dxfId="578" priority="616" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="568" priority="602" operator="between">
+    <cfRule type="cellIs" dxfId="577" priority="617" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="567" priority="603" operator="between">
+    <cfRule type="cellIs" dxfId="576" priority="618" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26:F26">
-    <cfRule type="cellIs" dxfId="566" priority="599" operator="between">
+    <cfRule type="cellIs" dxfId="575" priority="614" operator="between">
       <formula>8</formula>
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="565" priority="600" operator="lessThan">
+    <cfRule type="cellIs" dxfId="574" priority="615" operator="lessThan">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CI26:CK26 J26:AD26 AS26:AV26 BX26:BY26 CA26:CC26 AH26:AL26 AN26:AP26">
-    <cfRule type="cellIs" dxfId="564" priority="596" operator="equal">
+    <cfRule type="cellIs" dxfId="573" priority="611" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="563" priority="597" operator="between">
+    <cfRule type="cellIs" dxfId="572" priority="612" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="562" priority="598" operator="between">
+    <cfRule type="cellIs" dxfId="571" priority="613" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE26">
-    <cfRule type="cellIs" dxfId="561" priority="593" operator="equal">
+    <cfRule type="cellIs" dxfId="570" priority="608" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="560" priority="594" operator="between">
+    <cfRule type="cellIs" dxfId="569" priority="609" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="559" priority="595" operator="between">
+    <cfRule type="cellIs" dxfId="568" priority="610" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ26">
-    <cfRule type="cellIs" dxfId="558" priority="590" operator="equal">
+    <cfRule type="cellIs" dxfId="567" priority="605" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="557" priority="591" operator="between">
+    <cfRule type="cellIs" dxfId="566" priority="606" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="556" priority="592" operator="between">
+    <cfRule type="cellIs" dxfId="565" priority="607" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR26">
-    <cfRule type="cellIs" dxfId="555" priority="587" operator="equal">
+    <cfRule type="cellIs" dxfId="564" priority="602" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="554" priority="588" operator="between">
+    <cfRule type="cellIs" dxfId="563" priority="603" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="553" priority="589" operator="between">
+    <cfRule type="cellIs" dxfId="562" priority="604" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BZ26">
-    <cfRule type="cellIs" dxfId="552" priority="584" operator="equal">
+    <cfRule type="cellIs" dxfId="561" priority="599" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="551" priority="585" operator="between">
+    <cfRule type="cellIs" dxfId="560" priority="600" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="550" priority="586" operator="between">
+    <cfRule type="cellIs" dxfId="559" priority="601" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ26 BG26:BH26 AW26 BC26:BE26">
-    <cfRule type="cellIs" dxfId="549" priority="581" operator="equal">
+    <cfRule type="cellIs" dxfId="558" priority="596" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="548" priority="582" operator="between">
+    <cfRule type="cellIs" dxfId="557" priority="597" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="547" priority="583" operator="between">
+    <cfRule type="cellIs" dxfId="556" priority="598" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA26">
-    <cfRule type="cellIs" dxfId="546" priority="578" operator="equal">
+    <cfRule type="cellIs" dxfId="555" priority="593" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="545" priority="579" operator="between">
+    <cfRule type="cellIs" dxfId="554" priority="594" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="544" priority="580" operator="between">
+    <cfRule type="cellIs" dxfId="553" priority="595" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BQ26 BI26:BJ26 BL26:BO26">
-    <cfRule type="cellIs" dxfId="543" priority="575" operator="equal">
+    <cfRule type="cellIs" dxfId="552" priority="590" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="542" priority="576" operator="between">
+    <cfRule type="cellIs" dxfId="551" priority="591" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="541" priority="577" operator="between">
+    <cfRule type="cellIs" dxfId="550" priority="592" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK26">
-    <cfRule type="cellIs" dxfId="540" priority="572" operator="equal">
+    <cfRule type="cellIs" dxfId="549" priority="587" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="539" priority="573" operator="between">
+    <cfRule type="cellIs" dxfId="548" priority="588" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="538" priority="574" operator="between">
+    <cfRule type="cellIs" dxfId="547" priority="589" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BR26:BS26 BU26:BW26">
-    <cfRule type="cellIs" dxfId="537" priority="569" operator="equal">
+    <cfRule type="cellIs" dxfId="546" priority="584" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="536" priority="570" operator="between">
+    <cfRule type="cellIs" dxfId="545" priority="585" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="535" priority="571" operator="between">
+    <cfRule type="cellIs" dxfId="544" priority="586" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BT26">
-    <cfRule type="cellIs" dxfId="534" priority="566" operator="equal">
+    <cfRule type="cellIs" dxfId="543" priority="581" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="533" priority="567" operator="between">
+    <cfRule type="cellIs" dxfId="542" priority="582" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="532" priority="568" operator="between">
+    <cfRule type="cellIs" dxfId="541" priority="583" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB26">
-    <cfRule type="cellIs" dxfId="531" priority="563" operator="equal">
+    <cfRule type="cellIs" dxfId="540" priority="578" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="530" priority="564" operator="between">
+    <cfRule type="cellIs" dxfId="539" priority="579" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="529" priority="565" operator="between">
+    <cfRule type="cellIs" dxfId="538" priority="580" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF26">
-    <cfRule type="cellIs" dxfId="528" priority="560" operator="equal">
+    <cfRule type="cellIs" dxfId="537" priority="575" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="527" priority="561" operator="between">
+    <cfRule type="cellIs" dxfId="536" priority="576" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="526" priority="562" operator="between">
+    <cfRule type="cellIs" dxfId="535" priority="577" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP26">
-    <cfRule type="cellIs" dxfId="525" priority="557" operator="equal">
+    <cfRule type="cellIs" dxfId="534" priority="572" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="524" priority="558" operator="between">
+    <cfRule type="cellIs" dxfId="533" priority="573" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="523" priority="559" operator="between">
+    <cfRule type="cellIs" dxfId="532" priority="574" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY26">
-    <cfRule type="cellIs" dxfId="522" priority="554" operator="equal">
+    <cfRule type="cellIs" dxfId="531" priority="569" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="521" priority="555" operator="between">
+    <cfRule type="cellIs" dxfId="530" priority="570" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="520" priority="556" operator="between">
+    <cfRule type="cellIs" dxfId="529" priority="571" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX26">
-    <cfRule type="cellIs" dxfId="519" priority="551" operator="equal">
+    <cfRule type="cellIs" dxfId="528" priority="566" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="518" priority="552" operator="between">
+    <cfRule type="cellIs" dxfId="527" priority="567" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="517" priority="553" operator="between">
+    <cfRule type="cellIs" dxfId="526" priority="568" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CD26">
-    <cfRule type="cellIs" dxfId="516" priority="548" operator="equal">
+    <cfRule type="cellIs" dxfId="525" priority="563" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="515" priority="549" operator="between">
+    <cfRule type="cellIs" dxfId="524" priority="564" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="514" priority="550" operator="between">
+    <cfRule type="cellIs" dxfId="523" priority="565" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CE26">
-    <cfRule type="cellIs" dxfId="513" priority="545" operator="equal">
+    <cfRule type="cellIs" dxfId="522" priority="560" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="512" priority="546" operator="between">
+    <cfRule type="cellIs" dxfId="521" priority="561" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="511" priority="547" operator="between">
+    <cfRule type="cellIs" dxfId="520" priority="562" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CF26">
-    <cfRule type="cellIs" dxfId="510" priority="542" operator="equal">
+    <cfRule type="cellIs" dxfId="519" priority="557" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="509" priority="543" operator="between">
+    <cfRule type="cellIs" dxfId="518" priority="558" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="508" priority="544" operator="between">
+    <cfRule type="cellIs" dxfId="517" priority="559" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CG26">
-    <cfRule type="cellIs" dxfId="507" priority="539" operator="equal">
+    <cfRule type="cellIs" dxfId="516" priority="554" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="506" priority="540" operator="between">
+    <cfRule type="cellIs" dxfId="515" priority="555" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="505" priority="541" operator="between">
+    <cfRule type="cellIs" dxfId="514" priority="556" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CH26">
-    <cfRule type="cellIs" dxfId="504" priority="536" operator="equal">
+    <cfRule type="cellIs" dxfId="513" priority="551" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="503" priority="537" operator="between">
+    <cfRule type="cellIs" dxfId="512" priority="552" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="502" priority="538" operator="between">
+    <cfRule type="cellIs" dxfId="511" priority="553" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CM26">
-    <cfRule type="cellIs" dxfId="501" priority="533" operator="equal">
+    <cfRule type="cellIs" dxfId="510" priority="548" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="500" priority="534" operator="between">
+    <cfRule type="cellIs" dxfId="509" priority="549" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="499" priority="535" operator="between">
+    <cfRule type="cellIs" dxfId="508" priority="550" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CL26">
-    <cfRule type="cellIs" dxfId="498" priority="530" operator="equal">
+    <cfRule type="cellIs" dxfId="507" priority="545" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="497" priority="531" operator="between">
+    <cfRule type="cellIs" dxfId="506" priority="546" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="496" priority="532" operator="between">
+    <cfRule type="cellIs" dxfId="505" priority="547" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26">
-    <cfRule type="cellIs" dxfId="495" priority="527" operator="equal">
+    <cfRule type="cellIs" dxfId="504" priority="542" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="494" priority="528" operator="between">
+    <cfRule type="cellIs" dxfId="503" priority="543" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="493" priority="529" operator="between">
+    <cfRule type="cellIs" dxfId="502" priority="544" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:F27">
-    <cfRule type="cellIs" dxfId="492" priority="525" operator="between">
+    <cfRule type="cellIs" dxfId="501" priority="540" operator="between">
       <formula>8</formula>
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="491" priority="526" operator="lessThan">
+    <cfRule type="cellIs" dxfId="500" priority="541" operator="lessThan">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CI27:CK27 J27:AD27 AS27:AV27 BX27:BY27 CA27:CC27 AH27:AI27 AN27 AK27:AL27 AP27">
-    <cfRule type="cellIs" dxfId="490" priority="522" operator="equal">
+  <conditionalFormatting sqref="CI27:CK27 J27:AA27 AS27:AV27 BX27:BY27 CA27:CC27 AH27:AI27 AN27 AK27:AL27 AP27 AC27:AD27">
+    <cfRule type="cellIs" dxfId="499" priority="537" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="489" priority="523" operator="between">
+    <cfRule type="cellIs" dxfId="498" priority="538" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="488" priority="524" operator="between">
+    <cfRule type="cellIs" dxfId="497" priority="539" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE27">
-    <cfRule type="cellIs" dxfId="487" priority="519" operator="equal">
+  <conditionalFormatting sqref="AQ27">
+    <cfRule type="cellIs" dxfId="493" priority="531" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="486" priority="520" operator="between">
+    <cfRule type="cellIs" dxfId="492" priority="532" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="485" priority="521" operator="between">
+    <cfRule type="cellIs" dxfId="491" priority="533" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ27">
-    <cfRule type="cellIs" dxfId="484" priority="516" operator="equal">
+  <conditionalFormatting sqref="AR27">
+    <cfRule type="cellIs" dxfId="490" priority="528" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="483" priority="517" operator="between">
+    <cfRule type="cellIs" dxfId="489" priority="529" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="482" priority="518" operator="between">
+    <cfRule type="cellIs" dxfId="488" priority="530" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AR27">
-    <cfRule type="cellIs" dxfId="481" priority="513" operator="equal">
+  <conditionalFormatting sqref="BZ27">
+    <cfRule type="cellIs" dxfId="487" priority="525" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="480" priority="514" operator="between">
+    <cfRule type="cellIs" dxfId="486" priority="526" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="479" priority="515" operator="between">
+    <cfRule type="cellIs" dxfId="485" priority="527" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BZ27">
-    <cfRule type="cellIs" dxfId="478" priority="510" operator="equal">
+  <conditionalFormatting sqref="AZ27 BG27:BH27 AW27 BC27:BE27">
+    <cfRule type="cellIs" dxfId="484" priority="522" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="477" priority="511" operator="between">
+    <cfRule type="cellIs" dxfId="483" priority="523" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="476" priority="512" operator="between">
+    <cfRule type="cellIs" dxfId="482" priority="524" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AZ27 BG27:BH27 AW27 BC27:BE27">
-    <cfRule type="cellIs" dxfId="475" priority="507" operator="equal">
+  <conditionalFormatting sqref="BA27">
+    <cfRule type="cellIs" dxfId="481" priority="519" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="474" priority="508" operator="between">
+    <cfRule type="cellIs" dxfId="480" priority="520" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="473" priority="509" operator="between">
+    <cfRule type="cellIs" dxfId="479" priority="521" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BA27">
-    <cfRule type="cellIs" dxfId="472" priority="504" operator="equal">
+  <conditionalFormatting sqref="BQ27 BI27:BJ27 BL27:BO27">
+    <cfRule type="cellIs" dxfId="478" priority="516" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="471" priority="505" operator="between">
+    <cfRule type="cellIs" dxfId="477" priority="517" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="470" priority="506" operator="between">
+    <cfRule type="cellIs" dxfId="476" priority="518" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BQ27 BI27:BJ27 BL27:BO27">
-    <cfRule type="cellIs" dxfId="469" priority="501" operator="equal">
+  <conditionalFormatting sqref="BK27">
+    <cfRule type="cellIs" dxfId="475" priority="513" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="468" priority="502" operator="between">
+    <cfRule type="cellIs" dxfId="474" priority="514" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="467" priority="503" operator="between">
+    <cfRule type="cellIs" dxfId="473" priority="515" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BK27">
-    <cfRule type="cellIs" dxfId="466" priority="498" operator="equal">
+  <conditionalFormatting sqref="BR27:BS27 BU27:BW27">
+    <cfRule type="cellIs" dxfId="472" priority="510" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="465" priority="499" operator="between">
+    <cfRule type="cellIs" dxfId="471" priority="511" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="464" priority="500" operator="between">
+    <cfRule type="cellIs" dxfId="470" priority="512" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BR27:BS27 BU27:BW27">
-    <cfRule type="cellIs" dxfId="463" priority="495" operator="equal">
+  <conditionalFormatting sqref="BT27">
+    <cfRule type="cellIs" dxfId="469" priority="507" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="462" priority="496" operator="between">
+    <cfRule type="cellIs" dxfId="468" priority="508" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="461" priority="497" operator="between">
+    <cfRule type="cellIs" dxfId="467" priority="509" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BT27">
-    <cfRule type="cellIs" dxfId="460" priority="492" operator="equal">
+  <conditionalFormatting sqref="BB27">
+    <cfRule type="cellIs" dxfId="466" priority="504" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="459" priority="493" operator="between">
+    <cfRule type="cellIs" dxfId="465" priority="505" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="458" priority="494" operator="between">
+    <cfRule type="cellIs" dxfId="464" priority="506" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BB27">
-    <cfRule type="cellIs" dxfId="457" priority="489" operator="equal">
+  <conditionalFormatting sqref="BF27">
+    <cfRule type="cellIs" dxfId="463" priority="501" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="456" priority="490" operator="between">
+    <cfRule type="cellIs" dxfId="462" priority="502" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="455" priority="491" operator="between">
+    <cfRule type="cellIs" dxfId="461" priority="503" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BF27">
-    <cfRule type="cellIs" dxfId="454" priority="486" operator="equal">
+  <conditionalFormatting sqref="BP27">
+    <cfRule type="cellIs" dxfId="460" priority="498" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="453" priority="487" operator="between">
+    <cfRule type="cellIs" dxfId="459" priority="499" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="452" priority="488" operator="between">
+    <cfRule type="cellIs" dxfId="458" priority="500" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BP27">
-    <cfRule type="cellIs" dxfId="451" priority="483" operator="equal">
+  <conditionalFormatting sqref="AY27">
+    <cfRule type="cellIs" dxfId="457" priority="495" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="450" priority="484" operator="between">
+    <cfRule type="cellIs" dxfId="456" priority="496" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="449" priority="485" operator="between">
+    <cfRule type="cellIs" dxfId="455" priority="497" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY27">
-    <cfRule type="cellIs" dxfId="448" priority="480" operator="equal">
+  <conditionalFormatting sqref="AX27">
+    <cfRule type="cellIs" dxfId="454" priority="492" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="447" priority="481" operator="between">
+    <cfRule type="cellIs" dxfId="453" priority="493" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="446" priority="482" operator="between">
+    <cfRule type="cellIs" dxfId="452" priority="494" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX27">
-    <cfRule type="cellIs" dxfId="445" priority="477" operator="equal">
+  <conditionalFormatting sqref="CD27">
+    <cfRule type="cellIs" dxfId="451" priority="489" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="444" priority="478" operator="between">
+    <cfRule type="cellIs" dxfId="450" priority="490" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="443" priority="479" operator="between">
+    <cfRule type="cellIs" dxfId="449" priority="491" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CD27">
-    <cfRule type="cellIs" dxfId="442" priority="474" operator="equal">
+  <conditionalFormatting sqref="CE27">
+    <cfRule type="cellIs" dxfId="448" priority="486" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="441" priority="475" operator="between">
+    <cfRule type="cellIs" dxfId="447" priority="487" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="440" priority="476" operator="between">
+    <cfRule type="cellIs" dxfId="446" priority="488" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CE27">
-    <cfRule type="cellIs" dxfId="439" priority="471" operator="equal">
+  <conditionalFormatting sqref="CF27">
+    <cfRule type="cellIs" dxfId="445" priority="483" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="438" priority="472" operator="between">
+    <cfRule type="cellIs" dxfId="444" priority="484" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="437" priority="473" operator="between">
+    <cfRule type="cellIs" dxfId="443" priority="485" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CF27">
-    <cfRule type="cellIs" dxfId="436" priority="468" operator="equal">
+  <conditionalFormatting sqref="CG27">
+    <cfRule type="cellIs" dxfId="442" priority="480" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="435" priority="469" operator="between">
+    <cfRule type="cellIs" dxfId="441" priority="481" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="434" priority="470" operator="between">
+    <cfRule type="cellIs" dxfId="440" priority="482" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CG27">
-    <cfRule type="cellIs" dxfId="433" priority="465" operator="equal">
+  <conditionalFormatting sqref="CH27">
+    <cfRule type="cellIs" dxfId="439" priority="477" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="432" priority="466" operator="between">
+    <cfRule type="cellIs" dxfId="438" priority="478" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="431" priority="467" operator="between">
+    <cfRule type="cellIs" dxfId="437" priority="479" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CH27">
-    <cfRule type="cellIs" dxfId="430" priority="462" operator="equal">
+  <conditionalFormatting sqref="CM27">
+    <cfRule type="cellIs" dxfId="436" priority="474" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="429" priority="463" operator="between">
+    <cfRule type="cellIs" dxfId="435" priority="475" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="428" priority="464" operator="between">
+    <cfRule type="cellIs" dxfId="434" priority="476" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CM27">
-    <cfRule type="cellIs" dxfId="427" priority="459" operator="equal">
+  <conditionalFormatting sqref="CL27">
+    <cfRule type="cellIs" dxfId="433" priority="471" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="426" priority="460" operator="between">
+    <cfRule type="cellIs" dxfId="432" priority="472" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="425" priority="461" operator="between">
+    <cfRule type="cellIs" dxfId="431" priority="473" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CL27">
-    <cfRule type="cellIs" dxfId="424" priority="456" operator="equal">
+  <conditionalFormatting sqref="I27">
+    <cfRule type="cellIs" dxfId="430" priority="468" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="423" priority="457" operator="between">
+    <cfRule type="cellIs" dxfId="429" priority="469" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="422" priority="458" operator="between">
+    <cfRule type="cellIs" dxfId="428" priority="470" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I27">
-    <cfRule type="cellIs" dxfId="421" priority="453" operator="equal">
+  <conditionalFormatting sqref="D28:F28">
+    <cfRule type="cellIs" dxfId="427" priority="466" operator="between">
+      <formula>8</formula>
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="426" priority="467" operator="lessThan">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CI28:CK28 J28:AB28 AS28:AV28 BX28:BY28 CA28:CC28 AH28:AL28 AN28:AP28 AD28">
+    <cfRule type="cellIs" dxfId="425" priority="463" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="420" priority="454" operator="between">
+    <cfRule type="cellIs" dxfId="424" priority="464" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="419" priority="455" operator="between">
+    <cfRule type="cellIs" dxfId="423" priority="465" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D28:F28">
-    <cfRule type="cellIs" dxfId="418" priority="451" operator="between">
+  <conditionalFormatting sqref="AE28">
+    <cfRule type="cellIs" dxfId="422" priority="460" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="421" priority="461" operator="between">
+      <formula>0.01</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="420" priority="462" operator="between">
+      <formula>0.26</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ28">
+    <cfRule type="cellIs" dxfId="419" priority="457" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="418" priority="458" operator="between">
+      <formula>0.01</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="417" priority="459" operator="between">
+      <formula>0.26</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR28">
+    <cfRule type="cellIs" dxfId="416" priority="454" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="415" priority="455" operator="between">
+      <formula>0.01</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="414" priority="456" operator="between">
+      <formula>0.26</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BZ28">
+    <cfRule type="cellIs" dxfId="413" priority="451" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="412" priority="452" operator="between">
+      <formula>0.01</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="411" priority="453" operator="between">
+      <formula>0.26</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AZ28 BG28:BH28 AW28 BC28:BE28">
+    <cfRule type="cellIs" dxfId="410" priority="448" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="409" priority="449" operator="between">
+      <formula>0.01</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="408" priority="450" operator="between">
+      <formula>0.26</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BA28">
+    <cfRule type="cellIs" dxfId="407" priority="445" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="406" priority="446" operator="between">
+      <formula>0.01</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="405" priority="447" operator="between">
+      <formula>0.26</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BQ28 BI28:BJ28 BL28:BO28">
+    <cfRule type="cellIs" dxfId="404" priority="442" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="403" priority="443" operator="between">
+      <formula>0.01</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="402" priority="444" operator="between">
+      <formula>0.26</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BK28">
+    <cfRule type="cellIs" dxfId="401" priority="439" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="400" priority="440" operator="between">
+      <formula>0.01</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="399" priority="441" operator="between">
+      <formula>0.26</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BR28:BS28 BU28:BW28">
+    <cfRule type="cellIs" dxfId="398" priority="436" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="397" priority="437" operator="between">
+      <formula>0.01</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="396" priority="438" operator="between">
+      <formula>0.26</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BT28">
+    <cfRule type="cellIs" dxfId="395" priority="433" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="394" priority="434" operator="between">
+      <formula>0.01</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="393" priority="435" operator="between">
+      <formula>0.26</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BB28">
+    <cfRule type="cellIs" dxfId="392" priority="430" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="391" priority="431" operator="between">
+      <formula>0.01</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="390" priority="432" operator="between">
+      <formula>0.26</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BF28">
+    <cfRule type="cellIs" dxfId="389" priority="427" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="388" priority="428" operator="between">
+      <formula>0.01</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="387" priority="429" operator="between">
+      <formula>0.26</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BP28">
+    <cfRule type="cellIs" dxfId="386" priority="424" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="385" priority="425" operator="between">
+      <formula>0.01</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="384" priority="426" operator="between">
+      <formula>0.26</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AY28">
+    <cfRule type="cellIs" dxfId="383" priority="421" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="382" priority="422" operator="between">
+      <formula>0.01</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="381" priority="423" operator="between">
+      <formula>0.26</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AX28">
+    <cfRule type="cellIs" dxfId="380" priority="418" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="379" priority="419" operator="between">
+      <formula>0.01</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="378" priority="420" operator="between">
+      <formula>0.26</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CD28">
+    <cfRule type="cellIs" dxfId="377" priority="415" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="376" priority="416" operator="between">
+      <formula>0.01</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="375" priority="417" operator="between">
+      <formula>0.26</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CE28">
+    <cfRule type="cellIs" dxfId="374" priority="412" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="373" priority="413" operator="between">
+      <formula>0.01</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="372" priority="414" operator="between">
+      <formula>0.26</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CF28">
+    <cfRule type="cellIs" dxfId="371" priority="409" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="370" priority="410" operator="between">
+      <formula>0.01</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="369" priority="411" operator="between">
+      <formula>0.26</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CG28">
+    <cfRule type="cellIs" dxfId="368" priority="406" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="367" priority="407" operator="between">
+      <formula>0.01</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="366" priority="408" operator="between">
+      <formula>0.26</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CH28">
+    <cfRule type="cellIs" dxfId="365" priority="403" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="364" priority="404" operator="between">
+      <formula>0.01</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="363" priority="405" operator="between">
+      <formula>0.26</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CM28">
+    <cfRule type="cellIs" dxfId="362" priority="400" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="361" priority="401" operator="between">
+      <formula>0.01</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="360" priority="402" operator="between">
+      <formula>0.26</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CL28">
+    <cfRule type="cellIs" dxfId="359" priority="397" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="358" priority="398" operator="between">
+      <formula>0.01</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="357" priority="399" operator="between">
+      <formula>0.26</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I28">
+    <cfRule type="cellIs" dxfId="356" priority="394" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="355" priority="395" operator="between">
+      <formula>0.01</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="354" priority="396" operator="between">
+      <formula>0.26</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29:F29">
+    <cfRule type="cellIs" dxfId="353" priority="392" operator="between">
       <formula>8</formula>
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="417" priority="452" operator="lessThan">
+    <cfRule type="cellIs" dxfId="352" priority="393" operator="lessThan">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CI28:CK28 J28:AD28 AS28:AV28 BX28:BY28 CA28:CC28 AH28:AL28 AN28:AP28">
-    <cfRule type="cellIs" dxfId="416" priority="448" operator="equal">
+  <conditionalFormatting sqref="CI29:CK29 J29:AD29 AS29:AV29 BX29:BY29 CA29:CC29 AH29:AL29 AN29:AP29">
+    <cfRule type="cellIs" dxfId="351" priority="389" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="415" priority="449" operator="between">
+    <cfRule type="cellIs" dxfId="350" priority="390" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="414" priority="450" operator="between">
+    <cfRule type="cellIs" dxfId="349" priority="391" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE28">
-    <cfRule type="cellIs" dxfId="413" priority="445" operator="equal">
+  <conditionalFormatting sqref="AE29">
+    <cfRule type="cellIs" dxfId="348" priority="386" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="412" priority="446" operator="between">
+    <cfRule type="cellIs" dxfId="347" priority="387" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="411" priority="447" operator="between">
+    <cfRule type="cellIs" dxfId="346" priority="388" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ28">
-    <cfRule type="cellIs" dxfId="410" priority="442" operator="equal">
+  <conditionalFormatting sqref="AQ29">
+    <cfRule type="cellIs" dxfId="345" priority="383" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="409" priority="443" operator="between">
+    <cfRule type="cellIs" dxfId="344" priority="384" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="408" priority="444" operator="between">
+    <cfRule type="cellIs" dxfId="343" priority="385" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AR28">
-    <cfRule type="cellIs" dxfId="407" priority="439" operator="equal">
+  <conditionalFormatting sqref="AR29">
+    <cfRule type="cellIs" dxfId="342" priority="380" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="406" priority="440" operator="between">
+    <cfRule type="cellIs" dxfId="341" priority="381" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="405" priority="441" operator="between">
+    <cfRule type="cellIs" dxfId="340" priority="382" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BZ28">
-    <cfRule type="cellIs" dxfId="404" priority="436" operator="equal">
+  <conditionalFormatting sqref="BZ29">
+    <cfRule type="cellIs" dxfId="339" priority="377" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="403" priority="437" operator="between">
+    <cfRule type="cellIs" dxfId="338" priority="378" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="402" priority="438" operator="between">
+    <cfRule type="cellIs" dxfId="337" priority="379" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AZ28 BG28:BH28 AW28 BC28:BE28">
-    <cfRule type="cellIs" dxfId="401" priority="433" operator="equal">
+  <conditionalFormatting sqref="AZ29 BG29:BH29 AW29 BC29:BE29">
+    <cfRule type="cellIs" dxfId="336" priority="374" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="400" priority="434" operator="between">
+    <cfRule type="cellIs" dxfId="335" priority="375" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="399" priority="435" operator="between">
+    <cfRule type="cellIs" dxfId="334" priority="376" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BA28">
-    <cfRule type="cellIs" dxfId="398" priority="430" operator="equal">
+  <conditionalFormatting sqref="BA29">
+    <cfRule type="cellIs" dxfId="333" priority="371" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="397" priority="431" operator="between">
+    <cfRule type="cellIs" dxfId="332" priority="372" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="396" priority="432" operator="between">
+    <cfRule type="cellIs" dxfId="331" priority="373" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BQ28 BI28:BJ28 BL28:BO28">
-    <cfRule type="cellIs" dxfId="395" priority="427" operator="equal">
+  <conditionalFormatting sqref="BQ29 BI29:BJ29 BL29:BO29">
+    <cfRule type="cellIs" dxfId="330" priority="368" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="394" priority="428" operator="between">
+    <cfRule type="cellIs" dxfId="329" priority="369" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="393" priority="429" operator="between">
+    <cfRule type="cellIs" dxfId="328" priority="370" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BK28">
-    <cfRule type="cellIs" dxfId="392" priority="424" operator="equal">
+  <conditionalFormatting sqref="BK29">
+    <cfRule type="cellIs" dxfId="327" priority="365" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="391" priority="425" operator="between">
+    <cfRule type="cellIs" dxfId="326" priority="366" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="390" priority="426" operator="between">
+    <cfRule type="cellIs" dxfId="325" priority="367" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BR28:BS28 BU28:BW28">
-    <cfRule type="cellIs" dxfId="389" priority="421" operator="equal">
+  <conditionalFormatting sqref="BR29:BS29 BU29:BW29">
+    <cfRule type="cellIs" dxfId="324" priority="362" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="388" priority="422" operator="between">
+    <cfRule type="cellIs" dxfId="323" priority="363" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="387" priority="423" operator="between">
+    <cfRule type="cellIs" dxfId="322" priority="364" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BT28">
-    <cfRule type="cellIs" dxfId="386" priority="418" operator="equal">
+  <conditionalFormatting sqref="BT29">
+    <cfRule type="cellIs" dxfId="321" priority="359" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="385" priority="419" operator="between">
+    <cfRule type="cellIs" dxfId="320" priority="360" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="384" priority="420" operator="between">
+    <cfRule type="cellIs" dxfId="319" priority="361" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BB28">
-    <cfRule type="cellIs" dxfId="383" priority="415" operator="equal">
+  <conditionalFormatting sqref="BB29">
+    <cfRule type="cellIs" dxfId="318" priority="356" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="382" priority="416" operator="between">
+    <cfRule type="cellIs" dxfId="317" priority="357" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="381" priority="417" operator="between">
+    <cfRule type="cellIs" dxfId="316" priority="358" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BF28">
-    <cfRule type="cellIs" dxfId="380" priority="412" operator="equal">
+  <conditionalFormatting sqref="BF29">
+    <cfRule type="cellIs" dxfId="315" priority="353" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="379" priority="413" operator="between">
+    <cfRule type="cellIs" dxfId="314" priority="354" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="378" priority="414" operator="between">
+    <cfRule type="cellIs" dxfId="313" priority="355" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BP28">
-    <cfRule type="cellIs" dxfId="377" priority="409" operator="equal">
+  <conditionalFormatting sqref="BP29">
+    <cfRule type="cellIs" dxfId="312" priority="350" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="376" priority="410" operator="between">
+    <cfRule type="cellIs" dxfId="311" priority="351" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="375" priority="411" operator="between">
+    <cfRule type="cellIs" dxfId="310" priority="352" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY28">
-    <cfRule type="cellIs" dxfId="374" priority="406" operator="equal">
+  <conditionalFormatting sqref="AY29">
+    <cfRule type="cellIs" dxfId="309" priority="347" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="373" priority="407" operator="between">
+    <cfRule type="cellIs" dxfId="308" priority="348" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="372" priority="408" operator="between">
+    <cfRule type="cellIs" dxfId="307" priority="349" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX28">
-    <cfRule type="cellIs" dxfId="371" priority="403" operator="equal">
+  <conditionalFormatting sqref="AX29">
+    <cfRule type="cellIs" dxfId="306" priority="344" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="370" priority="404" operator="between">
+    <cfRule type="cellIs" dxfId="305" priority="345" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="369" priority="405" operator="between">
+    <cfRule type="cellIs" dxfId="304" priority="346" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CD28">
-    <cfRule type="cellIs" dxfId="368" priority="400" operator="equal">
+  <conditionalFormatting sqref="CD29">
+    <cfRule type="cellIs" dxfId="303" priority="341" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="367" priority="401" operator="between">
+    <cfRule type="cellIs" dxfId="302" priority="342" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="366" priority="402" operator="between">
+    <cfRule type="cellIs" dxfId="301" priority="343" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CE28">
-    <cfRule type="cellIs" dxfId="365" priority="397" operator="equal">
+  <conditionalFormatting sqref="CE29">
+    <cfRule type="cellIs" dxfId="300" priority="338" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="364" priority="398" operator="between">
+    <cfRule type="cellIs" dxfId="299" priority="339" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="363" priority="399" operator="between">
+    <cfRule type="cellIs" dxfId="298" priority="340" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CF28">
-    <cfRule type="cellIs" dxfId="362" priority="394" operator="equal">
+  <conditionalFormatting sqref="CF29">
+    <cfRule type="cellIs" dxfId="297" priority="335" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="361" priority="395" operator="between">
+    <cfRule type="cellIs" dxfId="296" priority="336" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="360" priority="396" operator="between">
+    <cfRule type="cellIs" dxfId="295" priority="337" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CG28">
-    <cfRule type="cellIs" dxfId="359" priority="391" operator="equal">
+  <conditionalFormatting sqref="CG29">
+    <cfRule type="cellIs" dxfId="294" priority="332" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="358" priority="392" operator="between">
+    <cfRule type="cellIs" dxfId="293" priority="333" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="357" priority="393" operator="between">
+    <cfRule type="cellIs" dxfId="292" priority="334" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CH28">
-    <cfRule type="cellIs" dxfId="356" priority="388" operator="equal">
+  <conditionalFormatting sqref="CH29">
+    <cfRule type="cellIs" dxfId="291" priority="329" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="355" priority="389" operator="between">
+    <cfRule type="cellIs" dxfId="290" priority="330" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="354" priority="390" operator="between">
+    <cfRule type="cellIs" dxfId="289" priority="331" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CM28">
-    <cfRule type="cellIs" dxfId="353" priority="385" operator="equal">
+  <conditionalFormatting sqref="CM29">
+    <cfRule type="cellIs" dxfId="288" priority="326" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="352" priority="386" operator="between">
+    <cfRule type="cellIs" dxfId="287" priority="327" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="351" priority="387" operator="between">
+    <cfRule type="cellIs" dxfId="286" priority="328" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CL28">
-    <cfRule type="cellIs" dxfId="350" priority="382" operator="equal">
+  <conditionalFormatting sqref="CL29">
+    <cfRule type="cellIs" dxfId="285" priority="323" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="349" priority="383" operator="between">
+    <cfRule type="cellIs" dxfId="284" priority="324" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="348" priority="384" operator="between">
+    <cfRule type="cellIs" dxfId="283" priority="325" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I28">
-    <cfRule type="cellIs" dxfId="347" priority="379" operator="equal">
+  <conditionalFormatting sqref="I29">
+    <cfRule type="cellIs" dxfId="282" priority="320" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="346" priority="380" operator="between">
+    <cfRule type="cellIs" dxfId="281" priority="321" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="345" priority="381" operator="between">
+    <cfRule type="cellIs" dxfId="280" priority="322" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D29:F29">
-    <cfRule type="cellIs" dxfId="344" priority="377" operator="between">
+  <conditionalFormatting sqref="D30:F30">
+    <cfRule type="cellIs" dxfId="279" priority="318" operator="between">
       <formula>8</formula>
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="343" priority="378" operator="lessThan">
+    <cfRule type="cellIs" dxfId="278" priority="319" operator="lessThan">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CI29:CK29 J29:AD29 AS29:AV29 BX29:BY29 CA29:CC29 AH29:AL29 AN29:AP29">
-    <cfRule type="cellIs" dxfId="342" priority="374" operator="equal">
+  <conditionalFormatting sqref="CI30:CK30 J30:AD30 AS30:AV30 BX30:BY30 CA30:CC30 AH30:AL30 AN30:AP30">
+    <cfRule type="cellIs" dxfId="277" priority="315" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="341" priority="375" operator="between">
+    <cfRule type="cellIs" dxfId="276" priority="316" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="340" priority="376" operator="between">
+    <cfRule type="cellIs" dxfId="275" priority="317" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE29">
-    <cfRule type="cellIs" dxfId="339" priority="371" operator="equal">
+  <conditionalFormatting sqref="AE30">
+    <cfRule type="cellIs" dxfId="274" priority="312" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="338" priority="372" operator="between">
+    <cfRule type="cellIs" dxfId="273" priority="313" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="337" priority="373" operator="between">
+    <cfRule type="cellIs" dxfId="272" priority="314" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ29">
-    <cfRule type="cellIs" dxfId="336" priority="368" operator="equal">
+  <conditionalFormatting sqref="AQ30">
+    <cfRule type="cellIs" dxfId="271" priority="309" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="335" priority="369" operator="between">
+    <cfRule type="cellIs" dxfId="270" priority="310" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="334" priority="370" operator="between">
+    <cfRule type="cellIs" dxfId="269" priority="311" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AR29">
-    <cfRule type="cellIs" dxfId="333" priority="365" operator="equal">
+  <conditionalFormatting sqref="AR30">
+    <cfRule type="cellIs" dxfId="268" priority="306" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="332" priority="366" operator="between">
+    <cfRule type="cellIs" dxfId="267" priority="307" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="331" priority="367" operator="between">
+    <cfRule type="cellIs" dxfId="266" priority="308" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BZ29">
-    <cfRule type="cellIs" dxfId="330" priority="362" operator="equal">
+  <conditionalFormatting sqref="BZ30">
+    <cfRule type="cellIs" dxfId="265" priority="303" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="329" priority="363" operator="between">
+    <cfRule type="cellIs" dxfId="264" priority="304" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="328" priority="364" operator="between">
+    <cfRule type="cellIs" dxfId="263" priority="305" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AZ29 BG29:BH29 AW29 BC29:BE29">
-    <cfRule type="cellIs" dxfId="327" priority="359" operator="equal">
+  <conditionalFormatting sqref="AZ30 BG30:BH30 AW30 BC30:BE30">
+    <cfRule type="cellIs" dxfId="262" priority="300" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="326" priority="360" operator="between">
+    <cfRule type="cellIs" dxfId="261" priority="301" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="325" priority="361" operator="between">
+    <cfRule type="cellIs" dxfId="260" priority="302" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BA29">
-    <cfRule type="cellIs" dxfId="324" priority="356" operator="equal">
+  <conditionalFormatting sqref="BA30">
+    <cfRule type="cellIs" dxfId="259" priority="297" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="323" priority="357" operator="between">
+    <cfRule type="cellIs" dxfId="258" priority="298" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="322" priority="358" operator="between">
+    <cfRule type="cellIs" dxfId="257" priority="299" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BQ29 BI29:BJ29 BL29:BO29">
-    <cfRule type="cellIs" dxfId="321" priority="353" operator="equal">
+  <conditionalFormatting sqref="BQ30 BI30:BJ30 BL30:BO30">
+    <cfRule type="cellIs" dxfId="256" priority="294" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="320" priority="354" operator="between">
+    <cfRule type="cellIs" dxfId="255" priority="295" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="319" priority="355" operator="between">
+    <cfRule type="cellIs" dxfId="254" priority="296" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BK29">
-    <cfRule type="cellIs" dxfId="318" priority="350" operator="equal">
+  <conditionalFormatting sqref="BK30">
+    <cfRule type="cellIs" dxfId="253" priority="291" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="317" priority="351" operator="between">
+    <cfRule type="cellIs" dxfId="252" priority="292" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="316" priority="352" operator="between">
+    <cfRule type="cellIs" dxfId="251" priority="293" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BR29:BS29 BU29:BW29">
-    <cfRule type="cellIs" dxfId="315" priority="347" operator="equal">
+  <conditionalFormatting sqref="BR30:BS30 BU30:BW30">
+    <cfRule type="cellIs" dxfId="250" priority="288" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="314" priority="348" operator="between">
+    <cfRule type="cellIs" dxfId="249" priority="289" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="313" priority="349" operator="between">
+    <cfRule type="cellIs" dxfId="248" priority="290" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BT29">
-    <cfRule type="cellIs" dxfId="312" priority="344" operator="equal">
+  <conditionalFormatting sqref="BT30">
+    <cfRule type="cellIs" dxfId="247" priority="285" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="311" priority="345" operator="between">
+    <cfRule type="cellIs" dxfId="246" priority="286" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="310" priority="346" operator="between">
+    <cfRule type="cellIs" dxfId="245" priority="287" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BB29">
-    <cfRule type="cellIs" dxfId="309" priority="341" operator="equal">
+  <conditionalFormatting sqref="BB30">
+    <cfRule type="cellIs" dxfId="244" priority="282" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="308" priority="342" operator="between">
+    <cfRule type="cellIs" dxfId="243" priority="283" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="307" priority="343" operator="between">
+    <cfRule type="cellIs" dxfId="242" priority="284" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BF29">
-    <cfRule type="cellIs" dxfId="306" priority="338" operator="equal">
+  <conditionalFormatting sqref="BF30">
+    <cfRule type="cellIs" dxfId="241" priority="279" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="305" priority="339" operator="between">
+    <cfRule type="cellIs" dxfId="240" priority="280" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="304" priority="340" operator="between">
+    <cfRule type="cellIs" dxfId="239" priority="281" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BP29">
-    <cfRule type="cellIs" dxfId="303" priority="335" operator="equal">
+  <conditionalFormatting sqref="BP30">
+    <cfRule type="cellIs" dxfId="238" priority="276" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="302" priority="336" operator="between">
+    <cfRule type="cellIs" dxfId="237" priority="277" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="301" priority="337" operator="between">
+    <cfRule type="cellIs" dxfId="236" priority="278" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY29">
-    <cfRule type="cellIs" dxfId="300" priority="332" operator="equal">
+  <conditionalFormatting sqref="AY30">
+    <cfRule type="cellIs" dxfId="235" priority="273" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="299" priority="333" operator="between">
+    <cfRule type="cellIs" dxfId="234" priority="274" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="298" priority="334" operator="between">
+    <cfRule type="cellIs" dxfId="233" priority="275" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX29">
-    <cfRule type="cellIs" dxfId="297" priority="329" operator="equal">
+  <conditionalFormatting sqref="AX30">
+    <cfRule type="cellIs" dxfId="232" priority="270" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="296" priority="330" operator="between">
+    <cfRule type="cellIs" dxfId="231" priority="271" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="295" priority="331" operator="between">
+    <cfRule type="cellIs" dxfId="230" priority="272" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CD29">
-    <cfRule type="cellIs" dxfId="294" priority="326" operator="equal">
+  <conditionalFormatting sqref="CD30">
+    <cfRule type="cellIs" dxfId="229" priority="267" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="293" priority="327" operator="between">
+    <cfRule type="cellIs" dxfId="228" priority="268" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="292" priority="328" operator="between">
+    <cfRule type="cellIs" dxfId="227" priority="269" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CE29">
-    <cfRule type="cellIs" dxfId="291" priority="323" operator="equal">
+  <conditionalFormatting sqref="CE30">
+    <cfRule type="cellIs" dxfId="226" priority="264" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="290" priority="324" operator="between">
+    <cfRule type="cellIs" dxfId="225" priority="265" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="289" priority="325" operator="between">
+    <cfRule type="cellIs" dxfId="224" priority="266" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CF29">
-    <cfRule type="cellIs" dxfId="288" priority="320" operator="equal">
+  <conditionalFormatting sqref="CF30">
+    <cfRule type="cellIs" dxfId="223" priority="261" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="287" priority="321" operator="between">
+    <cfRule type="cellIs" dxfId="222" priority="262" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="286" priority="322" operator="between">
+    <cfRule type="cellIs" dxfId="221" priority="263" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CG29">
-    <cfRule type="cellIs" dxfId="285" priority="317" operator="equal">
+  <conditionalFormatting sqref="CG30">
+    <cfRule type="cellIs" dxfId="220" priority="258" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="284" priority="318" operator="between">
+    <cfRule type="cellIs" dxfId="219" priority="259" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="283" priority="319" operator="between">
+    <cfRule type="cellIs" dxfId="218" priority="260" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CH29">
-    <cfRule type="cellIs" dxfId="282" priority="314" operator="equal">
+  <conditionalFormatting sqref="CH30">
+    <cfRule type="cellIs" dxfId="217" priority="255" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="281" priority="315" operator="between">
+    <cfRule type="cellIs" dxfId="216" priority="256" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="280" priority="316" operator="between">
+    <cfRule type="cellIs" dxfId="215" priority="257" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CM29">
-    <cfRule type="cellIs" dxfId="279" priority="311" operator="equal">
+  <conditionalFormatting sqref="CM30">
+    <cfRule type="cellIs" dxfId="214" priority="252" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="278" priority="312" operator="between">
+    <cfRule type="cellIs" dxfId="213" priority="253" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="277" priority="313" operator="between">
+    <cfRule type="cellIs" dxfId="212" priority="254" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CL29">
-    <cfRule type="cellIs" dxfId="276" priority="308" operator="equal">
+  <conditionalFormatting sqref="CL30">
+    <cfRule type="cellIs" dxfId="211" priority="249" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="275" priority="309" operator="between">
+    <cfRule type="cellIs" dxfId="210" priority="250" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="274" priority="310" operator="between">
+    <cfRule type="cellIs" dxfId="209" priority="251" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I29">
-    <cfRule type="cellIs" dxfId="273" priority="305" operator="equal">
+  <conditionalFormatting sqref="I30">
+    <cfRule type="cellIs" dxfId="208" priority="246" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="272" priority="306" operator="between">
+    <cfRule type="cellIs" dxfId="207" priority="247" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="271" priority="307" operator="between">
+    <cfRule type="cellIs" dxfId="206" priority="248" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D30:F30">
-    <cfRule type="cellIs" dxfId="270" priority="303" operator="between">
+  <conditionalFormatting sqref="D31:F31">
+    <cfRule type="cellIs" dxfId="205" priority="244" operator="between">
       <formula>8</formula>
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="269" priority="304" operator="lessThan">
+    <cfRule type="cellIs" dxfId="204" priority="245" operator="lessThan">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CI30:CK30 J30:AD30 AS30:AV30 BX30:BY30 CA30:CC30 AH30:AL30 AN30:AP30">
-    <cfRule type="cellIs" dxfId="268" priority="300" operator="equal">
+  <conditionalFormatting sqref="CI31:CK31 J31:AD31 AS31:AV31 BX31:BY31 CA31:CC31 AH31:AL31 AN31:AP31">
+    <cfRule type="cellIs" dxfId="203" priority="241" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="267" priority="301" operator="between">
+    <cfRule type="cellIs" dxfId="202" priority="242" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="266" priority="302" operator="between">
+    <cfRule type="cellIs" dxfId="201" priority="243" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE30">
-    <cfRule type="cellIs" dxfId="265" priority="297" operator="equal">
+  <conditionalFormatting sqref="AE31">
+    <cfRule type="cellIs" dxfId="200" priority="238" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="264" priority="298" operator="between">
+    <cfRule type="cellIs" dxfId="199" priority="239" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="263" priority="299" operator="between">
+    <cfRule type="cellIs" dxfId="198" priority="240" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ30">
-    <cfRule type="cellIs" dxfId="262" priority="294" operator="equal">
+  <conditionalFormatting sqref="AQ31">
+    <cfRule type="cellIs" dxfId="197" priority="235" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="261" priority="295" operator="between">
+    <cfRule type="cellIs" dxfId="196" priority="236" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="260" priority="296" operator="between">
+    <cfRule type="cellIs" dxfId="195" priority="237" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AR30">
-    <cfRule type="cellIs" dxfId="259" priority="291" operator="equal">
+  <conditionalFormatting sqref="AR31">
+    <cfRule type="cellIs" dxfId="194" priority="232" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="258" priority="292" operator="between">
+    <cfRule type="cellIs" dxfId="193" priority="233" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="257" priority="293" operator="between">
+    <cfRule type="cellIs" dxfId="192" priority="234" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BZ30">
-    <cfRule type="cellIs" dxfId="256" priority="288" operator="equal">
+  <conditionalFormatting sqref="BZ31">
+    <cfRule type="cellIs" dxfId="191" priority="229" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="255" priority="289" operator="between">
+    <cfRule type="cellIs" dxfId="190" priority="230" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="254" priority="290" operator="between">
+    <cfRule type="cellIs" dxfId="189" priority="231" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AZ30 BG30:BH30 AW30 BC30:BE30">
-    <cfRule type="cellIs" dxfId="253" priority="285" operator="equal">
+  <conditionalFormatting sqref="AZ31 BG31:BH31 AW31 BC31:BE31">
+    <cfRule type="cellIs" dxfId="188" priority="226" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="252" priority="286" operator="between">
+    <cfRule type="cellIs" dxfId="187" priority="227" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="251" priority="287" operator="between">
+    <cfRule type="cellIs" dxfId="186" priority="228" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BA30">
-    <cfRule type="cellIs" dxfId="250" priority="282" operator="equal">
+  <conditionalFormatting sqref="BA31">
+    <cfRule type="cellIs" dxfId="185" priority="223" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="249" priority="283" operator="between">
+    <cfRule type="cellIs" dxfId="184" priority="224" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="248" priority="284" operator="between">
+    <cfRule type="cellIs" dxfId="183" priority="225" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BQ30 BI30:BJ30 BL30:BO30">
-    <cfRule type="cellIs" dxfId="247" priority="279" operator="equal">
+  <conditionalFormatting sqref="BQ31 BI31:BJ31 BL31:BO31">
+    <cfRule type="cellIs" dxfId="182" priority="220" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="246" priority="280" operator="between">
+    <cfRule type="cellIs" dxfId="181" priority="221" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="245" priority="281" operator="between">
+    <cfRule type="cellIs" dxfId="180" priority="222" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BK30">
-    <cfRule type="cellIs" dxfId="244" priority="276" operator="equal">
+  <conditionalFormatting sqref="BK31">
+    <cfRule type="cellIs" dxfId="179" priority="217" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="243" priority="277" operator="between">
+    <cfRule type="cellIs" dxfId="178" priority="218" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="242" priority="278" operator="between">
+    <cfRule type="cellIs" dxfId="177" priority="219" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BR30:BS30 BU30:BW30">
-    <cfRule type="cellIs" dxfId="241" priority="273" operator="equal">
+  <conditionalFormatting sqref="BR31:BS31 BU31:BW31">
+    <cfRule type="cellIs" dxfId="176" priority="214" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="240" priority="274" operator="between">
+    <cfRule type="cellIs" dxfId="175" priority="215" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="239" priority="275" operator="between">
+    <cfRule type="cellIs" dxfId="174" priority="216" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BT30">
-    <cfRule type="cellIs" dxfId="238" priority="270" operator="equal">
+  <conditionalFormatting sqref="BT31">
+    <cfRule type="cellIs" dxfId="173" priority="211" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="237" priority="271" operator="between">
+    <cfRule type="cellIs" dxfId="172" priority="212" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="236" priority="272" operator="between">
+    <cfRule type="cellIs" dxfId="171" priority="213" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BB30">
-    <cfRule type="cellIs" dxfId="235" priority="267" operator="equal">
+  <conditionalFormatting sqref="BB31">
+    <cfRule type="cellIs" dxfId="170" priority="208" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="268" operator="between">
+    <cfRule type="cellIs" dxfId="169" priority="209" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="233" priority="269" operator="between">
+    <cfRule type="cellIs" dxfId="168" priority="210" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BF30">
-    <cfRule type="cellIs" dxfId="232" priority="264" operator="equal">
+  <conditionalFormatting sqref="BF31">
+    <cfRule type="cellIs" dxfId="167" priority="205" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="231" priority="265" operator="between">
+    <cfRule type="cellIs" dxfId="166" priority="206" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="230" priority="266" operator="between">
+    <cfRule type="cellIs" dxfId="165" priority="207" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BP30">
-    <cfRule type="cellIs" dxfId="229" priority="261" operator="equal">
+  <conditionalFormatting sqref="BP31">
+    <cfRule type="cellIs" dxfId="164" priority="202" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="262" operator="between">
+    <cfRule type="cellIs" dxfId="163" priority="203" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="227" priority="263" operator="between">
+    <cfRule type="cellIs" dxfId="162" priority="204" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY30">
-    <cfRule type="cellIs" dxfId="226" priority="258" operator="equal">
+  <conditionalFormatting sqref="AY31">
+    <cfRule type="cellIs" dxfId="161" priority="199" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="259" operator="between">
+    <cfRule type="cellIs" dxfId="160" priority="200" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="224" priority="260" operator="between">
+    <cfRule type="cellIs" dxfId="159" priority="201" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX30">
-    <cfRule type="cellIs" dxfId="223" priority="255" operator="equal">
+  <conditionalFormatting sqref="AX31">
+    <cfRule type="cellIs" dxfId="158" priority="196" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="256" operator="between">
+    <cfRule type="cellIs" dxfId="157" priority="197" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="221" priority="257" operator="between">
+    <cfRule type="cellIs" dxfId="156" priority="198" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CD30">
-    <cfRule type="cellIs" dxfId="220" priority="252" operator="equal">
+  <conditionalFormatting sqref="CD31">
+    <cfRule type="cellIs" dxfId="155" priority="193" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="219" priority="253" operator="between">
+    <cfRule type="cellIs" dxfId="154" priority="194" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="218" priority="254" operator="between">
+    <cfRule type="cellIs" dxfId="153" priority="195" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CE30">
-    <cfRule type="cellIs" dxfId="217" priority="249" operator="equal">
+  <conditionalFormatting sqref="CE31">
+    <cfRule type="cellIs" dxfId="152" priority="190" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="250" operator="between">
+    <cfRule type="cellIs" dxfId="151" priority="191" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="215" priority="251" operator="between">
+    <cfRule type="cellIs" dxfId="150" priority="192" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CF30">
-    <cfRule type="cellIs" dxfId="214" priority="246" operator="equal">
+  <conditionalFormatting sqref="CF31">
+    <cfRule type="cellIs" dxfId="149" priority="187" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="213" priority="247" operator="between">
+    <cfRule type="cellIs" dxfId="148" priority="188" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="212" priority="248" operator="between">
+    <cfRule type="cellIs" dxfId="147" priority="189" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CG30">
-    <cfRule type="cellIs" dxfId="211" priority="243" operator="equal">
+  <conditionalFormatting sqref="CG31">
+    <cfRule type="cellIs" dxfId="146" priority="184" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="244" operator="between">
+    <cfRule type="cellIs" dxfId="145" priority="185" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="209" priority="245" operator="between">
+    <cfRule type="cellIs" dxfId="144" priority="186" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CH30">
-    <cfRule type="cellIs" dxfId="208" priority="240" operator="equal">
+  <conditionalFormatting sqref="CH31">
+    <cfRule type="cellIs" dxfId="143" priority="181" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="207" priority="241" operator="between">
+    <cfRule type="cellIs" dxfId="142" priority="182" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="206" priority="242" operator="between">
+    <cfRule type="cellIs" dxfId="141" priority="183" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CM30">
-    <cfRule type="cellIs" dxfId="205" priority="237" operator="equal">
+  <conditionalFormatting sqref="CM31">
+    <cfRule type="cellIs" dxfId="140" priority="178" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="238" operator="between">
+    <cfRule type="cellIs" dxfId="139" priority="179" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="203" priority="239" operator="between">
+    <cfRule type="cellIs" dxfId="138" priority="180" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CL30">
-    <cfRule type="cellIs" dxfId="202" priority="234" operator="equal">
+  <conditionalFormatting sqref="CL31">
+    <cfRule type="cellIs" dxfId="137" priority="175" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="235" operator="between">
+    <cfRule type="cellIs" dxfId="136" priority="176" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="200" priority="236" operator="between">
+    <cfRule type="cellIs" dxfId="135" priority="177" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I30">
-    <cfRule type="cellIs" dxfId="199" priority="231" operator="equal">
+  <conditionalFormatting sqref="I31">
+    <cfRule type="cellIs" dxfId="134" priority="172" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="232" operator="between">
+    <cfRule type="cellIs" dxfId="133" priority="173" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="197" priority="233" operator="between">
+    <cfRule type="cellIs" dxfId="132" priority="174" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31:F31">
-    <cfRule type="cellIs" dxfId="196" priority="229" operator="between">
-      <formula>8</formula>
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="195" priority="230" operator="lessThan">
-      <formula>8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CI31:CK31 J31:AD31 AS31:AV31 BX31:BY31 CA31:CC31 AH31:AL31 AN31:AP31">
-    <cfRule type="cellIs" dxfId="194" priority="226" operator="equal">
+  <conditionalFormatting sqref="AM32:AM33 AM9:AM23">
+    <cfRule type="cellIs" dxfId="131" priority="142" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="227" operator="between">
+    <cfRule type="cellIs" dxfId="130" priority="143" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="228" operator="between">
+    <cfRule type="cellIs" dxfId="129" priority="144" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE31">
-    <cfRule type="cellIs" dxfId="191" priority="223" operator="equal">
+  <conditionalFormatting sqref="AM26">
+    <cfRule type="cellIs" dxfId="128" priority="133" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="224" operator="between">
+    <cfRule type="cellIs" dxfId="127" priority="134" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="225" operator="between">
+    <cfRule type="cellIs" dxfId="126" priority="135" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ31">
-    <cfRule type="cellIs" dxfId="188" priority="220" operator="equal">
+  <conditionalFormatting sqref="AM27">
+    <cfRule type="cellIs" dxfId="125" priority="130" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="187" priority="221" operator="between">
+    <cfRule type="cellIs" dxfId="124" priority="131" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="222" operator="between">
+    <cfRule type="cellIs" dxfId="123" priority="132" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AR31">
-    <cfRule type="cellIs" dxfId="185" priority="217" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="218" operator="between">
-      <formula>0.01</formula>
-      <formula>0.25</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="183" priority="219" operator="between">
-      <formula>0.26</formula>
-      <formula>0.5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BZ31">
-    <cfRule type="cellIs" dxfId="182" priority="214" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="215" operator="between">
-      <formula>0.01</formula>
-      <formula>0.25</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="216" operator="between">
-      <formula>0.26</formula>
-      <formula>0.5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AZ31 BG31:BH31 AW31 BC31:BE31">
-    <cfRule type="cellIs" dxfId="179" priority="211" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="212" operator="between">
-      <formula>0.01</formula>
-      <formula>0.25</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="213" operator="between">
-      <formula>0.26</formula>
-      <formula>0.5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BA31">
-    <cfRule type="cellIs" dxfId="176" priority="208" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="175" priority="209" operator="between">
-      <formula>0.01</formula>
-      <formula>0.25</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="210" operator="between">
-      <formula>0.26</formula>
-      <formula>0.5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BQ31 BI31:BJ31 BL31:BO31">
-    <cfRule type="cellIs" dxfId="173" priority="205" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="206" operator="between">
-      <formula>0.01</formula>
-      <formula>0.25</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="171" priority="207" operator="between">
-      <formula>0.26</formula>
-      <formula>0.5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BK31">
-    <cfRule type="cellIs" dxfId="170" priority="202" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="203" operator="between">
-      <formula>0.01</formula>
-      <formula>0.25</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="204" operator="between">
-      <formula>0.26</formula>
-      <formula>0.5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BR31:BS31 BU31:BW31">
-    <cfRule type="cellIs" dxfId="167" priority="199" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="200" operator="between">
-      <formula>0.01</formula>
-      <formula>0.25</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="201" operator="between">
-      <formula>0.26</formula>
-      <formula>0.5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BT31">
-    <cfRule type="cellIs" dxfId="164" priority="196" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="197" operator="between">
-      <formula>0.01</formula>
-      <formula>0.25</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="198" operator="between">
-      <formula>0.26</formula>
-      <formula>0.5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BB31">
-    <cfRule type="cellIs" dxfId="161" priority="193" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="194" operator="between">
-      <formula>0.01</formula>
-      <formula>0.25</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="195" operator="between">
-      <formula>0.26</formula>
-      <formula>0.5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BF31">
-    <cfRule type="cellIs" dxfId="158" priority="190" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="191" operator="between">
-      <formula>0.01</formula>
-      <formula>0.25</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="192" operator="between">
-      <formula>0.26</formula>
-      <formula>0.5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BP31">
-    <cfRule type="cellIs" dxfId="155" priority="187" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="188" operator="between">
-      <formula>0.01</formula>
-      <formula>0.25</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="189" operator="between">
-      <formula>0.26</formula>
-      <formula>0.5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AY31">
-    <cfRule type="cellIs" dxfId="152" priority="184" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="185" operator="between">
-      <formula>0.01</formula>
-      <formula>0.25</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="186" operator="between">
-      <formula>0.26</formula>
-      <formula>0.5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AX31">
-    <cfRule type="cellIs" dxfId="149" priority="181" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="182" operator="between">
-      <formula>0.01</formula>
-      <formula>0.25</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="183" operator="between">
-      <formula>0.26</formula>
-      <formula>0.5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CD31">
-    <cfRule type="cellIs" dxfId="146" priority="178" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="179" operator="between">
-      <formula>0.01</formula>
-      <formula>0.25</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="180" operator="between">
-      <formula>0.26</formula>
-      <formula>0.5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CE31">
-    <cfRule type="cellIs" dxfId="143" priority="175" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="176" operator="between">
-      <formula>0.01</formula>
-      <formula>0.25</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="177" operator="between">
-      <formula>0.26</formula>
-      <formula>0.5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CF31">
-    <cfRule type="cellIs" dxfId="140" priority="172" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="173" operator="between">
-      <formula>0.01</formula>
-      <formula>0.25</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="174" operator="between">
-      <formula>0.26</formula>
-      <formula>0.5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CG31">
-    <cfRule type="cellIs" dxfId="137" priority="169" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="170" operator="between">
-      <formula>0.01</formula>
-      <formula>0.25</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="171" operator="between">
-      <formula>0.26</formula>
-      <formula>0.5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CH31">
-    <cfRule type="cellIs" dxfId="134" priority="166" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="167" operator="between">
-      <formula>0.01</formula>
-      <formula>0.25</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="168" operator="between">
-      <formula>0.26</formula>
-      <formula>0.5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CM31">
-    <cfRule type="cellIs" dxfId="131" priority="163" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="164" operator="between">
-      <formula>0.01</formula>
-      <formula>0.25</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="165" operator="between">
-      <formula>0.26</formula>
-      <formula>0.5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CL31">
-    <cfRule type="cellIs" dxfId="128" priority="160" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="161" operator="between">
-      <formula>0.01</formula>
-      <formula>0.25</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="162" operator="between">
-      <formula>0.26</formula>
-      <formula>0.5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I31">
-    <cfRule type="cellIs" dxfId="125" priority="157" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="158" operator="between">
-      <formula>0.01</formula>
-      <formula>0.25</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="159" operator="between">
-      <formula>0.26</formula>
-      <formula>0.5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM32:AM33 AM9:AM23">
+  <conditionalFormatting sqref="AM28">
     <cfRule type="cellIs" dxfId="122" priority="127" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -35606,293 +35882,293 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM26">
-    <cfRule type="cellIs" dxfId="119" priority="118" operator="equal">
+  <conditionalFormatting sqref="AM29">
+    <cfRule type="cellIs" dxfId="119" priority="124" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="119" operator="between">
+    <cfRule type="cellIs" dxfId="118" priority="125" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="120" operator="between">
+    <cfRule type="cellIs" dxfId="117" priority="126" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM27">
-    <cfRule type="cellIs" dxfId="116" priority="115" operator="equal">
+  <conditionalFormatting sqref="AM30">
+    <cfRule type="cellIs" dxfId="116" priority="121" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="116" operator="between">
+    <cfRule type="cellIs" dxfId="115" priority="122" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="117" operator="between">
+    <cfRule type="cellIs" dxfId="114" priority="123" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM28">
-    <cfRule type="cellIs" dxfId="113" priority="112" operator="equal">
+  <conditionalFormatting sqref="AM31">
+    <cfRule type="cellIs" dxfId="113" priority="118" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="113" operator="between">
+    <cfRule type="cellIs" dxfId="112" priority="119" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="114" operator="between">
+    <cfRule type="cellIs" dxfId="111" priority="120" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM29">
-    <cfRule type="cellIs" dxfId="110" priority="109" operator="equal">
+  <conditionalFormatting sqref="AG32:AG33 AG9 AG11:AG23">
+    <cfRule type="cellIs" dxfId="110" priority="115" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="110" operator="between">
+    <cfRule type="cellIs" dxfId="109" priority="116" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="111" operator="between">
+    <cfRule type="cellIs" dxfId="108" priority="117" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM30">
-    <cfRule type="cellIs" dxfId="107" priority="106" operator="equal">
+  <conditionalFormatting sqref="AG24">
+    <cfRule type="cellIs" dxfId="107" priority="112" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="107" operator="between">
+    <cfRule type="cellIs" dxfId="106" priority="113" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="108" operator="between">
+    <cfRule type="cellIs" dxfId="105" priority="114" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM31">
-    <cfRule type="cellIs" dxfId="104" priority="103" operator="equal">
+  <conditionalFormatting sqref="AG25">
+    <cfRule type="cellIs" dxfId="104" priority="109" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="104" operator="between">
+    <cfRule type="cellIs" dxfId="103" priority="110" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="105" operator="between">
+    <cfRule type="cellIs" dxfId="102" priority="111" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG32:AG33 AG9 AG11:AG23">
-    <cfRule type="cellIs" dxfId="101" priority="100" operator="equal">
+  <conditionalFormatting sqref="AG26">
+    <cfRule type="cellIs" dxfId="101" priority="106" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="101" operator="between">
+    <cfRule type="cellIs" dxfId="100" priority="107" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="102" operator="between">
+    <cfRule type="cellIs" dxfId="99" priority="108" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG24">
-    <cfRule type="cellIs" dxfId="98" priority="97" operator="equal">
+  <conditionalFormatting sqref="AG27">
+    <cfRule type="cellIs" dxfId="98" priority="103" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="98" operator="between">
+    <cfRule type="cellIs" dxfId="97" priority="104" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="99" operator="between">
+    <cfRule type="cellIs" dxfId="96" priority="105" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG25">
-    <cfRule type="cellIs" dxfId="95" priority="94" operator="equal">
+  <conditionalFormatting sqref="AG28">
+    <cfRule type="cellIs" dxfId="95" priority="100" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="95" operator="between">
+    <cfRule type="cellIs" dxfId="94" priority="101" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="96" operator="between">
+    <cfRule type="cellIs" dxfId="93" priority="102" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG26">
-    <cfRule type="cellIs" dxfId="92" priority="91" operator="equal">
+  <conditionalFormatting sqref="AG29">
+    <cfRule type="cellIs" dxfId="92" priority="97" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="92" operator="between">
+    <cfRule type="cellIs" dxfId="91" priority="98" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="93" operator="between">
+    <cfRule type="cellIs" dxfId="90" priority="99" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG27">
-    <cfRule type="cellIs" dxfId="89" priority="88" operator="equal">
+  <conditionalFormatting sqref="AG30">
+    <cfRule type="cellIs" dxfId="89" priority="94" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="89" operator="between">
+    <cfRule type="cellIs" dxfId="88" priority="95" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="90" operator="between">
+    <cfRule type="cellIs" dxfId="87" priority="96" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG28">
-    <cfRule type="cellIs" dxfId="86" priority="85" operator="equal">
+  <conditionalFormatting sqref="AG31">
+    <cfRule type="cellIs" dxfId="86" priority="91" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="86" operator="between">
+    <cfRule type="cellIs" dxfId="85" priority="92" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="87" operator="between">
+    <cfRule type="cellIs" dxfId="84" priority="93" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG29">
-    <cfRule type="cellIs" dxfId="83" priority="82" operator="equal">
+  <conditionalFormatting sqref="AM24">
+    <cfRule type="cellIs" dxfId="83" priority="88" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="83" operator="between">
+    <cfRule type="cellIs" dxfId="82" priority="89" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="84" operator="between">
+    <cfRule type="cellIs" dxfId="81" priority="90" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG30">
-    <cfRule type="cellIs" dxfId="80" priority="79" operator="equal">
+  <conditionalFormatting sqref="AO24">
+    <cfRule type="cellIs" dxfId="80" priority="85" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="80" operator="between">
+    <cfRule type="cellIs" dxfId="79" priority="86" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="81" operator="between">
+    <cfRule type="cellIs" dxfId="78" priority="87" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG31">
-    <cfRule type="cellIs" dxfId="77" priority="76" operator="equal">
+  <conditionalFormatting sqref="AJ25">
+    <cfRule type="cellIs" dxfId="77" priority="82" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="77" operator="between">
+    <cfRule type="cellIs" dxfId="76" priority="83" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="78" operator="between">
+    <cfRule type="cellIs" dxfId="75" priority="84" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM24">
-    <cfRule type="cellIs" dxfId="74" priority="73" operator="equal">
+  <conditionalFormatting sqref="AK25">
+    <cfRule type="cellIs" dxfId="74" priority="79" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="74" operator="between">
+    <cfRule type="cellIs" dxfId="73" priority="80" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="75" operator="between">
+    <cfRule type="cellIs" dxfId="72" priority="81" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO24">
-    <cfRule type="cellIs" dxfId="71" priority="70" operator="equal">
+  <conditionalFormatting sqref="AM25">
+    <cfRule type="cellIs" dxfId="71" priority="76" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="71" operator="between">
+    <cfRule type="cellIs" dxfId="70" priority="77" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="72" operator="between">
+    <cfRule type="cellIs" dxfId="69" priority="78" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ25">
-    <cfRule type="cellIs" dxfId="68" priority="67" operator="equal">
+  <conditionalFormatting sqref="AJ27">
+    <cfRule type="cellIs" dxfId="68" priority="73" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="68" operator="between">
+    <cfRule type="cellIs" dxfId="67" priority="74" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="69" operator="between">
+    <cfRule type="cellIs" dxfId="66" priority="75" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK25">
-    <cfRule type="cellIs" dxfId="65" priority="64" operator="equal">
+  <conditionalFormatting sqref="AO27">
+    <cfRule type="cellIs" dxfId="65" priority="70" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="65" operator="between">
+    <cfRule type="cellIs" dxfId="64" priority="71" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="66" operator="between">
+    <cfRule type="cellIs" dxfId="63" priority="72" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM25">
-    <cfRule type="cellIs" dxfId="62" priority="61" operator="equal">
+  <conditionalFormatting sqref="AG10">
+    <cfRule type="cellIs" dxfId="62" priority="64" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="62" operator="between">
+    <cfRule type="cellIs" dxfId="61" priority="65" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="63" operator="between">
+    <cfRule type="cellIs" dxfId="60" priority="66" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ27">
-    <cfRule type="cellIs" dxfId="59" priority="58" operator="equal">
+  <conditionalFormatting sqref="AF32:AF33 AF9 AF11:AF16 AF18:AF20 AF22:AF23">
+    <cfRule type="cellIs" dxfId="59" priority="61" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="59" operator="between">
+    <cfRule type="cellIs" dxfId="58" priority="62" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="60" operator="between">
+    <cfRule type="cellIs" dxfId="57" priority="63" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO27">
-    <cfRule type="cellIs" dxfId="56" priority="55" operator="equal">
+  <conditionalFormatting sqref="AF26">
+    <cfRule type="cellIs" dxfId="53" priority="52" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="56" operator="between">
+    <cfRule type="cellIs" dxfId="52" priority="53" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="57" operator="between">
+    <cfRule type="cellIs" dxfId="51" priority="54" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG10">
+  <conditionalFormatting sqref="AF27">
     <cfRule type="cellIs" dxfId="50" priority="49" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -35905,7 +36181,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF32:AF33 AF9 AF11:AF16 AF18:AF20 AF22:AF23">
+  <conditionalFormatting sqref="AF28">
     <cfRule type="cellIs" dxfId="47" priority="46" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -35918,7 +36194,20 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF25">
+  <conditionalFormatting sqref="AF29">
+    <cfRule type="cellIs" dxfId="44" priority="43" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="43" priority="44" operator="between">
+      <formula>0.01</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="45" operator="between">
+      <formula>0.26</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF30">
     <cfRule type="cellIs" dxfId="41" priority="40" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -35931,7 +36220,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF26">
+  <conditionalFormatting sqref="AF31">
     <cfRule type="cellIs" dxfId="38" priority="37" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -35944,7 +36233,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF27">
+  <conditionalFormatting sqref="AF10">
     <cfRule type="cellIs" dxfId="35" priority="34" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -35957,7 +36246,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF28">
+  <conditionalFormatting sqref="AE16">
     <cfRule type="cellIs" dxfId="32" priority="31" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -35970,7 +36259,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF29">
+  <conditionalFormatting sqref="AF17">
     <cfRule type="cellIs" dxfId="29" priority="28" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -35983,7 +36272,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF30">
+  <conditionalFormatting sqref="AE10">
     <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -35996,7 +36285,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF31">
+  <conditionalFormatting sqref="AF21">
     <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -36009,7 +36298,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF10">
+  <conditionalFormatting sqref="AE23">
     <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -36022,7 +36311,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE16">
+  <conditionalFormatting sqref="AF24">
     <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -36035,7 +36324,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF17">
+  <conditionalFormatting sqref="AB25">
     <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -36048,7 +36337,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE10">
+  <conditionalFormatting sqref="AF25">
     <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -36061,7 +36350,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF21">
+  <conditionalFormatting sqref="AB27">
     <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -36074,7 +36363,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE23">
+  <conditionalFormatting sqref="AE27">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -36087,7 +36376,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF24">
+  <conditionalFormatting sqref="AC28">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -36259,144 +36548,144 @@
       <c r="C1" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="192" t="s">
+      <c r="D1" s="197" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="193"/>
-      <c r="F1" s="192" t="s">
+      <c r="E1" s="199"/>
+      <c r="F1" s="197" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="202"/>
-      <c r="H1" s="202"/>
-      <c r="I1" s="202"/>
-      <c r="J1" s="202"/>
-      <c r="K1" s="202"/>
-      <c r="L1" s="202"/>
-      <c r="M1" s="202"/>
-      <c r="N1" s="202"/>
-      <c r="O1" s="202"/>
-      <c r="P1" s="202"/>
-      <c r="Q1" s="202"/>
-      <c r="R1" s="202"/>
-      <c r="S1" s="202"/>
-      <c r="T1" s="202"/>
-      <c r="U1" s="202"/>
-      <c r="V1" s="202"/>
-      <c r="W1" s="202"/>
-      <c r="X1" s="202"/>
-      <c r="Y1" s="202"/>
-      <c r="Z1" s="202"/>
-      <c r="AA1" s="202"/>
-      <c r="AB1" s="202"/>
-      <c r="AC1" s="203"/>
-      <c r="AD1" s="203"/>
-      <c r="AE1" s="203"/>
-      <c r="AF1" s="203"/>
-      <c r="AG1" s="203"/>
-      <c r="AH1" s="203"/>
-      <c r="AI1" s="203"/>
-      <c r="AJ1" s="204"/>
-      <c r="AK1" s="199" t="s">
+      <c r="G1" s="198"/>
+      <c r="H1" s="198"/>
+      <c r="I1" s="198"/>
+      <c r="J1" s="198"/>
+      <c r="K1" s="198"/>
+      <c r="L1" s="198"/>
+      <c r="M1" s="198"/>
+      <c r="N1" s="198"/>
+      <c r="O1" s="198"/>
+      <c r="P1" s="198"/>
+      <c r="Q1" s="198"/>
+      <c r="R1" s="198"/>
+      <c r="S1" s="198"/>
+      <c r="T1" s="198"/>
+      <c r="U1" s="198"/>
+      <c r="V1" s="198"/>
+      <c r="W1" s="198"/>
+      <c r="X1" s="198"/>
+      <c r="Y1" s="198"/>
+      <c r="Z1" s="198"/>
+      <c r="AA1" s="198"/>
+      <c r="AB1" s="198"/>
+      <c r="AC1" s="204"/>
+      <c r="AD1" s="204"/>
+      <c r="AE1" s="204"/>
+      <c r="AF1" s="204"/>
+      <c r="AG1" s="204"/>
+      <c r="AH1" s="204"/>
+      <c r="AI1" s="204"/>
+      <c r="AJ1" s="205"/>
+      <c r="AK1" s="201" t="s">
         <v>51</v>
       </c>
-      <c r="AL1" s="200"/>
-      <c r="AM1" s="200"/>
-      <c r="AN1" s="200"/>
-      <c r="AO1" s="200"/>
-      <c r="AP1" s="200"/>
-      <c r="AQ1" s="201"/>
-      <c r="AR1" s="192" t="s">
+      <c r="AL1" s="202"/>
+      <c r="AM1" s="202"/>
+      <c r="AN1" s="202"/>
+      <c r="AO1" s="202"/>
+      <c r="AP1" s="202"/>
+      <c r="AQ1" s="203"/>
+      <c r="AR1" s="197" t="s">
         <v>50</v>
       </c>
-      <c r="AS1" s="193"/>
+      <c r="AS1" s="199"/>
     </row>
     <row r="2" spans="2:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="28"/>
       <c r="C2" s="32"/>
       <c r="D2" s="35"/>
       <c r="E2" s="36"/>
-      <c r="F2" s="211" t="s">
+      <c r="F2" s="212" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="212"/>
-      <c r="H2" s="212"/>
-      <c r="I2" s="212"/>
-      <c r="J2" s="212"/>
-      <c r="K2" s="212"/>
-      <c r="L2" s="212"/>
-      <c r="M2" s="212"/>
-      <c r="N2" s="212"/>
-      <c r="O2" s="212"/>
-      <c r="P2" s="212"/>
-      <c r="Q2" s="212"/>
-      <c r="R2" s="212"/>
-      <c r="S2" s="212"/>
-      <c r="T2" s="212"/>
-      <c r="U2" s="212"/>
-      <c r="V2" s="212"/>
-      <c r="W2" s="212"/>
-      <c r="X2" s="212"/>
-      <c r="Y2" s="212"/>
-      <c r="Z2" s="212"/>
-      <c r="AA2" s="212"/>
-      <c r="AB2" s="212"/>
-      <c r="AC2" s="209" t="s">
+      <c r="G2" s="213"/>
+      <c r="H2" s="213"/>
+      <c r="I2" s="213"/>
+      <c r="J2" s="213"/>
+      <c r="K2" s="213"/>
+      <c r="L2" s="213"/>
+      <c r="M2" s="213"/>
+      <c r="N2" s="213"/>
+      <c r="O2" s="213"/>
+      <c r="P2" s="213"/>
+      <c r="Q2" s="213"/>
+      <c r="R2" s="213"/>
+      <c r="S2" s="213"/>
+      <c r="T2" s="213"/>
+      <c r="U2" s="213"/>
+      <c r="V2" s="213"/>
+      <c r="W2" s="213"/>
+      <c r="X2" s="213"/>
+      <c r="Y2" s="213"/>
+      <c r="Z2" s="213"/>
+      <c r="AA2" s="213"/>
+      <c r="AB2" s="213"/>
+      <c r="AC2" s="210" t="s">
         <v>36</v>
       </c>
-      <c r="AD2" s="213"/>
-      <c r="AE2" s="209" t="s">
+      <c r="AD2" s="214"/>
+      <c r="AE2" s="210" t="s">
         <v>5</v>
       </c>
-      <c r="AF2" s="213"/>
-      <c r="AG2" s="209" t="s">
+      <c r="AF2" s="214"/>
+      <c r="AG2" s="210" t="s">
         <v>39</v>
       </c>
-      <c r="AH2" s="210"/>
-      <c r="AI2" s="213"/>
+      <c r="AH2" s="211"/>
+      <c r="AI2" s="214"/>
       <c r="AJ2" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="AK2" s="209" t="s">
+      <c r="AK2" s="210" t="s">
         <v>43</v>
       </c>
-      <c r="AL2" s="210"/>
-      <c r="AM2" s="213"/>
+      <c r="AL2" s="211"/>
+      <c r="AM2" s="214"/>
       <c r="AN2" s="31"/>
       <c r="AO2" s="31"/>
       <c r="AP2" s="31"/>
       <c r="AQ2" s="43"/>
-      <c r="AR2" s="205" t="s">
+      <c r="AR2" s="206" t="s">
         <v>48</v>
       </c>
-      <c r="AS2" s="207" t="s">
+      <c r="AS2" s="208" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="3" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B3" s="28"/>
-      <c r="C3" s="194" t="s">
+      <c r="C3" s="193" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="198" t="s">
+      <c r="D3" s="194" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="195" t="s">
+      <c r="E3" s="196" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="192" t="s">
+      <c r="F3" s="197" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="202"/>
-      <c r="H3" s="202"/>
-      <c r="I3" s="202"/>
-      <c r="J3" s="202"/>
-      <c r="K3" s="193"/>
-      <c r="L3" s="192" t="s">
+      <c r="G3" s="198"/>
+      <c r="H3" s="198"/>
+      <c r="I3" s="198"/>
+      <c r="J3" s="198"/>
+      <c r="K3" s="199"/>
+      <c r="L3" s="197" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="202"/>
-      <c r="N3" s="202"/>
-      <c r="O3" s="193"/>
+      <c r="M3" s="198"/>
+      <c r="N3" s="198"/>
+      <c r="O3" s="199"/>
       <c r="P3" s="31" t="s">
         <v>27</v>
       </c>
@@ -36406,20 +36695,20 @@
       <c r="R3" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="S3" s="209" t="s">
+      <c r="S3" s="210" t="s">
         <v>25</v>
       </c>
-      <c r="T3" s="210"/>
-      <c r="U3" s="210"/>
-      <c r="V3" s="210"/>
-      <c r="W3" s="210"/>
-      <c r="X3" s="213"/>
-      <c r="Y3" s="209" t="s">
+      <c r="T3" s="211"/>
+      <c r="U3" s="211"/>
+      <c r="V3" s="211"/>
+      <c r="W3" s="211"/>
+      <c r="X3" s="214"/>
+      <c r="Y3" s="210" t="s">
         <v>29</v>
       </c>
-      <c r="Z3" s="210"/>
-      <c r="AA3" s="210"/>
-      <c r="AB3" s="210"/>
+      <c r="Z3" s="211"/>
+      <c r="AA3" s="211"/>
+      <c r="AB3" s="211"/>
       <c r="AC3" s="35" t="s">
         <v>37</v>
       </c>
@@ -36432,11 +36721,11 @@
       <c r="AF3" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="AG3" s="198" t="s">
+      <c r="AG3" s="194" t="s">
         <v>35</v>
       </c>
-      <c r="AH3" s="196"/>
-      <c r="AI3" s="195"/>
+      <c r="AH3" s="195"/>
+      <c r="AI3" s="196"/>
       <c r="AJ3" s="32" t="s">
         <v>7</v>
       </c>
@@ -36461,77 +36750,77 @@
       <c r="AQ3" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="AR3" s="206"/>
-      <c r="AS3" s="208"/>
+      <c r="AR3" s="207"/>
+      <c r="AS3" s="209"/>
     </row>
     <row r="4" spans="2:45" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="28"/>
-      <c r="C4" s="194"/>
-      <c r="D4" s="198"/>
-      <c r="E4" s="195"/>
-      <c r="F4" s="198" t="s">
+      <c r="C4" s="193"/>
+      <c r="D4" s="194"/>
+      <c r="E4" s="196"/>
+      <c r="F4" s="194" t="s">
         <v>52</v>
       </c>
-      <c r="G4" s="196" t="s">
+      <c r="G4" s="195" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="196" t="s">
+      <c r="H4" s="195" t="s">
         <v>53</v>
       </c>
-      <c r="I4" s="196" t="s">
+      <c r="I4" s="195" t="s">
         <v>54</v>
       </c>
-      <c r="J4" s="196" t="s">
+      <c r="J4" s="195" t="s">
         <v>55</v>
       </c>
-      <c r="K4" s="195"/>
-      <c r="L4" s="198" t="s">
+      <c r="K4" s="196"/>
+      <c r="L4" s="194" t="s">
         <v>52</v>
       </c>
-      <c r="M4" s="196" t="s">
+      <c r="M4" s="195" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="196" t="s">
+      <c r="N4" s="195" t="s">
         <v>53</v>
       </c>
-      <c r="O4" s="195" t="s">
+      <c r="O4" s="196" t="s">
         <v>54</v>
       </c>
-      <c r="P4" s="194" t="s">
+      <c r="P4" s="193" t="s">
         <v>56</v>
       </c>
-      <c r="Q4" s="194" t="s">
+      <c r="Q4" s="193" t="s">
         <v>56</v>
       </c>
-      <c r="R4" s="194" t="s">
+      <c r="R4" s="193" t="s">
         <v>56</v>
       </c>
-      <c r="S4" s="198" t="s">
+      <c r="S4" s="194" t="s">
         <v>52</v>
       </c>
-      <c r="T4" s="196" t="s">
+      <c r="T4" s="195" t="s">
         <v>10</v>
       </c>
-      <c r="U4" s="196" t="s">
+      <c r="U4" s="195" t="s">
         <v>53</v>
       </c>
-      <c r="V4" s="196" t="s">
+      <c r="V4" s="195" t="s">
         <v>54</v>
       </c>
-      <c r="W4" s="214" t="s">
+      <c r="W4" s="200" t="s">
         <v>55</v>
       </c>
-      <c r="X4" s="195"/>
-      <c r="Y4" s="198" t="s">
+      <c r="X4" s="196"/>
+      <c r="Y4" s="194" t="s">
         <v>52</v>
       </c>
-      <c r="Z4" s="196" t="s">
+      <c r="Z4" s="195" t="s">
         <v>10</v>
       </c>
-      <c r="AA4" s="196" t="s">
+      <c r="AA4" s="195" t="s">
         <v>53</v>
       </c>
-      <c r="AB4" s="197" t="s">
+      <c r="AB4" s="215" t="s">
         <v>54</v>
       </c>
       <c r="AC4" s="35"/>
@@ -36560,40 +36849,40 @@
     </row>
     <row r="5" spans="2:45" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="28"/>
-      <c r="C5" s="194"/>
-      <c r="D5" s="198"/>
-      <c r="E5" s="195"/>
-      <c r="F5" s="198"/>
-      <c r="G5" s="196"/>
-      <c r="H5" s="196"/>
-      <c r="I5" s="196"/>
+      <c r="C5" s="193"/>
+      <c r="D5" s="194"/>
+      <c r="E5" s="196"/>
+      <c r="F5" s="194"/>
+      <c r="G5" s="195"/>
+      <c r="H5" s="195"/>
+      <c r="I5" s="195"/>
       <c r="J5" s="26" t="s">
         <v>57</v>
       </c>
       <c r="K5" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="L5" s="198"/>
-      <c r="M5" s="196"/>
-      <c r="N5" s="196"/>
-      <c r="O5" s="195"/>
-      <c r="P5" s="194"/>
-      <c r="Q5" s="194"/>
-      <c r="R5" s="194"/>
-      <c r="S5" s="198"/>
-      <c r="T5" s="196"/>
-      <c r="U5" s="196"/>
-      <c r="V5" s="196"/>
+      <c r="L5" s="194"/>
+      <c r="M5" s="195"/>
+      <c r="N5" s="195"/>
+      <c r="O5" s="196"/>
+      <c r="P5" s="193"/>
+      <c r="Q5" s="193"/>
+      <c r="R5" s="193"/>
+      <c r="S5" s="194"/>
+      <c r="T5" s="195"/>
+      <c r="U5" s="195"/>
+      <c r="V5" s="195"/>
       <c r="W5" s="29" t="s">
         <v>59</v>
       </c>
       <c r="X5" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="Y5" s="198"/>
-      <c r="Z5" s="196"/>
-      <c r="AA5" s="196"/>
-      <c r="AB5" s="197"/>
+      <c r="Y5" s="194"/>
+      <c r="Z5" s="195"/>
+      <c r="AA5" s="195"/>
+      <c r="AB5" s="215"/>
       <c r="AC5" s="35"/>
       <c r="AD5" s="36"/>
       <c r="AE5" s="35"/>
@@ -37040,6 +37329,32 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="AB4:AB5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="Z4:Z5"/>
+    <mergeCell ref="AA4:AA5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="AK1:AQ1"/>
+    <mergeCell ref="AR1:AS1"/>
+    <mergeCell ref="F1:AJ1"/>
+    <mergeCell ref="AR2:AR3"/>
+    <mergeCell ref="AS2:AS3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="Y3:AB3"/>
+    <mergeCell ref="F2:AB2"/>
+    <mergeCell ref="S3:X3"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AK2:AM2"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="Y4:Y5"/>
     <mergeCell ref="L4:L5"/>
@@ -37054,32 +37369,6 @@
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
-    <mergeCell ref="AK1:AQ1"/>
-    <mergeCell ref="AR1:AS1"/>
-    <mergeCell ref="F1:AJ1"/>
-    <mergeCell ref="AR2:AR3"/>
-    <mergeCell ref="AS2:AS3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="Y3:AB3"/>
-    <mergeCell ref="F2:AB2"/>
-    <mergeCell ref="S3:X3"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AK2:AM2"/>
-    <mergeCell ref="AB4:AB5"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="Z4:Z5"/>
-    <mergeCell ref="AA4:AA5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="M4:M5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/BaremeJavaBaseTest2_KL16.xlsx
+++ b/BaremeJavaBaseTest2_KL16.xlsx
@@ -10235,7 +10235,7 @@
       <selection sqref="A1:XFD1"/>
       <selection pane="topRight" activeCell="AR6" sqref="AR6"/>
       <selection pane="bottomLeft" activeCell="A17" sqref="A17:XFD17"/>
-      <selection pane="bottomRight" activeCell="AQ29" sqref="AQ29"/>
+      <selection pane="bottomRight" activeCell="AF18" sqref="AF18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -11639,20 +11639,20 @@
       <c r="C9" s="117"/>
       <c r="D9" s="106">
         <f t="shared" ref="D9:D28" si="0">H9/$H$6*20+CM9*$CM$6</f>
-        <v>3.5714285714285716</v>
+        <v>4.1596638655462188</v>
       </c>
       <c r="E9" s="21">
         <f t="shared" ref="E9:E28" si="1">G9/$H$7*20+CM9*$CM$7</f>
-        <v>4.8550724637681162</v>
+        <v>5.72463768115942</v>
       </c>
       <c r="F9" s="21"/>
       <c r="G9" s="14">
         <f t="shared" ref="G9:G21" si="2">H65</f>
-        <v>16.75</v>
+        <v>19.75</v>
       </c>
       <c r="H9" s="14">
         <f t="shared" ref="H9:H32" si="3">H36</f>
-        <v>42.5</v>
+        <v>49.5</v>
       </c>
       <c r="I9" s="108">
         <v>1</v>
@@ -11747,9 +11747,15 @@
       <c r="AS9" s="8">
         <v>99</v>
       </c>
-      <c r="AT9" s="95"/>
-      <c r="AU9" s="97"/>
-      <c r="AV9" s="95"/>
+      <c r="AT9" s="95">
+        <v>1</v>
+      </c>
+      <c r="AU9" s="97">
+        <v>1</v>
+      </c>
+      <c r="AV9" s="95">
+        <v>1</v>
+      </c>
       <c r="AW9" s="108"/>
       <c r="AX9" s="108"/>
       <c r="AY9" s="108"/>
@@ -11806,20 +11812,20 @@
       <c r="C10" s="4"/>
       <c r="D10" s="106">
         <f t="shared" si="0"/>
-        <v>3.1617647058823528</v>
+        <v>4.170168067226891</v>
       </c>
       <c r="E10" s="21">
         <f t="shared" si="1"/>
-        <v>4.27536231884058</v>
+        <v>5.4347826086956523</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="14">
         <f t="shared" ref="G10:G32" si="4">H66</f>
-        <v>14.75</v>
+        <v>18.75</v>
       </c>
       <c r="H10" s="14">
         <f t="shared" si="3"/>
-        <v>37.625</v>
+        <v>49.625</v>
       </c>
       <c r="I10" s="108">
         <v>1</v>
@@ -11830,7 +11836,9 @@
       <c r="K10" s="86">
         <v>99</v>
       </c>
-      <c r="L10" s="86"/>
+      <c r="L10" s="86">
+        <v>1</v>
+      </c>
       <c r="M10" s="86">
         <v>99</v>
       </c>
@@ -11914,9 +11922,15 @@
       <c r="AS10" s="86">
         <v>99</v>
       </c>
-      <c r="AT10" s="86"/>
-      <c r="AU10" s="86"/>
-      <c r="AV10" s="86"/>
+      <c r="AT10" s="86">
+        <v>1</v>
+      </c>
+      <c r="AU10" s="86">
+        <v>1</v>
+      </c>
+      <c r="AV10" s="86">
+        <v>1</v>
+      </c>
       <c r="AW10" s="86"/>
       <c r="AX10" s="86"/>
       <c r="AY10" s="86"/>
@@ -11973,20 +11987,20 @@
       <c r="C11" s="117"/>
       <c r="D11" s="106">
         <f t="shared" si="0"/>
-        <v>2.6365546218487395</v>
+        <v>3.2247899159663866</v>
       </c>
       <c r="E11" s="21">
         <f t="shared" si="1"/>
-        <v>3.804347826086957</v>
+        <v>4.6739130434782608</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="14">
         <f t="shared" si="4"/>
-        <v>13.125</v>
+        <v>16.125</v>
       </c>
       <c r="H11" s="14">
         <f t="shared" si="3"/>
-        <v>31.375</v>
+        <v>38.375</v>
       </c>
       <c r="I11" s="108">
         <v>1</v>
@@ -12081,9 +12095,15 @@
       <c r="AS11" s="68">
         <v>99</v>
       </c>
-      <c r="AT11" s="95"/>
-      <c r="AU11" s="97"/>
-      <c r="AV11" s="95"/>
+      <c r="AT11" s="95">
+        <v>1</v>
+      </c>
+      <c r="AU11" s="97">
+        <v>1</v>
+      </c>
+      <c r="AV11" s="95">
+        <v>1</v>
+      </c>
       <c r="AW11" s="108"/>
       <c r="AX11" s="108"/>
       <c r="AY11" s="108"/>
@@ -12140,20 +12160,20 @@
       <c r="C12" s="4"/>
       <c r="D12" s="106">
         <f t="shared" si="0"/>
-        <v>3.2983193277310923</v>
+        <v>3.8865546218487395</v>
       </c>
       <c r="E12" s="21">
         <f t="shared" si="1"/>
-        <v>4.5652173913043477</v>
+        <v>5.4347826086956523</v>
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="14">
         <f t="shared" si="4"/>
-        <v>15.75</v>
+        <v>18.75</v>
       </c>
       <c r="H12" s="14">
         <f t="shared" si="3"/>
-        <v>39.25</v>
+        <v>46.25</v>
       </c>
       <c r="I12" s="108">
         <v>1</v>
@@ -12248,9 +12268,15 @@
       <c r="AS12" s="68">
         <v>99</v>
       </c>
-      <c r="AT12" s="95"/>
-      <c r="AU12" s="97"/>
-      <c r="AV12" s="95"/>
+      <c r="AT12" s="95">
+        <v>1</v>
+      </c>
+      <c r="AU12" s="97">
+        <v>1</v>
+      </c>
+      <c r="AV12" s="95">
+        <v>1</v>
+      </c>
       <c r="AW12" s="108"/>
       <c r="AX12" s="108"/>
       <c r="AY12" s="108"/>
@@ -12307,20 +12333,20 @@
       <c r="C13" s="117"/>
       <c r="D13" s="106">
         <f t="shared" si="0"/>
-        <v>3.2521008403361344</v>
+        <v>4.2605042016806731</v>
       </c>
       <c r="E13" s="21">
         <f t="shared" si="1"/>
-        <v>4.4637681159420293</v>
+        <v>5.6231884057971016</v>
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="14">
         <f t="shared" si="4"/>
-        <v>15.4</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="H13" s="14">
         <f t="shared" si="3"/>
-        <v>38.700000000000003</v>
+        <v>50.7</v>
       </c>
       <c r="I13" s="108">
         <v>0</v>
@@ -12331,7 +12357,9 @@
       <c r="K13" s="86">
         <v>99</v>
       </c>
-      <c r="L13" s="86"/>
+      <c r="L13" s="86">
+        <v>1</v>
+      </c>
       <c r="M13" s="86">
         <v>99</v>
       </c>
@@ -12415,9 +12443,15 @@
       <c r="AS13" s="86">
         <v>99</v>
       </c>
-      <c r="AT13" s="86"/>
-      <c r="AU13" s="86"/>
-      <c r="AV13" s="86"/>
+      <c r="AT13" s="86">
+        <v>1</v>
+      </c>
+      <c r="AU13" s="86">
+        <v>1</v>
+      </c>
+      <c r="AV13" s="86">
+        <v>1</v>
+      </c>
       <c r="AW13" s="86"/>
       <c r="AX13" s="86"/>
       <c r="AY13" s="86"/>
@@ -12474,20 +12508,20 @@
       <c r="C14" s="117"/>
       <c r="D14" s="106">
         <f t="shared" si="0"/>
-        <v>2.4789915966386555</v>
+        <v>2.6890756302521006</v>
       </c>
       <c r="E14" s="21">
         <f t="shared" si="1"/>
-        <v>3.1884057971014492</v>
+        <v>3.6231884057971016</v>
       </c>
       <c r="F14" s="21"/>
       <c r="G14" s="14">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="H14" s="14">
         <f t="shared" si="3"/>
-        <v>29.5</v>
+        <v>32</v>
       </c>
       <c r="I14" s="108">
         <v>1</v>
@@ -12505,7 +12539,9 @@
       <c r="N14" s="8">
         <v>1</v>
       </c>
-      <c r="O14" s="50"/>
+      <c r="O14" s="50">
+        <v>0</v>
+      </c>
       <c r="P14" s="8"/>
       <c r="Q14" s="68"/>
       <c r="R14" s="68"/>
@@ -12582,9 +12618,15 @@
       <c r="AS14" s="68">
         <v>99</v>
       </c>
-      <c r="AT14" s="95"/>
-      <c r="AU14" s="97"/>
-      <c r="AV14" s="95"/>
+      <c r="AT14" s="95">
+        <v>1</v>
+      </c>
+      <c r="AU14" s="97">
+        <v>0.25</v>
+      </c>
+      <c r="AV14" s="95">
+        <v>0.25</v>
+      </c>
       <c r="AW14" s="108"/>
       <c r="AX14" s="108"/>
       <c r="AY14" s="108"/>
@@ -15752,9 +15794,9 @@
         <f t="shared" si="7"/>
         <v>99</v>
       </c>
-      <c r="L34" s="2" t="e">
+      <c r="L34" s="2">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="M34" s="2">
         <f t="shared" si="7"/>
@@ -15764,9 +15806,9 @@
         <f t="shared" si="7"/>
         <v>0.72499999999999998</v>
       </c>
-      <c r="O34" s="2" t="e">
+      <c r="O34" s="2">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="P34" s="2" t="e">
         <f t="shared" si="7"/>
@@ -15888,17 +15930,17 @@
         <f t="shared" si="9"/>
         <v>99</v>
       </c>
-      <c r="AT34" s="94" t="e">
+      <c r="AT34" s="94">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AU34" s="98" t="e">
+        <v>1</v>
+      </c>
+      <c r="AU34" s="98">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AV34" s="94" t="e">
+        <v>0.875</v>
+      </c>
+      <c r="AV34" s="94">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>0.875</v>
       </c>
       <c r="AW34" s="107" t="e">
         <f t="shared" ref="AW34:BH34" si="11">AVERAGE(AW9:AW32)</f>
@@ -16076,7 +16118,7 @@
     <row r="36" spans="1:91" x14ac:dyDescent="0.25">
       <c r="H36" s="2">
         <f t="shared" ref="H36:H60" si="18">SUM(I36:CK36)</f>
-        <v>42.5</v>
+        <v>49.5</v>
       </c>
       <c r="I36" s="2">
         <f t="shared" ref="I36:AJ36" si="19">I9*I$6</f>
@@ -16228,15 +16270,15 @@
       </c>
       <c r="AT36" s="94">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU36" s="98">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AV36" s="94">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AW36" s="107">
         <f t="shared" ref="AW36:BH36" si="23">AW9*AW$6</f>
@@ -16414,7 +16456,7 @@
     <row r="37" spans="1:91" x14ac:dyDescent="0.25">
       <c r="H37" s="115">
         <f t="shared" si="18"/>
-        <v>37.625</v>
+        <v>49.625</v>
       </c>
       <c r="I37" s="115">
         <f t="shared" ref="I37:BA37" si="30">I10*I$6</f>
@@ -16430,7 +16472,7 @@
       </c>
       <c r="L37" s="115">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M37" s="115">
         <f t="shared" si="30"/>
@@ -16566,15 +16608,15 @@
       </c>
       <c r="AT37" s="115">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU37" s="115">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AV37" s="115">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AW37" s="115">
         <f t="shared" si="30"/>
@@ -16752,7 +16794,7 @@
     <row r="38" spans="1:91" x14ac:dyDescent="0.25">
       <c r="H38" s="115">
         <f t="shared" si="18"/>
-        <v>31.375</v>
+        <v>38.375</v>
       </c>
       <c r="I38" s="115">
         <f t="shared" ref="I38:BA38" si="34">I11*I$6</f>
@@ -16904,15 +16946,15 @@
       </c>
       <c r="AT38" s="115">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU38" s="115">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AV38" s="115">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AW38" s="115">
         <f t="shared" si="34"/>
@@ -17090,7 +17132,7 @@
     <row r="39" spans="1:91" x14ac:dyDescent="0.25">
       <c r="H39" s="115">
         <f t="shared" si="18"/>
-        <v>39.25</v>
+        <v>46.25</v>
       </c>
       <c r="I39" s="115">
         <f t="shared" ref="I39:BA39" si="38">I12*I$6</f>
@@ -17242,15 +17284,15 @@
       </c>
       <c r="AT39" s="115">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU39" s="115">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AV39" s="115">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AW39" s="115">
         <f t="shared" si="38"/>
@@ -17428,7 +17470,7 @@
     <row r="40" spans="1:91" x14ac:dyDescent="0.25">
       <c r="H40" s="115">
         <f t="shared" si="18"/>
-        <v>38.700000000000003</v>
+        <v>50.7</v>
       </c>
       <c r="I40" s="115">
         <f t="shared" ref="I40:BA40" si="42">I13*I$6</f>
@@ -17444,7 +17486,7 @@
       </c>
       <c r="L40" s="115">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M40" s="115">
         <f t="shared" si="42"/>
@@ -17580,15 +17622,15 @@
       </c>
       <c r="AT40" s="115">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU40" s="115">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AV40" s="115">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AW40" s="115">
         <f t="shared" si="42"/>
@@ -17766,7 +17808,7 @@
     <row r="41" spans="1:91" x14ac:dyDescent="0.25">
       <c r="H41" s="115">
         <f t="shared" si="18"/>
-        <v>29.5</v>
+        <v>32</v>
       </c>
       <c r="I41" s="115">
         <f t="shared" ref="I41:BA41" si="46">I14*I$6</f>
@@ -17918,15 +17960,15 @@
       </c>
       <c r="AT41" s="115">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU41" s="115">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AV41" s="115">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AW41" s="115">
         <f t="shared" si="46"/>
@@ -24665,7 +24707,7 @@
     <row r="65" spans="4:91" x14ac:dyDescent="0.25">
       <c r="H65" s="2">
         <f t="shared" ref="H65:H89" si="126">SUM(I65:CK65)</f>
-        <v>16.75</v>
+        <v>19.75</v>
       </c>
       <c r="I65" s="2">
         <f t="shared" ref="I65:AJ65" si="127">I9*I$7</f>
@@ -24817,15 +24859,15 @@
       </c>
       <c r="AT65" s="94">
         <f t="shared" si="129"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU65" s="98">
         <f t="shared" si="129"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV65" s="94">
         <f t="shared" si="129"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW65" s="107">
         <f t="shared" ref="AW65:BH65" si="131">AW9*AW$7</f>
@@ -25003,7 +25045,7 @@
     <row r="66" spans="4:91" x14ac:dyDescent="0.25">
       <c r="H66" s="115">
         <f t="shared" si="126"/>
-        <v>14.75</v>
+        <v>18.75</v>
       </c>
       <c r="I66" s="115">
         <f t="shared" ref="I66:BW66" si="135">I10*I$7</f>
@@ -25019,7 +25061,7 @@
       </c>
       <c r="L66" s="115">
         <f t="shared" si="135"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M66" s="115">
         <f t="shared" si="135"/>
@@ -25155,15 +25197,15 @@
       </c>
       <c r="AT66" s="115">
         <f t="shared" si="135"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU66" s="115">
         <f t="shared" si="135"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV66" s="115">
         <f t="shared" si="135"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW66" s="115">
         <f t="shared" si="135"/>
@@ -25341,7 +25383,7 @@
     <row r="67" spans="4:91" x14ac:dyDescent="0.25">
       <c r="H67" s="115">
         <f t="shared" si="126"/>
-        <v>13.125</v>
+        <v>16.125</v>
       </c>
       <c r="I67" s="115">
         <f t="shared" ref="I67:BW67" si="139">I11*I$7</f>
@@ -25493,15 +25535,15 @@
       </c>
       <c r="AT67" s="115">
         <f t="shared" si="139"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU67" s="115">
         <f t="shared" si="139"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV67" s="115">
         <f t="shared" si="139"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW67" s="115">
         <f t="shared" si="139"/>
@@ -25679,7 +25721,7 @@
     <row r="68" spans="4:91" x14ac:dyDescent="0.25">
       <c r="H68" s="115">
         <f t="shared" si="126"/>
-        <v>15.75</v>
+        <v>18.75</v>
       </c>
       <c r="I68" s="115">
         <f t="shared" ref="I68:BW68" si="143">I12*I$7</f>
@@ -25831,15 +25873,15 @@
       </c>
       <c r="AT68" s="115">
         <f t="shared" si="143"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU68" s="115">
         <f t="shared" si="143"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV68" s="115">
         <f t="shared" si="143"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW68" s="115">
         <f t="shared" si="143"/>
@@ -26017,7 +26059,7 @@
     <row r="69" spans="4:91" x14ac:dyDescent="0.25">
       <c r="H69" s="115">
         <f t="shared" si="126"/>
-        <v>15.4</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="I69" s="115">
         <f t="shared" ref="I69:BW69" si="147">I13*I$7</f>
@@ -26033,7 +26075,7 @@
       </c>
       <c r="L69" s="115">
         <f t="shared" si="147"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M69" s="115">
         <f t="shared" si="147"/>
@@ -26169,15 +26211,15 @@
       </c>
       <c r="AT69" s="115">
         <f t="shared" si="147"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU69" s="115">
         <f t="shared" si="147"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV69" s="115">
         <f t="shared" si="147"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW69" s="115">
         <f t="shared" si="147"/>
@@ -26355,7 +26397,7 @@
     <row r="70" spans="4:91" x14ac:dyDescent="0.25">
       <c r="H70" s="115">
         <f t="shared" si="126"/>
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="I70" s="115">
         <f t="shared" ref="I70:BW70" si="151">I14*I$7</f>
@@ -26507,15 +26549,15 @@
       </c>
       <c r="AT70" s="115">
         <f t="shared" si="151"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU70" s="115">
         <f t="shared" si="151"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AV70" s="115">
         <f t="shared" si="151"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AW70" s="115">
         <f t="shared" si="151"/>

--- a/BaremeJavaBaseTest2_KL16.xlsx
+++ b/BaremeJavaBaseTest2_KL16.xlsx
@@ -10776,12 +10776,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CM90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2325" ySplit="3630" topLeftCell="Q7" activePane="bottomRight"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2325" ySplit="3630" topLeftCell="L7" activePane="bottomRight"/>
       <selection activeCell="D4" sqref="D4"/>
-      <selection pane="topRight" activeCell="CL2" sqref="CL2:CL5"/>
+      <selection pane="topRight" activeCell="BP6" sqref="BP1:BP1048576"/>
       <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
-      <selection pane="bottomRight" activeCell="BI28" sqref="BI28"/>
+      <selection pane="bottomRight" activeCell="BQ14" sqref="BQ14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -10826,7 +10826,10 @@
     <col min="52" max="54" width="4.5703125" style="104" hidden="1" customWidth="1"/>
     <col min="55" max="56" width="4.5703125" style="104" customWidth="1"/>
     <col min="57" max="59" width="4.5703125" style="104" hidden="1" customWidth="1"/>
-    <col min="60" max="75" width="4.5703125" style="104" customWidth="1"/>
+    <col min="60" max="67" width="4.5703125" style="104" customWidth="1"/>
+    <col min="68" max="68" width="4.5703125" style="104" hidden="1" customWidth="1"/>
+    <col min="69" max="69" width="4.5703125" style="104" customWidth="1"/>
+    <col min="70" max="75" width="4.5703125" style="104" hidden="1" customWidth="1"/>
     <col min="76" max="76" width="4.5703125" style="2" customWidth="1"/>
     <col min="77" max="81" width="4.5703125" style="76" customWidth="1"/>
     <col min="82" max="86" width="4.5703125" style="104" customWidth="1"/>
@@ -11195,20 +11198,20 @@
       </c>
       <c r="D4" s="128" t="str">
         <f>CONCATENATE("Note/20 ( sur ",H6,")")</f>
-        <v>Note/20 ( sur 203)</v>
+        <v>Note/20 ( sur 200)</v>
       </c>
       <c r="E4" s="17" t="str">
         <f>CONCATENATE("Note/20 ( sur ",H7,")")</f>
-        <v>Note/20 ( sur 57)</v>
+        <v>Note/20 ( sur 56)</v>
       </c>
       <c r="F4" s="17"/>
       <c r="G4" s="6" t="str">
         <f>CONCATENATE("Note/",H7)</f>
-        <v>Note/57</v>
+        <v>Note/56</v>
       </c>
       <c r="H4" s="6" t="str">
         <f>CONCATENATE("Note/",H6)</f>
-        <v>Note/203</v>
+        <v>Note/200</v>
       </c>
       <c r="I4" s="185"/>
       <c r="J4" s="166"/>
@@ -11547,7 +11550,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6">
         <f>SUM(I6:CK6)</f>
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="I6" s="57">
         <v>2</v>
@@ -11727,7 +11730,7 @@
         <v>3</v>
       </c>
       <c r="BP6" s="15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BQ6" s="15">
         <v>3</v>
@@ -11809,7 +11812,7 @@
       <c r="G7" s="17"/>
       <c r="H7" s="6">
         <f>SUM(I7:CK7)</f>
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I7" s="58">
         <v>1</v>
@@ -11989,7 +11992,7 @@
         <v>1</v>
       </c>
       <c r="BP7" s="55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ7" s="55">
         <v>1</v>
@@ -12145,7 +12148,7 @@
       <c r="BH8" s="135"/>
       <c r="BI8" s="134">
         <f>SUM(BI6:BQ6)</f>
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="BJ8" s="135"/>
       <c r="BK8" s="135"/>
@@ -12193,20 +12196,20 @@
       <c r="C9" s="113"/>
       <c r="D9" s="130">
         <f t="shared" ref="D9:D32" si="0">H9/$H$6*20+CM9*$CM$6</f>
-        <v>8.2236453201970434</v>
+        <v>11.047000000000001</v>
       </c>
       <c r="E9" s="19">
         <f t="shared" ref="E9:E28" si="1">G9/$H$7*20+CM9*$CM$7</f>
-        <v>9.2070175438596493</v>
+        <v>12.049999999999999</v>
       </c>
       <c r="F9" s="19"/>
       <c r="G9" s="14">
         <f t="shared" ref="G9" si="2">H65</f>
-        <v>26.24</v>
+        <v>33.739999999999995</v>
       </c>
       <c r="H9" s="14">
         <f t="shared" ref="H9:H32" si="3">H36</f>
-        <v>83.47</v>
+        <v>110.47</v>
       </c>
       <c r="I9" s="105">
         <v>1</v>
@@ -12348,15 +12351,31 @@
       <c r="BH9" s="105">
         <v>1</v>
       </c>
-      <c r="BI9" s="105"/>
-      <c r="BJ9" s="105"/>
-      <c r="BK9" s="105"/>
-      <c r="BL9" s="105"/>
-      <c r="BM9" s="105"/>
-      <c r="BN9" s="105"/>
-      <c r="BO9" s="105"/>
+      <c r="BI9" s="105">
+        <v>0.5</v>
+      </c>
+      <c r="BJ9" s="105">
+        <v>1</v>
+      </c>
+      <c r="BK9" s="105">
+        <v>1</v>
+      </c>
+      <c r="BL9" s="105">
+        <v>1</v>
+      </c>
+      <c r="BM9" s="105">
+        <v>1</v>
+      </c>
+      <c r="BN9" s="105">
+        <v>1</v>
+      </c>
+      <c r="BO9" s="105">
+        <v>1</v>
+      </c>
       <c r="BP9" s="105"/>
-      <c r="BQ9" s="105"/>
+      <c r="BQ9" s="105">
+        <v>1</v>
+      </c>
       <c r="BR9" s="105"/>
       <c r="BS9" s="105"/>
       <c r="BT9" s="105"/>
@@ -12394,20 +12413,20 @@
       <c r="C10" s="4"/>
       <c r="D10" s="130">
         <f t="shared" si="0"/>
-        <v>8.9009852216748762</v>
+        <v>11.1845</v>
       </c>
       <c r="E10" s="19">
         <f t="shared" si="1"/>
-        <v>9.2070175438596493</v>
+        <v>11.782142857142855</v>
       </c>
       <c r="F10" s="19"/>
       <c r="G10" s="14">
         <f t="shared" ref="G10:G32" si="4">H66</f>
-        <v>26.24</v>
+        <v>32.989999999999995</v>
       </c>
       <c r="H10" s="14">
         <f t="shared" si="3"/>
-        <v>90.344999999999999</v>
+        <v>111.845</v>
       </c>
       <c r="I10" s="105">
         <v>1</v>
@@ -12534,7 +12553,7 @@
         <v>99</v>
       </c>
       <c r="BC10" s="84">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="BD10" s="84">
         <v>1.25</v>
@@ -12549,17 +12568,33 @@
         <v>99</v>
       </c>
       <c r="BH10" s="84">
-        <v>1</v>
-      </c>
-      <c r="BI10" s="84"/>
-      <c r="BJ10" s="84"/>
-      <c r="BK10" s="84"/>
-      <c r="BL10" s="84"/>
-      <c r="BM10" s="84"/>
-      <c r="BN10" s="105"/>
-      <c r="BO10" s="84"/>
+        <v>0.75</v>
+      </c>
+      <c r="BI10" s="84">
+        <v>0.25</v>
+      </c>
+      <c r="BJ10" s="84">
+        <v>1</v>
+      </c>
+      <c r="BK10" s="84">
+        <v>1</v>
+      </c>
+      <c r="BL10" s="84">
+        <v>1</v>
+      </c>
+      <c r="BM10" s="84">
+        <v>1</v>
+      </c>
+      <c r="BN10" s="105">
+        <v>1</v>
+      </c>
+      <c r="BO10" s="84">
+        <v>1</v>
+      </c>
       <c r="BP10" s="84"/>
-      <c r="BQ10" s="84"/>
+      <c r="BQ10" s="84">
+        <v>1</v>
+      </c>
       <c r="BR10" s="84"/>
       <c r="BS10" s="84"/>
       <c r="BT10" s="84"/>
@@ -12597,20 +12632,20 @@
       <c r="C11" s="113"/>
       <c r="D11" s="130">
         <f t="shared" si="0"/>
-        <v>7.3768472906403932</v>
+        <v>9.4375</v>
       </c>
       <c r="E11" s="19">
         <f t="shared" si="1"/>
-        <v>7.5877192982456148</v>
+        <v>9.7767857142857135</v>
       </c>
       <c r="F11" s="19"/>
       <c r="G11" s="14">
         <f t="shared" si="4"/>
-        <v>21.625</v>
+        <v>27.375</v>
       </c>
       <c r="H11" s="14">
         <f t="shared" si="3"/>
-        <v>74.875</v>
+        <v>94.375</v>
       </c>
       <c r="I11" s="105">
         <v>1</v>
@@ -12750,17 +12785,33 @@
         <v>99</v>
       </c>
       <c r="BH11" s="105">
-        <v>1</v>
-      </c>
-      <c r="BI11" s="105"/>
-      <c r="BJ11" s="105"/>
-      <c r="BK11" s="105"/>
-      <c r="BL11" s="105"/>
-      <c r="BM11" s="105"/>
-      <c r="BN11" s="105"/>
-      <c r="BO11" s="105"/>
+        <v>0.75</v>
+      </c>
+      <c r="BI11" s="105">
+        <v>1</v>
+      </c>
+      <c r="BJ11" s="105">
+        <v>0</v>
+      </c>
+      <c r="BK11" s="105">
+        <v>1</v>
+      </c>
+      <c r="BL11" s="105">
+        <v>1</v>
+      </c>
+      <c r="BM11" s="105">
+        <v>1</v>
+      </c>
+      <c r="BN11" s="105">
+        <v>1</v>
+      </c>
+      <c r="BO11" s="105">
+        <v>1</v>
+      </c>
       <c r="BP11" s="105"/>
-      <c r="BQ11" s="105"/>
+      <c r="BQ11" s="105">
+        <v>0</v>
+      </c>
       <c r="BR11" s="105"/>
       <c r="BS11" s="105"/>
       <c r="BT11" s="105"/>
@@ -12796,20 +12847,20 @@
       <c r="C12" s="4"/>
       <c r="D12" s="130">
         <f t="shared" si="0"/>
-        <v>8.2975369458128085</v>
+        <v>10.372</v>
       </c>
       <c r="E12" s="19">
         <f t="shared" si="1"/>
-        <v>8.6807017543859644</v>
+        <v>10.799999999999999</v>
       </c>
       <c r="F12" s="19"/>
       <c r="G12" s="14">
         <f t="shared" si="4"/>
-        <v>24.74</v>
+        <v>30.24</v>
       </c>
       <c r="H12" s="14">
         <f t="shared" si="3"/>
-        <v>84.22</v>
+        <v>103.72</v>
       </c>
       <c r="I12" s="105">
         <v>1</v>
@@ -12951,15 +13002,31 @@
       <c r="BH12" s="105">
         <v>1</v>
       </c>
-      <c r="BI12" s="105"/>
-      <c r="BJ12" s="105"/>
-      <c r="BK12" s="105"/>
-      <c r="BL12" s="105"/>
-      <c r="BM12" s="105"/>
-      <c r="BN12" s="105"/>
-      <c r="BO12" s="105"/>
+      <c r="BI12" s="105">
+        <v>0.5</v>
+      </c>
+      <c r="BJ12" s="105">
+        <v>0</v>
+      </c>
+      <c r="BK12" s="105">
+        <v>0.5</v>
+      </c>
+      <c r="BL12" s="105">
+        <v>0.5</v>
+      </c>
+      <c r="BM12" s="105">
+        <v>1</v>
+      </c>
+      <c r="BN12" s="105">
+        <v>1</v>
+      </c>
+      <c r="BO12" s="105">
+        <v>1</v>
+      </c>
       <c r="BP12" s="105"/>
-      <c r="BQ12" s="105"/>
+      <c r="BQ12" s="105">
+        <v>1</v>
+      </c>
       <c r="BR12" s="105"/>
       <c r="BS12" s="105"/>
       <c r="BT12" s="105"/>
@@ -12995,20 +13062,20 @@
       <c r="C13" s="113"/>
       <c r="D13" s="130">
         <f t="shared" si="0"/>
-        <v>8.7359605911330043</v>
+        <v>11.216999999999999</v>
       </c>
       <c r="E13" s="19">
         <f t="shared" si="1"/>
-        <v>8.9087719298245602</v>
+        <v>11.567857142857143</v>
       </c>
       <c r="F13" s="19"/>
       <c r="G13" s="14">
         <f t="shared" si="4"/>
-        <v>25.389999999999997</v>
+        <v>32.39</v>
       </c>
       <c r="H13" s="14">
         <f t="shared" si="3"/>
-        <v>88.67</v>
+        <v>112.17</v>
       </c>
       <c r="I13" s="105">
         <v>0</v>
@@ -13152,15 +13219,31 @@
       <c r="BH13" s="84">
         <v>1</v>
       </c>
-      <c r="BI13" s="84"/>
-      <c r="BJ13" s="84"/>
-      <c r="BK13" s="84"/>
-      <c r="BL13" s="84"/>
-      <c r="BM13" s="84"/>
-      <c r="BN13" s="105"/>
-      <c r="BO13" s="84"/>
+      <c r="BI13" s="84">
+        <v>1</v>
+      </c>
+      <c r="BJ13" s="84">
+        <v>1</v>
+      </c>
+      <c r="BK13" s="84">
+        <v>0.5</v>
+      </c>
+      <c r="BL13" s="84">
+        <v>0.5</v>
+      </c>
+      <c r="BM13" s="84">
+        <v>1</v>
+      </c>
+      <c r="BN13" s="105">
+        <v>1</v>
+      </c>
+      <c r="BO13" s="84">
+        <v>1</v>
+      </c>
       <c r="BP13" s="84"/>
-      <c r="BQ13" s="84"/>
+      <c r="BQ13" s="84">
+        <v>1</v>
+      </c>
       <c r="BR13" s="84"/>
       <c r="BS13" s="84"/>
       <c r="BT13" s="84"/>
@@ -13196,11 +13279,11 @@
       <c r="C14" s="113"/>
       <c r="D14" s="130">
         <f t="shared" si="0"/>
-        <v>5.9113300492610845</v>
+        <v>6</v>
       </c>
       <c r="E14" s="19">
         <f t="shared" si="1"/>
-        <v>5.9649122807017543</v>
+        <v>6.0714285714285712</v>
       </c>
       <c r="F14" s="19"/>
       <c r="G14" s="14">
@@ -13395,11 +13478,11 @@
       <c r="C15" s="4"/>
       <c r="D15" s="130">
         <f t="shared" si="0"/>
-        <v>8.029556650246306</v>
+        <v>8.1499999999999986</v>
       </c>
       <c r="E15" s="19">
         <f t="shared" si="1"/>
-        <v>8.2456140350877192</v>
+        <v>8.3928571428571423</v>
       </c>
       <c r="F15" s="19"/>
       <c r="G15" s="14">
@@ -13594,11 +13677,11 @@
       <c r="C16" s="4"/>
       <c r="D16" s="130">
         <f t="shared" si="0"/>
-        <v>5.5788177339901477</v>
+        <v>5.6625000000000005</v>
       </c>
       <c r="E16" s="19">
         <f t="shared" si="1"/>
-        <v>6.1403508771929829</v>
+        <v>6.25</v>
       </c>
       <c r="F16" s="19"/>
       <c r="G16" s="14">
@@ -13793,20 +13876,20 @@
       <c r="C17" s="4"/>
       <c r="D17" s="130">
         <f t="shared" si="0"/>
-        <v>8.482266009852216</v>
+        <v>8.9094999999999995</v>
       </c>
       <c r="E17" s="19">
         <f t="shared" si="1"/>
-        <v>8.6807017543859644</v>
+        <v>9.1928571428571431</v>
       </c>
       <c r="F17" s="19"/>
       <c r="G17" s="14">
         <f t="shared" si="4"/>
-        <v>24.74</v>
+        <v>25.74</v>
       </c>
       <c r="H17" s="14">
         <f t="shared" si="3"/>
-        <v>86.094999999999999</v>
+        <v>89.094999999999999</v>
       </c>
       <c r="I17" s="105">
         <v>1</v>
@@ -13949,7 +14032,9 @@
         <v>1</v>
       </c>
       <c r="BI17" s="105"/>
-      <c r="BJ17" s="105"/>
+      <c r="BJ17" s="105">
+        <v>1</v>
+      </c>
       <c r="BK17" s="105"/>
       <c r="BL17" s="105"/>
       <c r="BM17" s="105"/>
@@ -13978,7 +14063,7 @@
       <c r="CJ17" s="66"/>
       <c r="CK17" s="66"/>
       <c r="CL17" s="96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CM17" s="2">
         <v>0</v>
@@ -13992,11 +14077,11 @@
       <c r="C18" s="4"/>
       <c r="D18" s="130">
         <f t="shared" si="0"/>
-        <v>7.287684729064039</v>
+        <v>7.3970000000000002</v>
       </c>
       <c r="E18" s="19">
         <f t="shared" si="1"/>
-        <v>7.5403508771929815</v>
+        <v>7.6749999999999998</v>
       </c>
       <c r="F18" s="19"/>
       <c r="G18" s="14">
@@ -14188,11 +14273,11 @@
       <c r="C19" s="113"/>
       <c r="D19" s="130">
         <f t="shared" si="0"/>
-        <v>6.7980295566502456</v>
+        <v>6.8999999999999995</v>
       </c>
       <c r="E19" s="19">
         <f t="shared" si="1"/>
-        <v>7.5438596491228074</v>
+        <v>7.6785714285714288</v>
       </c>
       <c r="F19" s="19"/>
       <c r="G19" s="14">
@@ -14387,11 +14472,11 @@
       <c r="C20" s="113"/>
       <c r="D20" s="130">
         <f t="shared" si="0"/>
-        <v>1.2068965517241379</v>
+        <v>1.2250000000000001</v>
       </c>
       <c r="E20" s="19">
         <f t="shared" si="1"/>
-        <v>2.0175438596491229</v>
+        <v>2.0535714285714284</v>
       </c>
       <c r="F20" s="19"/>
       <c r="G20" s="14">
@@ -14586,11 +14671,11 @@
       <c r="C21" s="4"/>
       <c r="D21" s="130">
         <f t="shared" si="0"/>
-        <v>5.0985221674876851</v>
+        <v>5.1749999999999998</v>
       </c>
       <c r="E21" s="19">
         <f t="shared" si="1"/>
-        <v>5.3508771929824563</v>
+        <v>5.4464285714285712</v>
       </c>
       <c r="F21" s="19"/>
       <c r="G21" s="14">
@@ -14785,11 +14870,11 @@
       <c r="C22" s="113"/>
       <c r="D22" s="130">
         <f t="shared" si="0"/>
-        <v>8.7192118226600996</v>
+        <v>8.85</v>
       </c>
       <c r="E22" s="19">
         <f t="shared" si="1"/>
-        <v>9.2982456140350873</v>
+        <v>9.4642857142857135</v>
       </c>
       <c r="F22" s="19"/>
       <c r="G22" s="14">
@@ -14988,11 +15073,11 @@
       <c r="C23" s="4"/>
       <c r="D23" s="130">
         <f t="shared" si="0"/>
-        <v>4.347290640394089</v>
+        <v>4.4124999999999996</v>
       </c>
       <c r="E23" s="19">
         <f t="shared" si="1"/>
-        <v>5.0877192982456148</v>
+        <v>5.1785714285714288</v>
       </c>
       <c r="F23" s="19"/>
       <c r="G23" s="14">
@@ -15187,11 +15272,11 @@
       <c r="C24" s="4"/>
       <c r="D24" s="130">
         <f t="shared" si="0"/>
-        <v>5.2216748768472909</v>
+        <v>5.3000000000000007</v>
       </c>
       <c r="E24" s="19">
         <f t="shared" si="1"/>
-        <v>5.0877192982456148</v>
+        <v>5.1785714285714288</v>
       </c>
       <c r="F24" s="19"/>
       <c r="G24" s="14">
@@ -15386,11 +15471,11 @@
       <c r="C25" s="4"/>
       <c r="D25" s="130">
         <f t="shared" si="0"/>
-        <v>4.5236453201970441</v>
+        <v>4.5914999999999999</v>
       </c>
       <c r="E25" s="19">
         <f t="shared" si="1"/>
-        <v>4.4754385964912284</v>
+        <v>4.5553571428571429</v>
       </c>
       <c r="F25" s="19"/>
       <c r="G25" s="14">
@@ -15585,11 +15670,11 @@
       <c r="C26" s="4"/>
       <c r="D26" s="130">
         <f t="shared" si="0"/>
-        <v>6.1576354679802954</v>
+        <v>6.25</v>
       </c>
       <c r="E26" s="19">
         <f t="shared" si="1"/>
-        <v>6.7543859649122808</v>
+        <v>6.875</v>
       </c>
       <c r="F26" s="19"/>
       <c r="G26" s="14">
@@ -15784,11 +15869,11 @@
       <c r="C27" s="113"/>
       <c r="D27" s="130">
         <f t="shared" si="0"/>
-        <v>6.3669950738916263</v>
+        <v>6.4625000000000004</v>
       </c>
       <c r="E27" s="19">
         <f t="shared" si="1"/>
-        <v>7.3245614035087714</v>
+        <v>7.4553571428571432</v>
       </c>
       <c r="F27" s="19"/>
       <c r="G27" s="14">
@@ -15983,11 +16068,11 @@
       <c r="C28" s="4"/>
       <c r="D28" s="130">
         <f t="shared" si="0"/>
-        <v>7.2610837438423648</v>
+        <v>7.37</v>
       </c>
       <c r="E28" s="19">
         <f t="shared" si="1"/>
-        <v>7.6842105263157894</v>
+        <v>7.8214285714285712</v>
       </c>
       <c r="F28" s="19"/>
       <c r="G28" s="14">
@@ -16606,7 +16691,7 @@
       <c r="C32" s="118"/>
       <c r="D32" s="130">
         <f t="shared" si="0"/>
-        <v>9.9507389162561584</v>
+        <v>10.1</v>
       </c>
       <c r="E32" s="19"/>
       <c r="F32" s="19"/>
@@ -16817,11 +16902,11 @@
       <c r="F33" s="19"/>
       <c r="G33" s="14">
         <f t="shared" ref="G33" si="5">H89</f>
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H33" s="14">
         <f t="shared" ref="H33" si="6">H60</f>
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="I33" s="66">
         <v>1</v>
@@ -17260,7 +17345,7 @@
       </c>
       <c r="BC34" s="104">
         <f t="shared" si="11"/>
-        <v>0.86250000000000004</v>
+        <v>0.85</v>
       </c>
       <c r="BD34" s="104">
         <f t="shared" si="11"/>
@@ -17280,43 +17365,43 @@
       </c>
       <c r="BH34" s="104">
         <f t="shared" si="11"/>
-        <v>0.85</v>
-      </c>
-      <c r="BI34" s="104" t="e">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="BI34" s="104">
         <f t="shared" ref="BI34:BW34" si="15">AVERAGE(BI9:BI32)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BJ34" s="104" t="e">
+        <v>0.65</v>
+      </c>
+      <c r="BJ34" s="104">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BK34" s="104" t="e">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="BK34" s="104">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BL34" s="104" t="e">
+        <v>0.8</v>
+      </c>
+      <c r="BL34" s="104">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BM34" s="104" t="e">
+        <v>0.8</v>
+      </c>
+      <c r="BM34" s="104">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BN34" s="104" t="e">
+        <v>1</v>
+      </c>
+      <c r="BN34" s="104">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BO34" s="104" t="e">
+        <v>1</v>
+      </c>
+      <c r="BO34" s="104">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="BP34" s="104" t="e">
         <f t="shared" ref="BP34" si="16">AVERAGE(BP9:BP32)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BQ34" s="104" t="e">
+      <c r="BQ34" s="104">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+        <v>0.8</v>
       </c>
       <c r="BR34" s="104" t="e">
         <f t="shared" si="15"/>
@@ -17400,7 +17485,7 @@
       </c>
       <c r="CL34" s="96">
         <f>AVERAGE(CL9:CL33)</f>
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="CM34" s="2">
         <f>AVERAGE(CM9:CM33)</f>
@@ -17410,7 +17495,7 @@
     <row r="36" spans="1:91" x14ac:dyDescent="0.25">
       <c r="H36" s="2">
         <f t="shared" ref="H36:H60" si="18">SUM(I36:CK36)</f>
-        <v>83.47</v>
+        <v>110.47</v>
       </c>
       <c r="I36" s="2">
         <f t="shared" ref="I36:AJ36" si="19">I9*I$6</f>
@@ -17622,31 +17707,31 @@
       </c>
       <c r="BI36" s="104">
         <f t="shared" ref="BI36:BW36" si="27">BI9*BI$6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ36" s="104">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BK36" s="104">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BL36" s="104">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BM36" s="104">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BN36" s="104">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BO36" s="104">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BP36" s="104">
         <f t="shared" ref="BP36:CE51" si="28">BP9*BP$6</f>
@@ -17654,7 +17739,7 @@
       </c>
       <c r="BQ36" s="104">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BR36" s="104">
         <f t="shared" si="27"/>
@@ -17748,7 +17833,7 @@
     <row r="37" spans="1:91" x14ac:dyDescent="0.25">
       <c r="H37" s="111">
         <f t="shared" si="18"/>
-        <v>90.344999999999999</v>
+        <v>111.845</v>
       </c>
       <c r="I37" s="111">
         <f t="shared" ref="I37:BA37" si="30">I10*I$6</f>
@@ -17936,7 +18021,7 @@
       </c>
       <c r="BC37" s="111">
         <f t="shared" si="25"/>
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="BD37" s="111">
         <f t="shared" si="25"/>
@@ -17956,35 +18041,35 @@
       </c>
       <c r="BH37" s="111">
         <f t="shared" si="26"/>
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="BI37" s="111">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BJ37" s="111">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BK37" s="111">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BL37" s="111">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BM37" s="111">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BN37" s="111">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BO37" s="111">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BP37" s="111">
         <f t="shared" si="28"/>
@@ -17992,7 +18077,7 @@
       </c>
       <c r="BQ37" s="111">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BR37" s="111">
         <f t="shared" si="28"/>
@@ -18086,7 +18171,7 @@
     <row r="38" spans="1:91" x14ac:dyDescent="0.25">
       <c r="H38" s="111">
         <f t="shared" si="18"/>
-        <v>74.875</v>
+        <v>94.375</v>
       </c>
       <c r="I38" s="111">
         <f t="shared" ref="I38:BA38" si="34">I11*I$6</f>
@@ -18294,11 +18379,11 @@
       </c>
       <c r="BH38" s="111">
         <f t="shared" si="26"/>
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="BI38" s="111">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BJ38" s="111">
         <f t="shared" si="26"/>
@@ -18306,23 +18391,23 @@
       </c>
       <c r="BK38" s="111">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BL38" s="111">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BM38" s="111">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BN38" s="111">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BO38" s="111">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BP38" s="111">
         <f t="shared" si="28"/>
@@ -18424,7 +18509,7 @@
     <row r="39" spans="1:91" x14ac:dyDescent="0.25">
       <c r="H39" s="111">
         <f t="shared" si="18"/>
-        <v>84.22</v>
+        <v>103.72</v>
       </c>
       <c r="I39" s="111">
         <f t="shared" ref="I39:BA39" si="38">I12*I$6</f>
@@ -18636,7 +18721,7 @@
       </c>
       <c r="BI39" s="111">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ39" s="111">
         <f t="shared" si="26"/>
@@ -18644,23 +18729,23 @@
       </c>
       <c r="BK39" s="111">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BL39" s="111">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="BM39" s="111">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BN39" s="111">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BO39" s="111">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BP39" s="111">
         <f t="shared" si="28"/>
@@ -18668,7 +18753,7 @@
       </c>
       <c r="BQ39" s="111">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BR39" s="111">
         <f t="shared" si="28"/>
@@ -18762,7 +18847,7 @@
     <row r="40" spans="1:91" x14ac:dyDescent="0.25">
       <c r="H40" s="111">
         <f t="shared" si="18"/>
-        <v>88.67</v>
+        <v>112.17</v>
       </c>
       <c r="I40" s="111">
         <f t="shared" ref="I40:BA40" si="42">I13*I$6</f>
@@ -18974,31 +19059,31 @@
       </c>
       <c r="BI40" s="111">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BJ40" s="111">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BK40" s="111">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BL40" s="111">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="BM40" s="111">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BN40" s="111">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BO40" s="111">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BP40" s="111">
         <f t="shared" si="28"/>
@@ -19006,7 +19091,7 @@
       </c>
       <c r="BQ40" s="111">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BR40" s="111">
         <f t="shared" si="28"/>
@@ -20114,7 +20199,7 @@
     <row r="44" spans="1:91" x14ac:dyDescent="0.25">
       <c r="H44" s="111">
         <f t="shared" si="18"/>
-        <v>86.094999999999999</v>
+        <v>89.094999999999999</v>
       </c>
       <c r="I44" s="111">
         <f t="shared" ref="I44:BA44" si="58">I17*I$6</f>
@@ -20330,7 +20415,7 @@
       </c>
       <c r="BJ44" s="111">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BK44" s="111">
         <f t="shared" si="26"/>
@@ -20442,7 +20527,7 @@
       </c>
       <c r="CL44" s="111">
         <f t="shared" si="61"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="CM44" s="111">
         <f t="shared" si="61"/>
@@ -25555,7 +25640,7 @@
       <c r="F60" s="18"/>
       <c r="H60" s="111">
         <f t="shared" si="18"/>
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="I60" s="111">
         <f t="shared" ref="I60:BA60" si="122">I33*I$6</f>
@@ -25795,7 +25880,7 @@
       </c>
       <c r="BP60" s="111">
         <f t="shared" si="90"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BQ60" s="111">
         <f t="shared" si="90"/>
@@ -25999,7 +26084,7 @@
     <row r="65" spans="4:91" x14ac:dyDescent="0.25">
       <c r="H65" s="2">
         <f t="shared" ref="H65:H89" si="126">SUM(I65:CK65)</f>
-        <v>26.24</v>
+        <v>33.739999999999995</v>
       </c>
       <c r="I65" s="2">
         <f t="shared" ref="I65:AJ65" si="127">I9*I$7</f>
@@ -26211,31 +26296,31 @@
       </c>
       <c r="BI65" s="104">
         <f t="shared" ref="BI65:BW65" si="133">BI9*BI$7</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BJ65" s="104">
         <f t="shared" si="133"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK65" s="104">
         <f t="shared" si="133"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL65" s="104">
         <f t="shared" si="133"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM65" s="104">
         <f t="shared" si="133"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN65" s="104">
         <f t="shared" si="133"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO65" s="104">
         <f t="shared" si="133"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP65" s="104">
         <f>BP9*BP$7</f>
@@ -26243,7 +26328,7 @@
       </c>
       <c r="BQ65" s="104">
         <f t="shared" si="133"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR65" s="104">
         <f t="shared" si="133"/>
@@ -26337,7 +26422,7 @@
     <row r="66" spans="4:91" x14ac:dyDescent="0.25">
       <c r="H66" s="111">
         <f t="shared" si="126"/>
-        <v>26.24</v>
+        <v>32.989999999999995</v>
       </c>
       <c r="I66" s="111">
         <f t="shared" ref="I66:BW66" si="135">I10*I$7</f>
@@ -26525,7 +26610,7 @@
       </c>
       <c r="BC66" s="111">
         <f t="shared" si="135"/>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="BD66" s="111">
         <f t="shared" si="135"/>
@@ -26545,35 +26630,35 @@
       </c>
       <c r="BH66" s="111">
         <f t="shared" si="135"/>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="BI66" s="111">
         <f t="shared" si="135"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="BJ66" s="111">
         <f t="shared" si="135"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK66" s="111">
         <f t="shared" si="135"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL66" s="111">
         <f t="shared" si="135"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM66" s="111">
         <f t="shared" si="135"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN66" s="111">
         <f t="shared" si="135"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO66" s="111">
         <f t="shared" si="135"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP66" s="111">
         <f t="shared" si="135"/>
@@ -26581,7 +26666,7 @@
       </c>
       <c r="BQ66" s="111">
         <f t="shared" si="135"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR66" s="111">
         <f t="shared" si="135"/>
@@ -26675,7 +26760,7 @@
     <row r="67" spans="4:91" x14ac:dyDescent="0.25">
       <c r="H67" s="111">
         <f t="shared" si="126"/>
-        <v>21.625</v>
+        <v>27.375</v>
       </c>
       <c r="I67" s="111">
         <f t="shared" ref="I67:BW67" si="139">I11*I$7</f>
@@ -26883,11 +26968,11 @@
       </c>
       <c r="BH67" s="111">
         <f t="shared" si="139"/>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="BI67" s="111">
         <f t="shared" si="139"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ67" s="111">
         <f t="shared" si="139"/>
@@ -26895,23 +26980,23 @@
       </c>
       <c r="BK67" s="111">
         <f t="shared" si="139"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL67" s="111">
         <f t="shared" si="139"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM67" s="111">
         <f t="shared" si="139"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN67" s="111">
         <f t="shared" si="139"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO67" s="111">
         <f t="shared" si="139"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP67" s="111">
         <f t="shared" si="139"/>
@@ -27013,7 +27098,7 @@
     <row r="68" spans="4:91" x14ac:dyDescent="0.25">
       <c r="H68" s="111">
         <f t="shared" si="126"/>
-        <v>24.74</v>
+        <v>30.24</v>
       </c>
       <c r="I68" s="111">
         <f t="shared" ref="I68:BW68" si="143">I12*I$7</f>
@@ -27225,7 +27310,7 @@
       </c>
       <c r="BI68" s="111">
         <f t="shared" si="143"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BJ68" s="111">
         <f t="shared" si="143"/>
@@ -27233,23 +27318,23 @@
       </c>
       <c r="BK68" s="111">
         <f t="shared" si="143"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BL68" s="111">
         <f t="shared" si="143"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BM68" s="111">
         <f t="shared" si="143"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN68" s="111">
         <f t="shared" si="143"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO68" s="111">
         <f t="shared" si="143"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP68" s="111">
         <f t="shared" si="143"/>
@@ -27257,7 +27342,7 @@
       </c>
       <c r="BQ68" s="111">
         <f t="shared" si="143"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR68" s="111">
         <f t="shared" si="143"/>
@@ -27351,7 +27436,7 @@
     <row r="69" spans="4:91" x14ac:dyDescent="0.25">
       <c r="H69" s="111">
         <f t="shared" si="126"/>
-        <v>25.389999999999997</v>
+        <v>32.39</v>
       </c>
       <c r="I69" s="111">
         <f t="shared" ref="I69:BW69" si="147">I13*I$7</f>
@@ -27563,31 +27648,31 @@
       </c>
       <c r="BI69" s="111">
         <f t="shared" si="147"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ69" s="111">
         <f t="shared" si="147"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK69" s="111">
         <f t="shared" si="147"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BL69" s="111">
         <f t="shared" si="147"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BM69" s="111">
         <f t="shared" si="147"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN69" s="111">
         <f t="shared" si="147"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO69" s="111">
         <f t="shared" si="147"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP69" s="111">
         <f t="shared" si="147"/>
@@ -27595,7 +27680,7 @@
       </c>
       <c r="BQ69" s="111">
         <f t="shared" si="147"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR69" s="111">
         <f t="shared" si="147"/>
@@ -28703,7 +28788,7 @@
     <row r="73" spans="4:91" x14ac:dyDescent="0.25">
       <c r="H73" s="111">
         <f t="shared" si="126"/>
-        <v>24.74</v>
+        <v>25.74</v>
       </c>
       <c r="I73" s="111">
         <f t="shared" ref="I73:BW73" si="163">I17*I$7</f>
@@ -28919,7 +29004,7 @@
       </c>
       <c r="BJ73" s="111">
         <f t="shared" si="163"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK73" s="111">
         <f t="shared" si="163"/>
@@ -29031,7 +29116,7 @@
       </c>
       <c r="CL73" s="111">
         <f t="shared" si="166"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CM73" s="111">
         <f t="shared" si="166"/>
@@ -34132,7 +34217,7 @@
     <row r="89" spans="4:91" x14ac:dyDescent="0.25">
       <c r="H89" s="111">
         <f t="shared" si="126"/>
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I89" s="111">
         <f t="shared" ref="I89:BW89" si="227">I33*I$7</f>
@@ -34372,7 +34457,7 @@
       </c>
       <c r="BP89" s="111">
         <f t="shared" si="227"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ89" s="111">
         <f t="shared" si="227"/>

--- a/BaremeJavaBaseTest2_KL16.xlsx
+++ b/BaremeJavaBaseTest2_KL16.xlsx
@@ -3509,142 +3509,10 @@
     <xf numFmtId="2" fontId="3" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3674,10 +3542,61 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3686,31 +3605,115 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3720,6 +3723,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3755,13 +3761,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -10777,11 +10777,11 @@
   <dimension ref="A1:CM90"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2325" ySplit="3630" topLeftCell="L7" activePane="bottomRight"/>
+      <pane xSplit="2325" ySplit="3630" topLeftCell="Q10" activePane="bottomRight"/>
       <selection activeCell="D4" sqref="D4"/>
       <selection pane="topRight" activeCell="BP6" sqref="BP1:BP1048576"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
-      <selection pane="bottomRight" activeCell="BQ14" sqref="BQ14"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14:XFD14"/>
+      <selection pane="bottomRight" activeCell="BI15" sqref="BI15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -10844,96 +10844,96 @@
       <c r="D1" s="125"/>
       <c r="E1" s="18"/>
       <c r="F1" s="18"/>
-      <c r="I1" s="136" t="s">
+      <c r="I1" s="170" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="136"/>
-      <c r="K1" s="136"/>
-      <c r="L1" s="136"/>
-      <c r="M1" s="136"/>
-      <c r="N1" s="136"/>
-      <c r="O1" s="136"/>
-      <c r="P1" s="136"/>
-      <c r="Q1" s="147" t="s">
+      <c r="J1" s="170"/>
+      <c r="K1" s="170"/>
+      <c r="L1" s="170"/>
+      <c r="M1" s="170"/>
+      <c r="N1" s="170"/>
+      <c r="O1" s="170"/>
+      <c r="P1" s="170"/>
+      <c r="Q1" s="180" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="147"/>
-      <c r="S1" s="147"/>
-      <c r="T1" s="147"/>
-      <c r="U1" s="147"/>
-      <c r="V1" s="147"/>
-      <c r="W1" s="138" t="s">
+      <c r="R1" s="180"/>
+      <c r="S1" s="180"/>
+      <c r="T1" s="180"/>
+      <c r="U1" s="180"/>
+      <c r="V1" s="180"/>
+      <c r="W1" s="188" t="s">
         <v>103</v>
       </c>
-      <c r="X1" s="138"/>
-      <c r="Y1" s="138"/>
-      <c r="Z1" s="138"/>
-      <c r="AA1" s="138"/>
-      <c r="AB1" s="138"/>
-      <c r="AC1" s="138"/>
-      <c r="AD1" s="138"/>
-      <c r="AE1" s="138"/>
-      <c r="AF1" s="138"/>
-      <c r="AG1" s="138"/>
-      <c r="AH1" s="138"/>
-      <c r="AI1" s="138"/>
-      <c r="AJ1" s="138"/>
-      <c r="AK1" s="138"/>
-      <c r="AL1" s="138"/>
-      <c r="AM1" s="138"/>
-      <c r="AN1" s="138"/>
-      <c r="AO1" s="138"/>
-      <c r="AP1" s="138"/>
-      <c r="AQ1" s="138"/>
-      <c r="AR1" s="138"/>
-      <c r="AS1" s="138"/>
-      <c r="AT1" s="138"/>
-      <c r="AU1" s="138"/>
-      <c r="AV1" s="138"/>
-      <c r="AW1" s="138"/>
-      <c r="AX1" s="138"/>
-      <c r="AY1" s="138"/>
-      <c r="AZ1" s="138"/>
-      <c r="BA1" s="138"/>
-      <c r="BB1" s="138"/>
-      <c r="BC1" s="138"/>
-      <c r="BD1" s="138"/>
-      <c r="BE1" s="138"/>
-      <c r="BF1" s="138"/>
-      <c r="BG1" s="138"/>
-      <c r="BH1" s="138"/>
-      <c r="BI1" s="138"/>
-      <c r="BJ1" s="138"/>
-      <c r="BK1" s="138"/>
-      <c r="BL1" s="138"/>
-      <c r="BM1" s="138"/>
-      <c r="BN1" s="138"/>
-      <c r="BO1" s="138"/>
-      <c r="BP1" s="138"/>
-      <c r="BQ1" s="138"/>
-      <c r="BR1" s="138" t="s">
+      <c r="X1" s="188"/>
+      <c r="Y1" s="188"/>
+      <c r="Z1" s="188"/>
+      <c r="AA1" s="188"/>
+      <c r="AB1" s="188"/>
+      <c r="AC1" s="188"/>
+      <c r="AD1" s="188"/>
+      <c r="AE1" s="188"/>
+      <c r="AF1" s="188"/>
+      <c r="AG1" s="188"/>
+      <c r="AH1" s="188"/>
+      <c r="AI1" s="188"/>
+      <c r="AJ1" s="188"/>
+      <c r="AK1" s="188"/>
+      <c r="AL1" s="188"/>
+      <c r="AM1" s="188"/>
+      <c r="AN1" s="188"/>
+      <c r="AO1" s="188"/>
+      <c r="AP1" s="188"/>
+      <c r="AQ1" s="188"/>
+      <c r="AR1" s="188"/>
+      <c r="AS1" s="188"/>
+      <c r="AT1" s="188"/>
+      <c r="AU1" s="188"/>
+      <c r="AV1" s="188"/>
+      <c r="AW1" s="188"/>
+      <c r="AX1" s="188"/>
+      <c r="AY1" s="188"/>
+      <c r="AZ1" s="188"/>
+      <c r="BA1" s="188"/>
+      <c r="BB1" s="188"/>
+      <c r="BC1" s="188"/>
+      <c r="BD1" s="188"/>
+      <c r="BE1" s="188"/>
+      <c r="BF1" s="188"/>
+      <c r="BG1" s="188"/>
+      <c r="BH1" s="188"/>
+      <c r="BI1" s="188"/>
+      <c r="BJ1" s="188"/>
+      <c r="BK1" s="188"/>
+      <c r="BL1" s="188"/>
+      <c r="BM1" s="188"/>
+      <c r="BN1" s="188"/>
+      <c r="BO1" s="188"/>
+      <c r="BP1" s="188"/>
+      <c r="BQ1" s="188"/>
+      <c r="BR1" s="188" t="s">
         <v>102</v>
       </c>
-      <c r="BS1" s="138"/>
-      <c r="BT1" s="138"/>
-      <c r="BU1" s="138"/>
-      <c r="BV1" s="138"/>
-      <c r="BW1" s="138"/>
-      <c r="BX1" s="138" t="s">
+      <c r="BS1" s="188"/>
+      <c r="BT1" s="188"/>
+      <c r="BU1" s="188"/>
+      <c r="BV1" s="188"/>
+      <c r="BW1" s="188"/>
+      <c r="BX1" s="188" t="s">
         <v>104</v>
       </c>
-      <c r="BY1" s="138"/>
-      <c r="BZ1" s="138"/>
-      <c r="CA1" s="138"/>
-      <c r="CB1" s="138"/>
-      <c r="CC1" s="138"/>
-      <c r="CD1" s="138"/>
-      <c r="CE1" s="138"/>
-      <c r="CF1" s="138"/>
-      <c r="CG1" s="138"/>
-      <c r="CH1" s="138"/>
-      <c r="CI1" s="138"/>
-      <c r="CJ1" s="138"/>
+      <c r="BY1" s="188"/>
+      <c r="BZ1" s="188"/>
+      <c r="CA1" s="188"/>
+      <c r="CB1" s="188"/>
+      <c r="CC1" s="188"/>
+      <c r="CD1" s="188"/>
+      <c r="CE1" s="188"/>
+      <c r="CF1" s="188"/>
+      <c r="CG1" s="188"/>
+      <c r="CH1" s="188"/>
+      <c r="CI1" s="188"/>
+      <c r="CJ1" s="188"/>
       <c r="CK1" s="109"/>
     </row>
     <row r="2" spans="1:91" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -10945,113 +10945,113 @@
       <c r="F2" s="56"/>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
-      <c r="I2" s="137"/>
-      <c r="J2" s="137"/>
-      <c r="K2" s="137"/>
-      <c r="L2" s="137"/>
-      <c r="M2" s="137"/>
-      <c r="N2" s="137"/>
-      <c r="O2" s="137"/>
-      <c r="P2" s="137"/>
-      <c r="Q2" s="136"/>
-      <c r="R2" s="136"/>
-      <c r="S2" s="136"/>
-      <c r="T2" s="136"/>
-      <c r="U2" s="136"/>
-      <c r="V2" s="136"/>
-      <c r="W2" s="141" t="s">
+      <c r="I2" s="133"/>
+      <c r="J2" s="133"/>
+      <c r="K2" s="133"/>
+      <c r="L2" s="133"/>
+      <c r="M2" s="133"/>
+      <c r="N2" s="133"/>
+      <c r="O2" s="133"/>
+      <c r="P2" s="133"/>
+      <c r="Q2" s="170"/>
+      <c r="R2" s="170"/>
+      <c r="S2" s="170"/>
+      <c r="T2" s="170"/>
+      <c r="U2" s="170"/>
+      <c r="V2" s="170"/>
+      <c r="W2" s="156" t="s">
         <v>4</v>
       </c>
-      <c r="X2" s="188"/>
-      <c r="Y2" s="143"/>
-      <c r="Z2" s="143"/>
-      <c r="AA2" s="143"/>
-      <c r="AB2" s="143"/>
-      <c r="AC2" s="143"/>
-      <c r="AD2" s="143"/>
-      <c r="AE2" s="143"/>
-      <c r="AF2" s="143"/>
-      <c r="AG2" s="143"/>
-      <c r="AH2" s="143"/>
-      <c r="AI2" s="143"/>
-      <c r="AJ2" s="143"/>
-      <c r="AK2" s="143"/>
-      <c r="AL2" s="143"/>
-      <c r="AM2" s="143"/>
-      <c r="AN2" s="143"/>
-      <c r="AO2" s="145"/>
-      <c r="AP2" s="139" t="s">
+      <c r="X2" s="157"/>
+      <c r="Y2" s="158"/>
+      <c r="Z2" s="158"/>
+      <c r="AA2" s="158"/>
+      <c r="AB2" s="158"/>
+      <c r="AC2" s="158"/>
+      <c r="AD2" s="158"/>
+      <c r="AE2" s="158"/>
+      <c r="AF2" s="158"/>
+      <c r="AG2" s="158"/>
+      <c r="AH2" s="158"/>
+      <c r="AI2" s="158"/>
+      <c r="AJ2" s="158"/>
+      <c r="AK2" s="158"/>
+      <c r="AL2" s="158"/>
+      <c r="AM2" s="158"/>
+      <c r="AN2" s="158"/>
+      <c r="AO2" s="159"/>
+      <c r="AP2" s="189" t="s">
         <v>12</v>
       </c>
-      <c r="AQ2" s="137"/>
-      <c r="AR2" s="137"/>
-      <c r="AS2" s="140"/>
-      <c r="AT2" s="177" t="s">
+      <c r="AQ2" s="133"/>
+      <c r="AR2" s="133"/>
+      <c r="AS2" s="190"/>
+      <c r="AT2" s="132" t="s">
         <v>6</v>
       </c>
-      <c r="AU2" s="137"/>
-      <c r="AV2" s="137"/>
-      <c r="AW2" s="155" t="s">
+      <c r="AU2" s="133"/>
+      <c r="AV2" s="133"/>
+      <c r="AW2" s="169" t="s">
         <v>101</v>
       </c>
-      <c r="AX2" s="136"/>
-      <c r="AY2" s="136"/>
-      <c r="AZ2" s="136"/>
-      <c r="BA2" s="136"/>
-      <c r="BB2" s="136"/>
-      <c r="BC2" s="136"/>
-      <c r="BD2" s="136"/>
-      <c r="BE2" s="136"/>
-      <c r="BF2" s="136"/>
-      <c r="BG2" s="136"/>
-      <c r="BH2" s="156"/>
-      <c r="BI2" s="155" t="s">
+      <c r="AX2" s="170"/>
+      <c r="AY2" s="170"/>
+      <c r="AZ2" s="170"/>
+      <c r="BA2" s="170"/>
+      <c r="BB2" s="170"/>
+      <c r="BC2" s="170"/>
+      <c r="BD2" s="170"/>
+      <c r="BE2" s="170"/>
+      <c r="BF2" s="170"/>
+      <c r="BG2" s="170"/>
+      <c r="BH2" s="171"/>
+      <c r="BI2" s="169" t="s">
         <v>105</v>
       </c>
-      <c r="BJ2" s="136"/>
-      <c r="BK2" s="136"/>
-      <c r="BL2" s="136"/>
-      <c r="BM2" s="136"/>
-      <c r="BN2" s="136"/>
-      <c r="BO2" s="136"/>
-      <c r="BP2" s="136"/>
-      <c r="BQ2" s="156"/>
-      <c r="BR2" s="141" t="s">
+      <c r="BJ2" s="170"/>
+      <c r="BK2" s="170"/>
+      <c r="BL2" s="170"/>
+      <c r="BM2" s="170"/>
+      <c r="BN2" s="170"/>
+      <c r="BO2" s="170"/>
+      <c r="BP2" s="170"/>
+      <c r="BQ2" s="171"/>
+      <c r="BR2" s="156" t="s">
         <v>106</v>
       </c>
-      <c r="BS2" s="143" t="s">
+      <c r="BS2" s="158" t="s">
         <v>107</v>
       </c>
-      <c r="BT2" s="143"/>
-      <c r="BU2" s="143" t="s">
+      <c r="BT2" s="158"/>
+      <c r="BU2" s="158" t="s">
         <v>108</v>
       </c>
-      <c r="BV2" s="143" t="s">
+      <c r="BV2" s="158" t="s">
         <v>109</v>
       </c>
-      <c r="BW2" s="145"/>
-      <c r="BX2" s="155" t="s">
+      <c r="BW2" s="159"/>
+      <c r="BX2" s="169" t="s">
         <v>110</v>
       </c>
-      <c r="BY2" s="136"/>
-      <c r="BZ2" s="136"/>
-      <c r="CA2" s="136"/>
-      <c r="CB2" s="136"/>
-      <c r="CC2" s="136"/>
-      <c r="CD2" s="136"/>
-      <c r="CE2" s="136"/>
-      <c r="CF2" s="136"/>
-      <c r="CG2" s="136"/>
-      <c r="CH2" s="136"/>
-      <c r="CI2" s="136"/>
-      <c r="CJ2" s="156"/>
-      <c r="CK2" s="215" t="s">
+      <c r="BY2" s="170"/>
+      <c r="BZ2" s="170"/>
+      <c r="CA2" s="170"/>
+      <c r="CB2" s="170"/>
+      <c r="CC2" s="170"/>
+      <c r="CD2" s="170"/>
+      <c r="CE2" s="170"/>
+      <c r="CF2" s="170"/>
+      <c r="CG2" s="170"/>
+      <c r="CH2" s="170"/>
+      <c r="CI2" s="170"/>
+      <c r="CJ2" s="171"/>
+      <c r="CK2" s="176" t="s">
         <v>13</v>
       </c>
-      <c r="CL2" s="176" t="s">
+      <c r="CL2" s="168" t="s">
         <v>174</v>
       </c>
-      <c r="CM2" s="176"/>
+      <c r="CM2" s="168"/>
     </row>
     <row r="3" spans="1:91" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
@@ -11062,129 +11062,129 @@
       <c r="F3" s="56"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
-      <c r="I3" s="184" t="s">
+      <c r="I3" s="140" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="167" t="s">
+      <c r="J3" s="143" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="167" t="s">
+      <c r="K3" s="143" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="184" t="s">
+      <c r="L3" s="140" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="184" t="s">
+      <c r="M3" s="140" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="167" t="s">
+      <c r="N3" s="143" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="181" t="s">
+      <c r="O3" s="137" t="s">
         <v>72</v>
       </c>
-      <c r="P3" s="167" t="s">
+      <c r="P3" s="143" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="136"/>
-      <c r="R3" s="136"/>
-      <c r="S3" s="136"/>
-      <c r="T3" s="136"/>
-      <c r="U3" s="136"/>
-      <c r="V3" s="136"/>
-      <c r="W3" s="174" t="s">
+      <c r="Q3" s="170"/>
+      <c r="R3" s="170"/>
+      <c r="S3" s="170"/>
+      <c r="T3" s="170"/>
+      <c r="U3" s="170"/>
+      <c r="V3" s="170"/>
+      <c r="W3" s="150" t="s">
         <v>92</v>
       </c>
-      <c r="X3" s="149"/>
-      <c r="Y3" s="149"/>
-      <c r="Z3" s="149"/>
-      <c r="AA3" s="149"/>
-      <c r="AB3" s="178" t="s">
+      <c r="X3" s="151"/>
+      <c r="Y3" s="151"/>
+      <c r="Z3" s="151"/>
+      <c r="AA3" s="151"/>
+      <c r="AB3" s="134" t="s">
         <v>112</v>
       </c>
-      <c r="AC3" s="162"/>
-      <c r="AD3" s="158"/>
-      <c r="AE3" s="158"/>
-      <c r="AF3" s="158"/>
-      <c r="AG3" s="158"/>
-      <c r="AH3" s="158"/>
-      <c r="AI3" s="158"/>
-      <c r="AJ3" s="191" t="s">
+      <c r="AC3" s="160"/>
+      <c r="AD3" s="161"/>
+      <c r="AE3" s="161"/>
+      <c r="AF3" s="161"/>
+      <c r="AG3" s="161"/>
+      <c r="AH3" s="161"/>
+      <c r="AI3" s="161"/>
+      <c r="AJ3" s="166" t="s">
         <v>113</v>
       </c>
-      <c r="AK3" s="149"/>
-      <c r="AL3" s="149"/>
-      <c r="AM3" s="149"/>
-      <c r="AN3" s="149"/>
-      <c r="AO3" s="150"/>
-      <c r="AP3" s="174" t="s">
+      <c r="AK3" s="151"/>
+      <c r="AL3" s="151"/>
+      <c r="AM3" s="151"/>
+      <c r="AN3" s="151"/>
+      <c r="AO3" s="167"/>
+      <c r="AP3" s="150" t="s">
         <v>5</v>
       </c>
-      <c r="AQ3" s="149"/>
-      <c r="AR3" s="149"/>
-      <c r="AS3" s="178" t="s">
+      <c r="AQ3" s="151"/>
+      <c r="AR3" s="151"/>
+      <c r="AS3" s="134" t="s">
         <v>22</v>
       </c>
-      <c r="AT3" s="167" t="s">
+      <c r="AT3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="AU3" s="147"/>
-      <c r="AV3" s="147"/>
-      <c r="AW3" s="163" t="s">
+      <c r="AU3" s="180"/>
+      <c r="AV3" s="180"/>
+      <c r="AW3" s="185" t="s">
         <v>133</v>
       </c>
-      <c r="AX3" s="165" t="s">
+      <c r="AX3" s="187" t="s">
         <v>8</v>
       </c>
-      <c r="AY3" s="148" t="s">
+      <c r="AY3" s="184" t="s">
         <v>121</v>
       </c>
-      <c r="AZ3" s="149"/>
-      <c r="BA3" s="149"/>
-      <c r="BB3" s="149"/>
-      <c r="BC3" s="162"/>
-      <c r="BD3" s="148" t="s">
+      <c r="AZ3" s="151"/>
+      <c r="BA3" s="151"/>
+      <c r="BB3" s="151"/>
+      <c r="BC3" s="160"/>
+      <c r="BD3" s="184" t="s">
         <v>123</v>
       </c>
-      <c r="BE3" s="149"/>
-      <c r="BF3" s="149"/>
-      <c r="BG3" s="149"/>
-      <c r="BH3" s="150"/>
-      <c r="BI3" s="157" t="s">
+      <c r="BE3" s="151"/>
+      <c r="BF3" s="151"/>
+      <c r="BG3" s="151"/>
+      <c r="BH3" s="167"/>
+      <c r="BI3" s="172" t="s">
         <v>71</v>
       </c>
-      <c r="BJ3" s="158"/>
-      <c r="BK3" s="158"/>
-      <c r="BL3" s="158"/>
-      <c r="BM3" s="158"/>
-      <c r="BN3" s="158"/>
-      <c r="BO3" s="158"/>
-      <c r="BP3" s="148"/>
-      <c r="BQ3" s="159"/>
-      <c r="BR3" s="142"/>
-      <c r="BS3" s="144"/>
-      <c r="BT3" s="144"/>
-      <c r="BU3" s="144"/>
-      <c r="BV3" s="144"/>
-      <c r="BW3" s="146"/>
-      <c r="BX3" s="157" t="s">
+      <c r="BJ3" s="161"/>
+      <c r="BK3" s="161"/>
+      <c r="BL3" s="161"/>
+      <c r="BM3" s="161"/>
+      <c r="BN3" s="161"/>
+      <c r="BO3" s="161"/>
+      <c r="BP3" s="184"/>
+      <c r="BQ3" s="173"/>
+      <c r="BR3" s="191"/>
+      <c r="BS3" s="192"/>
+      <c r="BT3" s="192"/>
+      <c r="BU3" s="192"/>
+      <c r="BV3" s="192"/>
+      <c r="BW3" s="193"/>
+      <c r="BX3" s="172" t="s">
         <v>111</v>
       </c>
-      <c r="BY3" s="158"/>
-      <c r="BZ3" s="158"/>
-      <c r="CA3" s="158"/>
-      <c r="CB3" s="158"/>
-      <c r="CC3" s="158"/>
-      <c r="CD3" s="158"/>
-      <c r="CE3" s="158"/>
-      <c r="CF3" s="158"/>
-      <c r="CG3" s="158"/>
-      <c r="CH3" s="158"/>
-      <c r="CI3" s="158"/>
-      <c r="CJ3" s="159"/>
-      <c r="CK3" s="155"/>
-      <c r="CL3" s="176"/>
-      <c r="CM3" s="176"/>
+      <c r="BY3" s="161"/>
+      <c r="BZ3" s="161"/>
+      <c r="CA3" s="161"/>
+      <c r="CB3" s="161"/>
+      <c r="CC3" s="161"/>
+      <c r="CD3" s="161"/>
+      <c r="CE3" s="161"/>
+      <c r="CF3" s="161"/>
+      <c r="CG3" s="161"/>
+      <c r="CH3" s="161"/>
+      <c r="CI3" s="161"/>
+      <c r="CJ3" s="173"/>
+      <c r="CK3" s="169"/>
+      <c r="CL3" s="168"/>
+      <c r="CM3" s="168"/>
     </row>
     <row r="4" spans="1:91" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -11213,15 +11213,15 @@
         <f>CONCATENATE("Note/",H6)</f>
         <v>Note/200</v>
       </c>
-      <c r="I4" s="185"/>
-      <c r="J4" s="166"/>
-      <c r="K4" s="166"/>
-      <c r="L4" s="185"/>
-      <c r="M4" s="185"/>
-      <c r="N4" s="166"/>
-      <c r="O4" s="182"/>
-      <c r="P4" s="166"/>
-      <c r="Q4" s="168" t="s">
+      <c r="I4" s="141"/>
+      <c r="J4" s="144"/>
+      <c r="K4" s="144"/>
+      <c r="L4" s="141"/>
+      <c r="M4" s="141"/>
+      <c r="N4" s="144"/>
+      <c r="O4" s="138"/>
+      <c r="P4" s="144"/>
+      <c r="Q4" s="181" t="s">
         <v>138</v>
       </c>
       <c r="R4" s="78" t="s">
@@ -11239,193 +11239,193 @@
       <c r="V4" s="75" t="s">
         <v>91</v>
       </c>
-      <c r="W4" s="189" t="s">
+      <c r="W4" s="162" t="s">
         <v>52</v>
       </c>
-      <c r="X4" s="172" t="s">
+      <c r="X4" s="146" t="s">
         <v>10</v>
       </c>
-      <c r="Y4" s="151" t="s">
+      <c r="Y4" s="174" t="s">
         <v>11</v>
       </c>
-      <c r="Z4" s="132" t="s">
+      <c r="Z4" s="154" t="s">
         <v>70</v>
       </c>
-      <c r="AA4" s="151" t="s">
+      <c r="AA4" s="174" t="s">
         <v>73</v>
       </c>
-      <c r="AB4" s="170" t="s">
+      <c r="AB4" s="164" t="s">
         <v>52</v>
       </c>
-      <c r="AC4" s="172" t="s">
+      <c r="AC4" s="146" t="s">
         <v>10</v>
       </c>
-      <c r="AD4" s="172" t="s">
+      <c r="AD4" s="146" t="s">
         <v>11</v>
       </c>
-      <c r="AE4" s="132" t="s">
+      <c r="AE4" s="154" t="s">
         <v>171</v>
       </c>
-      <c r="AF4" s="132" t="s">
+      <c r="AF4" s="154" t="s">
         <v>172</v>
       </c>
-      <c r="AG4" s="132" t="s">
+      <c r="AG4" s="154" t="s">
         <v>173</v>
       </c>
-      <c r="AH4" s="132" t="s">
+      <c r="AH4" s="154" t="s">
         <v>70</v>
       </c>
-      <c r="AI4" s="151" t="s">
+      <c r="AI4" s="174" t="s">
         <v>73</v>
       </c>
-      <c r="AJ4" s="170" t="s">
+      <c r="AJ4" s="164" t="s">
         <v>52</v>
       </c>
-      <c r="AK4" s="172" t="s">
+      <c r="AK4" s="146" t="s">
         <v>10</v>
       </c>
-      <c r="AL4" s="172" t="s">
+      <c r="AL4" s="146" t="s">
         <v>11</v>
       </c>
-      <c r="AM4" s="132" t="s">
+      <c r="AM4" s="154" t="s">
         <v>172</v>
       </c>
-      <c r="AN4" s="132" t="s">
+      <c r="AN4" s="154" t="s">
         <v>70</v>
       </c>
-      <c r="AO4" s="160" t="s">
+      <c r="AO4" s="152" t="s">
         <v>73</v>
       </c>
-      <c r="AP4" s="153" t="s">
+      <c r="AP4" s="148" t="s">
         <v>114</v>
       </c>
-      <c r="AQ4" s="134" t="s">
+      <c r="AQ4" s="178" t="s">
         <v>115</v>
       </c>
-      <c r="AR4" s="135"/>
-      <c r="AS4" s="179"/>
-      <c r="AT4" s="166"/>
-      <c r="AU4" s="136"/>
-      <c r="AV4" s="136"/>
-      <c r="AW4" s="141"/>
-      <c r="AX4" s="143"/>
-      <c r="AY4" s="151" t="s">
+      <c r="AR4" s="179"/>
+      <c r="AS4" s="135"/>
+      <c r="AT4" s="144"/>
+      <c r="AU4" s="170"/>
+      <c r="AV4" s="170"/>
+      <c r="AW4" s="156"/>
+      <c r="AX4" s="158"/>
+      <c r="AY4" s="174" t="s">
         <v>96</v>
       </c>
-      <c r="AZ4" s="151" t="s">
+      <c r="AZ4" s="174" t="s">
         <v>119</v>
       </c>
-      <c r="BA4" s="151" t="s">
+      <c r="BA4" s="174" t="s">
         <v>122</v>
       </c>
-      <c r="BB4" s="151" t="s">
+      <c r="BB4" s="174" t="s">
         <v>124</v>
       </c>
-      <c r="BC4" s="151" t="s">
+      <c r="BC4" s="174" t="s">
         <v>120</v>
       </c>
-      <c r="BD4" s="151" t="s">
+      <c r="BD4" s="174" t="s">
         <v>96</v>
       </c>
-      <c r="BE4" s="151" t="s">
+      <c r="BE4" s="174" t="s">
         <v>119</v>
       </c>
-      <c r="BF4" s="151" t="s">
+      <c r="BF4" s="174" t="s">
         <v>122</v>
       </c>
-      <c r="BG4" s="151" t="s">
+      <c r="BG4" s="174" t="s">
         <v>124</v>
       </c>
-      <c r="BH4" s="151" t="s">
+      <c r="BH4" s="174" t="s">
         <v>120</v>
       </c>
-      <c r="BI4" s="153" t="s">
+      <c r="BI4" s="148" t="s">
         <v>125</v>
       </c>
-      <c r="BJ4" s="151" t="s">
+      <c r="BJ4" s="174" t="s">
         <v>132</v>
       </c>
-      <c r="BK4" s="151" t="s">
+      <c r="BK4" s="174" t="s">
         <v>126</v>
       </c>
-      <c r="BL4" s="151" t="s">
+      <c r="BL4" s="174" t="s">
         <v>127</v>
       </c>
-      <c r="BM4" s="151" t="s">
+      <c r="BM4" s="174" t="s">
         <v>128</v>
       </c>
-      <c r="BN4" s="151" t="s">
+      <c r="BN4" s="174" t="s">
         <v>129</v>
       </c>
-      <c r="BO4" s="151" t="s">
+      <c r="BO4" s="174" t="s">
         <v>130</v>
       </c>
-      <c r="BP4" s="151" t="s">
+      <c r="BP4" s="174" t="s">
         <v>116</v>
       </c>
-      <c r="BQ4" s="160" t="s">
+      <c r="BQ4" s="152" t="s">
         <v>131</v>
       </c>
-      <c r="BR4" s="153" t="s">
+      <c r="BR4" s="148" t="s">
         <v>96</v>
       </c>
-      <c r="BS4" s="151" t="s">
+      <c r="BS4" s="174" t="s">
         <v>97</v>
       </c>
-      <c r="BT4" s="151" t="s">
+      <c r="BT4" s="174" t="s">
         <v>98</v>
       </c>
-      <c r="BU4" s="151" t="s">
+      <c r="BU4" s="174" t="s">
         <v>94</v>
       </c>
-      <c r="BV4" s="151" t="s">
-        <v>99</v>
-      </c>
-      <c r="BW4" s="151" t="s">
+      <c r="BV4" s="174" t="s">
+        <v>99</v>
+      </c>
+      <c r="BW4" s="174" t="s">
         <v>95</v>
       </c>
-      <c r="BX4" s="153" t="s">
+      <c r="BX4" s="148" t="s">
         <v>139</v>
       </c>
-      <c r="BY4" s="151" t="s">
+      <c r="BY4" s="174" t="s">
         <v>140</v>
       </c>
-      <c r="BZ4" s="151" t="s">
+      <c r="BZ4" s="174" t="s">
         <v>141</v>
       </c>
-      <c r="CA4" s="151" t="s">
+      <c r="CA4" s="174" t="s">
         <v>142</v>
       </c>
-      <c r="CB4" s="151" t="s">
+      <c r="CB4" s="174" t="s">
         <v>143</v>
       </c>
-      <c r="CC4" s="151" t="s">
+      <c r="CC4" s="174" t="s">
         <v>144</v>
       </c>
-      <c r="CD4" s="151" t="s">
+      <c r="CD4" s="174" t="s">
         <v>145</v>
       </c>
-      <c r="CE4" s="151" t="s">
+      <c r="CE4" s="174" t="s">
         <v>135</v>
       </c>
-      <c r="CF4" s="151" t="s">
+      <c r="CF4" s="174" t="s">
         <v>146</v>
       </c>
-      <c r="CG4" s="151" t="s">
+      <c r="CG4" s="174" t="s">
         <v>147</v>
       </c>
-      <c r="CH4" s="151" t="s">
+      <c r="CH4" s="174" t="s">
         <v>148</v>
       </c>
-      <c r="CI4" s="151" t="s">
+      <c r="CI4" s="174" t="s">
         <v>149</v>
       </c>
-      <c r="CJ4" s="160" t="s">
+      <c r="CJ4" s="152" t="s">
         <v>150</v>
       </c>
-      <c r="CK4" s="155"/>
-      <c r="CL4" s="176"/>
-      <c r="CM4" s="176"/>
+      <c r="CK4" s="169"/>
+      <c r="CL4" s="168"/>
+      <c r="CM4" s="168"/>
     </row>
     <row r="5" spans="1:91" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
@@ -11436,15 +11436,15 @@
       <c r="F5" s="17"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
-      <c r="I5" s="186"/>
-      <c r="J5" s="187"/>
-      <c r="K5" s="187"/>
-      <c r="L5" s="186"/>
-      <c r="M5" s="186"/>
-      <c r="N5" s="187"/>
-      <c r="O5" s="183"/>
-      <c r="P5" s="177"/>
-      <c r="Q5" s="169"/>
+      <c r="I5" s="142"/>
+      <c r="J5" s="145"/>
+      <c r="K5" s="145"/>
+      <c r="L5" s="142"/>
+      <c r="M5" s="142"/>
+      <c r="N5" s="145"/>
+      <c r="O5" s="139"/>
+      <c r="P5" s="132"/>
+      <c r="Q5" s="182"/>
       <c r="R5" s="89" t="s">
         <v>134</v>
       </c>
@@ -11460,33 +11460,33 @@
       <c r="V5" s="88" t="s">
         <v>137</v>
       </c>
-      <c r="W5" s="190"/>
-      <c r="X5" s="173"/>
-      <c r="Y5" s="152"/>
-      <c r="Z5" s="133"/>
-      <c r="AA5" s="152"/>
-      <c r="AB5" s="171"/>
-      <c r="AC5" s="173"/>
-      <c r="AD5" s="173"/>
-      <c r="AE5" s="133"/>
-      <c r="AF5" s="133"/>
-      <c r="AG5" s="133"/>
-      <c r="AH5" s="133"/>
-      <c r="AI5" s="152"/>
-      <c r="AJ5" s="171"/>
-      <c r="AK5" s="173"/>
-      <c r="AL5" s="173"/>
-      <c r="AM5" s="133"/>
-      <c r="AN5" s="133"/>
-      <c r="AO5" s="161"/>
-      <c r="AP5" s="154"/>
+      <c r="W5" s="163"/>
+      <c r="X5" s="147"/>
+      <c r="Y5" s="175"/>
+      <c r="Z5" s="155"/>
+      <c r="AA5" s="175"/>
+      <c r="AB5" s="165"/>
+      <c r="AC5" s="147"/>
+      <c r="AD5" s="147"/>
+      <c r="AE5" s="155"/>
+      <c r="AF5" s="155"/>
+      <c r="AG5" s="155"/>
+      <c r="AH5" s="155"/>
+      <c r="AI5" s="175"/>
+      <c r="AJ5" s="165"/>
+      <c r="AK5" s="147"/>
+      <c r="AL5" s="147"/>
+      <c r="AM5" s="155"/>
+      <c r="AN5" s="155"/>
+      <c r="AO5" s="153"/>
+      <c r="AP5" s="149"/>
       <c r="AQ5" s="90" t="s">
         <v>93</v>
       </c>
       <c r="AR5" s="90" t="s">
         <v>116</v>
       </c>
-      <c r="AS5" s="180"/>
+      <c r="AS5" s="136"/>
       <c r="AT5" s="98" t="s">
         <v>100</v>
       </c>
@@ -11496,49 +11496,49 @@
       <c r="AV5" s="99" t="s">
         <v>118</v>
       </c>
-      <c r="AW5" s="164"/>
-      <c r="AX5" s="133"/>
-      <c r="AY5" s="152"/>
-      <c r="AZ5" s="152"/>
-      <c r="BA5" s="152"/>
-      <c r="BB5" s="152"/>
-      <c r="BC5" s="152"/>
-      <c r="BD5" s="152"/>
-      <c r="BE5" s="152"/>
-      <c r="BF5" s="152"/>
-      <c r="BG5" s="152"/>
-      <c r="BH5" s="152"/>
-      <c r="BI5" s="154"/>
-      <c r="BJ5" s="152"/>
-      <c r="BK5" s="152"/>
-      <c r="BL5" s="152"/>
-      <c r="BM5" s="152"/>
-      <c r="BN5" s="152"/>
-      <c r="BO5" s="152"/>
-      <c r="BP5" s="152"/>
-      <c r="BQ5" s="161"/>
-      <c r="BR5" s="154"/>
-      <c r="BS5" s="152"/>
-      <c r="BT5" s="152"/>
-      <c r="BU5" s="152"/>
-      <c r="BV5" s="152"/>
-      <c r="BW5" s="152"/>
-      <c r="BX5" s="154"/>
-      <c r="BY5" s="152"/>
-      <c r="BZ5" s="152"/>
-      <c r="CA5" s="152"/>
-      <c r="CB5" s="152"/>
-      <c r="CC5" s="152"/>
-      <c r="CD5" s="152"/>
-      <c r="CE5" s="152"/>
-      <c r="CF5" s="152"/>
-      <c r="CG5" s="152"/>
-      <c r="CH5" s="152"/>
-      <c r="CI5" s="152"/>
-      <c r="CJ5" s="161"/>
-      <c r="CK5" s="216"/>
-      <c r="CL5" s="176"/>
-      <c r="CM5" s="176"/>
+      <c r="AW5" s="186"/>
+      <c r="AX5" s="155"/>
+      <c r="AY5" s="175"/>
+      <c r="AZ5" s="175"/>
+      <c r="BA5" s="175"/>
+      <c r="BB5" s="175"/>
+      <c r="BC5" s="175"/>
+      <c r="BD5" s="175"/>
+      <c r="BE5" s="175"/>
+      <c r="BF5" s="175"/>
+      <c r="BG5" s="175"/>
+      <c r="BH5" s="175"/>
+      <c r="BI5" s="149"/>
+      <c r="BJ5" s="175"/>
+      <c r="BK5" s="175"/>
+      <c r="BL5" s="175"/>
+      <c r="BM5" s="175"/>
+      <c r="BN5" s="175"/>
+      <c r="BO5" s="175"/>
+      <c r="BP5" s="175"/>
+      <c r="BQ5" s="153"/>
+      <c r="BR5" s="149"/>
+      <c r="BS5" s="175"/>
+      <c r="BT5" s="175"/>
+      <c r="BU5" s="175"/>
+      <c r="BV5" s="175"/>
+      <c r="BW5" s="175"/>
+      <c r="BX5" s="149"/>
+      <c r="BY5" s="175"/>
+      <c r="BZ5" s="175"/>
+      <c r="CA5" s="175"/>
+      <c r="CB5" s="175"/>
+      <c r="CC5" s="175"/>
+      <c r="CD5" s="175"/>
+      <c r="CE5" s="175"/>
+      <c r="CF5" s="175"/>
+      <c r="CG5" s="175"/>
+      <c r="CH5" s="175"/>
+      <c r="CI5" s="175"/>
+      <c r="CJ5" s="153"/>
+      <c r="CK5" s="177"/>
+      <c r="CL5" s="168"/>
+      <c r="CM5" s="168"/>
     </row>
     <row r="6" spans="1:91" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -12081,108 +12081,108 @@
       <c r="N8" s="8"/>
       <c r="O8" s="48"/>
       <c r="P8" s="8"/>
-      <c r="Q8" s="166">
+      <c r="Q8" s="144">
         <f>SUM(Q6:V6)</f>
         <v>25</v>
       </c>
-      <c r="R8" s="136"/>
-      <c r="S8" s="136"/>
-      <c r="T8" s="136"/>
-      <c r="U8" s="136"/>
-      <c r="V8" s="136"/>
-      <c r="W8" s="134">
+      <c r="R8" s="170"/>
+      <c r="S8" s="170"/>
+      <c r="T8" s="170"/>
+      <c r="U8" s="170"/>
+      <c r="V8" s="170"/>
+      <c r="W8" s="178">
         <f>SUM(W6:AA6)</f>
         <v>0</v>
       </c>
-      <c r="X8" s="135"/>
-      <c r="Y8" s="135"/>
-      <c r="Z8" s="135"/>
-      <c r="AA8" s="135"/>
-      <c r="AB8" s="134">
+      <c r="X8" s="179"/>
+      <c r="Y8" s="179"/>
+      <c r="Z8" s="179"/>
+      <c r="AA8" s="179"/>
+      <c r="AB8" s="178">
         <f>SUM(AB6:AI6)</f>
         <v>25</v>
       </c>
-      <c r="AC8" s="135"/>
-      <c r="AD8" s="135"/>
-      <c r="AE8" s="135"/>
-      <c r="AF8" s="135"/>
-      <c r="AG8" s="135"/>
-      <c r="AH8" s="135"/>
-      <c r="AI8" s="135"/>
-      <c r="AJ8" s="134">
+      <c r="AC8" s="179"/>
+      <c r="AD8" s="179"/>
+      <c r="AE8" s="179"/>
+      <c r="AF8" s="179"/>
+      <c r="AG8" s="179"/>
+      <c r="AH8" s="179"/>
+      <c r="AI8" s="179"/>
+      <c r="AJ8" s="178">
         <f>SUM(AJ6:AO6)</f>
         <v>9</v>
       </c>
-      <c r="AK8" s="135"/>
-      <c r="AL8" s="135"/>
-      <c r="AM8" s="135"/>
-      <c r="AN8" s="135"/>
-      <c r="AO8" s="175"/>
-      <c r="AP8" s="134">
+      <c r="AK8" s="179"/>
+      <c r="AL8" s="179"/>
+      <c r="AM8" s="179"/>
+      <c r="AN8" s="179"/>
+      <c r="AO8" s="183"/>
+      <c r="AP8" s="178">
         <f>SUM(AP6:AR6)</f>
         <v>2</v>
       </c>
-      <c r="AQ8" s="135"/>
-      <c r="AR8" s="135"/>
+      <c r="AQ8" s="179"/>
+      <c r="AR8" s="179"/>
       <c r="AS8" s="97"/>
-      <c r="AT8" s="134">
+      <c r="AT8" s="178">
         <f>SUM(AT6:AV6)</f>
         <v>5</v>
       </c>
-      <c r="AU8" s="135"/>
-      <c r="AV8" s="135"/>
-      <c r="AW8" s="134">
+      <c r="AU8" s="179"/>
+      <c r="AV8" s="179"/>
+      <c r="AW8" s="178">
         <f>SUM(AW6:BH6)</f>
         <v>30</v>
       </c>
-      <c r="AX8" s="135"/>
-      <c r="AY8" s="135"/>
-      <c r="AZ8" s="135"/>
-      <c r="BA8" s="135"/>
-      <c r="BB8" s="135"/>
-      <c r="BC8" s="135"/>
-      <c r="BD8" s="135"/>
-      <c r="BE8" s="135"/>
-      <c r="BF8" s="135"/>
-      <c r="BG8" s="135"/>
-      <c r="BH8" s="135"/>
-      <c r="BI8" s="134">
+      <c r="AX8" s="179"/>
+      <c r="AY8" s="179"/>
+      <c r="AZ8" s="179"/>
+      <c r="BA8" s="179"/>
+      <c r="BB8" s="179"/>
+      <c r="BC8" s="179"/>
+      <c r="BD8" s="179"/>
+      <c r="BE8" s="179"/>
+      <c r="BF8" s="179"/>
+      <c r="BG8" s="179"/>
+      <c r="BH8" s="179"/>
+      <c r="BI8" s="178">
         <f>SUM(BI6:BQ6)</f>
         <v>28</v>
       </c>
-      <c r="BJ8" s="135"/>
-      <c r="BK8" s="135"/>
-      <c r="BL8" s="135"/>
-      <c r="BM8" s="135"/>
-      <c r="BN8" s="135"/>
-      <c r="BO8" s="135"/>
-      <c r="BP8" s="135"/>
-      <c r="BQ8" s="135"/>
-      <c r="BR8" s="134">
+      <c r="BJ8" s="179"/>
+      <c r="BK8" s="179"/>
+      <c r="BL8" s="179"/>
+      <c r="BM8" s="179"/>
+      <c r="BN8" s="179"/>
+      <c r="BO8" s="179"/>
+      <c r="BP8" s="179"/>
+      <c r="BQ8" s="179"/>
+      <c r="BR8" s="178">
         <f>SUM(BR6:BW6)</f>
         <v>0</v>
       </c>
-      <c r="BS8" s="135"/>
-      <c r="BT8" s="135"/>
-      <c r="BU8" s="135"/>
-      <c r="BV8" s="135"/>
-      <c r="BW8" s="135"/>
-      <c r="BX8" s="134">
+      <c r="BS8" s="179"/>
+      <c r="BT8" s="179"/>
+      <c r="BU8" s="179"/>
+      <c r="BV8" s="179"/>
+      <c r="BW8" s="179"/>
+      <c r="BX8" s="178">
         <f>SUM(BX6:CJ6)</f>
         <v>43</v>
       </c>
-      <c r="BY8" s="135"/>
-      <c r="BZ8" s="135"/>
-      <c r="CA8" s="135"/>
-      <c r="CB8" s="135"/>
-      <c r="CC8" s="135"/>
-      <c r="CD8" s="135"/>
-      <c r="CE8" s="135"/>
-      <c r="CF8" s="135"/>
-      <c r="CG8" s="135"/>
-      <c r="CH8" s="135"/>
-      <c r="CI8" s="135"/>
-      <c r="CJ8" s="135"/>
+      <c r="BY8" s="179"/>
+      <c r="BZ8" s="179"/>
+      <c r="CA8" s="179"/>
+      <c r="CB8" s="179"/>
+      <c r="CC8" s="179"/>
+      <c r="CD8" s="179"/>
+      <c r="CE8" s="179"/>
+      <c r="CF8" s="179"/>
+      <c r="CG8" s="179"/>
+      <c r="CH8" s="179"/>
+      <c r="CI8" s="179"/>
+      <c r="CJ8" s="179"/>
       <c r="CK8" s="2">
         <f>CK6</f>
         <v>1</v>
@@ -13279,20 +13279,20 @@
       <c r="C14" s="113"/>
       <c r="D14" s="130">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7.8000000000000007</v>
       </c>
       <c r="E14" s="19">
         <f t="shared" si="1"/>
-        <v>6.0714285714285712</v>
+        <v>8.0357142857142865</v>
       </c>
       <c r="F14" s="19"/>
       <c r="G14" s="14">
         <f t="shared" si="4"/>
-        <v>17</v>
+        <v>22.5</v>
       </c>
       <c r="H14" s="14">
         <f t="shared" si="3"/>
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="I14" s="105">
         <v>1</v>
@@ -13434,15 +13434,31 @@
       <c r="BH14" s="105">
         <v>1</v>
       </c>
-      <c r="BI14" s="105"/>
-      <c r="BJ14" s="105"/>
-      <c r="BK14" s="105"/>
-      <c r="BL14" s="105"/>
-      <c r="BM14" s="105"/>
-      <c r="BN14" s="105"/>
-      <c r="BO14" s="105"/>
+      <c r="BI14" s="105">
+        <v>1</v>
+      </c>
+      <c r="BJ14" s="105">
+        <v>1</v>
+      </c>
+      <c r="BK14" s="105">
+        <v>0.5</v>
+      </c>
+      <c r="BL14" s="105">
+        <v>0.5</v>
+      </c>
+      <c r="BM14" s="105">
+        <v>0</v>
+      </c>
+      <c r="BN14" s="105">
+        <v>1</v>
+      </c>
+      <c r="BO14" s="105">
+        <v>0.5</v>
+      </c>
       <c r="BP14" s="105"/>
-      <c r="BQ14" s="105"/>
+      <c r="BQ14" s="105">
+        <v>1</v>
+      </c>
       <c r="BR14" s="105"/>
       <c r="BS14" s="105"/>
       <c r="BT14" s="105"/>
@@ -17369,23 +17385,23 @@
       </c>
       <c r="BI34" s="104">
         <f t="shared" ref="BI34:BW34" si="15">AVERAGE(BI9:BI32)</f>
-        <v>0.65</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="BJ34" s="104">
         <f t="shared" si="15"/>
-        <v>0.66666666666666663</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="BK34" s="104">
         <f t="shared" si="15"/>
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="BL34" s="104">
         <f t="shared" si="15"/>
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="BM34" s="104">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="BN34" s="104">
         <f t="shared" si="15"/>
@@ -17393,7 +17409,7 @@
       </c>
       <c r="BO34" s="104">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="BP34" s="104" t="e">
         <f t="shared" ref="BP34" si="16">AVERAGE(BP9:BP32)</f>
@@ -17401,7 +17417,7 @@
       </c>
       <c r="BQ34" s="104">
         <f t="shared" si="15"/>
-        <v>0.8</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="BR34" s="104" t="e">
         <f t="shared" si="15"/>
@@ -19185,7 +19201,7 @@
     <row r="41" spans="1:91" x14ac:dyDescent="0.25">
       <c r="H41" s="111">
         <f t="shared" si="18"/>
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="I41" s="111">
         <f t="shared" ref="I41:BA41" si="46">I14*I$6</f>
@@ -19397,19 +19413,19 @@
       </c>
       <c r="BI41" s="111">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BJ41" s="111">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BK41" s="111">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BL41" s="111">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="BM41" s="111">
         <f t="shared" si="26"/>
@@ -19417,11 +19433,11 @@
       </c>
       <c r="BN41" s="111">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BO41" s="111">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="BP41" s="111">
         <f t="shared" si="28"/>
@@ -19429,7 +19445,7 @@
       </c>
       <c r="BQ41" s="111">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BR41" s="111">
         <f t="shared" si="28"/>
@@ -27774,7 +27790,7 @@
     <row r="70" spans="4:91" x14ac:dyDescent="0.25">
       <c r="H70" s="111">
         <f t="shared" si="126"/>
-        <v>17</v>
+        <v>22.5</v>
       </c>
       <c r="I70" s="111">
         <f t="shared" ref="I70:BW70" si="151">I14*I$7</f>
@@ -27986,19 +28002,19 @@
       </c>
       <c r="BI70" s="111">
         <f t="shared" si="151"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ70" s="111">
         <f t="shared" si="151"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK70" s="111">
         <f t="shared" si="151"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BL70" s="111">
         <f t="shared" si="151"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BM70" s="111">
         <f t="shared" si="151"/>
@@ -28006,11 +28022,11 @@
       </c>
       <c r="BN70" s="111">
         <f t="shared" si="151"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO70" s="111">
         <f t="shared" si="151"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BP70" s="111">
         <f t="shared" si="151"/>
@@ -28018,7 +28034,7 @@
       </c>
       <c r="BQ70" s="111">
         <f t="shared" si="151"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR70" s="111">
         <f t="shared" si="151"/>
@@ -34582,6 +34598,90 @@
     </row>
   </sheetData>
   <mergeCells count="108">
+    <mergeCell ref="AF4:AF5"/>
+    <mergeCell ref="BR8:BW8"/>
+    <mergeCell ref="I1:P2"/>
+    <mergeCell ref="W1:BQ1"/>
+    <mergeCell ref="BX1:CJ1"/>
+    <mergeCell ref="BR1:BW1"/>
+    <mergeCell ref="AP2:AS2"/>
+    <mergeCell ref="BR2:BR3"/>
+    <mergeCell ref="BS2:BT3"/>
+    <mergeCell ref="BU2:BU3"/>
+    <mergeCell ref="BV2:BW3"/>
+    <mergeCell ref="Q1:V3"/>
+    <mergeCell ref="BD3:BH3"/>
+    <mergeCell ref="BB4:BB5"/>
+    <mergeCell ref="BF4:BF5"/>
+    <mergeCell ref="BR4:BR5"/>
+    <mergeCell ref="BS4:BS5"/>
+    <mergeCell ref="BT4:BT5"/>
+    <mergeCell ref="BP4:BP5"/>
+    <mergeCell ref="AW8:BH8"/>
+    <mergeCell ref="BI2:BQ2"/>
+    <mergeCell ref="BI3:BQ3"/>
+    <mergeCell ref="BI4:BI5"/>
+    <mergeCell ref="BJ4:BJ5"/>
+    <mergeCell ref="BK4:BK5"/>
+    <mergeCell ref="BM4:BM5"/>
+    <mergeCell ref="BN4:BN5"/>
+    <mergeCell ref="BO4:BO5"/>
+    <mergeCell ref="BQ4:BQ5"/>
+    <mergeCell ref="BI8:BQ8"/>
+    <mergeCell ref="AW2:BH2"/>
+    <mergeCell ref="AZ4:AZ5"/>
+    <mergeCell ref="BA4:BA5"/>
+    <mergeCell ref="BC4:BC5"/>
+    <mergeCell ref="BD4:BD5"/>
+    <mergeCell ref="BE4:BE5"/>
+    <mergeCell ref="AY4:AY5"/>
+    <mergeCell ref="AY3:BC3"/>
+    <mergeCell ref="AW3:AW5"/>
+    <mergeCell ref="AX3:AX5"/>
+    <mergeCell ref="BG4:BG5"/>
+    <mergeCell ref="BH4:BH5"/>
+    <mergeCell ref="BX8:CJ8"/>
+    <mergeCell ref="Q8:V8"/>
+    <mergeCell ref="AT3:AV4"/>
+    <mergeCell ref="AT8:AV8"/>
+    <mergeCell ref="AQ4:AR4"/>
+    <mergeCell ref="AE4:AE5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="Y4:Y5"/>
+    <mergeCell ref="AA4:AA5"/>
+    <mergeCell ref="AI4:AI5"/>
+    <mergeCell ref="AJ4:AJ5"/>
+    <mergeCell ref="AC4:AC5"/>
+    <mergeCell ref="AK4:AK5"/>
+    <mergeCell ref="AH4:AH5"/>
+    <mergeCell ref="W3:AA3"/>
+    <mergeCell ref="AP8:AR8"/>
+    <mergeCell ref="AJ8:AO8"/>
+    <mergeCell ref="AB8:AI8"/>
+    <mergeCell ref="W8:AA8"/>
+    <mergeCell ref="BU4:BU5"/>
+    <mergeCell ref="BV4:BV5"/>
+    <mergeCell ref="BW4:BW5"/>
+    <mergeCell ref="AG4:AG5"/>
+    <mergeCell ref="BL4:BL5"/>
+    <mergeCell ref="CM2:CM5"/>
+    <mergeCell ref="BX2:CJ2"/>
+    <mergeCell ref="BX3:CJ3"/>
+    <mergeCell ref="BX4:BX5"/>
+    <mergeCell ref="CI4:CI5"/>
+    <mergeCell ref="CJ4:CJ5"/>
+    <mergeCell ref="BY4:BY5"/>
+    <mergeCell ref="BZ4:BZ5"/>
+    <mergeCell ref="CA4:CA5"/>
+    <mergeCell ref="CL2:CL5"/>
+    <mergeCell ref="CB4:CB5"/>
+    <mergeCell ref="CC4:CC5"/>
+    <mergeCell ref="CD4:CD5"/>
+    <mergeCell ref="CE4:CE5"/>
+    <mergeCell ref="CF4:CF5"/>
+    <mergeCell ref="CG4:CG5"/>
+    <mergeCell ref="CH4:CH5"/>
+    <mergeCell ref="CK2:CK5"/>
     <mergeCell ref="AT2:AV2"/>
     <mergeCell ref="AS3:AS5"/>
     <mergeCell ref="O3:O5"/>
@@ -34606,90 +34706,6 @@
     <mergeCell ref="Z4:Z5"/>
     <mergeCell ref="AJ3:AO3"/>
     <mergeCell ref="AM4:AM5"/>
-    <mergeCell ref="CM2:CM5"/>
-    <mergeCell ref="BX2:CJ2"/>
-    <mergeCell ref="BX3:CJ3"/>
-    <mergeCell ref="BX4:BX5"/>
-    <mergeCell ref="CI4:CI5"/>
-    <mergeCell ref="CJ4:CJ5"/>
-    <mergeCell ref="BY4:BY5"/>
-    <mergeCell ref="BZ4:BZ5"/>
-    <mergeCell ref="CA4:CA5"/>
-    <mergeCell ref="CL2:CL5"/>
-    <mergeCell ref="CB4:CB5"/>
-    <mergeCell ref="CC4:CC5"/>
-    <mergeCell ref="CD4:CD5"/>
-    <mergeCell ref="CE4:CE5"/>
-    <mergeCell ref="CF4:CF5"/>
-    <mergeCell ref="CG4:CG5"/>
-    <mergeCell ref="CH4:CH5"/>
-    <mergeCell ref="CK2:CK5"/>
-    <mergeCell ref="BX8:CJ8"/>
-    <mergeCell ref="Q8:V8"/>
-    <mergeCell ref="AT3:AV4"/>
-    <mergeCell ref="AT8:AV8"/>
-    <mergeCell ref="AQ4:AR4"/>
-    <mergeCell ref="AE4:AE5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="Y4:Y5"/>
-    <mergeCell ref="AA4:AA5"/>
-    <mergeCell ref="AI4:AI5"/>
-    <mergeCell ref="AJ4:AJ5"/>
-    <mergeCell ref="AC4:AC5"/>
-    <mergeCell ref="AK4:AK5"/>
-    <mergeCell ref="AH4:AH5"/>
-    <mergeCell ref="W3:AA3"/>
-    <mergeCell ref="AP8:AR8"/>
-    <mergeCell ref="AJ8:AO8"/>
-    <mergeCell ref="AB8:AI8"/>
-    <mergeCell ref="W8:AA8"/>
-    <mergeCell ref="BU4:BU5"/>
-    <mergeCell ref="BV4:BV5"/>
-    <mergeCell ref="BW4:BW5"/>
-    <mergeCell ref="AG4:AG5"/>
-    <mergeCell ref="BL4:BL5"/>
-    <mergeCell ref="BK4:BK5"/>
-    <mergeCell ref="BM4:BM5"/>
-    <mergeCell ref="BN4:BN5"/>
-    <mergeCell ref="BO4:BO5"/>
-    <mergeCell ref="BQ4:BQ5"/>
-    <mergeCell ref="BI8:BQ8"/>
-    <mergeCell ref="AW2:BH2"/>
-    <mergeCell ref="AZ4:AZ5"/>
-    <mergeCell ref="BA4:BA5"/>
-    <mergeCell ref="BC4:BC5"/>
-    <mergeCell ref="BD4:BD5"/>
-    <mergeCell ref="BE4:BE5"/>
-    <mergeCell ref="AY4:AY5"/>
-    <mergeCell ref="AY3:BC3"/>
-    <mergeCell ref="AW3:AW5"/>
-    <mergeCell ref="AX3:AX5"/>
-    <mergeCell ref="BG4:BG5"/>
-    <mergeCell ref="BH4:BH5"/>
-    <mergeCell ref="AF4:AF5"/>
-    <mergeCell ref="BR8:BW8"/>
-    <mergeCell ref="I1:P2"/>
-    <mergeCell ref="W1:BQ1"/>
-    <mergeCell ref="BX1:CJ1"/>
-    <mergeCell ref="BR1:BW1"/>
-    <mergeCell ref="AP2:AS2"/>
-    <mergeCell ref="BR2:BR3"/>
-    <mergeCell ref="BS2:BT3"/>
-    <mergeCell ref="BU2:BU3"/>
-    <mergeCell ref="BV2:BW3"/>
-    <mergeCell ref="Q1:V3"/>
-    <mergeCell ref="BD3:BH3"/>
-    <mergeCell ref="BB4:BB5"/>
-    <mergeCell ref="BF4:BF5"/>
-    <mergeCell ref="BR4:BR5"/>
-    <mergeCell ref="BS4:BS5"/>
-    <mergeCell ref="BT4:BT5"/>
-    <mergeCell ref="BP4:BP5"/>
-    <mergeCell ref="AW8:BH8"/>
-    <mergeCell ref="BI2:BQ2"/>
-    <mergeCell ref="BI3:BQ3"/>
-    <mergeCell ref="BI4:BI5"/>
-    <mergeCell ref="BJ4:BJ5"/>
   </mergeCells>
   <conditionalFormatting sqref="D9:F23 D33:F33 E32:F32">
     <cfRule type="cellIs" dxfId="962" priority="1231" operator="between">
@@ -39026,144 +39042,144 @@
       <c r="C1" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="196" t="s">
+      <c r="D1" s="194" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="198"/>
-      <c r="F1" s="196" t="s">
+      <c r="E1" s="195"/>
+      <c r="F1" s="194" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="197"/>
-      <c r="H1" s="197"/>
-      <c r="I1" s="197"/>
-      <c r="J1" s="197"/>
-      <c r="K1" s="197"/>
-      <c r="L1" s="197"/>
-      <c r="M1" s="197"/>
-      <c r="N1" s="197"/>
-      <c r="O1" s="197"/>
-      <c r="P1" s="197"/>
-      <c r="Q1" s="197"/>
-      <c r="R1" s="197"/>
-      <c r="S1" s="197"/>
-      <c r="T1" s="197"/>
-      <c r="U1" s="197"/>
-      <c r="V1" s="197"/>
-      <c r="W1" s="197"/>
-      <c r="X1" s="197"/>
-      <c r="Y1" s="197"/>
-      <c r="Z1" s="197"/>
-      <c r="AA1" s="197"/>
-      <c r="AB1" s="197"/>
-      <c r="AC1" s="203"/>
-      <c r="AD1" s="203"/>
-      <c r="AE1" s="203"/>
-      <c r="AF1" s="203"/>
-      <c r="AG1" s="203"/>
-      <c r="AH1" s="203"/>
-      <c r="AI1" s="203"/>
-      <c r="AJ1" s="204"/>
-      <c r="AK1" s="200" t="s">
+      <c r="G1" s="204"/>
+      <c r="H1" s="204"/>
+      <c r="I1" s="204"/>
+      <c r="J1" s="204"/>
+      <c r="K1" s="204"/>
+      <c r="L1" s="204"/>
+      <c r="M1" s="204"/>
+      <c r="N1" s="204"/>
+      <c r="O1" s="204"/>
+      <c r="P1" s="204"/>
+      <c r="Q1" s="204"/>
+      <c r="R1" s="204"/>
+      <c r="S1" s="204"/>
+      <c r="T1" s="204"/>
+      <c r="U1" s="204"/>
+      <c r="V1" s="204"/>
+      <c r="W1" s="204"/>
+      <c r="X1" s="204"/>
+      <c r="Y1" s="204"/>
+      <c r="Z1" s="204"/>
+      <c r="AA1" s="204"/>
+      <c r="AB1" s="204"/>
+      <c r="AC1" s="205"/>
+      <c r="AD1" s="205"/>
+      <c r="AE1" s="205"/>
+      <c r="AF1" s="205"/>
+      <c r="AG1" s="205"/>
+      <c r="AH1" s="205"/>
+      <c r="AI1" s="205"/>
+      <c r="AJ1" s="206"/>
+      <c r="AK1" s="201" t="s">
         <v>51</v>
       </c>
-      <c r="AL1" s="201"/>
-      <c r="AM1" s="201"/>
-      <c r="AN1" s="201"/>
-      <c r="AO1" s="201"/>
-      <c r="AP1" s="201"/>
-      <c r="AQ1" s="202"/>
-      <c r="AR1" s="196" t="s">
+      <c r="AL1" s="202"/>
+      <c r="AM1" s="202"/>
+      <c r="AN1" s="202"/>
+      <c r="AO1" s="202"/>
+      <c r="AP1" s="202"/>
+      <c r="AQ1" s="203"/>
+      <c r="AR1" s="194" t="s">
         <v>50</v>
       </c>
-      <c r="AS1" s="198"/>
+      <c r="AS1" s="195"/>
     </row>
     <row r="2" spans="2:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="26"/>
       <c r="C2" s="30"/>
       <c r="D2" s="33"/>
       <c r="E2" s="34"/>
-      <c r="F2" s="211" t="s">
+      <c r="F2" s="213" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="212"/>
-      <c r="H2" s="212"/>
-      <c r="I2" s="212"/>
-      <c r="J2" s="212"/>
-      <c r="K2" s="212"/>
-      <c r="L2" s="212"/>
-      <c r="M2" s="212"/>
-      <c r="N2" s="212"/>
-      <c r="O2" s="212"/>
-      <c r="P2" s="212"/>
-      <c r="Q2" s="212"/>
-      <c r="R2" s="212"/>
-      <c r="S2" s="212"/>
-      <c r="T2" s="212"/>
-      <c r="U2" s="212"/>
-      <c r="V2" s="212"/>
-      <c r="W2" s="212"/>
-      <c r="X2" s="212"/>
-      <c r="Y2" s="212"/>
-      <c r="Z2" s="212"/>
-      <c r="AA2" s="212"/>
-      <c r="AB2" s="212"/>
-      <c r="AC2" s="209" t="s">
+      <c r="G2" s="214"/>
+      <c r="H2" s="214"/>
+      <c r="I2" s="214"/>
+      <c r="J2" s="214"/>
+      <c r="K2" s="214"/>
+      <c r="L2" s="214"/>
+      <c r="M2" s="214"/>
+      <c r="N2" s="214"/>
+      <c r="O2" s="214"/>
+      <c r="P2" s="214"/>
+      <c r="Q2" s="214"/>
+      <c r="R2" s="214"/>
+      <c r="S2" s="214"/>
+      <c r="T2" s="214"/>
+      <c r="U2" s="214"/>
+      <c r="V2" s="214"/>
+      <c r="W2" s="214"/>
+      <c r="X2" s="214"/>
+      <c r="Y2" s="214"/>
+      <c r="Z2" s="214"/>
+      <c r="AA2" s="214"/>
+      <c r="AB2" s="214"/>
+      <c r="AC2" s="211" t="s">
         <v>36</v>
       </c>
-      <c r="AD2" s="213"/>
-      <c r="AE2" s="209" t="s">
+      <c r="AD2" s="215"/>
+      <c r="AE2" s="211" t="s">
         <v>5</v>
       </c>
-      <c r="AF2" s="213"/>
-      <c r="AG2" s="209" t="s">
+      <c r="AF2" s="215"/>
+      <c r="AG2" s="211" t="s">
         <v>39</v>
       </c>
-      <c r="AH2" s="210"/>
-      <c r="AI2" s="213"/>
+      <c r="AH2" s="212"/>
+      <c r="AI2" s="215"/>
       <c r="AJ2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="AK2" s="209" t="s">
+      <c r="AK2" s="211" t="s">
         <v>43</v>
       </c>
-      <c r="AL2" s="210"/>
-      <c r="AM2" s="213"/>
+      <c r="AL2" s="212"/>
+      <c r="AM2" s="215"/>
       <c r="AN2" s="29"/>
       <c r="AO2" s="29"/>
       <c r="AP2" s="29"/>
       <c r="AQ2" s="41"/>
-      <c r="AR2" s="205" t="s">
+      <c r="AR2" s="207" t="s">
         <v>48</v>
       </c>
-      <c r="AS2" s="207" t="s">
+      <c r="AS2" s="209" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="3" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B3" s="26"/>
-      <c r="C3" s="192" t="s">
+      <c r="C3" s="196" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="193" t="s">
+      <c r="D3" s="200" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="195" t="s">
+      <c r="E3" s="197" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="196" t="s">
+      <c r="F3" s="194" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="197"/>
-      <c r="H3" s="197"/>
-      <c r="I3" s="197"/>
-      <c r="J3" s="197"/>
-      <c r="K3" s="198"/>
-      <c r="L3" s="196" t="s">
+      <c r="G3" s="204"/>
+      <c r="H3" s="204"/>
+      <c r="I3" s="204"/>
+      <c r="J3" s="204"/>
+      <c r="K3" s="195"/>
+      <c r="L3" s="194" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="197"/>
-      <c r="N3" s="197"/>
-      <c r="O3" s="198"/>
+      <c r="M3" s="204"/>
+      <c r="N3" s="204"/>
+      <c r="O3" s="195"/>
       <c r="P3" s="29" t="s">
         <v>27</v>
       </c>
@@ -39173,20 +39189,20 @@
       <c r="R3" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="S3" s="209" t="s">
+      <c r="S3" s="211" t="s">
         <v>25</v>
       </c>
-      <c r="T3" s="210"/>
-      <c r="U3" s="210"/>
-      <c r="V3" s="210"/>
-      <c r="W3" s="210"/>
-      <c r="X3" s="213"/>
-      <c r="Y3" s="209" t="s">
+      <c r="T3" s="212"/>
+      <c r="U3" s="212"/>
+      <c r="V3" s="212"/>
+      <c r="W3" s="212"/>
+      <c r="X3" s="215"/>
+      <c r="Y3" s="211" t="s">
         <v>29</v>
       </c>
-      <c r="Z3" s="210"/>
-      <c r="AA3" s="210"/>
-      <c r="AB3" s="210"/>
+      <c r="Z3" s="212"/>
+      <c r="AA3" s="212"/>
+      <c r="AB3" s="212"/>
       <c r="AC3" s="33" t="s">
         <v>37</v>
       </c>
@@ -39199,11 +39215,11 @@
       <c r="AF3" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="AG3" s="193" t="s">
+      <c r="AG3" s="200" t="s">
         <v>35</v>
       </c>
-      <c r="AH3" s="194"/>
-      <c r="AI3" s="195"/>
+      <c r="AH3" s="198"/>
+      <c r="AI3" s="197"/>
       <c r="AJ3" s="30" t="s">
         <v>7</v>
       </c>
@@ -39228,77 +39244,77 @@
       <c r="AQ3" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="AR3" s="206"/>
-      <c r="AS3" s="208"/>
+      <c r="AR3" s="208"/>
+      <c r="AS3" s="210"/>
     </row>
     <row r="4" spans="2:45" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="26"/>
-      <c r="C4" s="192"/>
-      <c r="D4" s="193"/>
-      <c r="E4" s="195"/>
-      <c r="F4" s="193" t="s">
+      <c r="C4" s="196"/>
+      <c r="D4" s="200"/>
+      <c r="E4" s="197"/>
+      <c r="F4" s="200" t="s">
         <v>52</v>
       </c>
-      <c r="G4" s="194" t="s">
+      <c r="G4" s="198" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="194" t="s">
+      <c r="H4" s="198" t="s">
         <v>53</v>
       </c>
-      <c r="I4" s="194" t="s">
+      <c r="I4" s="198" t="s">
         <v>54</v>
       </c>
-      <c r="J4" s="194" t="s">
+      <c r="J4" s="198" t="s">
         <v>55</v>
       </c>
-      <c r="K4" s="195"/>
-      <c r="L4" s="193" t="s">
+      <c r="K4" s="197"/>
+      <c r="L4" s="200" t="s">
         <v>52</v>
       </c>
-      <c r="M4" s="194" t="s">
+      <c r="M4" s="198" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="194" t="s">
+      <c r="N4" s="198" t="s">
         <v>53</v>
       </c>
-      <c r="O4" s="195" t="s">
+      <c r="O4" s="197" t="s">
         <v>54</v>
       </c>
-      <c r="P4" s="192" t="s">
+      <c r="P4" s="196" t="s">
         <v>56</v>
       </c>
-      <c r="Q4" s="192" t="s">
+      <c r="Q4" s="196" t="s">
         <v>56</v>
       </c>
-      <c r="R4" s="192" t="s">
+      <c r="R4" s="196" t="s">
         <v>56</v>
       </c>
-      <c r="S4" s="193" t="s">
+      <c r="S4" s="200" t="s">
         <v>52</v>
       </c>
-      <c r="T4" s="194" t="s">
+      <c r="T4" s="198" t="s">
         <v>10</v>
       </c>
-      <c r="U4" s="194" t="s">
+      <c r="U4" s="198" t="s">
         <v>53</v>
       </c>
-      <c r="V4" s="194" t="s">
+      <c r="V4" s="198" t="s">
         <v>54</v>
       </c>
-      <c r="W4" s="199" t="s">
+      <c r="W4" s="216" t="s">
         <v>55</v>
       </c>
-      <c r="X4" s="195"/>
-      <c r="Y4" s="193" t="s">
+      <c r="X4" s="197"/>
+      <c r="Y4" s="200" t="s">
         <v>52</v>
       </c>
-      <c r="Z4" s="194" t="s">
+      <c r="Z4" s="198" t="s">
         <v>10</v>
       </c>
-      <c r="AA4" s="194" t="s">
+      <c r="AA4" s="198" t="s">
         <v>53</v>
       </c>
-      <c r="AB4" s="214" t="s">
+      <c r="AB4" s="199" t="s">
         <v>54</v>
       </c>
       <c r="AC4" s="33"/>
@@ -39327,40 +39343,40 @@
     </row>
     <row r="5" spans="2:45" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="26"/>
-      <c r="C5" s="192"/>
-      <c r="D5" s="193"/>
-      <c r="E5" s="195"/>
-      <c r="F5" s="193"/>
-      <c r="G5" s="194"/>
-      <c r="H5" s="194"/>
-      <c r="I5" s="194"/>
+      <c r="C5" s="196"/>
+      <c r="D5" s="200"/>
+      <c r="E5" s="197"/>
+      <c r="F5" s="200"/>
+      <c r="G5" s="198"/>
+      <c r="H5" s="198"/>
+      <c r="I5" s="198"/>
       <c r="J5" s="24" t="s">
         <v>57</v>
       </c>
       <c r="K5" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="L5" s="193"/>
-      <c r="M5" s="194"/>
-      <c r="N5" s="194"/>
-      <c r="O5" s="195"/>
-      <c r="P5" s="192"/>
-      <c r="Q5" s="192"/>
-      <c r="R5" s="192"/>
-      <c r="S5" s="193"/>
-      <c r="T5" s="194"/>
-      <c r="U5" s="194"/>
-      <c r="V5" s="194"/>
+      <c r="L5" s="200"/>
+      <c r="M5" s="198"/>
+      <c r="N5" s="198"/>
+      <c r="O5" s="197"/>
+      <c r="P5" s="196"/>
+      <c r="Q5" s="196"/>
+      <c r="R5" s="196"/>
+      <c r="S5" s="200"/>
+      <c r="T5" s="198"/>
+      <c r="U5" s="198"/>
+      <c r="V5" s="198"/>
       <c r="W5" s="27" t="s">
         <v>59</v>
       </c>
       <c r="X5" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="Y5" s="193"/>
-      <c r="Z5" s="194"/>
-      <c r="AA5" s="194"/>
-      <c r="AB5" s="214"/>
+      <c r="Y5" s="200"/>
+      <c r="Z5" s="198"/>
+      <c r="AA5" s="198"/>
+      <c r="AB5" s="199"/>
       <c r="AC5" s="33"/>
       <c r="AD5" s="34"/>
       <c r="AE5" s="33"/>
@@ -39807,18 +39823,20 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="AB4:AB5"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="Z4:Z5"/>
-    <mergeCell ref="AA4:AA5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="Y4:Y5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
     <mergeCell ref="AK1:AQ1"/>
     <mergeCell ref="AR1:AS1"/>
     <mergeCell ref="F1:AJ1"/>
@@ -39833,20 +39851,18 @@
     <mergeCell ref="AE2:AF2"/>
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="AK2:AM2"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="Y4:Y5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="AB4:AB5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="Z4:Z5"/>
+    <mergeCell ref="AA4:AA5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="M4:M5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/BaremeJavaBaseTest2_KL16.xlsx
+++ b/BaremeJavaBaseTest2_KL16.xlsx
@@ -10777,11 +10777,11 @@
   <dimension ref="A1:CM90"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2325" ySplit="3630" topLeftCell="Q10" activePane="bottomRight"/>
+      <pane xSplit="2325" ySplit="3630" topLeftCell="Q7" activePane="bottomRight"/>
       <selection activeCell="D4" sqref="D4"/>
       <selection pane="topRight" activeCell="BP6" sqref="BP1:BP1048576"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14:XFD14"/>
-      <selection pane="bottomRight" activeCell="BI15" sqref="BI15"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13:XFD13"/>
+      <selection pane="bottomRight" activeCell="BH25" sqref="BH25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -12413,20 +12413,20 @@
       <c r="C10" s="4"/>
       <c r="D10" s="130">
         <f t="shared" si="0"/>
-        <v>11.1845</v>
+        <v>11.034500000000001</v>
       </c>
       <c r="E10" s="19">
         <f t="shared" si="1"/>
-        <v>11.782142857142855</v>
+        <v>11.603571428571426</v>
       </c>
       <c r="F10" s="19"/>
       <c r="G10" s="14">
         <f t="shared" ref="G10:G32" si="4">H66</f>
-        <v>32.989999999999995</v>
+        <v>32.489999999999995</v>
       </c>
       <c r="H10" s="14">
         <f t="shared" si="3"/>
-        <v>111.845</v>
+        <v>110.345</v>
       </c>
       <c r="I10" s="105">
         <v>1</v>
@@ -12574,7 +12574,7 @@
         <v>0.25</v>
       </c>
       <c r="BJ10" s="84">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="BK10" s="84">
         <v>1</v>
@@ -13279,20 +13279,20 @@
       <c r="C14" s="113"/>
       <c r="D14" s="130">
         <f t="shared" si="0"/>
-        <v>7.8000000000000007</v>
+        <v>7.65</v>
       </c>
       <c r="E14" s="19">
         <f t="shared" si="1"/>
-        <v>8.0357142857142865</v>
+        <v>7.8571428571428568</v>
       </c>
       <c r="F14" s="19"/>
       <c r="G14" s="14">
         <f t="shared" si="4"/>
-        <v>22.5</v>
+        <v>22</v>
       </c>
       <c r="H14" s="14">
         <f t="shared" si="3"/>
-        <v>78</v>
+        <v>76.5</v>
       </c>
       <c r="I14" s="105">
         <v>1</v>
@@ -13438,7 +13438,7 @@
         <v>1</v>
       </c>
       <c r="BJ14" s="105">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="BK14" s="105">
         <v>0.5</v>
@@ -13494,20 +13494,20 @@
       <c r="C15" s="4"/>
       <c r="D15" s="130">
         <f t="shared" si="0"/>
-        <v>8.1499999999999986</v>
+        <v>10.95</v>
       </c>
       <c r="E15" s="19">
         <f t="shared" si="1"/>
-        <v>8.3928571428571423</v>
+        <v>11.25</v>
       </c>
       <c r="F15" s="19"/>
       <c r="G15" s="14">
         <f t="shared" si="4"/>
-        <v>23.5</v>
+        <v>31.5</v>
       </c>
       <c r="H15" s="14">
         <f t="shared" si="3"/>
-        <v>81.5</v>
+        <v>109.5</v>
       </c>
       <c r="I15" s="105">
         <v>0</v>
@@ -13649,15 +13649,31 @@
       <c r="BH15" s="105">
         <v>1</v>
       </c>
-      <c r="BI15" s="105"/>
-      <c r="BJ15" s="105"/>
-      <c r="BK15" s="105"/>
-      <c r="BL15" s="105"/>
-      <c r="BM15" s="105"/>
-      <c r="BN15" s="105"/>
-      <c r="BO15" s="105"/>
+      <c r="BI15" s="105">
+        <v>1</v>
+      </c>
+      <c r="BJ15" s="105">
+        <v>1</v>
+      </c>
+      <c r="BK15" s="105">
+        <v>1</v>
+      </c>
+      <c r="BL15" s="105">
+        <v>1</v>
+      </c>
+      <c r="BM15" s="105">
+        <v>1</v>
+      </c>
+      <c r="BN15" s="105">
+        <v>1</v>
+      </c>
+      <c r="BO15" s="105">
+        <v>1</v>
+      </c>
       <c r="BP15" s="105"/>
-      <c r="BQ15" s="105"/>
+      <c r="BQ15" s="105">
+        <v>1</v>
+      </c>
       <c r="BR15" s="105"/>
       <c r="BS15" s="105"/>
       <c r="BT15" s="105"/>
@@ -13693,20 +13709,20 @@
       <c r="C16" s="4"/>
       <c r="D16" s="130">
         <f t="shared" si="0"/>
-        <v>5.6625000000000005</v>
+        <v>8.1624999999999996</v>
       </c>
       <c r="E16" s="19">
         <f t="shared" si="1"/>
-        <v>6.25</v>
+        <v>8.75</v>
       </c>
       <c r="F16" s="19"/>
       <c r="G16" s="14">
         <f t="shared" si="4"/>
-        <v>17.5</v>
+        <v>24.5</v>
       </c>
       <c r="H16" s="14">
         <f t="shared" si="3"/>
-        <v>56.625</v>
+        <v>81.625</v>
       </c>
       <c r="I16" s="105">
         <v>0</v>
@@ -13848,15 +13864,31 @@
       <c r="BH16" s="105">
         <v>0.75</v>
       </c>
-      <c r="BI16" s="105"/>
-      <c r="BJ16" s="105"/>
-      <c r="BK16" s="105"/>
-      <c r="BL16" s="105"/>
-      <c r="BM16" s="105"/>
-      <c r="BN16" s="105"/>
-      <c r="BO16" s="105"/>
+      <c r="BI16" s="105">
+        <v>1</v>
+      </c>
+      <c r="BJ16" s="105">
+        <v>0</v>
+      </c>
+      <c r="BK16" s="105">
+        <v>1</v>
+      </c>
+      <c r="BL16" s="105">
+        <v>1</v>
+      </c>
+      <c r="BM16" s="105">
+        <v>1</v>
+      </c>
+      <c r="BN16" s="105">
+        <v>1</v>
+      </c>
+      <c r="BO16" s="105">
+        <v>1</v>
+      </c>
       <c r="BP16" s="105"/>
-      <c r="BQ16" s="105"/>
+      <c r="BQ16" s="105">
+        <v>1</v>
+      </c>
       <c r="BR16" s="105"/>
       <c r="BS16" s="105"/>
       <c r="BT16" s="105"/>
@@ -13892,20 +13924,20 @@
       <c r="C17" s="4"/>
       <c r="D17" s="130">
         <f t="shared" si="0"/>
-        <v>8.9094999999999995</v>
+        <v>11.3345</v>
       </c>
       <c r="E17" s="19">
         <f t="shared" si="1"/>
-        <v>9.1928571428571431</v>
+        <v>11.603571428571426</v>
       </c>
       <c r="F17" s="19"/>
       <c r="G17" s="14">
         <f t="shared" si="4"/>
-        <v>25.74</v>
+        <v>32.489999999999995</v>
       </c>
       <c r="H17" s="14">
         <f t="shared" si="3"/>
-        <v>89.094999999999999</v>
+        <v>113.345</v>
       </c>
       <c r="I17" s="105">
         <v>1</v>
@@ -14047,17 +14079,31 @@
       <c r="BH17" s="105">
         <v>1</v>
       </c>
-      <c r="BI17" s="105"/>
+      <c r="BI17" s="105">
+        <v>1</v>
+      </c>
       <c r="BJ17" s="105">
         <v>1</v>
       </c>
-      <c r="BK17" s="105"/>
-      <c r="BL17" s="105"/>
-      <c r="BM17" s="105"/>
-      <c r="BN17" s="105"/>
-      <c r="BO17" s="105"/>
+      <c r="BK17" s="105">
+        <v>1</v>
+      </c>
+      <c r="BL17" s="105">
+        <v>1</v>
+      </c>
+      <c r="BM17" s="105">
+        <v>1</v>
+      </c>
+      <c r="BN17" s="105">
+        <v>1</v>
+      </c>
+      <c r="BO17" s="105">
+        <v>1</v>
+      </c>
       <c r="BP17" s="105"/>
-      <c r="BQ17" s="105"/>
+      <c r="BQ17" s="105">
+        <v>0.75</v>
+      </c>
       <c r="BR17" s="105"/>
       <c r="BS17" s="105"/>
       <c r="BT17" s="105"/>
@@ -14093,20 +14139,20 @@
       <c r="C18" s="4"/>
       <c r="D18" s="130">
         <f t="shared" si="0"/>
-        <v>7.3970000000000002</v>
+        <v>10.046999999999999</v>
       </c>
       <c r="E18" s="19">
         <f t="shared" si="1"/>
-        <v>7.6749999999999998</v>
+        <v>10.264285714285714</v>
       </c>
       <c r="F18" s="19"/>
       <c r="G18" s="14">
         <f t="shared" si="4"/>
-        <v>21.49</v>
+        <v>28.74</v>
       </c>
       <c r="H18" s="14">
         <f t="shared" si="3"/>
-        <v>73.97</v>
+        <v>100.47</v>
       </c>
       <c r="I18" s="105">
         <v>0</v>
@@ -14248,15 +14294,31 @@
       <c r="BH18" s="105">
         <v>1</v>
       </c>
-      <c r="BI18" s="105"/>
-      <c r="BJ18" s="105"/>
-      <c r="BK18" s="105"/>
-      <c r="BL18" s="105"/>
-      <c r="BM18" s="105"/>
-      <c r="BN18" s="105"/>
-      <c r="BO18" s="105"/>
+      <c r="BI18" s="105">
+        <v>0.25</v>
+      </c>
+      <c r="BJ18" s="105">
+        <v>1</v>
+      </c>
+      <c r="BK18" s="105">
+        <v>1</v>
+      </c>
+      <c r="BL18" s="105">
+        <v>1</v>
+      </c>
+      <c r="BM18" s="105">
+        <v>1</v>
+      </c>
+      <c r="BN18" s="105">
+        <v>1</v>
+      </c>
+      <c r="BO18" s="105">
+        <v>1</v>
+      </c>
       <c r="BP18" s="105"/>
-      <c r="BQ18" s="105"/>
+      <c r="BQ18" s="105">
+        <v>1</v>
+      </c>
       <c r="BR18" s="105"/>
       <c r="BS18" s="105"/>
       <c r="BT18" s="105"/>
@@ -14289,20 +14351,20 @@
       <c r="C19" s="113"/>
       <c r="D19" s="130">
         <f t="shared" si="0"/>
-        <v>6.8999999999999995</v>
+        <v>9.15</v>
       </c>
       <c r="E19" s="19">
         <f t="shared" si="1"/>
-        <v>7.6785714285714288</v>
+        <v>9.8214285714285712</v>
       </c>
       <c r="F19" s="19"/>
       <c r="G19" s="14">
         <f t="shared" si="4"/>
-        <v>21.5</v>
+        <v>27.5</v>
       </c>
       <c r="H19" s="14">
         <f t="shared" si="3"/>
-        <v>69</v>
+        <v>91.5</v>
       </c>
       <c r="I19" s="105">
         <v>0</v>
@@ -14444,15 +14506,31 @@
       <c r="BH19" s="84">
         <v>0.75</v>
       </c>
-      <c r="BI19" s="84"/>
-      <c r="BJ19" s="84"/>
-      <c r="BK19" s="84"/>
-      <c r="BL19" s="84"/>
-      <c r="BM19" s="84"/>
-      <c r="BN19" s="105"/>
-      <c r="BO19" s="84"/>
+      <c r="BI19" s="84">
+        <v>0.5</v>
+      </c>
+      <c r="BJ19" s="84">
+        <v>0.5</v>
+      </c>
+      <c r="BK19" s="84">
+        <v>1</v>
+      </c>
+      <c r="BL19" s="84">
+        <v>1</v>
+      </c>
+      <c r="BM19" s="84">
+        <v>1</v>
+      </c>
+      <c r="BN19" s="105">
+        <v>1</v>
+      </c>
+      <c r="BO19" s="84">
+        <v>1</v>
+      </c>
       <c r="BP19" s="84"/>
-      <c r="BQ19" s="84"/>
+      <c r="BQ19" s="84">
+        <v>0</v>
+      </c>
       <c r="BR19" s="84"/>
       <c r="BS19" s="84"/>
       <c r="BT19" s="84"/>
@@ -14488,20 +14566,20 @@
       <c r="C20" s="113"/>
       <c r="D20" s="130">
         <f t="shared" si="0"/>
-        <v>1.2250000000000001</v>
+        <v>1.25</v>
       </c>
       <c r="E20" s="19">
         <f t="shared" si="1"/>
-        <v>2.0535714285714284</v>
+        <v>2.0982142857142856</v>
       </c>
       <c r="F20" s="19"/>
       <c r="G20" s="14">
         <f t="shared" si="4"/>
-        <v>5.75</v>
+        <v>5.875</v>
       </c>
       <c r="H20" s="14">
         <f t="shared" si="3"/>
-        <v>12.25</v>
+        <v>12.5</v>
       </c>
       <c r="I20" s="105">
         <v>0</v>
@@ -14643,15 +14721,31 @@
       <c r="BH20" s="105">
         <v>0</v>
       </c>
-      <c r="BI20" s="105"/>
-      <c r="BJ20" s="105"/>
-      <c r="BK20" s="105"/>
-      <c r="BL20" s="105"/>
-      <c r="BM20" s="105"/>
-      <c r="BN20" s="105"/>
-      <c r="BO20" s="105"/>
+      <c r="BI20" s="105">
+        <v>0.125</v>
+      </c>
+      <c r="BJ20" s="105">
+        <v>0</v>
+      </c>
+      <c r="BK20" s="105">
+        <v>0</v>
+      </c>
+      <c r="BL20" s="105">
+        <v>0</v>
+      </c>
+      <c r="BM20" s="105">
+        <v>0</v>
+      </c>
+      <c r="BN20" s="105">
+        <v>0</v>
+      </c>
+      <c r="BO20" s="105">
+        <v>0</v>
+      </c>
       <c r="BP20" s="105"/>
-      <c r="BQ20" s="105"/>
+      <c r="BQ20" s="105">
+        <v>0</v>
+      </c>
       <c r="BR20" s="105"/>
       <c r="BS20" s="105"/>
       <c r="BT20" s="105"/>
@@ -14687,20 +14781,20 @@
       <c r="C21" s="4"/>
       <c r="D21" s="130">
         <f t="shared" si="0"/>
-        <v>5.1749999999999998</v>
+        <v>7.2250000000000005</v>
       </c>
       <c r="E21" s="19">
         <f t="shared" si="1"/>
-        <v>5.4464285714285712</v>
+        <v>7.5</v>
       </c>
       <c r="F21" s="19"/>
       <c r="G21" s="14">
         <f t="shared" si="4"/>
-        <v>15.25</v>
+        <v>21</v>
       </c>
       <c r="H21" s="14">
         <f t="shared" si="3"/>
-        <v>51.75</v>
+        <v>72.25</v>
       </c>
       <c r="I21" s="105">
         <v>1</v>
@@ -14842,15 +14936,31 @@
       <c r="BH21" s="105">
         <v>0.75</v>
       </c>
-      <c r="BI21" s="105"/>
-      <c r="BJ21" s="105"/>
-      <c r="BK21" s="105"/>
-      <c r="BL21" s="105"/>
-      <c r="BM21" s="105"/>
-      <c r="BN21" s="105"/>
-      <c r="BO21" s="105"/>
+      <c r="BI21" s="105">
+        <v>0.25</v>
+      </c>
+      <c r="BJ21" s="105">
+        <v>0.5</v>
+      </c>
+      <c r="BK21" s="105">
+        <v>0.5</v>
+      </c>
+      <c r="BL21" s="105">
+        <v>0.5</v>
+      </c>
+      <c r="BM21" s="105">
+        <v>1</v>
+      </c>
+      <c r="BN21" s="105">
+        <v>1</v>
+      </c>
+      <c r="BO21" s="105">
+        <v>1</v>
+      </c>
       <c r="BP21" s="105"/>
-      <c r="BQ21" s="105"/>
+      <c r="BQ21" s="105">
+        <v>1</v>
+      </c>
       <c r="BR21" s="105"/>
       <c r="BS21" s="105"/>
       <c r="BT21" s="105"/>
@@ -14886,20 +14996,20 @@
       <c r="C22" s="113"/>
       <c r="D22" s="130">
         <f t="shared" si="0"/>
-        <v>8.85</v>
+        <v>11.65</v>
       </c>
       <c r="E22" s="19">
         <f t="shared" si="1"/>
-        <v>9.4642857142857135</v>
+        <v>12.321428571428573</v>
       </c>
       <c r="F22" s="19"/>
       <c r="G22" s="14">
         <f t="shared" si="4"/>
-        <v>26.5</v>
+        <v>34.5</v>
       </c>
       <c r="H22" s="14">
         <f t="shared" si="3"/>
-        <v>88.5</v>
+        <v>116.5</v>
       </c>
       <c r="I22" s="105">
         <v>1</v>
@@ -15043,15 +15153,31 @@
       <c r="BH22" s="105">
         <v>1</v>
       </c>
-      <c r="BI22" s="105"/>
-      <c r="BJ22" s="84"/>
-      <c r="BK22" s="105"/>
-      <c r="BL22" s="105"/>
-      <c r="BM22" s="105"/>
-      <c r="BN22" s="105"/>
-      <c r="BO22" s="105"/>
+      <c r="BI22" s="105">
+        <v>1</v>
+      </c>
+      <c r="BJ22" s="84">
+        <v>1</v>
+      </c>
+      <c r="BK22" s="105">
+        <v>1</v>
+      </c>
+      <c r="BL22" s="105">
+        <v>1</v>
+      </c>
+      <c r="BM22" s="105">
+        <v>1</v>
+      </c>
+      <c r="BN22" s="105">
+        <v>1</v>
+      </c>
+      <c r="BO22" s="105">
+        <v>1</v>
+      </c>
       <c r="BP22" s="105"/>
-      <c r="BQ22" s="105"/>
+      <c r="BQ22" s="105">
+        <v>1</v>
+      </c>
       <c r="BR22" s="105"/>
       <c r="BS22" s="84"/>
       <c r="BT22" s="105"/>
@@ -15089,20 +15215,20 @@
       <c r="C23" s="4"/>
       <c r="D23" s="130">
         <f t="shared" si="0"/>
-        <v>4.4124999999999996</v>
+        <v>5.2625000000000002</v>
       </c>
       <c r="E23" s="19">
         <f t="shared" si="1"/>
-        <v>5.1785714285714288</v>
+        <v>6.1160714285714288</v>
       </c>
       <c r="F23" s="19"/>
       <c r="G23" s="14">
         <f t="shared" si="4"/>
-        <v>14.5</v>
+        <v>17.125</v>
       </c>
       <c r="H23" s="14">
         <f t="shared" si="3"/>
-        <v>44.125</v>
+        <v>52.625</v>
       </c>
       <c r="I23" s="105">
         <v>1</v>
@@ -15244,15 +15370,31 @@
       <c r="BH23" s="84">
         <v>0.5</v>
       </c>
-      <c r="BI23" s="84"/>
-      <c r="BJ23" s="84"/>
-      <c r="BK23" s="84"/>
-      <c r="BL23" s="84"/>
-      <c r="BM23" s="84"/>
-      <c r="BN23" s="84"/>
-      <c r="BO23" s="84"/>
+      <c r="BI23" s="84">
+        <v>1</v>
+      </c>
+      <c r="BJ23" s="84">
+        <v>0</v>
+      </c>
+      <c r="BK23" s="84">
+        <v>0.125</v>
+      </c>
+      <c r="BL23" s="84">
+        <v>0.5</v>
+      </c>
+      <c r="BM23" s="84">
+        <v>0</v>
+      </c>
+      <c r="BN23" s="84">
+        <v>0.5</v>
+      </c>
+      <c r="BO23" s="84">
+        <v>0.5</v>
+      </c>
       <c r="BP23" s="84"/>
-      <c r="BQ23" s="84"/>
+      <c r="BQ23" s="84">
+        <v>0</v>
+      </c>
       <c r="BR23" s="84"/>
       <c r="BS23" s="84"/>
       <c r="BT23" s="84"/>
@@ -15288,20 +15430,20 @@
       <c r="C24" s="4"/>
       <c r="D24" s="130">
         <f t="shared" si="0"/>
-        <v>5.3000000000000007</v>
+        <v>7.65</v>
       </c>
       <c r="E24" s="19">
         <f t="shared" si="1"/>
-        <v>5.1785714285714288</v>
+        <v>7.6785714285714288</v>
       </c>
       <c r="F24" s="19"/>
       <c r="G24" s="14">
         <f t="shared" si="4"/>
-        <v>14.5</v>
+        <v>21.5</v>
       </c>
       <c r="H24" s="14">
         <f t="shared" si="3"/>
-        <v>53</v>
+        <v>76.5</v>
       </c>
       <c r="I24" s="106">
         <v>0</v>
@@ -15443,15 +15585,31 @@
       <c r="BH24" s="84">
         <v>1</v>
       </c>
-      <c r="BI24" s="84"/>
-      <c r="BJ24" s="84"/>
-      <c r="BK24" s="106"/>
-      <c r="BL24" s="84"/>
-      <c r="BM24" s="84"/>
-      <c r="BN24" s="106"/>
-      <c r="BO24" s="84"/>
+      <c r="BI24" s="84">
+        <v>1</v>
+      </c>
+      <c r="BJ24" s="84">
+        <v>1</v>
+      </c>
+      <c r="BK24" s="106">
+        <v>0.5</v>
+      </c>
+      <c r="BL24" s="84">
+        <v>0.5</v>
+      </c>
+      <c r="BM24" s="84">
+        <v>1</v>
+      </c>
+      <c r="BN24" s="106">
+        <v>1</v>
+      </c>
+      <c r="BO24" s="84">
+        <v>1</v>
+      </c>
       <c r="BP24" s="84"/>
-      <c r="BQ24" s="84"/>
+      <c r="BQ24" s="84">
+        <v>1</v>
+      </c>
       <c r="BR24" s="84"/>
       <c r="BS24" s="84"/>
       <c r="BT24" s="106"/>
@@ -17385,15 +17543,15 @@
       </c>
       <c r="BI34" s="104">
         <f t="shared" ref="BI34:BW34" si="15">AVERAGE(BI9:BI32)</f>
-        <v>0.70833333333333337</v>
+        <v>0.7109375</v>
       </c>
       <c r="BJ34" s="104">
         <f t="shared" si="15"/>
-        <v>0.7142857142857143</v>
+        <v>0.5625</v>
       </c>
       <c r="BK34" s="104">
         <f t="shared" si="15"/>
-        <v>0.75</v>
+        <v>0.7265625</v>
       </c>
       <c r="BL34" s="104">
         <f t="shared" si="15"/>
@@ -17401,15 +17559,15 @@
       </c>
       <c r="BM34" s="104">
         <f t="shared" si="15"/>
-        <v>0.83333333333333337</v>
+        <v>0.8125</v>
       </c>
       <c r="BN34" s="104">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0.90625</v>
       </c>
       <c r="BO34" s="104">
         <f t="shared" si="15"/>
-        <v>0.91666666666666663</v>
+        <v>0.875</v>
       </c>
       <c r="BP34" s="104" t="e">
         <f t="shared" ref="BP34" si="16">AVERAGE(BP9:BP32)</f>
@@ -17417,7 +17575,7 @@
       </c>
       <c r="BQ34" s="104">
         <f t="shared" si="15"/>
-        <v>0.83333333333333337</v>
+        <v>0.734375</v>
       </c>
       <c r="BR34" s="104" t="e">
         <f t="shared" si="15"/>
@@ -17849,7 +18007,7 @@
     <row r="37" spans="1:91" x14ac:dyDescent="0.25">
       <c r="H37" s="111">
         <f t="shared" si="18"/>
-        <v>111.845</v>
+        <v>110.345</v>
       </c>
       <c r="I37" s="111">
         <f t="shared" ref="I37:BA37" si="30">I10*I$6</f>
@@ -18065,7 +18223,7 @@
       </c>
       <c r="BJ37" s="111">
         <f t="shared" si="26"/>
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="BK37" s="111">
         <f t="shared" si="26"/>
@@ -19201,7 +19359,7 @@
     <row r="41" spans="1:91" x14ac:dyDescent="0.25">
       <c r="H41" s="111">
         <f t="shared" si="18"/>
-        <v>78</v>
+        <v>76.5</v>
       </c>
       <c r="I41" s="111">
         <f t="shared" ref="I41:BA41" si="46">I14*I$6</f>
@@ -19417,7 +19575,7 @@
       </c>
       <c r="BJ41" s="111">
         <f t="shared" si="26"/>
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="BK41" s="111">
         <f t="shared" si="26"/>
@@ -19539,7 +19697,7 @@
     <row r="42" spans="1:91" x14ac:dyDescent="0.25">
       <c r="H42" s="111">
         <f t="shared" si="18"/>
-        <v>81.5</v>
+        <v>109.5</v>
       </c>
       <c r="I42" s="111">
         <f t="shared" ref="I42:BA42" si="50">I15*I$6</f>
@@ -19751,31 +19909,31 @@
       </c>
       <c r="BI42" s="111">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BJ42" s="111">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BK42" s="111">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BL42" s="111">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BM42" s="111">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BN42" s="111">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BO42" s="111">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BP42" s="111">
         <f t="shared" si="28"/>
@@ -19783,7 +19941,7 @@
       </c>
       <c r="BQ42" s="111">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BR42" s="111">
         <f t="shared" si="28"/>
@@ -19877,7 +20035,7 @@
     <row r="43" spans="1:91" x14ac:dyDescent="0.25">
       <c r="H43" s="111">
         <f t="shared" si="18"/>
-        <v>56.625</v>
+        <v>81.625</v>
       </c>
       <c r="I43" s="111">
         <f t="shared" ref="I43:BA43" si="54">I16*I$6</f>
@@ -20089,7 +20247,7 @@
       </c>
       <c r="BI43" s="111">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BJ43" s="111">
         <f t="shared" si="26"/>
@@ -20097,23 +20255,23 @@
       </c>
       <c r="BK43" s="111">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BL43" s="111">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BM43" s="111">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BN43" s="111">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BO43" s="111">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BP43" s="111">
         <f t="shared" si="28"/>
@@ -20121,7 +20279,7 @@
       </c>
       <c r="BQ43" s="111">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BR43" s="111">
         <f t="shared" si="28"/>
@@ -20215,7 +20373,7 @@
     <row r="44" spans="1:91" x14ac:dyDescent="0.25">
       <c r="H44" s="111">
         <f t="shared" si="18"/>
-        <v>89.094999999999999</v>
+        <v>113.345</v>
       </c>
       <c r="I44" s="111">
         <f t="shared" ref="I44:BA44" si="58">I17*I$6</f>
@@ -20427,7 +20585,7 @@
       </c>
       <c r="BI44" s="111">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BJ44" s="111">
         <f t="shared" si="26"/>
@@ -20435,23 +20593,23 @@
       </c>
       <c r="BK44" s="111">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BL44" s="111">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BM44" s="111">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BN44" s="111">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BO44" s="111">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BP44" s="111">
         <f t="shared" si="28"/>
@@ -20459,7 +20617,7 @@
       </c>
       <c r="BQ44" s="111">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="BR44" s="111">
         <f t="shared" si="28"/>
@@ -20553,7 +20711,7 @@
     <row r="45" spans="1:91" x14ac:dyDescent="0.25">
       <c r="H45" s="111">
         <f t="shared" si="18"/>
-        <v>73.97</v>
+        <v>100.47</v>
       </c>
       <c r="I45" s="111">
         <f t="shared" ref="I45:BA45" si="62">I18*I$6</f>
@@ -20765,31 +20923,31 @@
       </c>
       <c r="BI45" s="111">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BJ45" s="111">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BK45" s="111">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BL45" s="111">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BM45" s="111">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BN45" s="111">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BO45" s="111">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BP45" s="111">
         <f t="shared" si="28"/>
@@ -20797,7 +20955,7 @@
       </c>
       <c r="BQ45" s="111">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BR45" s="111">
         <f t="shared" si="28"/>
@@ -20891,7 +21049,7 @@
     <row r="46" spans="1:91" x14ac:dyDescent="0.25">
       <c r="H46" s="111">
         <f t="shared" si="18"/>
-        <v>69</v>
+        <v>91.5</v>
       </c>
       <c r="I46" s="111">
         <f t="shared" ref="I46:BA46" si="66">I19*I$6</f>
@@ -21103,31 +21261,31 @@
       </c>
       <c r="BI46" s="111">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ46" s="111">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="BK46" s="111">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BL46" s="111">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BM46" s="111">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BN46" s="111">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BO46" s="111">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BP46" s="111">
         <f t="shared" si="28"/>
@@ -21229,7 +21387,7 @@
     <row r="47" spans="1:91" x14ac:dyDescent="0.25">
       <c r="H47" s="111">
         <f t="shared" si="18"/>
-        <v>12.25</v>
+        <v>12.5</v>
       </c>
       <c r="I47" s="111">
         <f t="shared" ref="I47:BA47" si="70">I20*I$6</f>
@@ -21441,7 +21599,7 @@
       </c>
       <c r="BI47" s="111">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="BJ47" s="111">
         <f t="shared" si="26"/>
@@ -21567,7 +21725,7 @@
     <row r="48" spans="1:91" x14ac:dyDescent="0.25">
       <c r="H48" s="111">
         <f t="shared" si="18"/>
-        <v>51.75</v>
+        <v>72.25</v>
       </c>
       <c r="I48" s="111">
         <f t="shared" ref="I48:BA48" si="74">I21*I$6</f>
@@ -21779,31 +21937,31 @@
       </c>
       <c r="BI48" s="111">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BJ48" s="111">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="BK48" s="111">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BL48" s="111">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="BM48" s="111">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BN48" s="111">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BO48" s="111">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BP48" s="111">
         <f t="shared" si="28"/>
@@ -21811,7 +21969,7 @@
       </c>
       <c r="BQ48" s="111">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BR48" s="111">
         <f t="shared" si="28"/>
@@ -21908,7 +22066,7 @@
       <c r="F49" s="18"/>
       <c r="H49" s="111">
         <f t="shared" si="18"/>
-        <v>88.5</v>
+        <v>116.5</v>
       </c>
       <c r="I49" s="111">
         <f t="shared" ref="I49:BA49" si="78">I22*I$6</f>
@@ -22120,31 +22278,31 @@
       </c>
       <c r="BI49" s="111">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BJ49" s="111">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BK49" s="111">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BL49" s="111">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BM49" s="111">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BN49" s="111">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BO49" s="111">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BP49" s="111">
         <f t="shared" si="28"/>
@@ -22152,7 +22310,7 @@
       </c>
       <c r="BQ49" s="111">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BR49" s="111">
         <f t="shared" si="28"/>
@@ -22249,7 +22407,7 @@
       <c r="F50" s="18"/>
       <c r="H50" s="111">
         <f t="shared" si="18"/>
-        <v>44.125</v>
+        <v>52.625</v>
       </c>
       <c r="I50" s="111">
         <f t="shared" ref="I50:BA50" si="82">I23*I$6</f>
@@ -22461,7 +22619,7 @@
       </c>
       <c r="BI50" s="111">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BJ50" s="111">
         <f t="shared" si="26"/>
@@ -22469,11 +22627,11 @@
       </c>
       <c r="BK50" s="111">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BL50" s="111">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="BM50" s="111">
         <f t="shared" si="26"/>
@@ -22481,11 +22639,11 @@
       </c>
       <c r="BN50" s="111">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BO50" s="111">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="BP50" s="111">
         <f t="shared" si="28"/>
@@ -22590,7 +22748,7 @@
       <c r="F51" s="18"/>
       <c r="H51" s="111">
         <f t="shared" si="18"/>
-        <v>53</v>
+        <v>76.5</v>
       </c>
       <c r="I51" s="111">
         <f t="shared" ref="I51:BA51" si="86">I24*I$6</f>
@@ -22802,31 +22960,31 @@
       </c>
       <c r="BI51" s="111">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BJ51" s="111">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BK51" s="111">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BL51" s="111">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="BM51" s="111">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BN51" s="111">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BO51" s="111">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BP51" s="111">
         <f t="shared" si="28"/>
@@ -22834,7 +22992,7 @@
       </c>
       <c r="BQ51" s="111">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BR51" s="111">
         <f t="shared" si="28"/>
@@ -26438,7 +26596,7 @@
     <row r="66" spans="4:91" x14ac:dyDescent="0.25">
       <c r="H66" s="111">
         <f t="shared" si="126"/>
-        <v>32.989999999999995</v>
+        <v>32.489999999999995</v>
       </c>
       <c r="I66" s="111">
         <f t="shared" ref="I66:BW66" si="135">I10*I$7</f>
@@ -26654,7 +26812,7 @@
       </c>
       <c r="BJ66" s="111">
         <f t="shared" si="135"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="BK66" s="111">
         <f t="shared" si="135"/>
@@ -27790,7 +27948,7 @@
     <row r="70" spans="4:91" x14ac:dyDescent="0.25">
       <c r="H70" s="111">
         <f t="shared" si="126"/>
-        <v>22.5</v>
+        <v>22</v>
       </c>
       <c r="I70" s="111">
         <f t="shared" ref="I70:BW70" si="151">I14*I$7</f>
@@ -28006,7 +28164,7 @@
       </c>
       <c r="BJ70" s="111">
         <f t="shared" si="151"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="BK70" s="111">
         <f t="shared" si="151"/>
@@ -28128,7 +28286,7 @@
     <row r="71" spans="4:91" x14ac:dyDescent="0.25">
       <c r="H71" s="111">
         <f t="shared" si="126"/>
-        <v>23.5</v>
+        <v>31.5</v>
       </c>
       <c r="I71" s="111">
         <f t="shared" ref="I71:BW71" si="155">I15*I$7</f>
@@ -28340,31 +28498,31 @@
       </c>
       <c r="BI71" s="111">
         <f t="shared" si="155"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ71" s="111">
         <f t="shared" si="155"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK71" s="111">
         <f t="shared" si="155"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL71" s="111">
         <f t="shared" si="155"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM71" s="111">
         <f t="shared" si="155"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN71" s="111">
         <f t="shared" si="155"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO71" s="111">
         <f t="shared" si="155"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP71" s="111">
         <f t="shared" si="155"/>
@@ -28372,7 +28530,7 @@
       </c>
       <c r="BQ71" s="111">
         <f t="shared" si="155"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR71" s="111">
         <f t="shared" si="155"/>
@@ -28466,7 +28624,7 @@
     <row r="72" spans="4:91" x14ac:dyDescent="0.25">
       <c r="H72" s="111">
         <f t="shared" si="126"/>
-        <v>17.5</v>
+        <v>24.5</v>
       </c>
       <c r="I72" s="111">
         <f t="shared" ref="I72:BW72" si="159">I16*I$7</f>
@@ -28678,7 +28836,7 @@
       </c>
       <c r="BI72" s="111">
         <f t="shared" si="159"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ72" s="111">
         <f t="shared" si="159"/>
@@ -28686,23 +28844,23 @@
       </c>
       <c r="BK72" s="111">
         <f t="shared" si="159"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL72" s="111">
         <f t="shared" si="159"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM72" s="111">
         <f t="shared" si="159"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN72" s="111">
         <f t="shared" si="159"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO72" s="111">
         <f t="shared" si="159"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP72" s="111">
         <f t="shared" si="159"/>
@@ -28710,7 +28868,7 @@
       </c>
       <c r="BQ72" s="111">
         <f t="shared" si="159"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR72" s="111">
         <f t="shared" si="159"/>
@@ -28804,7 +28962,7 @@
     <row r="73" spans="4:91" x14ac:dyDescent="0.25">
       <c r="H73" s="111">
         <f t="shared" si="126"/>
-        <v>25.74</v>
+        <v>32.489999999999995</v>
       </c>
       <c r="I73" s="111">
         <f t="shared" ref="I73:BW73" si="163">I17*I$7</f>
@@ -29016,7 +29174,7 @@
       </c>
       <c r="BI73" s="111">
         <f t="shared" si="163"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ73" s="111">
         <f t="shared" si="163"/>
@@ -29024,23 +29182,23 @@
       </c>
       <c r="BK73" s="111">
         <f t="shared" si="163"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL73" s="111">
         <f t="shared" si="163"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM73" s="111">
         <f t="shared" si="163"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN73" s="111">
         <f t="shared" si="163"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO73" s="111">
         <f t="shared" si="163"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP73" s="111">
         <f t="shared" si="163"/>
@@ -29048,7 +29206,7 @@
       </c>
       <c r="BQ73" s="111">
         <f t="shared" si="163"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="BR73" s="111">
         <f t="shared" si="163"/>
@@ -29142,7 +29300,7 @@
     <row r="74" spans="4:91" x14ac:dyDescent="0.25">
       <c r="H74" s="111">
         <f t="shared" si="126"/>
-        <v>21.49</v>
+        <v>28.74</v>
       </c>
       <c r="I74" s="111">
         <f t="shared" ref="I74:BW74" si="167">I18*I$7</f>
@@ -29354,31 +29512,31 @@
       </c>
       <c r="BI74" s="111">
         <f t="shared" si="167"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="BJ74" s="111">
         <f t="shared" si="167"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK74" s="111">
         <f t="shared" si="167"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL74" s="111">
         <f t="shared" si="167"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM74" s="111">
         <f t="shared" si="167"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN74" s="111">
         <f t="shared" si="167"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO74" s="111">
         <f t="shared" si="167"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP74" s="111">
         <f t="shared" si="167"/>
@@ -29386,7 +29544,7 @@
       </c>
       <c r="BQ74" s="111">
         <f t="shared" si="167"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR74" s="111">
         <f t="shared" si="167"/>
@@ -29480,7 +29638,7 @@
     <row r="75" spans="4:91" x14ac:dyDescent="0.25">
       <c r="H75" s="111">
         <f t="shared" si="126"/>
-        <v>21.5</v>
+        <v>27.5</v>
       </c>
       <c r="I75" s="111">
         <f t="shared" ref="I75:BW75" si="171">I19*I$7</f>
@@ -29692,31 +29850,31 @@
       </c>
       <c r="BI75" s="111">
         <f t="shared" si="171"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BJ75" s="111">
         <f t="shared" si="171"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BK75" s="111">
         <f t="shared" si="171"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL75" s="111">
         <f t="shared" si="171"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM75" s="111">
         <f t="shared" si="171"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN75" s="111">
         <f t="shared" si="171"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO75" s="111">
         <f t="shared" si="171"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP75" s="111">
         <f t="shared" si="171"/>
@@ -29818,7 +29976,7 @@
     <row r="76" spans="4:91" x14ac:dyDescent="0.25">
       <c r="H76" s="111">
         <f t="shared" si="126"/>
-        <v>5.75</v>
+        <v>5.875</v>
       </c>
       <c r="I76" s="111">
         <f t="shared" ref="I76:BW76" si="175">I20*I$7</f>
@@ -30030,7 +30188,7 @@
       </c>
       <c r="BI76" s="111">
         <f t="shared" si="175"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="BJ76" s="111">
         <f t="shared" si="175"/>
@@ -30156,7 +30314,7 @@
     <row r="77" spans="4:91" x14ac:dyDescent="0.25">
       <c r="H77" s="111">
         <f t="shared" si="126"/>
-        <v>15.25</v>
+        <v>21</v>
       </c>
       <c r="I77" s="111">
         <f t="shared" ref="I77:BW77" si="179">I21*I$7</f>
@@ -30368,31 +30526,31 @@
       </c>
       <c r="BI77" s="111">
         <f t="shared" si="179"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="BJ77" s="111">
         <f t="shared" si="179"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BK77" s="111">
         <f t="shared" si="179"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BL77" s="111">
         <f t="shared" si="179"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BM77" s="111">
         <f t="shared" si="179"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN77" s="111">
         <f t="shared" si="179"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO77" s="111">
         <f t="shared" si="179"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP77" s="111">
         <f t="shared" si="179"/>
@@ -30400,7 +30558,7 @@
       </c>
       <c r="BQ77" s="111">
         <f t="shared" si="179"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR77" s="111">
         <f t="shared" si="179"/>
@@ -30497,7 +30655,7 @@
       <c r="F78" s="18"/>
       <c r="H78" s="111">
         <f t="shared" si="126"/>
-        <v>26.5</v>
+        <v>34.5</v>
       </c>
       <c r="I78" s="111">
         <f t="shared" ref="I78:BW78" si="183">I22*I$7</f>
@@ -30709,31 +30867,31 @@
       </c>
       <c r="BI78" s="111">
         <f t="shared" si="183"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ78" s="111">
         <f t="shared" si="183"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK78" s="111">
         <f t="shared" si="183"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL78" s="111">
         <f t="shared" si="183"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM78" s="111">
         <f t="shared" si="183"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN78" s="111">
         <f t="shared" si="183"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO78" s="111">
         <f t="shared" si="183"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP78" s="111">
         <f t="shared" si="183"/>
@@ -30741,7 +30899,7 @@
       </c>
       <c r="BQ78" s="111">
         <f t="shared" si="183"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR78" s="111">
         <f t="shared" si="183"/>
@@ -30838,7 +30996,7 @@
       <c r="F79" s="18"/>
       <c r="H79" s="111">
         <f t="shared" si="126"/>
-        <v>14.5</v>
+        <v>17.125</v>
       </c>
       <c r="I79" s="111">
         <f t="shared" ref="I79:BW79" si="187">I23*I$7</f>
@@ -31050,7 +31208,7 @@
       </c>
       <c r="BI79" s="111">
         <f t="shared" si="187"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ79" s="111">
         <f t="shared" si="187"/>
@@ -31058,11 +31216,11 @@
       </c>
       <c r="BK79" s="111">
         <f t="shared" si="187"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="BL79" s="111">
         <f t="shared" si="187"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BM79" s="111">
         <f t="shared" si="187"/>
@@ -31070,11 +31228,11 @@
       </c>
       <c r="BN79" s="111">
         <f t="shared" si="187"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BO79" s="111">
         <f t="shared" si="187"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BP79" s="111">
         <f t="shared" si="187"/>
@@ -31179,7 +31337,7 @@
       <c r="F80" s="18"/>
       <c r="H80" s="111">
         <f t="shared" si="126"/>
-        <v>14.5</v>
+        <v>21.5</v>
       </c>
       <c r="I80" s="111">
         <f t="shared" ref="I80:BW80" si="191">I24*I$7</f>
@@ -31391,31 +31549,31 @@
       </c>
       <c r="BI80" s="111">
         <f t="shared" si="191"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ80" s="111">
         <f t="shared" si="191"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK80" s="111">
         <f t="shared" si="191"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BL80" s="111">
         <f t="shared" si="191"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BM80" s="111">
         <f t="shared" si="191"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN80" s="111">
         <f t="shared" si="191"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO80" s="111">
         <f t="shared" si="191"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP80" s="111">
         <f t="shared" si="191"/>
@@ -31423,7 +31581,7 @@
       </c>
       <c r="BQ80" s="111">
         <f t="shared" si="191"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR80" s="111">
         <f t="shared" si="191"/>

--- a/BaremeJavaBaseTest2_KL16.xlsx
+++ b/BaremeJavaBaseTest2_KL16.xlsx
@@ -10777,11 +10777,11 @@
   <dimension ref="A1:CM90"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2325" ySplit="3630" topLeftCell="Q7" activePane="bottomRight"/>
+      <pane xSplit="2325" ySplit="3630" topLeftCell="R7" activePane="bottomRight"/>
       <selection activeCell="D4" sqref="D4"/>
       <selection pane="topRight" activeCell="BP6" sqref="BP1:BP1048576"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13:XFD13"/>
-      <selection pane="bottomRight" activeCell="BH25" sqref="BH25"/>
+      <selection pane="bottomRight" activeCell="BJ29" sqref="BJ29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -15215,20 +15215,20 @@
       <c r="C23" s="4"/>
       <c r="D23" s="130">
         <f t="shared" si="0"/>
-        <v>5.2625000000000002</v>
+        <v>5.4375</v>
       </c>
       <c r="E23" s="19">
         <f t="shared" si="1"/>
-        <v>6.1160714285714288</v>
+        <v>6.2946428571428568</v>
       </c>
       <c r="F23" s="19"/>
       <c r="G23" s="14">
         <f t="shared" si="4"/>
-        <v>17.125</v>
+        <v>17.625</v>
       </c>
       <c r="H23" s="14">
         <f t="shared" si="3"/>
-        <v>52.625</v>
+        <v>54.375</v>
       </c>
       <c r="I23" s="105">
         <v>1</v>
@@ -15386,10 +15386,10 @@
         <v>0</v>
       </c>
       <c r="BN23" s="84">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="BO23" s="84">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="BP23" s="84"/>
       <c r="BQ23" s="84">
@@ -15645,20 +15645,20 @@
       <c r="C25" s="4"/>
       <c r="D25" s="130">
         <f t="shared" si="0"/>
-        <v>4.5914999999999999</v>
+        <v>6.3914999999999997</v>
       </c>
       <c r="E25" s="19">
         <f t="shared" si="1"/>
-        <v>4.5553571428571429</v>
+        <v>6.4303571428571429</v>
       </c>
       <c r="F25" s="19"/>
       <c r="G25" s="14">
         <f t="shared" si="4"/>
-        <v>12.754999999999999</v>
+        <v>18.004999999999999</v>
       </c>
       <c r="H25" s="14">
         <f t="shared" si="3"/>
-        <v>45.914999999999999</v>
+        <v>63.914999999999999</v>
       </c>
       <c r="I25" s="106">
         <v>1</v>
@@ -15800,15 +15800,31 @@
       <c r="BH25" s="84">
         <v>0.75</v>
       </c>
-      <c r="BI25" s="84"/>
-      <c r="BJ25" s="84"/>
-      <c r="BK25" s="106"/>
-      <c r="BL25" s="84"/>
-      <c r="BM25" s="84"/>
-      <c r="BN25" s="106"/>
-      <c r="BO25" s="84"/>
+      <c r="BI25" s="84">
+        <v>0.5</v>
+      </c>
+      <c r="BJ25" s="84">
+        <v>1</v>
+      </c>
+      <c r="BK25" s="106">
+        <v>0.5</v>
+      </c>
+      <c r="BL25" s="84">
+        <v>0.5</v>
+      </c>
+      <c r="BM25" s="84">
+        <v>0.5</v>
+      </c>
+      <c r="BN25" s="106">
+        <v>0.75</v>
+      </c>
+      <c r="BO25" s="84">
+        <v>0.75</v>
+      </c>
       <c r="BP25" s="84"/>
-      <c r="BQ25" s="84"/>
+      <c r="BQ25" s="84">
+        <v>0.75</v>
+      </c>
       <c r="BR25" s="84"/>
       <c r="BS25" s="84"/>
       <c r="BT25" s="106"/>
@@ -15844,20 +15860,20 @@
       <c r="C26" s="4"/>
       <c r="D26" s="130">
         <f t="shared" si="0"/>
-        <v>6.25</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="E26" s="19">
         <f t="shared" si="1"/>
-        <v>6.875</v>
+        <v>9.375</v>
       </c>
       <c r="F26" s="19"/>
       <c r="G26" s="14">
         <f t="shared" si="4"/>
-        <v>19.25</v>
+        <v>26.25</v>
       </c>
       <c r="H26" s="14">
         <f t="shared" si="3"/>
-        <v>62.5</v>
+        <v>87</v>
       </c>
       <c r="I26" s="106">
         <v>0</v>
@@ -15999,15 +16015,31 @@
       <c r="BH26" s="84">
         <v>1</v>
       </c>
-      <c r="BI26" s="84"/>
-      <c r="BJ26" s="84"/>
-      <c r="BK26" s="106"/>
-      <c r="BL26" s="84"/>
-      <c r="BM26" s="84"/>
-      <c r="BN26" s="106"/>
-      <c r="BO26" s="84"/>
+      <c r="BI26" s="84">
+        <v>1</v>
+      </c>
+      <c r="BJ26" s="84">
+        <v>1</v>
+      </c>
+      <c r="BK26" s="106">
+        <v>1</v>
+      </c>
+      <c r="BL26" s="84">
+        <v>1</v>
+      </c>
+      <c r="BM26" s="84">
+        <v>0.75</v>
+      </c>
+      <c r="BN26" s="106">
+        <v>0.75</v>
+      </c>
+      <c r="BO26" s="84">
+        <v>0.75</v>
+      </c>
       <c r="BP26" s="84"/>
-      <c r="BQ26" s="84"/>
+      <c r="BQ26" s="84">
+        <v>0.75</v>
+      </c>
       <c r="BR26" s="84"/>
       <c r="BS26" s="84"/>
       <c r="BT26" s="106"/>
@@ -16043,20 +16075,20 @@
       <c r="C27" s="113"/>
       <c r="D27" s="130">
         <f t="shared" si="0"/>
-        <v>6.4625000000000004</v>
+        <v>8.5625</v>
       </c>
       <c r="E27" s="19">
         <f t="shared" si="1"/>
-        <v>7.4553571428571432</v>
+        <v>9.5982142857142865</v>
       </c>
       <c r="F27" s="19"/>
       <c r="G27" s="14">
         <f t="shared" si="4"/>
-        <v>20.875</v>
+        <v>26.875</v>
       </c>
       <c r="H27" s="14">
         <f t="shared" si="3"/>
-        <v>64.625</v>
+        <v>85.625</v>
       </c>
       <c r="I27" s="106">
         <v>1</v>
@@ -16198,15 +16230,31 @@
       <c r="BH27" s="84">
         <v>0.75</v>
       </c>
-      <c r="BI27" s="84"/>
-      <c r="BJ27" s="84"/>
-      <c r="BK27" s="106"/>
-      <c r="BL27" s="84"/>
-      <c r="BM27" s="84"/>
-      <c r="BN27" s="106"/>
-      <c r="BO27" s="84"/>
+      <c r="BI27" s="84">
+        <v>0.5</v>
+      </c>
+      <c r="BJ27" s="84">
+        <v>0.5</v>
+      </c>
+      <c r="BK27" s="106">
+        <v>0.5</v>
+      </c>
+      <c r="BL27" s="84">
+        <v>0.5</v>
+      </c>
+      <c r="BM27" s="84">
+        <v>1</v>
+      </c>
+      <c r="BN27" s="106">
+        <v>1</v>
+      </c>
+      <c r="BO27" s="84">
+        <v>1</v>
+      </c>
       <c r="BP27" s="84"/>
-      <c r="BQ27" s="84"/>
+      <c r="BQ27" s="84">
+        <v>1</v>
+      </c>
       <c r="BR27" s="84"/>
       <c r="BS27" s="84"/>
       <c r="BT27" s="106"/>
@@ -16242,20 +16290,20 @@
       <c r="C28" s="4"/>
       <c r="D28" s="130">
         <f t="shared" si="0"/>
-        <v>7.37</v>
+        <v>9.620000000000001</v>
       </c>
       <c r="E28" s="19">
         <f t="shared" si="1"/>
-        <v>7.8214285714285712</v>
+        <v>9.9642857142857135</v>
       </c>
       <c r="F28" s="19"/>
       <c r="G28" s="14">
         <f t="shared" si="4"/>
-        <v>21.9</v>
+        <v>27.9</v>
       </c>
       <c r="H28" s="14">
         <f t="shared" si="3"/>
-        <v>73.7</v>
+        <v>96.2</v>
       </c>
       <c r="I28" s="106">
         <v>0</v>
@@ -16397,15 +16445,31 @@
       <c r="BH28" s="84">
         <v>0.75</v>
       </c>
-      <c r="BI28" s="84"/>
-      <c r="BJ28" s="84"/>
-      <c r="BK28" s="106"/>
-      <c r="BL28" s="84"/>
-      <c r="BM28" s="84"/>
-      <c r="BN28" s="106"/>
-      <c r="BO28" s="84"/>
+      <c r="BI28" s="84">
+        <v>0.5</v>
+      </c>
+      <c r="BJ28" s="84">
+        <v>0.5</v>
+      </c>
+      <c r="BK28" s="106">
+        <v>1</v>
+      </c>
+      <c r="BL28" s="84">
+        <v>1</v>
+      </c>
+      <c r="BM28" s="84">
+        <v>1</v>
+      </c>
+      <c r="BN28" s="106">
+        <v>1</v>
+      </c>
+      <c r="BO28" s="84">
+        <v>1</v>
+      </c>
       <c r="BP28" s="84"/>
-      <c r="BQ28" s="84"/>
+      <c r="BQ28" s="84">
+        <v>0</v>
+      </c>
       <c r="BR28" s="84"/>
       <c r="BS28" s="84"/>
       <c r="BT28" s="106"/>
@@ -17543,15 +17607,15 @@
       </c>
       <c r="BI34" s="104">
         <f t="shared" ref="BI34:BW34" si="15">AVERAGE(BI9:BI32)</f>
-        <v>0.7109375</v>
+        <v>0.69374999999999998</v>
       </c>
       <c r="BJ34" s="104">
         <f t="shared" si="15"/>
-        <v>0.5625</v>
+        <v>0.6</v>
       </c>
       <c r="BK34" s="104">
         <f t="shared" si="15"/>
-        <v>0.7265625</v>
+        <v>0.73124999999999996</v>
       </c>
       <c r="BL34" s="104">
         <f t="shared" si="15"/>
@@ -17563,11 +17627,11 @@
       </c>
       <c r="BN34" s="104">
         <f t="shared" si="15"/>
-        <v>0.90625</v>
+        <v>0.91249999999999998</v>
       </c>
       <c r="BO34" s="104">
         <f t="shared" si="15"/>
-        <v>0.875</v>
+        <v>0.88749999999999996</v>
       </c>
       <c r="BP34" s="104" t="e">
         <f t="shared" ref="BP34" si="16">AVERAGE(BP9:BP32)</f>
@@ -17575,7 +17639,7 @@
       </c>
       <c r="BQ34" s="104">
         <f t="shared" si="15"/>
-        <v>0.734375</v>
+        <v>0.71250000000000002</v>
       </c>
       <c r="BR34" s="104" t="e">
         <f t="shared" si="15"/>
@@ -22407,7 +22471,7 @@
       <c r="F50" s="18"/>
       <c r="H50" s="111">
         <f t="shared" si="18"/>
-        <v>52.625</v>
+        <v>54.375</v>
       </c>
       <c r="I50" s="111">
         <f t="shared" ref="I50:BA50" si="82">I23*I$6</f>
@@ -22639,11 +22703,11 @@
       </c>
       <c r="BN50" s="111">
         <f t="shared" si="26"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BO50" s="111">
         <f t="shared" si="26"/>
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="BP50" s="111">
         <f t="shared" si="28"/>
@@ -23089,7 +23153,7 @@
       <c r="F52" s="18"/>
       <c r="H52" s="111">
         <f t="shared" si="18"/>
-        <v>45.914999999999999</v>
+        <v>63.914999999999999</v>
       </c>
       <c r="I52" s="111">
         <f t="shared" ref="I52:BW60" si="90">I25*I$6</f>
@@ -23301,31 +23365,31 @@
       </c>
       <c r="BI52" s="111">
         <f t="shared" si="90"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ52" s="111">
         <f t="shared" si="90"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BK52" s="111">
         <f t="shared" si="90"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BL52" s="111">
         <f t="shared" si="90"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="BM52" s="111">
         <f t="shared" si="90"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BN52" s="111">
         <f t="shared" si="90"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BO52" s="111">
         <f t="shared" si="90"/>
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="BP52" s="111">
         <f t="shared" si="90"/>
@@ -23333,7 +23397,7 @@
       </c>
       <c r="BQ52" s="111">
         <f t="shared" si="90"/>
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="BR52" s="111">
         <f t="shared" si="90"/>
@@ -23430,7 +23494,7 @@
       <c r="F53" s="18"/>
       <c r="H53" s="111">
         <f t="shared" si="18"/>
-        <v>62.5</v>
+        <v>87</v>
       </c>
       <c r="I53" s="111">
         <f t="shared" ref="I53:BA53" si="94">I26*I$6</f>
@@ -23642,31 +23706,31 @@
       </c>
       <c r="BI53" s="111">
         <f t="shared" si="90"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BJ53" s="111">
         <f t="shared" si="90"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BK53" s="111">
         <f t="shared" si="90"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BL53" s="111">
         <f t="shared" si="90"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BM53" s="111">
         <f t="shared" si="90"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BN53" s="111">
         <f t="shared" si="90"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BO53" s="111">
         <f t="shared" si="90"/>
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="BP53" s="111">
         <f t="shared" si="90"/>
@@ -23674,7 +23738,7 @@
       </c>
       <c r="BQ53" s="111">
         <f t="shared" si="90"/>
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="BR53" s="111">
         <f t="shared" si="90"/>
@@ -23771,7 +23835,7 @@
       <c r="F54" s="18"/>
       <c r="H54" s="111">
         <f t="shared" si="18"/>
-        <v>64.625</v>
+        <v>85.625</v>
       </c>
       <c r="I54" s="111">
         <f t="shared" ref="I54:BA54" si="98">I27*I$6</f>
@@ -23983,31 +24047,31 @@
       </c>
       <c r="BI54" s="111">
         <f t="shared" si="90"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ54" s="111">
         <f t="shared" si="90"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="BK54" s="111">
         <f t="shared" si="90"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BL54" s="111">
         <f t="shared" si="90"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="BM54" s="111">
         <f t="shared" si="90"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BN54" s="111">
         <f t="shared" si="90"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BO54" s="111">
         <f t="shared" si="90"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BP54" s="111">
         <f t="shared" si="90"/>
@@ -24015,7 +24079,7 @@
       </c>
       <c r="BQ54" s="111">
         <f t="shared" si="90"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BR54" s="111">
         <f t="shared" si="90"/>
@@ -24109,7 +24173,7 @@
     <row r="55" spans="4:91" x14ac:dyDescent="0.25">
       <c r="H55" s="111">
         <f t="shared" si="18"/>
-        <v>73.7</v>
+        <v>96.2</v>
       </c>
       <c r="I55" s="111">
         <f t="shared" ref="I55:BA55" si="102">I28*I$6</f>
@@ -24321,31 +24385,31 @@
       </c>
       <c r="BI55" s="111">
         <f t="shared" si="90"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ55" s="111">
         <f t="shared" si="90"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="BK55" s="111">
         <f t="shared" si="90"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BL55" s="111">
         <f t="shared" si="90"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BM55" s="111">
         <f t="shared" si="90"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BN55" s="111">
         <f t="shared" si="90"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BO55" s="111">
         <f t="shared" si="90"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BP55" s="111">
         <f t="shared" si="90"/>
@@ -30996,7 +31060,7 @@
       <c r="F79" s="18"/>
       <c r="H79" s="111">
         <f t="shared" si="126"/>
-        <v>17.125</v>
+        <v>17.625</v>
       </c>
       <c r="I79" s="111">
         <f t="shared" ref="I79:BW79" si="187">I23*I$7</f>
@@ -31228,11 +31292,11 @@
       </c>
       <c r="BN79" s="111">
         <f t="shared" si="187"/>
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="BO79" s="111">
         <f t="shared" si="187"/>
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="BP79" s="111">
         <f t="shared" si="187"/>
@@ -31678,7 +31742,7 @@
       <c r="F81" s="18"/>
       <c r="H81" s="111">
         <f t="shared" si="126"/>
-        <v>12.754999999999999</v>
+        <v>18.004999999999999</v>
       </c>
       <c r="I81" s="111">
         <f t="shared" ref="I81:BW81" si="195">I25*I$7</f>
@@ -31890,31 +31954,31 @@
       </c>
       <c r="BI81" s="111">
         <f t="shared" si="195"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BJ81" s="111">
         <f t="shared" si="195"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK81" s="111">
         <f t="shared" si="195"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BL81" s="111">
         <f t="shared" si="195"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BM81" s="111">
         <f t="shared" si="195"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BN81" s="111">
         <f t="shared" si="195"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="BO81" s="111">
         <f t="shared" si="195"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="BP81" s="111">
         <f t="shared" si="195"/>
@@ -31922,7 +31986,7 @@
       </c>
       <c r="BQ81" s="111">
         <f t="shared" si="195"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="BR81" s="111">
         <f t="shared" si="195"/>
@@ -32019,7 +32083,7 @@
       <c r="F82" s="18"/>
       <c r="H82" s="111">
         <f t="shared" si="126"/>
-        <v>19.25</v>
+        <v>26.25</v>
       </c>
       <c r="I82" s="111">
         <f t="shared" ref="I82:BW82" si="199">I26*I$7</f>
@@ -32231,31 +32295,31 @@
       </c>
       <c r="BI82" s="111">
         <f t="shared" si="199"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ82" s="111">
         <f t="shared" si="199"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK82" s="111">
         <f t="shared" si="199"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL82" s="111">
         <f t="shared" si="199"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM82" s="111">
         <f t="shared" si="199"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="BN82" s="111">
         <f t="shared" si="199"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="BO82" s="111">
         <f t="shared" si="199"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="BP82" s="111">
         <f t="shared" si="199"/>
@@ -32263,7 +32327,7 @@
       </c>
       <c r="BQ82" s="111">
         <f t="shared" si="199"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="BR82" s="111">
         <f t="shared" si="199"/>
@@ -32360,7 +32424,7 @@
       <c r="F83" s="18"/>
       <c r="H83" s="111">
         <f t="shared" si="126"/>
-        <v>20.875</v>
+        <v>26.875</v>
       </c>
       <c r="I83" s="111">
         <f t="shared" ref="I83:BW83" si="203">I27*I$7</f>
@@ -32572,31 +32636,31 @@
       </c>
       <c r="BI83" s="111">
         <f t="shared" si="203"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BJ83" s="111">
         <f t="shared" si="203"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BK83" s="111">
         <f t="shared" si="203"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BL83" s="111">
         <f t="shared" si="203"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BM83" s="111">
         <f t="shared" si="203"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN83" s="111">
         <f t="shared" si="203"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO83" s="111">
         <f t="shared" si="203"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP83" s="111">
         <f t="shared" si="203"/>
@@ -32604,7 +32668,7 @@
       </c>
       <c r="BQ83" s="111">
         <f t="shared" si="203"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR83" s="111">
         <f t="shared" si="203"/>
@@ -32701,7 +32765,7 @@
       <c r="F84" s="18"/>
       <c r="H84" s="111">
         <f t="shared" si="126"/>
-        <v>21.9</v>
+        <v>27.9</v>
       </c>
       <c r="I84" s="111">
         <f t="shared" ref="I84:BW84" si="207">I28*I$7</f>
@@ -32913,31 +32977,31 @@
       </c>
       <c r="BI84" s="111">
         <f t="shared" si="207"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BJ84" s="111">
         <f t="shared" si="207"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BK84" s="111">
         <f t="shared" si="207"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL84" s="111">
         <f t="shared" si="207"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM84" s="111">
         <f t="shared" si="207"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN84" s="111">
         <f t="shared" si="207"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO84" s="111">
         <f t="shared" si="207"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP84" s="111">
         <f t="shared" si="207"/>

--- a/BaremeJavaBaseTest2_KL16.xlsx
+++ b/BaremeJavaBaseTest2_KL16.xlsx
@@ -10777,11 +10777,11 @@
   <dimension ref="A1:CM90"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2325" ySplit="3630" topLeftCell="R7" activePane="bottomRight"/>
+      <pane xSplit="2325" ySplit="3630" topLeftCell="D8" activePane="bottomRight"/>
       <selection activeCell="D4" sqref="D4"/>
-      <selection pane="topRight" activeCell="BP6" sqref="BP1:BP1048576"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13:XFD13"/>
-      <selection pane="bottomRight" activeCell="BJ29" sqref="BJ29"/>
+      <selection pane="topRight" activeCell="O6" sqref="O6"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16:XFD16"/>
+      <selection pane="bottomRight" activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -11198,7 +11198,7 @@
       </c>
       <c r="D4" s="128" t="str">
         <f>CONCATENATE("Note/20 ( sur ",H6,")")</f>
-        <v>Note/20 ( sur 200)</v>
+        <v>Note/20 ( sur 192)</v>
       </c>
       <c r="E4" s="17" t="str">
         <f>CONCATENATE("Note/20 ( sur ",H7,")")</f>
@@ -11211,7 +11211,7 @@
       </c>
       <c r="H4" s="6" t="str">
         <f>CONCATENATE("Note/",H6)</f>
-        <v>Note/200</v>
+        <v>Note/192</v>
       </c>
       <c r="I4" s="141"/>
       <c r="J4" s="144"/>
@@ -11550,7 +11550,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6">
         <f>SUM(I6:CK6)</f>
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="I6" s="57">
         <v>2</v>
@@ -11568,7 +11568,7 @@
         <v>0</v>
       </c>
       <c r="N6" s="52">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O6" s="48">
         <v>10</v>
@@ -11679,7 +11679,7 @@
         <v>3</v>
       </c>
       <c r="AY6" s="15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AZ6" s="15">
         <v>0</v>
@@ -11691,10 +11691,10 @@
         <v>0</v>
       </c>
       <c r="BC6" s="15">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="BD6" s="15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BE6" s="15">
         <v>0</v>
@@ -11706,7 +11706,7 @@
         <v>0</v>
       </c>
       <c r="BH6" s="15">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="BI6" s="15">
         <v>2</v>
@@ -12133,7 +12133,7 @@
       <c r="AV8" s="179"/>
       <c r="AW8" s="178">
         <f>SUM(AW6:BH6)</f>
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="AX8" s="179"/>
       <c r="AY8" s="179"/>
@@ -12196,20 +12196,20 @@
       <c r="C9" s="113"/>
       <c r="D9" s="130">
         <f t="shared" ref="D9:D32" si="0">H9/$H$6*20+CM9*$CM$6</f>
-        <v>11.047000000000001</v>
+        <v>13.226041666666665</v>
       </c>
       <c r="E9" s="19">
         <f t="shared" ref="E9:E28" si="1">G9/$H$7*20+CM9*$CM$7</f>
-        <v>12.049999999999999</v>
+        <v>14.014285714285712</v>
       </c>
       <c r="F9" s="19"/>
       <c r="G9" s="14">
         <f t="shared" ref="G9" si="2">H65</f>
-        <v>33.739999999999995</v>
+        <v>39.239999999999995</v>
       </c>
       <c r="H9" s="14">
         <f t="shared" ref="H9:H32" si="3">H36</f>
-        <v>110.47</v>
+        <v>126.97</v>
       </c>
       <c r="I9" s="105">
         <v>1</v>
@@ -12231,12 +12231,24 @@
         <v>0.5</v>
       </c>
       <c r="P9" s="8"/>
-      <c r="Q9" s="66"/>
-      <c r="R9" s="66"/>
-      <c r="S9" s="66"/>
-      <c r="T9" s="15"/>
-      <c r="U9" s="15"/>
-      <c r="V9" s="15"/>
+      <c r="Q9" s="66">
+        <v>0.5</v>
+      </c>
+      <c r="R9" s="66">
+        <v>1</v>
+      </c>
+      <c r="S9" s="66">
+        <v>1</v>
+      </c>
+      <c r="T9" s="15">
+        <v>1</v>
+      </c>
+      <c r="U9" s="15">
+        <v>1</v>
+      </c>
+      <c r="V9" s="15">
+        <v>1</v>
+      </c>
       <c r="W9" s="8">
         <v>99</v>
       </c>
@@ -12413,20 +12425,20 @@
       <c r="C10" s="4"/>
       <c r="D10" s="130">
         <f t="shared" si="0"/>
-        <v>11.034500000000001</v>
+        <v>14.098437500000001</v>
       </c>
       <c r="E10" s="19">
         <f t="shared" si="1"/>
-        <v>11.603571428571426</v>
+        <v>13.701785714285712</v>
       </c>
       <c r="F10" s="19"/>
       <c r="G10" s="14">
         <f t="shared" ref="G10:G32" si="4">H66</f>
-        <v>32.489999999999995</v>
+        <v>38.364999999999995</v>
       </c>
       <c r="H10" s="14">
         <f t="shared" si="3"/>
-        <v>110.345</v>
+        <v>135.345</v>
       </c>
       <c r="I10" s="105">
         <v>1</v>
@@ -12449,13 +12461,27 @@
       <c r="O10" s="85">
         <v>1</v>
       </c>
-      <c r="P10" s="84"/>
-      <c r="Q10" s="84"/>
-      <c r="R10" s="84"/>
-      <c r="S10" s="84"/>
-      <c r="T10" s="84"/>
-      <c r="U10" s="84"/>
-      <c r="V10" s="84"/>
+      <c r="P10" s="84">
+        <v>0.875</v>
+      </c>
+      <c r="Q10" s="84">
+        <v>0.5</v>
+      </c>
+      <c r="R10" s="84">
+        <v>0.5</v>
+      </c>
+      <c r="S10" s="84">
+        <v>1</v>
+      </c>
+      <c r="T10" s="84">
+        <v>1</v>
+      </c>
+      <c r="U10" s="84">
+        <v>1</v>
+      </c>
+      <c r="V10" s="84">
+        <v>1</v>
+      </c>
       <c r="W10" s="84">
         <v>99</v>
       </c>
@@ -12632,20 +12658,20 @@
       <c r="C11" s="113"/>
       <c r="D11" s="130">
         <f t="shared" si="0"/>
-        <v>9.4375</v>
+        <v>9.8177083333333339</v>
       </c>
       <c r="E11" s="19">
         <f t="shared" si="1"/>
-        <v>9.7767857142857135</v>
+        <v>10.535714285714286</v>
       </c>
       <c r="F11" s="19"/>
       <c r="G11" s="14">
         <f t="shared" si="4"/>
-        <v>27.375</v>
+        <v>29.5</v>
       </c>
       <c r="H11" s="14">
         <f t="shared" si="3"/>
-        <v>94.375</v>
+        <v>94.25</v>
       </c>
       <c r="I11" s="105">
         <v>1</v>
@@ -12667,12 +12693,24 @@
         <v>1</v>
       </c>
       <c r="P11" s="8"/>
-      <c r="Q11" s="66"/>
-      <c r="R11" s="66"/>
-      <c r="S11" s="66"/>
-      <c r="T11" s="66"/>
-      <c r="U11" s="66"/>
-      <c r="V11" s="66"/>
+      <c r="Q11" s="66">
+        <v>1</v>
+      </c>
+      <c r="R11" s="66">
+        <v>0</v>
+      </c>
+      <c r="S11" s="66">
+        <v>0</v>
+      </c>
+      <c r="T11" s="66">
+        <v>0.5</v>
+      </c>
+      <c r="U11" s="66">
+        <v>0.125</v>
+      </c>
+      <c r="V11" s="66">
+        <v>0.5</v>
+      </c>
       <c r="W11" s="8">
         <v>99</v>
       </c>
@@ -12847,20 +12885,20 @@
       <c r="C12" s="4"/>
       <c r="D12" s="130">
         <f t="shared" si="0"/>
-        <v>10.372</v>
+        <v>11.064583333333333</v>
       </c>
       <c r="E12" s="19">
         <f t="shared" si="1"/>
-        <v>10.799999999999999</v>
+        <v>11.87142857142857</v>
       </c>
       <c r="F12" s="19"/>
       <c r="G12" s="14">
         <f t="shared" si="4"/>
-        <v>30.24</v>
+        <v>33.239999999999995</v>
       </c>
       <c r="H12" s="14">
         <f t="shared" si="3"/>
-        <v>103.72</v>
+        <v>106.22</v>
       </c>
       <c r="I12" s="105">
         <v>1</v>
@@ -12882,12 +12920,24 @@
         <v>1</v>
       </c>
       <c r="P12" s="7"/>
-      <c r="Q12" s="67"/>
-      <c r="R12" s="67"/>
-      <c r="S12" s="66"/>
-      <c r="T12" s="66"/>
-      <c r="U12" s="66"/>
-      <c r="V12" s="66"/>
+      <c r="Q12" s="67">
+        <v>1</v>
+      </c>
+      <c r="R12" s="67">
+        <v>0.5</v>
+      </c>
+      <c r="S12" s="66">
+        <v>0</v>
+      </c>
+      <c r="T12" s="66">
+        <v>0</v>
+      </c>
+      <c r="U12" s="66">
+        <v>0.5</v>
+      </c>
+      <c r="V12" s="66">
+        <v>1</v>
+      </c>
       <c r="W12" s="8">
         <v>99</v>
       </c>
@@ -13062,20 +13112,20 @@
       <c r="C13" s="113"/>
       <c r="D13" s="130">
         <f t="shared" si="0"/>
-        <v>11.216999999999999</v>
+        <v>13.246874999999999</v>
       </c>
       <c r="E13" s="19">
         <f t="shared" si="1"/>
-        <v>11.567857142857143</v>
+        <v>13.532142857142857</v>
       </c>
       <c r="F13" s="19"/>
       <c r="G13" s="14">
         <f t="shared" si="4"/>
-        <v>32.39</v>
+        <v>37.89</v>
       </c>
       <c r="H13" s="14">
         <f t="shared" si="3"/>
-        <v>112.17</v>
+        <v>127.17</v>
       </c>
       <c r="I13" s="105">
         <v>0</v>
@@ -13099,12 +13149,24 @@
         <v>1</v>
       </c>
       <c r="P13" s="84"/>
-      <c r="Q13" s="84"/>
-      <c r="R13" s="84"/>
-      <c r="S13" s="84"/>
-      <c r="T13" s="84"/>
-      <c r="U13" s="84"/>
-      <c r="V13" s="84"/>
+      <c r="Q13" s="84">
+        <v>1</v>
+      </c>
+      <c r="R13" s="84">
+        <v>0.5</v>
+      </c>
+      <c r="S13" s="84">
+        <v>1</v>
+      </c>
+      <c r="T13" s="84">
+        <v>1</v>
+      </c>
+      <c r="U13" s="84">
+        <v>1</v>
+      </c>
+      <c r="V13" s="84">
+        <v>1</v>
+      </c>
       <c r="W13" s="84">
         <v>99</v>
       </c>
@@ -13279,20 +13341,20 @@
       <c r="C14" s="113"/>
       <c r="D14" s="130">
         <f t="shared" si="0"/>
-        <v>7.65</v>
+        <v>9.140625</v>
       </c>
       <c r="E14" s="19">
         <f t="shared" si="1"/>
-        <v>7.8571428571428568</v>
+        <v>9.5535714285714288</v>
       </c>
       <c r="F14" s="19"/>
       <c r="G14" s="14">
         <f t="shared" si="4"/>
-        <v>22</v>
+        <v>26.75</v>
       </c>
       <c r="H14" s="14">
         <f t="shared" si="3"/>
-        <v>76.5</v>
+        <v>87.75</v>
       </c>
       <c r="I14" s="105">
         <v>1</v>
@@ -13314,12 +13376,24 @@
         <v>0</v>
       </c>
       <c r="P14" s="8"/>
-      <c r="Q14" s="66"/>
-      <c r="R14" s="66"/>
-      <c r="S14" s="66"/>
-      <c r="T14" s="66"/>
-      <c r="U14" s="66"/>
-      <c r="V14" s="66"/>
+      <c r="Q14" s="66">
+        <v>1</v>
+      </c>
+      <c r="R14" s="66">
+        <v>0.5</v>
+      </c>
+      <c r="S14" s="66">
+        <v>0.25</v>
+      </c>
+      <c r="T14" s="66">
+        <v>1</v>
+      </c>
+      <c r="U14" s="66">
+        <v>1</v>
+      </c>
+      <c r="V14" s="66">
+        <v>1</v>
+      </c>
       <c r="W14" s="8">
         <v>99</v>
       </c>
@@ -13494,20 +13568,20 @@
       <c r="C15" s="4"/>
       <c r="D15" s="130">
         <f t="shared" si="0"/>
-        <v>10.95</v>
+        <v>13.177083333333332</v>
       </c>
       <c r="E15" s="19">
         <f t="shared" si="1"/>
-        <v>11.25</v>
+        <v>13.392857142857142</v>
       </c>
       <c r="F15" s="19"/>
       <c r="G15" s="14">
         <f t="shared" si="4"/>
-        <v>31.5</v>
+        <v>37.5</v>
       </c>
       <c r="H15" s="14">
         <f t="shared" si="3"/>
-        <v>109.5</v>
+        <v>126.5</v>
       </c>
       <c r="I15" s="105">
         <v>0</v>
@@ -13529,12 +13603,24 @@
         <v>1</v>
       </c>
       <c r="P15" s="103"/>
-      <c r="Q15" s="66"/>
-      <c r="R15" s="66"/>
-      <c r="S15" s="66"/>
-      <c r="T15" s="66"/>
-      <c r="U15" s="66"/>
-      <c r="V15" s="66"/>
+      <c r="Q15" s="66">
+        <v>1</v>
+      </c>
+      <c r="R15" s="66">
+        <v>1</v>
+      </c>
+      <c r="S15" s="66">
+        <v>1</v>
+      </c>
+      <c r="T15" s="66">
+        <v>1</v>
+      </c>
+      <c r="U15" s="66">
+        <v>1</v>
+      </c>
+      <c r="V15" s="66">
+        <v>1</v>
+      </c>
       <c r="W15" s="8">
         <v>99</v>
       </c>
@@ -13709,20 +13795,20 @@
       <c r="C16" s="4"/>
       <c r="D16" s="130">
         <f t="shared" si="0"/>
-        <v>8.1624999999999996</v>
+        <v>8.4505208333333339</v>
       </c>
       <c r="E16" s="19">
         <f t="shared" si="1"/>
-        <v>8.75</v>
+        <v>9.4642857142857135</v>
       </c>
       <c r="F16" s="19"/>
       <c r="G16" s="14">
         <f t="shared" si="4"/>
-        <v>24.5</v>
+        <v>26.5</v>
       </c>
       <c r="H16" s="14">
         <f t="shared" si="3"/>
-        <v>81.625</v>
+        <v>81.125</v>
       </c>
       <c r="I16" s="105">
         <v>0</v>
@@ -13744,12 +13830,24 @@
         <v>0</v>
       </c>
       <c r="P16" s="103"/>
-      <c r="Q16" s="66"/>
-      <c r="R16" s="66"/>
-      <c r="S16" s="66"/>
-      <c r="T16" s="66"/>
-      <c r="U16" s="66"/>
-      <c r="V16" s="66"/>
+      <c r="Q16" s="66">
+        <v>0</v>
+      </c>
+      <c r="R16" s="66">
+        <v>0</v>
+      </c>
+      <c r="S16" s="66">
+        <v>0.125</v>
+      </c>
+      <c r="T16" s="66">
+        <v>0.125</v>
+      </c>
+      <c r="U16" s="66">
+        <v>1</v>
+      </c>
+      <c r="V16" s="66">
+        <v>0.75</v>
+      </c>
       <c r="W16" s="8">
         <v>99</v>
       </c>
@@ -13924,20 +14022,20 @@
       <c r="C17" s="4"/>
       <c r="D17" s="130">
         <f t="shared" si="0"/>
-        <v>11.3345</v>
+        <v>11.598437500000001</v>
       </c>
       <c r="E17" s="19">
         <f t="shared" si="1"/>
-        <v>11.603571428571426</v>
+        <v>12.31785714285714</v>
       </c>
       <c r="F17" s="19"/>
       <c r="G17" s="14">
         <f t="shared" si="4"/>
-        <v>32.489999999999995</v>
+        <v>34.489999999999995</v>
       </c>
       <c r="H17" s="14">
         <f t="shared" si="3"/>
-        <v>113.345</v>
+        <v>111.345</v>
       </c>
       <c r="I17" s="105">
         <v>1</v>
@@ -13959,12 +14057,24 @@
         <v>1</v>
       </c>
       <c r="P17" s="103"/>
-      <c r="Q17" s="66"/>
-      <c r="R17" s="66"/>
-      <c r="S17" s="66"/>
-      <c r="T17" s="66"/>
-      <c r="U17" s="66"/>
-      <c r="V17" s="66"/>
+      <c r="Q17" s="66">
+        <v>1</v>
+      </c>
+      <c r="R17" s="66">
+        <v>0</v>
+      </c>
+      <c r="S17" s="66">
+        <v>0</v>
+      </c>
+      <c r="T17" s="66">
+        <v>0</v>
+      </c>
+      <c r="U17" s="66">
+        <v>0</v>
+      </c>
+      <c r="V17" s="66">
+        <v>1</v>
+      </c>
       <c r="W17" s="8">
         <v>99</v>
       </c>
@@ -14139,20 +14249,20 @@
       <c r="C18" s="4"/>
       <c r="D18" s="130">
         <f t="shared" si="0"/>
-        <v>10.046999999999999</v>
+        <v>10.517708333333333</v>
       </c>
       <c r="E18" s="19">
         <f t="shared" si="1"/>
-        <v>10.264285714285714</v>
+        <v>11.335714285714285</v>
       </c>
       <c r="F18" s="19"/>
       <c r="G18" s="14">
         <f t="shared" si="4"/>
-        <v>28.74</v>
+        <v>31.74</v>
       </c>
       <c r="H18" s="14">
         <f t="shared" si="3"/>
-        <v>100.47</v>
+        <v>100.97</v>
       </c>
       <c r="I18" s="105">
         <v>0</v>
@@ -14174,10 +14284,16 @@
         <v>1</v>
       </c>
       <c r="P18" s="103"/>
-      <c r="Q18" s="66"/>
+      <c r="Q18" s="66">
+        <v>1</v>
+      </c>
       <c r="R18" s="66"/>
-      <c r="S18" s="66"/>
-      <c r="T18" s="66"/>
+      <c r="S18" s="66">
+        <v>1</v>
+      </c>
+      <c r="T18" s="66">
+        <v>1</v>
+      </c>
       <c r="U18" s="66"/>
       <c r="V18" s="66"/>
       <c r="W18" s="8">
@@ -14351,7 +14467,7 @@
       <c r="C19" s="113"/>
       <c r="D19" s="130">
         <f t="shared" si="0"/>
-        <v>9.15</v>
+        <v>8.4375</v>
       </c>
       <c r="E19" s="19">
         <f t="shared" si="1"/>
@@ -14364,7 +14480,7 @@
       </c>
       <c r="H19" s="14">
         <f t="shared" si="3"/>
-        <v>91.5</v>
+        <v>81</v>
       </c>
       <c r="I19" s="105">
         <v>0</v>
@@ -14566,7 +14682,7 @@
       <c r="C20" s="113"/>
       <c r="D20" s="130">
         <f t="shared" si="0"/>
-        <v>1.25</v>
+        <v>0.98958333333333326</v>
       </c>
       <c r="E20" s="19">
         <f t="shared" si="1"/>
@@ -14579,7 +14695,7 @@
       </c>
       <c r="H20" s="14">
         <f t="shared" si="3"/>
-        <v>12.5</v>
+        <v>9.5</v>
       </c>
       <c r="I20" s="105">
         <v>0</v>
@@ -14781,7 +14897,7 @@
       <c r="C21" s="4"/>
       <c r="D21" s="130">
         <f t="shared" si="0"/>
-        <v>7.2250000000000005</v>
+        <v>6.5885416666666661</v>
       </c>
       <c r="E21" s="19">
         <f t="shared" si="1"/>
@@ -14794,7 +14910,7 @@
       </c>
       <c r="H21" s="14">
         <f t="shared" si="3"/>
-        <v>72.25</v>
+        <v>63.25</v>
       </c>
       <c r="I21" s="105">
         <v>1</v>
@@ -14996,7 +15112,7 @@
       <c r="C22" s="113"/>
       <c r="D22" s="130">
         <f t="shared" si="0"/>
-        <v>11.65</v>
+        <v>11.302083333333332</v>
       </c>
       <c r="E22" s="19">
         <f t="shared" si="1"/>
@@ -15009,7 +15125,7 @@
       </c>
       <c r="H22" s="14">
         <f t="shared" si="3"/>
-        <v>116.5</v>
+        <v>108.5</v>
       </c>
       <c r="I22" s="105">
         <v>1</v>
@@ -15215,7 +15331,7 @@
       <c r="C23" s="4"/>
       <c r="D23" s="130">
         <f t="shared" si="0"/>
-        <v>5.4375</v>
+        <v>4.856770833333333</v>
       </c>
       <c r="E23" s="19">
         <f t="shared" si="1"/>
@@ -15228,7 +15344,7 @@
       </c>
       <c r="H23" s="14">
         <f t="shared" si="3"/>
-        <v>54.375</v>
+        <v>46.625</v>
       </c>
       <c r="I23" s="105">
         <v>1</v>
@@ -15430,7 +15546,7 @@
       <c r="C24" s="4"/>
       <c r="D24" s="130">
         <f t="shared" si="0"/>
-        <v>7.65</v>
+        <v>7.2916666666666661</v>
       </c>
       <c r="E24" s="19">
         <f t="shared" si="1"/>
@@ -15443,7 +15559,7 @@
       </c>
       <c r="H24" s="14">
         <f t="shared" si="3"/>
-        <v>76.5</v>
+        <v>70</v>
       </c>
       <c r="I24" s="106">
         <v>0</v>
@@ -15645,7 +15761,7 @@
       <c r="C25" s="4"/>
       <c r="D25" s="130">
         <f t="shared" si="0"/>
-        <v>6.3914999999999997</v>
+        <v>6.0848958333333334</v>
       </c>
       <c r="E25" s="19">
         <f t="shared" si="1"/>
@@ -15658,7 +15774,7 @@
       </c>
       <c r="H25" s="14">
         <f t="shared" si="3"/>
-        <v>63.914999999999999</v>
+        <v>58.414999999999999</v>
       </c>
       <c r="I25" s="106">
         <v>1</v>
@@ -15860,7 +15976,7 @@
       <c r="C26" s="4"/>
       <c r="D26" s="130">
         <f t="shared" si="0"/>
-        <v>8.6999999999999993</v>
+        <v>8.2291666666666661</v>
       </c>
       <c r="E26" s="19">
         <f t="shared" si="1"/>
@@ -15873,7 +15989,7 @@
       </c>
       <c r="H26" s="14">
         <f t="shared" si="3"/>
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I26" s="106">
         <v>0</v>
@@ -16075,7 +16191,7 @@
       <c r="C27" s="113"/>
       <c r="D27" s="130">
         <f t="shared" si="0"/>
-        <v>8.5625</v>
+        <v>8.3463541666666661</v>
       </c>
       <c r="E27" s="19">
         <f t="shared" si="1"/>
@@ -16088,7 +16204,7 @@
       </c>
       <c r="H27" s="14">
         <f t="shared" si="3"/>
-        <v>85.625</v>
+        <v>80.125</v>
       </c>
       <c r="I27" s="106">
         <v>1</v>
@@ -16290,7 +16406,7 @@
       <c r="C28" s="4"/>
       <c r="D28" s="130">
         <f t="shared" si="0"/>
-        <v>9.620000000000001</v>
+        <v>9.4479166666666679</v>
       </c>
       <c r="E28" s="19">
         <f t="shared" si="1"/>
@@ -16303,7 +16419,7 @@
       </c>
       <c r="H28" s="14">
         <f t="shared" si="3"/>
-        <v>96.2</v>
+        <v>90.7</v>
       </c>
       <c r="I28" s="106">
         <v>0</v>
@@ -16929,17 +17045,17 @@
       <c r="C32" s="118"/>
       <c r="D32" s="130">
         <f t="shared" si="0"/>
-        <v>10.1</v>
+        <v>14.375</v>
       </c>
       <c r="E32" s="19"/>
       <c r="F32" s="19"/>
       <c r="G32" s="14">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H32" s="14">
         <f t="shared" si="3"/>
-        <v>101</v>
+        <v>138</v>
       </c>
       <c r="I32" s="105">
         <v>1</v>
@@ -16962,9 +17078,7 @@
       <c r="O32" s="85">
         <v>1</v>
       </c>
-      <c r="P32" s="103">
-        <v>1</v>
-      </c>
+      <c r="P32" s="103"/>
       <c r="Q32" s="84">
         <v>1</v>
       </c>
@@ -17067,7 +17181,9 @@
       <c r="AX32" s="84">
         <v>1</v>
       </c>
-      <c r="AY32" s="84"/>
+      <c r="AY32" s="84">
+        <v>1</v>
+      </c>
       <c r="AZ32" s="84">
         <v>99</v>
       </c>
@@ -17077,8 +17193,12 @@
       <c r="BB32" s="84">
         <v>99</v>
       </c>
-      <c r="BC32" s="84"/>
-      <c r="BD32" s="84"/>
+      <c r="BC32" s="84">
+        <v>1</v>
+      </c>
+      <c r="BD32" s="84">
+        <v>1</v>
+      </c>
       <c r="BE32" s="84">
         <v>99</v>
       </c>
@@ -17088,16 +17208,34 @@
       <c r="BG32" s="84">
         <v>99</v>
       </c>
-      <c r="BH32" s="84"/>
-      <c r="BI32" s="84"/>
-      <c r="BJ32" s="84"/>
-      <c r="BK32" s="105"/>
-      <c r="BL32" s="84"/>
-      <c r="BM32" s="84"/>
-      <c r="BN32" s="105"/>
-      <c r="BO32" s="84"/>
+      <c r="BH32" s="84">
+        <v>1</v>
+      </c>
+      <c r="BI32" s="84">
+        <v>1</v>
+      </c>
+      <c r="BJ32" s="84">
+        <v>1</v>
+      </c>
+      <c r="BK32" s="105">
+        <v>1</v>
+      </c>
+      <c r="BL32" s="84">
+        <v>1</v>
+      </c>
+      <c r="BM32" s="84">
+        <v>1</v>
+      </c>
+      <c r="BN32" s="105">
+        <v>1</v>
+      </c>
+      <c r="BO32" s="84">
+        <v>1</v>
+      </c>
       <c r="BP32" s="84"/>
-      <c r="BQ32" s="84"/>
+      <c r="BQ32" s="84">
+        <v>1</v>
+      </c>
       <c r="BR32" s="84"/>
       <c r="BS32" s="84"/>
       <c r="BT32" s="105"/>
@@ -17144,7 +17282,7 @@
       </c>
       <c r="H33" s="14">
         <f t="shared" ref="H33" si="6">H60</f>
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="I33" s="66">
         <v>1</v>
@@ -17427,31 +17565,31 @@
       </c>
       <c r="P34" s="2">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="Q34" s="68">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0.81818181818181823</v>
       </c>
       <c r="R34" s="68">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="S34" s="68">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0.57954545454545459</v>
       </c>
       <c r="T34" s="68">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0.69318181818181823</v>
       </c>
       <c r="U34" s="68">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0.76249999999999996</v>
       </c>
       <c r="V34" s="68">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0.92500000000000004</v>
       </c>
       <c r="W34" s="68">
         <f t="shared" si="7"/>
@@ -17567,7 +17705,7 @@
       </c>
       <c r="AY34" s="104">
         <f t="shared" si="12"/>
-        <v>0.9375</v>
+        <v>0.94047619047619047</v>
       </c>
       <c r="AZ34" s="104">
         <f t="shared" si="11"/>
@@ -17583,11 +17721,11 @@
       </c>
       <c r="BC34" s="104">
         <f t="shared" si="11"/>
-        <v>0.85</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="BD34" s="104">
         <f t="shared" si="11"/>
-        <v>0.9375</v>
+        <v>0.94047619047619047</v>
       </c>
       <c r="BE34" s="104">
         <f t="shared" si="11"/>
@@ -17603,35 +17741,35 @@
       </c>
       <c r="BH34" s="104">
         <f t="shared" si="11"/>
-        <v>0.82499999999999996</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="BI34" s="104">
         <f t="shared" ref="BI34:BW34" si="15">AVERAGE(BI9:BI32)</f>
-        <v>0.69374999999999998</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="BJ34" s="104">
         <f t="shared" si="15"/>
-        <v>0.6</v>
+        <v>0.61904761904761907</v>
       </c>
       <c r="BK34" s="104">
         <f t="shared" si="15"/>
-        <v>0.73124999999999996</v>
+        <v>0.74404761904761907</v>
       </c>
       <c r="BL34" s="104">
         <f t="shared" si="15"/>
-        <v>0.75</v>
+        <v>0.76190476190476186</v>
       </c>
       <c r="BM34" s="104">
         <f t="shared" si="15"/>
-        <v>0.8125</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="BN34" s="104">
         <f t="shared" si="15"/>
-        <v>0.91249999999999998</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="BO34" s="104">
         <f t="shared" si="15"/>
-        <v>0.88749999999999996</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="BP34" s="104" t="e">
         <f t="shared" ref="BP34" si="16">AVERAGE(BP9:BP32)</f>
@@ -17639,7 +17777,7 @@
       </c>
       <c r="BQ34" s="104">
         <f t="shared" si="15"/>
-        <v>0.71250000000000002</v>
+        <v>0.72619047619047616</v>
       </c>
       <c r="BR34" s="104" t="e">
         <f t="shared" si="15"/>
@@ -17733,7 +17871,7 @@
     <row r="36" spans="1:91" x14ac:dyDescent="0.25">
       <c r="H36" s="2">
         <f t="shared" ref="H36:H60" si="18">SUM(I36:CK36)</f>
-        <v>110.47</v>
+        <v>126.97</v>
       </c>
       <c r="I36" s="2">
         <f t="shared" ref="I36:AJ36" si="19">I9*I$6</f>
@@ -17757,7 +17895,7 @@
       </c>
       <c r="N36" s="2">
         <f t="shared" si="19"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O36" s="2">
         <f t="shared" si="19"/>
@@ -17769,27 +17907,27 @@
       </c>
       <c r="Q36" s="68">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R36" s="68">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S36" s="68">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T36" s="68">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U36" s="68">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V36" s="68">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W36" s="68">
         <f t="shared" si="19"/>
@@ -17905,7 +18043,7 @@
       </c>
       <c r="AY36" s="104">
         <f t="shared" si="24"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AZ36" s="104">
         <f t="shared" si="23"/>
@@ -17921,11 +18059,11 @@
       </c>
       <c r="BC36" s="104">
         <f t="shared" si="23"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="BD36" s="104">
         <f t="shared" si="23"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BE36" s="104">
         <f t="shared" si="23"/>
@@ -17941,7 +18079,7 @@
       </c>
       <c r="BH36" s="104">
         <f t="shared" si="23"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="BI36" s="104">
         <f t="shared" ref="BI36:BW36" si="27">BI9*BI$6</f>
@@ -18071,7 +18209,7 @@
     <row r="37" spans="1:91" x14ac:dyDescent="0.25">
       <c r="H37" s="111">
         <f t="shared" si="18"/>
-        <v>110.345</v>
+        <v>135.345</v>
       </c>
       <c r="I37" s="111">
         <f t="shared" ref="I37:BA37" si="30">I10*I$6</f>
@@ -18095,7 +18233,7 @@
       </c>
       <c r="N37" s="111">
         <f t="shared" si="30"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O37" s="111">
         <f t="shared" si="30"/>
@@ -18103,31 +18241,31 @@
       </c>
       <c r="P37" s="111">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>8.75</v>
       </c>
       <c r="Q37" s="111">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R37" s="111">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S37" s="111">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T37" s="111">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U37" s="111">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V37" s="111">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W37" s="111">
         <f t="shared" si="30"/>
@@ -18243,7 +18381,7 @@
       </c>
       <c r="AY37" s="111">
         <f t="shared" si="30"/>
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="AZ37" s="111">
         <f t="shared" si="30"/>
@@ -18259,11 +18397,11 @@
       </c>
       <c r="BC37" s="111">
         <f t="shared" si="25"/>
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="BD37" s="111">
         <f t="shared" si="25"/>
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="BE37" s="111">
         <f t="shared" si="25"/>
@@ -18279,7 +18417,7 @@
       </c>
       <c r="BH37" s="111">
         <f t="shared" si="26"/>
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="BI37" s="111">
         <f t="shared" si="26"/>
@@ -18409,7 +18547,7 @@
     <row r="38" spans="1:91" x14ac:dyDescent="0.25">
       <c r="H38" s="111">
         <f t="shared" si="18"/>
-        <v>94.375</v>
+        <v>94.25</v>
       </c>
       <c r="I38" s="111">
         <f t="shared" ref="I38:BA38" si="34">I11*I$6</f>
@@ -18433,7 +18571,7 @@
       </c>
       <c r="N38" s="111">
         <f t="shared" si="34"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O38" s="111">
         <f t="shared" si="34"/>
@@ -18445,7 +18583,7 @@
       </c>
       <c r="Q38" s="111">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R38" s="111">
         <f t="shared" si="34"/>
@@ -18457,15 +18595,15 @@
       </c>
       <c r="T38" s="111">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="U38" s="111">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="V38" s="111">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="W38" s="111">
         <f t="shared" si="34"/>
@@ -18581,7 +18719,7 @@
       </c>
       <c r="AY38" s="111">
         <f t="shared" si="34"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AZ38" s="111">
         <f t="shared" si="34"/>
@@ -18597,11 +18735,11 @@
       </c>
       <c r="BC38" s="111">
         <f t="shared" si="25"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="BD38" s="111">
         <f t="shared" si="25"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BE38" s="111">
         <f t="shared" si="25"/>
@@ -18617,7 +18755,7 @@
       </c>
       <c r="BH38" s="111">
         <f t="shared" si="26"/>
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="BI38" s="111">
         <f t="shared" si="26"/>
@@ -18747,7 +18885,7 @@
     <row r="39" spans="1:91" x14ac:dyDescent="0.25">
       <c r="H39" s="111">
         <f t="shared" si="18"/>
-        <v>103.72</v>
+        <v>106.22</v>
       </c>
       <c r="I39" s="111">
         <f t="shared" ref="I39:BA39" si="38">I12*I$6</f>
@@ -18771,7 +18909,7 @@
       </c>
       <c r="N39" s="111">
         <f t="shared" si="38"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O39" s="111">
         <f t="shared" si="38"/>
@@ -18783,11 +18921,11 @@
       </c>
       <c r="Q39" s="111">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R39" s="111">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S39" s="111">
         <f t="shared" si="38"/>
@@ -18799,11 +18937,11 @@
       </c>
       <c r="U39" s="111">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="V39" s="111">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W39" s="111">
         <f t="shared" si="38"/>
@@ -18919,7 +19057,7 @@
       </c>
       <c r="AY39" s="111">
         <f t="shared" si="38"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AZ39" s="111">
         <f t="shared" si="38"/>
@@ -18935,11 +19073,11 @@
       </c>
       <c r="BC39" s="111">
         <f t="shared" si="25"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="BD39" s="111">
         <f t="shared" si="25"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BE39" s="111">
         <f t="shared" si="25"/>
@@ -18955,7 +19093,7 @@
       </c>
       <c r="BH39" s="111">
         <f t="shared" si="26"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="BI39" s="111">
         <f t="shared" si="26"/>
@@ -19085,7 +19223,7 @@
     <row r="40" spans="1:91" x14ac:dyDescent="0.25">
       <c r="H40" s="111">
         <f t="shared" si="18"/>
-        <v>112.17</v>
+        <v>127.17</v>
       </c>
       <c r="I40" s="111">
         <f t="shared" ref="I40:BA40" si="42">I13*I$6</f>
@@ -19109,7 +19247,7 @@
       </c>
       <c r="N40" s="111">
         <f t="shared" si="42"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O40" s="111">
         <f t="shared" si="42"/>
@@ -19121,27 +19259,27 @@
       </c>
       <c r="Q40" s="111">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R40" s="111">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S40" s="111">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T40" s="111">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U40" s="111">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V40" s="111">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W40" s="111">
         <f t="shared" si="42"/>
@@ -19257,7 +19395,7 @@
       </c>
       <c r="AY40" s="111">
         <f t="shared" si="42"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AZ40" s="111">
         <f t="shared" si="42"/>
@@ -19273,11 +19411,11 @@
       </c>
       <c r="BC40" s="111">
         <f t="shared" si="25"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="BD40" s="111">
         <f t="shared" si="25"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BE40" s="111">
         <f t="shared" si="25"/>
@@ -19293,7 +19431,7 @@
       </c>
       <c r="BH40" s="111">
         <f t="shared" si="26"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="BI40" s="111">
         <f t="shared" si="26"/>
@@ -19423,7 +19561,7 @@
     <row r="41" spans="1:91" x14ac:dyDescent="0.25">
       <c r="H41" s="111">
         <f t="shared" si="18"/>
-        <v>76.5</v>
+        <v>87.75</v>
       </c>
       <c r="I41" s="111">
         <f t="shared" ref="I41:BA41" si="46">I14*I$6</f>
@@ -19447,7 +19585,7 @@
       </c>
       <c r="N41" s="111">
         <f t="shared" si="46"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O41" s="111">
         <f t="shared" si="46"/>
@@ -19459,27 +19597,27 @@
       </c>
       <c r="Q41" s="111">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R41" s="111">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S41" s="111">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="T41" s="111">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U41" s="111">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V41" s="111">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W41" s="111">
         <f t="shared" si="46"/>
@@ -19595,7 +19733,7 @@
       </c>
       <c r="AY41" s="111">
         <f t="shared" si="46"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AZ41" s="111">
         <f t="shared" si="46"/>
@@ -19611,11 +19749,11 @@
       </c>
       <c r="BC41" s="111">
         <f t="shared" si="25"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="BD41" s="111">
         <f t="shared" si="25"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BE41" s="111">
         <f t="shared" si="25"/>
@@ -19631,7 +19769,7 @@
       </c>
       <c r="BH41" s="111">
         <f t="shared" si="26"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="BI41" s="111">
         <f t="shared" si="26"/>
@@ -19761,7 +19899,7 @@
     <row r="42" spans="1:91" x14ac:dyDescent="0.25">
       <c r="H42" s="111">
         <f t="shared" si="18"/>
-        <v>109.5</v>
+        <v>126.5</v>
       </c>
       <c r="I42" s="111">
         <f t="shared" ref="I42:BA42" si="50">I15*I$6</f>
@@ -19785,7 +19923,7 @@
       </c>
       <c r="N42" s="111">
         <f t="shared" si="50"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O42" s="111">
         <f t="shared" si="50"/>
@@ -19797,27 +19935,27 @@
       </c>
       <c r="Q42" s="111">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R42" s="111">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S42" s="111">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T42" s="111">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U42" s="111">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V42" s="111">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W42" s="111">
         <f t="shared" si="50"/>
@@ -19933,7 +20071,7 @@
       </c>
       <c r="AY42" s="111">
         <f t="shared" si="50"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AZ42" s="111">
         <f t="shared" si="50"/>
@@ -19949,11 +20087,11 @@
       </c>
       <c r="BC42" s="111">
         <f t="shared" si="25"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="BD42" s="111">
         <f t="shared" si="25"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BE42" s="111">
         <f t="shared" si="25"/>
@@ -19969,7 +20107,7 @@
       </c>
       <c r="BH42" s="111">
         <f t="shared" si="26"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="BI42" s="111">
         <f t="shared" si="26"/>
@@ -20099,7 +20237,7 @@
     <row r="43" spans="1:91" x14ac:dyDescent="0.25">
       <c r="H43" s="111">
         <f t="shared" si="18"/>
-        <v>81.625</v>
+        <v>81.125</v>
       </c>
       <c r="I43" s="111">
         <f t="shared" ref="I43:BA43" si="54">I16*I$6</f>
@@ -20143,19 +20281,19 @@
       </c>
       <c r="S43" s="111">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="T43" s="111">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="U43" s="111">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V43" s="111">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="W43" s="111">
         <f t="shared" si="54"/>
@@ -20271,7 +20409,7 @@
       </c>
       <c r="AY43" s="111">
         <f t="shared" si="54"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AZ43" s="111">
         <f t="shared" si="54"/>
@@ -20287,11 +20425,11 @@
       </c>
       <c r="BC43" s="111">
         <f t="shared" si="25"/>
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="BD43" s="111">
         <f t="shared" si="25"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BE43" s="111">
         <f t="shared" si="25"/>
@@ -20307,7 +20445,7 @@
       </c>
       <c r="BH43" s="111">
         <f t="shared" si="26"/>
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="BI43" s="111">
         <f t="shared" si="26"/>
@@ -20437,7 +20575,7 @@
     <row r="44" spans="1:91" x14ac:dyDescent="0.25">
       <c r="H44" s="111">
         <f t="shared" si="18"/>
-        <v>113.345</v>
+        <v>111.345</v>
       </c>
       <c r="I44" s="111">
         <f t="shared" ref="I44:BA44" si="58">I17*I$6</f>
@@ -20461,7 +20599,7 @@
       </c>
       <c r="N44" s="111">
         <f t="shared" si="58"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O44" s="111">
         <f t="shared" si="58"/>
@@ -20473,7 +20611,7 @@
       </c>
       <c r="Q44" s="111">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R44" s="111">
         <f t="shared" si="58"/>
@@ -20493,7 +20631,7 @@
       </c>
       <c r="V44" s="111">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W44" s="111">
         <f t="shared" si="58"/>
@@ -20609,7 +20747,7 @@
       </c>
       <c r="AY44" s="111">
         <f t="shared" si="58"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AZ44" s="111">
         <f t="shared" si="58"/>
@@ -20625,11 +20763,11 @@
       </c>
       <c r="BC44" s="111">
         <f t="shared" si="25"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="BD44" s="111">
         <f t="shared" si="25"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BE44" s="111">
         <f t="shared" si="25"/>
@@ -20645,7 +20783,7 @@
       </c>
       <c r="BH44" s="111">
         <f t="shared" si="26"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="BI44" s="111">
         <f t="shared" si="26"/>
@@ -20775,7 +20913,7 @@
     <row r="45" spans="1:91" x14ac:dyDescent="0.25">
       <c r="H45" s="111">
         <f t="shared" si="18"/>
-        <v>100.47</v>
+        <v>100.97</v>
       </c>
       <c r="I45" s="111">
         <f t="shared" ref="I45:BA45" si="62">I18*I$6</f>
@@ -20799,7 +20937,7 @@
       </c>
       <c r="N45" s="111">
         <f t="shared" si="62"/>
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="O45" s="111">
         <f t="shared" si="62"/>
@@ -20811,7 +20949,7 @@
       </c>
       <c r="Q45" s="111">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R45" s="111">
         <f t="shared" si="62"/>
@@ -20819,11 +20957,11 @@
       </c>
       <c r="S45" s="111">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T45" s="111">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U45" s="111">
         <f t="shared" si="62"/>
@@ -20947,7 +21085,7 @@
       </c>
       <c r="AY45" s="111">
         <f t="shared" si="62"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AZ45" s="111">
         <f t="shared" si="62"/>
@@ -20963,11 +21101,11 @@
       </c>
       <c r="BC45" s="111">
         <f t="shared" si="25"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="BD45" s="111">
         <f t="shared" si="25"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BE45" s="111">
         <f t="shared" si="25"/>
@@ -20983,7 +21121,7 @@
       </c>
       <c r="BH45" s="111">
         <f t="shared" si="26"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="BI45" s="111">
         <f t="shared" si="26"/>
@@ -21113,7 +21251,7 @@
     <row r="46" spans="1:91" x14ac:dyDescent="0.25">
       <c r="H46" s="111">
         <f t="shared" si="18"/>
-        <v>91.5</v>
+        <v>81</v>
       </c>
       <c r="I46" s="111">
         <f t="shared" ref="I46:BA46" si="66">I19*I$6</f>
@@ -21285,7 +21423,7 @@
       </c>
       <c r="AY46" s="111">
         <f t="shared" si="66"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AZ46" s="111">
         <f t="shared" si="66"/>
@@ -21301,11 +21439,11 @@
       </c>
       <c r="BC46" s="111">
         <f t="shared" si="25"/>
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="BD46" s="111">
         <f t="shared" si="25"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BE46" s="111">
         <f t="shared" si="25"/>
@@ -21321,7 +21459,7 @@
       </c>
       <c r="BH46" s="111">
         <f t="shared" si="26"/>
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="BI46" s="111">
         <f t="shared" si="26"/>
@@ -21451,7 +21589,7 @@
     <row r="47" spans="1:91" x14ac:dyDescent="0.25">
       <c r="H47" s="111">
         <f t="shared" si="18"/>
-        <v>12.5</v>
+        <v>9.5</v>
       </c>
       <c r="I47" s="111">
         <f t="shared" ref="I47:BA47" si="70">I20*I$6</f>
@@ -21623,7 +21761,7 @@
       </c>
       <c r="AY47" s="111">
         <f t="shared" si="70"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AZ47" s="111">
         <f t="shared" si="70"/>
@@ -21643,7 +21781,7 @@
       </c>
       <c r="BD47" s="111">
         <f t="shared" si="25"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BE47" s="111">
         <f t="shared" si="25"/>
@@ -21789,7 +21927,7 @@
     <row r="48" spans="1:91" x14ac:dyDescent="0.25">
       <c r="H48" s="111">
         <f t="shared" si="18"/>
-        <v>72.25</v>
+        <v>63.25</v>
       </c>
       <c r="I48" s="111">
         <f t="shared" ref="I48:BA48" si="74">I21*I$6</f>
@@ -21961,7 +22099,7 @@
       </c>
       <c r="AY48" s="111">
         <f t="shared" si="74"/>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AZ48" s="111">
         <f t="shared" si="74"/>
@@ -21977,11 +22115,11 @@
       </c>
       <c r="BC48" s="111">
         <f t="shared" si="25"/>
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="BD48" s="111">
         <f t="shared" si="25"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BE48" s="111">
         <f t="shared" si="25"/>
@@ -21997,7 +22135,7 @@
       </c>
       <c r="BH48" s="111">
         <f t="shared" si="26"/>
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="BI48" s="111">
         <f t="shared" si="26"/>
@@ -22130,7 +22268,7 @@
       <c r="F49" s="18"/>
       <c r="H49" s="111">
         <f t="shared" si="18"/>
-        <v>116.5</v>
+        <v>108.5</v>
       </c>
       <c r="I49" s="111">
         <f t="shared" ref="I49:BA49" si="78">I22*I$6</f>
@@ -22154,7 +22292,7 @@
       </c>
       <c r="N49" s="111">
         <f t="shared" si="78"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O49" s="111">
         <f t="shared" si="78"/>
@@ -22302,7 +22440,7 @@
       </c>
       <c r="AY49" s="111">
         <f t="shared" si="78"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AZ49" s="111">
         <f t="shared" si="78"/>
@@ -22318,11 +22456,11 @@
       </c>
       <c r="BC49" s="111">
         <f t="shared" si="25"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="BD49" s="111">
         <f t="shared" si="25"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BE49" s="111">
         <f t="shared" si="25"/>
@@ -22338,7 +22476,7 @@
       </c>
       <c r="BH49" s="111">
         <f t="shared" si="26"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="BI49" s="111">
         <f t="shared" si="26"/>
@@ -22471,7 +22609,7 @@
       <c r="F50" s="18"/>
       <c r="H50" s="111">
         <f t="shared" si="18"/>
-        <v>54.375</v>
+        <v>46.625</v>
       </c>
       <c r="I50" s="111">
         <f t="shared" ref="I50:BA50" si="82">I23*I$6</f>
@@ -22643,7 +22781,7 @@
       </c>
       <c r="AY50" s="111">
         <f t="shared" si="82"/>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AZ50" s="111">
         <f t="shared" si="82"/>
@@ -22659,11 +22797,11 @@
       </c>
       <c r="BC50" s="111">
         <f t="shared" si="25"/>
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="BD50" s="111">
         <f t="shared" si="25"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BE50" s="111">
         <f t="shared" si="25"/>
@@ -22679,7 +22817,7 @@
       </c>
       <c r="BH50" s="111">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="BI50" s="111">
         <f t="shared" si="26"/>
@@ -22812,7 +22950,7 @@
       <c r="F51" s="18"/>
       <c r="H51" s="111">
         <f t="shared" si="18"/>
-        <v>76.5</v>
+        <v>70</v>
       </c>
       <c r="I51" s="111">
         <f t="shared" ref="I51:BA51" si="86">I24*I$6</f>
@@ -22836,7 +22974,7 @@
       </c>
       <c r="N51" s="111">
         <f t="shared" si="86"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O51" s="111">
         <f t="shared" si="86"/>
@@ -22984,7 +23122,7 @@
       </c>
       <c r="AY51" s="111">
         <f t="shared" si="86"/>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AZ51" s="111">
         <f t="shared" si="86"/>
@@ -23000,11 +23138,11 @@
       </c>
       <c r="BC51" s="111">
         <f t="shared" si="25"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="BD51" s="111">
         <f t="shared" si="25"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BE51" s="111">
         <f t="shared" si="25"/>
@@ -23020,7 +23158,7 @@
       </c>
       <c r="BH51" s="111">
         <f t="shared" si="26"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="BI51" s="111">
         <f t="shared" si="26"/>
@@ -23153,7 +23291,7 @@
       <c r="F52" s="18"/>
       <c r="H52" s="111">
         <f t="shared" si="18"/>
-        <v>63.914999999999999</v>
+        <v>58.414999999999999</v>
       </c>
       <c r="I52" s="111">
         <f t="shared" ref="I52:BW60" si="90">I25*I$6</f>
@@ -23177,7 +23315,7 @@
       </c>
       <c r="N52" s="111">
         <f t="shared" si="90"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O52" s="111">
         <f t="shared" si="90"/>
@@ -23325,7 +23463,7 @@
       </c>
       <c r="AY52" s="111">
         <f t="shared" si="90"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AZ52" s="111">
         <f t="shared" si="90"/>
@@ -23341,11 +23479,11 @@
       </c>
       <c r="BC52" s="111">
         <f t="shared" si="90"/>
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="BD52" s="111">
         <f t="shared" si="90"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BE52" s="111">
         <f t="shared" si="90"/>
@@ -23361,7 +23499,7 @@
       </c>
       <c r="BH52" s="111">
         <f t="shared" si="90"/>
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="BI52" s="111">
         <f t="shared" si="90"/>
@@ -23494,7 +23632,7 @@
       <c r="F53" s="18"/>
       <c r="H53" s="111">
         <f t="shared" si="18"/>
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I53" s="111">
         <f t="shared" ref="I53:BA53" si="94">I26*I$6</f>
@@ -23518,7 +23656,7 @@
       </c>
       <c r="N53" s="111">
         <f t="shared" si="94"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O53" s="111">
         <f t="shared" si="94"/>
@@ -23666,7 +23804,7 @@
       </c>
       <c r="AY53" s="111">
         <f t="shared" si="94"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AZ53" s="111">
         <f t="shared" si="94"/>
@@ -23682,11 +23820,11 @@
       </c>
       <c r="BC53" s="111">
         <f t="shared" si="90"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="BD53" s="111">
         <f t="shared" si="90"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BE53" s="111">
         <f t="shared" si="90"/>
@@ -23702,7 +23840,7 @@
       </c>
       <c r="BH53" s="111">
         <f t="shared" si="90"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="BI53" s="111">
         <f t="shared" si="90"/>
@@ -23835,7 +23973,7 @@
       <c r="F54" s="18"/>
       <c r="H54" s="111">
         <f t="shared" si="18"/>
-        <v>85.625</v>
+        <v>80.125</v>
       </c>
       <c r="I54" s="111">
         <f t="shared" ref="I54:BA54" si="98">I27*I$6</f>
@@ -23859,7 +23997,7 @@
       </c>
       <c r="N54" s="111">
         <f t="shared" si="98"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O54" s="111">
         <f t="shared" si="98"/>
@@ -24007,7 +24145,7 @@
       </c>
       <c r="AY54" s="111">
         <f t="shared" si="98"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AZ54" s="111">
         <f t="shared" si="98"/>
@@ -24023,11 +24161,11 @@
       </c>
       <c r="BC54" s="111">
         <f t="shared" si="90"/>
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="BD54" s="111">
         <f t="shared" si="90"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BE54" s="111">
         <f t="shared" si="90"/>
@@ -24043,7 +24181,7 @@
       </c>
       <c r="BH54" s="111">
         <f t="shared" si="90"/>
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="BI54" s="111">
         <f t="shared" si="90"/>
@@ -24173,7 +24311,7 @@
     <row r="55" spans="4:91" x14ac:dyDescent="0.25">
       <c r="H55" s="111">
         <f t="shared" si="18"/>
-        <v>96.2</v>
+        <v>90.7</v>
       </c>
       <c r="I55" s="111">
         <f t="shared" ref="I55:BA55" si="102">I28*I$6</f>
@@ -24197,7 +24335,7 @@
       </c>
       <c r="N55" s="111">
         <f t="shared" si="102"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O55" s="111">
         <f t="shared" si="102"/>
@@ -24345,7 +24483,7 @@
       </c>
       <c r="AY55" s="111">
         <f t="shared" si="102"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AZ55" s="111">
         <f t="shared" si="102"/>
@@ -24361,11 +24499,11 @@
       </c>
       <c r="BC55" s="111">
         <f t="shared" si="90"/>
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="BD55" s="111">
         <f t="shared" si="90"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BE55" s="111">
         <f t="shared" si="90"/>
@@ -24381,7 +24519,7 @@
       </c>
       <c r="BH55" s="111">
         <f t="shared" si="90"/>
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="BI55" s="111">
         <f t="shared" si="90"/>
@@ -25537,7 +25675,7 @@
       <c r="F59" s="18"/>
       <c r="H59" s="111">
         <f t="shared" si="18"/>
-        <v>101</v>
+        <v>138</v>
       </c>
       <c r="I59" s="111">
         <f t="shared" ref="I59:BA59" si="118">I32*I$6</f>
@@ -25561,7 +25699,7 @@
       </c>
       <c r="N59" s="111">
         <f t="shared" si="118"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O59" s="111">
         <f t="shared" si="118"/>
@@ -25569,7 +25707,7 @@
       </c>
       <c r="P59" s="111">
         <f t="shared" si="118"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q59" s="111">
         <f t="shared" si="118"/>
@@ -25709,7 +25847,7 @@
       </c>
       <c r="AY59" s="111">
         <f t="shared" si="118"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AZ59" s="111">
         <f t="shared" si="118"/>
@@ -25725,11 +25863,11 @@
       </c>
       <c r="BC59" s="111">
         <f t="shared" si="90"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BD59" s="111">
         <f t="shared" si="90"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BE59" s="111">
         <f t="shared" si="90"/>
@@ -25745,35 +25883,35 @@
       </c>
       <c r="BH59" s="111">
         <f t="shared" si="90"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BI59" s="111">
         <f t="shared" si="90"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BJ59" s="111">
         <f t="shared" si="90"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BK59" s="111">
         <f t="shared" si="90"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BL59" s="111">
         <f t="shared" si="90"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BM59" s="111">
         <f t="shared" si="90"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BN59" s="111">
         <f t="shared" si="90"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BO59" s="111">
         <f t="shared" si="90"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BP59" s="111">
         <f t="shared" si="90"/>
@@ -25781,7 +25919,7 @@
       </c>
       <c r="BQ59" s="111">
         <f t="shared" si="90"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BR59" s="111">
         <f t="shared" si="90"/>
@@ -25878,7 +26016,7 @@
       <c r="F60" s="18"/>
       <c r="H60" s="111">
         <f t="shared" si="18"/>
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="I60" s="111">
         <f t="shared" ref="I60:BA60" si="122">I33*I$6</f>
@@ -25902,7 +26040,7 @@
       </c>
       <c r="N60" s="111">
         <f t="shared" si="122"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O60" s="111">
         <f t="shared" si="122"/>
@@ -26050,7 +26188,7 @@
       </c>
       <c r="AY60" s="111">
         <f t="shared" si="122"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AZ60" s="111">
         <f t="shared" si="122"/>
@@ -26066,11 +26204,11 @@
       </c>
       <c r="BC60" s="111">
         <f t="shared" si="90"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="BD60" s="111">
         <f t="shared" si="90"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BE60" s="111">
         <f t="shared" si="90"/>
@@ -26086,7 +26224,7 @@
       </c>
       <c r="BH60" s="111">
         <f t="shared" si="90"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="BI60" s="111">
         <f t="shared" si="90"/>
@@ -26322,7 +26460,7 @@
     <row r="65" spans="4:91" x14ac:dyDescent="0.25">
       <c r="H65" s="2">
         <f t="shared" ref="H65:H89" si="126">SUM(I65:CK65)</f>
-        <v>33.739999999999995</v>
+        <v>39.239999999999995</v>
       </c>
       <c r="I65" s="2">
         <f t="shared" ref="I65:AJ65" si="127">I9*I$7</f>
@@ -26358,27 +26496,27 @@
       </c>
       <c r="Q65" s="68">
         <f t="shared" si="127"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R65" s="68">
         <f t="shared" si="127"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S65" s="65">
         <f t="shared" si="127"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T65" s="68">
         <f t="shared" si="127"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U65" s="68">
         <f t="shared" si="127"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V65" s="68">
         <f t="shared" si="127"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W65" s="2">
         <f t="shared" si="127"/>
@@ -26660,7 +26798,7 @@
     <row r="66" spans="4:91" x14ac:dyDescent="0.25">
       <c r="H66" s="111">
         <f t="shared" si="126"/>
-        <v>32.489999999999995</v>
+        <v>38.364999999999995</v>
       </c>
       <c r="I66" s="111">
         <f t="shared" ref="I66:BW66" si="135">I10*I$7</f>
@@ -26692,31 +26830,31 @@
       </c>
       <c r="P66" s="111">
         <f t="shared" si="135"/>
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="Q66" s="111">
         <f t="shared" si="135"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R66" s="111">
         <f t="shared" si="135"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S66" s="111">
         <f t="shared" si="135"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T66" s="111">
         <f t="shared" si="135"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U66" s="111">
         <f t="shared" si="135"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V66" s="111">
         <f t="shared" si="135"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W66" s="111">
         <f t="shared" si="135"/>
@@ -26998,7 +27136,7 @@
     <row r="67" spans="4:91" x14ac:dyDescent="0.25">
       <c r="H67" s="111">
         <f t="shared" si="126"/>
-        <v>27.375</v>
+        <v>29.5</v>
       </c>
       <c r="I67" s="111">
         <f t="shared" ref="I67:BW67" si="139">I11*I$7</f>
@@ -27034,7 +27172,7 @@
       </c>
       <c r="Q67" s="111">
         <f t="shared" si="139"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R67" s="111">
         <f t="shared" si="139"/>
@@ -27046,15 +27184,15 @@
       </c>
       <c r="T67" s="111">
         <f t="shared" si="139"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="U67" s="111">
         <f t="shared" si="139"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="V67" s="111">
         <f t="shared" si="139"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="W67" s="111">
         <f t="shared" si="139"/>
@@ -27336,7 +27474,7 @@
     <row r="68" spans="4:91" x14ac:dyDescent="0.25">
       <c r="H68" s="111">
         <f t="shared" si="126"/>
-        <v>30.24</v>
+        <v>33.239999999999995</v>
       </c>
       <c r="I68" s="111">
         <f t="shared" ref="I68:BW68" si="143">I12*I$7</f>
@@ -27372,11 +27510,11 @@
       </c>
       <c r="Q68" s="111">
         <f t="shared" si="143"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R68" s="111">
         <f t="shared" si="143"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S68" s="111">
         <f t="shared" si="143"/>
@@ -27388,11 +27526,11 @@
       </c>
       <c r="U68" s="111">
         <f t="shared" si="143"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="V68" s="111">
         <f t="shared" si="143"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W68" s="111">
         <f t="shared" si="143"/>
@@ -27674,7 +27812,7 @@
     <row r="69" spans="4:91" x14ac:dyDescent="0.25">
       <c r="H69" s="111">
         <f t="shared" si="126"/>
-        <v>32.39</v>
+        <v>37.89</v>
       </c>
       <c r="I69" s="111">
         <f t="shared" ref="I69:BW69" si="147">I13*I$7</f>
@@ -27710,27 +27848,27 @@
       </c>
       <c r="Q69" s="111">
         <f t="shared" si="147"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R69" s="111">
         <f t="shared" si="147"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S69" s="111">
         <f t="shared" si="147"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T69" s="111">
         <f t="shared" si="147"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U69" s="111">
         <f t="shared" si="147"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V69" s="111">
         <f t="shared" si="147"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W69" s="111">
         <f t="shared" si="147"/>
@@ -28012,7 +28150,7 @@
     <row r="70" spans="4:91" x14ac:dyDescent="0.25">
       <c r="H70" s="111">
         <f t="shared" si="126"/>
-        <v>22</v>
+        <v>26.75</v>
       </c>
       <c r="I70" s="111">
         <f t="shared" ref="I70:BW70" si="151">I14*I$7</f>
@@ -28048,27 +28186,27 @@
       </c>
       <c r="Q70" s="111">
         <f t="shared" si="151"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R70" s="111">
         <f t="shared" si="151"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S70" s="111">
         <f t="shared" si="151"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="T70" s="111">
         <f t="shared" si="151"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U70" s="111">
         <f t="shared" si="151"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V70" s="111">
         <f t="shared" si="151"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W70" s="111">
         <f t="shared" si="151"/>
@@ -28350,7 +28488,7 @@
     <row r="71" spans="4:91" x14ac:dyDescent="0.25">
       <c r="H71" s="111">
         <f t="shared" si="126"/>
-        <v>31.5</v>
+        <v>37.5</v>
       </c>
       <c r="I71" s="111">
         <f t="shared" ref="I71:BW71" si="155">I15*I$7</f>
@@ -28386,27 +28524,27 @@
       </c>
       <c r="Q71" s="111">
         <f t="shared" si="155"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R71" s="111">
         <f t="shared" si="155"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S71" s="111">
         <f t="shared" si="155"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T71" s="111">
         <f t="shared" si="155"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U71" s="111">
         <f t="shared" si="155"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V71" s="111">
         <f t="shared" si="155"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W71" s="111">
         <f t="shared" si="155"/>
@@ -28688,7 +28826,7 @@
     <row r="72" spans="4:91" x14ac:dyDescent="0.25">
       <c r="H72" s="111">
         <f t="shared" si="126"/>
-        <v>24.5</v>
+        <v>26.5</v>
       </c>
       <c r="I72" s="111">
         <f t="shared" ref="I72:BW72" si="159">I16*I$7</f>
@@ -28732,19 +28870,19 @@
       </c>
       <c r="S72" s="111">
         <f t="shared" si="159"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="T72" s="111">
         <f t="shared" si="159"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="U72" s="111">
         <f t="shared" si="159"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V72" s="111">
         <f t="shared" si="159"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="W72" s="111">
         <f t="shared" si="159"/>
@@ -29026,7 +29164,7 @@
     <row r="73" spans="4:91" x14ac:dyDescent="0.25">
       <c r="H73" s="111">
         <f t="shared" si="126"/>
-        <v>32.489999999999995</v>
+        <v>34.489999999999995</v>
       </c>
       <c r="I73" s="111">
         <f t="shared" ref="I73:BW73" si="163">I17*I$7</f>
@@ -29062,7 +29200,7 @@
       </c>
       <c r="Q73" s="111">
         <f t="shared" si="163"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R73" s="111">
         <f t="shared" si="163"/>
@@ -29082,7 +29220,7 @@
       </c>
       <c r="V73" s="111">
         <f t="shared" si="163"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W73" s="111">
         <f t="shared" si="163"/>
@@ -29364,7 +29502,7 @@
     <row r="74" spans="4:91" x14ac:dyDescent="0.25">
       <c r="H74" s="111">
         <f t="shared" si="126"/>
-        <v>28.74</v>
+        <v>31.74</v>
       </c>
       <c r="I74" s="111">
         <f t="shared" ref="I74:BW74" si="167">I18*I$7</f>
@@ -29400,7 +29538,7 @@
       </c>
       <c r="Q74" s="111">
         <f t="shared" si="167"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R74" s="111">
         <f t="shared" si="167"/>
@@ -29408,11 +29546,11 @@
       </c>
       <c r="S74" s="111">
         <f t="shared" si="167"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T74" s="111">
         <f t="shared" si="167"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U74" s="111">
         <f t="shared" si="167"/>
@@ -34117,7 +34255,7 @@
     <row r="88" spans="4:91" x14ac:dyDescent="0.25">
       <c r="H88" s="111">
         <f t="shared" si="126"/>
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="I88" s="111">
         <f t="shared" ref="I88:BW88" si="223">I32*I$7</f>
@@ -34149,7 +34287,7 @@
       </c>
       <c r="P88" s="111">
         <f t="shared" si="223"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q88" s="111">
         <f t="shared" si="223"/>
@@ -34289,7 +34427,7 @@
       </c>
       <c r="AY88" s="111">
         <f t="shared" si="223"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ88" s="111">
         <f t="shared" si="223"/>
@@ -34305,11 +34443,11 @@
       </c>
       <c r="BC88" s="111">
         <f t="shared" si="223"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD88" s="111">
         <f t="shared" si="223"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE88" s="111">
         <f t="shared" si="223"/>
@@ -34325,35 +34463,35 @@
       </c>
       <c r="BH88" s="111">
         <f t="shared" si="223"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI88" s="111">
         <f t="shared" si="223"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ88" s="111">
         <f t="shared" si="223"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK88" s="111">
         <f t="shared" si="223"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL88" s="111">
         <f t="shared" si="223"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM88" s="111">
         <f t="shared" si="223"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN88" s="111">
         <f t="shared" si="223"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO88" s="111">
         <f t="shared" si="223"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP88" s="111">
         <f t="shared" si="223"/>
@@ -34361,7 +34499,7 @@
       </c>
       <c r="BQ88" s="111">
         <f t="shared" si="223"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR88" s="111">
         <f t="shared" si="223"/>

--- a/BaremeJavaBaseTest2_KL16.xlsx
+++ b/BaremeJavaBaseTest2_KL16.xlsx
@@ -3509,10 +3509,148 @@
     <xf numFmtId="2" fontId="3" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3542,61 +3680,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3605,115 +3692,31 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3723,9 +3726,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3761,7 +3761,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -10780,8 +10780,8 @@
       <pane xSplit="2325" ySplit="3630" topLeftCell="D8" activePane="bottomRight"/>
       <selection activeCell="D4" sqref="D4"/>
       <selection pane="topRight" activeCell="O6" sqref="O6"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16:XFD16"/>
-      <selection pane="bottomRight" activeCell="R18" sqref="R18"/>
+      <selection pane="bottomLeft" activeCell="A19" sqref="A19:XFD19"/>
+      <selection pane="bottomRight" activeCell="U22" sqref="U22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -10844,96 +10844,96 @@
       <c r="D1" s="125"/>
       <c r="E1" s="18"/>
       <c r="F1" s="18"/>
-      <c r="I1" s="170" t="s">
+      <c r="I1" s="136" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="170"/>
-      <c r="K1" s="170"/>
-      <c r="L1" s="170"/>
-      <c r="M1" s="170"/>
-      <c r="N1" s="170"/>
-      <c r="O1" s="170"/>
-      <c r="P1" s="170"/>
-      <c r="Q1" s="180" t="s">
+      <c r="J1" s="136"/>
+      <c r="K1" s="136"/>
+      <c r="L1" s="136"/>
+      <c r="M1" s="136"/>
+      <c r="N1" s="136"/>
+      <c r="O1" s="136"/>
+      <c r="P1" s="136"/>
+      <c r="Q1" s="147" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="180"/>
-      <c r="S1" s="180"/>
-      <c r="T1" s="180"/>
-      <c r="U1" s="180"/>
-      <c r="V1" s="180"/>
-      <c r="W1" s="188" t="s">
+      <c r="R1" s="147"/>
+      <c r="S1" s="147"/>
+      <c r="T1" s="147"/>
+      <c r="U1" s="147"/>
+      <c r="V1" s="147"/>
+      <c r="W1" s="138" t="s">
         <v>103</v>
       </c>
-      <c r="X1" s="188"/>
-      <c r="Y1" s="188"/>
-      <c r="Z1" s="188"/>
-      <c r="AA1" s="188"/>
-      <c r="AB1" s="188"/>
-      <c r="AC1" s="188"/>
-      <c r="AD1" s="188"/>
-      <c r="AE1" s="188"/>
-      <c r="AF1" s="188"/>
-      <c r="AG1" s="188"/>
-      <c r="AH1" s="188"/>
-      <c r="AI1" s="188"/>
-      <c r="AJ1" s="188"/>
-      <c r="AK1" s="188"/>
-      <c r="AL1" s="188"/>
-      <c r="AM1" s="188"/>
-      <c r="AN1" s="188"/>
-      <c r="AO1" s="188"/>
-      <c r="AP1" s="188"/>
-      <c r="AQ1" s="188"/>
-      <c r="AR1" s="188"/>
-      <c r="AS1" s="188"/>
-      <c r="AT1" s="188"/>
-      <c r="AU1" s="188"/>
-      <c r="AV1" s="188"/>
-      <c r="AW1" s="188"/>
-      <c r="AX1" s="188"/>
-      <c r="AY1" s="188"/>
-      <c r="AZ1" s="188"/>
-      <c r="BA1" s="188"/>
-      <c r="BB1" s="188"/>
-      <c r="BC1" s="188"/>
-      <c r="BD1" s="188"/>
-      <c r="BE1" s="188"/>
-      <c r="BF1" s="188"/>
-      <c r="BG1" s="188"/>
-      <c r="BH1" s="188"/>
-      <c r="BI1" s="188"/>
-      <c r="BJ1" s="188"/>
-      <c r="BK1" s="188"/>
-      <c r="BL1" s="188"/>
-      <c r="BM1" s="188"/>
-      <c r="BN1" s="188"/>
-      <c r="BO1" s="188"/>
-      <c r="BP1" s="188"/>
-      <c r="BQ1" s="188"/>
-      <c r="BR1" s="188" t="s">
+      <c r="X1" s="138"/>
+      <c r="Y1" s="138"/>
+      <c r="Z1" s="138"/>
+      <c r="AA1" s="138"/>
+      <c r="AB1" s="138"/>
+      <c r="AC1" s="138"/>
+      <c r="AD1" s="138"/>
+      <c r="AE1" s="138"/>
+      <c r="AF1" s="138"/>
+      <c r="AG1" s="138"/>
+      <c r="AH1" s="138"/>
+      <c r="AI1" s="138"/>
+      <c r="AJ1" s="138"/>
+      <c r="AK1" s="138"/>
+      <c r="AL1" s="138"/>
+      <c r="AM1" s="138"/>
+      <c r="AN1" s="138"/>
+      <c r="AO1" s="138"/>
+      <c r="AP1" s="138"/>
+      <c r="AQ1" s="138"/>
+      <c r="AR1" s="138"/>
+      <c r="AS1" s="138"/>
+      <c r="AT1" s="138"/>
+      <c r="AU1" s="138"/>
+      <c r="AV1" s="138"/>
+      <c r="AW1" s="138"/>
+      <c r="AX1" s="138"/>
+      <c r="AY1" s="138"/>
+      <c r="AZ1" s="138"/>
+      <c r="BA1" s="138"/>
+      <c r="BB1" s="138"/>
+      <c r="BC1" s="138"/>
+      <c r="BD1" s="138"/>
+      <c r="BE1" s="138"/>
+      <c r="BF1" s="138"/>
+      <c r="BG1" s="138"/>
+      <c r="BH1" s="138"/>
+      <c r="BI1" s="138"/>
+      <c r="BJ1" s="138"/>
+      <c r="BK1" s="138"/>
+      <c r="BL1" s="138"/>
+      <c r="BM1" s="138"/>
+      <c r="BN1" s="138"/>
+      <c r="BO1" s="138"/>
+      <c r="BP1" s="138"/>
+      <c r="BQ1" s="138"/>
+      <c r="BR1" s="138" t="s">
         <v>102</v>
       </c>
-      <c r="BS1" s="188"/>
-      <c r="BT1" s="188"/>
-      <c r="BU1" s="188"/>
-      <c r="BV1" s="188"/>
-      <c r="BW1" s="188"/>
-      <c r="BX1" s="188" t="s">
+      <c r="BS1" s="138"/>
+      <c r="BT1" s="138"/>
+      <c r="BU1" s="138"/>
+      <c r="BV1" s="138"/>
+      <c r="BW1" s="138"/>
+      <c r="BX1" s="138" t="s">
         <v>104</v>
       </c>
-      <c r="BY1" s="188"/>
-      <c r="BZ1" s="188"/>
-      <c r="CA1" s="188"/>
-      <c r="CB1" s="188"/>
-      <c r="CC1" s="188"/>
-      <c r="CD1" s="188"/>
-      <c r="CE1" s="188"/>
-      <c r="CF1" s="188"/>
-      <c r="CG1" s="188"/>
-      <c r="CH1" s="188"/>
-      <c r="CI1" s="188"/>
-      <c r="CJ1" s="188"/>
+      <c r="BY1" s="138"/>
+      <c r="BZ1" s="138"/>
+      <c r="CA1" s="138"/>
+      <c r="CB1" s="138"/>
+      <c r="CC1" s="138"/>
+      <c r="CD1" s="138"/>
+      <c r="CE1" s="138"/>
+      <c r="CF1" s="138"/>
+      <c r="CG1" s="138"/>
+      <c r="CH1" s="138"/>
+      <c r="CI1" s="138"/>
+      <c r="CJ1" s="138"/>
       <c r="CK1" s="109"/>
     </row>
     <row r="2" spans="1:91" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -10945,113 +10945,113 @@
       <c r="F2" s="56"/>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="133"/>
-      <c r="K2" s="133"/>
-      <c r="L2" s="133"/>
-      <c r="M2" s="133"/>
-      <c r="N2" s="133"/>
-      <c r="O2" s="133"/>
-      <c r="P2" s="133"/>
-      <c r="Q2" s="170"/>
-      <c r="R2" s="170"/>
-      <c r="S2" s="170"/>
-      <c r="T2" s="170"/>
-      <c r="U2" s="170"/>
-      <c r="V2" s="170"/>
-      <c r="W2" s="156" t="s">
+      <c r="I2" s="137"/>
+      <c r="J2" s="137"/>
+      <c r="K2" s="137"/>
+      <c r="L2" s="137"/>
+      <c r="M2" s="137"/>
+      <c r="N2" s="137"/>
+      <c r="O2" s="137"/>
+      <c r="P2" s="137"/>
+      <c r="Q2" s="136"/>
+      <c r="R2" s="136"/>
+      <c r="S2" s="136"/>
+      <c r="T2" s="136"/>
+      <c r="U2" s="136"/>
+      <c r="V2" s="136"/>
+      <c r="W2" s="141" t="s">
         <v>4</v>
       </c>
-      <c r="X2" s="157"/>
-      <c r="Y2" s="158"/>
-      <c r="Z2" s="158"/>
-      <c r="AA2" s="158"/>
-      <c r="AB2" s="158"/>
-      <c r="AC2" s="158"/>
-      <c r="AD2" s="158"/>
-      <c r="AE2" s="158"/>
-      <c r="AF2" s="158"/>
-      <c r="AG2" s="158"/>
-      <c r="AH2" s="158"/>
-      <c r="AI2" s="158"/>
-      <c r="AJ2" s="158"/>
-      <c r="AK2" s="158"/>
-      <c r="AL2" s="158"/>
-      <c r="AM2" s="158"/>
-      <c r="AN2" s="158"/>
-      <c r="AO2" s="159"/>
-      <c r="AP2" s="189" t="s">
+      <c r="X2" s="190"/>
+      <c r="Y2" s="143"/>
+      <c r="Z2" s="143"/>
+      <c r="AA2" s="143"/>
+      <c r="AB2" s="143"/>
+      <c r="AC2" s="143"/>
+      <c r="AD2" s="143"/>
+      <c r="AE2" s="143"/>
+      <c r="AF2" s="143"/>
+      <c r="AG2" s="143"/>
+      <c r="AH2" s="143"/>
+      <c r="AI2" s="143"/>
+      <c r="AJ2" s="143"/>
+      <c r="AK2" s="143"/>
+      <c r="AL2" s="143"/>
+      <c r="AM2" s="143"/>
+      <c r="AN2" s="143"/>
+      <c r="AO2" s="145"/>
+      <c r="AP2" s="139" t="s">
         <v>12</v>
       </c>
-      <c r="AQ2" s="133"/>
-      <c r="AR2" s="133"/>
-      <c r="AS2" s="190"/>
-      <c r="AT2" s="132" t="s">
+      <c r="AQ2" s="137"/>
+      <c r="AR2" s="137"/>
+      <c r="AS2" s="140"/>
+      <c r="AT2" s="179" t="s">
         <v>6</v>
       </c>
-      <c r="AU2" s="133"/>
-      <c r="AV2" s="133"/>
-      <c r="AW2" s="169" t="s">
+      <c r="AU2" s="137"/>
+      <c r="AV2" s="137"/>
+      <c r="AW2" s="155" t="s">
         <v>101</v>
       </c>
-      <c r="AX2" s="170"/>
-      <c r="AY2" s="170"/>
-      <c r="AZ2" s="170"/>
-      <c r="BA2" s="170"/>
-      <c r="BB2" s="170"/>
-      <c r="BC2" s="170"/>
-      <c r="BD2" s="170"/>
-      <c r="BE2" s="170"/>
-      <c r="BF2" s="170"/>
-      <c r="BG2" s="170"/>
-      <c r="BH2" s="171"/>
-      <c r="BI2" s="169" t="s">
+      <c r="AX2" s="136"/>
+      <c r="AY2" s="136"/>
+      <c r="AZ2" s="136"/>
+      <c r="BA2" s="136"/>
+      <c r="BB2" s="136"/>
+      <c r="BC2" s="136"/>
+      <c r="BD2" s="136"/>
+      <c r="BE2" s="136"/>
+      <c r="BF2" s="136"/>
+      <c r="BG2" s="136"/>
+      <c r="BH2" s="156"/>
+      <c r="BI2" s="155" t="s">
         <v>105</v>
       </c>
-      <c r="BJ2" s="170"/>
-      <c r="BK2" s="170"/>
-      <c r="BL2" s="170"/>
-      <c r="BM2" s="170"/>
-      <c r="BN2" s="170"/>
-      <c r="BO2" s="170"/>
-      <c r="BP2" s="170"/>
-      <c r="BQ2" s="171"/>
-      <c r="BR2" s="156" t="s">
+      <c r="BJ2" s="136"/>
+      <c r="BK2" s="136"/>
+      <c r="BL2" s="136"/>
+      <c r="BM2" s="136"/>
+      <c r="BN2" s="136"/>
+      <c r="BO2" s="136"/>
+      <c r="BP2" s="136"/>
+      <c r="BQ2" s="156"/>
+      <c r="BR2" s="141" t="s">
         <v>106</v>
       </c>
-      <c r="BS2" s="158" t="s">
+      <c r="BS2" s="143" t="s">
         <v>107</v>
       </c>
-      <c r="BT2" s="158"/>
-      <c r="BU2" s="158" t="s">
+      <c r="BT2" s="143"/>
+      <c r="BU2" s="143" t="s">
         <v>108</v>
       </c>
-      <c r="BV2" s="158" t="s">
+      <c r="BV2" s="143" t="s">
         <v>109</v>
       </c>
-      <c r="BW2" s="159"/>
-      <c r="BX2" s="169" t="s">
+      <c r="BW2" s="145"/>
+      <c r="BX2" s="155" t="s">
         <v>110</v>
       </c>
-      <c r="BY2" s="170"/>
-      <c r="BZ2" s="170"/>
-      <c r="CA2" s="170"/>
-      <c r="CB2" s="170"/>
-      <c r="CC2" s="170"/>
-      <c r="CD2" s="170"/>
-      <c r="CE2" s="170"/>
-      <c r="CF2" s="170"/>
-      <c r="CG2" s="170"/>
-      <c r="CH2" s="170"/>
-      <c r="CI2" s="170"/>
-      <c r="CJ2" s="171"/>
-      <c r="CK2" s="176" t="s">
+      <c r="BY2" s="136"/>
+      <c r="BZ2" s="136"/>
+      <c r="CA2" s="136"/>
+      <c r="CB2" s="136"/>
+      <c r="CC2" s="136"/>
+      <c r="CD2" s="136"/>
+      <c r="CE2" s="136"/>
+      <c r="CF2" s="136"/>
+      <c r="CG2" s="136"/>
+      <c r="CH2" s="136"/>
+      <c r="CI2" s="136"/>
+      <c r="CJ2" s="156"/>
+      <c r="CK2" s="177" t="s">
         <v>13</v>
       </c>
-      <c r="CL2" s="168" t="s">
+      <c r="CL2" s="176" t="s">
         <v>174</v>
       </c>
-      <c r="CM2" s="168"/>
+      <c r="CM2" s="176"/>
     </row>
     <row r="3" spans="1:91" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
@@ -11062,129 +11062,129 @@
       <c r="F3" s="56"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
-      <c r="I3" s="140" t="s">
+      <c r="I3" s="186" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="143" t="s">
+      <c r="J3" s="167" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="143" t="s">
+      <c r="K3" s="167" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="140" t="s">
+      <c r="L3" s="186" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="140" t="s">
+      <c r="M3" s="186" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="143" t="s">
+      <c r="N3" s="167" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="137" t="s">
+      <c r="O3" s="183" t="s">
         <v>72</v>
       </c>
-      <c r="P3" s="143" t="s">
+      <c r="P3" s="167" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="170"/>
-      <c r="R3" s="170"/>
-      <c r="S3" s="170"/>
-      <c r="T3" s="170"/>
-      <c r="U3" s="170"/>
-      <c r="V3" s="170"/>
-      <c r="W3" s="150" t="s">
+      <c r="Q3" s="136"/>
+      <c r="R3" s="136"/>
+      <c r="S3" s="136"/>
+      <c r="T3" s="136"/>
+      <c r="U3" s="136"/>
+      <c r="V3" s="136"/>
+      <c r="W3" s="174" t="s">
         <v>92</v>
       </c>
-      <c r="X3" s="151"/>
-      <c r="Y3" s="151"/>
-      <c r="Z3" s="151"/>
-      <c r="AA3" s="151"/>
-      <c r="AB3" s="134" t="s">
+      <c r="X3" s="149"/>
+      <c r="Y3" s="149"/>
+      <c r="Z3" s="149"/>
+      <c r="AA3" s="149"/>
+      <c r="AB3" s="180" t="s">
         <v>112</v>
       </c>
-      <c r="AC3" s="160"/>
-      <c r="AD3" s="161"/>
-      <c r="AE3" s="161"/>
-      <c r="AF3" s="161"/>
-      <c r="AG3" s="161"/>
-      <c r="AH3" s="161"/>
-      <c r="AI3" s="161"/>
-      <c r="AJ3" s="166" t="s">
+      <c r="AC3" s="162"/>
+      <c r="AD3" s="158"/>
+      <c r="AE3" s="158"/>
+      <c r="AF3" s="158"/>
+      <c r="AG3" s="158"/>
+      <c r="AH3" s="158"/>
+      <c r="AI3" s="158"/>
+      <c r="AJ3" s="193" t="s">
         <v>113</v>
       </c>
-      <c r="AK3" s="151"/>
-      <c r="AL3" s="151"/>
-      <c r="AM3" s="151"/>
-      <c r="AN3" s="151"/>
-      <c r="AO3" s="167"/>
-      <c r="AP3" s="150" t="s">
+      <c r="AK3" s="149"/>
+      <c r="AL3" s="149"/>
+      <c r="AM3" s="149"/>
+      <c r="AN3" s="149"/>
+      <c r="AO3" s="150"/>
+      <c r="AP3" s="174" t="s">
         <v>5</v>
       </c>
-      <c r="AQ3" s="151"/>
-      <c r="AR3" s="151"/>
-      <c r="AS3" s="134" t="s">
+      <c r="AQ3" s="149"/>
+      <c r="AR3" s="149"/>
+      <c r="AS3" s="180" t="s">
         <v>22</v>
       </c>
-      <c r="AT3" s="143" t="s">
+      <c r="AT3" s="167" t="s">
         <v>7</v>
       </c>
-      <c r="AU3" s="180"/>
-      <c r="AV3" s="180"/>
-      <c r="AW3" s="185" t="s">
+      <c r="AU3" s="147"/>
+      <c r="AV3" s="147"/>
+      <c r="AW3" s="163" t="s">
         <v>133</v>
       </c>
-      <c r="AX3" s="187" t="s">
+      <c r="AX3" s="165" t="s">
         <v>8</v>
       </c>
-      <c r="AY3" s="184" t="s">
+      <c r="AY3" s="148" t="s">
         <v>121</v>
       </c>
-      <c r="AZ3" s="151"/>
-      <c r="BA3" s="151"/>
-      <c r="BB3" s="151"/>
-      <c r="BC3" s="160"/>
-      <c r="BD3" s="184" t="s">
+      <c r="AZ3" s="149"/>
+      <c r="BA3" s="149"/>
+      <c r="BB3" s="149"/>
+      <c r="BC3" s="162"/>
+      <c r="BD3" s="148" t="s">
         <v>123</v>
       </c>
-      <c r="BE3" s="151"/>
-      <c r="BF3" s="151"/>
-      <c r="BG3" s="151"/>
-      <c r="BH3" s="167"/>
-      <c r="BI3" s="172" t="s">
+      <c r="BE3" s="149"/>
+      <c r="BF3" s="149"/>
+      <c r="BG3" s="149"/>
+      <c r="BH3" s="150"/>
+      <c r="BI3" s="157" t="s">
         <v>71</v>
       </c>
-      <c r="BJ3" s="161"/>
-      <c r="BK3" s="161"/>
-      <c r="BL3" s="161"/>
-      <c r="BM3" s="161"/>
-      <c r="BN3" s="161"/>
-      <c r="BO3" s="161"/>
-      <c r="BP3" s="184"/>
-      <c r="BQ3" s="173"/>
-      <c r="BR3" s="191"/>
-      <c r="BS3" s="192"/>
-      <c r="BT3" s="192"/>
-      <c r="BU3" s="192"/>
-      <c r="BV3" s="192"/>
-      <c r="BW3" s="193"/>
-      <c r="BX3" s="172" t="s">
+      <c r="BJ3" s="158"/>
+      <c r="BK3" s="158"/>
+      <c r="BL3" s="158"/>
+      <c r="BM3" s="158"/>
+      <c r="BN3" s="158"/>
+      <c r="BO3" s="158"/>
+      <c r="BP3" s="148"/>
+      <c r="BQ3" s="159"/>
+      <c r="BR3" s="142"/>
+      <c r="BS3" s="144"/>
+      <c r="BT3" s="144"/>
+      <c r="BU3" s="144"/>
+      <c r="BV3" s="144"/>
+      <c r="BW3" s="146"/>
+      <c r="BX3" s="157" t="s">
         <v>111</v>
       </c>
-      <c r="BY3" s="161"/>
-      <c r="BZ3" s="161"/>
-      <c r="CA3" s="161"/>
-      <c r="CB3" s="161"/>
-      <c r="CC3" s="161"/>
-      <c r="CD3" s="161"/>
-      <c r="CE3" s="161"/>
-      <c r="CF3" s="161"/>
-      <c r="CG3" s="161"/>
-      <c r="CH3" s="161"/>
-      <c r="CI3" s="161"/>
-      <c r="CJ3" s="173"/>
-      <c r="CK3" s="169"/>
-      <c r="CL3" s="168"/>
-      <c r="CM3" s="168"/>
+      <c r="BY3" s="158"/>
+      <c r="BZ3" s="158"/>
+      <c r="CA3" s="158"/>
+      <c r="CB3" s="158"/>
+      <c r="CC3" s="158"/>
+      <c r="CD3" s="158"/>
+      <c r="CE3" s="158"/>
+      <c r="CF3" s="158"/>
+      <c r="CG3" s="158"/>
+      <c r="CH3" s="158"/>
+      <c r="CI3" s="158"/>
+      <c r="CJ3" s="159"/>
+      <c r="CK3" s="155"/>
+      <c r="CL3" s="176"/>
+      <c r="CM3" s="176"/>
     </row>
     <row r="4" spans="1:91" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -11213,15 +11213,15 @@
         <f>CONCATENATE("Note/",H6)</f>
         <v>Note/192</v>
       </c>
-      <c r="I4" s="141"/>
-      <c r="J4" s="144"/>
-      <c r="K4" s="144"/>
-      <c r="L4" s="141"/>
-      <c r="M4" s="141"/>
-      <c r="N4" s="144"/>
-      <c r="O4" s="138"/>
-      <c r="P4" s="144"/>
-      <c r="Q4" s="181" t="s">
+      <c r="I4" s="187"/>
+      <c r="J4" s="166"/>
+      <c r="K4" s="166"/>
+      <c r="L4" s="187"/>
+      <c r="M4" s="187"/>
+      <c r="N4" s="166"/>
+      <c r="O4" s="184"/>
+      <c r="P4" s="166"/>
+      <c r="Q4" s="168" t="s">
         <v>138</v>
       </c>
       <c r="R4" s="78" t="s">
@@ -11239,193 +11239,193 @@
       <c r="V4" s="75" t="s">
         <v>91</v>
       </c>
-      <c r="W4" s="162" t="s">
+      <c r="W4" s="191" t="s">
         <v>52</v>
       </c>
-      <c r="X4" s="146" t="s">
+      <c r="X4" s="172" t="s">
         <v>10</v>
       </c>
-      <c r="Y4" s="174" t="s">
+      <c r="Y4" s="151" t="s">
         <v>11</v>
       </c>
-      <c r="Z4" s="154" t="s">
+      <c r="Z4" s="132" t="s">
         <v>70</v>
       </c>
-      <c r="AA4" s="174" t="s">
+      <c r="AA4" s="151" t="s">
         <v>73</v>
       </c>
-      <c r="AB4" s="164" t="s">
+      <c r="AB4" s="170" t="s">
         <v>52</v>
       </c>
-      <c r="AC4" s="146" t="s">
+      <c r="AC4" s="172" t="s">
         <v>10</v>
       </c>
-      <c r="AD4" s="146" t="s">
+      <c r="AD4" s="172" t="s">
         <v>11</v>
       </c>
-      <c r="AE4" s="154" t="s">
+      <c r="AE4" s="132" t="s">
         <v>171</v>
       </c>
-      <c r="AF4" s="154" t="s">
+      <c r="AF4" s="132" t="s">
         <v>172</v>
       </c>
-      <c r="AG4" s="154" t="s">
+      <c r="AG4" s="132" t="s">
         <v>173</v>
       </c>
-      <c r="AH4" s="154" t="s">
+      <c r="AH4" s="132" t="s">
         <v>70</v>
       </c>
-      <c r="AI4" s="174" t="s">
+      <c r="AI4" s="151" t="s">
         <v>73</v>
       </c>
-      <c r="AJ4" s="164" t="s">
+      <c r="AJ4" s="170" t="s">
         <v>52</v>
       </c>
-      <c r="AK4" s="146" t="s">
+      <c r="AK4" s="172" t="s">
         <v>10</v>
       </c>
-      <c r="AL4" s="146" t="s">
+      <c r="AL4" s="172" t="s">
         <v>11</v>
       </c>
-      <c r="AM4" s="154" t="s">
+      <c r="AM4" s="132" t="s">
         <v>172</v>
       </c>
-      <c r="AN4" s="154" t="s">
+      <c r="AN4" s="132" t="s">
         <v>70</v>
       </c>
-      <c r="AO4" s="152" t="s">
+      <c r="AO4" s="160" t="s">
         <v>73</v>
       </c>
-      <c r="AP4" s="148" t="s">
+      <c r="AP4" s="153" t="s">
         <v>114</v>
       </c>
-      <c r="AQ4" s="178" t="s">
+      <c r="AQ4" s="134" t="s">
         <v>115</v>
       </c>
-      <c r="AR4" s="179"/>
-      <c r="AS4" s="135"/>
-      <c r="AT4" s="144"/>
-      <c r="AU4" s="170"/>
-      <c r="AV4" s="170"/>
-      <c r="AW4" s="156"/>
-      <c r="AX4" s="158"/>
-      <c r="AY4" s="174" t="s">
+      <c r="AR4" s="135"/>
+      <c r="AS4" s="181"/>
+      <c r="AT4" s="166"/>
+      <c r="AU4" s="136"/>
+      <c r="AV4" s="136"/>
+      <c r="AW4" s="141"/>
+      <c r="AX4" s="143"/>
+      <c r="AY4" s="151" t="s">
         <v>96</v>
       </c>
-      <c r="AZ4" s="174" t="s">
+      <c r="AZ4" s="151" t="s">
         <v>119</v>
       </c>
-      <c r="BA4" s="174" t="s">
+      <c r="BA4" s="151" t="s">
         <v>122</v>
       </c>
-      <c r="BB4" s="174" t="s">
+      <c r="BB4" s="151" t="s">
         <v>124</v>
       </c>
-      <c r="BC4" s="174" t="s">
+      <c r="BC4" s="151" t="s">
         <v>120</v>
       </c>
-      <c r="BD4" s="174" t="s">
+      <c r="BD4" s="151" t="s">
         <v>96</v>
       </c>
-      <c r="BE4" s="174" t="s">
+      <c r="BE4" s="151" t="s">
         <v>119</v>
       </c>
-      <c r="BF4" s="174" t="s">
+      <c r="BF4" s="151" t="s">
         <v>122</v>
       </c>
-      <c r="BG4" s="174" t="s">
+      <c r="BG4" s="151" t="s">
         <v>124</v>
       </c>
-      <c r="BH4" s="174" t="s">
+      <c r="BH4" s="151" t="s">
         <v>120</v>
       </c>
-      <c r="BI4" s="148" t="s">
+      <c r="BI4" s="153" t="s">
         <v>125</v>
       </c>
-      <c r="BJ4" s="174" t="s">
+      <c r="BJ4" s="151" t="s">
         <v>132</v>
       </c>
-      <c r="BK4" s="174" t="s">
+      <c r="BK4" s="151" t="s">
         <v>126</v>
       </c>
-      <c r="BL4" s="174" t="s">
+      <c r="BL4" s="151" t="s">
         <v>127</v>
       </c>
-      <c r="BM4" s="174" t="s">
+      <c r="BM4" s="151" t="s">
         <v>128</v>
       </c>
-      <c r="BN4" s="174" t="s">
+      <c r="BN4" s="151" t="s">
         <v>129</v>
       </c>
-      <c r="BO4" s="174" t="s">
+      <c r="BO4" s="151" t="s">
         <v>130</v>
       </c>
-      <c r="BP4" s="174" t="s">
+      <c r="BP4" s="151" t="s">
         <v>116</v>
       </c>
-      <c r="BQ4" s="152" t="s">
+      <c r="BQ4" s="160" t="s">
         <v>131</v>
       </c>
-      <c r="BR4" s="148" t="s">
+      <c r="BR4" s="153" t="s">
         <v>96</v>
       </c>
-      <c r="BS4" s="174" t="s">
+      <c r="BS4" s="151" t="s">
         <v>97</v>
       </c>
-      <c r="BT4" s="174" t="s">
+      <c r="BT4" s="151" t="s">
         <v>98</v>
       </c>
-      <c r="BU4" s="174" t="s">
+      <c r="BU4" s="151" t="s">
         <v>94</v>
       </c>
-      <c r="BV4" s="174" t="s">
-        <v>99</v>
-      </c>
-      <c r="BW4" s="174" t="s">
+      <c r="BV4" s="151" t="s">
+        <v>99</v>
+      </c>
+      <c r="BW4" s="151" t="s">
         <v>95</v>
       </c>
-      <c r="BX4" s="148" t="s">
+      <c r="BX4" s="153" t="s">
         <v>139</v>
       </c>
-      <c r="BY4" s="174" t="s">
+      <c r="BY4" s="151" t="s">
         <v>140</v>
       </c>
-      <c r="BZ4" s="174" t="s">
+      <c r="BZ4" s="151" t="s">
         <v>141</v>
       </c>
-      <c r="CA4" s="174" t="s">
+      <c r="CA4" s="151" t="s">
         <v>142</v>
       </c>
-      <c r="CB4" s="174" t="s">
+      <c r="CB4" s="151" t="s">
         <v>143</v>
       </c>
-      <c r="CC4" s="174" t="s">
+      <c r="CC4" s="151" t="s">
         <v>144</v>
       </c>
-      <c r="CD4" s="174" t="s">
+      <c r="CD4" s="151" t="s">
         <v>145</v>
       </c>
-      <c r="CE4" s="174" t="s">
+      <c r="CE4" s="151" t="s">
         <v>135</v>
       </c>
-      <c r="CF4" s="174" t="s">
+      <c r="CF4" s="151" t="s">
         <v>146</v>
       </c>
-      <c r="CG4" s="174" t="s">
+      <c r="CG4" s="151" t="s">
         <v>147</v>
       </c>
-      <c r="CH4" s="174" t="s">
+      <c r="CH4" s="151" t="s">
         <v>148</v>
       </c>
-      <c r="CI4" s="174" t="s">
+      <c r="CI4" s="151" t="s">
         <v>149</v>
       </c>
-      <c r="CJ4" s="152" t="s">
+      <c r="CJ4" s="160" t="s">
         <v>150</v>
       </c>
-      <c r="CK4" s="169"/>
-      <c r="CL4" s="168"/>
-      <c r="CM4" s="168"/>
+      <c r="CK4" s="155"/>
+      <c r="CL4" s="176"/>
+      <c r="CM4" s="176"/>
     </row>
     <row r="5" spans="1:91" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
@@ -11436,15 +11436,15 @@
       <c r="F5" s="17"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
-      <c r="I5" s="142"/>
-      <c r="J5" s="145"/>
-      <c r="K5" s="145"/>
-      <c r="L5" s="142"/>
-      <c r="M5" s="142"/>
-      <c r="N5" s="145"/>
-      <c r="O5" s="139"/>
-      <c r="P5" s="132"/>
-      <c r="Q5" s="182"/>
+      <c r="I5" s="188"/>
+      <c r="J5" s="189"/>
+      <c r="K5" s="189"/>
+      <c r="L5" s="188"/>
+      <c r="M5" s="188"/>
+      <c r="N5" s="189"/>
+      <c r="O5" s="185"/>
+      <c r="P5" s="179"/>
+      <c r="Q5" s="169"/>
       <c r="R5" s="89" t="s">
         <v>134</v>
       </c>
@@ -11460,33 +11460,33 @@
       <c r="V5" s="88" t="s">
         <v>137</v>
       </c>
-      <c r="W5" s="163"/>
-      <c r="X5" s="147"/>
-      <c r="Y5" s="175"/>
-      <c r="Z5" s="155"/>
-      <c r="AA5" s="175"/>
-      <c r="AB5" s="165"/>
-      <c r="AC5" s="147"/>
-      <c r="AD5" s="147"/>
-      <c r="AE5" s="155"/>
-      <c r="AF5" s="155"/>
-      <c r="AG5" s="155"/>
-      <c r="AH5" s="155"/>
-      <c r="AI5" s="175"/>
-      <c r="AJ5" s="165"/>
-      <c r="AK5" s="147"/>
-      <c r="AL5" s="147"/>
-      <c r="AM5" s="155"/>
-      <c r="AN5" s="155"/>
-      <c r="AO5" s="153"/>
-      <c r="AP5" s="149"/>
+      <c r="W5" s="192"/>
+      <c r="X5" s="173"/>
+      <c r="Y5" s="152"/>
+      <c r="Z5" s="133"/>
+      <c r="AA5" s="152"/>
+      <c r="AB5" s="171"/>
+      <c r="AC5" s="173"/>
+      <c r="AD5" s="173"/>
+      <c r="AE5" s="133"/>
+      <c r="AF5" s="133"/>
+      <c r="AG5" s="133"/>
+      <c r="AH5" s="133"/>
+      <c r="AI5" s="152"/>
+      <c r="AJ5" s="171"/>
+      <c r="AK5" s="173"/>
+      <c r="AL5" s="173"/>
+      <c r="AM5" s="133"/>
+      <c r="AN5" s="133"/>
+      <c r="AO5" s="161"/>
+      <c r="AP5" s="154"/>
       <c r="AQ5" s="90" t="s">
         <v>93</v>
       </c>
       <c r="AR5" s="90" t="s">
         <v>116</v>
       </c>
-      <c r="AS5" s="136"/>
+      <c r="AS5" s="182"/>
       <c r="AT5" s="98" t="s">
         <v>100</v>
       </c>
@@ -11496,49 +11496,49 @@
       <c r="AV5" s="99" t="s">
         <v>118</v>
       </c>
-      <c r="AW5" s="186"/>
-      <c r="AX5" s="155"/>
-      <c r="AY5" s="175"/>
-      <c r="AZ5" s="175"/>
-      <c r="BA5" s="175"/>
-      <c r="BB5" s="175"/>
-      <c r="BC5" s="175"/>
-      <c r="BD5" s="175"/>
-      <c r="BE5" s="175"/>
-      <c r="BF5" s="175"/>
-      <c r="BG5" s="175"/>
-      <c r="BH5" s="175"/>
-      <c r="BI5" s="149"/>
-      <c r="BJ5" s="175"/>
-      <c r="BK5" s="175"/>
-      <c r="BL5" s="175"/>
-      <c r="BM5" s="175"/>
-      <c r="BN5" s="175"/>
-      <c r="BO5" s="175"/>
-      <c r="BP5" s="175"/>
-      <c r="BQ5" s="153"/>
-      <c r="BR5" s="149"/>
-      <c r="BS5" s="175"/>
-      <c r="BT5" s="175"/>
-      <c r="BU5" s="175"/>
-      <c r="BV5" s="175"/>
-      <c r="BW5" s="175"/>
-      <c r="BX5" s="149"/>
-      <c r="BY5" s="175"/>
-      <c r="BZ5" s="175"/>
-      <c r="CA5" s="175"/>
-      <c r="CB5" s="175"/>
-      <c r="CC5" s="175"/>
-      <c r="CD5" s="175"/>
-      <c r="CE5" s="175"/>
-      <c r="CF5" s="175"/>
-      <c r="CG5" s="175"/>
-      <c r="CH5" s="175"/>
-      <c r="CI5" s="175"/>
-      <c r="CJ5" s="153"/>
-      <c r="CK5" s="177"/>
-      <c r="CL5" s="168"/>
-      <c r="CM5" s="168"/>
+      <c r="AW5" s="164"/>
+      <c r="AX5" s="133"/>
+      <c r="AY5" s="152"/>
+      <c r="AZ5" s="152"/>
+      <c r="BA5" s="152"/>
+      <c r="BB5" s="152"/>
+      <c r="BC5" s="152"/>
+      <c r="BD5" s="152"/>
+      <c r="BE5" s="152"/>
+      <c r="BF5" s="152"/>
+      <c r="BG5" s="152"/>
+      <c r="BH5" s="152"/>
+      <c r="BI5" s="154"/>
+      <c r="BJ5" s="152"/>
+      <c r="BK5" s="152"/>
+      <c r="BL5" s="152"/>
+      <c r="BM5" s="152"/>
+      <c r="BN5" s="152"/>
+      <c r="BO5" s="152"/>
+      <c r="BP5" s="152"/>
+      <c r="BQ5" s="161"/>
+      <c r="BR5" s="154"/>
+      <c r="BS5" s="152"/>
+      <c r="BT5" s="152"/>
+      <c r="BU5" s="152"/>
+      <c r="BV5" s="152"/>
+      <c r="BW5" s="152"/>
+      <c r="BX5" s="154"/>
+      <c r="BY5" s="152"/>
+      <c r="BZ5" s="152"/>
+      <c r="CA5" s="152"/>
+      <c r="CB5" s="152"/>
+      <c r="CC5" s="152"/>
+      <c r="CD5" s="152"/>
+      <c r="CE5" s="152"/>
+      <c r="CF5" s="152"/>
+      <c r="CG5" s="152"/>
+      <c r="CH5" s="152"/>
+      <c r="CI5" s="152"/>
+      <c r="CJ5" s="161"/>
+      <c r="CK5" s="178"/>
+      <c r="CL5" s="176"/>
+      <c r="CM5" s="176"/>
     </row>
     <row r="6" spans="1:91" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -12081,108 +12081,108 @@
       <c r="N8" s="8"/>
       <c r="O8" s="48"/>
       <c r="P8" s="8"/>
-      <c r="Q8" s="144">
+      <c r="Q8" s="166">
         <f>SUM(Q6:V6)</f>
         <v>25</v>
       </c>
-      <c r="R8" s="170"/>
-      <c r="S8" s="170"/>
-      <c r="T8" s="170"/>
-      <c r="U8" s="170"/>
-      <c r="V8" s="170"/>
-      <c r="W8" s="178">
+      <c r="R8" s="136"/>
+      <c r="S8" s="136"/>
+      <c r="T8" s="136"/>
+      <c r="U8" s="136"/>
+      <c r="V8" s="136"/>
+      <c r="W8" s="134">
         <f>SUM(W6:AA6)</f>
         <v>0</v>
       </c>
-      <c r="X8" s="179"/>
-      <c r="Y8" s="179"/>
-      <c r="Z8" s="179"/>
-      <c r="AA8" s="179"/>
-      <c r="AB8" s="178">
+      <c r="X8" s="135"/>
+      <c r="Y8" s="135"/>
+      <c r="Z8" s="135"/>
+      <c r="AA8" s="135"/>
+      <c r="AB8" s="134">
         <f>SUM(AB6:AI6)</f>
         <v>25</v>
       </c>
-      <c r="AC8" s="179"/>
-      <c r="AD8" s="179"/>
-      <c r="AE8" s="179"/>
-      <c r="AF8" s="179"/>
-      <c r="AG8" s="179"/>
-      <c r="AH8" s="179"/>
-      <c r="AI8" s="179"/>
-      <c r="AJ8" s="178">
+      <c r="AC8" s="135"/>
+      <c r="AD8" s="135"/>
+      <c r="AE8" s="135"/>
+      <c r="AF8" s="135"/>
+      <c r="AG8" s="135"/>
+      <c r="AH8" s="135"/>
+      <c r="AI8" s="135"/>
+      <c r="AJ8" s="134">
         <f>SUM(AJ6:AO6)</f>
         <v>9</v>
       </c>
-      <c r="AK8" s="179"/>
-      <c r="AL8" s="179"/>
-      <c r="AM8" s="179"/>
-      <c r="AN8" s="179"/>
-      <c r="AO8" s="183"/>
-      <c r="AP8" s="178">
+      <c r="AK8" s="135"/>
+      <c r="AL8" s="135"/>
+      <c r="AM8" s="135"/>
+      <c r="AN8" s="135"/>
+      <c r="AO8" s="175"/>
+      <c r="AP8" s="134">
         <f>SUM(AP6:AR6)</f>
         <v>2</v>
       </c>
-      <c r="AQ8" s="179"/>
-      <c r="AR8" s="179"/>
+      <c r="AQ8" s="135"/>
+      <c r="AR8" s="135"/>
       <c r="AS8" s="97"/>
-      <c r="AT8" s="178">
+      <c r="AT8" s="134">
         <f>SUM(AT6:AV6)</f>
         <v>5</v>
       </c>
-      <c r="AU8" s="179"/>
-      <c r="AV8" s="179"/>
-      <c r="AW8" s="178">
+      <c r="AU8" s="135"/>
+      <c r="AV8" s="135"/>
+      <c r="AW8" s="134">
         <f>SUM(AW6:BH6)</f>
         <v>17</v>
       </c>
-      <c r="AX8" s="179"/>
-      <c r="AY8" s="179"/>
-      <c r="AZ8" s="179"/>
-      <c r="BA8" s="179"/>
-      <c r="BB8" s="179"/>
-      <c r="BC8" s="179"/>
-      <c r="BD8" s="179"/>
-      <c r="BE8" s="179"/>
-      <c r="BF8" s="179"/>
-      <c r="BG8" s="179"/>
-      <c r="BH8" s="179"/>
-      <c r="BI8" s="178">
+      <c r="AX8" s="135"/>
+      <c r="AY8" s="135"/>
+      <c r="AZ8" s="135"/>
+      <c r="BA8" s="135"/>
+      <c r="BB8" s="135"/>
+      <c r="BC8" s="135"/>
+      <c r="BD8" s="135"/>
+      <c r="BE8" s="135"/>
+      <c r="BF8" s="135"/>
+      <c r="BG8" s="135"/>
+      <c r="BH8" s="135"/>
+      <c r="BI8" s="134">
         <f>SUM(BI6:BQ6)</f>
         <v>28</v>
       </c>
-      <c r="BJ8" s="179"/>
-      <c r="BK8" s="179"/>
-      <c r="BL8" s="179"/>
-      <c r="BM8" s="179"/>
-      <c r="BN8" s="179"/>
-      <c r="BO8" s="179"/>
-      <c r="BP8" s="179"/>
-      <c r="BQ8" s="179"/>
-      <c r="BR8" s="178">
+      <c r="BJ8" s="135"/>
+      <c r="BK8" s="135"/>
+      <c r="BL8" s="135"/>
+      <c r="BM8" s="135"/>
+      <c r="BN8" s="135"/>
+      <c r="BO8" s="135"/>
+      <c r="BP8" s="135"/>
+      <c r="BQ8" s="135"/>
+      <c r="BR8" s="134">
         <f>SUM(BR6:BW6)</f>
         <v>0</v>
       </c>
-      <c r="BS8" s="179"/>
-      <c r="BT8" s="179"/>
-      <c r="BU8" s="179"/>
-      <c r="BV8" s="179"/>
-      <c r="BW8" s="179"/>
-      <c r="BX8" s="178">
+      <c r="BS8" s="135"/>
+      <c r="BT8" s="135"/>
+      <c r="BU8" s="135"/>
+      <c r="BV8" s="135"/>
+      <c r="BW8" s="135"/>
+      <c r="BX8" s="134">
         <f>SUM(BX6:CJ6)</f>
         <v>43</v>
       </c>
-      <c r="BY8" s="179"/>
-      <c r="BZ8" s="179"/>
-      <c r="CA8" s="179"/>
-      <c r="CB8" s="179"/>
-      <c r="CC8" s="179"/>
-      <c r="CD8" s="179"/>
-      <c r="CE8" s="179"/>
-      <c r="CF8" s="179"/>
-      <c r="CG8" s="179"/>
-      <c r="CH8" s="179"/>
-      <c r="CI8" s="179"/>
-      <c r="CJ8" s="179"/>
+      <c r="BY8" s="135"/>
+      <c r="BZ8" s="135"/>
+      <c r="CA8" s="135"/>
+      <c r="CB8" s="135"/>
+      <c r="CC8" s="135"/>
+      <c r="CD8" s="135"/>
+      <c r="CE8" s="135"/>
+      <c r="CF8" s="135"/>
+      <c r="CG8" s="135"/>
+      <c r="CH8" s="135"/>
+      <c r="CI8" s="135"/>
+      <c r="CJ8" s="135"/>
       <c r="CK8" s="2">
         <f>CK6</f>
         <v>1</v>
@@ -14249,20 +14249,20 @@
       <c r="C18" s="4"/>
       <c r="D18" s="130">
         <f t="shared" si="0"/>
-        <v>10.517708333333333</v>
+        <v>11.416145833333333</v>
       </c>
       <c r="E18" s="19">
         <f t="shared" si="1"/>
-        <v>11.335714285714285</v>
+        <v>12.00535714285714</v>
       </c>
       <c r="F18" s="19"/>
       <c r="G18" s="14">
         <f t="shared" si="4"/>
-        <v>31.74</v>
+        <v>33.614999999999995</v>
       </c>
       <c r="H18" s="14">
         <f t="shared" si="3"/>
-        <v>100.97</v>
+        <v>109.595</v>
       </c>
       <c r="I18" s="105">
         <v>0</v>
@@ -14287,15 +14287,21 @@
       <c r="Q18" s="66">
         <v>1</v>
       </c>
-      <c r="R18" s="66"/>
+      <c r="R18" s="66">
+        <v>0.75</v>
+      </c>
       <c r="S18" s="66">
         <v>1</v>
       </c>
       <c r="T18" s="66">
         <v>1</v>
       </c>
-      <c r="U18" s="66"/>
-      <c r="V18" s="66"/>
+      <c r="U18" s="66">
+        <v>0.125</v>
+      </c>
+      <c r="V18" s="66">
+        <v>1</v>
+      </c>
       <c r="W18" s="8">
         <v>99</v>
       </c>
@@ -14502,12 +14508,24 @@
         <v>1</v>
       </c>
       <c r="P19" s="84"/>
-      <c r="Q19" s="84"/>
-      <c r="R19" s="84"/>
-      <c r="S19" s="84"/>
-      <c r="T19" s="84"/>
-      <c r="U19" s="84"/>
-      <c r="V19" s="84"/>
+      <c r="Q19" s="84">
+        <v>0</v>
+      </c>
+      <c r="R19" s="84">
+        <v>0</v>
+      </c>
+      <c r="S19" s="84">
+        <v>0</v>
+      </c>
+      <c r="T19" s="84">
+        <v>0</v>
+      </c>
+      <c r="U19" s="84">
+        <v>0</v>
+      </c>
+      <c r="V19" s="84">
+        <v>0</v>
+      </c>
       <c r="W19" s="84">
         <v>99</v>
       </c>
@@ -14682,20 +14700,20 @@
       <c r="C20" s="113"/>
       <c r="D20" s="130">
         <f t="shared" si="0"/>
-        <v>0.98958333333333326</v>
+        <v>1.0026041666666667</v>
       </c>
       <c r="E20" s="19">
         <f t="shared" si="1"/>
-        <v>2.0982142857142856</v>
+        <v>2.1428571428571428</v>
       </c>
       <c r="F20" s="19"/>
       <c r="G20" s="14">
         <f t="shared" si="4"/>
-        <v>5.875</v>
+        <v>6</v>
       </c>
       <c r="H20" s="14">
         <f t="shared" si="3"/>
-        <v>9.5</v>
+        <v>9.625</v>
       </c>
       <c r="I20" s="105">
         <v>0</v>
@@ -14717,12 +14735,24 @@
         <v>0</v>
       </c>
       <c r="P20" s="103"/>
-      <c r="Q20" s="66"/>
-      <c r="R20" s="66"/>
-      <c r="S20" s="66"/>
-      <c r="T20" s="66"/>
-      <c r="U20" s="66"/>
-      <c r="V20" s="66"/>
+      <c r="Q20" s="66">
+        <v>0.125</v>
+      </c>
+      <c r="R20" s="66">
+        <v>0</v>
+      </c>
+      <c r="S20" s="66">
+        <v>0</v>
+      </c>
+      <c r="T20" s="66">
+        <v>0</v>
+      </c>
+      <c r="U20" s="66">
+        <v>0</v>
+      </c>
+      <c r="V20" s="66">
+        <v>0</v>
+      </c>
       <c r="W20" s="8">
         <v>99</v>
       </c>
@@ -14932,12 +14962,24 @@
         <v>0</v>
       </c>
       <c r="P21" s="103"/>
-      <c r="Q21" s="66"/>
-      <c r="R21" s="66"/>
-      <c r="S21" s="66"/>
-      <c r="T21" s="66"/>
-      <c r="U21" s="66"/>
-      <c r="V21" s="66"/>
+      <c r="Q21" s="66">
+        <v>0</v>
+      </c>
+      <c r="R21" s="66">
+        <v>0</v>
+      </c>
+      <c r="S21" s="66">
+        <v>0</v>
+      </c>
+      <c r="T21" s="66">
+        <v>0</v>
+      </c>
+      <c r="U21" s="66">
+        <v>0</v>
+      </c>
+      <c r="V21" s="66">
+        <v>0</v>
+      </c>
       <c r="W21" s="8">
         <v>99</v>
       </c>
@@ -17569,27 +17611,27 @@
       </c>
       <c r="Q34" s="68">
         <f t="shared" si="7"/>
-        <v>0.81818181818181823</v>
+        <v>0.6517857142857143</v>
       </c>
       <c r="R34" s="68">
         <f t="shared" si="7"/>
-        <v>0.5</v>
+        <v>0.4107142857142857</v>
       </c>
       <c r="S34" s="68">
         <f t="shared" si="7"/>
-        <v>0.57954545454545459</v>
+        <v>0.45535714285714285</v>
       </c>
       <c r="T34" s="68">
         <f t="shared" si="7"/>
-        <v>0.69318181818181823</v>
+        <v>0.5446428571428571</v>
       </c>
       <c r="U34" s="68">
         <f t="shared" si="7"/>
-        <v>0.76249999999999996</v>
+        <v>0.5535714285714286</v>
       </c>
       <c r="V34" s="68">
         <f t="shared" si="7"/>
-        <v>0.92500000000000004</v>
+        <v>0.7321428571428571</v>
       </c>
       <c r="W34" s="68">
         <f t="shared" si="7"/>
@@ -20913,7 +20955,7 @@
     <row r="45" spans="1:91" x14ac:dyDescent="0.25">
       <c r="H45" s="111">
         <f t="shared" si="18"/>
-        <v>100.97</v>
+        <v>109.595</v>
       </c>
       <c r="I45" s="111">
         <f t="shared" ref="I45:BA45" si="62">I18*I$6</f>
@@ -20953,7 +20995,7 @@
       </c>
       <c r="R45" s="111">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S45" s="111">
         <f t="shared" si="62"/>
@@ -20965,11 +21007,11 @@
       </c>
       <c r="U45" s="111">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="V45" s="111">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W45" s="111">
         <f t="shared" si="62"/>
@@ -21589,7 +21631,7 @@
     <row r="47" spans="1:91" x14ac:dyDescent="0.25">
       <c r="H47" s="111">
         <f t="shared" si="18"/>
-        <v>9.5</v>
+        <v>9.625</v>
       </c>
       <c r="I47" s="111">
         <f t="shared" ref="I47:BA47" si="70">I20*I$6</f>
@@ -21625,7 +21667,7 @@
       </c>
       <c r="Q47" s="111">
         <f t="shared" si="70"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="R47" s="111">
         <f t="shared" si="70"/>
@@ -29502,7 +29544,7 @@
     <row r="74" spans="4:91" x14ac:dyDescent="0.25">
       <c r="H74" s="111">
         <f t="shared" si="126"/>
-        <v>31.74</v>
+        <v>33.614999999999995</v>
       </c>
       <c r="I74" s="111">
         <f t="shared" ref="I74:BW74" si="167">I18*I$7</f>
@@ -29542,7 +29584,7 @@
       </c>
       <c r="R74" s="111">
         <f t="shared" si="167"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="S74" s="111">
         <f t="shared" si="167"/>
@@ -29554,11 +29596,11 @@
       </c>
       <c r="U74" s="111">
         <f t="shared" si="167"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="V74" s="111">
         <f t="shared" si="167"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W74" s="111">
         <f t="shared" si="167"/>
@@ -30178,7 +30220,7 @@
     <row r="76" spans="4:91" x14ac:dyDescent="0.25">
       <c r="H76" s="111">
         <f t="shared" si="126"/>
-        <v>5.875</v>
+        <v>6</v>
       </c>
       <c r="I76" s="111">
         <f t="shared" ref="I76:BW76" si="175">I20*I$7</f>
@@ -30214,7 +30256,7 @@
       </c>
       <c r="Q76" s="111">
         <f t="shared" si="175"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="R76" s="111">
         <f t="shared" si="175"/>
@@ -34958,6 +35000,90 @@
     </row>
   </sheetData>
   <mergeCells count="108">
+    <mergeCell ref="AT2:AV2"/>
+    <mergeCell ref="AS3:AS5"/>
+    <mergeCell ref="O3:O5"/>
+    <mergeCell ref="I3:I5"/>
+    <mergeCell ref="J3:J5"/>
+    <mergeCell ref="K3:K5"/>
+    <mergeCell ref="L3:L5"/>
+    <mergeCell ref="M3:M5"/>
+    <mergeCell ref="N3:N5"/>
+    <mergeCell ref="X4:X5"/>
+    <mergeCell ref="AP4:AP5"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="P3:P5"/>
+    <mergeCell ref="AO4:AO5"/>
+    <mergeCell ref="AL4:AL5"/>
+    <mergeCell ref="AN4:AN5"/>
+    <mergeCell ref="W2:AO2"/>
+    <mergeCell ref="AB3:AI3"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="AB4:AB5"/>
+    <mergeCell ref="AD4:AD5"/>
+    <mergeCell ref="Z4:Z5"/>
+    <mergeCell ref="AJ3:AO3"/>
+    <mergeCell ref="AM4:AM5"/>
+    <mergeCell ref="CM2:CM5"/>
+    <mergeCell ref="BX2:CJ2"/>
+    <mergeCell ref="BX3:CJ3"/>
+    <mergeCell ref="BX4:BX5"/>
+    <mergeCell ref="CI4:CI5"/>
+    <mergeCell ref="CJ4:CJ5"/>
+    <mergeCell ref="BY4:BY5"/>
+    <mergeCell ref="BZ4:BZ5"/>
+    <mergeCell ref="CA4:CA5"/>
+    <mergeCell ref="CL2:CL5"/>
+    <mergeCell ref="CB4:CB5"/>
+    <mergeCell ref="CC4:CC5"/>
+    <mergeCell ref="CD4:CD5"/>
+    <mergeCell ref="CE4:CE5"/>
+    <mergeCell ref="CF4:CF5"/>
+    <mergeCell ref="CG4:CG5"/>
+    <mergeCell ref="CH4:CH5"/>
+    <mergeCell ref="CK2:CK5"/>
+    <mergeCell ref="BX8:CJ8"/>
+    <mergeCell ref="Q8:V8"/>
+    <mergeCell ref="AT3:AV4"/>
+    <mergeCell ref="AT8:AV8"/>
+    <mergeCell ref="AQ4:AR4"/>
+    <mergeCell ref="AE4:AE5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="Y4:Y5"/>
+    <mergeCell ref="AA4:AA5"/>
+    <mergeCell ref="AI4:AI5"/>
+    <mergeCell ref="AJ4:AJ5"/>
+    <mergeCell ref="AC4:AC5"/>
+    <mergeCell ref="AK4:AK5"/>
+    <mergeCell ref="AH4:AH5"/>
+    <mergeCell ref="W3:AA3"/>
+    <mergeCell ref="AP8:AR8"/>
+    <mergeCell ref="AJ8:AO8"/>
+    <mergeCell ref="AB8:AI8"/>
+    <mergeCell ref="W8:AA8"/>
+    <mergeCell ref="BU4:BU5"/>
+    <mergeCell ref="BV4:BV5"/>
+    <mergeCell ref="BW4:BW5"/>
+    <mergeCell ref="AG4:AG5"/>
+    <mergeCell ref="BL4:BL5"/>
+    <mergeCell ref="BK4:BK5"/>
+    <mergeCell ref="BM4:BM5"/>
+    <mergeCell ref="BN4:BN5"/>
+    <mergeCell ref="BO4:BO5"/>
+    <mergeCell ref="BQ4:BQ5"/>
+    <mergeCell ref="BI8:BQ8"/>
+    <mergeCell ref="AW2:BH2"/>
+    <mergeCell ref="AZ4:AZ5"/>
+    <mergeCell ref="BA4:BA5"/>
+    <mergeCell ref="BC4:BC5"/>
+    <mergeCell ref="BD4:BD5"/>
+    <mergeCell ref="BE4:BE5"/>
+    <mergeCell ref="AY4:AY5"/>
+    <mergeCell ref="AY3:BC3"/>
+    <mergeCell ref="AW3:AW5"/>
+    <mergeCell ref="AX3:AX5"/>
+    <mergeCell ref="BG4:BG5"/>
+    <mergeCell ref="BH4:BH5"/>
     <mergeCell ref="AF4:AF5"/>
     <mergeCell ref="BR8:BW8"/>
     <mergeCell ref="I1:P2"/>
@@ -34982,90 +35108,6 @@
     <mergeCell ref="BI3:BQ3"/>
     <mergeCell ref="BI4:BI5"/>
     <mergeCell ref="BJ4:BJ5"/>
-    <mergeCell ref="BK4:BK5"/>
-    <mergeCell ref="BM4:BM5"/>
-    <mergeCell ref="BN4:BN5"/>
-    <mergeCell ref="BO4:BO5"/>
-    <mergeCell ref="BQ4:BQ5"/>
-    <mergeCell ref="BI8:BQ8"/>
-    <mergeCell ref="AW2:BH2"/>
-    <mergeCell ref="AZ4:AZ5"/>
-    <mergeCell ref="BA4:BA5"/>
-    <mergeCell ref="BC4:BC5"/>
-    <mergeCell ref="BD4:BD5"/>
-    <mergeCell ref="BE4:BE5"/>
-    <mergeCell ref="AY4:AY5"/>
-    <mergeCell ref="AY3:BC3"/>
-    <mergeCell ref="AW3:AW5"/>
-    <mergeCell ref="AX3:AX5"/>
-    <mergeCell ref="BG4:BG5"/>
-    <mergeCell ref="BH4:BH5"/>
-    <mergeCell ref="BX8:CJ8"/>
-    <mergeCell ref="Q8:V8"/>
-    <mergeCell ref="AT3:AV4"/>
-    <mergeCell ref="AT8:AV8"/>
-    <mergeCell ref="AQ4:AR4"/>
-    <mergeCell ref="AE4:AE5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="Y4:Y5"/>
-    <mergeCell ref="AA4:AA5"/>
-    <mergeCell ref="AI4:AI5"/>
-    <mergeCell ref="AJ4:AJ5"/>
-    <mergeCell ref="AC4:AC5"/>
-    <mergeCell ref="AK4:AK5"/>
-    <mergeCell ref="AH4:AH5"/>
-    <mergeCell ref="W3:AA3"/>
-    <mergeCell ref="AP8:AR8"/>
-    <mergeCell ref="AJ8:AO8"/>
-    <mergeCell ref="AB8:AI8"/>
-    <mergeCell ref="W8:AA8"/>
-    <mergeCell ref="BU4:BU5"/>
-    <mergeCell ref="BV4:BV5"/>
-    <mergeCell ref="BW4:BW5"/>
-    <mergeCell ref="AG4:AG5"/>
-    <mergeCell ref="BL4:BL5"/>
-    <mergeCell ref="CM2:CM5"/>
-    <mergeCell ref="BX2:CJ2"/>
-    <mergeCell ref="BX3:CJ3"/>
-    <mergeCell ref="BX4:BX5"/>
-    <mergeCell ref="CI4:CI5"/>
-    <mergeCell ref="CJ4:CJ5"/>
-    <mergeCell ref="BY4:BY5"/>
-    <mergeCell ref="BZ4:BZ5"/>
-    <mergeCell ref="CA4:CA5"/>
-    <mergeCell ref="CL2:CL5"/>
-    <mergeCell ref="CB4:CB5"/>
-    <mergeCell ref="CC4:CC5"/>
-    <mergeCell ref="CD4:CD5"/>
-    <mergeCell ref="CE4:CE5"/>
-    <mergeCell ref="CF4:CF5"/>
-    <mergeCell ref="CG4:CG5"/>
-    <mergeCell ref="CH4:CH5"/>
-    <mergeCell ref="CK2:CK5"/>
-    <mergeCell ref="AT2:AV2"/>
-    <mergeCell ref="AS3:AS5"/>
-    <mergeCell ref="O3:O5"/>
-    <mergeCell ref="I3:I5"/>
-    <mergeCell ref="J3:J5"/>
-    <mergeCell ref="K3:K5"/>
-    <mergeCell ref="L3:L5"/>
-    <mergeCell ref="M3:M5"/>
-    <mergeCell ref="N3:N5"/>
-    <mergeCell ref="X4:X5"/>
-    <mergeCell ref="AP4:AP5"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="P3:P5"/>
-    <mergeCell ref="AO4:AO5"/>
-    <mergeCell ref="AL4:AL5"/>
-    <mergeCell ref="AN4:AN5"/>
-    <mergeCell ref="W2:AO2"/>
-    <mergeCell ref="AB3:AI3"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="AB4:AB5"/>
-    <mergeCell ref="AD4:AD5"/>
-    <mergeCell ref="Z4:Z5"/>
-    <mergeCell ref="AJ3:AO3"/>
-    <mergeCell ref="AM4:AM5"/>
   </mergeCells>
   <conditionalFormatting sqref="D9:F23 D33:F33 E32:F32">
     <cfRule type="cellIs" dxfId="962" priority="1231" operator="between">
@@ -39402,35 +39444,35 @@
       <c r="C1" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="194" t="s">
+      <c r="D1" s="198" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="195"/>
-      <c r="F1" s="194" t="s">
+      <c r="E1" s="200"/>
+      <c r="F1" s="198" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="204"/>
-      <c r="H1" s="204"/>
-      <c r="I1" s="204"/>
-      <c r="J1" s="204"/>
-      <c r="K1" s="204"/>
-      <c r="L1" s="204"/>
-      <c r="M1" s="204"/>
-      <c r="N1" s="204"/>
-      <c r="O1" s="204"/>
-      <c r="P1" s="204"/>
-      <c r="Q1" s="204"/>
-      <c r="R1" s="204"/>
-      <c r="S1" s="204"/>
-      <c r="T1" s="204"/>
-      <c r="U1" s="204"/>
-      <c r="V1" s="204"/>
-      <c r="W1" s="204"/>
-      <c r="X1" s="204"/>
-      <c r="Y1" s="204"/>
-      <c r="Z1" s="204"/>
-      <c r="AA1" s="204"/>
-      <c r="AB1" s="204"/>
+      <c r="G1" s="199"/>
+      <c r="H1" s="199"/>
+      <c r="I1" s="199"/>
+      <c r="J1" s="199"/>
+      <c r="K1" s="199"/>
+      <c r="L1" s="199"/>
+      <c r="M1" s="199"/>
+      <c r="N1" s="199"/>
+      <c r="O1" s="199"/>
+      <c r="P1" s="199"/>
+      <c r="Q1" s="199"/>
+      <c r="R1" s="199"/>
+      <c r="S1" s="199"/>
+      <c r="T1" s="199"/>
+      <c r="U1" s="199"/>
+      <c r="V1" s="199"/>
+      <c r="W1" s="199"/>
+      <c r="X1" s="199"/>
+      <c r="Y1" s="199"/>
+      <c r="Z1" s="199"/>
+      <c r="AA1" s="199"/>
+      <c r="AB1" s="199"/>
       <c r="AC1" s="205"/>
       <c r="AD1" s="205"/>
       <c r="AE1" s="205"/>
@@ -39439,19 +39481,19 @@
       <c r="AH1" s="205"/>
       <c r="AI1" s="205"/>
       <c r="AJ1" s="206"/>
-      <c r="AK1" s="201" t="s">
+      <c r="AK1" s="202" t="s">
         <v>51</v>
       </c>
-      <c r="AL1" s="202"/>
-      <c r="AM1" s="202"/>
-      <c r="AN1" s="202"/>
-      <c r="AO1" s="202"/>
-      <c r="AP1" s="202"/>
-      <c r="AQ1" s="203"/>
-      <c r="AR1" s="194" t="s">
+      <c r="AL1" s="203"/>
+      <c r="AM1" s="203"/>
+      <c r="AN1" s="203"/>
+      <c r="AO1" s="203"/>
+      <c r="AP1" s="203"/>
+      <c r="AQ1" s="204"/>
+      <c r="AR1" s="198" t="s">
         <v>50</v>
       </c>
-      <c r="AS1" s="195"/>
+      <c r="AS1" s="200"/>
     </row>
     <row r="2" spans="2:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="26"/>
@@ -39517,29 +39559,29 @@
     </row>
     <row r="3" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B3" s="26"/>
-      <c r="C3" s="196" t="s">
+      <c r="C3" s="194" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="200" t="s">
+      <c r="D3" s="195" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="197" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="194" t="s">
+      <c r="F3" s="198" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="204"/>
-      <c r="H3" s="204"/>
-      <c r="I3" s="204"/>
-      <c r="J3" s="204"/>
-      <c r="K3" s="195"/>
-      <c r="L3" s="194" t="s">
+      <c r="G3" s="199"/>
+      <c r="H3" s="199"/>
+      <c r="I3" s="199"/>
+      <c r="J3" s="199"/>
+      <c r="K3" s="200"/>
+      <c r="L3" s="198" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="204"/>
-      <c r="N3" s="204"/>
-      <c r="O3" s="195"/>
+      <c r="M3" s="199"/>
+      <c r="N3" s="199"/>
+      <c r="O3" s="200"/>
       <c r="P3" s="29" t="s">
         <v>27</v>
       </c>
@@ -39575,10 +39617,10 @@
       <c r="AF3" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="AG3" s="200" t="s">
+      <c r="AG3" s="195" t="s">
         <v>35</v>
       </c>
-      <c r="AH3" s="198"/>
+      <c r="AH3" s="196"/>
       <c r="AI3" s="197"/>
       <c r="AJ3" s="30" t="s">
         <v>7</v>
@@ -39609,72 +39651,72 @@
     </row>
     <row r="4" spans="2:45" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="26"/>
-      <c r="C4" s="196"/>
-      <c r="D4" s="200"/>
+      <c r="C4" s="194"/>
+      <c r="D4" s="195"/>
       <c r="E4" s="197"/>
-      <c r="F4" s="200" t="s">
+      <c r="F4" s="195" t="s">
         <v>52</v>
       </c>
-      <c r="G4" s="198" t="s">
+      <c r="G4" s="196" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="198" t="s">
+      <c r="H4" s="196" t="s">
         <v>53</v>
       </c>
-      <c r="I4" s="198" t="s">
+      <c r="I4" s="196" t="s">
         <v>54</v>
       </c>
-      <c r="J4" s="198" t="s">
+      <c r="J4" s="196" t="s">
         <v>55</v>
       </c>
       <c r="K4" s="197"/>
-      <c r="L4" s="200" t="s">
+      <c r="L4" s="195" t="s">
         <v>52</v>
       </c>
-      <c r="M4" s="198" t="s">
+      <c r="M4" s="196" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="198" t="s">
+      <c r="N4" s="196" t="s">
         <v>53</v>
       </c>
       <c r="O4" s="197" t="s">
         <v>54</v>
       </c>
-      <c r="P4" s="196" t="s">
+      <c r="P4" s="194" t="s">
         <v>56</v>
       </c>
-      <c r="Q4" s="196" t="s">
+      <c r="Q4" s="194" t="s">
         <v>56</v>
       </c>
-      <c r="R4" s="196" t="s">
+      <c r="R4" s="194" t="s">
         <v>56</v>
       </c>
-      <c r="S4" s="200" t="s">
+      <c r="S4" s="195" t="s">
         <v>52</v>
       </c>
-      <c r="T4" s="198" t="s">
+      <c r="T4" s="196" t="s">
         <v>10</v>
       </c>
-      <c r="U4" s="198" t="s">
+      <c r="U4" s="196" t="s">
         <v>53</v>
       </c>
-      <c r="V4" s="198" t="s">
+      <c r="V4" s="196" t="s">
         <v>54</v>
       </c>
-      <c r="W4" s="216" t="s">
+      <c r="W4" s="201" t="s">
         <v>55</v>
       </c>
       <c r="X4" s="197"/>
-      <c r="Y4" s="200" t="s">
+      <c r="Y4" s="195" t="s">
         <v>52</v>
       </c>
-      <c r="Z4" s="198" t="s">
+      <c r="Z4" s="196" t="s">
         <v>10</v>
       </c>
-      <c r="AA4" s="198" t="s">
+      <c r="AA4" s="196" t="s">
         <v>53</v>
       </c>
-      <c r="AB4" s="199" t="s">
+      <c r="AB4" s="216" t="s">
         <v>54</v>
       </c>
       <c r="AC4" s="33"/>
@@ -39703,40 +39745,40 @@
     </row>
     <row r="5" spans="2:45" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="26"/>
-      <c r="C5" s="196"/>
-      <c r="D5" s="200"/>
+      <c r="C5" s="194"/>
+      <c r="D5" s="195"/>
       <c r="E5" s="197"/>
-      <c r="F5" s="200"/>
-      <c r="G5" s="198"/>
-      <c r="H5" s="198"/>
-      <c r="I5" s="198"/>
+      <c r="F5" s="195"/>
+      <c r="G5" s="196"/>
+      <c r="H5" s="196"/>
+      <c r="I5" s="196"/>
       <c r="J5" s="24" t="s">
         <v>57</v>
       </c>
       <c r="K5" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="L5" s="200"/>
-      <c r="M5" s="198"/>
-      <c r="N5" s="198"/>
+      <c r="L5" s="195"/>
+      <c r="M5" s="196"/>
+      <c r="N5" s="196"/>
       <c r="O5" s="197"/>
-      <c r="P5" s="196"/>
-      <c r="Q5" s="196"/>
-      <c r="R5" s="196"/>
-      <c r="S5" s="200"/>
-      <c r="T5" s="198"/>
-      <c r="U5" s="198"/>
-      <c r="V5" s="198"/>
+      <c r="P5" s="194"/>
+      <c r="Q5" s="194"/>
+      <c r="R5" s="194"/>
+      <c r="S5" s="195"/>
+      <c r="T5" s="196"/>
+      <c r="U5" s="196"/>
+      <c r="V5" s="196"/>
       <c r="W5" s="27" t="s">
         <v>59</v>
       </c>
       <c r="X5" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="Y5" s="200"/>
-      <c r="Z5" s="198"/>
-      <c r="AA5" s="198"/>
-      <c r="AB5" s="199"/>
+      <c r="Y5" s="195"/>
+      <c r="Z5" s="196"/>
+      <c r="AA5" s="196"/>
+      <c r="AB5" s="216"/>
       <c r="AC5" s="33"/>
       <c r="AD5" s="34"/>
       <c r="AE5" s="33"/>
@@ -40183,6 +40225,32 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="AB4:AB5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="Z4:Z5"/>
+    <mergeCell ref="AA4:AA5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="AK1:AQ1"/>
+    <mergeCell ref="AR1:AS1"/>
+    <mergeCell ref="F1:AJ1"/>
+    <mergeCell ref="AR2:AR3"/>
+    <mergeCell ref="AS2:AS3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="Y3:AB3"/>
+    <mergeCell ref="F2:AB2"/>
+    <mergeCell ref="S3:X3"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AK2:AM2"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="Y4:Y5"/>
     <mergeCell ref="L4:L5"/>
@@ -40197,32 +40265,6 @@
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
-    <mergeCell ref="AK1:AQ1"/>
-    <mergeCell ref="AR1:AS1"/>
-    <mergeCell ref="F1:AJ1"/>
-    <mergeCell ref="AR2:AR3"/>
-    <mergeCell ref="AS2:AS3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="Y3:AB3"/>
-    <mergeCell ref="F2:AB2"/>
-    <mergeCell ref="S3:X3"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AK2:AM2"/>
-    <mergeCell ref="AB4:AB5"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="Z4:Z5"/>
-    <mergeCell ref="AA4:AA5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="M4:M5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/BaremeJavaBaseTest2_KL16.xlsx
+++ b/BaremeJavaBaseTest2_KL16.xlsx
@@ -3509,148 +3509,10 @@
     <xf numFmtId="2" fontId="3" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3680,10 +3542,61 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3692,31 +3605,115 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3726,6 +3723,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3761,7 +3761,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -10777,11 +10777,11 @@
   <dimension ref="A1:CM90"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2325" ySplit="3630" topLeftCell="D8" activePane="bottomRight"/>
+      <pane xSplit="2325" ySplit="3630" topLeftCell="D14" activePane="bottomRight"/>
       <selection activeCell="D4" sqref="D4"/>
       <selection pane="topRight" activeCell="O6" sqref="O6"/>
       <selection pane="bottomLeft" activeCell="A19" sqref="A19:XFD19"/>
-      <selection pane="bottomRight" activeCell="U22" sqref="U22"/>
+      <selection pane="bottomRight" activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -10844,96 +10844,96 @@
       <c r="D1" s="125"/>
       <c r="E1" s="18"/>
       <c r="F1" s="18"/>
-      <c r="I1" s="136" t="s">
+      <c r="I1" s="170" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="136"/>
-      <c r="K1" s="136"/>
-      <c r="L1" s="136"/>
-      <c r="M1" s="136"/>
-      <c r="N1" s="136"/>
-      <c r="O1" s="136"/>
-      <c r="P1" s="136"/>
-      <c r="Q1" s="147" t="s">
+      <c r="J1" s="170"/>
+      <c r="K1" s="170"/>
+      <c r="L1" s="170"/>
+      <c r="M1" s="170"/>
+      <c r="N1" s="170"/>
+      <c r="O1" s="170"/>
+      <c r="P1" s="170"/>
+      <c r="Q1" s="180" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="147"/>
-      <c r="S1" s="147"/>
-      <c r="T1" s="147"/>
-      <c r="U1" s="147"/>
-      <c r="V1" s="147"/>
-      <c r="W1" s="138" t="s">
+      <c r="R1" s="180"/>
+      <c r="S1" s="180"/>
+      <c r="T1" s="180"/>
+      <c r="U1" s="180"/>
+      <c r="V1" s="180"/>
+      <c r="W1" s="188" t="s">
         <v>103</v>
       </c>
-      <c r="X1" s="138"/>
-      <c r="Y1" s="138"/>
-      <c r="Z1" s="138"/>
-      <c r="AA1" s="138"/>
-      <c r="AB1" s="138"/>
-      <c r="AC1" s="138"/>
-      <c r="AD1" s="138"/>
-      <c r="AE1" s="138"/>
-      <c r="AF1" s="138"/>
-      <c r="AG1" s="138"/>
-      <c r="AH1" s="138"/>
-      <c r="AI1" s="138"/>
-      <c r="AJ1" s="138"/>
-      <c r="AK1" s="138"/>
-      <c r="AL1" s="138"/>
-      <c r="AM1" s="138"/>
-      <c r="AN1" s="138"/>
-      <c r="AO1" s="138"/>
-      <c r="AP1" s="138"/>
-      <c r="AQ1" s="138"/>
-      <c r="AR1" s="138"/>
-      <c r="AS1" s="138"/>
-      <c r="AT1" s="138"/>
-      <c r="AU1" s="138"/>
-      <c r="AV1" s="138"/>
-      <c r="AW1" s="138"/>
-      <c r="AX1" s="138"/>
-      <c r="AY1" s="138"/>
-      <c r="AZ1" s="138"/>
-      <c r="BA1" s="138"/>
-      <c r="BB1" s="138"/>
-      <c r="BC1" s="138"/>
-      <c r="BD1" s="138"/>
-      <c r="BE1" s="138"/>
-      <c r="BF1" s="138"/>
-      <c r="BG1" s="138"/>
-      <c r="BH1" s="138"/>
-      <c r="BI1" s="138"/>
-      <c r="BJ1" s="138"/>
-      <c r="BK1" s="138"/>
-      <c r="BL1" s="138"/>
-      <c r="BM1" s="138"/>
-      <c r="BN1" s="138"/>
-      <c r="BO1" s="138"/>
-      <c r="BP1" s="138"/>
-      <c r="BQ1" s="138"/>
-      <c r="BR1" s="138" t="s">
+      <c r="X1" s="188"/>
+      <c r="Y1" s="188"/>
+      <c r="Z1" s="188"/>
+      <c r="AA1" s="188"/>
+      <c r="AB1" s="188"/>
+      <c r="AC1" s="188"/>
+      <c r="AD1" s="188"/>
+      <c r="AE1" s="188"/>
+      <c r="AF1" s="188"/>
+      <c r="AG1" s="188"/>
+      <c r="AH1" s="188"/>
+      <c r="AI1" s="188"/>
+      <c r="AJ1" s="188"/>
+      <c r="AK1" s="188"/>
+      <c r="AL1" s="188"/>
+      <c r="AM1" s="188"/>
+      <c r="AN1" s="188"/>
+      <c r="AO1" s="188"/>
+      <c r="AP1" s="188"/>
+      <c r="AQ1" s="188"/>
+      <c r="AR1" s="188"/>
+      <c r="AS1" s="188"/>
+      <c r="AT1" s="188"/>
+      <c r="AU1" s="188"/>
+      <c r="AV1" s="188"/>
+      <c r="AW1" s="188"/>
+      <c r="AX1" s="188"/>
+      <c r="AY1" s="188"/>
+      <c r="AZ1" s="188"/>
+      <c r="BA1" s="188"/>
+      <c r="BB1" s="188"/>
+      <c r="BC1" s="188"/>
+      <c r="BD1" s="188"/>
+      <c r="BE1" s="188"/>
+      <c r="BF1" s="188"/>
+      <c r="BG1" s="188"/>
+      <c r="BH1" s="188"/>
+      <c r="BI1" s="188"/>
+      <c r="BJ1" s="188"/>
+      <c r="BK1" s="188"/>
+      <c r="BL1" s="188"/>
+      <c r="BM1" s="188"/>
+      <c r="BN1" s="188"/>
+      <c r="BO1" s="188"/>
+      <c r="BP1" s="188"/>
+      <c r="BQ1" s="188"/>
+      <c r="BR1" s="188" t="s">
         <v>102</v>
       </c>
-      <c r="BS1" s="138"/>
-      <c r="BT1" s="138"/>
-      <c r="BU1" s="138"/>
-      <c r="BV1" s="138"/>
-      <c r="BW1" s="138"/>
-      <c r="BX1" s="138" t="s">
+      <c r="BS1" s="188"/>
+      <c r="BT1" s="188"/>
+      <c r="BU1" s="188"/>
+      <c r="BV1" s="188"/>
+      <c r="BW1" s="188"/>
+      <c r="BX1" s="188" t="s">
         <v>104</v>
       </c>
-      <c r="BY1" s="138"/>
-      <c r="BZ1" s="138"/>
-      <c r="CA1" s="138"/>
-      <c r="CB1" s="138"/>
-      <c r="CC1" s="138"/>
-      <c r="CD1" s="138"/>
-      <c r="CE1" s="138"/>
-      <c r="CF1" s="138"/>
-      <c r="CG1" s="138"/>
-      <c r="CH1" s="138"/>
-      <c r="CI1" s="138"/>
-      <c r="CJ1" s="138"/>
+      <c r="BY1" s="188"/>
+      <c r="BZ1" s="188"/>
+      <c r="CA1" s="188"/>
+      <c r="CB1" s="188"/>
+      <c r="CC1" s="188"/>
+      <c r="CD1" s="188"/>
+      <c r="CE1" s="188"/>
+      <c r="CF1" s="188"/>
+      <c r="CG1" s="188"/>
+      <c r="CH1" s="188"/>
+      <c r="CI1" s="188"/>
+      <c r="CJ1" s="188"/>
       <c r="CK1" s="109"/>
     </row>
     <row r="2" spans="1:91" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -10945,113 +10945,113 @@
       <c r="F2" s="56"/>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
-      <c r="I2" s="137"/>
-      <c r="J2" s="137"/>
-      <c r="K2" s="137"/>
-      <c r="L2" s="137"/>
-      <c r="M2" s="137"/>
-      <c r="N2" s="137"/>
-      <c r="O2" s="137"/>
-      <c r="P2" s="137"/>
-      <c r="Q2" s="136"/>
-      <c r="R2" s="136"/>
-      <c r="S2" s="136"/>
-      <c r="T2" s="136"/>
-      <c r="U2" s="136"/>
-      <c r="V2" s="136"/>
-      <c r="W2" s="141" t="s">
+      <c r="I2" s="133"/>
+      <c r="J2" s="133"/>
+      <c r="K2" s="133"/>
+      <c r="L2" s="133"/>
+      <c r="M2" s="133"/>
+      <c r="N2" s="133"/>
+      <c r="O2" s="133"/>
+      <c r="P2" s="133"/>
+      <c r="Q2" s="170"/>
+      <c r="R2" s="170"/>
+      <c r="S2" s="170"/>
+      <c r="T2" s="170"/>
+      <c r="U2" s="170"/>
+      <c r="V2" s="170"/>
+      <c r="W2" s="156" t="s">
         <v>4</v>
       </c>
-      <c r="X2" s="190"/>
-      <c r="Y2" s="143"/>
-      <c r="Z2" s="143"/>
-      <c r="AA2" s="143"/>
-      <c r="AB2" s="143"/>
-      <c r="AC2" s="143"/>
-      <c r="AD2" s="143"/>
-      <c r="AE2" s="143"/>
-      <c r="AF2" s="143"/>
-      <c r="AG2" s="143"/>
-      <c r="AH2" s="143"/>
-      <c r="AI2" s="143"/>
-      <c r="AJ2" s="143"/>
-      <c r="AK2" s="143"/>
-      <c r="AL2" s="143"/>
-      <c r="AM2" s="143"/>
-      <c r="AN2" s="143"/>
-      <c r="AO2" s="145"/>
-      <c r="AP2" s="139" t="s">
+      <c r="X2" s="157"/>
+      <c r="Y2" s="158"/>
+      <c r="Z2" s="158"/>
+      <c r="AA2" s="158"/>
+      <c r="AB2" s="158"/>
+      <c r="AC2" s="158"/>
+      <c r="AD2" s="158"/>
+      <c r="AE2" s="158"/>
+      <c r="AF2" s="158"/>
+      <c r="AG2" s="158"/>
+      <c r="AH2" s="158"/>
+      <c r="AI2" s="158"/>
+      <c r="AJ2" s="158"/>
+      <c r="AK2" s="158"/>
+      <c r="AL2" s="158"/>
+      <c r="AM2" s="158"/>
+      <c r="AN2" s="158"/>
+      <c r="AO2" s="159"/>
+      <c r="AP2" s="189" t="s">
         <v>12</v>
       </c>
-      <c r="AQ2" s="137"/>
-      <c r="AR2" s="137"/>
-      <c r="AS2" s="140"/>
-      <c r="AT2" s="179" t="s">
+      <c r="AQ2" s="133"/>
+      <c r="AR2" s="133"/>
+      <c r="AS2" s="190"/>
+      <c r="AT2" s="132" t="s">
         <v>6</v>
       </c>
-      <c r="AU2" s="137"/>
-      <c r="AV2" s="137"/>
-      <c r="AW2" s="155" t="s">
+      <c r="AU2" s="133"/>
+      <c r="AV2" s="133"/>
+      <c r="AW2" s="169" t="s">
         <v>101</v>
       </c>
-      <c r="AX2" s="136"/>
-      <c r="AY2" s="136"/>
-      <c r="AZ2" s="136"/>
-      <c r="BA2" s="136"/>
-      <c r="BB2" s="136"/>
-      <c r="BC2" s="136"/>
-      <c r="BD2" s="136"/>
-      <c r="BE2" s="136"/>
-      <c r="BF2" s="136"/>
-      <c r="BG2" s="136"/>
-      <c r="BH2" s="156"/>
-      <c r="BI2" s="155" t="s">
+      <c r="AX2" s="170"/>
+      <c r="AY2" s="170"/>
+      <c r="AZ2" s="170"/>
+      <c r="BA2" s="170"/>
+      <c r="BB2" s="170"/>
+      <c r="BC2" s="170"/>
+      <c r="BD2" s="170"/>
+      <c r="BE2" s="170"/>
+      <c r="BF2" s="170"/>
+      <c r="BG2" s="170"/>
+      <c r="BH2" s="171"/>
+      <c r="BI2" s="169" t="s">
         <v>105</v>
       </c>
-      <c r="BJ2" s="136"/>
-      <c r="BK2" s="136"/>
-      <c r="BL2" s="136"/>
-      <c r="BM2" s="136"/>
-      <c r="BN2" s="136"/>
-      <c r="BO2" s="136"/>
-      <c r="BP2" s="136"/>
-      <c r="BQ2" s="156"/>
-      <c r="BR2" s="141" t="s">
+      <c r="BJ2" s="170"/>
+      <c r="BK2" s="170"/>
+      <c r="BL2" s="170"/>
+      <c r="BM2" s="170"/>
+      <c r="BN2" s="170"/>
+      <c r="BO2" s="170"/>
+      <c r="BP2" s="170"/>
+      <c r="BQ2" s="171"/>
+      <c r="BR2" s="156" t="s">
         <v>106</v>
       </c>
-      <c r="BS2" s="143" t="s">
+      <c r="BS2" s="158" t="s">
         <v>107</v>
       </c>
-      <c r="BT2" s="143"/>
-      <c r="BU2" s="143" t="s">
+      <c r="BT2" s="158"/>
+      <c r="BU2" s="158" t="s">
         <v>108</v>
       </c>
-      <c r="BV2" s="143" t="s">
+      <c r="BV2" s="158" t="s">
         <v>109</v>
       </c>
-      <c r="BW2" s="145"/>
-      <c r="BX2" s="155" t="s">
+      <c r="BW2" s="159"/>
+      <c r="BX2" s="169" t="s">
         <v>110</v>
       </c>
-      <c r="BY2" s="136"/>
-      <c r="BZ2" s="136"/>
-      <c r="CA2" s="136"/>
-      <c r="CB2" s="136"/>
-      <c r="CC2" s="136"/>
-      <c r="CD2" s="136"/>
-      <c r="CE2" s="136"/>
-      <c r="CF2" s="136"/>
-      <c r="CG2" s="136"/>
-      <c r="CH2" s="136"/>
-      <c r="CI2" s="136"/>
-      <c r="CJ2" s="156"/>
-      <c r="CK2" s="177" t="s">
+      <c r="BY2" s="170"/>
+      <c r="BZ2" s="170"/>
+      <c r="CA2" s="170"/>
+      <c r="CB2" s="170"/>
+      <c r="CC2" s="170"/>
+      <c r="CD2" s="170"/>
+      <c r="CE2" s="170"/>
+      <c r="CF2" s="170"/>
+      <c r="CG2" s="170"/>
+      <c r="CH2" s="170"/>
+      <c r="CI2" s="170"/>
+      <c r="CJ2" s="171"/>
+      <c r="CK2" s="176" t="s">
         <v>13</v>
       </c>
-      <c r="CL2" s="176" t="s">
+      <c r="CL2" s="168" t="s">
         <v>174</v>
       </c>
-      <c r="CM2" s="176"/>
+      <c r="CM2" s="168"/>
     </row>
     <row r="3" spans="1:91" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
@@ -11062,129 +11062,129 @@
       <c r="F3" s="56"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
-      <c r="I3" s="186" t="s">
+      <c r="I3" s="140" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="167" t="s">
+      <c r="J3" s="143" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="167" t="s">
+      <c r="K3" s="143" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="186" t="s">
+      <c r="L3" s="140" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="186" t="s">
+      <c r="M3" s="140" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="167" t="s">
+      <c r="N3" s="143" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="183" t="s">
+      <c r="O3" s="137" t="s">
         <v>72</v>
       </c>
-      <c r="P3" s="167" t="s">
+      <c r="P3" s="143" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="136"/>
-      <c r="R3" s="136"/>
-      <c r="S3" s="136"/>
-      <c r="T3" s="136"/>
-      <c r="U3" s="136"/>
-      <c r="V3" s="136"/>
-      <c r="W3" s="174" t="s">
+      <c r="Q3" s="170"/>
+      <c r="R3" s="170"/>
+      <c r="S3" s="170"/>
+      <c r="T3" s="170"/>
+      <c r="U3" s="170"/>
+      <c r="V3" s="170"/>
+      <c r="W3" s="150" t="s">
         <v>92</v>
       </c>
-      <c r="X3" s="149"/>
-      <c r="Y3" s="149"/>
-      <c r="Z3" s="149"/>
-      <c r="AA3" s="149"/>
-      <c r="AB3" s="180" t="s">
+      <c r="X3" s="151"/>
+      <c r="Y3" s="151"/>
+      <c r="Z3" s="151"/>
+      <c r="AA3" s="151"/>
+      <c r="AB3" s="134" t="s">
         <v>112</v>
       </c>
-      <c r="AC3" s="162"/>
-      <c r="AD3" s="158"/>
-      <c r="AE3" s="158"/>
-      <c r="AF3" s="158"/>
-      <c r="AG3" s="158"/>
-      <c r="AH3" s="158"/>
-      <c r="AI3" s="158"/>
-      <c r="AJ3" s="193" t="s">
+      <c r="AC3" s="160"/>
+      <c r="AD3" s="161"/>
+      <c r="AE3" s="161"/>
+      <c r="AF3" s="161"/>
+      <c r="AG3" s="161"/>
+      <c r="AH3" s="161"/>
+      <c r="AI3" s="161"/>
+      <c r="AJ3" s="166" t="s">
         <v>113</v>
       </c>
-      <c r="AK3" s="149"/>
-      <c r="AL3" s="149"/>
-      <c r="AM3" s="149"/>
-      <c r="AN3" s="149"/>
-      <c r="AO3" s="150"/>
-      <c r="AP3" s="174" t="s">
+      <c r="AK3" s="151"/>
+      <c r="AL3" s="151"/>
+      <c r="AM3" s="151"/>
+      <c r="AN3" s="151"/>
+      <c r="AO3" s="167"/>
+      <c r="AP3" s="150" t="s">
         <v>5</v>
       </c>
-      <c r="AQ3" s="149"/>
-      <c r="AR3" s="149"/>
-      <c r="AS3" s="180" t="s">
+      <c r="AQ3" s="151"/>
+      <c r="AR3" s="151"/>
+      <c r="AS3" s="134" t="s">
         <v>22</v>
       </c>
-      <c r="AT3" s="167" t="s">
+      <c r="AT3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="AU3" s="147"/>
-      <c r="AV3" s="147"/>
-      <c r="AW3" s="163" t="s">
+      <c r="AU3" s="180"/>
+      <c r="AV3" s="180"/>
+      <c r="AW3" s="185" t="s">
         <v>133</v>
       </c>
-      <c r="AX3" s="165" t="s">
+      <c r="AX3" s="187" t="s">
         <v>8</v>
       </c>
-      <c r="AY3" s="148" t="s">
+      <c r="AY3" s="184" t="s">
         <v>121</v>
       </c>
-      <c r="AZ3" s="149"/>
-      <c r="BA3" s="149"/>
-      <c r="BB3" s="149"/>
-      <c r="BC3" s="162"/>
-      <c r="BD3" s="148" t="s">
+      <c r="AZ3" s="151"/>
+      <c r="BA3" s="151"/>
+      <c r="BB3" s="151"/>
+      <c r="BC3" s="160"/>
+      <c r="BD3" s="184" t="s">
         <v>123</v>
       </c>
-      <c r="BE3" s="149"/>
-      <c r="BF3" s="149"/>
-      <c r="BG3" s="149"/>
-      <c r="BH3" s="150"/>
-      <c r="BI3" s="157" t="s">
+      <c r="BE3" s="151"/>
+      <c r="BF3" s="151"/>
+      <c r="BG3" s="151"/>
+      <c r="BH3" s="167"/>
+      <c r="BI3" s="172" t="s">
         <v>71</v>
       </c>
-      <c r="BJ3" s="158"/>
-      <c r="BK3" s="158"/>
-      <c r="BL3" s="158"/>
-      <c r="BM3" s="158"/>
-      <c r="BN3" s="158"/>
-      <c r="BO3" s="158"/>
-      <c r="BP3" s="148"/>
-      <c r="BQ3" s="159"/>
-      <c r="BR3" s="142"/>
-      <c r="BS3" s="144"/>
-      <c r="BT3" s="144"/>
-      <c r="BU3" s="144"/>
-      <c r="BV3" s="144"/>
-      <c r="BW3" s="146"/>
-      <c r="BX3" s="157" t="s">
+      <c r="BJ3" s="161"/>
+      <c r="BK3" s="161"/>
+      <c r="BL3" s="161"/>
+      <c r="BM3" s="161"/>
+      <c r="BN3" s="161"/>
+      <c r="BO3" s="161"/>
+      <c r="BP3" s="184"/>
+      <c r="BQ3" s="173"/>
+      <c r="BR3" s="191"/>
+      <c r="BS3" s="192"/>
+      <c r="BT3" s="192"/>
+      <c r="BU3" s="192"/>
+      <c r="BV3" s="192"/>
+      <c r="BW3" s="193"/>
+      <c r="BX3" s="172" t="s">
         <v>111</v>
       </c>
-      <c r="BY3" s="158"/>
-      <c r="BZ3" s="158"/>
-      <c r="CA3" s="158"/>
-      <c r="CB3" s="158"/>
-      <c r="CC3" s="158"/>
-      <c r="CD3" s="158"/>
-      <c r="CE3" s="158"/>
-      <c r="CF3" s="158"/>
-      <c r="CG3" s="158"/>
-      <c r="CH3" s="158"/>
-      <c r="CI3" s="158"/>
-      <c r="CJ3" s="159"/>
-      <c r="CK3" s="155"/>
-      <c r="CL3" s="176"/>
-      <c r="CM3" s="176"/>
+      <c r="BY3" s="161"/>
+      <c r="BZ3" s="161"/>
+      <c r="CA3" s="161"/>
+      <c r="CB3" s="161"/>
+      <c r="CC3" s="161"/>
+      <c r="CD3" s="161"/>
+      <c r="CE3" s="161"/>
+      <c r="CF3" s="161"/>
+      <c r="CG3" s="161"/>
+      <c r="CH3" s="161"/>
+      <c r="CI3" s="161"/>
+      <c r="CJ3" s="173"/>
+      <c r="CK3" s="169"/>
+      <c r="CL3" s="168"/>
+      <c r="CM3" s="168"/>
     </row>
     <row r="4" spans="1:91" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -11213,15 +11213,15 @@
         <f>CONCATENATE("Note/",H6)</f>
         <v>Note/192</v>
       </c>
-      <c r="I4" s="187"/>
-      <c r="J4" s="166"/>
-      <c r="K4" s="166"/>
-      <c r="L4" s="187"/>
-      <c r="M4" s="187"/>
-      <c r="N4" s="166"/>
-      <c r="O4" s="184"/>
-      <c r="P4" s="166"/>
-      <c r="Q4" s="168" t="s">
+      <c r="I4" s="141"/>
+      <c r="J4" s="144"/>
+      <c r="K4" s="144"/>
+      <c r="L4" s="141"/>
+      <c r="M4" s="141"/>
+      <c r="N4" s="144"/>
+      <c r="O4" s="138"/>
+      <c r="P4" s="144"/>
+      <c r="Q4" s="181" t="s">
         <v>138</v>
       </c>
       <c r="R4" s="78" t="s">
@@ -11239,193 +11239,193 @@
       <c r="V4" s="75" t="s">
         <v>91</v>
       </c>
-      <c r="W4" s="191" t="s">
+      <c r="W4" s="162" t="s">
         <v>52</v>
       </c>
-      <c r="X4" s="172" t="s">
+      <c r="X4" s="146" t="s">
         <v>10</v>
       </c>
-      <c r="Y4" s="151" t="s">
+      <c r="Y4" s="174" t="s">
         <v>11</v>
       </c>
-      <c r="Z4" s="132" t="s">
+      <c r="Z4" s="154" t="s">
         <v>70</v>
       </c>
-      <c r="AA4" s="151" t="s">
+      <c r="AA4" s="174" t="s">
         <v>73</v>
       </c>
-      <c r="AB4" s="170" t="s">
+      <c r="AB4" s="164" t="s">
         <v>52</v>
       </c>
-      <c r="AC4" s="172" t="s">
+      <c r="AC4" s="146" t="s">
         <v>10</v>
       </c>
-      <c r="AD4" s="172" t="s">
+      <c r="AD4" s="146" t="s">
         <v>11</v>
       </c>
-      <c r="AE4" s="132" t="s">
+      <c r="AE4" s="154" t="s">
         <v>171</v>
       </c>
-      <c r="AF4" s="132" t="s">
+      <c r="AF4" s="154" t="s">
         <v>172</v>
       </c>
-      <c r="AG4" s="132" t="s">
+      <c r="AG4" s="154" t="s">
         <v>173</v>
       </c>
-      <c r="AH4" s="132" t="s">
+      <c r="AH4" s="154" t="s">
         <v>70</v>
       </c>
-      <c r="AI4" s="151" t="s">
+      <c r="AI4" s="174" t="s">
         <v>73</v>
       </c>
-      <c r="AJ4" s="170" t="s">
+      <c r="AJ4" s="164" t="s">
         <v>52</v>
       </c>
-      <c r="AK4" s="172" t="s">
+      <c r="AK4" s="146" t="s">
         <v>10</v>
       </c>
-      <c r="AL4" s="172" t="s">
+      <c r="AL4" s="146" t="s">
         <v>11</v>
       </c>
-      <c r="AM4" s="132" t="s">
+      <c r="AM4" s="154" t="s">
         <v>172</v>
       </c>
-      <c r="AN4" s="132" t="s">
+      <c r="AN4" s="154" t="s">
         <v>70</v>
       </c>
-      <c r="AO4" s="160" t="s">
+      <c r="AO4" s="152" t="s">
         <v>73</v>
       </c>
-      <c r="AP4" s="153" t="s">
+      <c r="AP4" s="148" t="s">
         <v>114</v>
       </c>
-      <c r="AQ4" s="134" t="s">
+      <c r="AQ4" s="178" t="s">
         <v>115</v>
       </c>
-      <c r="AR4" s="135"/>
-      <c r="AS4" s="181"/>
-      <c r="AT4" s="166"/>
-      <c r="AU4" s="136"/>
-      <c r="AV4" s="136"/>
-      <c r="AW4" s="141"/>
-      <c r="AX4" s="143"/>
-      <c r="AY4" s="151" t="s">
+      <c r="AR4" s="179"/>
+      <c r="AS4" s="135"/>
+      <c r="AT4" s="144"/>
+      <c r="AU4" s="170"/>
+      <c r="AV4" s="170"/>
+      <c r="AW4" s="156"/>
+      <c r="AX4" s="158"/>
+      <c r="AY4" s="174" t="s">
         <v>96</v>
       </c>
-      <c r="AZ4" s="151" t="s">
+      <c r="AZ4" s="174" t="s">
         <v>119</v>
       </c>
-      <c r="BA4" s="151" t="s">
+      <c r="BA4" s="174" t="s">
         <v>122</v>
       </c>
-      <c r="BB4" s="151" t="s">
+      <c r="BB4" s="174" t="s">
         <v>124</v>
       </c>
-      <c r="BC4" s="151" t="s">
+      <c r="BC4" s="174" t="s">
         <v>120</v>
       </c>
-      <c r="BD4" s="151" t="s">
+      <c r="BD4" s="174" t="s">
         <v>96</v>
       </c>
-      <c r="BE4" s="151" t="s">
+      <c r="BE4" s="174" t="s">
         <v>119</v>
       </c>
-      <c r="BF4" s="151" t="s">
+      <c r="BF4" s="174" t="s">
         <v>122</v>
       </c>
-      <c r="BG4" s="151" t="s">
+      <c r="BG4" s="174" t="s">
         <v>124</v>
       </c>
-      <c r="BH4" s="151" t="s">
+      <c r="BH4" s="174" t="s">
         <v>120</v>
       </c>
-      <c r="BI4" s="153" t="s">
+      <c r="BI4" s="148" t="s">
         <v>125</v>
       </c>
-      <c r="BJ4" s="151" t="s">
+      <c r="BJ4" s="174" t="s">
         <v>132</v>
       </c>
-      <c r="BK4" s="151" t="s">
+      <c r="BK4" s="174" t="s">
         <v>126</v>
       </c>
-      <c r="BL4" s="151" t="s">
+      <c r="BL4" s="174" t="s">
         <v>127</v>
       </c>
-      <c r="BM4" s="151" t="s">
+      <c r="BM4" s="174" t="s">
         <v>128</v>
       </c>
-      <c r="BN4" s="151" t="s">
+      <c r="BN4" s="174" t="s">
         <v>129</v>
       </c>
-      <c r="BO4" s="151" t="s">
+      <c r="BO4" s="174" t="s">
         <v>130</v>
       </c>
-      <c r="BP4" s="151" t="s">
+      <c r="BP4" s="174" t="s">
         <v>116</v>
       </c>
-      <c r="BQ4" s="160" t="s">
+      <c r="BQ4" s="152" t="s">
         <v>131</v>
       </c>
-      <c r="BR4" s="153" t="s">
+      <c r="BR4" s="148" t="s">
         <v>96</v>
       </c>
-      <c r="BS4" s="151" t="s">
+      <c r="BS4" s="174" t="s">
         <v>97</v>
       </c>
-      <c r="BT4" s="151" t="s">
+      <c r="BT4" s="174" t="s">
         <v>98</v>
       </c>
-      <c r="BU4" s="151" t="s">
+      <c r="BU4" s="174" t="s">
         <v>94</v>
       </c>
-      <c r="BV4" s="151" t="s">
-        <v>99</v>
-      </c>
-      <c r="BW4" s="151" t="s">
+      <c r="BV4" s="174" t="s">
+        <v>99</v>
+      </c>
+      <c r="BW4" s="174" t="s">
         <v>95</v>
       </c>
-      <c r="BX4" s="153" t="s">
+      <c r="BX4" s="148" t="s">
         <v>139</v>
       </c>
-      <c r="BY4" s="151" t="s">
+      <c r="BY4" s="174" t="s">
         <v>140</v>
       </c>
-      <c r="BZ4" s="151" t="s">
+      <c r="BZ4" s="174" t="s">
         <v>141</v>
       </c>
-      <c r="CA4" s="151" t="s">
+      <c r="CA4" s="174" t="s">
         <v>142</v>
       </c>
-      <c r="CB4" s="151" t="s">
+      <c r="CB4" s="174" t="s">
         <v>143</v>
       </c>
-      <c r="CC4" s="151" t="s">
+      <c r="CC4" s="174" t="s">
         <v>144</v>
       </c>
-      <c r="CD4" s="151" t="s">
+      <c r="CD4" s="174" t="s">
         <v>145</v>
       </c>
-      <c r="CE4" s="151" t="s">
+      <c r="CE4" s="174" t="s">
         <v>135</v>
       </c>
-      <c r="CF4" s="151" t="s">
+      <c r="CF4" s="174" t="s">
         <v>146</v>
       </c>
-      <c r="CG4" s="151" t="s">
+      <c r="CG4" s="174" t="s">
         <v>147</v>
       </c>
-      <c r="CH4" s="151" t="s">
+      <c r="CH4" s="174" t="s">
         <v>148</v>
       </c>
-      <c r="CI4" s="151" t="s">
+      <c r="CI4" s="174" t="s">
         <v>149</v>
       </c>
-      <c r="CJ4" s="160" t="s">
+      <c r="CJ4" s="152" t="s">
         <v>150</v>
       </c>
-      <c r="CK4" s="155"/>
-      <c r="CL4" s="176"/>
-      <c r="CM4" s="176"/>
+      <c r="CK4" s="169"/>
+      <c r="CL4" s="168"/>
+      <c r="CM4" s="168"/>
     </row>
     <row r="5" spans="1:91" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
@@ -11436,15 +11436,15 @@
       <c r="F5" s="17"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
-      <c r="I5" s="188"/>
-      <c r="J5" s="189"/>
-      <c r="K5" s="189"/>
-      <c r="L5" s="188"/>
-      <c r="M5" s="188"/>
-      <c r="N5" s="189"/>
-      <c r="O5" s="185"/>
-      <c r="P5" s="179"/>
-      <c r="Q5" s="169"/>
+      <c r="I5" s="142"/>
+      <c r="J5" s="145"/>
+      <c r="K5" s="145"/>
+      <c r="L5" s="142"/>
+      <c r="M5" s="142"/>
+      <c r="N5" s="145"/>
+      <c r="O5" s="139"/>
+      <c r="P5" s="132"/>
+      <c r="Q5" s="182"/>
       <c r="R5" s="89" t="s">
         <v>134</v>
       </c>
@@ -11460,33 +11460,33 @@
       <c r="V5" s="88" t="s">
         <v>137</v>
       </c>
-      <c r="W5" s="192"/>
-      <c r="X5" s="173"/>
-      <c r="Y5" s="152"/>
-      <c r="Z5" s="133"/>
-      <c r="AA5" s="152"/>
-      <c r="AB5" s="171"/>
-      <c r="AC5" s="173"/>
-      <c r="AD5" s="173"/>
-      <c r="AE5" s="133"/>
-      <c r="AF5" s="133"/>
-      <c r="AG5" s="133"/>
-      <c r="AH5" s="133"/>
-      <c r="AI5" s="152"/>
-      <c r="AJ5" s="171"/>
-      <c r="AK5" s="173"/>
-      <c r="AL5" s="173"/>
-      <c r="AM5" s="133"/>
-      <c r="AN5" s="133"/>
-      <c r="AO5" s="161"/>
-      <c r="AP5" s="154"/>
+      <c r="W5" s="163"/>
+      <c r="X5" s="147"/>
+      <c r="Y5" s="175"/>
+      <c r="Z5" s="155"/>
+      <c r="AA5" s="175"/>
+      <c r="AB5" s="165"/>
+      <c r="AC5" s="147"/>
+      <c r="AD5" s="147"/>
+      <c r="AE5" s="155"/>
+      <c r="AF5" s="155"/>
+      <c r="AG5" s="155"/>
+      <c r="AH5" s="155"/>
+      <c r="AI5" s="175"/>
+      <c r="AJ5" s="165"/>
+      <c r="AK5" s="147"/>
+      <c r="AL5" s="147"/>
+      <c r="AM5" s="155"/>
+      <c r="AN5" s="155"/>
+      <c r="AO5" s="153"/>
+      <c r="AP5" s="149"/>
       <c r="AQ5" s="90" t="s">
         <v>93</v>
       </c>
       <c r="AR5" s="90" t="s">
         <v>116</v>
       </c>
-      <c r="AS5" s="182"/>
+      <c r="AS5" s="136"/>
       <c r="AT5" s="98" t="s">
         <v>100</v>
       </c>
@@ -11496,49 +11496,49 @@
       <c r="AV5" s="99" t="s">
         <v>118</v>
       </c>
-      <c r="AW5" s="164"/>
-      <c r="AX5" s="133"/>
-      <c r="AY5" s="152"/>
-      <c r="AZ5" s="152"/>
-      <c r="BA5" s="152"/>
-      <c r="BB5" s="152"/>
-      <c r="BC5" s="152"/>
-      <c r="BD5" s="152"/>
-      <c r="BE5" s="152"/>
-      <c r="BF5" s="152"/>
-      <c r="BG5" s="152"/>
-      <c r="BH5" s="152"/>
-      <c r="BI5" s="154"/>
-      <c r="BJ5" s="152"/>
-      <c r="BK5" s="152"/>
-      <c r="BL5" s="152"/>
-      <c r="BM5" s="152"/>
-      <c r="BN5" s="152"/>
-      <c r="BO5" s="152"/>
-      <c r="BP5" s="152"/>
-      <c r="BQ5" s="161"/>
-      <c r="BR5" s="154"/>
-      <c r="BS5" s="152"/>
-      <c r="BT5" s="152"/>
-      <c r="BU5" s="152"/>
-      <c r="BV5" s="152"/>
-      <c r="BW5" s="152"/>
-      <c r="BX5" s="154"/>
-      <c r="BY5" s="152"/>
-      <c r="BZ5" s="152"/>
-      <c r="CA5" s="152"/>
-      <c r="CB5" s="152"/>
-      <c r="CC5" s="152"/>
-      <c r="CD5" s="152"/>
-      <c r="CE5" s="152"/>
-      <c r="CF5" s="152"/>
-      <c r="CG5" s="152"/>
-      <c r="CH5" s="152"/>
-      <c r="CI5" s="152"/>
-      <c r="CJ5" s="161"/>
-      <c r="CK5" s="178"/>
-      <c r="CL5" s="176"/>
-      <c r="CM5" s="176"/>
+      <c r="AW5" s="186"/>
+      <c r="AX5" s="155"/>
+      <c r="AY5" s="175"/>
+      <c r="AZ5" s="175"/>
+      <c r="BA5" s="175"/>
+      <c r="BB5" s="175"/>
+      <c r="BC5" s="175"/>
+      <c r="BD5" s="175"/>
+      <c r="BE5" s="175"/>
+      <c r="BF5" s="175"/>
+      <c r="BG5" s="175"/>
+      <c r="BH5" s="175"/>
+      <c r="BI5" s="149"/>
+      <c r="BJ5" s="175"/>
+      <c r="BK5" s="175"/>
+      <c r="BL5" s="175"/>
+      <c r="BM5" s="175"/>
+      <c r="BN5" s="175"/>
+      <c r="BO5" s="175"/>
+      <c r="BP5" s="175"/>
+      <c r="BQ5" s="153"/>
+      <c r="BR5" s="149"/>
+      <c r="BS5" s="175"/>
+      <c r="BT5" s="175"/>
+      <c r="BU5" s="175"/>
+      <c r="BV5" s="175"/>
+      <c r="BW5" s="175"/>
+      <c r="BX5" s="149"/>
+      <c r="BY5" s="175"/>
+      <c r="BZ5" s="175"/>
+      <c r="CA5" s="175"/>
+      <c r="CB5" s="175"/>
+      <c r="CC5" s="175"/>
+      <c r="CD5" s="175"/>
+      <c r="CE5" s="175"/>
+      <c r="CF5" s="175"/>
+      <c r="CG5" s="175"/>
+      <c r="CH5" s="175"/>
+      <c r="CI5" s="175"/>
+      <c r="CJ5" s="153"/>
+      <c r="CK5" s="177"/>
+      <c r="CL5" s="168"/>
+      <c r="CM5" s="168"/>
     </row>
     <row r="6" spans="1:91" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -12081,108 +12081,108 @@
       <c r="N8" s="8"/>
       <c r="O8" s="48"/>
       <c r="P8" s="8"/>
-      <c r="Q8" s="166">
+      <c r="Q8" s="144">
         <f>SUM(Q6:V6)</f>
         <v>25</v>
       </c>
-      <c r="R8" s="136"/>
-      <c r="S8" s="136"/>
-      <c r="T8" s="136"/>
-      <c r="U8" s="136"/>
-      <c r="V8" s="136"/>
-      <c r="W8" s="134">
+      <c r="R8" s="170"/>
+      <c r="S8" s="170"/>
+      <c r="T8" s="170"/>
+      <c r="U8" s="170"/>
+      <c r="V8" s="170"/>
+      <c r="W8" s="178">
         <f>SUM(W6:AA6)</f>
         <v>0</v>
       </c>
-      <c r="X8" s="135"/>
-      <c r="Y8" s="135"/>
-      <c r="Z8" s="135"/>
-      <c r="AA8" s="135"/>
-      <c r="AB8" s="134">
+      <c r="X8" s="179"/>
+      <c r="Y8" s="179"/>
+      <c r="Z8" s="179"/>
+      <c r="AA8" s="179"/>
+      <c r="AB8" s="178">
         <f>SUM(AB6:AI6)</f>
         <v>25</v>
       </c>
-      <c r="AC8" s="135"/>
-      <c r="AD8" s="135"/>
-      <c r="AE8" s="135"/>
-      <c r="AF8" s="135"/>
-      <c r="AG8" s="135"/>
-      <c r="AH8" s="135"/>
-      <c r="AI8" s="135"/>
-      <c r="AJ8" s="134">
+      <c r="AC8" s="179"/>
+      <c r="AD8" s="179"/>
+      <c r="AE8" s="179"/>
+      <c r="AF8" s="179"/>
+      <c r="AG8" s="179"/>
+      <c r="AH8" s="179"/>
+      <c r="AI8" s="179"/>
+      <c r="AJ8" s="178">
         <f>SUM(AJ6:AO6)</f>
         <v>9</v>
       </c>
-      <c r="AK8" s="135"/>
-      <c r="AL8" s="135"/>
-      <c r="AM8" s="135"/>
-      <c r="AN8" s="135"/>
-      <c r="AO8" s="175"/>
-      <c r="AP8" s="134">
+      <c r="AK8" s="179"/>
+      <c r="AL8" s="179"/>
+      <c r="AM8" s="179"/>
+      <c r="AN8" s="179"/>
+      <c r="AO8" s="183"/>
+      <c r="AP8" s="178">
         <f>SUM(AP6:AR6)</f>
         <v>2</v>
       </c>
-      <c r="AQ8" s="135"/>
-      <c r="AR8" s="135"/>
+      <c r="AQ8" s="179"/>
+      <c r="AR8" s="179"/>
       <c r="AS8" s="97"/>
-      <c r="AT8" s="134">
+      <c r="AT8" s="178">
         <f>SUM(AT6:AV6)</f>
         <v>5</v>
       </c>
-      <c r="AU8" s="135"/>
-      <c r="AV8" s="135"/>
-      <c r="AW8" s="134">
+      <c r="AU8" s="179"/>
+      <c r="AV8" s="179"/>
+      <c r="AW8" s="178">
         <f>SUM(AW6:BH6)</f>
         <v>17</v>
       </c>
-      <c r="AX8" s="135"/>
-      <c r="AY8" s="135"/>
-      <c r="AZ8" s="135"/>
-      <c r="BA8" s="135"/>
-      <c r="BB8" s="135"/>
-      <c r="BC8" s="135"/>
-      <c r="BD8" s="135"/>
-      <c r="BE8" s="135"/>
-      <c r="BF8" s="135"/>
-      <c r="BG8" s="135"/>
-      <c r="BH8" s="135"/>
-      <c r="BI8" s="134">
+      <c r="AX8" s="179"/>
+      <c r="AY8" s="179"/>
+      <c r="AZ8" s="179"/>
+      <c r="BA8" s="179"/>
+      <c r="BB8" s="179"/>
+      <c r="BC8" s="179"/>
+      <c r="BD8" s="179"/>
+      <c r="BE8" s="179"/>
+      <c r="BF8" s="179"/>
+      <c r="BG8" s="179"/>
+      <c r="BH8" s="179"/>
+      <c r="BI8" s="178">
         <f>SUM(BI6:BQ6)</f>
         <v>28</v>
       </c>
-      <c r="BJ8" s="135"/>
-      <c r="BK8" s="135"/>
-      <c r="BL8" s="135"/>
-      <c r="BM8" s="135"/>
-      <c r="BN8" s="135"/>
-      <c r="BO8" s="135"/>
-      <c r="BP8" s="135"/>
-      <c r="BQ8" s="135"/>
-      <c r="BR8" s="134">
+      <c r="BJ8" s="179"/>
+      <c r="BK8" s="179"/>
+      <c r="BL8" s="179"/>
+      <c r="BM8" s="179"/>
+      <c r="BN8" s="179"/>
+      <c r="BO8" s="179"/>
+      <c r="BP8" s="179"/>
+      <c r="BQ8" s="179"/>
+      <c r="BR8" s="178">
         <f>SUM(BR6:BW6)</f>
         <v>0</v>
       </c>
-      <c r="BS8" s="135"/>
-      <c r="BT8" s="135"/>
-      <c r="BU8" s="135"/>
-      <c r="BV8" s="135"/>
-      <c r="BW8" s="135"/>
-      <c r="BX8" s="134">
+      <c r="BS8" s="179"/>
+      <c r="BT8" s="179"/>
+      <c r="BU8" s="179"/>
+      <c r="BV8" s="179"/>
+      <c r="BW8" s="179"/>
+      <c r="BX8" s="178">
         <f>SUM(BX6:CJ6)</f>
         <v>43</v>
       </c>
-      <c r="BY8" s="135"/>
-      <c r="BZ8" s="135"/>
-      <c r="CA8" s="135"/>
-      <c r="CB8" s="135"/>
-      <c r="CC8" s="135"/>
-      <c r="CD8" s="135"/>
-      <c r="CE8" s="135"/>
-      <c r="CF8" s="135"/>
-      <c r="CG8" s="135"/>
-      <c r="CH8" s="135"/>
-      <c r="CI8" s="135"/>
-      <c r="CJ8" s="135"/>
+      <c r="BY8" s="179"/>
+      <c r="BZ8" s="179"/>
+      <c r="CA8" s="179"/>
+      <c r="CB8" s="179"/>
+      <c r="CC8" s="179"/>
+      <c r="CD8" s="179"/>
+      <c r="CE8" s="179"/>
+      <c r="CF8" s="179"/>
+      <c r="CG8" s="179"/>
+      <c r="CH8" s="179"/>
+      <c r="CI8" s="179"/>
+      <c r="CJ8" s="179"/>
       <c r="CK8" s="2">
         <f>CK6</f>
         <v>1</v>
@@ -15154,20 +15154,20 @@
       <c r="C22" s="113"/>
       <c r="D22" s="130">
         <f t="shared" si="0"/>
-        <v>11.302083333333332</v>
+        <v>13.90625</v>
       </c>
       <c r="E22" s="19">
         <f t="shared" si="1"/>
-        <v>12.321428571428573</v>
+        <v>14.464285714285714</v>
       </c>
       <c r="F22" s="19"/>
       <c r="G22" s="14">
         <f t="shared" si="4"/>
-        <v>34.5</v>
+        <v>40.5</v>
       </c>
       <c r="H22" s="14">
         <f t="shared" si="3"/>
-        <v>108.5</v>
+        <v>133.5</v>
       </c>
       <c r="I22" s="105">
         <v>1</v>
@@ -15191,12 +15191,24 @@
         <v>1</v>
       </c>
       <c r="P22" s="103"/>
-      <c r="Q22" s="66"/>
-      <c r="R22" s="66"/>
-      <c r="S22" s="66"/>
-      <c r="T22" s="66"/>
-      <c r="U22" s="66"/>
-      <c r="V22" s="66"/>
+      <c r="Q22" s="66">
+        <v>1</v>
+      </c>
+      <c r="R22" s="66">
+        <v>1</v>
+      </c>
+      <c r="S22" s="66">
+        <v>1</v>
+      </c>
+      <c r="T22" s="66">
+        <v>1</v>
+      </c>
+      <c r="U22" s="66">
+        <v>1</v>
+      </c>
+      <c r="V22" s="66">
+        <v>1</v>
+      </c>
       <c r="W22" s="66">
         <v>99</v>
       </c>
@@ -17611,27 +17623,27 @@
       </c>
       <c r="Q34" s="68">
         <f t="shared" si="7"/>
-        <v>0.6517857142857143</v>
+        <v>0.67500000000000004</v>
       </c>
       <c r="R34" s="68">
         <f t="shared" si="7"/>
-        <v>0.4107142857142857</v>
+        <v>0.45</v>
       </c>
       <c r="S34" s="68">
         <f t="shared" si="7"/>
-        <v>0.45535714285714285</v>
+        <v>0.49166666666666664</v>
       </c>
       <c r="T34" s="68">
         <f t="shared" si="7"/>
-        <v>0.5446428571428571</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="U34" s="68">
         <f t="shared" si="7"/>
-        <v>0.5535714285714286</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="V34" s="68">
         <f t="shared" si="7"/>
-        <v>0.7321428571428571</v>
+        <v>0.75</v>
       </c>
       <c r="W34" s="68">
         <f t="shared" si="7"/>
@@ -22310,7 +22322,7 @@
       <c r="F49" s="18"/>
       <c r="H49" s="111">
         <f t="shared" si="18"/>
-        <v>108.5</v>
+        <v>133.5</v>
       </c>
       <c r="I49" s="111">
         <f t="shared" ref="I49:BA49" si="78">I22*I$6</f>
@@ -22346,27 +22358,27 @@
       </c>
       <c r="Q49" s="111">
         <f t="shared" si="78"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R49" s="111">
         <f t="shared" si="78"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S49" s="111">
         <f t="shared" si="78"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T49" s="111">
         <f t="shared" si="78"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U49" s="111">
         <f t="shared" si="78"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V49" s="111">
         <f t="shared" si="78"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W49" s="111">
         <f t="shared" si="78"/>
@@ -30899,7 +30911,7 @@
       <c r="F78" s="18"/>
       <c r="H78" s="111">
         <f t="shared" si="126"/>
-        <v>34.5</v>
+        <v>40.5</v>
       </c>
       <c r="I78" s="111">
         <f t="shared" ref="I78:BW78" si="183">I22*I$7</f>
@@ -30935,27 +30947,27 @@
       </c>
       <c r="Q78" s="111">
         <f t="shared" si="183"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R78" s="111">
         <f t="shared" si="183"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S78" s="111">
         <f t="shared" si="183"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T78" s="111">
         <f t="shared" si="183"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U78" s="111">
         <f t="shared" si="183"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V78" s="111">
         <f t="shared" si="183"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W78" s="111">
         <f t="shared" si="183"/>
@@ -35000,6 +35012,90 @@
     </row>
   </sheetData>
   <mergeCells count="108">
+    <mergeCell ref="AF4:AF5"/>
+    <mergeCell ref="BR8:BW8"/>
+    <mergeCell ref="I1:P2"/>
+    <mergeCell ref="W1:BQ1"/>
+    <mergeCell ref="BX1:CJ1"/>
+    <mergeCell ref="BR1:BW1"/>
+    <mergeCell ref="AP2:AS2"/>
+    <mergeCell ref="BR2:BR3"/>
+    <mergeCell ref="BS2:BT3"/>
+    <mergeCell ref="BU2:BU3"/>
+    <mergeCell ref="BV2:BW3"/>
+    <mergeCell ref="Q1:V3"/>
+    <mergeCell ref="BD3:BH3"/>
+    <mergeCell ref="BB4:BB5"/>
+    <mergeCell ref="BF4:BF5"/>
+    <mergeCell ref="BR4:BR5"/>
+    <mergeCell ref="BS4:BS5"/>
+    <mergeCell ref="BT4:BT5"/>
+    <mergeCell ref="BP4:BP5"/>
+    <mergeCell ref="AW8:BH8"/>
+    <mergeCell ref="BI2:BQ2"/>
+    <mergeCell ref="BI3:BQ3"/>
+    <mergeCell ref="BI4:BI5"/>
+    <mergeCell ref="BJ4:BJ5"/>
+    <mergeCell ref="BK4:BK5"/>
+    <mergeCell ref="BM4:BM5"/>
+    <mergeCell ref="BN4:BN5"/>
+    <mergeCell ref="BO4:BO5"/>
+    <mergeCell ref="BQ4:BQ5"/>
+    <mergeCell ref="BI8:BQ8"/>
+    <mergeCell ref="AW2:BH2"/>
+    <mergeCell ref="AZ4:AZ5"/>
+    <mergeCell ref="BA4:BA5"/>
+    <mergeCell ref="BC4:BC5"/>
+    <mergeCell ref="BD4:BD5"/>
+    <mergeCell ref="BE4:BE5"/>
+    <mergeCell ref="AY4:AY5"/>
+    <mergeCell ref="AY3:BC3"/>
+    <mergeCell ref="AW3:AW5"/>
+    <mergeCell ref="AX3:AX5"/>
+    <mergeCell ref="BG4:BG5"/>
+    <mergeCell ref="BH4:BH5"/>
+    <mergeCell ref="BX8:CJ8"/>
+    <mergeCell ref="Q8:V8"/>
+    <mergeCell ref="AT3:AV4"/>
+    <mergeCell ref="AT8:AV8"/>
+    <mergeCell ref="AQ4:AR4"/>
+    <mergeCell ref="AE4:AE5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="Y4:Y5"/>
+    <mergeCell ref="AA4:AA5"/>
+    <mergeCell ref="AI4:AI5"/>
+    <mergeCell ref="AJ4:AJ5"/>
+    <mergeCell ref="AC4:AC5"/>
+    <mergeCell ref="AK4:AK5"/>
+    <mergeCell ref="AH4:AH5"/>
+    <mergeCell ref="W3:AA3"/>
+    <mergeCell ref="AP8:AR8"/>
+    <mergeCell ref="AJ8:AO8"/>
+    <mergeCell ref="AB8:AI8"/>
+    <mergeCell ref="W8:AA8"/>
+    <mergeCell ref="BU4:BU5"/>
+    <mergeCell ref="BV4:BV5"/>
+    <mergeCell ref="BW4:BW5"/>
+    <mergeCell ref="AG4:AG5"/>
+    <mergeCell ref="BL4:BL5"/>
+    <mergeCell ref="CM2:CM5"/>
+    <mergeCell ref="BX2:CJ2"/>
+    <mergeCell ref="BX3:CJ3"/>
+    <mergeCell ref="BX4:BX5"/>
+    <mergeCell ref="CI4:CI5"/>
+    <mergeCell ref="CJ4:CJ5"/>
+    <mergeCell ref="BY4:BY5"/>
+    <mergeCell ref="BZ4:BZ5"/>
+    <mergeCell ref="CA4:CA5"/>
+    <mergeCell ref="CL2:CL5"/>
+    <mergeCell ref="CB4:CB5"/>
+    <mergeCell ref="CC4:CC5"/>
+    <mergeCell ref="CD4:CD5"/>
+    <mergeCell ref="CE4:CE5"/>
+    <mergeCell ref="CF4:CF5"/>
+    <mergeCell ref="CG4:CG5"/>
+    <mergeCell ref="CH4:CH5"/>
+    <mergeCell ref="CK2:CK5"/>
     <mergeCell ref="AT2:AV2"/>
     <mergeCell ref="AS3:AS5"/>
     <mergeCell ref="O3:O5"/>
@@ -35024,90 +35120,6 @@
     <mergeCell ref="Z4:Z5"/>
     <mergeCell ref="AJ3:AO3"/>
     <mergeCell ref="AM4:AM5"/>
-    <mergeCell ref="CM2:CM5"/>
-    <mergeCell ref="BX2:CJ2"/>
-    <mergeCell ref="BX3:CJ3"/>
-    <mergeCell ref="BX4:BX5"/>
-    <mergeCell ref="CI4:CI5"/>
-    <mergeCell ref="CJ4:CJ5"/>
-    <mergeCell ref="BY4:BY5"/>
-    <mergeCell ref="BZ4:BZ5"/>
-    <mergeCell ref="CA4:CA5"/>
-    <mergeCell ref="CL2:CL5"/>
-    <mergeCell ref="CB4:CB5"/>
-    <mergeCell ref="CC4:CC5"/>
-    <mergeCell ref="CD4:CD5"/>
-    <mergeCell ref="CE4:CE5"/>
-    <mergeCell ref="CF4:CF5"/>
-    <mergeCell ref="CG4:CG5"/>
-    <mergeCell ref="CH4:CH5"/>
-    <mergeCell ref="CK2:CK5"/>
-    <mergeCell ref="BX8:CJ8"/>
-    <mergeCell ref="Q8:V8"/>
-    <mergeCell ref="AT3:AV4"/>
-    <mergeCell ref="AT8:AV8"/>
-    <mergeCell ref="AQ4:AR4"/>
-    <mergeCell ref="AE4:AE5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="Y4:Y5"/>
-    <mergeCell ref="AA4:AA5"/>
-    <mergeCell ref="AI4:AI5"/>
-    <mergeCell ref="AJ4:AJ5"/>
-    <mergeCell ref="AC4:AC5"/>
-    <mergeCell ref="AK4:AK5"/>
-    <mergeCell ref="AH4:AH5"/>
-    <mergeCell ref="W3:AA3"/>
-    <mergeCell ref="AP8:AR8"/>
-    <mergeCell ref="AJ8:AO8"/>
-    <mergeCell ref="AB8:AI8"/>
-    <mergeCell ref="W8:AA8"/>
-    <mergeCell ref="BU4:BU5"/>
-    <mergeCell ref="BV4:BV5"/>
-    <mergeCell ref="BW4:BW5"/>
-    <mergeCell ref="AG4:AG5"/>
-    <mergeCell ref="BL4:BL5"/>
-    <mergeCell ref="BK4:BK5"/>
-    <mergeCell ref="BM4:BM5"/>
-    <mergeCell ref="BN4:BN5"/>
-    <mergeCell ref="BO4:BO5"/>
-    <mergeCell ref="BQ4:BQ5"/>
-    <mergeCell ref="BI8:BQ8"/>
-    <mergeCell ref="AW2:BH2"/>
-    <mergeCell ref="AZ4:AZ5"/>
-    <mergeCell ref="BA4:BA5"/>
-    <mergeCell ref="BC4:BC5"/>
-    <mergeCell ref="BD4:BD5"/>
-    <mergeCell ref="BE4:BE5"/>
-    <mergeCell ref="AY4:AY5"/>
-    <mergeCell ref="AY3:BC3"/>
-    <mergeCell ref="AW3:AW5"/>
-    <mergeCell ref="AX3:AX5"/>
-    <mergeCell ref="BG4:BG5"/>
-    <mergeCell ref="BH4:BH5"/>
-    <mergeCell ref="AF4:AF5"/>
-    <mergeCell ref="BR8:BW8"/>
-    <mergeCell ref="I1:P2"/>
-    <mergeCell ref="W1:BQ1"/>
-    <mergeCell ref="BX1:CJ1"/>
-    <mergeCell ref="BR1:BW1"/>
-    <mergeCell ref="AP2:AS2"/>
-    <mergeCell ref="BR2:BR3"/>
-    <mergeCell ref="BS2:BT3"/>
-    <mergeCell ref="BU2:BU3"/>
-    <mergeCell ref="BV2:BW3"/>
-    <mergeCell ref="Q1:V3"/>
-    <mergeCell ref="BD3:BH3"/>
-    <mergeCell ref="BB4:BB5"/>
-    <mergeCell ref="BF4:BF5"/>
-    <mergeCell ref="BR4:BR5"/>
-    <mergeCell ref="BS4:BS5"/>
-    <mergeCell ref="BT4:BT5"/>
-    <mergeCell ref="BP4:BP5"/>
-    <mergeCell ref="AW8:BH8"/>
-    <mergeCell ref="BI2:BQ2"/>
-    <mergeCell ref="BI3:BQ3"/>
-    <mergeCell ref="BI4:BI5"/>
-    <mergeCell ref="BJ4:BJ5"/>
   </mergeCells>
   <conditionalFormatting sqref="D9:F23 D33:F33 E32:F32">
     <cfRule type="cellIs" dxfId="962" priority="1231" operator="between">
@@ -39444,35 +39456,35 @@
       <c r="C1" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="198" t="s">
+      <c r="D1" s="194" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="200"/>
-      <c r="F1" s="198" t="s">
+      <c r="E1" s="195"/>
+      <c r="F1" s="194" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="199"/>
-      <c r="H1" s="199"/>
-      <c r="I1" s="199"/>
-      <c r="J1" s="199"/>
-      <c r="K1" s="199"/>
-      <c r="L1" s="199"/>
-      <c r="M1" s="199"/>
-      <c r="N1" s="199"/>
-      <c r="O1" s="199"/>
-      <c r="P1" s="199"/>
-      <c r="Q1" s="199"/>
-      <c r="R1" s="199"/>
-      <c r="S1" s="199"/>
-      <c r="T1" s="199"/>
-      <c r="U1" s="199"/>
-      <c r="V1" s="199"/>
-      <c r="W1" s="199"/>
-      <c r="X1" s="199"/>
-      <c r="Y1" s="199"/>
-      <c r="Z1" s="199"/>
-      <c r="AA1" s="199"/>
-      <c r="AB1" s="199"/>
+      <c r="G1" s="204"/>
+      <c r="H1" s="204"/>
+      <c r="I1" s="204"/>
+      <c r="J1" s="204"/>
+      <c r="K1" s="204"/>
+      <c r="L1" s="204"/>
+      <c r="M1" s="204"/>
+      <c r="N1" s="204"/>
+      <c r="O1" s="204"/>
+      <c r="P1" s="204"/>
+      <c r="Q1" s="204"/>
+      <c r="R1" s="204"/>
+      <c r="S1" s="204"/>
+      <c r="T1" s="204"/>
+      <c r="U1" s="204"/>
+      <c r="V1" s="204"/>
+      <c r="W1" s="204"/>
+      <c r="X1" s="204"/>
+      <c r="Y1" s="204"/>
+      <c r="Z1" s="204"/>
+      <c r="AA1" s="204"/>
+      <c r="AB1" s="204"/>
       <c r="AC1" s="205"/>
       <c r="AD1" s="205"/>
       <c r="AE1" s="205"/>
@@ -39481,19 +39493,19 @@
       <c r="AH1" s="205"/>
       <c r="AI1" s="205"/>
       <c r="AJ1" s="206"/>
-      <c r="AK1" s="202" t="s">
+      <c r="AK1" s="201" t="s">
         <v>51</v>
       </c>
-      <c r="AL1" s="203"/>
-      <c r="AM1" s="203"/>
-      <c r="AN1" s="203"/>
-      <c r="AO1" s="203"/>
-      <c r="AP1" s="203"/>
-      <c r="AQ1" s="204"/>
-      <c r="AR1" s="198" t="s">
+      <c r="AL1" s="202"/>
+      <c r="AM1" s="202"/>
+      <c r="AN1" s="202"/>
+      <c r="AO1" s="202"/>
+      <c r="AP1" s="202"/>
+      <c r="AQ1" s="203"/>
+      <c r="AR1" s="194" t="s">
         <v>50</v>
       </c>
-      <c r="AS1" s="200"/>
+      <c r="AS1" s="195"/>
     </row>
     <row r="2" spans="2:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="26"/>
@@ -39559,29 +39571,29 @@
     </row>
     <row r="3" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B3" s="26"/>
-      <c r="C3" s="194" t="s">
+      <c r="C3" s="196" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="195" t="s">
+      <c r="D3" s="200" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="197" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="198" t="s">
+      <c r="F3" s="194" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="199"/>
-      <c r="H3" s="199"/>
-      <c r="I3" s="199"/>
-      <c r="J3" s="199"/>
-      <c r="K3" s="200"/>
-      <c r="L3" s="198" t="s">
+      <c r="G3" s="204"/>
+      <c r="H3" s="204"/>
+      <c r="I3" s="204"/>
+      <c r="J3" s="204"/>
+      <c r="K3" s="195"/>
+      <c r="L3" s="194" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="199"/>
-      <c r="N3" s="199"/>
-      <c r="O3" s="200"/>
+      <c r="M3" s="204"/>
+      <c r="N3" s="204"/>
+      <c r="O3" s="195"/>
       <c r="P3" s="29" t="s">
         <v>27</v>
       </c>
@@ -39617,10 +39629,10 @@
       <c r="AF3" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="AG3" s="195" t="s">
+      <c r="AG3" s="200" t="s">
         <v>35</v>
       </c>
-      <c r="AH3" s="196"/>
+      <c r="AH3" s="198"/>
       <c r="AI3" s="197"/>
       <c r="AJ3" s="30" t="s">
         <v>7</v>
@@ -39651,72 +39663,72 @@
     </row>
     <row r="4" spans="2:45" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="26"/>
-      <c r="C4" s="194"/>
-      <c r="D4" s="195"/>
+      <c r="C4" s="196"/>
+      <c r="D4" s="200"/>
       <c r="E4" s="197"/>
-      <c r="F4" s="195" t="s">
+      <c r="F4" s="200" t="s">
         <v>52</v>
       </c>
-      <c r="G4" s="196" t="s">
+      <c r="G4" s="198" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="196" t="s">
+      <c r="H4" s="198" t="s">
         <v>53</v>
       </c>
-      <c r="I4" s="196" t="s">
+      <c r="I4" s="198" t="s">
         <v>54</v>
       </c>
-      <c r="J4" s="196" t="s">
+      <c r="J4" s="198" t="s">
         <v>55</v>
       </c>
       <c r="K4" s="197"/>
-      <c r="L4" s="195" t="s">
+      <c r="L4" s="200" t="s">
         <v>52</v>
       </c>
-      <c r="M4" s="196" t="s">
+      <c r="M4" s="198" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="196" t="s">
+      <c r="N4" s="198" t="s">
         <v>53</v>
       </c>
       <c r="O4" s="197" t="s">
         <v>54</v>
       </c>
-      <c r="P4" s="194" t="s">
+      <c r="P4" s="196" t="s">
         <v>56</v>
       </c>
-      <c r="Q4" s="194" t="s">
+      <c r="Q4" s="196" t="s">
         <v>56</v>
       </c>
-      <c r="R4" s="194" t="s">
+      <c r="R4" s="196" t="s">
         <v>56</v>
       </c>
-      <c r="S4" s="195" t="s">
+      <c r="S4" s="200" t="s">
         <v>52</v>
       </c>
-      <c r="T4" s="196" t="s">
+      <c r="T4" s="198" t="s">
         <v>10</v>
       </c>
-      <c r="U4" s="196" t="s">
+      <c r="U4" s="198" t="s">
         <v>53</v>
       </c>
-      <c r="V4" s="196" t="s">
+      <c r="V4" s="198" t="s">
         <v>54</v>
       </c>
-      <c r="W4" s="201" t="s">
+      <c r="W4" s="216" t="s">
         <v>55</v>
       </c>
       <c r="X4" s="197"/>
-      <c r="Y4" s="195" t="s">
+      <c r="Y4" s="200" t="s">
         <v>52</v>
       </c>
-      <c r="Z4" s="196" t="s">
+      <c r="Z4" s="198" t="s">
         <v>10</v>
       </c>
-      <c r="AA4" s="196" t="s">
+      <c r="AA4" s="198" t="s">
         <v>53</v>
       </c>
-      <c r="AB4" s="216" t="s">
+      <c r="AB4" s="199" t="s">
         <v>54</v>
       </c>
       <c r="AC4" s="33"/>
@@ -39745,40 +39757,40 @@
     </row>
     <row r="5" spans="2:45" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="26"/>
-      <c r="C5" s="194"/>
-      <c r="D5" s="195"/>
+      <c r="C5" s="196"/>
+      <c r="D5" s="200"/>
       <c r="E5" s="197"/>
-      <c r="F5" s="195"/>
-      <c r="G5" s="196"/>
-      <c r="H5" s="196"/>
-      <c r="I5" s="196"/>
+      <c r="F5" s="200"/>
+      <c r="G5" s="198"/>
+      <c r="H5" s="198"/>
+      <c r="I5" s="198"/>
       <c r="J5" s="24" t="s">
         <v>57</v>
       </c>
       <c r="K5" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="L5" s="195"/>
-      <c r="M5" s="196"/>
-      <c r="N5" s="196"/>
+      <c r="L5" s="200"/>
+      <c r="M5" s="198"/>
+      <c r="N5" s="198"/>
       <c r="O5" s="197"/>
-      <c r="P5" s="194"/>
-      <c r="Q5" s="194"/>
-      <c r="R5" s="194"/>
-      <c r="S5" s="195"/>
-      <c r="T5" s="196"/>
-      <c r="U5" s="196"/>
-      <c r="V5" s="196"/>
+      <c r="P5" s="196"/>
+      <c r="Q5" s="196"/>
+      <c r="R5" s="196"/>
+      <c r="S5" s="200"/>
+      <c r="T5" s="198"/>
+      <c r="U5" s="198"/>
+      <c r="V5" s="198"/>
       <c r="W5" s="27" t="s">
         <v>59</v>
       </c>
       <c r="X5" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="Y5" s="195"/>
-      <c r="Z5" s="196"/>
-      <c r="AA5" s="196"/>
-      <c r="AB5" s="216"/>
+      <c r="Y5" s="200"/>
+      <c r="Z5" s="198"/>
+      <c r="AA5" s="198"/>
+      <c r="AB5" s="199"/>
       <c r="AC5" s="33"/>
       <c r="AD5" s="34"/>
       <c r="AE5" s="33"/>
@@ -40225,18 +40237,20 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="AB4:AB5"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="Z4:Z5"/>
-    <mergeCell ref="AA4:AA5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="Y4:Y5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
     <mergeCell ref="AK1:AQ1"/>
     <mergeCell ref="AR1:AS1"/>
     <mergeCell ref="F1:AJ1"/>
@@ -40251,20 +40265,18 @@
     <mergeCell ref="AE2:AF2"/>
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="AK2:AM2"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="Y4:Y5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="AB4:AB5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="Z4:Z5"/>
+    <mergeCell ref="AA4:AA5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="M4:M5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/BaremeJavaBaseTest2_KL16.xlsx
+++ b/BaremeJavaBaseTest2_KL16.xlsx
@@ -3509,10 +3509,148 @@
     <xf numFmtId="2" fontId="3" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3542,61 +3680,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3605,115 +3692,31 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3723,9 +3726,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3761,7 +3761,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -10777,11 +10777,11 @@
   <dimension ref="A1:CM90"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2325" ySplit="3630" topLeftCell="D14" activePane="bottomRight"/>
+      <pane xSplit="2325" ySplit="3630" topLeftCell="D8" activePane="bottomRight"/>
       <selection activeCell="D4" sqref="D4"/>
       <selection pane="topRight" activeCell="O6" sqref="O6"/>
       <selection pane="bottomLeft" activeCell="A19" sqref="A19:XFD19"/>
-      <selection pane="bottomRight" activeCell="Q23" sqref="Q23"/>
+      <selection pane="bottomRight" activeCell="S28" sqref="S28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -10844,96 +10844,96 @@
       <c r="D1" s="125"/>
       <c r="E1" s="18"/>
       <c r="F1" s="18"/>
-      <c r="I1" s="170" t="s">
+      <c r="I1" s="136" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="170"/>
-      <c r="K1" s="170"/>
-      <c r="L1" s="170"/>
-      <c r="M1" s="170"/>
-      <c r="N1" s="170"/>
-      <c r="O1" s="170"/>
-      <c r="P1" s="170"/>
-      <c r="Q1" s="180" t="s">
+      <c r="J1" s="136"/>
+      <c r="K1" s="136"/>
+      <c r="L1" s="136"/>
+      <c r="M1" s="136"/>
+      <c r="N1" s="136"/>
+      <c r="O1" s="136"/>
+      <c r="P1" s="136"/>
+      <c r="Q1" s="147" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="180"/>
-      <c r="S1" s="180"/>
-      <c r="T1" s="180"/>
-      <c r="U1" s="180"/>
-      <c r="V1" s="180"/>
-      <c r="W1" s="188" t="s">
+      <c r="R1" s="147"/>
+      <c r="S1" s="147"/>
+      <c r="T1" s="147"/>
+      <c r="U1" s="147"/>
+      <c r="V1" s="147"/>
+      <c r="W1" s="138" t="s">
         <v>103</v>
       </c>
-      <c r="X1" s="188"/>
-      <c r="Y1" s="188"/>
-      <c r="Z1" s="188"/>
-      <c r="AA1" s="188"/>
-      <c r="AB1" s="188"/>
-      <c r="AC1" s="188"/>
-      <c r="AD1" s="188"/>
-      <c r="AE1" s="188"/>
-      <c r="AF1" s="188"/>
-      <c r="AG1" s="188"/>
-      <c r="AH1" s="188"/>
-      <c r="AI1" s="188"/>
-      <c r="AJ1" s="188"/>
-      <c r="AK1" s="188"/>
-      <c r="AL1" s="188"/>
-      <c r="AM1" s="188"/>
-      <c r="AN1" s="188"/>
-      <c r="AO1" s="188"/>
-      <c r="AP1" s="188"/>
-      <c r="AQ1" s="188"/>
-      <c r="AR1" s="188"/>
-      <c r="AS1" s="188"/>
-      <c r="AT1" s="188"/>
-      <c r="AU1" s="188"/>
-      <c r="AV1" s="188"/>
-      <c r="AW1" s="188"/>
-      <c r="AX1" s="188"/>
-      <c r="AY1" s="188"/>
-      <c r="AZ1" s="188"/>
-      <c r="BA1" s="188"/>
-      <c r="BB1" s="188"/>
-      <c r="BC1" s="188"/>
-      <c r="BD1" s="188"/>
-      <c r="BE1" s="188"/>
-      <c r="BF1" s="188"/>
-      <c r="BG1" s="188"/>
-      <c r="BH1" s="188"/>
-      <c r="BI1" s="188"/>
-      <c r="BJ1" s="188"/>
-      <c r="BK1" s="188"/>
-      <c r="BL1" s="188"/>
-      <c r="BM1" s="188"/>
-      <c r="BN1" s="188"/>
-      <c r="BO1" s="188"/>
-      <c r="BP1" s="188"/>
-      <c r="BQ1" s="188"/>
-      <c r="BR1" s="188" t="s">
+      <c r="X1" s="138"/>
+      <c r="Y1" s="138"/>
+      <c r="Z1" s="138"/>
+      <c r="AA1" s="138"/>
+      <c r="AB1" s="138"/>
+      <c r="AC1" s="138"/>
+      <c r="AD1" s="138"/>
+      <c r="AE1" s="138"/>
+      <c r="AF1" s="138"/>
+      <c r="AG1" s="138"/>
+      <c r="AH1" s="138"/>
+      <c r="AI1" s="138"/>
+      <c r="AJ1" s="138"/>
+      <c r="AK1" s="138"/>
+      <c r="AL1" s="138"/>
+      <c r="AM1" s="138"/>
+      <c r="AN1" s="138"/>
+      <c r="AO1" s="138"/>
+      <c r="AP1" s="138"/>
+      <c r="AQ1" s="138"/>
+      <c r="AR1" s="138"/>
+      <c r="AS1" s="138"/>
+      <c r="AT1" s="138"/>
+      <c r="AU1" s="138"/>
+      <c r="AV1" s="138"/>
+      <c r="AW1" s="138"/>
+      <c r="AX1" s="138"/>
+      <c r="AY1" s="138"/>
+      <c r="AZ1" s="138"/>
+      <c r="BA1" s="138"/>
+      <c r="BB1" s="138"/>
+      <c r="BC1" s="138"/>
+      <c r="BD1" s="138"/>
+      <c r="BE1" s="138"/>
+      <c r="BF1" s="138"/>
+      <c r="BG1" s="138"/>
+      <c r="BH1" s="138"/>
+      <c r="BI1" s="138"/>
+      <c r="BJ1" s="138"/>
+      <c r="BK1" s="138"/>
+      <c r="BL1" s="138"/>
+      <c r="BM1" s="138"/>
+      <c r="BN1" s="138"/>
+      <c r="BO1" s="138"/>
+      <c r="BP1" s="138"/>
+      <c r="BQ1" s="138"/>
+      <c r="BR1" s="138" t="s">
         <v>102</v>
       </c>
-      <c r="BS1" s="188"/>
-      <c r="BT1" s="188"/>
-      <c r="BU1" s="188"/>
-      <c r="BV1" s="188"/>
-      <c r="BW1" s="188"/>
-      <c r="BX1" s="188" t="s">
+      <c r="BS1" s="138"/>
+      <c r="BT1" s="138"/>
+      <c r="BU1" s="138"/>
+      <c r="BV1" s="138"/>
+      <c r="BW1" s="138"/>
+      <c r="BX1" s="138" t="s">
         <v>104</v>
       </c>
-      <c r="BY1" s="188"/>
-      <c r="BZ1" s="188"/>
-      <c r="CA1" s="188"/>
-      <c r="CB1" s="188"/>
-      <c r="CC1" s="188"/>
-      <c r="CD1" s="188"/>
-      <c r="CE1" s="188"/>
-      <c r="CF1" s="188"/>
-      <c r="CG1" s="188"/>
-      <c r="CH1" s="188"/>
-      <c r="CI1" s="188"/>
-      <c r="CJ1" s="188"/>
+      <c r="BY1" s="138"/>
+      <c r="BZ1" s="138"/>
+      <c r="CA1" s="138"/>
+      <c r="CB1" s="138"/>
+      <c r="CC1" s="138"/>
+      <c r="CD1" s="138"/>
+      <c r="CE1" s="138"/>
+      <c r="CF1" s="138"/>
+      <c r="CG1" s="138"/>
+      <c r="CH1" s="138"/>
+      <c r="CI1" s="138"/>
+      <c r="CJ1" s="138"/>
       <c r="CK1" s="109"/>
     </row>
     <row r="2" spans="1:91" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -10945,113 +10945,113 @@
       <c r="F2" s="56"/>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="133"/>
-      <c r="K2" s="133"/>
-      <c r="L2" s="133"/>
-      <c r="M2" s="133"/>
-      <c r="N2" s="133"/>
-      <c r="O2" s="133"/>
-      <c r="P2" s="133"/>
-      <c r="Q2" s="170"/>
-      <c r="R2" s="170"/>
-      <c r="S2" s="170"/>
-      <c r="T2" s="170"/>
-      <c r="U2" s="170"/>
-      <c r="V2" s="170"/>
-      <c r="W2" s="156" t="s">
+      <c r="I2" s="137"/>
+      <c r="J2" s="137"/>
+      <c r="K2" s="137"/>
+      <c r="L2" s="137"/>
+      <c r="M2" s="137"/>
+      <c r="N2" s="137"/>
+      <c r="O2" s="137"/>
+      <c r="P2" s="137"/>
+      <c r="Q2" s="136"/>
+      <c r="R2" s="136"/>
+      <c r="S2" s="136"/>
+      <c r="T2" s="136"/>
+      <c r="U2" s="136"/>
+      <c r="V2" s="136"/>
+      <c r="W2" s="141" t="s">
         <v>4</v>
       </c>
-      <c r="X2" s="157"/>
-      <c r="Y2" s="158"/>
-      <c r="Z2" s="158"/>
-      <c r="AA2" s="158"/>
-      <c r="AB2" s="158"/>
-      <c r="AC2" s="158"/>
-      <c r="AD2" s="158"/>
-      <c r="AE2" s="158"/>
-      <c r="AF2" s="158"/>
-      <c r="AG2" s="158"/>
-      <c r="AH2" s="158"/>
-      <c r="AI2" s="158"/>
-      <c r="AJ2" s="158"/>
-      <c r="AK2" s="158"/>
-      <c r="AL2" s="158"/>
-      <c r="AM2" s="158"/>
-      <c r="AN2" s="158"/>
-      <c r="AO2" s="159"/>
-      <c r="AP2" s="189" t="s">
+      <c r="X2" s="190"/>
+      <c r="Y2" s="143"/>
+      <c r="Z2" s="143"/>
+      <c r="AA2" s="143"/>
+      <c r="AB2" s="143"/>
+      <c r="AC2" s="143"/>
+      <c r="AD2" s="143"/>
+      <c r="AE2" s="143"/>
+      <c r="AF2" s="143"/>
+      <c r="AG2" s="143"/>
+      <c r="AH2" s="143"/>
+      <c r="AI2" s="143"/>
+      <c r="AJ2" s="143"/>
+      <c r="AK2" s="143"/>
+      <c r="AL2" s="143"/>
+      <c r="AM2" s="143"/>
+      <c r="AN2" s="143"/>
+      <c r="AO2" s="145"/>
+      <c r="AP2" s="139" t="s">
         <v>12</v>
       </c>
-      <c r="AQ2" s="133"/>
-      <c r="AR2" s="133"/>
-      <c r="AS2" s="190"/>
-      <c r="AT2" s="132" t="s">
+      <c r="AQ2" s="137"/>
+      <c r="AR2" s="137"/>
+      <c r="AS2" s="140"/>
+      <c r="AT2" s="179" t="s">
         <v>6</v>
       </c>
-      <c r="AU2" s="133"/>
-      <c r="AV2" s="133"/>
-      <c r="AW2" s="169" t="s">
+      <c r="AU2" s="137"/>
+      <c r="AV2" s="137"/>
+      <c r="AW2" s="155" t="s">
         <v>101</v>
       </c>
-      <c r="AX2" s="170"/>
-      <c r="AY2" s="170"/>
-      <c r="AZ2" s="170"/>
-      <c r="BA2" s="170"/>
-      <c r="BB2" s="170"/>
-      <c r="BC2" s="170"/>
-      <c r="BD2" s="170"/>
-      <c r="BE2" s="170"/>
-      <c r="BF2" s="170"/>
-      <c r="BG2" s="170"/>
-      <c r="BH2" s="171"/>
-      <c r="BI2" s="169" t="s">
+      <c r="AX2" s="136"/>
+      <c r="AY2" s="136"/>
+      <c r="AZ2" s="136"/>
+      <c r="BA2" s="136"/>
+      <c r="BB2" s="136"/>
+      <c r="BC2" s="136"/>
+      <c r="BD2" s="136"/>
+      <c r="BE2" s="136"/>
+      <c r="BF2" s="136"/>
+      <c r="BG2" s="136"/>
+      <c r="BH2" s="156"/>
+      <c r="BI2" s="155" t="s">
         <v>105</v>
       </c>
-      <c r="BJ2" s="170"/>
-      <c r="BK2" s="170"/>
-      <c r="BL2" s="170"/>
-      <c r="BM2" s="170"/>
-      <c r="BN2" s="170"/>
-      <c r="BO2" s="170"/>
-      <c r="BP2" s="170"/>
-      <c r="BQ2" s="171"/>
-      <c r="BR2" s="156" t="s">
+      <c r="BJ2" s="136"/>
+      <c r="BK2" s="136"/>
+      <c r="BL2" s="136"/>
+      <c r="BM2" s="136"/>
+      <c r="BN2" s="136"/>
+      <c r="BO2" s="136"/>
+      <c r="BP2" s="136"/>
+      <c r="BQ2" s="156"/>
+      <c r="BR2" s="141" t="s">
         <v>106</v>
       </c>
-      <c r="BS2" s="158" t="s">
+      <c r="BS2" s="143" t="s">
         <v>107</v>
       </c>
-      <c r="BT2" s="158"/>
-      <c r="BU2" s="158" t="s">
+      <c r="BT2" s="143"/>
+      <c r="BU2" s="143" t="s">
         <v>108</v>
       </c>
-      <c r="BV2" s="158" t="s">
+      <c r="BV2" s="143" t="s">
         <v>109</v>
       </c>
-      <c r="BW2" s="159"/>
-      <c r="BX2" s="169" t="s">
+      <c r="BW2" s="145"/>
+      <c r="BX2" s="155" t="s">
         <v>110</v>
       </c>
-      <c r="BY2" s="170"/>
-      <c r="BZ2" s="170"/>
-      <c r="CA2" s="170"/>
-      <c r="CB2" s="170"/>
-      <c r="CC2" s="170"/>
-      <c r="CD2" s="170"/>
-      <c r="CE2" s="170"/>
-      <c r="CF2" s="170"/>
-      <c r="CG2" s="170"/>
-      <c r="CH2" s="170"/>
-      <c r="CI2" s="170"/>
-      <c r="CJ2" s="171"/>
-      <c r="CK2" s="176" t="s">
+      <c r="BY2" s="136"/>
+      <c r="BZ2" s="136"/>
+      <c r="CA2" s="136"/>
+      <c r="CB2" s="136"/>
+      <c r="CC2" s="136"/>
+      <c r="CD2" s="136"/>
+      <c r="CE2" s="136"/>
+      <c r="CF2" s="136"/>
+      <c r="CG2" s="136"/>
+      <c r="CH2" s="136"/>
+      <c r="CI2" s="136"/>
+      <c r="CJ2" s="156"/>
+      <c r="CK2" s="177" t="s">
         <v>13</v>
       </c>
-      <c r="CL2" s="168" t="s">
+      <c r="CL2" s="176" t="s">
         <v>174</v>
       </c>
-      <c r="CM2" s="168"/>
+      <c r="CM2" s="176"/>
     </row>
     <row r="3" spans="1:91" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
@@ -11062,129 +11062,129 @@
       <c r="F3" s="56"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
-      <c r="I3" s="140" t="s">
+      <c r="I3" s="186" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="143" t="s">
+      <c r="J3" s="167" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="143" t="s">
+      <c r="K3" s="167" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="140" t="s">
+      <c r="L3" s="186" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="140" t="s">
+      <c r="M3" s="186" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="143" t="s">
+      <c r="N3" s="167" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="137" t="s">
+      <c r="O3" s="183" t="s">
         <v>72</v>
       </c>
-      <c r="P3" s="143" t="s">
+      <c r="P3" s="167" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="170"/>
-      <c r="R3" s="170"/>
-      <c r="S3" s="170"/>
-      <c r="T3" s="170"/>
-      <c r="U3" s="170"/>
-      <c r="V3" s="170"/>
-      <c r="W3" s="150" t="s">
+      <c r="Q3" s="136"/>
+      <c r="R3" s="136"/>
+      <c r="S3" s="136"/>
+      <c r="T3" s="136"/>
+      <c r="U3" s="136"/>
+      <c r="V3" s="136"/>
+      <c r="W3" s="174" t="s">
         <v>92</v>
       </c>
-      <c r="X3" s="151"/>
-      <c r="Y3" s="151"/>
-      <c r="Z3" s="151"/>
-      <c r="AA3" s="151"/>
-      <c r="AB3" s="134" t="s">
+      <c r="X3" s="149"/>
+      <c r="Y3" s="149"/>
+      <c r="Z3" s="149"/>
+      <c r="AA3" s="149"/>
+      <c r="AB3" s="180" t="s">
         <v>112</v>
       </c>
-      <c r="AC3" s="160"/>
-      <c r="AD3" s="161"/>
-      <c r="AE3" s="161"/>
-      <c r="AF3" s="161"/>
-      <c r="AG3" s="161"/>
-      <c r="AH3" s="161"/>
-      <c r="AI3" s="161"/>
-      <c r="AJ3" s="166" t="s">
+      <c r="AC3" s="162"/>
+      <c r="AD3" s="158"/>
+      <c r="AE3" s="158"/>
+      <c r="AF3" s="158"/>
+      <c r="AG3" s="158"/>
+      <c r="AH3" s="158"/>
+      <c r="AI3" s="158"/>
+      <c r="AJ3" s="193" t="s">
         <v>113</v>
       </c>
-      <c r="AK3" s="151"/>
-      <c r="AL3" s="151"/>
-      <c r="AM3" s="151"/>
-      <c r="AN3" s="151"/>
-      <c r="AO3" s="167"/>
-      <c r="AP3" s="150" t="s">
+      <c r="AK3" s="149"/>
+      <c r="AL3" s="149"/>
+      <c r="AM3" s="149"/>
+      <c r="AN3" s="149"/>
+      <c r="AO3" s="150"/>
+      <c r="AP3" s="174" t="s">
         <v>5</v>
       </c>
-      <c r="AQ3" s="151"/>
-      <c r="AR3" s="151"/>
-      <c r="AS3" s="134" t="s">
+      <c r="AQ3" s="149"/>
+      <c r="AR3" s="149"/>
+      <c r="AS3" s="180" t="s">
         <v>22</v>
       </c>
-      <c r="AT3" s="143" t="s">
+      <c r="AT3" s="167" t="s">
         <v>7</v>
       </c>
-      <c r="AU3" s="180"/>
-      <c r="AV3" s="180"/>
-      <c r="AW3" s="185" t="s">
+      <c r="AU3" s="147"/>
+      <c r="AV3" s="147"/>
+      <c r="AW3" s="163" t="s">
         <v>133</v>
       </c>
-      <c r="AX3" s="187" t="s">
+      <c r="AX3" s="165" t="s">
         <v>8</v>
       </c>
-      <c r="AY3" s="184" t="s">
+      <c r="AY3" s="148" t="s">
         <v>121</v>
       </c>
-      <c r="AZ3" s="151"/>
-      <c r="BA3" s="151"/>
-      <c r="BB3" s="151"/>
-      <c r="BC3" s="160"/>
-      <c r="BD3" s="184" t="s">
+      <c r="AZ3" s="149"/>
+      <c r="BA3" s="149"/>
+      <c r="BB3" s="149"/>
+      <c r="BC3" s="162"/>
+      <c r="BD3" s="148" t="s">
         <v>123</v>
       </c>
-      <c r="BE3" s="151"/>
-      <c r="BF3" s="151"/>
-      <c r="BG3" s="151"/>
-      <c r="BH3" s="167"/>
-      <c r="BI3" s="172" t="s">
+      <c r="BE3" s="149"/>
+      <c r="BF3" s="149"/>
+      <c r="BG3" s="149"/>
+      <c r="BH3" s="150"/>
+      <c r="BI3" s="157" t="s">
         <v>71</v>
       </c>
-      <c r="BJ3" s="161"/>
-      <c r="BK3" s="161"/>
-      <c r="BL3" s="161"/>
-      <c r="BM3" s="161"/>
-      <c r="BN3" s="161"/>
-      <c r="BO3" s="161"/>
-      <c r="BP3" s="184"/>
-      <c r="BQ3" s="173"/>
-      <c r="BR3" s="191"/>
-      <c r="BS3" s="192"/>
-      <c r="BT3" s="192"/>
-      <c r="BU3" s="192"/>
-      <c r="BV3" s="192"/>
-      <c r="BW3" s="193"/>
-      <c r="BX3" s="172" t="s">
+      <c r="BJ3" s="158"/>
+      <c r="BK3" s="158"/>
+      <c r="BL3" s="158"/>
+      <c r="BM3" s="158"/>
+      <c r="BN3" s="158"/>
+      <c r="BO3" s="158"/>
+      <c r="BP3" s="148"/>
+      <c r="BQ3" s="159"/>
+      <c r="BR3" s="142"/>
+      <c r="BS3" s="144"/>
+      <c r="BT3" s="144"/>
+      <c r="BU3" s="144"/>
+      <c r="BV3" s="144"/>
+      <c r="BW3" s="146"/>
+      <c r="BX3" s="157" t="s">
         <v>111</v>
       </c>
-      <c r="BY3" s="161"/>
-      <c r="BZ3" s="161"/>
-      <c r="CA3" s="161"/>
-      <c r="CB3" s="161"/>
-      <c r="CC3" s="161"/>
-      <c r="CD3" s="161"/>
-      <c r="CE3" s="161"/>
-      <c r="CF3" s="161"/>
-      <c r="CG3" s="161"/>
-      <c r="CH3" s="161"/>
-      <c r="CI3" s="161"/>
-      <c r="CJ3" s="173"/>
-      <c r="CK3" s="169"/>
-      <c r="CL3" s="168"/>
-      <c r="CM3" s="168"/>
+      <c r="BY3" s="158"/>
+      <c r="BZ3" s="158"/>
+      <c r="CA3" s="158"/>
+      <c r="CB3" s="158"/>
+      <c r="CC3" s="158"/>
+      <c r="CD3" s="158"/>
+      <c r="CE3" s="158"/>
+      <c r="CF3" s="158"/>
+      <c r="CG3" s="158"/>
+      <c r="CH3" s="158"/>
+      <c r="CI3" s="158"/>
+      <c r="CJ3" s="159"/>
+      <c r="CK3" s="155"/>
+      <c r="CL3" s="176"/>
+      <c r="CM3" s="176"/>
     </row>
     <row r="4" spans="1:91" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -11213,15 +11213,15 @@
         <f>CONCATENATE("Note/",H6)</f>
         <v>Note/192</v>
       </c>
-      <c r="I4" s="141"/>
-      <c r="J4" s="144"/>
-      <c r="K4" s="144"/>
-      <c r="L4" s="141"/>
-      <c r="M4" s="141"/>
-      <c r="N4" s="144"/>
-      <c r="O4" s="138"/>
-      <c r="P4" s="144"/>
-      <c r="Q4" s="181" t="s">
+      <c r="I4" s="187"/>
+      <c r="J4" s="166"/>
+      <c r="K4" s="166"/>
+      <c r="L4" s="187"/>
+      <c r="M4" s="187"/>
+      <c r="N4" s="166"/>
+      <c r="O4" s="184"/>
+      <c r="P4" s="166"/>
+      <c r="Q4" s="168" t="s">
         <v>138</v>
       </c>
       <c r="R4" s="78" t="s">
@@ -11239,193 +11239,193 @@
       <c r="V4" s="75" t="s">
         <v>91</v>
       </c>
-      <c r="W4" s="162" t="s">
+      <c r="W4" s="191" t="s">
         <v>52</v>
       </c>
-      <c r="X4" s="146" t="s">
+      <c r="X4" s="172" t="s">
         <v>10</v>
       </c>
-      <c r="Y4" s="174" t="s">
+      <c r="Y4" s="151" t="s">
         <v>11</v>
       </c>
-      <c r="Z4" s="154" t="s">
+      <c r="Z4" s="132" t="s">
         <v>70</v>
       </c>
-      <c r="AA4" s="174" t="s">
+      <c r="AA4" s="151" t="s">
         <v>73</v>
       </c>
-      <c r="AB4" s="164" t="s">
+      <c r="AB4" s="170" t="s">
         <v>52</v>
       </c>
-      <c r="AC4" s="146" t="s">
+      <c r="AC4" s="172" t="s">
         <v>10</v>
       </c>
-      <c r="AD4" s="146" t="s">
+      <c r="AD4" s="172" t="s">
         <v>11</v>
       </c>
-      <c r="AE4" s="154" t="s">
+      <c r="AE4" s="132" t="s">
         <v>171</v>
       </c>
-      <c r="AF4" s="154" t="s">
+      <c r="AF4" s="132" t="s">
         <v>172</v>
       </c>
-      <c r="AG4" s="154" t="s">
+      <c r="AG4" s="132" t="s">
         <v>173</v>
       </c>
-      <c r="AH4" s="154" t="s">
+      <c r="AH4" s="132" t="s">
         <v>70</v>
       </c>
-      <c r="AI4" s="174" t="s">
+      <c r="AI4" s="151" t="s">
         <v>73</v>
       </c>
-      <c r="AJ4" s="164" t="s">
+      <c r="AJ4" s="170" t="s">
         <v>52</v>
       </c>
-      <c r="AK4" s="146" t="s">
+      <c r="AK4" s="172" t="s">
         <v>10</v>
       </c>
-      <c r="AL4" s="146" t="s">
+      <c r="AL4" s="172" t="s">
         <v>11</v>
       </c>
-      <c r="AM4" s="154" t="s">
+      <c r="AM4" s="132" t="s">
         <v>172</v>
       </c>
-      <c r="AN4" s="154" t="s">
+      <c r="AN4" s="132" t="s">
         <v>70</v>
       </c>
-      <c r="AO4" s="152" t="s">
+      <c r="AO4" s="160" t="s">
         <v>73</v>
       </c>
-      <c r="AP4" s="148" t="s">
+      <c r="AP4" s="153" t="s">
         <v>114</v>
       </c>
-      <c r="AQ4" s="178" t="s">
+      <c r="AQ4" s="134" t="s">
         <v>115</v>
       </c>
-      <c r="AR4" s="179"/>
-      <c r="AS4" s="135"/>
-      <c r="AT4" s="144"/>
-      <c r="AU4" s="170"/>
-      <c r="AV4" s="170"/>
-      <c r="AW4" s="156"/>
-      <c r="AX4" s="158"/>
-      <c r="AY4" s="174" t="s">
+      <c r="AR4" s="135"/>
+      <c r="AS4" s="181"/>
+      <c r="AT4" s="166"/>
+      <c r="AU4" s="136"/>
+      <c r="AV4" s="136"/>
+      <c r="AW4" s="141"/>
+      <c r="AX4" s="143"/>
+      <c r="AY4" s="151" t="s">
         <v>96</v>
       </c>
-      <c r="AZ4" s="174" t="s">
+      <c r="AZ4" s="151" t="s">
         <v>119</v>
       </c>
-      <c r="BA4" s="174" t="s">
+      <c r="BA4" s="151" t="s">
         <v>122</v>
       </c>
-      <c r="BB4" s="174" t="s">
+      <c r="BB4" s="151" t="s">
         <v>124</v>
       </c>
-      <c r="BC4" s="174" t="s">
+      <c r="BC4" s="151" t="s">
         <v>120</v>
       </c>
-      <c r="BD4" s="174" t="s">
+      <c r="BD4" s="151" t="s">
         <v>96</v>
       </c>
-      <c r="BE4" s="174" t="s">
+      <c r="BE4" s="151" t="s">
         <v>119</v>
       </c>
-      <c r="BF4" s="174" t="s">
+      <c r="BF4" s="151" t="s">
         <v>122</v>
       </c>
-      <c r="BG4" s="174" t="s">
+      <c r="BG4" s="151" t="s">
         <v>124</v>
       </c>
-      <c r="BH4" s="174" t="s">
+      <c r="BH4" s="151" t="s">
         <v>120</v>
       </c>
-      <c r="BI4" s="148" t="s">
+      <c r="BI4" s="153" t="s">
         <v>125</v>
       </c>
-      <c r="BJ4" s="174" t="s">
+      <c r="BJ4" s="151" t="s">
         <v>132</v>
       </c>
-      <c r="BK4" s="174" t="s">
+      <c r="BK4" s="151" t="s">
         <v>126</v>
       </c>
-      <c r="BL4" s="174" t="s">
+      <c r="BL4" s="151" t="s">
         <v>127</v>
       </c>
-      <c r="BM4" s="174" t="s">
+      <c r="BM4" s="151" t="s">
         <v>128</v>
       </c>
-      <c r="BN4" s="174" t="s">
+      <c r="BN4" s="151" t="s">
         <v>129</v>
       </c>
-      <c r="BO4" s="174" t="s">
+      <c r="BO4" s="151" t="s">
         <v>130</v>
       </c>
-      <c r="BP4" s="174" t="s">
+      <c r="BP4" s="151" t="s">
         <v>116</v>
       </c>
-      <c r="BQ4" s="152" t="s">
+      <c r="BQ4" s="160" t="s">
         <v>131</v>
       </c>
-      <c r="BR4" s="148" t="s">
+      <c r="BR4" s="153" t="s">
         <v>96</v>
       </c>
-      <c r="BS4" s="174" t="s">
+      <c r="BS4" s="151" t="s">
         <v>97</v>
       </c>
-      <c r="BT4" s="174" t="s">
+      <c r="BT4" s="151" t="s">
         <v>98</v>
       </c>
-      <c r="BU4" s="174" t="s">
+      <c r="BU4" s="151" t="s">
         <v>94</v>
       </c>
-      <c r="BV4" s="174" t="s">
-        <v>99</v>
-      </c>
-      <c r="BW4" s="174" t="s">
+      <c r="BV4" s="151" t="s">
+        <v>99</v>
+      </c>
+      <c r="BW4" s="151" t="s">
         <v>95</v>
       </c>
-      <c r="BX4" s="148" t="s">
+      <c r="BX4" s="153" t="s">
         <v>139</v>
       </c>
-      <c r="BY4" s="174" t="s">
+      <c r="BY4" s="151" t="s">
         <v>140</v>
       </c>
-      <c r="BZ4" s="174" t="s">
+      <c r="BZ4" s="151" t="s">
         <v>141</v>
       </c>
-      <c r="CA4" s="174" t="s">
+      <c r="CA4" s="151" t="s">
         <v>142</v>
       </c>
-      <c r="CB4" s="174" t="s">
+      <c r="CB4" s="151" t="s">
         <v>143</v>
       </c>
-      <c r="CC4" s="174" t="s">
+      <c r="CC4" s="151" t="s">
         <v>144</v>
       </c>
-      <c r="CD4" s="174" t="s">
+      <c r="CD4" s="151" t="s">
         <v>145</v>
       </c>
-      <c r="CE4" s="174" t="s">
+      <c r="CE4" s="151" t="s">
         <v>135</v>
       </c>
-      <c r="CF4" s="174" t="s">
+      <c r="CF4" s="151" t="s">
         <v>146</v>
       </c>
-      <c r="CG4" s="174" t="s">
+      <c r="CG4" s="151" t="s">
         <v>147</v>
       </c>
-      <c r="CH4" s="174" t="s">
+      <c r="CH4" s="151" t="s">
         <v>148</v>
       </c>
-      <c r="CI4" s="174" t="s">
+      <c r="CI4" s="151" t="s">
         <v>149</v>
       </c>
-      <c r="CJ4" s="152" t="s">
+      <c r="CJ4" s="160" t="s">
         <v>150</v>
       </c>
-      <c r="CK4" s="169"/>
-      <c r="CL4" s="168"/>
-      <c r="CM4" s="168"/>
+      <c r="CK4" s="155"/>
+      <c r="CL4" s="176"/>
+      <c r="CM4" s="176"/>
     </row>
     <row r="5" spans="1:91" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
@@ -11436,15 +11436,15 @@
       <c r="F5" s="17"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
-      <c r="I5" s="142"/>
-      <c r="J5" s="145"/>
-      <c r="K5" s="145"/>
-      <c r="L5" s="142"/>
-      <c r="M5" s="142"/>
-      <c r="N5" s="145"/>
-      <c r="O5" s="139"/>
-      <c r="P5" s="132"/>
-      <c r="Q5" s="182"/>
+      <c r="I5" s="188"/>
+      <c r="J5" s="189"/>
+      <c r="K5" s="189"/>
+      <c r="L5" s="188"/>
+      <c r="M5" s="188"/>
+      <c r="N5" s="189"/>
+      <c r="O5" s="185"/>
+      <c r="P5" s="179"/>
+      <c r="Q5" s="169"/>
       <c r="R5" s="89" t="s">
         <v>134</v>
       </c>
@@ -11460,33 +11460,33 @@
       <c r="V5" s="88" t="s">
         <v>137</v>
       </c>
-      <c r="W5" s="163"/>
-      <c r="X5" s="147"/>
-      <c r="Y5" s="175"/>
-      <c r="Z5" s="155"/>
-      <c r="AA5" s="175"/>
-      <c r="AB5" s="165"/>
-      <c r="AC5" s="147"/>
-      <c r="AD5" s="147"/>
-      <c r="AE5" s="155"/>
-      <c r="AF5" s="155"/>
-      <c r="AG5" s="155"/>
-      <c r="AH5" s="155"/>
-      <c r="AI5" s="175"/>
-      <c r="AJ5" s="165"/>
-      <c r="AK5" s="147"/>
-      <c r="AL5" s="147"/>
-      <c r="AM5" s="155"/>
-      <c r="AN5" s="155"/>
-      <c r="AO5" s="153"/>
-      <c r="AP5" s="149"/>
+      <c r="W5" s="192"/>
+      <c r="X5" s="173"/>
+      <c r="Y5" s="152"/>
+      <c r="Z5" s="133"/>
+      <c r="AA5" s="152"/>
+      <c r="AB5" s="171"/>
+      <c r="AC5" s="173"/>
+      <c r="AD5" s="173"/>
+      <c r="AE5" s="133"/>
+      <c r="AF5" s="133"/>
+      <c r="AG5" s="133"/>
+      <c r="AH5" s="133"/>
+      <c r="AI5" s="152"/>
+      <c r="AJ5" s="171"/>
+      <c r="AK5" s="173"/>
+      <c r="AL5" s="173"/>
+      <c r="AM5" s="133"/>
+      <c r="AN5" s="133"/>
+      <c r="AO5" s="161"/>
+      <c r="AP5" s="154"/>
       <c r="AQ5" s="90" t="s">
         <v>93</v>
       </c>
       <c r="AR5" s="90" t="s">
         <v>116</v>
       </c>
-      <c r="AS5" s="136"/>
+      <c r="AS5" s="182"/>
       <c r="AT5" s="98" t="s">
         <v>100</v>
       </c>
@@ -11496,49 +11496,49 @@
       <c r="AV5" s="99" t="s">
         <v>118</v>
       </c>
-      <c r="AW5" s="186"/>
-      <c r="AX5" s="155"/>
-      <c r="AY5" s="175"/>
-      <c r="AZ5" s="175"/>
-      <c r="BA5" s="175"/>
-      <c r="BB5" s="175"/>
-      <c r="BC5" s="175"/>
-      <c r="BD5" s="175"/>
-      <c r="BE5" s="175"/>
-      <c r="BF5" s="175"/>
-      <c r="BG5" s="175"/>
-      <c r="BH5" s="175"/>
-      <c r="BI5" s="149"/>
-      <c r="BJ5" s="175"/>
-      <c r="BK5" s="175"/>
-      <c r="BL5" s="175"/>
-      <c r="BM5" s="175"/>
-      <c r="BN5" s="175"/>
-      <c r="BO5" s="175"/>
-      <c r="BP5" s="175"/>
-      <c r="BQ5" s="153"/>
-      <c r="BR5" s="149"/>
-      <c r="BS5" s="175"/>
-      <c r="BT5" s="175"/>
-      <c r="BU5" s="175"/>
-      <c r="BV5" s="175"/>
-      <c r="BW5" s="175"/>
-      <c r="BX5" s="149"/>
-      <c r="BY5" s="175"/>
-      <c r="BZ5" s="175"/>
-      <c r="CA5" s="175"/>
-      <c r="CB5" s="175"/>
-      <c r="CC5" s="175"/>
-      <c r="CD5" s="175"/>
-      <c r="CE5" s="175"/>
-      <c r="CF5" s="175"/>
-      <c r="CG5" s="175"/>
-      <c r="CH5" s="175"/>
-      <c r="CI5" s="175"/>
-      <c r="CJ5" s="153"/>
-      <c r="CK5" s="177"/>
-      <c r="CL5" s="168"/>
-      <c r="CM5" s="168"/>
+      <c r="AW5" s="164"/>
+      <c r="AX5" s="133"/>
+      <c r="AY5" s="152"/>
+      <c r="AZ5" s="152"/>
+      <c r="BA5" s="152"/>
+      <c r="BB5" s="152"/>
+      <c r="BC5" s="152"/>
+      <c r="BD5" s="152"/>
+      <c r="BE5" s="152"/>
+      <c r="BF5" s="152"/>
+      <c r="BG5" s="152"/>
+      <c r="BH5" s="152"/>
+      <c r="BI5" s="154"/>
+      <c r="BJ5" s="152"/>
+      <c r="BK5" s="152"/>
+      <c r="BL5" s="152"/>
+      <c r="BM5" s="152"/>
+      <c r="BN5" s="152"/>
+      <c r="BO5" s="152"/>
+      <c r="BP5" s="152"/>
+      <c r="BQ5" s="161"/>
+      <c r="BR5" s="154"/>
+      <c r="BS5" s="152"/>
+      <c r="BT5" s="152"/>
+      <c r="BU5" s="152"/>
+      <c r="BV5" s="152"/>
+      <c r="BW5" s="152"/>
+      <c r="BX5" s="154"/>
+      <c r="BY5" s="152"/>
+      <c r="BZ5" s="152"/>
+      <c r="CA5" s="152"/>
+      <c r="CB5" s="152"/>
+      <c r="CC5" s="152"/>
+      <c r="CD5" s="152"/>
+      <c r="CE5" s="152"/>
+      <c r="CF5" s="152"/>
+      <c r="CG5" s="152"/>
+      <c r="CH5" s="152"/>
+      <c r="CI5" s="152"/>
+      <c r="CJ5" s="161"/>
+      <c r="CK5" s="178"/>
+      <c r="CL5" s="176"/>
+      <c r="CM5" s="176"/>
     </row>
     <row r="6" spans="1:91" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -12081,108 +12081,108 @@
       <c r="N8" s="8"/>
       <c r="O8" s="48"/>
       <c r="P8" s="8"/>
-      <c r="Q8" s="144">
+      <c r="Q8" s="166">
         <f>SUM(Q6:V6)</f>
         <v>25</v>
       </c>
-      <c r="R8" s="170"/>
-      <c r="S8" s="170"/>
-      <c r="T8" s="170"/>
-      <c r="U8" s="170"/>
-      <c r="V8" s="170"/>
-      <c r="W8" s="178">
+      <c r="R8" s="136"/>
+      <c r="S8" s="136"/>
+      <c r="T8" s="136"/>
+      <c r="U8" s="136"/>
+      <c r="V8" s="136"/>
+      <c r="W8" s="134">
         <f>SUM(W6:AA6)</f>
         <v>0</v>
       </c>
-      <c r="X8" s="179"/>
-      <c r="Y8" s="179"/>
-      <c r="Z8" s="179"/>
-      <c r="AA8" s="179"/>
-      <c r="AB8" s="178">
+      <c r="X8" s="135"/>
+      <c r="Y8" s="135"/>
+      <c r="Z8" s="135"/>
+      <c r="AA8" s="135"/>
+      <c r="AB8" s="134">
         <f>SUM(AB6:AI6)</f>
         <v>25</v>
       </c>
-      <c r="AC8" s="179"/>
-      <c r="AD8" s="179"/>
-      <c r="AE8" s="179"/>
-      <c r="AF8" s="179"/>
-      <c r="AG8" s="179"/>
-      <c r="AH8" s="179"/>
-      <c r="AI8" s="179"/>
-      <c r="AJ8" s="178">
+      <c r="AC8" s="135"/>
+      <c r="AD8" s="135"/>
+      <c r="AE8" s="135"/>
+      <c r="AF8" s="135"/>
+      <c r="AG8" s="135"/>
+      <c r="AH8" s="135"/>
+      <c r="AI8" s="135"/>
+      <c r="AJ8" s="134">
         <f>SUM(AJ6:AO6)</f>
         <v>9</v>
       </c>
-      <c r="AK8" s="179"/>
-      <c r="AL8" s="179"/>
-      <c r="AM8" s="179"/>
-      <c r="AN8" s="179"/>
-      <c r="AO8" s="183"/>
-      <c r="AP8" s="178">
+      <c r="AK8" s="135"/>
+      <c r="AL8" s="135"/>
+      <c r="AM8" s="135"/>
+      <c r="AN8" s="135"/>
+      <c r="AO8" s="175"/>
+      <c r="AP8" s="134">
         <f>SUM(AP6:AR6)</f>
         <v>2</v>
       </c>
-      <c r="AQ8" s="179"/>
-      <c r="AR8" s="179"/>
+      <c r="AQ8" s="135"/>
+      <c r="AR8" s="135"/>
       <c r="AS8" s="97"/>
-      <c r="AT8" s="178">
+      <c r="AT8" s="134">
         <f>SUM(AT6:AV6)</f>
         <v>5</v>
       </c>
-      <c r="AU8" s="179"/>
-      <c r="AV8" s="179"/>
-      <c r="AW8" s="178">
+      <c r="AU8" s="135"/>
+      <c r="AV8" s="135"/>
+      <c r="AW8" s="134">
         <f>SUM(AW6:BH6)</f>
         <v>17</v>
       </c>
-      <c r="AX8" s="179"/>
-      <c r="AY8" s="179"/>
-      <c r="AZ8" s="179"/>
-      <c r="BA8" s="179"/>
-      <c r="BB8" s="179"/>
-      <c r="BC8" s="179"/>
-      <c r="BD8" s="179"/>
-      <c r="BE8" s="179"/>
-      <c r="BF8" s="179"/>
-      <c r="BG8" s="179"/>
-      <c r="BH8" s="179"/>
-      <c r="BI8" s="178">
+      <c r="AX8" s="135"/>
+      <c r="AY8" s="135"/>
+      <c r="AZ8" s="135"/>
+      <c r="BA8" s="135"/>
+      <c r="BB8" s="135"/>
+      <c r="BC8" s="135"/>
+      <c r="BD8" s="135"/>
+      <c r="BE8" s="135"/>
+      <c r="BF8" s="135"/>
+      <c r="BG8" s="135"/>
+      <c r="BH8" s="135"/>
+      <c r="BI8" s="134">
         <f>SUM(BI6:BQ6)</f>
         <v>28</v>
       </c>
-      <c r="BJ8" s="179"/>
-      <c r="BK8" s="179"/>
-      <c r="BL8" s="179"/>
-      <c r="BM8" s="179"/>
-      <c r="BN8" s="179"/>
-      <c r="BO8" s="179"/>
-      <c r="BP8" s="179"/>
-      <c r="BQ8" s="179"/>
-      <c r="BR8" s="178">
+      <c r="BJ8" s="135"/>
+      <c r="BK8" s="135"/>
+      <c r="BL8" s="135"/>
+      <c r="BM8" s="135"/>
+      <c r="BN8" s="135"/>
+      <c r="BO8" s="135"/>
+      <c r="BP8" s="135"/>
+      <c r="BQ8" s="135"/>
+      <c r="BR8" s="134">
         <f>SUM(BR6:BW6)</f>
         <v>0</v>
       </c>
-      <c r="BS8" s="179"/>
-      <c r="BT8" s="179"/>
-      <c r="BU8" s="179"/>
-      <c r="BV8" s="179"/>
-      <c r="BW8" s="179"/>
-      <c r="BX8" s="178">
+      <c r="BS8" s="135"/>
+      <c r="BT8" s="135"/>
+      <c r="BU8" s="135"/>
+      <c r="BV8" s="135"/>
+      <c r="BW8" s="135"/>
+      <c r="BX8" s="134">
         <f>SUM(BX6:CJ6)</f>
         <v>43</v>
       </c>
-      <c r="BY8" s="179"/>
-      <c r="BZ8" s="179"/>
-      <c r="CA8" s="179"/>
-      <c r="CB8" s="179"/>
-      <c r="CC8" s="179"/>
-      <c r="CD8" s="179"/>
-      <c r="CE8" s="179"/>
-      <c r="CF8" s="179"/>
-      <c r="CG8" s="179"/>
-      <c r="CH8" s="179"/>
-      <c r="CI8" s="179"/>
-      <c r="CJ8" s="179"/>
+      <c r="BY8" s="135"/>
+      <c r="BZ8" s="135"/>
+      <c r="CA8" s="135"/>
+      <c r="CB8" s="135"/>
+      <c r="CC8" s="135"/>
+      <c r="CD8" s="135"/>
+      <c r="CE8" s="135"/>
+      <c r="CF8" s="135"/>
+      <c r="CG8" s="135"/>
+      <c r="CH8" s="135"/>
+      <c r="CI8" s="135"/>
+      <c r="CJ8" s="135"/>
       <c r="CK8" s="2">
         <f>CK6</f>
         <v>1</v>
@@ -15385,20 +15385,20 @@
       <c r="C23" s="4"/>
       <c r="D23" s="130">
         <f t="shared" si="0"/>
-        <v>4.856770833333333</v>
+        <v>4.908854166666667</v>
       </c>
       <c r="E23" s="19">
         <f t="shared" si="1"/>
-        <v>6.2946428571428568</v>
+        <v>6.4732142857142865</v>
       </c>
       <c r="F23" s="19"/>
       <c r="G23" s="14">
         <f t="shared" si="4"/>
-        <v>17.625</v>
+        <v>18.125</v>
       </c>
       <c r="H23" s="14">
         <f t="shared" si="3"/>
-        <v>46.625</v>
+        <v>47.125</v>
       </c>
       <c r="I23" s="105">
         <v>1</v>
@@ -15420,12 +15420,24 @@
         <v>0</v>
       </c>
       <c r="P23" s="103"/>
-      <c r="Q23" s="84"/>
-      <c r="R23" s="84"/>
-      <c r="S23" s="84"/>
-      <c r="T23" s="84"/>
-      <c r="U23" s="84"/>
-      <c r="V23" s="84"/>
+      <c r="Q23" s="84">
+        <v>0.5</v>
+      </c>
+      <c r="R23" s="84">
+        <v>0</v>
+      </c>
+      <c r="S23" s="84">
+        <v>0</v>
+      </c>
+      <c r="T23" s="84">
+        <v>0</v>
+      </c>
+      <c r="U23" s="84">
+        <v>0</v>
+      </c>
+      <c r="V23" s="84">
+        <v>0</v>
+      </c>
       <c r="W23" s="84">
         <v>99</v>
       </c>
@@ -15600,20 +15612,20 @@
       <c r="C24" s="4"/>
       <c r="D24" s="130">
         <f t="shared" si="0"/>
-        <v>7.2916666666666661</v>
+        <v>9.1666666666666661</v>
       </c>
       <c r="E24" s="19">
         <f t="shared" si="1"/>
-        <v>7.6785714285714288</v>
+        <v>9.2857142857142865</v>
       </c>
       <c r="F24" s="19"/>
       <c r="G24" s="14">
         <f t="shared" si="4"/>
-        <v>21.5</v>
+        <v>26</v>
       </c>
       <c r="H24" s="14">
         <f t="shared" si="3"/>
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="I24" s="106">
         <v>0</v>
@@ -15635,12 +15647,24 @@
         <v>0</v>
       </c>
       <c r="P24" s="107"/>
-      <c r="Q24" s="84"/>
-      <c r="R24" s="84"/>
-      <c r="S24" s="84"/>
-      <c r="T24" s="84"/>
-      <c r="U24" s="84"/>
-      <c r="V24" s="84"/>
+      <c r="Q24" s="84">
+        <v>1</v>
+      </c>
+      <c r="R24" s="84">
+        <v>0.5</v>
+      </c>
+      <c r="S24" s="84">
+        <v>0</v>
+      </c>
+      <c r="T24" s="84">
+        <v>1</v>
+      </c>
+      <c r="U24" s="84">
+        <v>1</v>
+      </c>
+      <c r="V24" s="84">
+        <v>1</v>
+      </c>
       <c r="W24" s="84">
         <v>99</v>
       </c>
@@ -15815,20 +15839,20 @@
       <c r="C25" s="4"/>
       <c r="D25" s="130">
         <f t="shared" si="0"/>
-        <v>6.0848958333333334</v>
+        <v>7.1786458333333325</v>
       </c>
       <c r="E25" s="19">
         <f t="shared" si="1"/>
-        <v>6.4303571428571429</v>
+        <v>7.3232142857142861</v>
       </c>
       <c r="F25" s="19"/>
       <c r="G25" s="14">
         <f t="shared" si="4"/>
-        <v>18.004999999999999</v>
+        <v>20.504999999999999</v>
       </c>
       <c r="H25" s="14">
         <f t="shared" si="3"/>
-        <v>58.414999999999999</v>
+        <v>68.914999999999992</v>
       </c>
       <c r="I25" s="106">
         <v>1</v>
@@ -15850,12 +15874,24 @@
         <v>0</v>
       </c>
       <c r="P25" s="107"/>
-      <c r="Q25" s="84"/>
-      <c r="R25" s="84"/>
-      <c r="S25" s="84"/>
-      <c r="T25" s="84"/>
-      <c r="U25" s="84"/>
-      <c r="V25" s="84"/>
+      <c r="Q25" s="84">
+        <v>0.5</v>
+      </c>
+      <c r="R25" s="84">
+        <v>0</v>
+      </c>
+      <c r="S25" s="84">
+        <v>0.5</v>
+      </c>
+      <c r="T25" s="84">
+        <v>0.5</v>
+      </c>
+      <c r="U25" s="84">
+        <v>0.5</v>
+      </c>
+      <c r="V25" s="84">
+        <v>0.5</v>
+      </c>
       <c r="W25" s="84">
         <v>99</v>
       </c>
@@ -16030,20 +16066,20 @@
       <c r="C26" s="4"/>
       <c r="D26" s="130">
         <f t="shared" si="0"/>
-        <v>8.2291666666666661</v>
+        <v>9.1927083333333339</v>
       </c>
       <c r="E26" s="19">
         <f t="shared" si="1"/>
-        <v>9.375</v>
+        <v>10.267857142857142</v>
       </c>
       <c r="F26" s="19"/>
       <c r="G26" s="14">
         <f t="shared" si="4"/>
-        <v>26.25</v>
+        <v>28.75</v>
       </c>
       <c r="H26" s="14">
         <f t="shared" si="3"/>
-        <v>79</v>
+        <v>88.25</v>
       </c>
       <c r="I26" s="106">
         <v>0</v>
@@ -16065,12 +16101,24 @@
         <v>0</v>
       </c>
       <c r="P26" s="107"/>
-      <c r="Q26" s="84"/>
-      <c r="R26" s="84"/>
-      <c r="S26" s="84"/>
-      <c r="T26" s="84"/>
-      <c r="U26" s="84"/>
-      <c r="V26" s="84"/>
+      <c r="Q26" s="84">
+        <v>0.75</v>
+      </c>
+      <c r="R26" s="84">
+        <v>0.25</v>
+      </c>
+      <c r="S26" s="84">
+        <v>0</v>
+      </c>
+      <c r="T26" s="84">
+        <v>0.25</v>
+      </c>
+      <c r="U26" s="84">
+        <v>0.25</v>
+      </c>
+      <c r="V26" s="84">
+        <v>1</v>
+      </c>
       <c r="W26" s="84">
         <v>99</v>
       </c>
@@ -16245,20 +16293,20 @@
       <c r="C27" s="113"/>
       <c r="D27" s="130">
         <f t="shared" si="0"/>
-        <v>8.3463541666666661</v>
+        <v>8.9192708333333339</v>
       </c>
       <c r="E27" s="19">
         <f t="shared" si="1"/>
-        <v>9.5982142857142865</v>
+        <v>10.133928571428573</v>
       </c>
       <c r="F27" s="19"/>
       <c r="G27" s="14">
         <f t="shared" si="4"/>
-        <v>26.875</v>
+        <v>28.375</v>
       </c>
       <c r="H27" s="14">
         <f t="shared" si="3"/>
-        <v>80.125</v>
+        <v>85.625</v>
       </c>
       <c r="I27" s="106">
         <v>1</v>
@@ -16280,12 +16328,24 @@
         <v>0</v>
       </c>
       <c r="P27" s="107"/>
-      <c r="Q27" s="84"/>
-      <c r="R27" s="84"/>
-      <c r="S27" s="84"/>
-      <c r="T27" s="84"/>
-      <c r="U27" s="84"/>
-      <c r="V27" s="84"/>
+      <c r="Q27" s="84">
+        <v>0.5</v>
+      </c>
+      <c r="R27" s="84">
+        <v>0</v>
+      </c>
+      <c r="S27" s="84">
+        <v>0</v>
+      </c>
+      <c r="T27" s="84">
+        <v>0.5</v>
+      </c>
+      <c r="U27" s="84">
+        <v>0</v>
+      </c>
+      <c r="V27" s="84">
+        <v>0.5</v>
+      </c>
       <c r="W27" s="84">
         <v>99</v>
       </c>
@@ -16460,20 +16520,20 @@
       <c r="C28" s="4"/>
       <c r="D28" s="130">
         <f t="shared" si="0"/>
-        <v>9.4479166666666679</v>
+        <v>9.8125</v>
       </c>
       <c r="E28" s="19">
         <f t="shared" si="1"/>
-        <v>9.9642857142857135</v>
+        <v>10.5</v>
       </c>
       <c r="F28" s="19"/>
       <c r="G28" s="14">
         <f t="shared" si="4"/>
-        <v>27.9</v>
+        <v>29.4</v>
       </c>
       <c r="H28" s="14">
         <f t="shared" si="3"/>
-        <v>90.7</v>
+        <v>94.2</v>
       </c>
       <c r="I28" s="106">
         <v>0</v>
@@ -16495,12 +16555,24 @@
         <v>1</v>
       </c>
       <c r="P28" s="107"/>
-      <c r="Q28" s="84"/>
-      <c r="R28" s="84"/>
-      <c r="S28" s="84"/>
-      <c r="T28" s="84"/>
-      <c r="U28" s="84"/>
-      <c r="V28" s="84"/>
+      <c r="Q28" s="84">
+        <v>1</v>
+      </c>
+      <c r="R28" s="84">
+        <v>0</v>
+      </c>
+      <c r="S28" s="84">
+        <v>0</v>
+      </c>
+      <c r="T28" s="84">
+        <v>0</v>
+      </c>
+      <c r="U28" s="84">
+        <v>0</v>
+      </c>
+      <c r="V28" s="84">
+        <v>0.5</v>
+      </c>
       <c r="W28" s="84">
         <v>99</v>
       </c>
@@ -17623,27 +17695,27 @@
       </c>
       <c r="Q34" s="68">
         <f t="shared" si="7"/>
-        <v>0.67500000000000004</v>
+        <v>0.68452380952380953</v>
       </c>
       <c r="R34" s="68">
         <f t="shared" si="7"/>
-        <v>0.45</v>
+        <v>0.35714285714285715</v>
       </c>
       <c r="S34" s="68">
         <f t="shared" si="7"/>
-        <v>0.49166666666666664</v>
+        <v>0.375</v>
       </c>
       <c r="T34" s="68">
         <f t="shared" si="7"/>
-        <v>0.57499999999999996</v>
+        <v>0.5178571428571429</v>
       </c>
       <c r="U34" s="68">
         <f t="shared" si="7"/>
-        <v>0.58333333333333337</v>
+        <v>0.5</v>
       </c>
       <c r="V34" s="68">
         <f t="shared" si="7"/>
-        <v>0.75</v>
+        <v>0.70238095238095233</v>
       </c>
       <c r="W34" s="68">
         <f t="shared" si="7"/>
@@ -22663,7 +22735,7 @@
       <c r="F50" s="18"/>
       <c r="H50" s="111">
         <f t="shared" si="18"/>
-        <v>46.625</v>
+        <v>47.125</v>
       </c>
       <c r="I50" s="111">
         <f t="shared" ref="I50:BA50" si="82">I23*I$6</f>
@@ -22699,7 +22771,7 @@
       </c>
       <c r="Q50" s="111">
         <f t="shared" si="82"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R50" s="111">
         <f t="shared" si="82"/>
@@ -23004,7 +23076,7 @@
       <c r="F51" s="18"/>
       <c r="H51" s="111">
         <f t="shared" si="18"/>
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="I51" s="111">
         <f t="shared" ref="I51:BA51" si="86">I24*I$6</f>
@@ -23040,11 +23112,11 @@
       </c>
       <c r="Q51" s="111">
         <f t="shared" si="86"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R51" s="111">
         <f t="shared" si="86"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S51" s="111">
         <f t="shared" si="86"/>
@@ -23052,15 +23124,15 @@
       </c>
       <c r="T51" s="111">
         <f t="shared" si="86"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U51" s="111">
         <f t="shared" si="86"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V51" s="111">
         <f t="shared" si="86"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W51" s="111">
         <f t="shared" si="86"/>
@@ -23345,7 +23417,7 @@
       <c r="F52" s="18"/>
       <c r="H52" s="111">
         <f t="shared" si="18"/>
-        <v>58.414999999999999</v>
+        <v>68.914999999999992</v>
       </c>
       <c r="I52" s="111">
         <f t="shared" ref="I52:BW60" si="90">I25*I$6</f>
@@ -23381,7 +23453,7 @@
       </c>
       <c r="Q52" s="111">
         <f t="shared" si="90"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R52" s="111">
         <f t="shared" si="90"/>
@@ -23389,19 +23461,19 @@
       </c>
       <c r="S52" s="111">
         <f t="shared" si="90"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="T52" s="111">
         <f t="shared" si="90"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="U52" s="111">
         <f t="shared" si="90"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="V52" s="111">
         <f t="shared" si="90"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="W52" s="111">
         <f t="shared" si="90"/>
@@ -23686,7 +23758,7 @@
       <c r="F53" s="18"/>
       <c r="H53" s="111">
         <f t="shared" si="18"/>
-        <v>79</v>
+        <v>88.25</v>
       </c>
       <c r="I53" s="111">
         <f t="shared" ref="I53:BA53" si="94">I26*I$6</f>
@@ -23722,11 +23794,11 @@
       </c>
       <c r="Q53" s="111">
         <f t="shared" si="94"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R53" s="111">
         <f t="shared" si="94"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S53" s="111">
         <f t="shared" si="94"/>
@@ -23734,15 +23806,15 @@
       </c>
       <c r="T53" s="111">
         <f t="shared" si="94"/>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="U53" s="111">
         <f t="shared" si="94"/>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="V53" s="111">
         <f t="shared" si="94"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W53" s="111">
         <f t="shared" si="94"/>
@@ -24027,7 +24099,7 @@
       <c r="F54" s="18"/>
       <c r="H54" s="111">
         <f t="shared" si="18"/>
-        <v>80.125</v>
+        <v>85.625</v>
       </c>
       <c r="I54" s="111">
         <f t="shared" ref="I54:BA54" si="98">I27*I$6</f>
@@ -24063,7 +24135,7 @@
       </c>
       <c r="Q54" s="111">
         <f t="shared" si="98"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R54" s="111">
         <f t="shared" si="98"/>
@@ -24075,7 +24147,7 @@
       </c>
       <c r="T54" s="111">
         <f t="shared" si="98"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="U54" s="111">
         <f t="shared" si="98"/>
@@ -24083,7 +24155,7 @@
       </c>
       <c r="V54" s="111">
         <f t="shared" si="98"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="W54" s="111">
         <f t="shared" si="98"/>
@@ -24365,7 +24437,7 @@
     <row r="55" spans="4:91" x14ac:dyDescent="0.25">
       <c r="H55" s="111">
         <f t="shared" si="18"/>
-        <v>90.7</v>
+        <v>94.2</v>
       </c>
       <c r="I55" s="111">
         <f t="shared" ref="I55:BA55" si="102">I28*I$6</f>
@@ -24401,7 +24473,7 @@
       </c>
       <c r="Q55" s="111">
         <f t="shared" si="102"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R55" s="111">
         <f t="shared" si="102"/>
@@ -24421,7 +24493,7 @@
       </c>
       <c r="V55" s="111">
         <f t="shared" si="102"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="W55" s="111">
         <f t="shared" si="102"/>
@@ -31252,7 +31324,7 @@
       <c r="F79" s="18"/>
       <c r="H79" s="111">
         <f t="shared" si="126"/>
-        <v>17.625</v>
+        <v>18.125</v>
       </c>
       <c r="I79" s="111">
         <f t="shared" ref="I79:BW79" si="187">I23*I$7</f>
@@ -31288,7 +31360,7 @@
       </c>
       <c r="Q79" s="111">
         <f t="shared" si="187"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R79" s="111">
         <f t="shared" si="187"/>
@@ -31593,7 +31665,7 @@
       <c r="F80" s="18"/>
       <c r="H80" s="111">
         <f t="shared" si="126"/>
-        <v>21.5</v>
+        <v>26</v>
       </c>
       <c r="I80" s="111">
         <f t="shared" ref="I80:BW80" si="191">I24*I$7</f>
@@ -31629,11 +31701,11 @@
       </c>
       <c r="Q80" s="111">
         <f t="shared" si="191"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R80" s="111">
         <f t="shared" si="191"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S80" s="111">
         <f t="shared" si="191"/>
@@ -31641,15 +31713,15 @@
       </c>
       <c r="T80" s="111">
         <f t="shared" si="191"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U80" s="111">
         <f t="shared" si="191"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V80" s="111">
         <f t="shared" si="191"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W80" s="111">
         <f t="shared" si="191"/>
@@ -31934,7 +32006,7 @@
       <c r="F81" s="18"/>
       <c r="H81" s="111">
         <f t="shared" si="126"/>
-        <v>18.004999999999999</v>
+        <v>20.504999999999999</v>
       </c>
       <c r="I81" s="111">
         <f t="shared" ref="I81:BW81" si="195">I25*I$7</f>
@@ -31970,7 +32042,7 @@
       </c>
       <c r="Q81" s="111">
         <f t="shared" si="195"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R81" s="111">
         <f t="shared" si="195"/>
@@ -31978,19 +32050,19 @@
       </c>
       <c r="S81" s="111">
         <f t="shared" si="195"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="T81" s="111">
         <f t="shared" si="195"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="U81" s="111">
         <f t="shared" si="195"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="V81" s="111">
         <f t="shared" si="195"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="W81" s="111">
         <f t="shared" si="195"/>
@@ -32275,7 +32347,7 @@
       <c r="F82" s="18"/>
       <c r="H82" s="111">
         <f t="shared" si="126"/>
-        <v>26.25</v>
+        <v>28.75</v>
       </c>
       <c r="I82" s="111">
         <f t="shared" ref="I82:BW82" si="199">I26*I$7</f>
@@ -32311,11 +32383,11 @@
       </c>
       <c r="Q82" s="111">
         <f t="shared" si="199"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R82" s="111">
         <f t="shared" si="199"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S82" s="111">
         <f t="shared" si="199"/>
@@ -32323,15 +32395,15 @@
       </c>
       <c r="T82" s="111">
         <f t="shared" si="199"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="U82" s="111">
         <f t="shared" si="199"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="V82" s="111">
         <f t="shared" si="199"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W82" s="111">
         <f t="shared" si="199"/>
@@ -32616,7 +32688,7 @@
       <c r="F83" s="18"/>
       <c r="H83" s="111">
         <f t="shared" si="126"/>
-        <v>26.875</v>
+        <v>28.375</v>
       </c>
       <c r="I83" s="111">
         <f t="shared" ref="I83:BW83" si="203">I27*I$7</f>
@@ -32652,7 +32724,7 @@
       </c>
       <c r="Q83" s="111">
         <f t="shared" si="203"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R83" s="111">
         <f t="shared" si="203"/>
@@ -32664,7 +32736,7 @@
       </c>
       <c r="T83" s="111">
         <f t="shared" si="203"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="U83" s="111">
         <f t="shared" si="203"/>
@@ -32672,7 +32744,7 @@
       </c>
       <c r="V83" s="111">
         <f t="shared" si="203"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="W83" s="111">
         <f t="shared" si="203"/>
@@ -32957,7 +33029,7 @@
       <c r="F84" s="18"/>
       <c r="H84" s="111">
         <f t="shared" si="126"/>
-        <v>27.9</v>
+        <v>29.4</v>
       </c>
       <c r="I84" s="111">
         <f t="shared" ref="I84:BW84" si="207">I28*I$7</f>
@@ -32993,7 +33065,7 @@
       </c>
       <c r="Q84" s="111">
         <f t="shared" si="207"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R84" s="111">
         <f t="shared" si="207"/>
@@ -33013,7 +33085,7 @@
       </c>
       <c r="V84" s="111">
         <f t="shared" si="207"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="W84" s="111">
         <f t="shared" si="207"/>
@@ -35012,6 +35084,90 @@
     </row>
   </sheetData>
   <mergeCells count="108">
+    <mergeCell ref="AT2:AV2"/>
+    <mergeCell ref="AS3:AS5"/>
+    <mergeCell ref="O3:O5"/>
+    <mergeCell ref="I3:I5"/>
+    <mergeCell ref="J3:J5"/>
+    <mergeCell ref="K3:K5"/>
+    <mergeCell ref="L3:L5"/>
+    <mergeCell ref="M3:M5"/>
+    <mergeCell ref="N3:N5"/>
+    <mergeCell ref="X4:X5"/>
+    <mergeCell ref="AP4:AP5"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="P3:P5"/>
+    <mergeCell ref="AO4:AO5"/>
+    <mergeCell ref="AL4:AL5"/>
+    <mergeCell ref="AN4:AN5"/>
+    <mergeCell ref="W2:AO2"/>
+    <mergeCell ref="AB3:AI3"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="AB4:AB5"/>
+    <mergeCell ref="AD4:AD5"/>
+    <mergeCell ref="Z4:Z5"/>
+    <mergeCell ref="AJ3:AO3"/>
+    <mergeCell ref="AM4:AM5"/>
+    <mergeCell ref="CM2:CM5"/>
+    <mergeCell ref="BX2:CJ2"/>
+    <mergeCell ref="BX3:CJ3"/>
+    <mergeCell ref="BX4:BX5"/>
+    <mergeCell ref="CI4:CI5"/>
+    <mergeCell ref="CJ4:CJ5"/>
+    <mergeCell ref="BY4:BY5"/>
+    <mergeCell ref="BZ4:BZ5"/>
+    <mergeCell ref="CA4:CA5"/>
+    <mergeCell ref="CL2:CL5"/>
+    <mergeCell ref="CB4:CB5"/>
+    <mergeCell ref="CC4:CC5"/>
+    <mergeCell ref="CD4:CD5"/>
+    <mergeCell ref="CE4:CE5"/>
+    <mergeCell ref="CF4:CF5"/>
+    <mergeCell ref="CG4:CG5"/>
+    <mergeCell ref="CH4:CH5"/>
+    <mergeCell ref="CK2:CK5"/>
+    <mergeCell ref="BX8:CJ8"/>
+    <mergeCell ref="Q8:V8"/>
+    <mergeCell ref="AT3:AV4"/>
+    <mergeCell ref="AT8:AV8"/>
+    <mergeCell ref="AQ4:AR4"/>
+    <mergeCell ref="AE4:AE5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="Y4:Y5"/>
+    <mergeCell ref="AA4:AA5"/>
+    <mergeCell ref="AI4:AI5"/>
+    <mergeCell ref="AJ4:AJ5"/>
+    <mergeCell ref="AC4:AC5"/>
+    <mergeCell ref="AK4:AK5"/>
+    <mergeCell ref="AH4:AH5"/>
+    <mergeCell ref="W3:AA3"/>
+    <mergeCell ref="AP8:AR8"/>
+    <mergeCell ref="AJ8:AO8"/>
+    <mergeCell ref="AB8:AI8"/>
+    <mergeCell ref="W8:AA8"/>
+    <mergeCell ref="BU4:BU5"/>
+    <mergeCell ref="BV4:BV5"/>
+    <mergeCell ref="BW4:BW5"/>
+    <mergeCell ref="AG4:AG5"/>
+    <mergeCell ref="BL4:BL5"/>
+    <mergeCell ref="BK4:BK5"/>
+    <mergeCell ref="BM4:BM5"/>
+    <mergeCell ref="BN4:BN5"/>
+    <mergeCell ref="BO4:BO5"/>
+    <mergeCell ref="BQ4:BQ5"/>
+    <mergeCell ref="BI8:BQ8"/>
+    <mergeCell ref="AW2:BH2"/>
+    <mergeCell ref="AZ4:AZ5"/>
+    <mergeCell ref="BA4:BA5"/>
+    <mergeCell ref="BC4:BC5"/>
+    <mergeCell ref="BD4:BD5"/>
+    <mergeCell ref="BE4:BE5"/>
+    <mergeCell ref="AY4:AY5"/>
+    <mergeCell ref="AY3:BC3"/>
+    <mergeCell ref="AW3:AW5"/>
+    <mergeCell ref="AX3:AX5"/>
+    <mergeCell ref="BG4:BG5"/>
+    <mergeCell ref="BH4:BH5"/>
     <mergeCell ref="AF4:AF5"/>
     <mergeCell ref="BR8:BW8"/>
     <mergeCell ref="I1:P2"/>
@@ -35036,90 +35192,6 @@
     <mergeCell ref="BI3:BQ3"/>
     <mergeCell ref="BI4:BI5"/>
     <mergeCell ref="BJ4:BJ5"/>
-    <mergeCell ref="BK4:BK5"/>
-    <mergeCell ref="BM4:BM5"/>
-    <mergeCell ref="BN4:BN5"/>
-    <mergeCell ref="BO4:BO5"/>
-    <mergeCell ref="BQ4:BQ5"/>
-    <mergeCell ref="BI8:BQ8"/>
-    <mergeCell ref="AW2:BH2"/>
-    <mergeCell ref="AZ4:AZ5"/>
-    <mergeCell ref="BA4:BA5"/>
-    <mergeCell ref="BC4:BC5"/>
-    <mergeCell ref="BD4:BD5"/>
-    <mergeCell ref="BE4:BE5"/>
-    <mergeCell ref="AY4:AY5"/>
-    <mergeCell ref="AY3:BC3"/>
-    <mergeCell ref="AW3:AW5"/>
-    <mergeCell ref="AX3:AX5"/>
-    <mergeCell ref="BG4:BG5"/>
-    <mergeCell ref="BH4:BH5"/>
-    <mergeCell ref="BX8:CJ8"/>
-    <mergeCell ref="Q8:V8"/>
-    <mergeCell ref="AT3:AV4"/>
-    <mergeCell ref="AT8:AV8"/>
-    <mergeCell ref="AQ4:AR4"/>
-    <mergeCell ref="AE4:AE5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="Y4:Y5"/>
-    <mergeCell ref="AA4:AA5"/>
-    <mergeCell ref="AI4:AI5"/>
-    <mergeCell ref="AJ4:AJ5"/>
-    <mergeCell ref="AC4:AC5"/>
-    <mergeCell ref="AK4:AK5"/>
-    <mergeCell ref="AH4:AH5"/>
-    <mergeCell ref="W3:AA3"/>
-    <mergeCell ref="AP8:AR8"/>
-    <mergeCell ref="AJ8:AO8"/>
-    <mergeCell ref="AB8:AI8"/>
-    <mergeCell ref="W8:AA8"/>
-    <mergeCell ref="BU4:BU5"/>
-    <mergeCell ref="BV4:BV5"/>
-    <mergeCell ref="BW4:BW5"/>
-    <mergeCell ref="AG4:AG5"/>
-    <mergeCell ref="BL4:BL5"/>
-    <mergeCell ref="CM2:CM5"/>
-    <mergeCell ref="BX2:CJ2"/>
-    <mergeCell ref="BX3:CJ3"/>
-    <mergeCell ref="BX4:BX5"/>
-    <mergeCell ref="CI4:CI5"/>
-    <mergeCell ref="CJ4:CJ5"/>
-    <mergeCell ref="BY4:BY5"/>
-    <mergeCell ref="BZ4:BZ5"/>
-    <mergeCell ref="CA4:CA5"/>
-    <mergeCell ref="CL2:CL5"/>
-    <mergeCell ref="CB4:CB5"/>
-    <mergeCell ref="CC4:CC5"/>
-    <mergeCell ref="CD4:CD5"/>
-    <mergeCell ref="CE4:CE5"/>
-    <mergeCell ref="CF4:CF5"/>
-    <mergeCell ref="CG4:CG5"/>
-    <mergeCell ref="CH4:CH5"/>
-    <mergeCell ref="CK2:CK5"/>
-    <mergeCell ref="AT2:AV2"/>
-    <mergeCell ref="AS3:AS5"/>
-    <mergeCell ref="O3:O5"/>
-    <mergeCell ref="I3:I5"/>
-    <mergeCell ref="J3:J5"/>
-    <mergeCell ref="K3:K5"/>
-    <mergeCell ref="L3:L5"/>
-    <mergeCell ref="M3:M5"/>
-    <mergeCell ref="N3:N5"/>
-    <mergeCell ref="X4:X5"/>
-    <mergeCell ref="AP4:AP5"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="P3:P5"/>
-    <mergeCell ref="AO4:AO5"/>
-    <mergeCell ref="AL4:AL5"/>
-    <mergeCell ref="AN4:AN5"/>
-    <mergeCell ref="W2:AO2"/>
-    <mergeCell ref="AB3:AI3"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="AB4:AB5"/>
-    <mergeCell ref="AD4:AD5"/>
-    <mergeCell ref="Z4:Z5"/>
-    <mergeCell ref="AJ3:AO3"/>
-    <mergeCell ref="AM4:AM5"/>
   </mergeCells>
   <conditionalFormatting sqref="D9:F23 D33:F33 E32:F32">
     <cfRule type="cellIs" dxfId="962" priority="1231" operator="between">
@@ -39456,35 +39528,35 @@
       <c r="C1" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="194" t="s">
+      <c r="D1" s="198" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="195"/>
-      <c r="F1" s="194" t="s">
+      <c r="E1" s="200"/>
+      <c r="F1" s="198" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="204"/>
-      <c r="H1" s="204"/>
-      <c r="I1" s="204"/>
-      <c r="J1" s="204"/>
-      <c r="K1" s="204"/>
-      <c r="L1" s="204"/>
-      <c r="M1" s="204"/>
-      <c r="N1" s="204"/>
-      <c r="O1" s="204"/>
-      <c r="P1" s="204"/>
-      <c r="Q1" s="204"/>
-      <c r="R1" s="204"/>
-      <c r="S1" s="204"/>
-      <c r="T1" s="204"/>
-      <c r="U1" s="204"/>
-      <c r="V1" s="204"/>
-      <c r="W1" s="204"/>
-      <c r="X1" s="204"/>
-      <c r="Y1" s="204"/>
-      <c r="Z1" s="204"/>
-      <c r="AA1" s="204"/>
-      <c r="AB1" s="204"/>
+      <c r="G1" s="199"/>
+      <c r="H1" s="199"/>
+      <c r="I1" s="199"/>
+      <c r="J1" s="199"/>
+      <c r="K1" s="199"/>
+      <c r="L1" s="199"/>
+      <c r="M1" s="199"/>
+      <c r="N1" s="199"/>
+      <c r="O1" s="199"/>
+      <c r="P1" s="199"/>
+      <c r="Q1" s="199"/>
+      <c r="R1" s="199"/>
+      <c r="S1" s="199"/>
+      <c r="T1" s="199"/>
+      <c r="U1" s="199"/>
+      <c r="V1" s="199"/>
+      <c r="W1" s="199"/>
+      <c r="X1" s="199"/>
+      <c r="Y1" s="199"/>
+      <c r="Z1" s="199"/>
+      <c r="AA1" s="199"/>
+      <c r="AB1" s="199"/>
       <c r="AC1" s="205"/>
       <c r="AD1" s="205"/>
       <c r="AE1" s="205"/>
@@ -39493,19 +39565,19 @@
       <c r="AH1" s="205"/>
       <c r="AI1" s="205"/>
       <c r="AJ1" s="206"/>
-      <c r="AK1" s="201" t="s">
+      <c r="AK1" s="202" t="s">
         <v>51</v>
       </c>
-      <c r="AL1" s="202"/>
-      <c r="AM1" s="202"/>
-      <c r="AN1" s="202"/>
-      <c r="AO1" s="202"/>
-      <c r="AP1" s="202"/>
-      <c r="AQ1" s="203"/>
-      <c r="AR1" s="194" t="s">
+      <c r="AL1" s="203"/>
+      <c r="AM1" s="203"/>
+      <c r="AN1" s="203"/>
+      <c r="AO1" s="203"/>
+      <c r="AP1" s="203"/>
+      <c r="AQ1" s="204"/>
+      <c r="AR1" s="198" t="s">
         <v>50</v>
       </c>
-      <c r="AS1" s="195"/>
+      <c r="AS1" s="200"/>
     </row>
     <row r="2" spans="2:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="26"/>
@@ -39571,29 +39643,29 @@
     </row>
     <row r="3" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B3" s="26"/>
-      <c r="C3" s="196" t="s">
+      <c r="C3" s="194" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="200" t="s">
+      <c r="D3" s="195" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="197" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="194" t="s">
+      <c r="F3" s="198" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="204"/>
-      <c r="H3" s="204"/>
-      <c r="I3" s="204"/>
-      <c r="J3" s="204"/>
-      <c r="K3" s="195"/>
-      <c r="L3" s="194" t="s">
+      <c r="G3" s="199"/>
+      <c r="H3" s="199"/>
+      <c r="I3" s="199"/>
+      <c r="J3" s="199"/>
+      <c r="K3" s="200"/>
+      <c r="L3" s="198" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="204"/>
-      <c r="N3" s="204"/>
-      <c r="O3" s="195"/>
+      <c r="M3" s="199"/>
+      <c r="N3" s="199"/>
+      <c r="O3" s="200"/>
       <c r="P3" s="29" t="s">
         <v>27</v>
       </c>
@@ -39629,10 +39701,10 @@
       <c r="AF3" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="AG3" s="200" t="s">
+      <c r="AG3" s="195" t="s">
         <v>35</v>
       </c>
-      <c r="AH3" s="198"/>
+      <c r="AH3" s="196"/>
       <c r="AI3" s="197"/>
       <c r="AJ3" s="30" t="s">
         <v>7</v>
@@ -39663,72 +39735,72 @@
     </row>
     <row r="4" spans="2:45" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="26"/>
-      <c r="C4" s="196"/>
-      <c r="D4" s="200"/>
+      <c r="C4" s="194"/>
+      <c r="D4" s="195"/>
       <c r="E4" s="197"/>
-      <c r="F4" s="200" t="s">
+      <c r="F4" s="195" t="s">
         <v>52</v>
       </c>
-      <c r="G4" s="198" t="s">
+      <c r="G4" s="196" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="198" t="s">
+      <c r="H4" s="196" t="s">
         <v>53</v>
       </c>
-      <c r="I4" s="198" t="s">
+      <c r="I4" s="196" t="s">
         <v>54</v>
       </c>
-      <c r="J4" s="198" t="s">
+      <c r="J4" s="196" t="s">
         <v>55</v>
       </c>
       <c r="K4" s="197"/>
-      <c r="L4" s="200" t="s">
+      <c r="L4" s="195" t="s">
         <v>52</v>
       </c>
-      <c r="M4" s="198" t="s">
+      <c r="M4" s="196" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="198" t="s">
+      <c r="N4" s="196" t="s">
         <v>53</v>
       </c>
       <c r="O4" s="197" t="s">
         <v>54</v>
       </c>
-      <c r="P4" s="196" t="s">
+      <c r="P4" s="194" t="s">
         <v>56</v>
       </c>
-      <c r="Q4" s="196" t="s">
+      <c r="Q4" s="194" t="s">
         <v>56</v>
       </c>
-      <c r="R4" s="196" t="s">
+      <c r="R4" s="194" t="s">
         <v>56</v>
       </c>
-      <c r="S4" s="200" t="s">
+      <c r="S4" s="195" t="s">
         <v>52</v>
       </c>
-      <c r="T4" s="198" t="s">
+      <c r="T4" s="196" t="s">
         <v>10</v>
       </c>
-      <c r="U4" s="198" t="s">
+      <c r="U4" s="196" t="s">
         <v>53</v>
       </c>
-      <c r="V4" s="198" t="s">
+      <c r="V4" s="196" t="s">
         <v>54</v>
       </c>
-      <c r="W4" s="216" t="s">
+      <c r="W4" s="201" t="s">
         <v>55</v>
       </c>
       <c r="X4" s="197"/>
-      <c r="Y4" s="200" t="s">
+      <c r="Y4" s="195" t="s">
         <v>52</v>
       </c>
-      <c r="Z4" s="198" t="s">
+      <c r="Z4" s="196" t="s">
         <v>10</v>
       </c>
-      <c r="AA4" s="198" t="s">
+      <c r="AA4" s="196" t="s">
         <v>53</v>
       </c>
-      <c r="AB4" s="199" t="s">
+      <c r="AB4" s="216" t="s">
         <v>54</v>
       </c>
       <c r="AC4" s="33"/>
@@ -39757,40 +39829,40 @@
     </row>
     <row r="5" spans="2:45" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="26"/>
-      <c r="C5" s="196"/>
-      <c r="D5" s="200"/>
+      <c r="C5" s="194"/>
+      <c r="D5" s="195"/>
       <c r="E5" s="197"/>
-      <c r="F5" s="200"/>
-      <c r="G5" s="198"/>
-      <c r="H5" s="198"/>
-      <c r="I5" s="198"/>
+      <c r="F5" s="195"/>
+      <c r="G5" s="196"/>
+      <c r="H5" s="196"/>
+      <c r="I5" s="196"/>
       <c r="J5" s="24" t="s">
         <v>57</v>
       </c>
       <c r="K5" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="L5" s="200"/>
-      <c r="M5" s="198"/>
-      <c r="N5" s="198"/>
+      <c r="L5" s="195"/>
+      <c r="M5" s="196"/>
+      <c r="N5" s="196"/>
       <c r="O5" s="197"/>
-      <c r="P5" s="196"/>
-      <c r="Q5" s="196"/>
-      <c r="R5" s="196"/>
-      <c r="S5" s="200"/>
-      <c r="T5" s="198"/>
-      <c r="U5" s="198"/>
-      <c r="V5" s="198"/>
+      <c r="P5" s="194"/>
+      <c r="Q5" s="194"/>
+      <c r="R5" s="194"/>
+      <c r="S5" s="195"/>
+      <c r="T5" s="196"/>
+      <c r="U5" s="196"/>
+      <c r="V5" s="196"/>
       <c r="W5" s="27" t="s">
         <v>59</v>
       </c>
       <c r="X5" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="Y5" s="200"/>
-      <c r="Z5" s="198"/>
-      <c r="AA5" s="198"/>
-      <c r="AB5" s="199"/>
+      <c r="Y5" s="195"/>
+      <c r="Z5" s="196"/>
+      <c r="AA5" s="196"/>
+      <c r="AB5" s="216"/>
       <c r="AC5" s="33"/>
       <c r="AD5" s="34"/>
       <c r="AE5" s="33"/>
@@ -40237,6 +40309,32 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="AB4:AB5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="Z4:Z5"/>
+    <mergeCell ref="AA4:AA5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="AK1:AQ1"/>
+    <mergeCell ref="AR1:AS1"/>
+    <mergeCell ref="F1:AJ1"/>
+    <mergeCell ref="AR2:AR3"/>
+    <mergeCell ref="AS2:AS3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="Y3:AB3"/>
+    <mergeCell ref="F2:AB2"/>
+    <mergeCell ref="S3:X3"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AK2:AM2"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="Y4:Y5"/>
     <mergeCell ref="L4:L5"/>
@@ -40251,32 +40349,6 @@
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
-    <mergeCell ref="AK1:AQ1"/>
-    <mergeCell ref="AR1:AS1"/>
-    <mergeCell ref="F1:AJ1"/>
-    <mergeCell ref="AR2:AR3"/>
-    <mergeCell ref="AS2:AS3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="Y3:AB3"/>
-    <mergeCell ref="F2:AB2"/>
-    <mergeCell ref="S3:X3"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AK2:AM2"/>
-    <mergeCell ref="AB4:AB5"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="Z4:Z5"/>
-    <mergeCell ref="AA4:AA5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="M4:M5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/BaremeJavaBaseTest2_KL16.xlsx
+++ b/BaremeJavaBaseTest2_KL16.xlsx
@@ -10777,11 +10777,11 @@
   <dimension ref="A1:CM90"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2325" ySplit="3630" topLeftCell="D8" activePane="bottomRight"/>
+      <pane xSplit="2325" ySplit="3630" topLeftCell="G8" activePane="bottomRight"/>
       <selection activeCell="D4" sqref="D4"/>
-      <selection pane="topRight" activeCell="O6" sqref="O6"/>
+      <selection pane="topRight" activeCell="H6" sqref="H6"/>
       <selection pane="bottomLeft" activeCell="A19" sqref="A19:XFD19"/>
-      <selection pane="bottomRight" activeCell="S28" sqref="S28"/>
+      <selection pane="bottomRight" activeCell="CD23" sqref="CD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -11198,7 +11198,7 @@
       </c>
       <c r="D4" s="128" t="str">
         <f>CONCATENATE("Note/20 ( sur ",H6,")")</f>
-        <v>Note/20 ( sur 192)</v>
+        <v>Note/20 ( sur 191)</v>
       </c>
       <c r="E4" s="17" t="str">
         <f>CONCATENATE("Note/20 ( sur ",H7,")")</f>
@@ -11211,7 +11211,7 @@
       </c>
       <c r="H4" s="6" t="str">
         <f>CONCATENATE("Note/",H6)</f>
-        <v>Note/192</v>
+        <v>Note/191</v>
       </c>
       <c r="I4" s="187"/>
       <c r="J4" s="166"/>
@@ -11550,7 +11550,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6">
         <f>SUM(I6:CK6)</f>
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I6" s="57">
         <v>2</v>
@@ -11754,7 +11754,7 @@
         <v>0</v>
       </c>
       <c r="BX6" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BY6" s="15">
         <v>3</v>
@@ -12169,7 +12169,7 @@
       <c r="BW8" s="135"/>
       <c r="BX8" s="134">
         <f>SUM(BX6:CJ6)</f>
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="BY8" s="135"/>
       <c r="BZ8" s="135"/>
@@ -12196,7 +12196,7 @@
       <c r="C9" s="113"/>
       <c r="D9" s="130">
         <f t="shared" ref="D9:D32" si="0">H9/$H$6*20+CM9*$CM$6</f>
-        <v>13.226041666666665</v>
+        <v>13.295287958115182</v>
       </c>
       <c r="E9" s="19">
         <f t="shared" ref="E9:E28" si="1">G9/$H$7*20+CM9*$CM$7</f>
@@ -12425,7 +12425,7 @@
       <c r="C10" s="4"/>
       <c r="D10" s="130">
         <f t="shared" si="0"/>
-        <v>14.098437500000001</v>
+        <v>14.172251308900524</v>
       </c>
       <c r="E10" s="19">
         <f t="shared" si="1"/>
@@ -12658,7 +12658,7 @@
       <c r="C11" s="113"/>
       <c r="D11" s="130">
         <f t="shared" si="0"/>
-        <v>9.8177083333333339</v>
+        <v>9.8691099476439792</v>
       </c>
       <c r="E11" s="19">
         <f t="shared" si="1"/>
@@ -12885,7 +12885,7 @@
       <c r="C12" s="4"/>
       <c r="D12" s="130">
         <f t="shared" si="0"/>
-        <v>11.064583333333333</v>
+        <v>11.122513089005235</v>
       </c>
       <c r="E12" s="19">
         <f t="shared" si="1"/>
@@ -13112,7 +13112,7 @@
       <c r="C13" s="113"/>
       <c r="D13" s="130">
         <f t="shared" si="0"/>
-        <v>13.246874999999999</v>
+        <v>13.316230366492148</v>
       </c>
       <c r="E13" s="19">
         <f t="shared" si="1"/>
@@ -13341,7 +13341,7 @@
       <c r="C14" s="113"/>
       <c r="D14" s="130">
         <f t="shared" si="0"/>
-        <v>9.140625</v>
+        <v>9.1884816753926692</v>
       </c>
       <c r="E14" s="19">
         <f t="shared" si="1"/>
@@ -13568,7 +13568,7 @@
       <c r="C15" s="4"/>
       <c r="D15" s="130">
         <f t="shared" si="0"/>
-        <v>13.177083333333332</v>
+        <v>13.246073298429319</v>
       </c>
       <c r="E15" s="19">
         <f t="shared" si="1"/>
@@ -13795,7 +13795,7 @@
       <c r="C16" s="4"/>
       <c r="D16" s="130">
         <f t="shared" si="0"/>
-        <v>8.4505208333333339</v>
+        <v>8.4947643979057599</v>
       </c>
       <c r="E16" s="19">
         <f t="shared" si="1"/>
@@ -14022,7 +14022,7 @@
       <c r="C17" s="4"/>
       <c r="D17" s="130">
         <f t="shared" si="0"/>
-        <v>11.598437500000001</v>
+        <v>11.659162303664921</v>
       </c>
       <c r="E17" s="19">
         <f t="shared" si="1"/>
@@ -14249,7 +14249,7 @@
       <c r="C18" s="4"/>
       <c r="D18" s="130">
         <f t="shared" si="0"/>
-        <v>11.416145833333333</v>
+        <v>11.475916230366492</v>
       </c>
       <c r="E18" s="19">
         <f t="shared" si="1"/>
@@ -14473,7 +14473,7 @@
       <c r="C19" s="113"/>
       <c r="D19" s="130">
         <f t="shared" si="0"/>
-        <v>8.4375</v>
+        <v>8.4816753926701569</v>
       </c>
       <c r="E19" s="19">
         <f t="shared" si="1"/>
@@ -14700,7 +14700,7 @@
       <c r="C20" s="113"/>
       <c r="D20" s="130">
         <f t="shared" si="0"/>
-        <v>1.0026041666666667</v>
+        <v>1.0078534031413613</v>
       </c>
       <c r="E20" s="19">
         <f t="shared" si="1"/>
@@ -14927,7 +14927,7 @@
       <c r="C21" s="4"/>
       <c r="D21" s="130">
         <f t="shared" si="0"/>
-        <v>6.5885416666666661</v>
+        <v>6.6230366492146597</v>
       </c>
       <c r="E21" s="19">
         <f t="shared" si="1"/>
@@ -15154,7 +15154,7 @@
       <c r="C22" s="113"/>
       <c r="D22" s="130">
         <f t="shared" si="0"/>
-        <v>13.90625</v>
+        <v>13.979057591623036</v>
       </c>
       <c r="E22" s="19">
         <f t="shared" si="1"/>
@@ -15385,7 +15385,7 @@
       <c r="C23" s="4"/>
       <c r="D23" s="130">
         <f t="shared" si="0"/>
-        <v>4.908854166666667</v>
+        <v>4.9345549738219896</v>
       </c>
       <c r="E23" s="19">
         <f t="shared" si="1"/>
@@ -15612,20 +15612,20 @@
       <c r="C24" s="4"/>
       <c r="D24" s="130">
         <f t="shared" si="0"/>
-        <v>9.1666666666666661</v>
+        <v>10.916230366492146</v>
       </c>
       <c r="E24" s="19">
         <f t="shared" si="1"/>
-        <v>9.2857142857142865</v>
+        <v>10.803571428571427</v>
       </c>
       <c r="F24" s="19"/>
       <c r="G24" s="14">
         <f t="shared" si="4"/>
-        <v>26</v>
+        <v>30.25</v>
       </c>
       <c r="H24" s="14">
         <f t="shared" si="3"/>
-        <v>88</v>
+        <v>104.25</v>
       </c>
       <c r="I24" s="106">
         <v>0</v>
@@ -15810,19 +15810,45 @@
       <c r="BU24" s="84"/>
       <c r="BV24" s="84"/>
       <c r="BW24" s="106"/>
-      <c r="BX24" s="84"/>
-      <c r="BY24" s="84"/>
-      <c r="BZ24" s="106"/>
-      <c r="CA24" s="84"/>
-      <c r="CB24" s="84"/>
-      <c r="CC24" s="106"/>
-      <c r="CD24" s="84"/>
-      <c r="CE24" s="84"/>
-      <c r="CF24" s="84"/>
-      <c r="CG24" s="84"/>
-      <c r="CH24" s="84"/>
-      <c r="CI24" s="84"/>
-      <c r="CJ24" s="84"/>
+      <c r="BX24" s="84">
+        <v>0.5</v>
+      </c>
+      <c r="BY24" s="84">
+        <v>0</v>
+      </c>
+      <c r="BZ24" s="106">
+        <v>1</v>
+      </c>
+      <c r="CA24" s="84">
+        <v>0.75</v>
+      </c>
+      <c r="CB24" s="84">
+        <v>1</v>
+      </c>
+      <c r="CC24" s="106">
+        <v>1</v>
+      </c>
+      <c r="CD24" s="84">
+        <v>0</v>
+      </c>
+      <c r="CE24" s="84">
+        <v>0</v>
+      </c>
+      <c r="CF24" s="84">
+        <v>0</v>
+      </c>
+      <c r="CG24" s="84">
+        <v>0</v>
+      </c>
+      <c r="CH24" s="84">
+        <v>0</v>
+      </c>
+      <c r="CI24" s="84">
+        <v>0</v>
+      </c>
+      <c r="CJ24" s="84">
+        <v>0</v>
+      </c>
       <c r="CK24" s="106"/>
       <c r="CL24" s="108">
         <v>0</v>
@@ -15839,20 +15865,20 @@
       <c r="C25" s="4"/>
       <c r="D25" s="130">
         <f t="shared" si="0"/>
-        <v>7.1786458333333325</v>
+        <v>8.8392670157068061</v>
       </c>
       <c r="E25" s="19">
         <f t="shared" si="1"/>
-        <v>7.3232142857142861</v>
+        <v>8.9749999999999996</v>
       </c>
       <c r="F25" s="19"/>
       <c r="G25" s="14">
         <f t="shared" si="4"/>
-        <v>20.504999999999999</v>
+        <v>25.13</v>
       </c>
       <c r="H25" s="14">
         <f t="shared" si="3"/>
-        <v>68.914999999999992</v>
+        <v>84.414999999999992</v>
       </c>
       <c r="I25" s="106">
         <v>1</v>
@@ -16037,19 +16063,45 @@
       <c r="BU25" s="84"/>
       <c r="BV25" s="84"/>
       <c r="BW25" s="106"/>
-      <c r="BX25" s="84"/>
-      <c r="BY25" s="84"/>
-      <c r="BZ25" s="106"/>
-      <c r="CA25" s="84"/>
-      <c r="CB25" s="84"/>
-      <c r="CC25" s="106"/>
-      <c r="CD25" s="84"/>
-      <c r="CE25" s="84"/>
-      <c r="CF25" s="84"/>
-      <c r="CG25" s="84"/>
-      <c r="CH25" s="84"/>
-      <c r="CI25" s="84"/>
-      <c r="CJ25" s="84"/>
+      <c r="BX25" s="84">
+        <v>1</v>
+      </c>
+      <c r="BY25" s="84">
+        <v>0</v>
+      </c>
+      <c r="BZ25" s="106">
+        <v>0.5</v>
+      </c>
+      <c r="CA25" s="84">
+        <v>1</v>
+      </c>
+      <c r="CB25" s="84">
+        <v>1</v>
+      </c>
+      <c r="CC25" s="106">
+        <v>0.125</v>
+      </c>
+      <c r="CD25" s="84">
+        <v>0</v>
+      </c>
+      <c r="CE25" s="84">
+        <v>0</v>
+      </c>
+      <c r="CF25" s="84">
+        <v>0</v>
+      </c>
+      <c r="CG25" s="84">
+        <v>0</v>
+      </c>
+      <c r="CH25" s="84">
+        <v>0</v>
+      </c>
+      <c r="CI25" s="84">
+        <v>0</v>
+      </c>
+      <c r="CJ25" s="84">
+        <v>1</v>
+      </c>
       <c r="CK25" s="106"/>
       <c r="CL25" s="108">
         <v>0</v>
@@ -16066,20 +16118,20 @@
       <c r="C26" s="4"/>
       <c r="D26" s="130">
         <f t="shared" si="0"/>
-        <v>9.1927083333333339</v>
+        <v>9.3455497382198942</v>
       </c>
       <c r="E26" s="19">
         <f t="shared" si="1"/>
-        <v>10.267857142857142</v>
+        <v>10.625</v>
       </c>
       <c r="F26" s="19"/>
       <c r="G26" s="14">
         <f t="shared" si="4"/>
-        <v>28.75</v>
+        <v>29.75</v>
       </c>
       <c r="H26" s="14">
         <f t="shared" si="3"/>
-        <v>88.25</v>
+        <v>89.25</v>
       </c>
       <c r="I26" s="106">
         <v>0</v>
@@ -16264,19 +16316,45 @@
       <c r="BU26" s="84"/>
       <c r="BV26" s="84"/>
       <c r="BW26" s="106"/>
-      <c r="BX26" s="84"/>
-      <c r="BY26" s="84"/>
-      <c r="BZ26" s="106"/>
-      <c r="CA26" s="84"/>
-      <c r="CB26" s="84"/>
-      <c r="CC26" s="106"/>
-      <c r="CD26" s="84"/>
-      <c r="CE26" s="84"/>
-      <c r="CF26" s="84"/>
-      <c r="CG26" s="84"/>
-      <c r="CH26" s="84"/>
-      <c r="CI26" s="84"/>
-      <c r="CJ26" s="84"/>
+      <c r="BX26" s="84">
+        <v>1</v>
+      </c>
+      <c r="BY26" s="84">
+        <v>0</v>
+      </c>
+      <c r="BZ26" s="106">
+        <v>0</v>
+      </c>
+      <c r="CA26" s="84">
+        <v>0</v>
+      </c>
+      <c r="CB26" s="84">
+        <v>0</v>
+      </c>
+      <c r="CC26" s="106">
+        <v>0</v>
+      </c>
+      <c r="CD26" s="84">
+        <v>0</v>
+      </c>
+      <c r="CE26" s="84">
+        <v>0</v>
+      </c>
+      <c r="CF26" s="84">
+        <v>0</v>
+      </c>
+      <c r="CG26" s="84">
+        <v>0</v>
+      </c>
+      <c r="CH26" s="84">
+        <v>0</v>
+      </c>
+      <c r="CI26" s="84">
+        <v>0</v>
+      </c>
+      <c r="CJ26" s="84">
+        <v>0</v>
+      </c>
       <c r="CK26" s="106"/>
       <c r="CL26" s="108">
         <v>0</v>
@@ -16293,20 +16371,20 @@
       <c r="C27" s="113"/>
       <c r="D27" s="130">
         <f t="shared" si="0"/>
-        <v>8.9192708333333339</v>
+        <v>9.9083769633507863</v>
       </c>
       <c r="E27" s="19">
         <f t="shared" si="1"/>
-        <v>10.133928571428573</v>
+        <v>11.205357142857142</v>
       </c>
       <c r="F27" s="19"/>
       <c r="G27" s="14">
         <f t="shared" si="4"/>
-        <v>28.375</v>
+        <v>31.375</v>
       </c>
       <c r="H27" s="14">
         <f t="shared" si="3"/>
-        <v>85.625</v>
+        <v>94.625</v>
       </c>
       <c r="I27" s="106">
         <v>1</v>
@@ -16491,19 +16569,45 @@
       <c r="BU27" s="84"/>
       <c r="BV27" s="84"/>
       <c r="BW27" s="106"/>
-      <c r="BX27" s="84"/>
-      <c r="BY27" s="84"/>
-      <c r="BZ27" s="106"/>
-      <c r="CA27" s="84"/>
-      <c r="CB27" s="84"/>
-      <c r="CC27" s="106"/>
-      <c r="CD27" s="84"/>
-      <c r="CE27" s="84"/>
-      <c r="CF27" s="84"/>
-      <c r="CG27" s="84"/>
-      <c r="CH27" s="84"/>
-      <c r="CI27" s="84"/>
-      <c r="CJ27" s="84"/>
+      <c r="BX27" s="84">
+        <v>1</v>
+      </c>
+      <c r="BY27" s="84">
+        <v>0</v>
+      </c>
+      <c r="BZ27" s="106">
+        <v>0</v>
+      </c>
+      <c r="CA27" s="84">
+        <v>0</v>
+      </c>
+      <c r="CB27" s="84">
+        <v>1</v>
+      </c>
+      <c r="CC27" s="106">
+        <v>1</v>
+      </c>
+      <c r="CD27" s="84">
+        <v>0</v>
+      </c>
+      <c r="CE27" s="84">
+        <v>0</v>
+      </c>
+      <c r="CF27" s="84">
+        <v>0</v>
+      </c>
+      <c r="CG27" s="84">
+        <v>0</v>
+      </c>
+      <c r="CH27" s="84">
+        <v>0</v>
+      </c>
+      <c r="CI27" s="84">
+        <v>0</v>
+      </c>
+      <c r="CJ27" s="84">
+        <v>0</v>
+      </c>
       <c r="CK27" s="106"/>
       <c r="CL27" s="108">
         <v>0</v>
@@ -16520,20 +16624,20 @@
       <c r="C28" s="4"/>
       <c r="D28" s="130">
         <f t="shared" si="0"/>
-        <v>9.8125</v>
+        <v>10.544502617801047</v>
       </c>
       <c r="E28" s="19">
         <f t="shared" si="1"/>
-        <v>10.5</v>
+        <v>11.392857142857142</v>
       </c>
       <c r="F28" s="19"/>
       <c r="G28" s="14">
         <f t="shared" si="4"/>
-        <v>29.4</v>
+        <v>31.9</v>
       </c>
       <c r="H28" s="14">
         <f t="shared" si="3"/>
-        <v>94.2</v>
+        <v>100.7</v>
       </c>
       <c r="I28" s="106">
         <v>0</v>
@@ -16552,7 +16656,7 @@
         <v>1</v>
       </c>
       <c r="O28" s="85">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="P28" s="107"/>
       <c r="Q28" s="84">
@@ -16718,19 +16822,45 @@
       <c r="BU28" s="84"/>
       <c r="BV28" s="84"/>
       <c r="BW28" s="106"/>
-      <c r="BX28" s="84"/>
-      <c r="BY28" s="84"/>
-      <c r="BZ28" s="106"/>
-      <c r="CA28" s="84"/>
-      <c r="CB28" s="84"/>
-      <c r="CC28" s="106"/>
-      <c r="CD28" s="84"/>
-      <c r="CE28" s="84"/>
-      <c r="CF28" s="84"/>
-      <c r="CG28" s="84"/>
-      <c r="CH28" s="84"/>
-      <c r="CI28" s="84"/>
-      <c r="CJ28" s="84"/>
+      <c r="BX28" s="84">
+        <v>1</v>
+      </c>
+      <c r="BY28" s="84">
+        <v>0</v>
+      </c>
+      <c r="BZ28" s="106">
+        <v>0.75</v>
+      </c>
+      <c r="CA28" s="84">
+        <v>1</v>
+      </c>
+      <c r="CB28" s="84">
+        <v>0</v>
+      </c>
+      <c r="CC28" s="106">
+        <v>0</v>
+      </c>
+      <c r="CD28" s="84">
+        <v>0</v>
+      </c>
+      <c r="CE28" s="84">
+        <v>0</v>
+      </c>
+      <c r="CF28" s="84">
+        <v>0</v>
+      </c>
+      <c r="CG28" s="84">
+        <v>0</v>
+      </c>
+      <c r="CH28" s="84">
+        <v>0</v>
+      </c>
+      <c r="CI28" s="84">
+        <v>0</v>
+      </c>
+      <c r="CJ28" s="84">
+        <v>0</v>
+      </c>
       <c r="CK28" s="106"/>
       <c r="CL28" s="108">
         <v>0</v>
@@ -17171,7 +17301,7 @@
       <c r="C32" s="118"/>
       <c r="D32" s="130">
         <f t="shared" si="0"/>
-        <v>14.375</v>
+        <v>14.450261780104711</v>
       </c>
       <c r="E32" s="19"/>
       <c r="F32" s="19"/>
@@ -17408,7 +17538,7 @@
       </c>
       <c r="H33" s="14">
         <f t="shared" ref="H33" si="6">H60</f>
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I33" s="66">
         <v>1</v>
@@ -17687,7 +17817,7 @@
       </c>
       <c r="O34" s="2">
         <f t="shared" si="7"/>
-        <v>0.54761904761904767</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="P34" s="2">
         <f t="shared" si="7"/>
@@ -17929,57 +18059,57 @@
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BX34" s="68" t="e">
+      <c r="BX34" s="68">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BY34" s="76" t="e">
+        <v>0.9</v>
+      </c>
+      <c r="BY34" s="76">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BZ34" s="76" t="e">
+        <v>0</v>
+      </c>
+      <c r="BZ34" s="76">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CA34" s="76" t="e">
+        <v>0.45</v>
+      </c>
+      <c r="CA34" s="76">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CB34" s="76" t="e">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="CB34" s="76">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CC34" s="76" t="e">
+        <v>0.6</v>
+      </c>
+      <c r="CC34" s="76">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CD34" s="104" t="e">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="CD34" s="104">
         <f t="shared" ref="CD34:CH34" si="17">AVERAGE(CD9:CD32)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CE34" s="104" t="e">
+        <v>0</v>
+      </c>
+      <c r="CE34" s="104">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CF34" s="104" t="e">
+        <v>0</v>
+      </c>
+      <c r="CF34" s="104">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CG34" s="104" t="e">
+        <v>0</v>
+      </c>
+      <c r="CG34" s="104">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CH34" s="104" t="e">
+        <v>0</v>
+      </c>
+      <c r="CH34" s="104">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CI34" s="76" t="e">
+        <v>0</v>
+      </c>
+      <c r="CI34" s="76">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CJ34" s="68" t="e">
+        <v>0</v>
+      </c>
+      <c r="CJ34" s="68">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>0.2</v>
       </c>
       <c r="CK34" s="68">
         <f t="shared" si="9"/>
@@ -23076,7 +23206,7 @@
       <c r="F51" s="18"/>
       <c r="H51" s="111">
         <f t="shared" si="18"/>
-        <v>88</v>
+        <v>104.25</v>
       </c>
       <c r="I51" s="111">
         <f t="shared" ref="I51:BA51" si="86">I24*I$6</f>
@@ -23348,7 +23478,7 @@
       </c>
       <c r="BX51" s="111">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BY51" s="111">
         <f t="shared" si="28"/>
@@ -23356,19 +23486,19 @@
       </c>
       <c r="BZ51" s="111">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CA51" s="111">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="CB51" s="111">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CC51" s="111">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CD51" s="111">
         <f t="shared" si="28"/>
@@ -23417,7 +23547,7 @@
       <c r="F52" s="18"/>
       <c r="H52" s="111">
         <f t="shared" si="18"/>
-        <v>68.914999999999992</v>
+        <v>84.414999999999992</v>
       </c>
       <c r="I52" s="111">
         <f t="shared" ref="I52:BW60" si="90">I25*I$6</f>
@@ -23689,7 +23819,7 @@
       </c>
       <c r="BX52" s="111">
         <f t="shared" ref="BX52:CM52" si="93">BX25*BX$6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY52" s="111">
         <f t="shared" si="93"/>
@@ -23697,19 +23827,19 @@
       </c>
       <c r="BZ52" s="111">
         <f t="shared" si="93"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CA52" s="111">
         <f t="shared" si="93"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CB52" s="111">
         <f t="shared" si="93"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CC52" s="111">
         <f t="shared" si="93"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="CD52" s="111">
         <f t="shared" si="93"/>
@@ -23737,7 +23867,7 @@
       </c>
       <c r="CJ52" s="111">
         <f t="shared" si="93"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CK52" s="111">
         <f t="shared" si="93"/>
@@ -23758,7 +23888,7 @@
       <c r="F53" s="18"/>
       <c r="H53" s="111">
         <f t="shared" si="18"/>
-        <v>88.25</v>
+        <v>89.25</v>
       </c>
       <c r="I53" s="111">
         <f t="shared" ref="I53:BA53" si="94">I26*I$6</f>
@@ -24030,7 +24160,7 @@
       </c>
       <c r="BX53" s="111">
         <f t="shared" ref="BX53:CM53" si="97">BX26*BX$6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY53" s="111">
         <f t="shared" si="97"/>
@@ -24099,7 +24229,7 @@
       <c r="F54" s="18"/>
       <c r="H54" s="111">
         <f t="shared" si="18"/>
-        <v>85.625</v>
+        <v>94.625</v>
       </c>
       <c r="I54" s="111">
         <f t="shared" ref="I54:BA54" si="98">I27*I$6</f>
@@ -24371,7 +24501,7 @@
       </c>
       <c r="BX54" s="111">
         <f t="shared" ref="BX54:CM54" si="101">BX27*BX$6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY54" s="111">
         <f t="shared" si="101"/>
@@ -24387,11 +24517,11 @@
       </c>
       <c r="CB54" s="111">
         <f t="shared" si="101"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CC54" s="111">
         <f t="shared" si="101"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CD54" s="111">
         <f t="shared" si="101"/>
@@ -24437,7 +24567,7 @@
     <row r="55" spans="4:91" x14ac:dyDescent="0.25">
       <c r="H55" s="111">
         <f t="shared" si="18"/>
-        <v>94.2</v>
+        <v>100.7</v>
       </c>
       <c r="I55" s="111">
         <f t="shared" ref="I55:BA55" si="102">I28*I$6</f>
@@ -24465,7 +24595,7 @@
       </c>
       <c r="O55" s="111">
         <f t="shared" si="102"/>
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="P55" s="111">
         <f t="shared" si="102"/>
@@ -24709,7 +24839,7 @@
       </c>
       <c r="BX55" s="111">
         <f t="shared" ref="BX55:CM55" si="105">BX28*BX$6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY55" s="111">
         <f t="shared" si="105"/>
@@ -24717,11 +24847,11 @@
       </c>
       <c r="BZ55" s="111">
         <f t="shared" si="105"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CA55" s="111">
         <f t="shared" si="105"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CB55" s="111">
         <f t="shared" si="105"/>
@@ -26142,7 +26272,7 @@
       <c r="F60" s="18"/>
       <c r="H60" s="111">
         <f t="shared" si="18"/>
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I60" s="111">
         <f t="shared" ref="I60:BA60" si="122">I33*I$6</f>
@@ -26414,7 +26544,7 @@
       </c>
       <c r="BX60" s="111">
         <f t="shared" ref="BX60:CM60" si="125">BX33*BX$6</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BY60" s="111">
         <f t="shared" si="125"/>
@@ -31665,7 +31795,7 @@
       <c r="F80" s="18"/>
       <c r="H80" s="111">
         <f t="shared" si="126"/>
-        <v>26</v>
+        <v>30.25</v>
       </c>
       <c r="I80" s="111">
         <f t="shared" ref="I80:BW80" si="191">I24*I$7</f>
@@ -31937,7 +32067,7 @@
       </c>
       <c r="BX80" s="111">
         <f t="shared" ref="BX80:CM80" si="194">BX24*BX$7</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BY80" s="111">
         <f t="shared" si="194"/>
@@ -31945,19 +32075,19 @@
       </c>
       <c r="BZ80" s="111">
         <f t="shared" si="194"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA80" s="111">
         <f t="shared" si="194"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="CB80" s="111">
         <f t="shared" si="194"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC80" s="111">
         <f t="shared" si="194"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD80" s="111">
         <f t="shared" si="194"/>
@@ -32006,7 +32136,7 @@
       <c r="F81" s="18"/>
       <c r="H81" s="111">
         <f t="shared" si="126"/>
-        <v>20.504999999999999</v>
+        <v>25.13</v>
       </c>
       <c r="I81" s="111">
         <f t="shared" ref="I81:BW81" si="195">I25*I$7</f>
@@ -32278,7 +32408,7 @@
       </c>
       <c r="BX81" s="111">
         <f t="shared" ref="BX81:CM81" si="198">BX25*BX$7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY81" s="111">
         <f t="shared" si="198"/>
@@ -32286,19 +32416,19 @@
       </c>
       <c r="BZ81" s="111">
         <f t="shared" si="198"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="CA81" s="111">
         <f t="shared" si="198"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB81" s="111">
         <f t="shared" si="198"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC81" s="111">
         <f t="shared" si="198"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="CD81" s="111">
         <f t="shared" si="198"/>
@@ -32326,7 +32456,7 @@
       </c>
       <c r="CJ81" s="111">
         <f t="shared" si="198"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CK81" s="111">
         <f t="shared" si="198"/>
@@ -32347,7 +32477,7 @@
       <c r="F82" s="18"/>
       <c r="H82" s="111">
         <f t="shared" si="126"/>
-        <v>28.75</v>
+        <v>29.75</v>
       </c>
       <c r="I82" s="111">
         <f t="shared" ref="I82:BW82" si="199">I26*I$7</f>
@@ -32619,7 +32749,7 @@
       </c>
       <c r="BX82" s="111">
         <f t="shared" ref="BX82:CM82" si="202">BX26*BX$7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY82" s="111">
         <f t="shared" si="202"/>
@@ -32688,7 +32818,7 @@
       <c r="F83" s="18"/>
       <c r="H83" s="111">
         <f t="shared" si="126"/>
-        <v>28.375</v>
+        <v>31.375</v>
       </c>
       <c r="I83" s="111">
         <f t="shared" ref="I83:BW83" si="203">I27*I$7</f>
@@ -32960,7 +33090,7 @@
       </c>
       <c r="BX83" s="111">
         <f t="shared" ref="BX83:CM83" si="206">BX27*BX$7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY83" s="111">
         <f t="shared" si="206"/>
@@ -32976,11 +33106,11 @@
       </c>
       <c r="CB83" s="111">
         <f t="shared" si="206"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC83" s="111">
         <f t="shared" si="206"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD83" s="111">
         <f t="shared" si="206"/>
@@ -33029,7 +33159,7 @@
       <c r="F84" s="18"/>
       <c r="H84" s="111">
         <f t="shared" si="126"/>
-        <v>29.4</v>
+        <v>31.9</v>
       </c>
       <c r="I84" s="111">
         <f t="shared" ref="I84:BW84" si="207">I28*I$7</f>
@@ -33057,7 +33187,7 @@
       </c>
       <c r="O84" s="111">
         <f t="shared" si="207"/>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="P84" s="111">
         <f t="shared" si="207"/>
@@ -33301,7 +33431,7 @@
       </c>
       <c r="BX84" s="111">
         <f t="shared" ref="BX84:CM84" si="210">BX28*BX$7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY84" s="111">
         <f t="shared" si="210"/>
@@ -33309,11 +33439,11 @@
       </c>
       <c r="BZ84" s="111">
         <f t="shared" si="210"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="CA84" s="111">
         <f t="shared" si="210"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB84" s="111">
         <f t="shared" si="210"/>

--- a/BaremeJavaBaseTest2_KL16.xlsx
+++ b/BaremeJavaBaseTest2_KL16.xlsx
@@ -10789,11 +10789,11 @@
   <dimension ref="A1:CM90"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2325" ySplit="3630" topLeftCell="G7" activePane="bottomRight"/>
+      <pane xSplit="2325" ySplit="3630" topLeftCell="H7" activePane="bottomRight"/>
       <selection activeCell="D4" sqref="D4"/>
-      <selection pane="topRight" activeCell="CI4" sqref="CI4:CI5"/>
-      <selection pane="bottomLeft" activeCell="D27" sqref="D26:D27"/>
-      <selection pane="bottomRight" activeCell="CK21" sqref="CK21"/>
+      <selection pane="topRight" activeCell="I6" sqref="I6"/>
+      <selection pane="bottomLeft" activeCell="A22" sqref="A22:XFD22"/>
+      <selection pane="bottomRight" activeCell="AB22" sqref="AB22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -14910,19 +14910,45 @@
       <c r="BU20" s="103"/>
       <c r="BV20" s="103"/>
       <c r="BW20" s="103"/>
-      <c r="BX20" s="45"/>
-      <c r="BY20" s="76"/>
-      <c r="BZ20" s="76"/>
-      <c r="CA20" s="76"/>
-      <c r="CB20" s="76"/>
-      <c r="CC20" s="100"/>
-      <c r="CD20" s="103"/>
-      <c r="CE20" s="103"/>
-      <c r="CF20" s="103"/>
-      <c r="CG20" s="103"/>
-      <c r="CH20" s="103"/>
-      <c r="CI20" s="76"/>
-      <c r="CJ20" s="65"/>
+      <c r="BX20" s="45">
+        <v>0</v>
+      </c>
+      <c r="BY20" s="76">
+        <v>0</v>
+      </c>
+      <c r="BZ20" s="76">
+        <v>0</v>
+      </c>
+      <c r="CA20" s="76">
+        <v>0</v>
+      </c>
+      <c r="CB20" s="76">
+        <v>0</v>
+      </c>
+      <c r="CC20" s="100">
+        <v>0</v>
+      </c>
+      <c r="CD20" s="103">
+        <v>0</v>
+      </c>
+      <c r="CE20" s="103">
+        <v>0</v>
+      </c>
+      <c r="CF20" s="103">
+        <v>0</v>
+      </c>
+      <c r="CG20" s="103">
+        <v>0</v>
+      </c>
+      <c r="CH20" s="103">
+        <v>0</v>
+      </c>
+      <c r="CI20" s="76">
+        <v>0</v>
+      </c>
+      <c r="CJ20" s="65">
+        <v>0</v>
+      </c>
       <c r="CK20" s="65"/>
       <c r="CL20" s="95">
         <v>0</v>
@@ -17251,17 +17277,17 @@
       <c r="C31" s="114"/>
       <c r="D31" s="126">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.3979057591623043</v>
       </c>
       <c r="E31" s="18"/>
       <c r="F31" s="18"/>
       <c r="G31" s="13">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H31" s="13">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="I31" s="108"/>
       <c r="J31" s="83">
@@ -17366,19 +17392,45 @@
       <c r="BU31" s="83"/>
       <c r="BV31" s="83"/>
       <c r="BW31" s="108"/>
-      <c r="BX31" s="83"/>
-      <c r="BY31" s="83"/>
-      <c r="BZ31" s="108"/>
-      <c r="CA31" s="83"/>
-      <c r="CB31" s="83"/>
-      <c r="CC31" s="108"/>
-      <c r="CD31" s="83"/>
-      <c r="CE31" s="83"/>
-      <c r="CF31" s="83"/>
-      <c r="CG31" s="83"/>
-      <c r="CH31" s="83"/>
-      <c r="CI31" s="83"/>
-      <c r="CJ31" s="83"/>
+      <c r="BX31" s="83">
+        <v>1</v>
+      </c>
+      <c r="BY31" s="83">
+        <v>1</v>
+      </c>
+      <c r="BZ31" s="108">
+        <v>1</v>
+      </c>
+      <c r="CA31" s="83">
+        <v>1</v>
+      </c>
+      <c r="CB31" s="83">
+        <v>1</v>
+      </c>
+      <c r="CC31" s="108">
+        <v>1</v>
+      </c>
+      <c r="CD31" s="83">
+        <v>1</v>
+      </c>
+      <c r="CE31" s="83">
+        <v>1</v>
+      </c>
+      <c r="CF31" s="83">
+        <v>1</v>
+      </c>
+      <c r="CG31" s="83">
+        <v>1</v>
+      </c>
+      <c r="CH31" s="83">
+        <v>1</v>
+      </c>
+      <c r="CI31" s="83">
+        <v>1</v>
+      </c>
+      <c r="CJ31" s="83">
+        <v>1</v>
+      </c>
       <c r="CK31" s="108"/>
       <c r="CL31" s="107">
         <v>0</v>
@@ -18153,19 +18205,19 @@
       </c>
       <c r="BX34" s="67">
         <f t="shared" si="9"/>
-        <v>0.9375</v>
+        <v>0.85</v>
       </c>
       <c r="BY34" s="75">
         <f t="shared" si="9"/>
-        <v>0.125</v>
+        <v>0.2</v>
       </c>
       <c r="BZ34" s="75">
         <f t="shared" si="9"/>
-        <v>0.59375</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="CA34" s="75">
         <f t="shared" si="9"/>
-        <v>0.59375</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="CB34" s="75">
         <f t="shared" si="9"/>
@@ -18173,35 +18225,35 @@
       </c>
       <c r="CC34" s="75">
         <f t="shared" si="9"/>
-        <v>0.390625</v>
+        <v>0.41249999999999998</v>
       </c>
       <c r="CD34" s="102">
         <f t="shared" ref="CD34:CH34" si="17">AVERAGE(CD9:CD32)</f>
-        <v>6.25E-2</v>
+        <v>0.15</v>
       </c>
       <c r="CE34" s="102">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="CF34" s="102">
         <f t="shared" si="17"/>
-        <v>0.125</v>
+        <v>0.2</v>
       </c>
       <c r="CG34" s="102">
         <f t="shared" si="17"/>
-        <v>0.125</v>
+        <v>0.2</v>
       </c>
       <c r="CH34" s="102">
         <f t="shared" si="17"/>
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="CI34" s="75">
         <f t="shared" si="9"/>
-        <v>0.125</v>
+        <v>0.2</v>
       </c>
       <c r="CJ34" s="67">
         <f t="shared" si="9"/>
-        <v>0.375</v>
+        <v>0.4</v>
       </c>
       <c r="CK34" s="67">
         <f t="shared" si="9"/>
@@ -25682,7 +25734,7 @@
       <c r="F58" s="17"/>
       <c r="H58" s="107">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="I58" s="107">
         <f t="shared" ref="I58:BA58" si="114">I31*I$6</f>
@@ -25954,55 +26006,55 @@
       </c>
       <c r="BX58" s="107">
         <f t="shared" ref="BX58:CM58" si="117">BX31*BX$6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY58" s="107">
         <f t="shared" si="117"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BZ58" s="107">
         <f t="shared" si="117"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CA58" s="107">
         <f t="shared" si="117"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CB58" s="107">
         <f t="shared" si="117"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CC58" s="107">
         <f t="shared" si="117"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CD58" s="107">
         <f t="shared" si="117"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CE58" s="107">
         <f t="shared" si="117"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CF58" s="107">
         <f t="shared" si="117"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CG58" s="107">
         <f t="shared" si="117"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CH58" s="107">
         <f t="shared" si="117"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CI58" s="107">
         <f t="shared" si="117"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CJ58" s="107">
         <f t="shared" si="117"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CK58" s="107">
         <f t="shared" si="117"/>
@@ -34265,7 +34317,7 @@
     <row r="87" spans="4:91" x14ac:dyDescent="0.25">
       <c r="H87" s="107">
         <f t="shared" si="126"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I87" s="107">
         <f t="shared" ref="I87:BW87" si="219">I31*I$7</f>
@@ -34537,55 +34589,55 @@
       </c>
       <c r="BX87" s="107">
         <f t="shared" ref="BX87:CM87" si="222">BX31*BX$7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY87" s="107">
         <f t="shared" si="222"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ87" s="107">
         <f t="shared" si="222"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA87" s="107">
         <f t="shared" si="222"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB87" s="107">
         <f t="shared" si="222"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC87" s="107">
         <f t="shared" si="222"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD87" s="107">
         <f t="shared" si="222"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE87" s="107">
         <f t="shared" si="222"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF87" s="107">
         <f t="shared" si="222"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG87" s="107">
         <f t="shared" si="222"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH87" s="107">
         <f t="shared" si="222"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI87" s="107">
         <f t="shared" si="222"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ87" s="107">
         <f t="shared" si="222"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CK87" s="107">
         <f t="shared" si="222"/>

--- a/BaremeJavaBaseTest2_KL16.xlsx
+++ b/BaremeJavaBaseTest2_KL16.xlsx
@@ -3500,148 +3500,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3671,10 +3533,61 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3683,31 +3596,115 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3717,6 +3714,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3752,7 +3752,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -10793,7 +10793,7 @@
       <selection activeCell="D4" sqref="D4"/>
       <selection pane="topRight" activeCell="I6" sqref="I6"/>
       <selection pane="bottomLeft" activeCell="A22" sqref="A22:XFD22"/>
-      <selection pane="bottomRight" activeCell="AB22" sqref="AB22"/>
+      <selection pane="bottomRight" activeCell="BQ18" sqref="BQ18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -10856,96 +10856,96 @@
       <c r="D1" s="121"/>
       <c r="E1" s="17"/>
       <c r="F1" s="17"/>
-      <c r="I1" s="133" t="s">
+      <c r="I1" s="167" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="133"/>
-      <c r="K1" s="133"/>
-      <c r="L1" s="133"/>
-      <c r="M1" s="133"/>
-      <c r="N1" s="133"/>
-      <c r="O1" s="133"/>
-      <c r="P1" s="133"/>
-      <c r="Q1" s="144" t="s">
+      <c r="J1" s="167"/>
+      <c r="K1" s="167"/>
+      <c r="L1" s="167"/>
+      <c r="M1" s="167"/>
+      <c r="N1" s="167"/>
+      <c r="O1" s="167"/>
+      <c r="P1" s="167"/>
+      <c r="Q1" s="177" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="144"/>
-      <c r="S1" s="144"/>
-      <c r="T1" s="144"/>
-      <c r="U1" s="144"/>
-      <c r="V1" s="144"/>
-      <c r="W1" s="135" t="s">
+      <c r="R1" s="177"/>
+      <c r="S1" s="177"/>
+      <c r="T1" s="177"/>
+      <c r="U1" s="177"/>
+      <c r="V1" s="177"/>
+      <c r="W1" s="185" t="s">
         <v>103</v>
       </c>
-      <c r="X1" s="135"/>
-      <c r="Y1" s="135"/>
-      <c r="Z1" s="135"/>
-      <c r="AA1" s="135"/>
-      <c r="AB1" s="135"/>
-      <c r="AC1" s="135"/>
-      <c r="AD1" s="135"/>
-      <c r="AE1" s="135"/>
-      <c r="AF1" s="135"/>
-      <c r="AG1" s="135"/>
-      <c r="AH1" s="135"/>
-      <c r="AI1" s="135"/>
-      <c r="AJ1" s="135"/>
-      <c r="AK1" s="135"/>
-      <c r="AL1" s="135"/>
-      <c r="AM1" s="135"/>
-      <c r="AN1" s="135"/>
-      <c r="AO1" s="135"/>
-      <c r="AP1" s="135"/>
-      <c r="AQ1" s="135"/>
-      <c r="AR1" s="135"/>
-      <c r="AS1" s="135"/>
-      <c r="AT1" s="135"/>
-      <c r="AU1" s="135"/>
-      <c r="AV1" s="135"/>
-      <c r="AW1" s="135"/>
-      <c r="AX1" s="135"/>
-      <c r="AY1" s="135"/>
-      <c r="AZ1" s="135"/>
-      <c r="BA1" s="135"/>
-      <c r="BB1" s="135"/>
-      <c r="BC1" s="135"/>
-      <c r="BD1" s="135"/>
-      <c r="BE1" s="135"/>
-      <c r="BF1" s="135"/>
-      <c r="BG1" s="135"/>
-      <c r="BH1" s="135"/>
-      <c r="BI1" s="135"/>
-      <c r="BJ1" s="135"/>
-      <c r="BK1" s="135"/>
-      <c r="BL1" s="135"/>
-      <c r="BM1" s="135"/>
-      <c r="BN1" s="135"/>
-      <c r="BO1" s="135"/>
-      <c r="BP1" s="135"/>
-      <c r="BQ1" s="135"/>
-      <c r="BR1" s="135" t="s">
+      <c r="X1" s="185"/>
+      <c r="Y1" s="185"/>
+      <c r="Z1" s="185"/>
+      <c r="AA1" s="185"/>
+      <c r="AB1" s="185"/>
+      <c r="AC1" s="185"/>
+      <c r="AD1" s="185"/>
+      <c r="AE1" s="185"/>
+      <c r="AF1" s="185"/>
+      <c r="AG1" s="185"/>
+      <c r="AH1" s="185"/>
+      <c r="AI1" s="185"/>
+      <c r="AJ1" s="185"/>
+      <c r="AK1" s="185"/>
+      <c r="AL1" s="185"/>
+      <c r="AM1" s="185"/>
+      <c r="AN1" s="185"/>
+      <c r="AO1" s="185"/>
+      <c r="AP1" s="185"/>
+      <c r="AQ1" s="185"/>
+      <c r="AR1" s="185"/>
+      <c r="AS1" s="185"/>
+      <c r="AT1" s="185"/>
+      <c r="AU1" s="185"/>
+      <c r="AV1" s="185"/>
+      <c r="AW1" s="185"/>
+      <c r="AX1" s="185"/>
+      <c r="AY1" s="185"/>
+      <c r="AZ1" s="185"/>
+      <c r="BA1" s="185"/>
+      <c r="BB1" s="185"/>
+      <c r="BC1" s="185"/>
+      <c r="BD1" s="185"/>
+      <c r="BE1" s="185"/>
+      <c r="BF1" s="185"/>
+      <c r="BG1" s="185"/>
+      <c r="BH1" s="185"/>
+      <c r="BI1" s="185"/>
+      <c r="BJ1" s="185"/>
+      <c r="BK1" s="185"/>
+      <c r="BL1" s="185"/>
+      <c r="BM1" s="185"/>
+      <c r="BN1" s="185"/>
+      <c r="BO1" s="185"/>
+      <c r="BP1" s="185"/>
+      <c r="BQ1" s="185"/>
+      <c r="BR1" s="185" t="s">
         <v>102</v>
       </c>
-      <c r="BS1" s="135"/>
-      <c r="BT1" s="135"/>
-      <c r="BU1" s="135"/>
-      <c r="BV1" s="135"/>
-      <c r="BW1" s="135"/>
-      <c r="BX1" s="135" t="s">
+      <c r="BS1" s="185"/>
+      <c r="BT1" s="185"/>
+      <c r="BU1" s="185"/>
+      <c r="BV1" s="185"/>
+      <c r="BW1" s="185"/>
+      <c r="BX1" s="185" t="s">
         <v>104</v>
       </c>
-      <c r="BY1" s="135"/>
-      <c r="BZ1" s="135"/>
-      <c r="CA1" s="135"/>
-      <c r="CB1" s="135"/>
-      <c r="CC1" s="135"/>
-      <c r="CD1" s="135"/>
-      <c r="CE1" s="135"/>
-      <c r="CF1" s="135"/>
-      <c r="CG1" s="135"/>
-      <c r="CH1" s="135"/>
-      <c r="CI1" s="135"/>
-      <c r="CJ1" s="135"/>
+      <c r="BY1" s="185"/>
+      <c r="BZ1" s="185"/>
+      <c r="CA1" s="185"/>
+      <c r="CB1" s="185"/>
+      <c r="CC1" s="185"/>
+      <c r="CD1" s="185"/>
+      <c r="CE1" s="185"/>
+      <c r="CF1" s="185"/>
+      <c r="CG1" s="185"/>
+      <c r="CH1" s="185"/>
+      <c r="CI1" s="185"/>
+      <c r="CJ1" s="185"/>
       <c r="CK1" s="106"/>
     </row>
     <row r="2" spans="1:91" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -10957,113 +10957,113 @@
       <c r="F2" s="55"/>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
-      <c r="I2" s="134"/>
-      <c r="J2" s="134"/>
-      <c r="K2" s="134"/>
-      <c r="L2" s="134"/>
-      <c r="M2" s="134"/>
-      <c r="N2" s="134"/>
-      <c r="O2" s="134"/>
-      <c r="P2" s="134"/>
-      <c r="Q2" s="133"/>
-      <c r="R2" s="133"/>
-      <c r="S2" s="133"/>
-      <c r="T2" s="133"/>
-      <c r="U2" s="133"/>
-      <c r="V2" s="133"/>
-      <c r="W2" s="138" t="s">
+      <c r="I2" s="130"/>
+      <c r="J2" s="130"/>
+      <c r="K2" s="130"/>
+      <c r="L2" s="130"/>
+      <c r="M2" s="130"/>
+      <c r="N2" s="130"/>
+      <c r="O2" s="130"/>
+      <c r="P2" s="130"/>
+      <c r="Q2" s="167"/>
+      <c r="R2" s="167"/>
+      <c r="S2" s="167"/>
+      <c r="T2" s="167"/>
+      <c r="U2" s="167"/>
+      <c r="V2" s="167"/>
+      <c r="W2" s="153" t="s">
         <v>4</v>
       </c>
-      <c r="X2" s="187"/>
-      <c r="Y2" s="140"/>
-      <c r="Z2" s="140"/>
-      <c r="AA2" s="140"/>
-      <c r="AB2" s="140"/>
-      <c r="AC2" s="140"/>
-      <c r="AD2" s="140"/>
-      <c r="AE2" s="140"/>
-      <c r="AF2" s="140"/>
-      <c r="AG2" s="140"/>
-      <c r="AH2" s="140"/>
-      <c r="AI2" s="140"/>
-      <c r="AJ2" s="140"/>
-      <c r="AK2" s="140"/>
-      <c r="AL2" s="140"/>
-      <c r="AM2" s="140"/>
-      <c r="AN2" s="140"/>
-      <c r="AO2" s="142"/>
-      <c r="AP2" s="136" t="s">
+      <c r="X2" s="154"/>
+      <c r="Y2" s="155"/>
+      <c r="Z2" s="155"/>
+      <c r="AA2" s="155"/>
+      <c r="AB2" s="155"/>
+      <c r="AC2" s="155"/>
+      <c r="AD2" s="155"/>
+      <c r="AE2" s="155"/>
+      <c r="AF2" s="155"/>
+      <c r="AG2" s="155"/>
+      <c r="AH2" s="155"/>
+      <c r="AI2" s="155"/>
+      <c r="AJ2" s="155"/>
+      <c r="AK2" s="155"/>
+      <c r="AL2" s="155"/>
+      <c r="AM2" s="155"/>
+      <c r="AN2" s="155"/>
+      <c r="AO2" s="156"/>
+      <c r="AP2" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="AQ2" s="134"/>
-      <c r="AR2" s="134"/>
-      <c r="AS2" s="137"/>
-      <c r="AT2" s="176" t="s">
+      <c r="AQ2" s="130"/>
+      <c r="AR2" s="130"/>
+      <c r="AS2" s="187"/>
+      <c r="AT2" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="AU2" s="134"/>
-      <c r="AV2" s="134"/>
-      <c r="AW2" s="152" t="s">
+      <c r="AU2" s="130"/>
+      <c r="AV2" s="130"/>
+      <c r="AW2" s="166" t="s">
         <v>101</v>
       </c>
-      <c r="AX2" s="133"/>
-      <c r="AY2" s="133"/>
-      <c r="AZ2" s="133"/>
-      <c r="BA2" s="133"/>
-      <c r="BB2" s="133"/>
-      <c r="BC2" s="133"/>
-      <c r="BD2" s="133"/>
-      <c r="BE2" s="133"/>
-      <c r="BF2" s="133"/>
-      <c r="BG2" s="133"/>
-      <c r="BH2" s="153"/>
-      <c r="BI2" s="152" t="s">
+      <c r="AX2" s="167"/>
+      <c r="AY2" s="167"/>
+      <c r="AZ2" s="167"/>
+      <c r="BA2" s="167"/>
+      <c r="BB2" s="167"/>
+      <c r="BC2" s="167"/>
+      <c r="BD2" s="167"/>
+      <c r="BE2" s="167"/>
+      <c r="BF2" s="167"/>
+      <c r="BG2" s="167"/>
+      <c r="BH2" s="168"/>
+      <c r="BI2" s="166" t="s">
         <v>105</v>
       </c>
-      <c r="BJ2" s="133"/>
-      <c r="BK2" s="133"/>
-      <c r="BL2" s="133"/>
-      <c r="BM2" s="133"/>
-      <c r="BN2" s="133"/>
-      <c r="BO2" s="133"/>
-      <c r="BP2" s="133"/>
-      <c r="BQ2" s="153"/>
-      <c r="BR2" s="138" t="s">
+      <c r="BJ2" s="167"/>
+      <c r="BK2" s="167"/>
+      <c r="BL2" s="167"/>
+      <c r="BM2" s="167"/>
+      <c r="BN2" s="167"/>
+      <c r="BO2" s="167"/>
+      <c r="BP2" s="167"/>
+      <c r="BQ2" s="168"/>
+      <c r="BR2" s="153" t="s">
         <v>106</v>
       </c>
-      <c r="BS2" s="140" t="s">
+      <c r="BS2" s="155" t="s">
         <v>107</v>
       </c>
-      <c r="BT2" s="140"/>
-      <c r="BU2" s="140" t="s">
+      <c r="BT2" s="155"/>
+      <c r="BU2" s="155" t="s">
         <v>108</v>
       </c>
-      <c r="BV2" s="140" t="s">
+      <c r="BV2" s="155" t="s">
         <v>109</v>
       </c>
-      <c r="BW2" s="142"/>
-      <c r="BX2" s="152" t="s">
+      <c r="BW2" s="156"/>
+      <c r="BX2" s="166" t="s">
         <v>110</v>
       </c>
-      <c r="BY2" s="133"/>
-      <c r="BZ2" s="133"/>
-      <c r="CA2" s="133"/>
-      <c r="CB2" s="133"/>
-      <c r="CC2" s="133"/>
-      <c r="CD2" s="133"/>
-      <c r="CE2" s="133"/>
-      <c r="CF2" s="133"/>
-      <c r="CG2" s="133"/>
-      <c r="CH2" s="133"/>
-      <c r="CI2" s="133"/>
-      <c r="CJ2" s="153"/>
-      <c r="CK2" s="174" t="s">
+      <c r="BY2" s="167"/>
+      <c r="BZ2" s="167"/>
+      <c r="CA2" s="167"/>
+      <c r="CB2" s="167"/>
+      <c r="CC2" s="167"/>
+      <c r="CD2" s="167"/>
+      <c r="CE2" s="167"/>
+      <c r="CF2" s="167"/>
+      <c r="CG2" s="167"/>
+      <c r="CH2" s="167"/>
+      <c r="CI2" s="167"/>
+      <c r="CJ2" s="168"/>
+      <c r="CK2" s="173" t="s">
         <v>13</v>
       </c>
-      <c r="CL2" s="173" t="s">
+      <c r="CL2" s="165" t="s">
         <v>174</v>
       </c>
-      <c r="CM2" s="173"/>
+      <c r="CM2" s="165"/>
     </row>
     <row r="3" spans="1:91" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
@@ -11074,129 +11074,129 @@
       <c r="F3" s="55"/>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
-      <c r="I3" s="183" t="s">
+      <c r="I3" s="137" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="164" t="s">
+      <c r="J3" s="140" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="164" t="s">
+      <c r="K3" s="140" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="183" t="s">
+      <c r="L3" s="137" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="183" t="s">
+      <c r="M3" s="137" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="164" t="s">
+      <c r="N3" s="140" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="180" t="s">
+      <c r="O3" s="134" t="s">
         <v>72</v>
       </c>
-      <c r="P3" s="164" t="s">
+      <c r="P3" s="140" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="133"/>
-      <c r="R3" s="133"/>
-      <c r="S3" s="133"/>
-      <c r="T3" s="133"/>
-      <c r="U3" s="133"/>
-      <c r="V3" s="133"/>
-      <c r="W3" s="171" t="s">
+      <c r="Q3" s="167"/>
+      <c r="R3" s="167"/>
+      <c r="S3" s="167"/>
+      <c r="T3" s="167"/>
+      <c r="U3" s="167"/>
+      <c r="V3" s="167"/>
+      <c r="W3" s="147" t="s">
         <v>92</v>
       </c>
-      <c r="X3" s="146"/>
-      <c r="Y3" s="146"/>
-      <c r="Z3" s="146"/>
-      <c r="AA3" s="146"/>
-      <c r="AB3" s="177" t="s">
+      <c r="X3" s="148"/>
+      <c r="Y3" s="148"/>
+      <c r="Z3" s="148"/>
+      <c r="AA3" s="148"/>
+      <c r="AB3" s="131" t="s">
         <v>112</v>
       </c>
-      <c r="AC3" s="159"/>
-      <c r="AD3" s="155"/>
-      <c r="AE3" s="155"/>
-      <c r="AF3" s="155"/>
-      <c r="AG3" s="155"/>
-      <c r="AH3" s="155"/>
-      <c r="AI3" s="155"/>
-      <c r="AJ3" s="190" t="s">
+      <c r="AC3" s="157"/>
+      <c r="AD3" s="158"/>
+      <c r="AE3" s="158"/>
+      <c r="AF3" s="158"/>
+      <c r="AG3" s="158"/>
+      <c r="AH3" s="158"/>
+      <c r="AI3" s="158"/>
+      <c r="AJ3" s="163" t="s">
         <v>113</v>
       </c>
-      <c r="AK3" s="146"/>
-      <c r="AL3" s="146"/>
-      <c r="AM3" s="146"/>
-      <c r="AN3" s="146"/>
-      <c r="AO3" s="147"/>
-      <c r="AP3" s="171" t="s">
+      <c r="AK3" s="148"/>
+      <c r="AL3" s="148"/>
+      <c r="AM3" s="148"/>
+      <c r="AN3" s="148"/>
+      <c r="AO3" s="164"/>
+      <c r="AP3" s="147" t="s">
         <v>5</v>
       </c>
-      <c r="AQ3" s="146"/>
-      <c r="AR3" s="146"/>
-      <c r="AS3" s="177" t="s">
+      <c r="AQ3" s="148"/>
+      <c r="AR3" s="148"/>
+      <c r="AS3" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="AT3" s="164" t="s">
+      <c r="AT3" s="140" t="s">
         <v>7</v>
       </c>
-      <c r="AU3" s="144"/>
-      <c r="AV3" s="144"/>
-      <c r="AW3" s="160" t="s">
+      <c r="AU3" s="177"/>
+      <c r="AV3" s="177"/>
+      <c r="AW3" s="182" t="s">
         <v>133</v>
       </c>
-      <c r="AX3" s="162" t="s">
+      <c r="AX3" s="184" t="s">
         <v>8</v>
       </c>
-      <c r="AY3" s="145" t="s">
+      <c r="AY3" s="181" t="s">
         <v>121</v>
       </c>
-      <c r="AZ3" s="146"/>
-      <c r="BA3" s="146"/>
-      <c r="BB3" s="146"/>
-      <c r="BC3" s="159"/>
-      <c r="BD3" s="145" t="s">
+      <c r="AZ3" s="148"/>
+      <c r="BA3" s="148"/>
+      <c r="BB3" s="148"/>
+      <c r="BC3" s="157"/>
+      <c r="BD3" s="181" t="s">
         <v>123</v>
       </c>
-      <c r="BE3" s="146"/>
-      <c r="BF3" s="146"/>
-      <c r="BG3" s="146"/>
-      <c r="BH3" s="147"/>
-      <c r="BI3" s="154" t="s">
+      <c r="BE3" s="148"/>
+      <c r="BF3" s="148"/>
+      <c r="BG3" s="148"/>
+      <c r="BH3" s="164"/>
+      <c r="BI3" s="169" t="s">
         <v>71</v>
       </c>
-      <c r="BJ3" s="155"/>
-      <c r="BK3" s="155"/>
-      <c r="BL3" s="155"/>
-      <c r="BM3" s="155"/>
-      <c r="BN3" s="155"/>
-      <c r="BO3" s="155"/>
-      <c r="BP3" s="145"/>
-      <c r="BQ3" s="156"/>
-      <c r="BR3" s="139"/>
-      <c r="BS3" s="141"/>
-      <c r="BT3" s="141"/>
-      <c r="BU3" s="141"/>
-      <c r="BV3" s="141"/>
-      <c r="BW3" s="143"/>
-      <c r="BX3" s="154" t="s">
+      <c r="BJ3" s="158"/>
+      <c r="BK3" s="158"/>
+      <c r="BL3" s="158"/>
+      <c r="BM3" s="158"/>
+      <c r="BN3" s="158"/>
+      <c r="BO3" s="158"/>
+      <c r="BP3" s="181"/>
+      <c r="BQ3" s="170"/>
+      <c r="BR3" s="188"/>
+      <c r="BS3" s="189"/>
+      <c r="BT3" s="189"/>
+      <c r="BU3" s="189"/>
+      <c r="BV3" s="189"/>
+      <c r="BW3" s="190"/>
+      <c r="BX3" s="169" t="s">
         <v>111</v>
       </c>
-      <c r="BY3" s="155"/>
-      <c r="BZ3" s="155"/>
-      <c r="CA3" s="155"/>
-      <c r="CB3" s="155"/>
-      <c r="CC3" s="155"/>
-      <c r="CD3" s="155"/>
-      <c r="CE3" s="155"/>
-      <c r="CF3" s="155"/>
-      <c r="CG3" s="155"/>
-      <c r="CH3" s="155"/>
-      <c r="CI3" s="155"/>
-      <c r="CJ3" s="156"/>
-      <c r="CK3" s="152"/>
-      <c r="CL3" s="173"/>
-      <c r="CM3" s="173"/>
+      <c r="BY3" s="158"/>
+      <c r="BZ3" s="158"/>
+      <c r="CA3" s="158"/>
+      <c r="CB3" s="158"/>
+      <c r="CC3" s="158"/>
+      <c r="CD3" s="158"/>
+      <c r="CE3" s="158"/>
+      <c r="CF3" s="158"/>
+      <c r="CG3" s="158"/>
+      <c r="CH3" s="158"/>
+      <c r="CI3" s="158"/>
+      <c r="CJ3" s="170"/>
+      <c r="CK3" s="166"/>
+      <c r="CL3" s="165"/>
+      <c r="CM3" s="165"/>
     </row>
     <row r="4" spans="1:91" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -11225,15 +11225,15 @@
         <f>CONCATENATE("Note/",H6)</f>
         <v>Note/191</v>
       </c>
-      <c r="I4" s="184"/>
-      <c r="J4" s="163"/>
-      <c r="K4" s="163"/>
-      <c r="L4" s="184"/>
-      <c r="M4" s="184"/>
-      <c r="N4" s="163"/>
-      <c r="O4" s="181"/>
-      <c r="P4" s="163"/>
-      <c r="Q4" s="165" t="s">
+      <c r="I4" s="138"/>
+      <c r="J4" s="141"/>
+      <c r="K4" s="141"/>
+      <c r="L4" s="138"/>
+      <c r="M4" s="138"/>
+      <c r="N4" s="141"/>
+      <c r="O4" s="135"/>
+      <c r="P4" s="141"/>
+      <c r="Q4" s="178" t="s">
         <v>138</v>
       </c>
       <c r="R4" s="77" t="s">
@@ -11251,193 +11251,193 @@
       <c r="V4" s="74" t="s">
         <v>91</v>
       </c>
-      <c r="W4" s="188" t="s">
+      <c r="W4" s="159" t="s">
         <v>52</v>
       </c>
-      <c r="X4" s="169" t="s">
+      <c r="X4" s="143" t="s">
         <v>10</v>
       </c>
-      <c r="Y4" s="148" t="s">
+      <c r="Y4" s="171" t="s">
         <v>11</v>
       </c>
-      <c r="Z4" s="129" t="s">
+      <c r="Z4" s="151" t="s">
         <v>70</v>
       </c>
-      <c r="AA4" s="148" t="s">
+      <c r="AA4" s="171" t="s">
         <v>73</v>
       </c>
-      <c r="AB4" s="167" t="s">
+      <c r="AB4" s="161" t="s">
         <v>52</v>
       </c>
-      <c r="AC4" s="169" t="s">
+      <c r="AC4" s="143" t="s">
         <v>10</v>
       </c>
-      <c r="AD4" s="169" t="s">
+      <c r="AD4" s="143" t="s">
         <v>11</v>
       </c>
-      <c r="AE4" s="129" t="s">
+      <c r="AE4" s="151" t="s">
         <v>171</v>
       </c>
-      <c r="AF4" s="129" t="s">
+      <c r="AF4" s="151" t="s">
         <v>172</v>
       </c>
-      <c r="AG4" s="129" t="s">
+      <c r="AG4" s="151" t="s">
         <v>173</v>
       </c>
-      <c r="AH4" s="129" t="s">
+      <c r="AH4" s="151" t="s">
         <v>70</v>
       </c>
-      <c r="AI4" s="148" t="s">
+      <c r="AI4" s="171" t="s">
         <v>73</v>
       </c>
-      <c r="AJ4" s="167" t="s">
+      <c r="AJ4" s="161" t="s">
         <v>52</v>
       </c>
-      <c r="AK4" s="169" t="s">
+      <c r="AK4" s="143" t="s">
         <v>10</v>
       </c>
-      <c r="AL4" s="169" t="s">
+      <c r="AL4" s="143" t="s">
         <v>11</v>
       </c>
-      <c r="AM4" s="129" t="s">
+      <c r="AM4" s="151" t="s">
         <v>172</v>
       </c>
-      <c r="AN4" s="129" t="s">
+      <c r="AN4" s="151" t="s">
         <v>70</v>
       </c>
-      <c r="AO4" s="157" t="s">
+      <c r="AO4" s="149" t="s">
         <v>73</v>
       </c>
-      <c r="AP4" s="150" t="s">
+      <c r="AP4" s="145" t="s">
         <v>114</v>
       </c>
-      <c r="AQ4" s="131" t="s">
+      <c r="AQ4" s="175" t="s">
         <v>115</v>
       </c>
-      <c r="AR4" s="132"/>
-      <c r="AS4" s="178"/>
-      <c r="AT4" s="163"/>
-      <c r="AU4" s="133"/>
-      <c r="AV4" s="133"/>
-      <c r="AW4" s="138"/>
-      <c r="AX4" s="140"/>
-      <c r="AY4" s="148" t="s">
+      <c r="AR4" s="176"/>
+      <c r="AS4" s="132"/>
+      <c r="AT4" s="141"/>
+      <c r="AU4" s="167"/>
+      <c r="AV4" s="167"/>
+      <c r="AW4" s="153"/>
+      <c r="AX4" s="155"/>
+      <c r="AY4" s="171" t="s">
         <v>96</v>
       </c>
-      <c r="AZ4" s="148" t="s">
+      <c r="AZ4" s="171" t="s">
         <v>119</v>
       </c>
-      <c r="BA4" s="148" t="s">
+      <c r="BA4" s="171" t="s">
         <v>122</v>
       </c>
-      <c r="BB4" s="148" t="s">
+      <c r="BB4" s="171" t="s">
         <v>124</v>
       </c>
-      <c r="BC4" s="148" t="s">
+      <c r="BC4" s="171" t="s">
         <v>120</v>
       </c>
-      <c r="BD4" s="148" t="s">
+      <c r="BD4" s="171" t="s">
         <v>96</v>
       </c>
-      <c r="BE4" s="148" t="s">
+      <c r="BE4" s="171" t="s">
         <v>119</v>
       </c>
-      <c r="BF4" s="148" t="s">
+      <c r="BF4" s="171" t="s">
         <v>122</v>
       </c>
-      <c r="BG4" s="148" t="s">
+      <c r="BG4" s="171" t="s">
         <v>124</v>
       </c>
-      <c r="BH4" s="148" t="s">
+      <c r="BH4" s="171" t="s">
         <v>120</v>
       </c>
-      <c r="BI4" s="150" t="s">
+      <c r="BI4" s="145" t="s">
         <v>125</v>
       </c>
-      <c r="BJ4" s="148" t="s">
+      <c r="BJ4" s="171" t="s">
         <v>132</v>
       </c>
-      <c r="BK4" s="148" t="s">
+      <c r="BK4" s="171" t="s">
         <v>126</v>
       </c>
-      <c r="BL4" s="148" t="s">
+      <c r="BL4" s="171" t="s">
         <v>127</v>
       </c>
-      <c r="BM4" s="148" t="s">
+      <c r="BM4" s="171" t="s">
         <v>128</v>
       </c>
-      <c r="BN4" s="148" t="s">
+      <c r="BN4" s="171" t="s">
         <v>129</v>
       </c>
-      <c r="BO4" s="148" t="s">
+      <c r="BO4" s="171" t="s">
         <v>130</v>
       </c>
-      <c r="BP4" s="148" t="s">
+      <c r="BP4" s="171" t="s">
         <v>116</v>
       </c>
-      <c r="BQ4" s="157" t="s">
+      <c r="BQ4" s="149" t="s">
         <v>131</v>
       </c>
-      <c r="BR4" s="150" t="s">
+      <c r="BR4" s="145" t="s">
         <v>96</v>
       </c>
-      <c r="BS4" s="148" t="s">
+      <c r="BS4" s="171" t="s">
         <v>97</v>
       </c>
-      <c r="BT4" s="148" t="s">
+      <c r="BT4" s="171" t="s">
         <v>98</v>
       </c>
-      <c r="BU4" s="148" t="s">
+      <c r="BU4" s="171" t="s">
         <v>94</v>
       </c>
-      <c r="BV4" s="148" t="s">
-        <v>99</v>
-      </c>
-      <c r="BW4" s="148" t="s">
+      <c r="BV4" s="171" t="s">
+        <v>99</v>
+      </c>
+      <c r="BW4" s="171" t="s">
         <v>95</v>
       </c>
-      <c r="BX4" s="150" t="s">
+      <c r="BX4" s="145" t="s">
         <v>139</v>
       </c>
-      <c r="BY4" s="148" t="s">
+      <c r="BY4" s="171" t="s">
         <v>140</v>
       </c>
-      <c r="BZ4" s="148" t="s">
+      <c r="BZ4" s="171" t="s">
         <v>141</v>
       </c>
-      <c r="CA4" s="148" t="s">
+      <c r="CA4" s="171" t="s">
         <v>142</v>
       </c>
-      <c r="CB4" s="148" t="s">
+      <c r="CB4" s="171" t="s">
         <v>143</v>
       </c>
-      <c r="CC4" s="148" t="s">
+      <c r="CC4" s="171" t="s">
         <v>144</v>
       </c>
-      <c r="CD4" s="148" t="s">
+      <c r="CD4" s="171" t="s">
         <v>145</v>
       </c>
-      <c r="CE4" s="148" t="s">
+      <c r="CE4" s="171" t="s">
         <v>135</v>
       </c>
-      <c r="CF4" s="148" t="s">
+      <c r="CF4" s="171" t="s">
         <v>146</v>
       </c>
-      <c r="CG4" s="148" t="s">
+      <c r="CG4" s="171" t="s">
         <v>147</v>
       </c>
-      <c r="CH4" s="148" t="s">
+      <c r="CH4" s="171" t="s">
         <v>148</v>
       </c>
-      <c r="CI4" s="148" t="s">
+      <c r="CI4" s="171" t="s">
         <v>149</v>
       </c>
-      <c r="CJ4" s="157" t="s">
+      <c r="CJ4" s="149" t="s">
         <v>150</v>
       </c>
-      <c r="CK4" s="152"/>
-      <c r="CL4" s="173"/>
-      <c r="CM4" s="173"/>
+      <c r="CK4" s="166"/>
+      <c r="CL4" s="165"/>
+      <c r="CM4" s="165"/>
     </row>
     <row r="5" spans="1:91" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
@@ -11448,15 +11448,15 @@
       <c r="F5" s="16"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
-      <c r="I5" s="185"/>
-      <c r="J5" s="186"/>
-      <c r="K5" s="186"/>
-      <c r="L5" s="185"/>
-      <c r="M5" s="185"/>
-      <c r="N5" s="186"/>
-      <c r="O5" s="182"/>
-      <c r="P5" s="176"/>
-      <c r="Q5" s="166"/>
+      <c r="I5" s="139"/>
+      <c r="J5" s="142"/>
+      <c r="K5" s="142"/>
+      <c r="L5" s="139"/>
+      <c r="M5" s="139"/>
+      <c r="N5" s="142"/>
+      <c r="O5" s="136"/>
+      <c r="P5" s="129"/>
+      <c r="Q5" s="179"/>
       <c r="R5" s="88" t="s">
         <v>134</v>
       </c>
@@ -11472,33 +11472,33 @@
       <c r="V5" s="87" t="s">
         <v>137</v>
       </c>
-      <c r="W5" s="189"/>
-      <c r="X5" s="170"/>
-      <c r="Y5" s="149"/>
-      <c r="Z5" s="130"/>
-      <c r="AA5" s="149"/>
-      <c r="AB5" s="168"/>
-      <c r="AC5" s="170"/>
-      <c r="AD5" s="170"/>
-      <c r="AE5" s="130"/>
-      <c r="AF5" s="130"/>
-      <c r="AG5" s="130"/>
-      <c r="AH5" s="130"/>
-      <c r="AI5" s="149"/>
-      <c r="AJ5" s="168"/>
-      <c r="AK5" s="170"/>
-      <c r="AL5" s="170"/>
-      <c r="AM5" s="130"/>
-      <c r="AN5" s="130"/>
-      <c r="AO5" s="158"/>
-      <c r="AP5" s="151"/>
+      <c r="W5" s="160"/>
+      <c r="X5" s="144"/>
+      <c r="Y5" s="172"/>
+      <c r="Z5" s="152"/>
+      <c r="AA5" s="172"/>
+      <c r="AB5" s="162"/>
+      <c r="AC5" s="144"/>
+      <c r="AD5" s="144"/>
+      <c r="AE5" s="152"/>
+      <c r="AF5" s="152"/>
+      <c r="AG5" s="152"/>
+      <c r="AH5" s="152"/>
+      <c r="AI5" s="172"/>
+      <c r="AJ5" s="162"/>
+      <c r="AK5" s="144"/>
+      <c r="AL5" s="144"/>
+      <c r="AM5" s="152"/>
+      <c r="AN5" s="152"/>
+      <c r="AO5" s="150"/>
+      <c r="AP5" s="146"/>
       <c r="AQ5" s="89" t="s">
         <v>93</v>
       </c>
       <c r="AR5" s="89" t="s">
         <v>116</v>
       </c>
-      <c r="AS5" s="179"/>
+      <c r="AS5" s="133"/>
       <c r="AT5" s="97" t="s">
         <v>100</v>
       </c>
@@ -11508,49 +11508,49 @@
       <c r="AV5" s="98" t="s">
         <v>118</v>
       </c>
-      <c r="AW5" s="161"/>
-      <c r="AX5" s="130"/>
-      <c r="AY5" s="149"/>
-      <c r="AZ5" s="149"/>
-      <c r="BA5" s="149"/>
-      <c r="BB5" s="149"/>
-      <c r="BC5" s="149"/>
-      <c r="BD5" s="149"/>
-      <c r="BE5" s="149"/>
-      <c r="BF5" s="149"/>
-      <c r="BG5" s="149"/>
-      <c r="BH5" s="149"/>
-      <c r="BI5" s="151"/>
-      <c r="BJ5" s="149"/>
-      <c r="BK5" s="149"/>
-      <c r="BL5" s="149"/>
-      <c r="BM5" s="149"/>
-      <c r="BN5" s="149"/>
-      <c r="BO5" s="149"/>
-      <c r="BP5" s="149"/>
-      <c r="BQ5" s="158"/>
-      <c r="BR5" s="151"/>
-      <c r="BS5" s="149"/>
-      <c r="BT5" s="149"/>
-      <c r="BU5" s="149"/>
-      <c r="BV5" s="149"/>
-      <c r="BW5" s="149"/>
-      <c r="BX5" s="151"/>
-      <c r="BY5" s="149"/>
-      <c r="BZ5" s="149"/>
-      <c r="CA5" s="149"/>
-      <c r="CB5" s="149"/>
-      <c r="CC5" s="149"/>
-      <c r="CD5" s="149"/>
-      <c r="CE5" s="149"/>
-      <c r="CF5" s="149"/>
-      <c r="CG5" s="149"/>
-      <c r="CH5" s="149"/>
-      <c r="CI5" s="149"/>
-      <c r="CJ5" s="158"/>
-      <c r="CK5" s="175"/>
-      <c r="CL5" s="173"/>
-      <c r="CM5" s="173"/>
+      <c r="AW5" s="183"/>
+      <c r="AX5" s="152"/>
+      <c r="AY5" s="172"/>
+      <c r="AZ5" s="172"/>
+      <c r="BA5" s="172"/>
+      <c r="BB5" s="172"/>
+      <c r="BC5" s="172"/>
+      <c r="BD5" s="172"/>
+      <c r="BE5" s="172"/>
+      <c r="BF5" s="172"/>
+      <c r="BG5" s="172"/>
+      <c r="BH5" s="172"/>
+      <c r="BI5" s="146"/>
+      <c r="BJ5" s="172"/>
+      <c r="BK5" s="172"/>
+      <c r="BL5" s="172"/>
+      <c r="BM5" s="172"/>
+      <c r="BN5" s="172"/>
+      <c r="BO5" s="172"/>
+      <c r="BP5" s="172"/>
+      <c r="BQ5" s="150"/>
+      <c r="BR5" s="146"/>
+      <c r="BS5" s="172"/>
+      <c r="BT5" s="172"/>
+      <c r="BU5" s="172"/>
+      <c r="BV5" s="172"/>
+      <c r="BW5" s="172"/>
+      <c r="BX5" s="146"/>
+      <c r="BY5" s="172"/>
+      <c r="BZ5" s="172"/>
+      <c r="CA5" s="172"/>
+      <c r="CB5" s="172"/>
+      <c r="CC5" s="172"/>
+      <c r="CD5" s="172"/>
+      <c r="CE5" s="172"/>
+      <c r="CF5" s="172"/>
+      <c r="CG5" s="172"/>
+      <c r="CH5" s="172"/>
+      <c r="CI5" s="172"/>
+      <c r="CJ5" s="150"/>
+      <c r="CK5" s="174"/>
+      <c r="CL5" s="165"/>
+      <c r="CM5" s="165"/>
     </row>
     <row r="6" spans="1:91" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -12093,108 +12093,108 @@
       <c r="N8" s="7"/>
       <c r="O8" s="47"/>
       <c r="P8" s="7"/>
-      <c r="Q8" s="163">
+      <c r="Q8" s="141">
         <f>SUM(Q6:V6)</f>
         <v>25</v>
       </c>
-      <c r="R8" s="133"/>
-      <c r="S8" s="133"/>
-      <c r="T8" s="133"/>
-      <c r="U8" s="133"/>
-      <c r="V8" s="133"/>
-      <c r="W8" s="131">
+      <c r="R8" s="167"/>
+      <c r="S8" s="167"/>
+      <c r="T8" s="167"/>
+      <c r="U8" s="167"/>
+      <c r="V8" s="167"/>
+      <c r="W8" s="175">
         <f>SUM(W6:AA6)</f>
         <v>0</v>
       </c>
-      <c r="X8" s="132"/>
-      <c r="Y8" s="132"/>
-      <c r="Z8" s="132"/>
-      <c r="AA8" s="132"/>
-      <c r="AB8" s="131">
+      <c r="X8" s="176"/>
+      <c r="Y8" s="176"/>
+      <c r="Z8" s="176"/>
+      <c r="AA8" s="176"/>
+      <c r="AB8" s="175">
         <f>SUM(AB6:AI6)</f>
         <v>25</v>
       </c>
-      <c r="AC8" s="132"/>
-      <c r="AD8" s="132"/>
-      <c r="AE8" s="132"/>
-      <c r="AF8" s="132"/>
-      <c r="AG8" s="132"/>
-      <c r="AH8" s="132"/>
-      <c r="AI8" s="132"/>
-      <c r="AJ8" s="131">
+      <c r="AC8" s="176"/>
+      <c r="AD8" s="176"/>
+      <c r="AE8" s="176"/>
+      <c r="AF8" s="176"/>
+      <c r="AG8" s="176"/>
+      <c r="AH8" s="176"/>
+      <c r="AI8" s="176"/>
+      <c r="AJ8" s="175">
         <f>SUM(AJ6:AO6)</f>
         <v>9</v>
       </c>
-      <c r="AK8" s="132"/>
-      <c r="AL8" s="132"/>
-      <c r="AM8" s="132"/>
-      <c r="AN8" s="132"/>
-      <c r="AO8" s="172"/>
-      <c r="AP8" s="131">
+      <c r="AK8" s="176"/>
+      <c r="AL8" s="176"/>
+      <c r="AM8" s="176"/>
+      <c r="AN8" s="176"/>
+      <c r="AO8" s="180"/>
+      <c r="AP8" s="175">
         <f>SUM(AP6:AR6)</f>
         <v>2</v>
       </c>
-      <c r="AQ8" s="132"/>
-      <c r="AR8" s="132"/>
+      <c r="AQ8" s="176"/>
+      <c r="AR8" s="176"/>
       <c r="AS8" s="96"/>
-      <c r="AT8" s="131">
+      <c r="AT8" s="175">
         <f>SUM(AT6:AV6)</f>
         <v>5</v>
       </c>
-      <c r="AU8" s="132"/>
-      <c r="AV8" s="132"/>
-      <c r="AW8" s="131">
+      <c r="AU8" s="176"/>
+      <c r="AV8" s="176"/>
+      <c r="AW8" s="175">
         <f>SUM(AW6:BH6)</f>
         <v>17</v>
       </c>
-      <c r="AX8" s="132"/>
-      <c r="AY8" s="132"/>
-      <c r="AZ8" s="132"/>
-      <c r="BA8" s="132"/>
-      <c r="BB8" s="132"/>
-      <c r="BC8" s="132"/>
-      <c r="BD8" s="132"/>
-      <c r="BE8" s="132"/>
-      <c r="BF8" s="132"/>
-      <c r="BG8" s="132"/>
-      <c r="BH8" s="132"/>
-      <c r="BI8" s="131">
+      <c r="AX8" s="176"/>
+      <c r="AY8" s="176"/>
+      <c r="AZ8" s="176"/>
+      <c r="BA8" s="176"/>
+      <c r="BB8" s="176"/>
+      <c r="BC8" s="176"/>
+      <c r="BD8" s="176"/>
+      <c r="BE8" s="176"/>
+      <c r="BF8" s="176"/>
+      <c r="BG8" s="176"/>
+      <c r="BH8" s="176"/>
+      <c r="BI8" s="175">
         <f>SUM(BI6:BQ6)</f>
         <v>28</v>
       </c>
-      <c r="BJ8" s="132"/>
-      <c r="BK8" s="132"/>
-      <c r="BL8" s="132"/>
-      <c r="BM8" s="132"/>
-      <c r="BN8" s="132"/>
-      <c r="BO8" s="132"/>
-      <c r="BP8" s="132"/>
-      <c r="BQ8" s="132"/>
-      <c r="BR8" s="131">
+      <c r="BJ8" s="176"/>
+      <c r="BK8" s="176"/>
+      <c r="BL8" s="176"/>
+      <c r="BM8" s="176"/>
+      <c r="BN8" s="176"/>
+      <c r="BO8" s="176"/>
+      <c r="BP8" s="176"/>
+      <c r="BQ8" s="176"/>
+      <c r="BR8" s="175">
         <f>SUM(BR6:BW6)</f>
         <v>0</v>
       </c>
-      <c r="BS8" s="132"/>
-      <c r="BT8" s="132"/>
-      <c r="BU8" s="132"/>
-      <c r="BV8" s="132"/>
-      <c r="BW8" s="132"/>
-      <c r="BX8" s="131">
+      <c r="BS8" s="176"/>
+      <c r="BT8" s="176"/>
+      <c r="BU8" s="176"/>
+      <c r="BV8" s="176"/>
+      <c r="BW8" s="176"/>
+      <c r="BX8" s="175">
         <f>SUM(BX6:CJ6)</f>
         <v>42</v>
       </c>
-      <c r="BY8" s="132"/>
-      <c r="BZ8" s="132"/>
-      <c r="CA8" s="132"/>
-      <c r="CB8" s="132"/>
-      <c r="CC8" s="132"/>
-      <c r="CD8" s="132"/>
-      <c r="CE8" s="132"/>
-      <c r="CF8" s="132"/>
-      <c r="CG8" s="132"/>
-      <c r="CH8" s="132"/>
-      <c r="CI8" s="132"/>
-      <c r="CJ8" s="132"/>
+      <c r="BY8" s="176"/>
+      <c r="BZ8" s="176"/>
+      <c r="CA8" s="176"/>
+      <c r="CB8" s="176"/>
+      <c r="CC8" s="176"/>
+      <c r="CD8" s="176"/>
+      <c r="CE8" s="176"/>
+      <c r="CF8" s="176"/>
+      <c r="CG8" s="176"/>
+      <c r="CH8" s="176"/>
+      <c r="CI8" s="176"/>
+      <c r="CJ8" s="176"/>
       <c r="CK8" s="2">
         <f>CK6</f>
         <v>1</v>
@@ -14485,20 +14485,20 @@
       <c r="C19" s="109"/>
       <c r="D19" s="126">
         <f t="shared" si="0"/>
-        <v>8.4816753926701569</v>
+        <v>8.5863874345549736</v>
       </c>
       <c r="E19" s="18">
         <f t="shared" si="1"/>
-        <v>9.8214285714285712</v>
+        <v>10.178571428571427</v>
       </c>
       <c r="F19" s="18"/>
       <c r="G19" s="13">
         <f t="shared" si="4"/>
-        <v>27.5</v>
+        <v>28.5</v>
       </c>
       <c r="H19" s="13">
         <f t="shared" si="3"/>
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I19" s="103">
         <v>0</v>
@@ -14683,19 +14683,45 @@
       <c r="BU19" s="83"/>
       <c r="BV19" s="83"/>
       <c r="BW19" s="103"/>
-      <c r="BX19" s="83"/>
-      <c r="BY19" s="83"/>
-      <c r="BZ19" s="83"/>
-      <c r="CA19" s="83"/>
-      <c r="CB19" s="83"/>
-      <c r="CC19" s="100"/>
-      <c r="CD19" s="83"/>
-      <c r="CE19" s="83"/>
-      <c r="CF19" s="83"/>
-      <c r="CG19" s="83"/>
-      <c r="CH19" s="83"/>
-      <c r="CI19" s="83"/>
-      <c r="CJ19" s="83"/>
+      <c r="BX19" s="83">
+        <v>1</v>
+      </c>
+      <c r="BY19" s="83">
+        <v>0</v>
+      </c>
+      <c r="BZ19" s="83">
+        <v>0</v>
+      </c>
+      <c r="CA19" s="83">
+        <v>0</v>
+      </c>
+      <c r="CB19" s="83">
+        <v>0</v>
+      </c>
+      <c r="CC19" s="100">
+        <v>0</v>
+      </c>
+      <c r="CD19" s="83">
+        <v>0</v>
+      </c>
+      <c r="CE19" s="83">
+        <v>0</v>
+      </c>
+      <c r="CF19" s="83">
+        <v>0</v>
+      </c>
+      <c r="CG19" s="83">
+        <v>0</v>
+      </c>
+      <c r="CH19" s="83">
+        <v>0</v>
+      </c>
+      <c r="CI19" s="83">
+        <v>0</v>
+      </c>
+      <c r="CJ19" s="83">
+        <v>0</v>
+      </c>
       <c r="CK19" s="65"/>
       <c r="CL19" s="95">
         <v>0</v>
@@ -18205,55 +18231,55 @@
       </c>
       <c r="BX34" s="67">
         <f t="shared" si="9"/>
-        <v>0.85</v>
+        <v>0.86363636363636365</v>
       </c>
       <c r="BY34" s="75">
         <f t="shared" si="9"/>
-        <v>0.2</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="BZ34" s="75">
         <f t="shared" si="9"/>
-        <v>0.57499999999999996</v>
+        <v>0.52272727272727271</v>
       </c>
       <c r="CA34" s="75">
         <f t="shared" si="9"/>
-        <v>0.57499999999999996</v>
+        <v>0.52272727272727271</v>
       </c>
       <c r="CB34" s="75">
         <f t="shared" si="9"/>
-        <v>0.5</v>
+        <v>0.45454545454545453</v>
       </c>
       <c r="CC34" s="75">
         <f t="shared" si="9"/>
-        <v>0.41249999999999998</v>
+        <v>0.375</v>
       </c>
       <c r="CD34" s="102">
         <f t="shared" ref="CD34:CH34" si="17">AVERAGE(CD9:CD32)</f>
-        <v>0.15</v>
+        <v>0.13636363636363635</v>
       </c>
       <c r="CE34" s="102">
         <f t="shared" si="17"/>
-        <v>0.1</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="CF34" s="102">
         <f t="shared" si="17"/>
-        <v>0.2</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="CG34" s="102">
         <f t="shared" si="17"/>
-        <v>0.2</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="CH34" s="102">
         <f t="shared" si="17"/>
-        <v>0.3</v>
+        <v>0.27272727272727271</v>
       </c>
       <c r="CI34" s="75">
         <f t="shared" si="9"/>
-        <v>0.2</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="CJ34" s="67">
         <f t="shared" si="9"/>
-        <v>0.4</v>
+        <v>0.36363636363636365</v>
       </c>
       <c r="CK34" s="67">
         <f t="shared" si="9"/>
@@ -21651,7 +21677,7 @@
     <row r="46" spans="1:91" x14ac:dyDescent="0.25">
       <c r="H46" s="107">
         <f t="shared" si="18"/>
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I46" s="107">
         <f t="shared" ref="I46:BA46" si="66">I19*I$6</f>
@@ -21923,7 +21949,7 @@
       </c>
       <c r="BX46" s="107">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY46" s="107">
         <f t="shared" si="28"/>
@@ -30240,7 +30266,7 @@
     <row r="75" spans="4:91" x14ac:dyDescent="0.25">
       <c r="H75" s="107">
         <f t="shared" si="126"/>
-        <v>27.5</v>
+        <v>28.5</v>
       </c>
       <c r="I75" s="107">
         <f t="shared" ref="I75:BW75" si="171">I19*I$7</f>
@@ -30512,7 +30538,7 @@
       </c>
       <c r="BX75" s="107">
         <f t="shared" ref="BX75:CM75" si="174">BX19*BX$7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY75" s="107">
         <f t="shared" si="174"/>
@@ -35358,6 +35384,90 @@
     </row>
   </sheetData>
   <mergeCells count="108">
+    <mergeCell ref="AF4:AF5"/>
+    <mergeCell ref="BR8:BW8"/>
+    <mergeCell ref="I1:P2"/>
+    <mergeCell ref="W1:BQ1"/>
+    <mergeCell ref="BX1:CJ1"/>
+    <mergeCell ref="BR1:BW1"/>
+    <mergeCell ref="AP2:AS2"/>
+    <mergeCell ref="BR2:BR3"/>
+    <mergeCell ref="BS2:BT3"/>
+    <mergeCell ref="BU2:BU3"/>
+    <mergeCell ref="BV2:BW3"/>
+    <mergeCell ref="Q1:V3"/>
+    <mergeCell ref="BD3:BH3"/>
+    <mergeCell ref="BB4:BB5"/>
+    <mergeCell ref="BF4:BF5"/>
+    <mergeCell ref="BR4:BR5"/>
+    <mergeCell ref="BS4:BS5"/>
+    <mergeCell ref="BT4:BT5"/>
+    <mergeCell ref="BP4:BP5"/>
+    <mergeCell ref="AW8:BH8"/>
+    <mergeCell ref="BI2:BQ2"/>
+    <mergeCell ref="BI3:BQ3"/>
+    <mergeCell ref="BI4:BI5"/>
+    <mergeCell ref="BJ4:BJ5"/>
+    <mergeCell ref="BK4:BK5"/>
+    <mergeCell ref="BM4:BM5"/>
+    <mergeCell ref="BN4:BN5"/>
+    <mergeCell ref="BO4:BO5"/>
+    <mergeCell ref="BQ4:BQ5"/>
+    <mergeCell ref="BI8:BQ8"/>
+    <mergeCell ref="AW2:BH2"/>
+    <mergeCell ref="AZ4:AZ5"/>
+    <mergeCell ref="BA4:BA5"/>
+    <mergeCell ref="BC4:BC5"/>
+    <mergeCell ref="BD4:BD5"/>
+    <mergeCell ref="BE4:BE5"/>
+    <mergeCell ref="AY4:AY5"/>
+    <mergeCell ref="AY3:BC3"/>
+    <mergeCell ref="AW3:AW5"/>
+    <mergeCell ref="AX3:AX5"/>
+    <mergeCell ref="BG4:BG5"/>
+    <mergeCell ref="BH4:BH5"/>
+    <mergeCell ref="BX8:CJ8"/>
+    <mergeCell ref="Q8:V8"/>
+    <mergeCell ref="AT3:AV4"/>
+    <mergeCell ref="AT8:AV8"/>
+    <mergeCell ref="AQ4:AR4"/>
+    <mergeCell ref="AE4:AE5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="Y4:Y5"/>
+    <mergeCell ref="AA4:AA5"/>
+    <mergeCell ref="AI4:AI5"/>
+    <mergeCell ref="AJ4:AJ5"/>
+    <mergeCell ref="AC4:AC5"/>
+    <mergeCell ref="AK4:AK5"/>
+    <mergeCell ref="AH4:AH5"/>
+    <mergeCell ref="W3:AA3"/>
+    <mergeCell ref="AP8:AR8"/>
+    <mergeCell ref="AJ8:AO8"/>
+    <mergeCell ref="AB8:AI8"/>
+    <mergeCell ref="W8:AA8"/>
+    <mergeCell ref="BU4:BU5"/>
+    <mergeCell ref="BV4:BV5"/>
+    <mergeCell ref="BW4:BW5"/>
+    <mergeCell ref="AG4:AG5"/>
+    <mergeCell ref="BL4:BL5"/>
+    <mergeCell ref="CM2:CM5"/>
+    <mergeCell ref="BX2:CJ2"/>
+    <mergeCell ref="BX3:CJ3"/>
+    <mergeCell ref="BX4:BX5"/>
+    <mergeCell ref="CI4:CI5"/>
+    <mergeCell ref="CJ4:CJ5"/>
+    <mergeCell ref="BY4:BY5"/>
+    <mergeCell ref="BZ4:BZ5"/>
+    <mergeCell ref="CA4:CA5"/>
+    <mergeCell ref="CL2:CL5"/>
+    <mergeCell ref="CB4:CB5"/>
+    <mergeCell ref="CC4:CC5"/>
+    <mergeCell ref="CD4:CD5"/>
+    <mergeCell ref="CE4:CE5"/>
+    <mergeCell ref="CF4:CF5"/>
+    <mergeCell ref="CG4:CG5"/>
+    <mergeCell ref="CH4:CH5"/>
+    <mergeCell ref="CK2:CK5"/>
     <mergeCell ref="AT2:AV2"/>
     <mergeCell ref="AS3:AS5"/>
     <mergeCell ref="O3:O5"/>
@@ -35382,90 +35492,6 @@
     <mergeCell ref="Z4:Z5"/>
     <mergeCell ref="AJ3:AO3"/>
     <mergeCell ref="AM4:AM5"/>
-    <mergeCell ref="CM2:CM5"/>
-    <mergeCell ref="BX2:CJ2"/>
-    <mergeCell ref="BX3:CJ3"/>
-    <mergeCell ref="BX4:BX5"/>
-    <mergeCell ref="CI4:CI5"/>
-    <mergeCell ref="CJ4:CJ5"/>
-    <mergeCell ref="BY4:BY5"/>
-    <mergeCell ref="BZ4:BZ5"/>
-    <mergeCell ref="CA4:CA5"/>
-    <mergeCell ref="CL2:CL5"/>
-    <mergeCell ref="CB4:CB5"/>
-    <mergeCell ref="CC4:CC5"/>
-    <mergeCell ref="CD4:CD5"/>
-    <mergeCell ref="CE4:CE5"/>
-    <mergeCell ref="CF4:CF5"/>
-    <mergeCell ref="CG4:CG5"/>
-    <mergeCell ref="CH4:CH5"/>
-    <mergeCell ref="CK2:CK5"/>
-    <mergeCell ref="BX8:CJ8"/>
-    <mergeCell ref="Q8:V8"/>
-    <mergeCell ref="AT3:AV4"/>
-    <mergeCell ref="AT8:AV8"/>
-    <mergeCell ref="AQ4:AR4"/>
-    <mergeCell ref="AE4:AE5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="Y4:Y5"/>
-    <mergeCell ref="AA4:AA5"/>
-    <mergeCell ref="AI4:AI5"/>
-    <mergeCell ref="AJ4:AJ5"/>
-    <mergeCell ref="AC4:AC5"/>
-    <mergeCell ref="AK4:AK5"/>
-    <mergeCell ref="AH4:AH5"/>
-    <mergeCell ref="W3:AA3"/>
-    <mergeCell ref="AP8:AR8"/>
-    <mergeCell ref="AJ8:AO8"/>
-    <mergeCell ref="AB8:AI8"/>
-    <mergeCell ref="W8:AA8"/>
-    <mergeCell ref="BU4:BU5"/>
-    <mergeCell ref="BV4:BV5"/>
-    <mergeCell ref="BW4:BW5"/>
-    <mergeCell ref="AG4:AG5"/>
-    <mergeCell ref="BL4:BL5"/>
-    <mergeCell ref="BK4:BK5"/>
-    <mergeCell ref="BM4:BM5"/>
-    <mergeCell ref="BN4:BN5"/>
-    <mergeCell ref="BO4:BO5"/>
-    <mergeCell ref="BQ4:BQ5"/>
-    <mergeCell ref="BI8:BQ8"/>
-    <mergeCell ref="AW2:BH2"/>
-    <mergeCell ref="AZ4:AZ5"/>
-    <mergeCell ref="BA4:BA5"/>
-    <mergeCell ref="BC4:BC5"/>
-    <mergeCell ref="BD4:BD5"/>
-    <mergeCell ref="BE4:BE5"/>
-    <mergeCell ref="AY4:AY5"/>
-    <mergeCell ref="AY3:BC3"/>
-    <mergeCell ref="AW3:AW5"/>
-    <mergeCell ref="AX3:AX5"/>
-    <mergeCell ref="BG4:BG5"/>
-    <mergeCell ref="BH4:BH5"/>
-    <mergeCell ref="AF4:AF5"/>
-    <mergeCell ref="BR8:BW8"/>
-    <mergeCell ref="I1:P2"/>
-    <mergeCell ref="W1:BQ1"/>
-    <mergeCell ref="BX1:CJ1"/>
-    <mergeCell ref="BR1:BW1"/>
-    <mergeCell ref="AP2:AS2"/>
-    <mergeCell ref="BR2:BR3"/>
-    <mergeCell ref="BS2:BT3"/>
-    <mergeCell ref="BU2:BU3"/>
-    <mergeCell ref="BV2:BW3"/>
-    <mergeCell ref="Q1:V3"/>
-    <mergeCell ref="BD3:BH3"/>
-    <mergeCell ref="BB4:BB5"/>
-    <mergeCell ref="BF4:BF5"/>
-    <mergeCell ref="BR4:BR5"/>
-    <mergeCell ref="BS4:BS5"/>
-    <mergeCell ref="BT4:BT5"/>
-    <mergeCell ref="BP4:BP5"/>
-    <mergeCell ref="AW8:BH8"/>
-    <mergeCell ref="BI2:BQ2"/>
-    <mergeCell ref="BI3:BQ3"/>
-    <mergeCell ref="BI4:BI5"/>
-    <mergeCell ref="BJ4:BJ5"/>
   </mergeCells>
   <conditionalFormatting sqref="D9:F23 D33:F33 E32:F32">
     <cfRule type="cellIs" dxfId="965" priority="1234" operator="between">
@@ -39815,35 +39841,35 @@
       <c r="C1" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="195" t="s">
+      <c r="D1" s="191" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="197"/>
-      <c r="F1" s="195" t="s">
+      <c r="E1" s="192"/>
+      <c r="F1" s="191" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="196"/>
-      <c r="H1" s="196"/>
-      <c r="I1" s="196"/>
-      <c r="J1" s="196"/>
-      <c r="K1" s="196"/>
-      <c r="L1" s="196"/>
-      <c r="M1" s="196"/>
-      <c r="N1" s="196"/>
-      <c r="O1" s="196"/>
-      <c r="P1" s="196"/>
-      <c r="Q1" s="196"/>
-      <c r="R1" s="196"/>
-      <c r="S1" s="196"/>
-      <c r="T1" s="196"/>
-      <c r="U1" s="196"/>
-      <c r="V1" s="196"/>
-      <c r="W1" s="196"/>
-      <c r="X1" s="196"/>
-      <c r="Y1" s="196"/>
-      <c r="Z1" s="196"/>
-      <c r="AA1" s="196"/>
-      <c r="AB1" s="196"/>
+      <c r="G1" s="201"/>
+      <c r="H1" s="201"/>
+      <c r="I1" s="201"/>
+      <c r="J1" s="201"/>
+      <c r="K1" s="201"/>
+      <c r="L1" s="201"/>
+      <c r="M1" s="201"/>
+      <c r="N1" s="201"/>
+      <c r="O1" s="201"/>
+      <c r="P1" s="201"/>
+      <c r="Q1" s="201"/>
+      <c r="R1" s="201"/>
+      <c r="S1" s="201"/>
+      <c r="T1" s="201"/>
+      <c r="U1" s="201"/>
+      <c r="V1" s="201"/>
+      <c r="W1" s="201"/>
+      <c r="X1" s="201"/>
+      <c r="Y1" s="201"/>
+      <c r="Z1" s="201"/>
+      <c r="AA1" s="201"/>
+      <c r="AB1" s="201"/>
       <c r="AC1" s="202"/>
       <c r="AD1" s="202"/>
       <c r="AE1" s="202"/>
@@ -39852,19 +39878,19 @@
       <c r="AH1" s="202"/>
       <c r="AI1" s="202"/>
       <c r="AJ1" s="203"/>
-      <c r="AK1" s="199" t="s">
+      <c r="AK1" s="198" t="s">
         <v>51</v>
       </c>
-      <c r="AL1" s="200"/>
-      <c r="AM1" s="200"/>
-      <c r="AN1" s="200"/>
-      <c r="AO1" s="200"/>
-      <c r="AP1" s="200"/>
-      <c r="AQ1" s="201"/>
-      <c r="AR1" s="195" t="s">
+      <c r="AL1" s="199"/>
+      <c r="AM1" s="199"/>
+      <c r="AN1" s="199"/>
+      <c r="AO1" s="199"/>
+      <c r="AP1" s="199"/>
+      <c r="AQ1" s="200"/>
+      <c r="AR1" s="191" t="s">
         <v>50</v>
       </c>
-      <c r="AS1" s="197"/>
+      <c r="AS1" s="192"/>
     </row>
     <row r="2" spans="2:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="25"/>
@@ -39930,29 +39956,29 @@
     </row>
     <row r="3" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B3" s="25"/>
-      <c r="C3" s="191" t="s">
+      <c r="C3" s="193" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="192" t="s">
+      <c r="D3" s="197" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="194" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="195" t="s">
+      <c r="F3" s="191" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="196"/>
-      <c r="H3" s="196"/>
-      <c r="I3" s="196"/>
-      <c r="J3" s="196"/>
-      <c r="K3" s="197"/>
-      <c r="L3" s="195" t="s">
+      <c r="G3" s="201"/>
+      <c r="H3" s="201"/>
+      <c r="I3" s="201"/>
+      <c r="J3" s="201"/>
+      <c r="K3" s="192"/>
+      <c r="L3" s="191" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="196"/>
-      <c r="N3" s="196"/>
-      <c r="O3" s="197"/>
+      <c r="M3" s="201"/>
+      <c r="N3" s="201"/>
+      <c r="O3" s="192"/>
       <c r="P3" s="28" t="s">
         <v>27</v>
       </c>
@@ -39988,10 +40014,10 @@
       <c r="AF3" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="AG3" s="192" t="s">
+      <c r="AG3" s="197" t="s">
         <v>35</v>
       </c>
-      <c r="AH3" s="193"/>
+      <c r="AH3" s="195"/>
       <c r="AI3" s="194"/>
       <c r="AJ3" s="29" t="s">
         <v>7</v>
@@ -40022,72 +40048,72 @@
     </row>
     <row r="4" spans="2:45" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="25"/>
-      <c r="C4" s="191"/>
-      <c r="D4" s="192"/>
+      <c r="C4" s="193"/>
+      <c r="D4" s="197"/>
       <c r="E4" s="194"/>
-      <c r="F4" s="192" t="s">
+      <c r="F4" s="197" t="s">
         <v>52</v>
       </c>
-      <c r="G4" s="193" t="s">
+      <c r="G4" s="195" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="193" t="s">
+      <c r="H4" s="195" t="s">
         <v>53</v>
       </c>
-      <c r="I4" s="193" t="s">
+      <c r="I4" s="195" t="s">
         <v>54</v>
       </c>
-      <c r="J4" s="193" t="s">
+      <c r="J4" s="195" t="s">
         <v>55</v>
       </c>
       <c r="K4" s="194"/>
-      <c r="L4" s="192" t="s">
+      <c r="L4" s="197" t="s">
         <v>52</v>
       </c>
-      <c r="M4" s="193" t="s">
+      <c r="M4" s="195" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="193" t="s">
+      <c r="N4" s="195" t="s">
         <v>53</v>
       </c>
       <c r="O4" s="194" t="s">
         <v>54</v>
       </c>
-      <c r="P4" s="191" t="s">
+      <c r="P4" s="193" t="s">
         <v>56</v>
       </c>
-      <c r="Q4" s="191" t="s">
+      <c r="Q4" s="193" t="s">
         <v>56</v>
       </c>
-      <c r="R4" s="191" t="s">
+      <c r="R4" s="193" t="s">
         <v>56</v>
       </c>
-      <c r="S4" s="192" t="s">
+      <c r="S4" s="197" t="s">
         <v>52</v>
       </c>
-      <c r="T4" s="193" t="s">
+      <c r="T4" s="195" t="s">
         <v>10</v>
       </c>
-      <c r="U4" s="193" t="s">
+      <c r="U4" s="195" t="s">
         <v>53</v>
       </c>
-      <c r="V4" s="193" t="s">
+      <c r="V4" s="195" t="s">
         <v>54</v>
       </c>
-      <c r="W4" s="198" t="s">
+      <c r="W4" s="213" t="s">
         <v>55</v>
       </c>
       <c r="X4" s="194"/>
-      <c r="Y4" s="192" t="s">
+      <c r="Y4" s="197" t="s">
         <v>52</v>
       </c>
-      <c r="Z4" s="193" t="s">
+      <c r="Z4" s="195" t="s">
         <v>10</v>
       </c>
-      <c r="AA4" s="193" t="s">
+      <c r="AA4" s="195" t="s">
         <v>53</v>
       </c>
-      <c r="AB4" s="213" t="s">
+      <c r="AB4" s="196" t="s">
         <v>54</v>
       </c>
       <c r="AC4" s="32"/>
@@ -40116,40 +40142,40 @@
     </row>
     <row r="5" spans="2:45" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="25"/>
-      <c r="C5" s="191"/>
-      <c r="D5" s="192"/>
+      <c r="C5" s="193"/>
+      <c r="D5" s="197"/>
       <c r="E5" s="194"/>
-      <c r="F5" s="192"/>
-      <c r="G5" s="193"/>
-      <c r="H5" s="193"/>
-      <c r="I5" s="193"/>
+      <c r="F5" s="197"/>
+      <c r="G5" s="195"/>
+      <c r="H5" s="195"/>
+      <c r="I5" s="195"/>
       <c r="J5" s="23" t="s">
         <v>57</v>
       </c>
       <c r="K5" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="L5" s="192"/>
-      <c r="M5" s="193"/>
-      <c r="N5" s="193"/>
+      <c r="L5" s="197"/>
+      <c r="M5" s="195"/>
+      <c r="N5" s="195"/>
       <c r="O5" s="194"/>
-      <c r="P5" s="191"/>
-      <c r="Q5" s="191"/>
-      <c r="R5" s="191"/>
-      <c r="S5" s="192"/>
-      <c r="T5" s="193"/>
-      <c r="U5" s="193"/>
-      <c r="V5" s="193"/>
+      <c r="P5" s="193"/>
+      <c r="Q5" s="193"/>
+      <c r="R5" s="193"/>
+      <c r="S5" s="197"/>
+      <c r="T5" s="195"/>
+      <c r="U5" s="195"/>
+      <c r="V5" s="195"/>
       <c r="W5" s="26" t="s">
         <v>59</v>
       </c>
       <c r="X5" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="Y5" s="192"/>
-      <c r="Z5" s="193"/>
-      <c r="AA5" s="193"/>
-      <c r="AB5" s="213"/>
+      <c r="Y5" s="197"/>
+      <c r="Z5" s="195"/>
+      <c r="AA5" s="195"/>
+      <c r="AB5" s="196"/>
       <c r="AC5" s="32"/>
       <c r="AD5" s="33"/>
       <c r="AE5" s="32"/>
@@ -40596,18 +40622,20 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="AB4:AB5"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="Z4:Z5"/>
-    <mergeCell ref="AA4:AA5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="Y4:Y5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
     <mergeCell ref="AK1:AQ1"/>
     <mergeCell ref="AR1:AS1"/>
     <mergeCell ref="F1:AJ1"/>
@@ -40622,20 +40650,18 @@
     <mergeCell ref="AE2:AF2"/>
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="AK2:AM2"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="Y4:Y5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="AB4:AB5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="Z4:Z5"/>
+    <mergeCell ref="AA4:AA5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="M4:M5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/BaremeJavaBaseTest2_KL16.xlsx
+++ b/BaremeJavaBaseTest2_KL16.xlsx
@@ -10793,7 +10793,7 @@
       <selection activeCell="D4" sqref="D4"/>
       <selection pane="topRight" activeCell="I6" sqref="I6"/>
       <selection pane="bottomLeft" activeCell="A22" sqref="A22:XFD22"/>
-      <selection pane="bottomRight" activeCell="BQ18" sqref="BQ18"/>
+      <selection pane="bottomRight" activeCell="CI16" sqref="CI16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -14034,20 +14034,20 @@
       <c r="C17" s="4"/>
       <c r="D17" s="126">
         <f t="shared" si="0"/>
-        <v>11.659162303664921</v>
+        <v>12.392146596858639</v>
       </c>
       <c r="E17" s="18">
         <f t="shared" si="1"/>
-        <v>12.31785714285714</v>
+        <v>13.032142857142855</v>
       </c>
       <c r="F17" s="18"/>
       <c r="G17" s="13">
         <f t="shared" si="4"/>
-        <v>34.489999999999995</v>
+        <v>36.489999999999995</v>
       </c>
       <c r="H17" s="13">
         <f t="shared" si="3"/>
-        <v>111.345</v>
+        <v>118.345</v>
       </c>
       <c r="I17" s="103">
         <v>1</v>
@@ -14232,19 +14232,45 @@
       <c r="BU17" s="103"/>
       <c r="BV17" s="103"/>
       <c r="BW17" s="103"/>
-      <c r="BX17" s="45"/>
-      <c r="BY17" s="76"/>
-      <c r="BZ17" s="76"/>
-      <c r="CA17" s="76"/>
-      <c r="CB17" s="76"/>
-      <c r="CC17" s="99"/>
-      <c r="CD17" s="103"/>
-      <c r="CE17" s="103"/>
-      <c r="CF17" s="103"/>
-      <c r="CG17" s="103"/>
-      <c r="CH17" s="103"/>
-      <c r="CI17" s="76"/>
-      <c r="CJ17" s="65"/>
+      <c r="BX17" s="45">
+        <v>0</v>
+      </c>
+      <c r="BY17" s="76">
+        <v>1</v>
+      </c>
+      <c r="BZ17" s="76">
+        <v>1</v>
+      </c>
+      <c r="CA17" s="76">
+        <v>0</v>
+      </c>
+      <c r="CB17" s="76">
+        <v>0</v>
+      </c>
+      <c r="CC17" s="99">
+        <v>0</v>
+      </c>
+      <c r="CD17" s="103">
+        <v>0</v>
+      </c>
+      <c r="CE17" s="103">
+        <v>0</v>
+      </c>
+      <c r="CF17" s="103">
+        <v>0</v>
+      </c>
+      <c r="CG17" s="103">
+        <v>0</v>
+      </c>
+      <c r="CH17" s="103">
+        <v>0</v>
+      </c>
+      <c r="CI17" s="76">
+        <v>0</v>
+      </c>
+      <c r="CJ17" s="65">
+        <v>0</v>
+      </c>
       <c r="CK17" s="65"/>
       <c r="CL17" s="95">
         <v>0</v>
@@ -14261,20 +14287,20 @@
       <c r="C18" s="4"/>
       <c r="D18" s="126">
         <f t="shared" si="0"/>
-        <v>11.475916230366492</v>
+        <v>13.517801047120418</v>
       </c>
       <c r="E18" s="18">
         <f t="shared" si="1"/>
-        <v>12.00535714285714</v>
+        <v>13.969642857142855</v>
       </c>
       <c r="F18" s="18"/>
       <c r="G18" s="13">
         <f t="shared" si="4"/>
-        <v>33.614999999999995</v>
+        <v>39.114999999999995</v>
       </c>
       <c r="H18" s="13">
         <f t="shared" si="3"/>
-        <v>109.595</v>
+        <v>129.095</v>
       </c>
       <c r="I18" s="103">
         <v>0</v>
@@ -14459,19 +14485,45 @@
       <c r="BU18" s="103"/>
       <c r="BV18" s="103"/>
       <c r="BW18" s="103"/>
-      <c r="BX18" s="45"/>
-      <c r="BY18" s="76"/>
-      <c r="BZ18" s="76"/>
-      <c r="CA18" s="76"/>
-      <c r="CB18" s="76"/>
-      <c r="CC18" s="76"/>
-      <c r="CD18" s="103"/>
-      <c r="CE18" s="103"/>
-      <c r="CF18" s="103"/>
-      <c r="CG18" s="103"/>
-      <c r="CH18" s="103"/>
-      <c r="CI18" s="76"/>
-      <c r="CJ18" s="65"/>
+      <c r="BX18" s="45">
+        <v>1</v>
+      </c>
+      <c r="BY18" s="76">
+        <v>0.5</v>
+      </c>
+      <c r="BZ18" s="76">
+        <v>1</v>
+      </c>
+      <c r="CA18" s="76">
+        <v>1</v>
+      </c>
+      <c r="CB18" s="76">
+        <v>1</v>
+      </c>
+      <c r="CC18" s="76">
+        <v>1</v>
+      </c>
+      <c r="CD18" s="103">
+        <v>0</v>
+      </c>
+      <c r="CE18" s="103">
+        <v>0</v>
+      </c>
+      <c r="CF18" s="103">
+        <v>0</v>
+      </c>
+      <c r="CG18" s="103">
+        <v>0</v>
+      </c>
+      <c r="CH18" s="103">
+        <v>0</v>
+      </c>
+      <c r="CI18" s="76">
+        <v>0</v>
+      </c>
+      <c r="CJ18" s="65">
+        <v>0</v>
+      </c>
       <c r="CK18" s="65"/>
       <c r="CL18" s="95">
         <v>0</v>
@@ -18231,55 +18283,55 @@
       </c>
       <c r="BX34" s="67">
         <f t="shared" si="9"/>
-        <v>0.86363636363636365</v>
+        <v>0.80769230769230771</v>
       </c>
       <c r="BY34" s="75">
         <f t="shared" si="9"/>
-        <v>0.18181818181818182</v>
+        <v>0.26923076923076922</v>
       </c>
       <c r="BZ34" s="75">
         <f t="shared" si="9"/>
-        <v>0.52272727272727271</v>
+        <v>0.59615384615384615</v>
       </c>
       <c r="CA34" s="75">
         <f t="shared" si="9"/>
-        <v>0.52272727272727271</v>
+        <v>0.51923076923076927</v>
       </c>
       <c r="CB34" s="75">
         <f t="shared" si="9"/>
-        <v>0.45454545454545453</v>
+        <v>0.46153846153846156</v>
       </c>
       <c r="CC34" s="75">
         <f t="shared" si="9"/>
-        <v>0.375</v>
+        <v>0.39423076923076922</v>
       </c>
       <c r="CD34" s="102">
         <f t="shared" ref="CD34:CH34" si="17">AVERAGE(CD9:CD32)</f>
-        <v>0.13636363636363635</v>
+        <v>0.11538461538461539</v>
       </c>
       <c r="CE34" s="102">
         <f t="shared" si="17"/>
-        <v>9.0909090909090912E-2</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="CF34" s="102">
         <f t="shared" si="17"/>
-        <v>0.18181818181818182</v>
+        <v>0.15384615384615385</v>
       </c>
       <c r="CG34" s="102">
         <f t="shared" si="17"/>
-        <v>0.18181818181818182</v>
+        <v>0.15384615384615385</v>
       </c>
       <c r="CH34" s="102">
         <f t="shared" si="17"/>
-        <v>0.27272727272727271</v>
+        <v>0.23076923076923078</v>
       </c>
       <c r="CI34" s="75">
         <f t="shared" si="9"/>
-        <v>0.18181818181818182</v>
+        <v>0.15384615384615385</v>
       </c>
       <c r="CJ34" s="67">
         <f t="shared" si="9"/>
-        <v>0.36363636363636365</v>
+        <v>0.30769230769230771</v>
       </c>
       <c r="CK34" s="67">
         <f t="shared" si="9"/>
@@ -21001,7 +21053,7 @@
     <row r="44" spans="1:91" x14ac:dyDescent="0.25">
       <c r="H44" s="107">
         <f t="shared" si="18"/>
-        <v>111.345</v>
+        <v>118.345</v>
       </c>
       <c r="I44" s="107">
         <f t="shared" ref="I44:BA44" si="58">I17*I$6</f>
@@ -21277,11 +21329,11 @@
       </c>
       <c r="BY44" s="107">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BZ44" s="107">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CA44" s="107">
         <f t="shared" si="28"/>
@@ -21339,7 +21391,7 @@
     <row r="45" spans="1:91" x14ac:dyDescent="0.25">
       <c r="H45" s="107">
         <f t="shared" si="18"/>
-        <v>109.595</v>
+        <v>129.095</v>
       </c>
       <c r="I45" s="107">
         <f t="shared" ref="I45:BA45" si="62">I18*I$6</f>
@@ -21611,27 +21663,27 @@
       </c>
       <c r="BX45" s="107">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY45" s="107">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="BZ45" s="107">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CA45" s="107">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CB45" s="107">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CC45" s="107">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CD45" s="107">
         <f t="shared" si="28"/>
@@ -29590,7 +29642,7 @@
     <row r="73" spans="4:91" x14ac:dyDescent="0.25">
       <c r="H73" s="107">
         <f t="shared" si="126"/>
-        <v>34.489999999999995</v>
+        <v>36.489999999999995</v>
       </c>
       <c r="I73" s="107">
         <f t="shared" ref="I73:BW73" si="163">I17*I$7</f>
@@ -29866,11 +29918,11 @@
       </c>
       <c r="BY73" s="107">
         <f t="shared" si="166"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ73" s="107">
         <f t="shared" si="166"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA73" s="107">
         <f t="shared" si="166"/>
@@ -29928,7 +29980,7 @@
     <row r="74" spans="4:91" x14ac:dyDescent="0.25">
       <c r="H74" s="107">
         <f t="shared" si="126"/>
-        <v>33.614999999999995</v>
+        <v>39.114999999999995</v>
       </c>
       <c r="I74" s="107">
         <f t="shared" ref="I74:BW74" si="167">I18*I$7</f>
@@ -30200,27 +30252,27 @@
       </c>
       <c r="BX74" s="107">
         <f t="shared" ref="BX74:CM74" si="170">BX18*BX$7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY74" s="107">
         <f t="shared" si="170"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BZ74" s="107">
         <f t="shared" si="170"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA74" s="107">
         <f t="shared" si="170"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB74" s="107">
         <f t="shared" si="170"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC74" s="107">
         <f t="shared" si="170"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD74" s="107">
         <f t="shared" si="170"/>

--- a/BaremeJavaBaseTest2_KL16.xlsx
+++ b/BaremeJavaBaseTest2_KL16.xlsx
@@ -10986,9 +10986,9 @@
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2325" ySplit="3630" topLeftCell="H7" activePane="bottomRight"/>
       <selection activeCell="D4" sqref="D4"/>
-      <selection pane="topRight" activeCell="CI4" sqref="CI4:CI5"/>
+      <selection pane="topRight" activeCell="CF6" sqref="CF6"/>
       <selection pane="bottomLeft" activeCell="A22" sqref="A22:XFD22"/>
-      <selection pane="bottomRight" activeCell="BX13" sqref="BX13"/>
+      <selection pane="bottomRight" activeCell="CC9" sqref="CC9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -12419,20 +12419,20 @@
       <c r="C9" s="109"/>
       <c r="D9" s="126">
         <f t="shared" ref="D9:D32" si="0">H9/$H$6*20+CN9*$CN$6</f>
-        <v>13.089690721649486</v>
+        <v>16.491752577319588</v>
       </c>
       <c r="E9" s="18">
         <f t="shared" ref="E9:E28" si="1">G9/$H$7*20+CN9*$CN$7</f>
-        <v>13.768421052631577</v>
+        <v>17.277192982456139</v>
       </c>
       <c r="F9" s="18"/>
       <c r="G9" s="13">
         <f t="shared" ref="G9" si="2">H65</f>
-        <v>39.239999999999995</v>
+        <v>49.239999999999995</v>
       </c>
       <c r="H9" s="13">
         <f t="shared" ref="H9:H32" si="3">H36</f>
-        <v>126.97</v>
+        <v>159.97</v>
       </c>
       <c r="I9" s="103">
         <v>1</v>
@@ -12617,20 +12617,48 @@
       <c r="BU9" s="103"/>
       <c r="BV9" s="103"/>
       <c r="BW9" s="103"/>
-      <c r="BX9" s="45"/>
-      <c r="BY9" s="76"/>
-      <c r="BZ9" s="76"/>
-      <c r="CA9" s="76"/>
-      <c r="CB9" s="76"/>
-      <c r="CC9" s="100"/>
-      <c r="CD9" s="103"/>
-      <c r="CE9" s="103"/>
-      <c r="CF9" s="130"/>
-      <c r="CG9" s="103"/>
-      <c r="CH9" s="103"/>
-      <c r="CI9" s="103"/>
-      <c r="CJ9" s="76"/>
-      <c r="CK9" s="45"/>
+      <c r="BX9" s="45">
+        <v>1</v>
+      </c>
+      <c r="BY9" s="76">
+        <v>1</v>
+      </c>
+      <c r="BZ9" s="76">
+        <v>1</v>
+      </c>
+      <c r="CA9" s="76">
+        <v>1</v>
+      </c>
+      <c r="CB9" s="76">
+        <v>1</v>
+      </c>
+      <c r="CC9" s="100">
+        <v>1</v>
+      </c>
+      <c r="CD9" s="103">
+        <v>0</v>
+      </c>
+      <c r="CE9" s="103">
+        <v>1</v>
+      </c>
+      <c r="CF9" s="130">
+        <v>1</v>
+      </c>
+      <c r="CG9" s="103">
+        <v>0</v>
+      </c>
+      <c r="CH9" s="103">
+        <v>0</v>
+      </c>
+      <c r="CI9" s="103">
+        <v>0</v>
+      </c>
+      <c r="CJ9" s="76">
+        <v>1</v>
+      </c>
+      <c r="CK9" s="45">
+        <v>1</v>
+      </c>
       <c r="CL9" s="5">
         <v>1</v>
       </c>
@@ -12649,20 +12677,20 @@
       <c r="C10" s="4"/>
       <c r="D10" s="126">
         <f t="shared" si="0"/>
-        <v>13.953092783505154</v>
+        <v>15.138659793814433</v>
       </c>
       <c r="E10" s="18">
         <f t="shared" si="1"/>
-        <v>13.461403508771927</v>
+        <v>15.084210526315786</v>
       </c>
       <c r="F10" s="18"/>
       <c r="G10" s="13">
         <f t="shared" ref="G10:G32" si="4">H66</f>
-        <v>38.364999999999995</v>
+        <v>42.989999999999995</v>
       </c>
       <c r="H10" s="13">
         <f t="shared" si="3"/>
-        <v>135.345</v>
+        <v>146.845</v>
       </c>
       <c r="I10" s="103">
         <v>1</v>
@@ -12686,7 +12714,7 @@
         <v>1</v>
       </c>
       <c r="P10" s="83">
-        <v>0.875</v>
+        <v>0.25</v>
       </c>
       <c r="Q10" s="83">
         <v>0.5</v>
@@ -12851,20 +12879,48 @@
       <c r="BU10" s="83"/>
       <c r="BV10" s="83"/>
       <c r="BW10" s="103"/>
-      <c r="BX10" s="83"/>
-      <c r="BY10" s="83"/>
-      <c r="BZ10" s="83"/>
-      <c r="CA10" s="83"/>
-      <c r="CB10" s="83"/>
-      <c r="CC10" s="100"/>
-      <c r="CD10" s="83"/>
-      <c r="CE10" s="83"/>
-      <c r="CF10" s="83"/>
-      <c r="CG10" s="83"/>
-      <c r="CH10" s="83"/>
-      <c r="CI10" s="83"/>
-      <c r="CJ10" s="83"/>
-      <c r="CK10" s="83"/>
+      <c r="BX10" s="83">
+        <v>1</v>
+      </c>
+      <c r="BY10" s="83">
+        <v>0</v>
+      </c>
+      <c r="BZ10" s="83">
+        <v>1</v>
+      </c>
+      <c r="CA10" s="83">
+        <v>0.75</v>
+      </c>
+      <c r="CB10" s="83">
+        <v>0.75</v>
+      </c>
+      <c r="CC10" s="100">
+        <v>0.75</v>
+      </c>
+      <c r="CD10" s="83">
+        <v>0</v>
+      </c>
+      <c r="CE10" s="83">
+        <v>0</v>
+      </c>
+      <c r="CF10" s="83">
+        <v>1</v>
+      </c>
+      <c r="CG10" s="83">
+        <v>0</v>
+      </c>
+      <c r="CH10" s="83">
+        <v>0</v>
+      </c>
+      <c r="CI10" s="83">
+        <v>0</v>
+      </c>
+      <c r="CJ10" s="83">
+        <v>0</v>
+      </c>
+      <c r="CK10" s="83">
+        <v>0</v>
+      </c>
       <c r="CL10" s="65">
         <v>1</v>
       </c>
@@ -12883,20 +12939,20 @@
       <c r="C11" s="109"/>
       <c r="D11" s="126">
         <f t="shared" si="0"/>
-        <v>9.716494845360824</v>
+        <v>10.025773195876289</v>
       </c>
       <c r="E11" s="18">
         <f t="shared" si="1"/>
-        <v>10.350877192982457</v>
+        <v>10.701754385964913</v>
       </c>
       <c r="F11" s="18"/>
       <c r="G11" s="13">
         <f t="shared" si="4"/>
-        <v>29.5</v>
+        <v>30.5</v>
       </c>
       <c r="H11" s="13">
         <f t="shared" si="3"/>
-        <v>94.25</v>
+        <v>97.25</v>
       </c>
       <c r="I11" s="103">
         <v>1</v>
@@ -13081,20 +13137,48 @@
       <c r="BU11" s="103"/>
       <c r="BV11" s="103"/>
       <c r="BW11" s="103"/>
-      <c r="BX11" s="45"/>
-      <c r="BY11" s="76"/>
-      <c r="BZ11" s="76"/>
-      <c r="CA11" s="76"/>
-      <c r="CB11" s="76"/>
-      <c r="CC11" s="100"/>
-      <c r="CD11" s="103"/>
-      <c r="CE11" s="103"/>
-      <c r="CF11" s="130"/>
-      <c r="CG11" s="103"/>
-      <c r="CH11" s="103"/>
-      <c r="CI11" s="103"/>
-      <c r="CJ11" s="76"/>
-      <c r="CK11" s="65"/>
+      <c r="BX11" s="45">
+        <v>0</v>
+      </c>
+      <c r="BY11" s="76">
+        <v>1</v>
+      </c>
+      <c r="BZ11" s="76">
+        <v>0</v>
+      </c>
+      <c r="CA11" s="76">
+        <v>0</v>
+      </c>
+      <c r="CB11" s="76">
+        <v>0</v>
+      </c>
+      <c r="CC11" s="100">
+        <v>0</v>
+      </c>
+      <c r="CD11" s="103">
+        <v>0</v>
+      </c>
+      <c r="CE11" s="103">
+        <v>0</v>
+      </c>
+      <c r="CF11" s="130">
+        <v>0</v>
+      </c>
+      <c r="CG11" s="103">
+        <v>0</v>
+      </c>
+      <c r="CH11" s="103">
+        <v>0</v>
+      </c>
+      <c r="CI11" s="103">
+        <v>0</v>
+      </c>
+      <c r="CJ11" s="76">
+        <v>0</v>
+      </c>
+      <c r="CK11" s="65">
+        <v>0</v>
+      </c>
       <c r="CL11" s="65"/>
       <c r="CM11" s="95">
         <v>0</v>
@@ -13111,20 +13195,20 @@
       <c r="C12" s="4"/>
       <c r="D12" s="126">
         <f t="shared" si="0"/>
-        <v>10.950515463917526</v>
+        <v>13.038144329896909</v>
       </c>
       <c r="E12" s="18">
         <f t="shared" si="1"/>
-        <v>11.663157894736839</v>
+        <v>13.59298245614035</v>
       </c>
       <c r="F12" s="18"/>
       <c r="G12" s="13">
         <f t="shared" si="4"/>
-        <v>33.239999999999995</v>
+        <v>38.739999999999995</v>
       </c>
       <c r="H12" s="13">
         <f t="shared" si="3"/>
-        <v>106.22</v>
+        <v>126.47</v>
       </c>
       <c r="I12" s="103">
         <v>1</v>
@@ -13145,7 +13229,9 @@
       <c r="O12" s="49">
         <v>1</v>
       </c>
-      <c r="P12" s="128"/>
+      <c r="P12" s="128">
+        <v>0.25</v>
+      </c>
       <c r="Q12" s="66">
         <v>1</v>
       </c>
@@ -13309,20 +13395,48 @@
       <c r="BU12" s="103"/>
       <c r="BV12" s="103"/>
       <c r="BW12" s="103"/>
-      <c r="BX12" s="45"/>
-      <c r="BY12" s="76"/>
-      <c r="BZ12" s="76"/>
-      <c r="CA12" s="76"/>
-      <c r="CB12" s="76"/>
-      <c r="CC12" s="99"/>
-      <c r="CD12" s="103"/>
-      <c r="CE12" s="103"/>
-      <c r="CF12" s="130"/>
-      <c r="CG12" s="103"/>
-      <c r="CH12" s="103"/>
-      <c r="CI12" s="103"/>
-      <c r="CJ12" s="76"/>
-      <c r="CK12" s="65"/>
+      <c r="BX12" s="45">
+        <v>1</v>
+      </c>
+      <c r="BY12" s="76">
+        <v>0</v>
+      </c>
+      <c r="BZ12" s="76">
+        <v>1</v>
+      </c>
+      <c r="CA12" s="76">
+        <v>0.5</v>
+      </c>
+      <c r="CB12" s="76">
+        <v>1</v>
+      </c>
+      <c r="CC12" s="99">
+        <v>1</v>
+      </c>
+      <c r="CD12" s="103">
+        <v>0</v>
+      </c>
+      <c r="CE12" s="103">
+        <v>0</v>
+      </c>
+      <c r="CF12" s="130">
+        <v>0.75</v>
+      </c>
+      <c r="CG12" s="103">
+        <v>0</v>
+      </c>
+      <c r="CH12" s="103">
+        <v>0</v>
+      </c>
+      <c r="CI12" s="103">
+        <v>0</v>
+      </c>
+      <c r="CJ12" s="76">
+        <v>0</v>
+      </c>
+      <c r="CK12" s="65">
+        <v>0</v>
+      </c>
       <c r="CL12" s="65"/>
       <c r="CM12" s="95">
         <v>0</v>
@@ -13339,20 +13453,20 @@
       <c r="C13" s="109"/>
       <c r="D13" s="126">
         <f t="shared" si="0"/>
-        <v>13.110309278350517</v>
+        <v>17.543298969072168</v>
       </c>
       <c r="E13" s="18">
         <f t="shared" si="1"/>
-        <v>13.294736842105264</v>
+        <v>17.154385964912279</v>
       </c>
       <c r="F13" s="18"/>
       <c r="G13" s="13">
         <f t="shared" si="4"/>
-        <v>37.89</v>
+        <v>48.89</v>
       </c>
       <c r="H13" s="13">
         <f t="shared" si="3"/>
-        <v>127.17</v>
+        <v>170.17000000000002</v>
       </c>
       <c r="I13" s="103">
         <v>0</v>
@@ -13375,7 +13489,9 @@
       <c r="O13" s="101">
         <v>1</v>
       </c>
-      <c r="P13" s="128"/>
+      <c r="P13" s="128">
+        <v>1</v>
+      </c>
       <c r="Q13" s="83">
         <v>1</v>
       </c>
@@ -13539,20 +13655,48 @@
       <c r="BU13" s="83"/>
       <c r="BV13" s="83"/>
       <c r="BW13" s="103"/>
-      <c r="BX13" s="83"/>
-      <c r="BY13" s="83"/>
-      <c r="BZ13" s="83"/>
-      <c r="CA13" s="83"/>
-      <c r="CB13" s="83"/>
-      <c r="CC13" s="99"/>
-      <c r="CD13" s="83"/>
-      <c r="CE13" s="83"/>
-      <c r="CF13" s="83"/>
-      <c r="CG13" s="83"/>
-      <c r="CH13" s="83"/>
-      <c r="CI13" s="83"/>
-      <c r="CJ13" s="83"/>
-      <c r="CK13" s="83"/>
+      <c r="BX13" s="83">
+        <v>1</v>
+      </c>
+      <c r="BY13" s="83">
+        <v>0</v>
+      </c>
+      <c r="BZ13" s="83">
+        <v>1</v>
+      </c>
+      <c r="CA13" s="83">
+        <v>1</v>
+      </c>
+      <c r="CB13" s="83">
+        <v>1</v>
+      </c>
+      <c r="CC13" s="99">
+        <v>1</v>
+      </c>
+      <c r="CD13" s="83">
+        <v>0</v>
+      </c>
+      <c r="CE13" s="83">
+        <v>1</v>
+      </c>
+      <c r="CF13" s="83">
+        <v>1</v>
+      </c>
+      <c r="CG13" s="83">
+        <v>0.5</v>
+      </c>
+      <c r="CH13" s="83">
+        <v>0.5</v>
+      </c>
+      <c r="CI13" s="83">
+        <v>1</v>
+      </c>
+      <c r="CJ13" s="83">
+        <v>0</v>
+      </c>
+      <c r="CK13" s="83">
+        <v>1</v>
+      </c>
       <c r="CL13" s="65"/>
       <c r="CM13" s="95">
         <v>0</v>
@@ -18391,7 +18535,7 @@
       </c>
       <c r="P34" s="2">
         <f t="shared" si="7"/>
-        <v>0.9375</v>
+        <v>0.625</v>
       </c>
       <c r="Q34" s="67">
         <f t="shared" si="7"/>
@@ -18631,59 +18775,59 @@
       </c>
       <c r="BX34" s="67">
         <f t="shared" si="9"/>
-        <v>0.78125</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="BY34" s="75">
         <f t="shared" si="9"/>
-        <v>0.296875</v>
+        <v>0.32142857142857145</v>
       </c>
       <c r="BZ34" s="75">
         <f t="shared" si="9"/>
-        <v>0.609375</v>
+        <v>0.65476190476190477</v>
       </c>
       <c r="CA34" s="75">
         <f t="shared" si="9"/>
-        <v>0.546875</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="CB34" s="75">
         <f t="shared" si="9"/>
-        <v>0.5</v>
+        <v>0.55952380952380953</v>
       </c>
       <c r="CC34" s="75">
         <f t="shared" si="9"/>
-        <v>0.4453125</v>
+        <v>0.5178571428571429</v>
       </c>
       <c r="CD34" s="102">
         <f t="shared" ref="CD34:CI34" si="17">AVERAGE(CD9:CD32)</f>
-        <v>0.15625</v>
+        <v>0.11904761904761904</v>
       </c>
       <c r="CE34" s="102">
         <f t="shared" si="17"/>
-        <v>0.125</v>
+        <v>0.19047619047619047</v>
       </c>
       <c r="CF34" s="129">
         <f t="shared" ref="CF34" si="18">AVERAGE(CF9:CF32)</f>
-        <v>0.375</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="CG34" s="102">
         <f t="shared" si="17"/>
-        <v>0.125</v>
+        <v>0.11904761904761904</v>
       </c>
       <c r="CH34" s="102">
         <f t="shared" si="17"/>
-        <v>0.125</v>
+        <v>0.11904761904761904</v>
       </c>
       <c r="CI34" s="102">
         <f t="shared" si="17"/>
-        <v>0.125</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="CJ34" s="75">
         <f t="shared" si="9"/>
-        <v>0.1875</v>
+        <v>0.19047619047619047</v>
       </c>
       <c r="CK34" s="67">
         <f t="shared" si="9"/>
-        <v>0.3125</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="CL34" s="67">
         <f t="shared" si="9"/>
@@ -18701,7 +18845,7 @@
     <row r="36" spans="1:92" x14ac:dyDescent="0.25">
       <c r="H36" s="2">
         <f t="shared" ref="H36:H60" si="19">SUM(I36:CL36)</f>
-        <v>126.97</v>
+        <v>159.97</v>
       </c>
       <c r="I36" s="2">
         <f t="shared" ref="I36:AJ36" si="20">I9*I$6</f>
@@ -18973,27 +19117,27 @@
       </c>
       <c r="BX36" s="67">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY36" s="75">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BZ36" s="75">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CA36" s="75">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CB36" s="75">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CC36" s="75">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CD36" s="102">
         <f t="shared" ref="CD36:CI36" si="30">CD9*CD$6</f>
@@ -19001,11 +19145,11 @@
       </c>
       <c r="CE36" s="102">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CF36" s="129">
         <f t="shared" ref="CF36" si="31">CF9*CF$6</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CG36" s="102">
         <f t="shared" si="30"/>
@@ -19021,11 +19165,11 @@
       </c>
       <c r="CJ36" s="75">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CK36" s="64">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CL36" s="64">
         <f t="shared" si="22"/>
@@ -19043,7 +19187,7 @@
     <row r="37" spans="1:92" x14ac:dyDescent="0.25">
       <c r="H37" s="107">
         <f t="shared" si="19"/>
-        <v>135.345</v>
+        <v>146.845</v>
       </c>
       <c r="I37" s="107">
         <f t="shared" ref="I37:BA37" si="32">I10*I$6</f>
@@ -19075,7 +19219,7 @@
       </c>
       <c r="P37" s="107">
         <f t="shared" si="32"/>
-        <v>8.75</v>
+        <v>2.5</v>
       </c>
       <c r="Q37" s="107">
         <f t="shared" si="32"/>
@@ -19315,7 +19459,7 @@
       </c>
       <c r="BX37" s="107">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY37" s="107">
         <f t="shared" si="29"/>
@@ -19323,19 +19467,19 @@
       </c>
       <c r="BZ37" s="107">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CA37" s="107">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="CB37" s="107">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CC37" s="107">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CD37" s="107">
         <f t="shared" si="29"/>
@@ -19347,7 +19491,7 @@
       </c>
       <c r="CF37" s="129">
         <f t="shared" ref="CF37" si="35">CF10*CF$6</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CG37" s="107">
         <f t="shared" ref="CG37:CN37" si="36">CG10*CG$6</f>
@@ -19385,7 +19529,7 @@
     <row r="38" spans="1:92" x14ac:dyDescent="0.25">
       <c r="H38" s="107">
         <f t="shared" si="19"/>
-        <v>94.25</v>
+        <v>97.25</v>
       </c>
       <c r="I38" s="107">
         <f t="shared" ref="I38:BA38" si="37">I11*I$6</f>
@@ -19661,7 +19805,7 @@
       </c>
       <c r="BY38" s="107">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BZ38" s="107">
         <f t="shared" si="29"/>
@@ -19727,7 +19871,7 @@
     <row r="39" spans="1:92" x14ac:dyDescent="0.25">
       <c r="H39" s="107">
         <f t="shared" si="19"/>
-        <v>106.22</v>
+        <v>126.47</v>
       </c>
       <c r="I39" s="107">
         <f t="shared" ref="I39:BA39" si="42">I12*I$6</f>
@@ -19759,7 +19903,7 @@
       </c>
       <c r="P39" s="107">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Q39" s="107">
         <f t="shared" si="42"/>
@@ -19999,7 +20143,7 @@
       </c>
       <c r="BX39" s="107">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY39" s="107">
         <f t="shared" si="29"/>
@@ -20007,19 +20151,19 @@
       </c>
       <c r="BZ39" s="107">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CA39" s="107">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="CB39" s="107">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CC39" s="107">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CD39" s="107">
         <f t="shared" si="29"/>
@@ -20031,7 +20175,7 @@
       </c>
       <c r="CF39" s="129">
         <f t="shared" ref="CF39" si="45">CF12*CF$6</f>
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="CG39" s="107">
         <f t="shared" ref="CG39:CN39" si="46">CG12*CG$6</f>
@@ -20069,7 +20213,7 @@
     <row r="40" spans="1:92" x14ac:dyDescent="0.25">
       <c r="H40" s="107">
         <f t="shared" si="19"/>
-        <v>127.17</v>
+        <v>170.17000000000002</v>
       </c>
       <c r="I40" s="107">
         <f t="shared" ref="I40:BA40" si="47">I13*I$6</f>
@@ -20101,7 +20245,7 @@
       </c>
       <c r="P40" s="107">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q40" s="107">
         <f t="shared" si="47"/>
@@ -20341,7 +20485,7 @@
       </c>
       <c r="BX40" s="107">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY40" s="107">
         <f t="shared" si="29"/>
@@ -20349,19 +20493,19 @@
       </c>
       <c r="BZ40" s="107">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CA40" s="107">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CB40" s="107">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CC40" s="107">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CD40" s="107">
         <f t="shared" si="29"/>
@@ -20369,23 +20513,23 @@
       </c>
       <c r="CE40" s="107">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CF40" s="129">
         <f t="shared" ref="CF40" si="50">CF13*CF$6</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CG40" s="107">
         <f t="shared" ref="CG40:CN40" si="51">CG13*CG$6</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="CH40" s="107">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="CI40" s="107">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CJ40" s="107">
         <f t="shared" si="51"/>
@@ -20393,7 +20537,7 @@
       </c>
       <c r="CK40" s="107">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CL40" s="107">
         <f t="shared" si="51"/>
@@ -27392,7 +27536,7 @@
     <row r="65" spans="4:92" x14ac:dyDescent="0.25">
       <c r="H65" s="2">
         <f t="shared" ref="H65:H89" si="152">SUM(I65:CL65)</f>
-        <v>39.239999999999995</v>
+        <v>49.239999999999995</v>
       </c>
       <c r="I65" s="2">
         <f t="shared" ref="I65:AJ65" si="153">I9*I$7</f>
@@ -27664,27 +27808,27 @@
       </c>
       <c r="BX65" s="64">
         <f t="shared" si="155"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY65" s="75">
         <f t="shared" si="155"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ65" s="75">
         <f t="shared" si="155"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA65" s="75">
         <f t="shared" si="155"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB65" s="75">
         <f t="shared" si="155"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC65" s="75">
         <f t="shared" si="155"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD65" s="102">
         <f t="shared" ref="CD65:CI65" si="160">CD9*CD$7</f>
@@ -27692,11 +27836,11 @@
       </c>
       <c r="CE65" s="102">
         <f t="shared" si="160"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF65" s="129">
         <f t="shared" ref="CF65" si="161">CF9*CF$7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG65" s="102">
         <f t="shared" si="160"/>
@@ -27712,11 +27856,11 @@
       </c>
       <c r="CJ65" s="75">
         <f t="shared" si="155"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CK65" s="64">
         <f t="shared" si="155"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL65" s="64">
         <f t="shared" si="155"/>
@@ -27734,7 +27878,7 @@
     <row r="66" spans="4:92" x14ac:dyDescent="0.25">
       <c r="H66" s="107">
         <f t="shared" si="152"/>
-        <v>38.364999999999995</v>
+        <v>42.989999999999995</v>
       </c>
       <c r="I66" s="107">
         <f t="shared" ref="I66:BW66" si="162">I10*I$7</f>
@@ -27766,7 +27910,7 @@
       </c>
       <c r="P66" s="107">
         <f t="shared" si="162"/>
-        <v>0.875</v>
+        <v>0.25</v>
       </c>
       <c r="Q66" s="107">
         <f t="shared" si="162"/>
@@ -28006,7 +28150,7 @@
       </c>
       <c r="BX66" s="107">
         <f t="shared" ref="BX66:CN66" si="165">BX10*BX$7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY66" s="107">
         <f t="shared" si="165"/>
@@ -28014,19 +28158,19 @@
       </c>
       <c r="BZ66" s="107">
         <f t="shared" si="165"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA66" s="107">
         <f t="shared" si="165"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="CB66" s="107">
         <f t="shared" si="165"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="CC66" s="107">
         <f t="shared" si="165"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="CD66" s="107">
         <f t="shared" si="165"/>
@@ -28038,7 +28182,7 @@
       </c>
       <c r="CF66" s="129">
         <f t="shared" ref="CF66" si="166">CF10*CF$7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG66" s="107">
         <f t="shared" si="165"/>
@@ -28076,7 +28220,7 @@
     <row r="67" spans="4:92" x14ac:dyDescent="0.25">
       <c r="H67" s="107">
         <f t="shared" si="152"/>
-        <v>29.5</v>
+        <v>30.5</v>
       </c>
       <c r="I67" s="107">
         <f t="shared" ref="I67:BW67" si="167">I11*I$7</f>
@@ -28352,7 +28496,7 @@
       </c>
       <c r="BY67" s="107">
         <f t="shared" si="170"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ67" s="107">
         <f t="shared" si="170"/>
@@ -28418,7 +28562,7 @@
     <row r="68" spans="4:92" x14ac:dyDescent="0.25">
       <c r="H68" s="107">
         <f t="shared" si="152"/>
-        <v>33.239999999999995</v>
+        <v>38.739999999999995</v>
       </c>
       <c r="I68" s="107">
         <f t="shared" ref="I68:BW68" si="172">I12*I$7</f>
@@ -28450,7 +28594,7 @@
       </c>
       <c r="P68" s="107">
         <f t="shared" si="172"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q68" s="107">
         <f t="shared" si="172"/>
@@ -28690,7 +28834,7 @@
       </c>
       <c r="BX68" s="107">
         <f t="shared" ref="BX68:CN68" si="175">BX12*BX$7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY68" s="107">
         <f t="shared" si="175"/>
@@ -28698,19 +28842,19 @@
       </c>
       <c r="BZ68" s="107">
         <f t="shared" si="175"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA68" s="107">
         <f t="shared" si="175"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="CB68" s="107">
         <f t="shared" si="175"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC68" s="107">
         <f t="shared" si="175"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD68" s="107">
         <f t="shared" si="175"/>
@@ -28722,7 +28866,7 @@
       </c>
       <c r="CF68" s="129">
         <f t="shared" ref="CF68" si="176">CF12*CF$7</f>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="CG68" s="107">
         <f t="shared" si="175"/>
@@ -28760,7 +28904,7 @@
     <row r="69" spans="4:92" x14ac:dyDescent="0.25">
       <c r="H69" s="107">
         <f t="shared" si="152"/>
-        <v>37.89</v>
+        <v>48.89</v>
       </c>
       <c r="I69" s="107">
         <f t="shared" ref="I69:BW69" si="177">I13*I$7</f>
@@ -28792,7 +28936,7 @@
       </c>
       <c r="P69" s="107">
         <f t="shared" si="177"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q69" s="107">
         <f t="shared" si="177"/>
@@ -29032,7 +29176,7 @@
       </c>
       <c r="BX69" s="107">
         <f t="shared" ref="BX69:CN69" si="180">BX13*BX$7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY69" s="107">
         <f t="shared" si="180"/>
@@ -29040,19 +29184,19 @@
       </c>
       <c r="BZ69" s="107">
         <f t="shared" si="180"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA69" s="107">
         <f t="shared" si="180"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB69" s="107">
         <f t="shared" si="180"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC69" s="107">
         <f t="shared" si="180"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD69" s="107">
         <f t="shared" si="180"/>
@@ -29060,23 +29204,23 @@
       </c>
       <c r="CE69" s="107">
         <f t="shared" si="180"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF69" s="129">
         <f t="shared" ref="CF69" si="181">CF13*CF$7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG69" s="107">
         <f t="shared" si="180"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="CH69" s="107">
         <f t="shared" si="180"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="CI69" s="107">
         <f t="shared" si="180"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ69" s="107">
         <f t="shared" si="180"/>
@@ -29084,7 +29228,7 @@
       </c>
       <c r="CK69" s="107">
         <f t="shared" si="180"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL69" s="107">
         <f t="shared" si="180"/>

--- a/BaremeJavaBaseTest2_KL16.xlsx
+++ b/BaremeJavaBaseTest2_KL16.xlsx
@@ -3506,10 +3506,148 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3539,61 +3677,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3602,115 +3689,31 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3720,9 +3723,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3758,7 +3758,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -10988,7 +10988,7 @@
       <selection activeCell="D4" sqref="D4"/>
       <selection pane="topRight" activeCell="CF6" sqref="CF6"/>
       <selection pane="bottomLeft" activeCell="A22" sqref="A22:XFD22"/>
-      <selection pane="bottomRight" activeCell="CC9" sqref="CC9"/>
+      <selection pane="bottomRight" activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -11053,97 +11053,97 @@
       <c r="D1" s="121"/>
       <c r="E1" s="17"/>
       <c r="F1" s="17"/>
-      <c r="I1" s="169" t="s">
+      <c r="I1" s="135" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="169"/>
-      <c r="K1" s="169"/>
-      <c r="L1" s="169"/>
-      <c r="M1" s="169"/>
-      <c r="N1" s="169"/>
-      <c r="O1" s="169"/>
-      <c r="P1" s="169"/>
-      <c r="Q1" s="179" t="s">
+      <c r="J1" s="135"/>
+      <c r="K1" s="135"/>
+      <c r="L1" s="135"/>
+      <c r="M1" s="135"/>
+      <c r="N1" s="135"/>
+      <c r="O1" s="135"/>
+      <c r="P1" s="135"/>
+      <c r="Q1" s="146" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="179"/>
-      <c r="S1" s="179"/>
-      <c r="T1" s="179"/>
-      <c r="U1" s="179"/>
-      <c r="V1" s="179"/>
-      <c r="W1" s="187" t="s">
+      <c r="R1" s="146"/>
+      <c r="S1" s="146"/>
+      <c r="T1" s="146"/>
+      <c r="U1" s="146"/>
+      <c r="V1" s="146"/>
+      <c r="W1" s="137" t="s">
         <v>103</v>
       </c>
-      <c r="X1" s="187"/>
-      <c r="Y1" s="187"/>
-      <c r="Z1" s="187"/>
-      <c r="AA1" s="187"/>
-      <c r="AB1" s="187"/>
-      <c r="AC1" s="187"/>
-      <c r="AD1" s="187"/>
-      <c r="AE1" s="187"/>
-      <c r="AF1" s="187"/>
-      <c r="AG1" s="187"/>
-      <c r="AH1" s="187"/>
-      <c r="AI1" s="187"/>
-      <c r="AJ1" s="187"/>
-      <c r="AK1" s="187"/>
-      <c r="AL1" s="187"/>
-      <c r="AM1" s="187"/>
-      <c r="AN1" s="187"/>
-      <c r="AO1" s="187"/>
-      <c r="AP1" s="187"/>
-      <c r="AQ1" s="187"/>
-      <c r="AR1" s="187"/>
-      <c r="AS1" s="187"/>
-      <c r="AT1" s="187"/>
-      <c r="AU1" s="187"/>
-      <c r="AV1" s="187"/>
-      <c r="AW1" s="187"/>
-      <c r="AX1" s="187"/>
-      <c r="AY1" s="187"/>
-      <c r="AZ1" s="187"/>
-      <c r="BA1" s="187"/>
-      <c r="BB1" s="187"/>
-      <c r="BC1" s="187"/>
-      <c r="BD1" s="187"/>
-      <c r="BE1" s="187"/>
-      <c r="BF1" s="187"/>
-      <c r="BG1" s="187"/>
-      <c r="BH1" s="187"/>
-      <c r="BI1" s="187"/>
-      <c r="BJ1" s="187"/>
-      <c r="BK1" s="187"/>
-      <c r="BL1" s="187"/>
-      <c r="BM1" s="187"/>
-      <c r="BN1" s="187"/>
-      <c r="BO1" s="187"/>
-      <c r="BP1" s="187"/>
-      <c r="BQ1" s="187"/>
-      <c r="BR1" s="187" t="s">
+      <c r="X1" s="137"/>
+      <c r="Y1" s="137"/>
+      <c r="Z1" s="137"/>
+      <c r="AA1" s="137"/>
+      <c r="AB1" s="137"/>
+      <c r="AC1" s="137"/>
+      <c r="AD1" s="137"/>
+      <c r="AE1" s="137"/>
+      <c r="AF1" s="137"/>
+      <c r="AG1" s="137"/>
+      <c r="AH1" s="137"/>
+      <c r="AI1" s="137"/>
+      <c r="AJ1" s="137"/>
+      <c r="AK1" s="137"/>
+      <c r="AL1" s="137"/>
+      <c r="AM1" s="137"/>
+      <c r="AN1" s="137"/>
+      <c r="AO1" s="137"/>
+      <c r="AP1" s="137"/>
+      <c r="AQ1" s="137"/>
+      <c r="AR1" s="137"/>
+      <c r="AS1" s="137"/>
+      <c r="AT1" s="137"/>
+      <c r="AU1" s="137"/>
+      <c r="AV1" s="137"/>
+      <c r="AW1" s="137"/>
+      <c r="AX1" s="137"/>
+      <c r="AY1" s="137"/>
+      <c r="AZ1" s="137"/>
+      <c r="BA1" s="137"/>
+      <c r="BB1" s="137"/>
+      <c r="BC1" s="137"/>
+      <c r="BD1" s="137"/>
+      <c r="BE1" s="137"/>
+      <c r="BF1" s="137"/>
+      <c r="BG1" s="137"/>
+      <c r="BH1" s="137"/>
+      <c r="BI1" s="137"/>
+      <c r="BJ1" s="137"/>
+      <c r="BK1" s="137"/>
+      <c r="BL1" s="137"/>
+      <c r="BM1" s="137"/>
+      <c r="BN1" s="137"/>
+      <c r="BO1" s="137"/>
+      <c r="BP1" s="137"/>
+      <c r="BQ1" s="137"/>
+      <c r="BR1" s="137" t="s">
         <v>102</v>
       </c>
-      <c r="BS1" s="187"/>
-      <c r="BT1" s="187"/>
-      <c r="BU1" s="187"/>
-      <c r="BV1" s="187"/>
-      <c r="BW1" s="187"/>
-      <c r="BX1" s="187" t="s">
+      <c r="BS1" s="137"/>
+      <c r="BT1" s="137"/>
+      <c r="BU1" s="137"/>
+      <c r="BV1" s="137"/>
+      <c r="BW1" s="137"/>
+      <c r="BX1" s="137" t="s">
         <v>104</v>
       </c>
-      <c r="BY1" s="187"/>
-      <c r="BZ1" s="187"/>
-      <c r="CA1" s="187"/>
-      <c r="CB1" s="187"/>
-      <c r="CC1" s="187"/>
-      <c r="CD1" s="187"/>
-      <c r="CE1" s="187"/>
-      <c r="CF1" s="187"/>
-      <c r="CG1" s="187"/>
-      <c r="CH1" s="187"/>
-      <c r="CI1" s="187"/>
-      <c r="CJ1" s="187"/>
-      <c r="CK1" s="187"/>
+      <c r="BY1" s="137"/>
+      <c r="BZ1" s="137"/>
+      <c r="CA1" s="137"/>
+      <c r="CB1" s="137"/>
+      <c r="CC1" s="137"/>
+      <c r="CD1" s="137"/>
+      <c r="CE1" s="137"/>
+      <c r="CF1" s="137"/>
+      <c r="CG1" s="137"/>
+      <c r="CH1" s="137"/>
+      <c r="CI1" s="137"/>
+      <c r="CJ1" s="137"/>
+      <c r="CK1" s="137"/>
       <c r="CL1" s="106"/>
     </row>
     <row r="2" spans="1:92" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -11155,114 +11155,114 @@
       <c r="F2" s="55"/>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
-      <c r="I2" s="132"/>
-      <c r="J2" s="132"/>
-      <c r="K2" s="132"/>
-      <c r="L2" s="132"/>
-      <c r="M2" s="132"/>
-      <c r="N2" s="132"/>
-      <c r="O2" s="132"/>
-      <c r="P2" s="132"/>
-      <c r="Q2" s="169"/>
-      <c r="R2" s="169"/>
-      <c r="S2" s="169"/>
-      <c r="T2" s="169"/>
-      <c r="U2" s="169"/>
-      <c r="V2" s="169"/>
-      <c r="W2" s="155" t="s">
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="136"/>
+      <c r="L2" s="136"/>
+      <c r="M2" s="136"/>
+      <c r="N2" s="136"/>
+      <c r="O2" s="136"/>
+      <c r="P2" s="136"/>
+      <c r="Q2" s="135"/>
+      <c r="R2" s="135"/>
+      <c r="S2" s="135"/>
+      <c r="T2" s="135"/>
+      <c r="U2" s="135"/>
+      <c r="V2" s="135"/>
+      <c r="W2" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="X2" s="156"/>
-      <c r="Y2" s="157"/>
-      <c r="Z2" s="157"/>
-      <c r="AA2" s="157"/>
-      <c r="AB2" s="157"/>
-      <c r="AC2" s="157"/>
-      <c r="AD2" s="157"/>
-      <c r="AE2" s="157"/>
-      <c r="AF2" s="157"/>
-      <c r="AG2" s="157"/>
-      <c r="AH2" s="157"/>
-      <c r="AI2" s="157"/>
-      <c r="AJ2" s="157"/>
-      <c r="AK2" s="157"/>
-      <c r="AL2" s="157"/>
-      <c r="AM2" s="157"/>
-      <c r="AN2" s="157"/>
-      <c r="AO2" s="158"/>
-      <c r="AP2" s="188" t="s">
+      <c r="X2" s="189"/>
+      <c r="Y2" s="142"/>
+      <c r="Z2" s="142"/>
+      <c r="AA2" s="142"/>
+      <c r="AB2" s="142"/>
+      <c r="AC2" s="142"/>
+      <c r="AD2" s="142"/>
+      <c r="AE2" s="142"/>
+      <c r="AF2" s="142"/>
+      <c r="AG2" s="142"/>
+      <c r="AH2" s="142"/>
+      <c r="AI2" s="142"/>
+      <c r="AJ2" s="142"/>
+      <c r="AK2" s="142"/>
+      <c r="AL2" s="142"/>
+      <c r="AM2" s="142"/>
+      <c r="AN2" s="142"/>
+      <c r="AO2" s="144"/>
+      <c r="AP2" s="138" t="s">
         <v>12</v>
       </c>
-      <c r="AQ2" s="132"/>
-      <c r="AR2" s="132"/>
-      <c r="AS2" s="189"/>
-      <c r="AT2" s="131" t="s">
+      <c r="AQ2" s="136"/>
+      <c r="AR2" s="136"/>
+      <c r="AS2" s="139"/>
+      <c r="AT2" s="178" t="s">
         <v>6</v>
       </c>
-      <c r="AU2" s="132"/>
-      <c r="AV2" s="132"/>
-      <c r="AW2" s="168" t="s">
+      <c r="AU2" s="136"/>
+      <c r="AV2" s="136"/>
+      <c r="AW2" s="154" t="s">
         <v>101</v>
       </c>
-      <c r="AX2" s="169"/>
-      <c r="AY2" s="169"/>
-      <c r="AZ2" s="169"/>
-      <c r="BA2" s="169"/>
-      <c r="BB2" s="169"/>
-      <c r="BC2" s="169"/>
-      <c r="BD2" s="169"/>
-      <c r="BE2" s="169"/>
-      <c r="BF2" s="169"/>
-      <c r="BG2" s="169"/>
-      <c r="BH2" s="170"/>
-      <c r="BI2" s="168" t="s">
+      <c r="AX2" s="135"/>
+      <c r="AY2" s="135"/>
+      <c r="AZ2" s="135"/>
+      <c r="BA2" s="135"/>
+      <c r="BB2" s="135"/>
+      <c r="BC2" s="135"/>
+      <c r="BD2" s="135"/>
+      <c r="BE2" s="135"/>
+      <c r="BF2" s="135"/>
+      <c r="BG2" s="135"/>
+      <c r="BH2" s="155"/>
+      <c r="BI2" s="154" t="s">
         <v>105</v>
       </c>
-      <c r="BJ2" s="169"/>
-      <c r="BK2" s="169"/>
-      <c r="BL2" s="169"/>
-      <c r="BM2" s="169"/>
-      <c r="BN2" s="169"/>
-      <c r="BO2" s="169"/>
-      <c r="BP2" s="169"/>
-      <c r="BQ2" s="170"/>
-      <c r="BR2" s="155" t="s">
+      <c r="BJ2" s="135"/>
+      <c r="BK2" s="135"/>
+      <c r="BL2" s="135"/>
+      <c r="BM2" s="135"/>
+      <c r="BN2" s="135"/>
+      <c r="BO2" s="135"/>
+      <c r="BP2" s="135"/>
+      <c r="BQ2" s="155"/>
+      <c r="BR2" s="140" t="s">
         <v>106</v>
       </c>
-      <c r="BS2" s="157" t="s">
+      <c r="BS2" s="142" t="s">
         <v>107</v>
       </c>
-      <c r="BT2" s="157"/>
-      <c r="BU2" s="157" t="s">
+      <c r="BT2" s="142"/>
+      <c r="BU2" s="142" t="s">
         <v>108</v>
       </c>
-      <c r="BV2" s="157" t="s">
+      <c r="BV2" s="142" t="s">
         <v>109</v>
       </c>
-      <c r="BW2" s="158"/>
-      <c r="BX2" s="168" t="s">
+      <c r="BW2" s="144"/>
+      <c r="BX2" s="154" t="s">
         <v>110</v>
       </c>
-      <c r="BY2" s="169"/>
-      <c r="BZ2" s="169"/>
-      <c r="CA2" s="169"/>
-      <c r="CB2" s="169"/>
-      <c r="CC2" s="169"/>
-      <c r="CD2" s="169"/>
-      <c r="CE2" s="169"/>
-      <c r="CF2" s="169"/>
-      <c r="CG2" s="169"/>
-      <c r="CH2" s="169"/>
-      <c r="CI2" s="169"/>
-      <c r="CJ2" s="169"/>
-      <c r="CK2" s="170"/>
-      <c r="CL2" s="175" t="s">
+      <c r="BY2" s="135"/>
+      <c r="BZ2" s="135"/>
+      <c r="CA2" s="135"/>
+      <c r="CB2" s="135"/>
+      <c r="CC2" s="135"/>
+      <c r="CD2" s="135"/>
+      <c r="CE2" s="135"/>
+      <c r="CF2" s="135"/>
+      <c r="CG2" s="135"/>
+      <c r="CH2" s="135"/>
+      <c r="CI2" s="135"/>
+      <c r="CJ2" s="135"/>
+      <c r="CK2" s="155"/>
+      <c r="CL2" s="176" t="s">
         <v>13</v>
       </c>
-      <c r="CM2" s="167" t="s">
+      <c r="CM2" s="175" t="s">
         <v>174</v>
       </c>
-      <c r="CN2" s="167"/>
+      <c r="CN2" s="175"/>
     </row>
     <row r="3" spans="1:92" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
@@ -11273,130 +11273,130 @@
       <c r="F3" s="55"/>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
-      <c r="I3" s="139" t="s">
+      <c r="I3" s="185" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="142" t="s">
+      <c r="J3" s="166" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="142" t="s">
+      <c r="K3" s="166" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="139" t="s">
+      <c r="L3" s="185" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="139" t="s">
+      <c r="M3" s="185" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="142" t="s">
+      <c r="N3" s="166" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="136" t="s">
+      <c r="O3" s="182" t="s">
         <v>72</v>
       </c>
-      <c r="P3" s="142" t="s">
+      <c r="P3" s="166" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="169"/>
-      <c r="R3" s="169"/>
-      <c r="S3" s="169"/>
-      <c r="T3" s="169"/>
-      <c r="U3" s="169"/>
-      <c r="V3" s="169"/>
-      <c r="W3" s="149" t="s">
+      <c r="Q3" s="135"/>
+      <c r="R3" s="135"/>
+      <c r="S3" s="135"/>
+      <c r="T3" s="135"/>
+      <c r="U3" s="135"/>
+      <c r="V3" s="135"/>
+      <c r="W3" s="173" t="s">
         <v>92</v>
       </c>
-      <c r="X3" s="150"/>
-      <c r="Y3" s="150"/>
-      <c r="Z3" s="150"/>
-      <c r="AA3" s="150"/>
-      <c r="AB3" s="133" t="s">
+      <c r="X3" s="148"/>
+      <c r="Y3" s="148"/>
+      <c r="Z3" s="148"/>
+      <c r="AA3" s="148"/>
+      <c r="AB3" s="179" t="s">
         <v>112</v>
       </c>
-      <c r="AC3" s="159"/>
-      <c r="AD3" s="160"/>
-      <c r="AE3" s="160"/>
-      <c r="AF3" s="160"/>
-      <c r="AG3" s="160"/>
-      <c r="AH3" s="160"/>
-      <c r="AI3" s="160"/>
-      <c r="AJ3" s="165" t="s">
+      <c r="AC3" s="161"/>
+      <c r="AD3" s="157"/>
+      <c r="AE3" s="157"/>
+      <c r="AF3" s="157"/>
+      <c r="AG3" s="157"/>
+      <c r="AH3" s="157"/>
+      <c r="AI3" s="157"/>
+      <c r="AJ3" s="192" t="s">
         <v>113</v>
       </c>
-      <c r="AK3" s="150"/>
-      <c r="AL3" s="150"/>
-      <c r="AM3" s="150"/>
-      <c r="AN3" s="150"/>
-      <c r="AO3" s="166"/>
-      <c r="AP3" s="149" t="s">
+      <c r="AK3" s="148"/>
+      <c r="AL3" s="148"/>
+      <c r="AM3" s="148"/>
+      <c r="AN3" s="148"/>
+      <c r="AO3" s="149"/>
+      <c r="AP3" s="173" t="s">
         <v>5</v>
       </c>
-      <c r="AQ3" s="150"/>
-      <c r="AR3" s="150"/>
-      <c r="AS3" s="133" t="s">
+      <c r="AQ3" s="148"/>
+      <c r="AR3" s="148"/>
+      <c r="AS3" s="179" t="s">
         <v>22</v>
       </c>
-      <c r="AT3" s="142" t="s">
+      <c r="AT3" s="166" t="s">
         <v>7</v>
       </c>
-      <c r="AU3" s="179"/>
-      <c r="AV3" s="179"/>
-      <c r="AW3" s="184" t="s">
+      <c r="AU3" s="146"/>
+      <c r="AV3" s="146"/>
+      <c r="AW3" s="162" t="s">
         <v>133</v>
       </c>
-      <c r="AX3" s="186" t="s">
+      <c r="AX3" s="164" t="s">
         <v>8</v>
       </c>
-      <c r="AY3" s="183" t="s">
+      <c r="AY3" s="147" t="s">
         <v>121</v>
       </c>
-      <c r="AZ3" s="150"/>
-      <c r="BA3" s="150"/>
-      <c r="BB3" s="150"/>
-      <c r="BC3" s="159"/>
-      <c r="BD3" s="183" t="s">
+      <c r="AZ3" s="148"/>
+      <c r="BA3" s="148"/>
+      <c r="BB3" s="148"/>
+      <c r="BC3" s="161"/>
+      <c r="BD3" s="147" t="s">
         <v>123</v>
       </c>
-      <c r="BE3" s="150"/>
-      <c r="BF3" s="150"/>
-      <c r="BG3" s="150"/>
-      <c r="BH3" s="166"/>
-      <c r="BI3" s="171" t="s">
+      <c r="BE3" s="148"/>
+      <c r="BF3" s="148"/>
+      <c r="BG3" s="148"/>
+      <c r="BH3" s="149"/>
+      <c r="BI3" s="156" t="s">
         <v>71</v>
       </c>
-      <c r="BJ3" s="160"/>
-      <c r="BK3" s="160"/>
-      <c r="BL3" s="160"/>
-      <c r="BM3" s="160"/>
-      <c r="BN3" s="160"/>
-      <c r="BO3" s="160"/>
-      <c r="BP3" s="183"/>
-      <c r="BQ3" s="172"/>
-      <c r="BR3" s="190"/>
-      <c r="BS3" s="191"/>
-      <c r="BT3" s="191"/>
-      <c r="BU3" s="191"/>
-      <c r="BV3" s="191"/>
-      <c r="BW3" s="192"/>
-      <c r="BX3" s="171" t="s">
+      <c r="BJ3" s="157"/>
+      <c r="BK3" s="157"/>
+      <c r="BL3" s="157"/>
+      <c r="BM3" s="157"/>
+      <c r="BN3" s="157"/>
+      <c r="BO3" s="157"/>
+      <c r="BP3" s="147"/>
+      <c r="BQ3" s="158"/>
+      <c r="BR3" s="141"/>
+      <c r="BS3" s="143"/>
+      <c r="BT3" s="143"/>
+      <c r="BU3" s="143"/>
+      <c r="BV3" s="143"/>
+      <c r="BW3" s="145"/>
+      <c r="BX3" s="156" t="s">
         <v>111</v>
       </c>
-      <c r="BY3" s="160"/>
-      <c r="BZ3" s="160"/>
-      <c r="CA3" s="160"/>
-      <c r="CB3" s="160"/>
-      <c r="CC3" s="160"/>
-      <c r="CD3" s="160"/>
-      <c r="CE3" s="160"/>
-      <c r="CF3" s="160"/>
-      <c r="CG3" s="160"/>
-      <c r="CH3" s="160"/>
-      <c r="CI3" s="160"/>
-      <c r="CJ3" s="160"/>
-      <c r="CK3" s="172"/>
-      <c r="CL3" s="168"/>
-      <c r="CM3" s="167"/>
-      <c r="CN3" s="167"/>
+      <c r="BY3" s="157"/>
+      <c r="BZ3" s="157"/>
+      <c r="CA3" s="157"/>
+      <c r="CB3" s="157"/>
+      <c r="CC3" s="157"/>
+      <c r="CD3" s="157"/>
+      <c r="CE3" s="157"/>
+      <c r="CF3" s="157"/>
+      <c r="CG3" s="157"/>
+      <c r="CH3" s="157"/>
+      <c r="CI3" s="157"/>
+      <c r="CJ3" s="157"/>
+      <c r="CK3" s="158"/>
+      <c r="CL3" s="154"/>
+      <c r="CM3" s="175"/>
+      <c r="CN3" s="175"/>
     </row>
     <row r="4" spans="1:92" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -11425,15 +11425,15 @@
         <f>CONCATENATE("Note/",H6)</f>
         <v>Note/194</v>
       </c>
-      <c r="I4" s="140"/>
-      <c r="J4" s="143"/>
-      <c r="K4" s="143"/>
-      <c r="L4" s="140"/>
-      <c r="M4" s="140"/>
-      <c r="N4" s="143"/>
-      <c r="O4" s="137"/>
-      <c r="P4" s="143"/>
-      <c r="Q4" s="180" t="s">
+      <c r="I4" s="186"/>
+      <c r="J4" s="165"/>
+      <c r="K4" s="165"/>
+      <c r="L4" s="186"/>
+      <c r="M4" s="186"/>
+      <c r="N4" s="165"/>
+      <c r="O4" s="183"/>
+      <c r="P4" s="165"/>
+      <c r="Q4" s="167" t="s">
         <v>138</v>
       </c>
       <c r="R4" s="77" t="s">
@@ -11451,196 +11451,196 @@
       <c r="V4" s="74" t="s">
         <v>91</v>
       </c>
-      <c r="W4" s="161" t="s">
+      <c r="W4" s="190" t="s">
         <v>52</v>
       </c>
-      <c r="X4" s="145" t="s">
+      <c r="X4" s="171" t="s">
         <v>10</v>
       </c>
-      <c r="Y4" s="173" t="s">
+      <c r="Y4" s="150" t="s">
         <v>11</v>
       </c>
-      <c r="Z4" s="153" t="s">
+      <c r="Z4" s="131" t="s">
         <v>70</v>
       </c>
-      <c r="AA4" s="173" t="s">
+      <c r="AA4" s="150" t="s">
         <v>73</v>
       </c>
-      <c r="AB4" s="163" t="s">
+      <c r="AB4" s="169" t="s">
         <v>52</v>
       </c>
-      <c r="AC4" s="145" t="s">
+      <c r="AC4" s="171" t="s">
         <v>10</v>
       </c>
-      <c r="AD4" s="145" t="s">
+      <c r="AD4" s="171" t="s">
         <v>11</v>
       </c>
-      <c r="AE4" s="153" t="s">
+      <c r="AE4" s="131" t="s">
         <v>171</v>
       </c>
-      <c r="AF4" s="153" t="s">
+      <c r="AF4" s="131" t="s">
         <v>172</v>
       </c>
-      <c r="AG4" s="153" t="s">
+      <c r="AG4" s="131" t="s">
         <v>173</v>
       </c>
-      <c r="AH4" s="153" t="s">
+      <c r="AH4" s="131" t="s">
         <v>70</v>
       </c>
-      <c r="AI4" s="173" t="s">
+      <c r="AI4" s="150" t="s">
         <v>73</v>
       </c>
-      <c r="AJ4" s="163" t="s">
+      <c r="AJ4" s="169" t="s">
         <v>52</v>
       </c>
-      <c r="AK4" s="145" t="s">
+      <c r="AK4" s="171" t="s">
         <v>10</v>
       </c>
-      <c r="AL4" s="145" t="s">
+      <c r="AL4" s="171" t="s">
         <v>11</v>
       </c>
-      <c r="AM4" s="153" t="s">
+      <c r="AM4" s="131" t="s">
         <v>172</v>
       </c>
-      <c r="AN4" s="153" t="s">
+      <c r="AN4" s="131" t="s">
         <v>70</v>
       </c>
-      <c r="AO4" s="151" t="s">
+      <c r="AO4" s="159" t="s">
         <v>73</v>
       </c>
-      <c r="AP4" s="147" t="s">
+      <c r="AP4" s="152" t="s">
         <v>114</v>
       </c>
-      <c r="AQ4" s="177" t="s">
+      <c r="AQ4" s="133" t="s">
         <v>115</v>
       </c>
-      <c r="AR4" s="178"/>
-      <c r="AS4" s="134"/>
-      <c r="AT4" s="143"/>
-      <c r="AU4" s="169"/>
-      <c r="AV4" s="169"/>
-      <c r="AW4" s="155"/>
-      <c r="AX4" s="157"/>
-      <c r="AY4" s="173" t="s">
+      <c r="AR4" s="134"/>
+      <c r="AS4" s="180"/>
+      <c r="AT4" s="165"/>
+      <c r="AU4" s="135"/>
+      <c r="AV4" s="135"/>
+      <c r="AW4" s="140"/>
+      <c r="AX4" s="142"/>
+      <c r="AY4" s="150" t="s">
         <v>96</v>
       </c>
-      <c r="AZ4" s="173" t="s">
+      <c r="AZ4" s="150" t="s">
         <v>119</v>
       </c>
-      <c r="BA4" s="173" t="s">
+      <c r="BA4" s="150" t="s">
         <v>122</v>
       </c>
-      <c r="BB4" s="173" t="s">
+      <c r="BB4" s="150" t="s">
         <v>124</v>
       </c>
-      <c r="BC4" s="173" t="s">
+      <c r="BC4" s="150" t="s">
         <v>120</v>
       </c>
-      <c r="BD4" s="173" t="s">
+      <c r="BD4" s="150" t="s">
         <v>96</v>
       </c>
-      <c r="BE4" s="173" t="s">
+      <c r="BE4" s="150" t="s">
         <v>119</v>
       </c>
-      <c r="BF4" s="173" t="s">
+      <c r="BF4" s="150" t="s">
         <v>122</v>
       </c>
-      <c r="BG4" s="173" t="s">
+      <c r="BG4" s="150" t="s">
         <v>124</v>
       </c>
-      <c r="BH4" s="173" t="s">
+      <c r="BH4" s="150" t="s">
         <v>120</v>
       </c>
-      <c r="BI4" s="147" t="s">
+      <c r="BI4" s="152" t="s">
         <v>125</v>
       </c>
-      <c r="BJ4" s="173" t="s">
+      <c r="BJ4" s="150" t="s">
         <v>132</v>
       </c>
-      <c r="BK4" s="173" t="s">
+      <c r="BK4" s="150" t="s">
         <v>126</v>
       </c>
-      <c r="BL4" s="173" t="s">
+      <c r="BL4" s="150" t="s">
         <v>127</v>
       </c>
-      <c r="BM4" s="173" t="s">
+      <c r="BM4" s="150" t="s">
         <v>128</v>
       </c>
-      <c r="BN4" s="173" t="s">
+      <c r="BN4" s="150" t="s">
         <v>129</v>
       </c>
-      <c r="BO4" s="173" t="s">
+      <c r="BO4" s="150" t="s">
         <v>130</v>
       </c>
-      <c r="BP4" s="173" t="s">
+      <c r="BP4" s="150" t="s">
         <v>116</v>
       </c>
-      <c r="BQ4" s="151" t="s">
+      <c r="BQ4" s="159" t="s">
         <v>131</v>
       </c>
-      <c r="BR4" s="147" t="s">
+      <c r="BR4" s="152" t="s">
         <v>96</v>
       </c>
-      <c r="BS4" s="173" t="s">
+      <c r="BS4" s="150" t="s">
         <v>97</v>
       </c>
-      <c r="BT4" s="173" t="s">
+      <c r="BT4" s="150" t="s">
         <v>98</v>
       </c>
-      <c r="BU4" s="173" t="s">
+      <c r="BU4" s="150" t="s">
         <v>94</v>
       </c>
-      <c r="BV4" s="173" t="s">
-        <v>99</v>
-      </c>
-      <c r="BW4" s="173" t="s">
+      <c r="BV4" s="150" t="s">
+        <v>99</v>
+      </c>
+      <c r="BW4" s="150" t="s">
         <v>95</v>
       </c>
-      <c r="BX4" s="147" t="s">
+      <c r="BX4" s="152" t="s">
         <v>139</v>
       </c>
-      <c r="BY4" s="173" t="s">
+      <c r="BY4" s="150" t="s">
         <v>140</v>
       </c>
-      <c r="BZ4" s="173" t="s">
+      <c r="BZ4" s="150" t="s">
         <v>141</v>
       </c>
-      <c r="CA4" s="173" t="s">
+      <c r="CA4" s="150" t="s">
         <v>142</v>
       </c>
-      <c r="CB4" s="173" t="s">
+      <c r="CB4" s="150" t="s">
         <v>143</v>
       </c>
-      <c r="CC4" s="173" t="s">
+      <c r="CC4" s="150" t="s">
         <v>144</v>
       </c>
-      <c r="CD4" s="173" t="s">
+      <c r="CD4" s="150" t="s">
         <v>145</v>
       </c>
-      <c r="CE4" s="173" t="s">
+      <c r="CE4" s="150" t="s">
         <v>135</v>
       </c>
-      <c r="CF4" s="173" t="s">
+      <c r="CF4" s="150" t="s">
         <v>134</v>
       </c>
-      <c r="CG4" s="173" t="s">
+      <c r="CG4" s="150" t="s">
         <v>146</v>
       </c>
-      <c r="CH4" s="173" t="s">
+      <c r="CH4" s="150" t="s">
         <v>147</v>
       </c>
-      <c r="CI4" s="173" t="s">
+      <c r="CI4" s="150" t="s">
         <v>148</v>
       </c>
-      <c r="CJ4" s="173" t="s">
+      <c r="CJ4" s="150" t="s">
         <v>149</v>
       </c>
-      <c r="CK4" s="151" t="s">
+      <c r="CK4" s="159" t="s">
         <v>150</v>
       </c>
-      <c r="CL4" s="168"/>
-      <c r="CM4" s="167"/>
-      <c r="CN4" s="167"/>
+      <c r="CL4" s="154"/>
+      <c r="CM4" s="175"/>
+      <c r="CN4" s="175"/>
     </row>
     <row r="5" spans="1:92" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
@@ -11651,15 +11651,15 @@
       <c r="F5" s="16"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
-      <c r="I5" s="141"/>
-      <c r="J5" s="144"/>
-      <c r="K5" s="144"/>
-      <c r="L5" s="141"/>
-      <c r="M5" s="141"/>
-      <c r="N5" s="144"/>
-      <c r="O5" s="138"/>
-      <c r="P5" s="131"/>
-      <c r="Q5" s="181"/>
+      <c r="I5" s="187"/>
+      <c r="J5" s="188"/>
+      <c r="K5" s="188"/>
+      <c r="L5" s="187"/>
+      <c r="M5" s="187"/>
+      <c r="N5" s="188"/>
+      <c r="O5" s="184"/>
+      <c r="P5" s="178"/>
+      <c r="Q5" s="168"/>
       <c r="R5" s="88" t="s">
         <v>134</v>
       </c>
@@ -11675,33 +11675,33 @@
       <c r="V5" s="87" t="s">
         <v>137</v>
       </c>
-      <c r="W5" s="162"/>
-      <c r="X5" s="146"/>
-      <c r="Y5" s="174"/>
-      <c r="Z5" s="154"/>
-      <c r="AA5" s="174"/>
-      <c r="AB5" s="164"/>
-      <c r="AC5" s="146"/>
-      <c r="AD5" s="146"/>
-      <c r="AE5" s="154"/>
-      <c r="AF5" s="154"/>
-      <c r="AG5" s="154"/>
-      <c r="AH5" s="154"/>
-      <c r="AI5" s="174"/>
-      <c r="AJ5" s="164"/>
-      <c r="AK5" s="146"/>
-      <c r="AL5" s="146"/>
-      <c r="AM5" s="154"/>
-      <c r="AN5" s="154"/>
-      <c r="AO5" s="152"/>
-      <c r="AP5" s="148"/>
+      <c r="W5" s="191"/>
+      <c r="X5" s="172"/>
+      <c r="Y5" s="151"/>
+      <c r="Z5" s="132"/>
+      <c r="AA5" s="151"/>
+      <c r="AB5" s="170"/>
+      <c r="AC5" s="172"/>
+      <c r="AD5" s="172"/>
+      <c r="AE5" s="132"/>
+      <c r="AF5" s="132"/>
+      <c r="AG5" s="132"/>
+      <c r="AH5" s="132"/>
+      <c r="AI5" s="151"/>
+      <c r="AJ5" s="170"/>
+      <c r="AK5" s="172"/>
+      <c r="AL5" s="172"/>
+      <c r="AM5" s="132"/>
+      <c r="AN5" s="132"/>
+      <c r="AO5" s="160"/>
+      <c r="AP5" s="153"/>
       <c r="AQ5" s="89" t="s">
         <v>93</v>
       </c>
       <c r="AR5" s="89" t="s">
         <v>116</v>
       </c>
-      <c r="AS5" s="135"/>
+      <c r="AS5" s="181"/>
       <c r="AT5" s="97" t="s">
         <v>100</v>
       </c>
@@ -11711,50 +11711,50 @@
       <c r="AV5" s="98" t="s">
         <v>118</v>
       </c>
-      <c r="AW5" s="185"/>
-      <c r="AX5" s="154"/>
-      <c r="AY5" s="174"/>
-      <c r="AZ5" s="174"/>
-      <c r="BA5" s="174"/>
-      <c r="BB5" s="174"/>
-      <c r="BC5" s="174"/>
-      <c r="BD5" s="174"/>
-      <c r="BE5" s="174"/>
-      <c r="BF5" s="174"/>
-      <c r="BG5" s="174"/>
-      <c r="BH5" s="174"/>
-      <c r="BI5" s="148"/>
-      <c r="BJ5" s="174"/>
-      <c r="BK5" s="174"/>
-      <c r="BL5" s="174"/>
-      <c r="BM5" s="174"/>
-      <c r="BN5" s="174"/>
-      <c r="BO5" s="174"/>
-      <c r="BP5" s="174"/>
-      <c r="BQ5" s="152"/>
-      <c r="BR5" s="148"/>
-      <c r="BS5" s="174"/>
-      <c r="BT5" s="174"/>
-      <c r="BU5" s="174"/>
-      <c r="BV5" s="174"/>
-      <c r="BW5" s="174"/>
-      <c r="BX5" s="148"/>
-      <c r="BY5" s="174"/>
-      <c r="BZ5" s="174"/>
-      <c r="CA5" s="174"/>
-      <c r="CB5" s="174"/>
-      <c r="CC5" s="174"/>
-      <c r="CD5" s="174"/>
-      <c r="CE5" s="174"/>
-      <c r="CF5" s="174"/>
-      <c r="CG5" s="174"/>
-      <c r="CH5" s="174"/>
-      <c r="CI5" s="174"/>
-      <c r="CJ5" s="174"/>
-      <c r="CK5" s="152"/>
-      <c r="CL5" s="176"/>
-      <c r="CM5" s="167"/>
-      <c r="CN5" s="167"/>
+      <c r="AW5" s="163"/>
+      <c r="AX5" s="132"/>
+      <c r="AY5" s="151"/>
+      <c r="AZ5" s="151"/>
+      <c r="BA5" s="151"/>
+      <c r="BB5" s="151"/>
+      <c r="BC5" s="151"/>
+      <c r="BD5" s="151"/>
+      <c r="BE5" s="151"/>
+      <c r="BF5" s="151"/>
+      <c r="BG5" s="151"/>
+      <c r="BH5" s="151"/>
+      <c r="BI5" s="153"/>
+      <c r="BJ5" s="151"/>
+      <c r="BK5" s="151"/>
+      <c r="BL5" s="151"/>
+      <c r="BM5" s="151"/>
+      <c r="BN5" s="151"/>
+      <c r="BO5" s="151"/>
+      <c r="BP5" s="151"/>
+      <c r="BQ5" s="160"/>
+      <c r="BR5" s="153"/>
+      <c r="BS5" s="151"/>
+      <c r="BT5" s="151"/>
+      <c r="BU5" s="151"/>
+      <c r="BV5" s="151"/>
+      <c r="BW5" s="151"/>
+      <c r="BX5" s="153"/>
+      <c r="BY5" s="151"/>
+      <c r="BZ5" s="151"/>
+      <c r="CA5" s="151"/>
+      <c r="CB5" s="151"/>
+      <c r="CC5" s="151"/>
+      <c r="CD5" s="151"/>
+      <c r="CE5" s="151"/>
+      <c r="CF5" s="151"/>
+      <c r="CG5" s="151"/>
+      <c r="CH5" s="151"/>
+      <c r="CI5" s="151"/>
+      <c r="CJ5" s="151"/>
+      <c r="CK5" s="160"/>
+      <c r="CL5" s="177"/>
+      <c r="CM5" s="175"/>
+      <c r="CN5" s="175"/>
     </row>
     <row r="6" spans="1:92" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -12303,109 +12303,109 @@
       <c r="N8" s="7"/>
       <c r="O8" s="47"/>
       <c r="P8" s="7"/>
-      <c r="Q8" s="143">
+      <c r="Q8" s="165">
         <f>SUM(Q6:V6)</f>
         <v>25</v>
       </c>
-      <c r="R8" s="169"/>
-      <c r="S8" s="169"/>
-      <c r="T8" s="169"/>
-      <c r="U8" s="169"/>
-      <c r="V8" s="169"/>
-      <c r="W8" s="177">
+      <c r="R8" s="135"/>
+      <c r="S8" s="135"/>
+      <c r="T8" s="135"/>
+      <c r="U8" s="135"/>
+      <c r="V8" s="135"/>
+      <c r="W8" s="133">
         <f>SUM(W6:AA6)</f>
         <v>0</v>
       </c>
-      <c r="X8" s="178"/>
-      <c r="Y8" s="178"/>
-      <c r="Z8" s="178"/>
-      <c r="AA8" s="178"/>
-      <c r="AB8" s="177">
+      <c r="X8" s="134"/>
+      <c r="Y8" s="134"/>
+      <c r="Z8" s="134"/>
+      <c r="AA8" s="134"/>
+      <c r="AB8" s="133">
         <f>SUM(AB6:AI6)</f>
         <v>25</v>
       </c>
-      <c r="AC8" s="178"/>
-      <c r="AD8" s="178"/>
-      <c r="AE8" s="178"/>
-      <c r="AF8" s="178"/>
-      <c r="AG8" s="178"/>
-      <c r="AH8" s="178"/>
-      <c r="AI8" s="178"/>
-      <c r="AJ8" s="177">
+      <c r="AC8" s="134"/>
+      <c r="AD8" s="134"/>
+      <c r="AE8" s="134"/>
+      <c r="AF8" s="134"/>
+      <c r="AG8" s="134"/>
+      <c r="AH8" s="134"/>
+      <c r="AI8" s="134"/>
+      <c r="AJ8" s="133">
         <f>SUM(AJ6:AO6)</f>
         <v>9</v>
       </c>
-      <c r="AK8" s="178"/>
-      <c r="AL8" s="178"/>
-      <c r="AM8" s="178"/>
-      <c r="AN8" s="178"/>
-      <c r="AO8" s="182"/>
-      <c r="AP8" s="177">
+      <c r="AK8" s="134"/>
+      <c r="AL8" s="134"/>
+      <c r="AM8" s="134"/>
+      <c r="AN8" s="134"/>
+      <c r="AO8" s="174"/>
+      <c r="AP8" s="133">
         <f>SUM(AP6:AR6)</f>
         <v>2</v>
       </c>
-      <c r="AQ8" s="178"/>
-      <c r="AR8" s="178"/>
+      <c r="AQ8" s="134"/>
+      <c r="AR8" s="134"/>
       <c r="AS8" s="96"/>
-      <c r="AT8" s="177">
+      <c r="AT8" s="133">
         <f>SUM(AT6:AV6)</f>
         <v>5</v>
       </c>
-      <c r="AU8" s="178"/>
-      <c r="AV8" s="178"/>
-      <c r="AW8" s="177">
+      <c r="AU8" s="134"/>
+      <c r="AV8" s="134"/>
+      <c r="AW8" s="133">
         <f>SUM(AW6:BH6)</f>
         <v>17</v>
       </c>
-      <c r="AX8" s="178"/>
-      <c r="AY8" s="178"/>
-      <c r="AZ8" s="178"/>
-      <c r="BA8" s="178"/>
-      <c r="BB8" s="178"/>
-      <c r="BC8" s="178"/>
-      <c r="BD8" s="178"/>
-      <c r="BE8" s="178"/>
-      <c r="BF8" s="178"/>
-      <c r="BG8" s="178"/>
-      <c r="BH8" s="178"/>
-      <c r="BI8" s="177">
+      <c r="AX8" s="134"/>
+      <c r="AY8" s="134"/>
+      <c r="AZ8" s="134"/>
+      <c r="BA8" s="134"/>
+      <c r="BB8" s="134"/>
+      <c r="BC8" s="134"/>
+      <c r="BD8" s="134"/>
+      <c r="BE8" s="134"/>
+      <c r="BF8" s="134"/>
+      <c r="BG8" s="134"/>
+      <c r="BH8" s="134"/>
+      <c r="BI8" s="133">
         <f>SUM(BI6:BQ6)</f>
         <v>28</v>
       </c>
-      <c r="BJ8" s="178"/>
-      <c r="BK8" s="178"/>
-      <c r="BL8" s="178"/>
-      <c r="BM8" s="178"/>
-      <c r="BN8" s="178"/>
-      <c r="BO8" s="178"/>
-      <c r="BP8" s="178"/>
-      <c r="BQ8" s="178"/>
-      <c r="BR8" s="177">
+      <c r="BJ8" s="134"/>
+      <c r="BK8" s="134"/>
+      <c r="BL8" s="134"/>
+      <c r="BM8" s="134"/>
+      <c r="BN8" s="134"/>
+      <c r="BO8" s="134"/>
+      <c r="BP8" s="134"/>
+      <c r="BQ8" s="134"/>
+      <c r="BR8" s="133">
         <f>SUM(BR6:BW6)</f>
         <v>0</v>
       </c>
-      <c r="BS8" s="178"/>
-      <c r="BT8" s="178"/>
-      <c r="BU8" s="178"/>
-      <c r="BV8" s="178"/>
-      <c r="BW8" s="178"/>
-      <c r="BX8" s="177">
+      <c r="BS8" s="134"/>
+      <c r="BT8" s="134"/>
+      <c r="BU8" s="134"/>
+      <c r="BV8" s="134"/>
+      <c r="BW8" s="134"/>
+      <c r="BX8" s="133">
         <f>SUM(BX6:CK6)</f>
         <v>45</v>
       </c>
-      <c r="BY8" s="178"/>
-      <c r="BZ8" s="178"/>
-      <c r="CA8" s="178"/>
-      <c r="CB8" s="178"/>
-      <c r="CC8" s="178"/>
-      <c r="CD8" s="178"/>
-      <c r="CE8" s="178"/>
-      <c r="CF8" s="178"/>
-      <c r="CG8" s="178"/>
-      <c r="CH8" s="178"/>
-      <c r="CI8" s="178"/>
-      <c r="CJ8" s="178"/>
-      <c r="CK8" s="178"/>
+      <c r="BY8" s="134"/>
+      <c r="BZ8" s="134"/>
+      <c r="CA8" s="134"/>
+      <c r="CB8" s="134"/>
+      <c r="CC8" s="134"/>
+      <c r="CD8" s="134"/>
+      <c r="CE8" s="134"/>
+      <c r="CF8" s="134"/>
+      <c r="CG8" s="134"/>
+      <c r="CH8" s="134"/>
+      <c r="CI8" s="134"/>
+      <c r="CJ8" s="134"/>
+      <c r="CK8" s="134"/>
       <c r="CL8" s="2">
         <f>CL6</f>
         <v>1</v>
@@ -12443,7 +12443,9 @@
       <c r="K9" s="7">
         <v>99</v>
       </c>
-      <c r="L9" s="7"/>
+      <c r="L9" s="7">
+        <v>0</v>
+      </c>
       <c r="M9" s="7">
         <v>99</v>
       </c>
@@ -12939,20 +12941,20 @@
       <c r="C11" s="109"/>
       <c r="D11" s="126">
         <f t="shared" si="0"/>
-        <v>10.025773195876289</v>
+        <v>10.154639175257731</v>
       </c>
       <c r="E11" s="18">
         <f t="shared" si="1"/>
-        <v>10.701754385964913</v>
+        <v>10.789473684210527</v>
       </c>
       <c r="F11" s="18"/>
       <c r="G11" s="13">
         <f t="shared" si="4"/>
-        <v>30.5</v>
+        <v>30.75</v>
       </c>
       <c r="H11" s="13">
         <f t="shared" si="3"/>
-        <v>97.25</v>
+        <v>98.5</v>
       </c>
       <c r="I11" s="103">
         <v>1</v>
@@ -12963,7 +12965,9 @@
       <c r="K11" s="65">
         <v>99</v>
       </c>
-      <c r="L11" s="7"/>
+      <c r="L11" s="7">
+        <v>0.25</v>
+      </c>
       <c r="M11" s="65">
         <v>99</v>
       </c>
@@ -13219,7 +13223,9 @@
       <c r="K12" s="65">
         <v>99</v>
       </c>
-      <c r="L12" s="7"/>
+      <c r="L12" s="7">
+        <v>0</v>
+      </c>
       <c r="M12" s="65">
         <v>99</v>
       </c>
@@ -13713,20 +13719,20 @@
       <c r="C14" s="109"/>
       <c r="D14" s="126">
         <f t="shared" si="0"/>
-        <v>9.0463917525773194</v>
+        <v>9.1752577319587623</v>
       </c>
       <c r="E14" s="18">
         <f t="shared" si="1"/>
-        <v>9.3859649122807021</v>
+        <v>9.473684210526315</v>
       </c>
       <c r="F14" s="18"/>
       <c r="G14" s="13">
         <f t="shared" si="4"/>
-        <v>26.75</v>
+        <v>27</v>
       </c>
       <c r="H14" s="13">
         <f t="shared" si="3"/>
-        <v>87.75</v>
+        <v>89</v>
       </c>
       <c r="I14" s="103">
         <v>1</v>
@@ -13737,7 +13743,9 @@
       <c r="K14" s="65">
         <v>99</v>
       </c>
-      <c r="L14" s="7"/>
+      <c r="L14" s="7">
+        <v>0.25</v>
+      </c>
       <c r="M14" s="65">
         <v>99</v>
       </c>
@@ -13969,20 +13977,20 @@
       <c r="C15" s="4"/>
       <c r="D15" s="126">
         <f t="shared" si="0"/>
-        <v>16.829896907216494</v>
+        <v>16.958762886597938</v>
       </c>
       <c r="E15" s="18">
         <f t="shared" si="1"/>
-        <v>17.105263157894736</v>
+        <v>17.192982456140349</v>
       </c>
       <c r="F15" s="18"/>
       <c r="G15" s="13">
         <f t="shared" si="4"/>
-        <v>48.75</v>
+        <v>49</v>
       </c>
       <c r="H15" s="13">
         <f t="shared" si="3"/>
-        <v>163.25</v>
+        <v>164.5</v>
       </c>
       <c r="I15" s="103">
         <v>0</v>
@@ -13993,7 +14001,9 @@
       <c r="K15" s="65">
         <v>99</v>
       </c>
-      <c r="L15" s="7"/>
+      <c r="L15" s="7">
+        <v>0.25</v>
+      </c>
       <c r="M15" s="65">
         <v>99</v>
       </c>
@@ -14225,20 +14235,20 @@
       <c r="C16" s="4"/>
       <c r="D16" s="126">
         <f t="shared" si="0"/>
-        <v>10.219072164948454</v>
+        <v>10.476804123711341</v>
       </c>
       <c r="E16" s="18">
         <f t="shared" si="1"/>
-        <v>11.05263157894737</v>
+        <v>11.140350877192981</v>
       </c>
       <c r="F16" s="18"/>
       <c r="G16" s="13">
         <f t="shared" si="4"/>
-        <v>31.5</v>
+        <v>31.75</v>
       </c>
       <c r="H16" s="13">
         <f t="shared" si="3"/>
-        <v>99.125</v>
+        <v>101.625</v>
       </c>
       <c r="I16" s="103">
         <v>0</v>
@@ -14249,7 +14259,9 @@
       <c r="K16" s="65">
         <v>99</v>
       </c>
-      <c r="L16" s="7"/>
+      <c r="L16" s="7">
+        <v>0</v>
+      </c>
       <c r="M16" s="65">
         <v>99</v>
       </c>
@@ -14259,7 +14271,9 @@
       <c r="O16" s="47">
         <v>0</v>
       </c>
-      <c r="P16" s="128"/>
+      <c r="P16" s="128">
+        <v>0.25</v>
+      </c>
       <c r="Q16" s="65">
         <v>0</v>
       </c>
@@ -14505,7 +14519,9 @@
       <c r="K17" s="65">
         <v>99</v>
       </c>
-      <c r="L17" s="7"/>
+      <c r="L17" s="7">
+        <v>0</v>
+      </c>
       <c r="M17" s="65">
         <v>99</v>
       </c>
@@ -14737,20 +14753,20 @@
       <c r="C18" s="4"/>
       <c r="D18" s="126">
         <f t="shared" si="0"/>
-        <v>13.618041237113403</v>
+        <v>13.746907216494845</v>
       </c>
       <c r="E18" s="18">
         <f t="shared" si="1"/>
-        <v>14.075438596491225</v>
+        <v>14.163157894736839</v>
       </c>
       <c r="F18" s="18"/>
       <c r="G18" s="13">
         <f t="shared" si="4"/>
-        <v>40.114999999999995</v>
+        <v>40.364999999999995</v>
       </c>
       <c r="H18" s="13">
         <f t="shared" si="3"/>
-        <v>132.095</v>
+        <v>133.345</v>
       </c>
       <c r="I18" s="103">
         <v>0</v>
@@ -14761,7 +14777,9 @@
       <c r="K18" s="65">
         <v>99</v>
       </c>
-      <c r="L18" s="7"/>
+      <c r="L18" s="7">
+        <v>0.25</v>
+      </c>
       <c r="M18" s="65">
         <v>99</v>
       </c>
@@ -15014,7 +15032,9 @@
       <c r="K19" s="83">
         <v>99</v>
       </c>
-      <c r="L19" s="83"/>
+      <c r="L19" s="83">
+        <v>0</v>
+      </c>
       <c r="M19" s="83">
         <v>99</v>
       </c>
@@ -15246,20 +15266,20 @@
       <c r="C20" s="109"/>
       <c r="D20" s="126">
         <f t="shared" si="0"/>
-        <v>0.99226804123711332</v>
+        <v>1.5077319587628866</v>
       </c>
       <c r="E20" s="18">
         <f t="shared" si="1"/>
-        <v>2.1052631578947367</v>
+        <v>2.4561403508771926</v>
       </c>
       <c r="F20" s="18"/>
       <c r="G20" s="13">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H20" s="13">
         <f t="shared" si="3"/>
-        <v>9.625</v>
+        <v>14.625</v>
       </c>
       <c r="I20" s="103">
         <v>0</v>
@@ -15270,7 +15290,9 @@
       <c r="K20" s="65">
         <v>99</v>
       </c>
-      <c r="L20" s="7"/>
+      <c r="L20" s="7">
+        <v>1</v>
+      </c>
       <c r="M20" s="65">
         <v>99</v>
       </c>
@@ -15502,20 +15524,20 @@
       <c r="C21" s="4"/>
       <c r="D21" s="126">
         <f t="shared" si="0"/>
-        <v>7.3453608247422686</v>
+        <v>7.4742268041237114</v>
       </c>
       <c r="E21" s="18">
         <f t="shared" si="1"/>
-        <v>8.2456140350877192</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="F21" s="18"/>
       <c r="G21" s="13">
         <f t="shared" si="4"/>
-        <v>23.5</v>
+        <v>23.75</v>
       </c>
       <c r="H21" s="13">
         <f t="shared" si="3"/>
-        <v>71.25</v>
+        <v>72.5</v>
       </c>
       <c r="I21" s="103">
         <v>1</v>
@@ -15526,7 +15548,9 @@
       <c r="K21" s="65">
         <v>99</v>
       </c>
-      <c r="L21" s="7"/>
+      <c r="L21" s="7">
+        <v>0.25</v>
+      </c>
       <c r="M21" s="65">
         <v>99</v>
       </c>
@@ -16044,7 +16068,9 @@
       <c r="K23" s="83">
         <v>99</v>
       </c>
-      <c r="L23" s="83"/>
+      <c r="L23" s="83">
+        <v>0</v>
+      </c>
       <c r="M23" s="83">
         <v>99</v>
       </c>
@@ -16276,20 +16302,20 @@
       <c r="C24" s="4"/>
       <c r="D24" s="126">
         <f t="shared" si="0"/>
-        <v>11.056701030927837</v>
+        <v>11.185567010309278</v>
       </c>
       <c r="E24" s="18">
         <f t="shared" si="1"/>
-        <v>10.964912280701755</v>
+        <v>11.05263157894737</v>
       </c>
       <c r="F24" s="18"/>
       <c r="G24" s="13">
         <f t="shared" si="4"/>
-        <v>31.25</v>
+        <v>31.5</v>
       </c>
       <c r="H24" s="13">
         <f t="shared" si="3"/>
-        <v>107.25</v>
+        <v>108.5</v>
       </c>
       <c r="I24" s="104">
         <v>0</v>
@@ -16300,7 +16326,9 @@
       <c r="K24" s="83">
         <v>99</v>
       </c>
-      <c r="L24" s="83"/>
+      <c r="L24" s="83">
+        <v>0.25</v>
+      </c>
       <c r="M24" s="83">
         <v>99</v>
       </c>
@@ -16532,20 +16560,20 @@
       <c r="C25" s="4"/>
       <c r="D25" s="126">
         <f t="shared" si="0"/>
-        <v>9.0118556701030919</v>
+        <v>9.527319587628865</v>
       </c>
       <c r="E25" s="18">
         <f t="shared" si="1"/>
-        <v>9.1684210526315795</v>
+        <v>9.5192982456140349</v>
       </c>
       <c r="F25" s="18"/>
       <c r="G25" s="13">
         <f t="shared" si="4"/>
-        <v>26.13</v>
+        <v>27.13</v>
       </c>
       <c r="H25" s="13">
         <f t="shared" si="3"/>
-        <v>87.414999999999992</v>
+        <v>92.414999999999992</v>
       </c>
       <c r="I25" s="104">
         <v>1</v>
@@ -16556,7 +16584,9 @@
       <c r="K25" s="83">
         <v>99</v>
       </c>
-      <c r="L25" s="83"/>
+      <c r="L25" s="83">
+        <v>1</v>
+      </c>
       <c r="M25" s="83">
         <v>99</v>
       </c>
@@ -16812,7 +16842,9 @@
       <c r="K26" s="83">
         <v>99</v>
       </c>
-      <c r="L26" s="83"/>
+      <c r="L26" s="83">
+        <v>0</v>
+      </c>
       <c r="M26" s="83">
         <v>99</v>
       </c>
@@ -17068,7 +17100,9 @@
       <c r="K27" s="83">
         <v>99</v>
       </c>
-      <c r="L27" s="83"/>
+      <c r="L27" s="83">
+        <v>0</v>
+      </c>
       <c r="M27" s="83">
         <v>99</v>
       </c>
@@ -17324,7 +17358,9 @@
       <c r="K28" s="83">
         <v>99</v>
       </c>
-      <c r="L28" s="83"/>
+      <c r="L28" s="83">
+        <v>0</v>
+      </c>
       <c r="M28" s="83">
         <v>99</v>
       </c>
@@ -18519,7 +18555,7 @@
       </c>
       <c r="L34" s="2">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0.35714285714285715</v>
       </c>
       <c r="M34" s="2">
         <f t="shared" si="7"/>
@@ -18535,7 +18571,7 @@
       </c>
       <c r="P34" s="2">
         <f t="shared" si="7"/>
-        <v>0.625</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="Q34" s="67">
         <f t="shared" si="7"/>
@@ -19529,7 +19565,7 @@
     <row r="38" spans="1:92" x14ac:dyDescent="0.25">
       <c r="H38" s="107">
         <f t="shared" si="19"/>
-        <v>97.25</v>
+        <v>98.5</v>
       </c>
       <c r="I38" s="107">
         <f t="shared" ref="I38:BA38" si="37">I11*I$6</f>
@@ -19545,7 +19581,7 @@
       </c>
       <c r="L38" s="107">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="M38" s="107">
         <f t="shared" si="37"/>
@@ -20555,7 +20591,7 @@
     <row r="41" spans="1:92" x14ac:dyDescent="0.25">
       <c r="H41" s="107">
         <f t="shared" si="19"/>
-        <v>87.75</v>
+        <v>89</v>
       </c>
       <c r="I41" s="107">
         <f t="shared" ref="I41:BA41" si="52">I14*I$6</f>
@@ -20571,7 +20607,7 @@
       </c>
       <c r="L41" s="107">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="M41" s="107">
         <f t="shared" si="52"/>
@@ -20897,7 +20933,7 @@
     <row r="42" spans="1:92" x14ac:dyDescent="0.25">
       <c r="H42" s="107">
         <f t="shared" si="19"/>
-        <v>163.25</v>
+        <v>164.5</v>
       </c>
       <c r="I42" s="107">
         <f t="shared" ref="I42:BA42" si="57">I15*I$6</f>
@@ -20913,7 +20949,7 @@
       </c>
       <c r="L42" s="107">
         <f t="shared" si="57"/>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="M42" s="107">
         <f t="shared" si="57"/>
@@ -21239,7 +21275,7 @@
     <row r="43" spans="1:92" x14ac:dyDescent="0.25">
       <c r="H43" s="107">
         <f t="shared" si="19"/>
-        <v>99.125</v>
+        <v>101.625</v>
       </c>
       <c r="I43" s="107">
         <f t="shared" ref="I43:BA43" si="62">I16*I$6</f>
@@ -21271,7 +21307,7 @@
       </c>
       <c r="P43" s="107">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Q43" s="107">
         <f t="shared" si="62"/>
@@ -21923,7 +21959,7 @@
     <row r="45" spans="1:92" x14ac:dyDescent="0.25">
       <c r="H45" s="107">
         <f t="shared" si="19"/>
-        <v>132.095</v>
+        <v>133.345</v>
       </c>
       <c r="I45" s="107">
         <f t="shared" ref="I45:BA45" si="72">I18*I$6</f>
@@ -21939,7 +21975,7 @@
       </c>
       <c r="L45" s="107">
         <f t="shared" si="72"/>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="M45" s="107">
         <f t="shared" si="72"/>
@@ -22607,7 +22643,7 @@
     <row r="47" spans="1:92" x14ac:dyDescent="0.25">
       <c r="H47" s="107">
         <f t="shared" si="19"/>
-        <v>9.625</v>
+        <v>14.625</v>
       </c>
       <c r="I47" s="107">
         <f t="shared" ref="I47:BA47" si="82">I20*I$6</f>
@@ -22623,7 +22659,7 @@
       </c>
       <c r="L47" s="107">
         <f t="shared" si="82"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M47" s="107">
         <f t="shared" si="82"/>
@@ -22949,7 +22985,7 @@
     <row r="48" spans="1:92" x14ac:dyDescent="0.25">
       <c r="H48" s="107">
         <f t="shared" si="19"/>
-        <v>71.25</v>
+        <v>72.5</v>
       </c>
       <c r="I48" s="107">
         <f t="shared" ref="I48:BA48" si="87">I21*I$6</f>
@@ -22965,7 +23001,7 @@
       </c>
       <c r="L48" s="107">
         <f t="shared" si="87"/>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="M48" s="107">
         <f t="shared" si="87"/>
@@ -23984,7 +24020,7 @@
       <c r="F51" s="17"/>
       <c r="H51" s="107">
         <f t="shared" si="19"/>
-        <v>107.25</v>
+        <v>108.5</v>
       </c>
       <c r="I51" s="107">
         <f t="shared" ref="I51:BA51" si="102">I24*I$6</f>
@@ -24000,7 +24036,7 @@
       </c>
       <c r="L51" s="107">
         <f t="shared" si="102"/>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="M51" s="107">
         <f t="shared" si="102"/>
@@ -24329,7 +24365,7 @@
       <c r="F52" s="17"/>
       <c r="H52" s="107">
         <f t="shared" si="19"/>
-        <v>87.414999999999992</v>
+        <v>92.414999999999992</v>
       </c>
       <c r="I52" s="107">
         <f t="shared" ref="I52:BW60" si="107">I25*I$6</f>
@@ -24345,7 +24381,7 @@
       </c>
       <c r="L52" s="107">
         <f t="shared" si="107"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M52" s="107">
         <f t="shared" si="107"/>
@@ -28220,7 +28256,7 @@
     <row r="67" spans="4:92" x14ac:dyDescent="0.25">
       <c r="H67" s="107">
         <f t="shared" si="152"/>
-        <v>30.5</v>
+        <v>30.75</v>
       </c>
       <c r="I67" s="107">
         <f t="shared" ref="I67:BW67" si="167">I11*I$7</f>
@@ -28236,7 +28272,7 @@
       </c>
       <c r="L67" s="107">
         <f t="shared" si="167"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="M67" s="107">
         <f t="shared" si="167"/>
@@ -29246,7 +29282,7 @@
     <row r="70" spans="4:92" x14ac:dyDescent="0.25">
       <c r="H70" s="107">
         <f t="shared" si="152"/>
-        <v>26.75</v>
+        <v>27</v>
       </c>
       <c r="I70" s="107">
         <f t="shared" ref="I70:BW70" si="182">I14*I$7</f>
@@ -29262,7 +29298,7 @@
       </c>
       <c r="L70" s="107">
         <f t="shared" si="182"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="M70" s="107">
         <f t="shared" si="182"/>
@@ -29588,7 +29624,7 @@
     <row r="71" spans="4:92" x14ac:dyDescent="0.25">
       <c r="H71" s="107">
         <f t="shared" si="152"/>
-        <v>48.75</v>
+        <v>49</v>
       </c>
       <c r="I71" s="107">
         <f t="shared" ref="I71:BW71" si="187">I15*I$7</f>
@@ -29604,7 +29640,7 @@
       </c>
       <c r="L71" s="107">
         <f t="shared" si="187"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="M71" s="107">
         <f t="shared" si="187"/>
@@ -29930,7 +29966,7 @@
     <row r="72" spans="4:92" x14ac:dyDescent="0.25">
       <c r="H72" s="107">
         <f t="shared" si="152"/>
-        <v>31.5</v>
+        <v>31.75</v>
       </c>
       <c r="I72" s="107">
         <f t="shared" ref="I72:BW72" si="192">I16*I$7</f>
@@ -29962,7 +29998,7 @@
       </c>
       <c r="P72" s="107">
         <f t="shared" si="192"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q72" s="107">
         <f t="shared" si="192"/>
@@ -30614,7 +30650,7 @@
     <row r="74" spans="4:92" x14ac:dyDescent="0.25">
       <c r="H74" s="107">
         <f t="shared" si="152"/>
-        <v>40.114999999999995</v>
+        <v>40.364999999999995</v>
       </c>
       <c r="I74" s="107">
         <f t="shared" ref="I74:BW74" si="202">I18*I$7</f>
@@ -30630,7 +30666,7 @@
       </c>
       <c r="L74" s="107">
         <f t="shared" si="202"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="M74" s="107">
         <f t="shared" si="202"/>
@@ -31298,7 +31334,7 @@
     <row r="76" spans="4:92" x14ac:dyDescent="0.25">
       <c r="H76" s="107">
         <f t="shared" si="152"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I76" s="107">
         <f t="shared" ref="I76:BW76" si="212">I20*I$7</f>
@@ -31314,7 +31350,7 @@
       </c>
       <c r="L76" s="107">
         <f t="shared" si="212"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M76" s="107">
         <f t="shared" si="212"/>
@@ -31640,7 +31676,7 @@
     <row r="77" spans="4:92" x14ac:dyDescent="0.25">
       <c r="H77" s="107">
         <f t="shared" si="152"/>
-        <v>23.5</v>
+        <v>23.75</v>
       </c>
       <c r="I77" s="107">
         <f t="shared" ref="I77:BW77" si="217">I21*I$7</f>
@@ -31656,7 +31692,7 @@
       </c>
       <c r="L77" s="107">
         <f t="shared" si="217"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="M77" s="107">
         <f t="shared" si="217"/>
@@ -32675,7 +32711,7 @@
       <c r="F80" s="17"/>
       <c r="H80" s="107">
         <f t="shared" si="152"/>
-        <v>31.25</v>
+        <v>31.5</v>
       </c>
       <c r="I80" s="107">
         <f t="shared" ref="I80:BW80" si="232">I24*I$7</f>
@@ -32691,7 +32727,7 @@
       </c>
       <c r="L80" s="107">
         <f t="shared" si="232"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="M80" s="107">
         <f t="shared" si="232"/>
@@ -33020,7 +33056,7 @@
       <c r="F81" s="17"/>
       <c r="H81" s="107">
         <f t="shared" si="152"/>
-        <v>26.13</v>
+        <v>27.13</v>
       </c>
       <c r="I81" s="107">
         <f t="shared" ref="I81:BW81" si="237">I25*I$7</f>
@@ -33036,7 +33072,7 @@
       </c>
       <c r="L81" s="107">
         <f t="shared" si="237"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M81" s="107">
         <f t="shared" si="237"/>
@@ -36134,6 +36170,91 @@
     </row>
   </sheetData>
   <mergeCells count="109">
+    <mergeCell ref="AT2:AV2"/>
+    <mergeCell ref="AS3:AS5"/>
+    <mergeCell ref="O3:O5"/>
+    <mergeCell ref="I3:I5"/>
+    <mergeCell ref="J3:J5"/>
+    <mergeCell ref="K3:K5"/>
+    <mergeCell ref="L3:L5"/>
+    <mergeCell ref="M3:M5"/>
+    <mergeCell ref="N3:N5"/>
+    <mergeCell ref="X4:X5"/>
+    <mergeCell ref="AP4:AP5"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="P3:P5"/>
+    <mergeCell ref="AO4:AO5"/>
+    <mergeCell ref="AL4:AL5"/>
+    <mergeCell ref="AN4:AN5"/>
+    <mergeCell ref="W2:AO2"/>
+    <mergeCell ref="AB3:AI3"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="AB4:AB5"/>
+    <mergeCell ref="AD4:AD5"/>
+    <mergeCell ref="Z4:Z5"/>
+    <mergeCell ref="AJ3:AO3"/>
+    <mergeCell ref="AM4:AM5"/>
+    <mergeCell ref="CN2:CN5"/>
+    <mergeCell ref="BX2:CK2"/>
+    <mergeCell ref="BX3:CK3"/>
+    <mergeCell ref="BX4:BX5"/>
+    <mergeCell ref="CJ4:CJ5"/>
+    <mergeCell ref="CK4:CK5"/>
+    <mergeCell ref="BY4:BY5"/>
+    <mergeCell ref="BZ4:BZ5"/>
+    <mergeCell ref="CA4:CA5"/>
+    <mergeCell ref="CM2:CM5"/>
+    <mergeCell ref="CB4:CB5"/>
+    <mergeCell ref="CC4:CC5"/>
+    <mergeCell ref="CD4:CD5"/>
+    <mergeCell ref="CE4:CE5"/>
+    <mergeCell ref="CG4:CG5"/>
+    <mergeCell ref="CH4:CH5"/>
+    <mergeCell ref="CI4:CI5"/>
+    <mergeCell ref="CL2:CL5"/>
+    <mergeCell ref="CF4:CF5"/>
+    <mergeCell ref="BX8:CK8"/>
+    <mergeCell ref="Q8:V8"/>
+    <mergeCell ref="AT3:AV4"/>
+    <mergeCell ref="AT8:AV8"/>
+    <mergeCell ref="AQ4:AR4"/>
+    <mergeCell ref="AE4:AE5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="Y4:Y5"/>
+    <mergeCell ref="AA4:AA5"/>
+    <mergeCell ref="AI4:AI5"/>
+    <mergeCell ref="AJ4:AJ5"/>
+    <mergeCell ref="AC4:AC5"/>
+    <mergeCell ref="AK4:AK5"/>
+    <mergeCell ref="AH4:AH5"/>
+    <mergeCell ref="W3:AA3"/>
+    <mergeCell ref="AP8:AR8"/>
+    <mergeCell ref="AJ8:AO8"/>
+    <mergeCell ref="AB8:AI8"/>
+    <mergeCell ref="W8:AA8"/>
+    <mergeCell ref="BU4:BU5"/>
+    <mergeCell ref="BV4:BV5"/>
+    <mergeCell ref="BW4:BW5"/>
+    <mergeCell ref="AG4:AG5"/>
+    <mergeCell ref="BL4:BL5"/>
+    <mergeCell ref="BK4:BK5"/>
+    <mergeCell ref="BM4:BM5"/>
+    <mergeCell ref="BN4:BN5"/>
+    <mergeCell ref="BO4:BO5"/>
+    <mergeCell ref="BQ4:BQ5"/>
+    <mergeCell ref="BI8:BQ8"/>
+    <mergeCell ref="AW2:BH2"/>
+    <mergeCell ref="AZ4:AZ5"/>
+    <mergeCell ref="BA4:BA5"/>
+    <mergeCell ref="BC4:BC5"/>
+    <mergeCell ref="BD4:BD5"/>
+    <mergeCell ref="BE4:BE5"/>
+    <mergeCell ref="AY4:AY5"/>
+    <mergeCell ref="AY3:BC3"/>
+    <mergeCell ref="AW3:AW5"/>
+    <mergeCell ref="AX3:AX5"/>
+    <mergeCell ref="BG4:BG5"/>
+    <mergeCell ref="BH4:BH5"/>
     <mergeCell ref="AF4:AF5"/>
     <mergeCell ref="BR8:BW8"/>
     <mergeCell ref="I1:P2"/>
@@ -36158,91 +36279,6 @@
     <mergeCell ref="BI3:BQ3"/>
     <mergeCell ref="BI4:BI5"/>
     <mergeCell ref="BJ4:BJ5"/>
-    <mergeCell ref="BK4:BK5"/>
-    <mergeCell ref="BM4:BM5"/>
-    <mergeCell ref="BN4:BN5"/>
-    <mergeCell ref="BO4:BO5"/>
-    <mergeCell ref="BQ4:BQ5"/>
-    <mergeCell ref="BI8:BQ8"/>
-    <mergeCell ref="AW2:BH2"/>
-    <mergeCell ref="AZ4:AZ5"/>
-    <mergeCell ref="BA4:BA5"/>
-    <mergeCell ref="BC4:BC5"/>
-    <mergeCell ref="BD4:BD5"/>
-    <mergeCell ref="BE4:BE5"/>
-    <mergeCell ref="AY4:AY5"/>
-    <mergeCell ref="AY3:BC3"/>
-    <mergeCell ref="AW3:AW5"/>
-    <mergeCell ref="AX3:AX5"/>
-    <mergeCell ref="BG4:BG5"/>
-    <mergeCell ref="BH4:BH5"/>
-    <mergeCell ref="BX8:CK8"/>
-    <mergeCell ref="Q8:V8"/>
-    <mergeCell ref="AT3:AV4"/>
-    <mergeCell ref="AT8:AV8"/>
-    <mergeCell ref="AQ4:AR4"/>
-    <mergeCell ref="AE4:AE5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="Y4:Y5"/>
-    <mergeCell ref="AA4:AA5"/>
-    <mergeCell ref="AI4:AI5"/>
-    <mergeCell ref="AJ4:AJ5"/>
-    <mergeCell ref="AC4:AC5"/>
-    <mergeCell ref="AK4:AK5"/>
-    <mergeCell ref="AH4:AH5"/>
-    <mergeCell ref="W3:AA3"/>
-    <mergeCell ref="AP8:AR8"/>
-    <mergeCell ref="AJ8:AO8"/>
-    <mergeCell ref="AB8:AI8"/>
-    <mergeCell ref="W8:AA8"/>
-    <mergeCell ref="BU4:BU5"/>
-    <mergeCell ref="BV4:BV5"/>
-    <mergeCell ref="BW4:BW5"/>
-    <mergeCell ref="AG4:AG5"/>
-    <mergeCell ref="BL4:BL5"/>
-    <mergeCell ref="CN2:CN5"/>
-    <mergeCell ref="BX2:CK2"/>
-    <mergeCell ref="BX3:CK3"/>
-    <mergeCell ref="BX4:BX5"/>
-    <mergeCell ref="CJ4:CJ5"/>
-    <mergeCell ref="CK4:CK5"/>
-    <mergeCell ref="BY4:BY5"/>
-    <mergeCell ref="BZ4:BZ5"/>
-    <mergeCell ref="CA4:CA5"/>
-    <mergeCell ref="CM2:CM5"/>
-    <mergeCell ref="CB4:CB5"/>
-    <mergeCell ref="CC4:CC5"/>
-    <mergeCell ref="CD4:CD5"/>
-    <mergeCell ref="CE4:CE5"/>
-    <mergeCell ref="CG4:CG5"/>
-    <mergeCell ref="CH4:CH5"/>
-    <mergeCell ref="CI4:CI5"/>
-    <mergeCell ref="CL2:CL5"/>
-    <mergeCell ref="CF4:CF5"/>
-    <mergeCell ref="AT2:AV2"/>
-    <mergeCell ref="AS3:AS5"/>
-    <mergeCell ref="O3:O5"/>
-    <mergeCell ref="I3:I5"/>
-    <mergeCell ref="J3:J5"/>
-    <mergeCell ref="K3:K5"/>
-    <mergeCell ref="L3:L5"/>
-    <mergeCell ref="M3:M5"/>
-    <mergeCell ref="N3:N5"/>
-    <mergeCell ref="X4:X5"/>
-    <mergeCell ref="AP4:AP5"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="P3:P5"/>
-    <mergeCell ref="AO4:AO5"/>
-    <mergeCell ref="AL4:AL5"/>
-    <mergeCell ref="AN4:AN5"/>
-    <mergeCell ref="W2:AO2"/>
-    <mergeCell ref="AB3:AI3"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="AB4:AB5"/>
-    <mergeCell ref="AD4:AD5"/>
-    <mergeCell ref="Z4:Z5"/>
-    <mergeCell ref="AJ3:AO3"/>
-    <mergeCell ref="AM4:AM5"/>
   </mergeCells>
   <conditionalFormatting sqref="D9:F23 D33:F33 E32:F32">
     <cfRule type="cellIs" dxfId="992" priority="1261" operator="between">
@@ -40709,35 +40745,35 @@
       <c r="C1" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="193" t="s">
+      <c r="D1" s="197" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="194"/>
-      <c r="F1" s="193" t="s">
+      <c r="E1" s="199"/>
+      <c r="F1" s="197" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="203"/>
-      <c r="H1" s="203"/>
-      <c r="I1" s="203"/>
-      <c r="J1" s="203"/>
-      <c r="K1" s="203"/>
-      <c r="L1" s="203"/>
-      <c r="M1" s="203"/>
-      <c r="N1" s="203"/>
-      <c r="O1" s="203"/>
-      <c r="P1" s="203"/>
-      <c r="Q1" s="203"/>
-      <c r="R1" s="203"/>
-      <c r="S1" s="203"/>
-      <c r="T1" s="203"/>
-      <c r="U1" s="203"/>
-      <c r="V1" s="203"/>
-      <c r="W1" s="203"/>
-      <c r="X1" s="203"/>
-      <c r="Y1" s="203"/>
-      <c r="Z1" s="203"/>
-      <c r="AA1" s="203"/>
-      <c r="AB1" s="203"/>
+      <c r="G1" s="198"/>
+      <c r="H1" s="198"/>
+      <c r="I1" s="198"/>
+      <c r="J1" s="198"/>
+      <c r="K1" s="198"/>
+      <c r="L1" s="198"/>
+      <c r="M1" s="198"/>
+      <c r="N1" s="198"/>
+      <c r="O1" s="198"/>
+      <c r="P1" s="198"/>
+      <c r="Q1" s="198"/>
+      <c r="R1" s="198"/>
+      <c r="S1" s="198"/>
+      <c r="T1" s="198"/>
+      <c r="U1" s="198"/>
+      <c r="V1" s="198"/>
+      <c r="W1" s="198"/>
+      <c r="X1" s="198"/>
+      <c r="Y1" s="198"/>
+      <c r="Z1" s="198"/>
+      <c r="AA1" s="198"/>
+      <c r="AB1" s="198"/>
       <c r="AC1" s="204"/>
       <c r="AD1" s="204"/>
       <c r="AE1" s="204"/>
@@ -40746,19 +40782,19 @@
       <c r="AH1" s="204"/>
       <c r="AI1" s="204"/>
       <c r="AJ1" s="205"/>
-      <c r="AK1" s="200" t="s">
+      <c r="AK1" s="201" t="s">
         <v>51</v>
       </c>
-      <c r="AL1" s="201"/>
-      <c r="AM1" s="201"/>
-      <c r="AN1" s="201"/>
-      <c r="AO1" s="201"/>
-      <c r="AP1" s="201"/>
-      <c r="AQ1" s="202"/>
-      <c r="AR1" s="193" t="s">
+      <c r="AL1" s="202"/>
+      <c r="AM1" s="202"/>
+      <c r="AN1" s="202"/>
+      <c r="AO1" s="202"/>
+      <c r="AP1" s="202"/>
+      <c r="AQ1" s="203"/>
+      <c r="AR1" s="197" t="s">
         <v>50</v>
       </c>
-      <c r="AS1" s="194"/>
+      <c r="AS1" s="199"/>
     </row>
     <row r="2" spans="2:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="25"/>
@@ -40824,29 +40860,29 @@
     </row>
     <row r="3" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B3" s="25"/>
-      <c r="C3" s="195" t="s">
+      <c r="C3" s="193" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="199" t="s">
+      <c r="D3" s="194" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="196" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="193" t="s">
+      <c r="F3" s="197" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="203"/>
-      <c r="H3" s="203"/>
-      <c r="I3" s="203"/>
-      <c r="J3" s="203"/>
-      <c r="K3" s="194"/>
-      <c r="L3" s="193" t="s">
+      <c r="G3" s="198"/>
+      <c r="H3" s="198"/>
+      <c r="I3" s="198"/>
+      <c r="J3" s="198"/>
+      <c r="K3" s="199"/>
+      <c r="L3" s="197" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="203"/>
-      <c r="N3" s="203"/>
-      <c r="O3" s="194"/>
+      <c r="M3" s="198"/>
+      <c r="N3" s="198"/>
+      <c r="O3" s="199"/>
       <c r="P3" s="28" t="s">
         <v>27</v>
       </c>
@@ -40882,10 +40918,10 @@
       <c r="AF3" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="AG3" s="199" t="s">
+      <c r="AG3" s="194" t="s">
         <v>35</v>
       </c>
-      <c r="AH3" s="197"/>
+      <c r="AH3" s="195"/>
       <c r="AI3" s="196"/>
       <c r="AJ3" s="29" t="s">
         <v>7</v>
@@ -40916,72 +40952,72 @@
     </row>
     <row r="4" spans="2:45" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="25"/>
-      <c r="C4" s="195"/>
-      <c r="D4" s="199"/>
+      <c r="C4" s="193"/>
+      <c r="D4" s="194"/>
       <c r="E4" s="196"/>
-      <c r="F4" s="199" t="s">
+      <c r="F4" s="194" t="s">
         <v>52</v>
       </c>
-      <c r="G4" s="197" t="s">
+      <c r="G4" s="195" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="197" t="s">
+      <c r="H4" s="195" t="s">
         <v>53</v>
       </c>
-      <c r="I4" s="197" t="s">
+      <c r="I4" s="195" t="s">
         <v>54</v>
       </c>
-      <c r="J4" s="197" t="s">
+      <c r="J4" s="195" t="s">
         <v>55</v>
       </c>
       <c r="K4" s="196"/>
-      <c r="L4" s="199" t="s">
+      <c r="L4" s="194" t="s">
         <v>52</v>
       </c>
-      <c r="M4" s="197" t="s">
+      <c r="M4" s="195" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="197" t="s">
+      <c r="N4" s="195" t="s">
         <v>53</v>
       </c>
       <c r="O4" s="196" t="s">
         <v>54</v>
       </c>
-      <c r="P4" s="195" t="s">
+      <c r="P4" s="193" t="s">
         <v>56</v>
       </c>
-      <c r="Q4" s="195" t="s">
+      <c r="Q4" s="193" t="s">
         <v>56</v>
       </c>
-      <c r="R4" s="195" t="s">
+      <c r="R4" s="193" t="s">
         <v>56</v>
       </c>
-      <c r="S4" s="199" t="s">
+      <c r="S4" s="194" t="s">
         <v>52</v>
       </c>
-      <c r="T4" s="197" t="s">
+      <c r="T4" s="195" t="s">
         <v>10</v>
       </c>
-      <c r="U4" s="197" t="s">
+      <c r="U4" s="195" t="s">
         <v>53</v>
       </c>
-      <c r="V4" s="197" t="s">
+      <c r="V4" s="195" t="s">
         <v>54</v>
       </c>
-      <c r="W4" s="215" t="s">
+      <c r="W4" s="200" t="s">
         <v>55</v>
       </c>
       <c r="X4" s="196"/>
-      <c r="Y4" s="199" t="s">
+      <c r="Y4" s="194" t="s">
         <v>52</v>
       </c>
-      <c r="Z4" s="197" t="s">
+      <c r="Z4" s="195" t="s">
         <v>10</v>
       </c>
-      <c r="AA4" s="197" t="s">
+      <c r="AA4" s="195" t="s">
         <v>53</v>
       </c>
-      <c r="AB4" s="198" t="s">
+      <c r="AB4" s="215" t="s">
         <v>54</v>
       </c>
       <c r="AC4" s="32"/>
@@ -41010,40 +41046,40 @@
     </row>
     <row r="5" spans="2:45" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="25"/>
-      <c r="C5" s="195"/>
-      <c r="D5" s="199"/>
+      <c r="C5" s="193"/>
+      <c r="D5" s="194"/>
       <c r="E5" s="196"/>
-      <c r="F5" s="199"/>
-      <c r="G5" s="197"/>
-      <c r="H5" s="197"/>
-      <c r="I5" s="197"/>
+      <c r="F5" s="194"/>
+      <c r="G5" s="195"/>
+      <c r="H5" s="195"/>
+      <c r="I5" s="195"/>
       <c r="J5" s="23" t="s">
         <v>57</v>
       </c>
       <c r="K5" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="L5" s="199"/>
-      <c r="M5" s="197"/>
-      <c r="N5" s="197"/>
+      <c r="L5" s="194"/>
+      <c r="M5" s="195"/>
+      <c r="N5" s="195"/>
       <c r="O5" s="196"/>
-      <c r="P5" s="195"/>
-      <c r="Q5" s="195"/>
-      <c r="R5" s="195"/>
-      <c r="S5" s="199"/>
-      <c r="T5" s="197"/>
-      <c r="U5" s="197"/>
-      <c r="V5" s="197"/>
+      <c r="P5" s="193"/>
+      <c r="Q5" s="193"/>
+      <c r="R5" s="193"/>
+      <c r="S5" s="194"/>
+      <c r="T5" s="195"/>
+      <c r="U5" s="195"/>
+      <c r="V5" s="195"/>
       <c r="W5" s="26" t="s">
         <v>59</v>
       </c>
       <c r="X5" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="Y5" s="199"/>
-      <c r="Z5" s="197"/>
-      <c r="AA5" s="197"/>
-      <c r="AB5" s="198"/>
+      <c r="Y5" s="194"/>
+      <c r="Z5" s="195"/>
+      <c r="AA5" s="195"/>
+      <c r="AB5" s="215"/>
       <c r="AC5" s="32"/>
       <c r="AD5" s="33"/>
       <c r="AE5" s="32"/>
@@ -41490,6 +41526,32 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="AB4:AB5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="Z4:Z5"/>
+    <mergeCell ref="AA4:AA5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="AK1:AQ1"/>
+    <mergeCell ref="AR1:AS1"/>
+    <mergeCell ref="F1:AJ1"/>
+    <mergeCell ref="AR2:AR3"/>
+    <mergeCell ref="AS2:AS3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="Y3:AB3"/>
+    <mergeCell ref="F2:AB2"/>
+    <mergeCell ref="S3:X3"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AK2:AM2"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="Y4:Y5"/>
     <mergeCell ref="L4:L5"/>
@@ -41504,32 +41566,6 @@
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
-    <mergeCell ref="AK1:AQ1"/>
-    <mergeCell ref="AR1:AS1"/>
-    <mergeCell ref="F1:AJ1"/>
-    <mergeCell ref="AR2:AR3"/>
-    <mergeCell ref="AS2:AS3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="Y3:AB3"/>
-    <mergeCell ref="F2:AB2"/>
-    <mergeCell ref="S3:X3"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AK2:AM2"/>
-    <mergeCell ref="AB4:AB5"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="Z4:Z5"/>
-    <mergeCell ref="AA4:AA5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="M4:M5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/BaremeJavaBaseTest2_KL16.xlsx
+++ b/BaremeJavaBaseTest2_KL16.xlsx
@@ -10988,7 +10988,7 @@
       <selection activeCell="D4" sqref="D4"/>
       <selection pane="topRight" activeCell="CF6" sqref="CF6"/>
       <selection pane="bottomLeft" activeCell="A22" sqref="A22:XFD22"/>
-      <selection pane="bottomRight" activeCell="L29" sqref="L29"/>
+      <selection pane="bottomRight" activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -12419,20 +12419,20 @@
       <c r="C9" s="109"/>
       <c r="D9" s="126">
         <f t="shared" ref="D9:D32" si="0">H9/$H$6*20+CN9*$CN$6</f>
-        <v>16.491752577319588</v>
+        <v>17.342268041237112</v>
       </c>
       <c r="E9" s="18">
         <f t="shared" ref="E9:E28" si="1">G9/$H$7*20+CN9*$CN$7</f>
-        <v>17.277192982456139</v>
+        <v>17.566666666666666</v>
       </c>
       <c r="F9" s="18"/>
       <c r="G9" s="13">
         <f t="shared" ref="G9" si="2">H65</f>
-        <v>49.239999999999995</v>
+        <v>50.064999999999998</v>
       </c>
       <c r="H9" s="13">
         <f t="shared" ref="H9:H32" si="3">H36</f>
-        <v>159.97</v>
+        <v>168.22</v>
       </c>
       <c r="I9" s="103">
         <v>1</v>
@@ -12455,7 +12455,9 @@
       <c r="O9" s="47">
         <v>0.5</v>
       </c>
-      <c r="P9" s="7"/>
+      <c r="P9" s="7">
+        <v>0.82499999999999996</v>
+      </c>
       <c r="Q9" s="65">
         <v>0.5</v>
       </c>
@@ -12679,20 +12681,20 @@
       <c r="C10" s="4"/>
       <c r="D10" s="126">
         <f t="shared" si="0"/>
-        <v>15.138659793814433</v>
+        <v>15.654123711340207</v>
       </c>
       <c r="E10" s="18">
         <f t="shared" si="1"/>
-        <v>15.084210526315786</v>
+        <v>15.259649122807016</v>
       </c>
       <c r="F10" s="18"/>
       <c r="G10" s="13">
         <f t="shared" ref="G10:G32" si="4">H66</f>
-        <v>42.989999999999995</v>
+        <v>43.489999999999995</v>
       </c>
       <c r="H10" s="13">
         <f t="shared" si="3"/>
-        <v>146.845</v>
+        <v>151.845</v>
       </c>
       <c r="I10" s="103">
         <v>1</v>
@@ -12716,7 +12718,7 @@
         <v>1</v>
       </c>
       <c r="P10" s="83">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="Q10" s="83">
         <v>0.5</v>
@@ -12941,20 +12943,20 @@
       <c r="C11" s="109"/>
       <c r="D11" s="126">
         <f t="shared" si="0"/>
-        <v>10.154639175257731</v>
+        <v>11.056701030927837</v>
       </c>
       <c r="E11" s="18">
         <f t="shared" si="1"/>
-        <v>10.789473684210527</v>
+        <v>11.096491228070175</v>
       </c>
       <c r="F11" s="18"/>
       <c r="G11" s="13">
         <f t="shared" si="4"/>
-        <v>30.75</v>
+        <v>31.625</v>
       </c>
       <c r="H11" s="13">
         <f t="shared" si="3"/>
-        <v>98.5</v>
+        <v>107.25</v>
       </c>
       <c r="I11" s="103">
         <v>1</v>
@@ -12977,7 +12979,9 @@
       <c r="O11" s="47">
         <v>1</v>
       </c>
-      <c r="P11" s="7"/>
+      <c r="P11" s="7">
+        <v>0.875</v>
+      </c>
       <c r="Q11" s="65">
         <v>1</v>
       </c>
@@ -18571,7 +18575,7 @@
       </c>
       <c r="P34" s="2">
         <f t="shared" si="7"/>
-        <v>0.55000000000000004</v>
+        <v>0.70714285714285718</v>
       </c>
       <c r="Q34" s="67">
         <f t="shared" si="7"/>
@@ -18881,7 +18885,7 @@
     <row r="36" spans="1:92" x14ac:dyDescent="0.25">
       <c r="H36" s="2">
         <f t="shared" ref="H36:H60" si="19">SUM(I36:CL36)</f>
-        <v>159.97</v>
+        <v>168.22</v>
       </c>
       <c r="I36" s="2">
         <f t="shared" ref="I36:AJ36" si="20">I9*I$6</f>
@@ -18913,7 +18917,7 @@
       </c>
       <c r="P36" s="2">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>8.25</v>
       </c>
       <c r="Q36" s="67">
         <f t="shared" si="20"/>
@@ -19223,7 +19227,7 @@
     <row r="37" spans="1:92" x14ac:dyDescent="0.25">
       <c r="H37" s="107">
         <f t="shared" si="19"/>
-        <v>146.845</v>
+        <v>151.845</v>
       </c>
       <c r="I37" s="107">
         <f t="shared" ref="I37:BA37" si="32">I10*I$6</f>
@@ -19255,7 +19259,7 @@
       </c>
       <c r="P37" s="107">
         <f t="shared" si="32"/>
-        <v>2.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q37" s="107">
         <f t="shared" si="32"/>
@@ -19565,7 +19569,7 @@
     <row r="38" spans="1:92" x14ac:dyDescent="0.25">
       <c r="H38" s="107">
         <f t="shared" si="19"/>
-        <v>98.5</v>
+        <v>107.25</v>
       </c>
       <c r="I38" s="107">
         <f t="shared" ref="I38:BA38" si="37">I11*I$6</f>
@@ -19597,7 +19601,7 @@
       </c>
       <c r="P38" s="107">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>8.75</v>
       </c>
       <c r="Q38" s="107">
         <f t="shared" si="37"/>
@@ -27572,7 +27576,7 @@
     <row r="65" spans="4:92" x14ac:dyDescent="0.25">
       <c r="H65" s="2">
         <f t="shared" ref="H65:H89" si="152">SUM(I65:CL65)</f>
-        <v>49.239999999999995</v>
+        <v>50.064999999999998</v>
       </c>
       <c r="I65" s="2">
         <f t="shared" ref="I65:AJ65" si="153">I9*I$7</f>
@@ -27604,7 +27608,7 @@
       </c>
       <c r="P65" s="2">
         <f t="shared" si="153"/>
-        <v>0</v>
+        <v>0.82499999999999996</v>
       </c>
       <c r="Q65" s="67">
         <f t="shared" si="153"/>
@@ -27914,7 +27918,7 @@
     <row r="66" spans="4:92" x14ac:dyDescent="0.25">
       <c r="H66" s="107">
         <f t="shared" si="152"/>
-        <v>42.989999999999995</v>
+        <v>43.489999999999995</v>
       </c>
       <c r="I66" s="107">
         <f t="shared" ref="I66:BW66" si="162">I10*I$7</f>
@@ -27946,7 +27950,7 @@
       </c>
       <c r="P66" s="107">
         <f t="shared" si="162"/>
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="Q66" s="107">
         <f t="shared" si="162"/>
@@ -28256,7 +28260,7 @@
     <row r="67" spans="4:92" x14ac:dyDescent="0.25">
       <c r="H67" s="107">
         <f t="shared" si="152"/>
-        <v>30.75</v>
+        <v>31.625</v>
       </c>
       <c r="I67" s="107">
         <f t="shared" ref="I67:BW67" si="167">I11*I$7</f>
@@ -28288,7 +28292,7 @@
       </c>
       <c r="P67" s="107">
         <f t="shared" si="167"/>
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="Q67" s="107">
         <f t="shared" si="167"/>

--- a/BaremeJavaBaseTest2_KL16.xlsx
+++ b/BaremeJavaBaseTest2_KL16.xlsx
@@ -1456,7 +1456,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="174">
   <si>
     <t>Nom</t>
   </si>
@@ -1978,9 +1978,6 @@
   </si>
   <si>
     <t>controlerRegimeAlimentaire</t>
-  </si>
-  <si>
-    <t>init</t>
   </si>
 </sst>
 </file>
@@ -3110,7 +3107,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="214">
+  <cellXfs count="215">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3469,6 +3466,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3755,7 +3755,175 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="993">
+  <dxfs count="1017">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -10974,11 +11142,11 @@
   <dimension ref="A1:CN90"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2325" ySplit="3630" topLeftCell="H5" activePane="bottomRight"/>
+      <pane xSplit="2325" ySplit="3630" topLeftCell="H11" activePane="topRight"/>
       <selection activeCell="D4" sqref="D4"/>
-      <selection pane="topRight" activeCell="P7" sqref="P7"/>
-      <selection pane="bottomLeft" activeCell="A26" sqref="A26:XFD26"/>
-      <selection pane="bottomRight" activeCell="AH18" sqref="AH18"/>
+      <selection pane="topRight" activeCell="AK6" sqref="AK6"/>
+      <selection pane="bottomLeft" activeCell="A26" activeCellId="1" sqref="A19:XFD19 A26:XFD26"/>
+      <selection pane="bottomRight" activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -11043,97 +11211,97 @@
       <c r="D1" s="110"/>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
-      <c r="I1" s="126" t="s">
+      <c r="I1" s="127" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="126"/>
-      <c r="K1" s="126"/>
-      <c r="L1" s="126"/>
-      <c r="M1" s="126"/>
-      <c r="N1" s="126"/>
-      <c r="O1" s="126"/>
-      <c r="P1" s="126"/>
-      <c r="Q1" s="137" t="s">
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="127"/>
+      <c r="N1" s="127"/>
+      <c r="O1" s="127"/>
+      <c r="P1" s="127"/>
+      <c r="Q1" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="137"/>
-      <c r="S1" s="137"/>
-      <c r="T1" s="137"/>
-      <c r="U1" s="137"/>
-      <c r="V1" s="137"/>
-      <c r="W1" s="128" t="s">
+      <c r="R1" s="138"/>
+      <c r="S1" s="138"/>
+      <c r="T1" s="138"/>
+      <c r="U1" s="138"/>
+      <c r="V1" s="138"/>
+      <c r="W1" s="129" t="s">
         <v>103</v>
       </c>
-      <c r="X1" s="128"/>
-      <c r="Y1" s="128"/>
-      <c r="Z1" s="128"/>
-      <c r="AA1" s="128"/>
-      <c r="AB1" s="128"/>
-      <c r="AC1" s="128"/>
-      <c r="AD1" s="128"/>
-      <c r="AE1" s="128"/>
-      <c r="AF1" s="128"/>
-      <c r="AG1" s="128"/>
-      <c r="AH1" s="128"/>
-      <c r="AI1" s="128"/>
-      <c r="AJ1" s="128"/>
-      <c r="AK1" s="128"/>
-      <c r="AL1" s="128"/>
-      <c r="AM1" s="128"/>
-      <c r="AN1" s="128"/>
-      <c r="AO1" s="128"/>
-      <c r="AP1" s="128"/>
-      <c r="AQ1" s="128"/>
-      <c r="AR1" s="128"/>
-      <c r="AS1" s="128"/>
-      <c r="AT1" s="128"/>
-      <c r="AU1" s="128"/>
-      <c r="AV1" s="128"/>
-      <c r="AW1" s="128"/>
-      <c r="AX1" s="128"/>
-      <c r="AY1" s="128"/>
-      <c r="AZ1" s="128"/>
-      <c r="BA1" s="128"/>
-      <c r="BB1" s="128"/>
-      <c r="BC1" s="128"/>
-      <c r="BD1" s="128"/>
-      <c r="BE1" s="128"/>
-      <c r="BF1" s="128"/>
-      <c r="BG1" s="128"/>
-      <c r="BH1" s="128"/>
-      <c r="BI1" s="128"/>
-      <c r="BJ1" s="128"/>
-      <c r="BK1" s="128"/>
-      <c r="BL1" s="128"/>
-      <c r="BM1" s="128"/>
-      <c r="BN1" s="128"/>
-      <c r="BO1" s="128"/>
-      <c r="BP1" s="128"/>
-      <c r="BQ1" s="128"/>
-      <c r="BR1" s="128" t="s">
+      <c r="X1" s="129"/>
+      <c r="Y1" s="129"/>
+      <c r="Z1" s="129"/>
+      <c r="AA1" s="129"/>
+      <c r="AB1" s="129"/>
+      <c r="AC1" s="129"/>
+      <c r="AD1" s="129"/>
+      <c r="AE1" s="129"/>
+      <c r="AF1" s="129"/>
+      <c r="AG1" s="129"/>
+      <c r="AH1" s="129"/>
+      <c r="AI1" s="129"/>
+      <c r="AJ1" s="129"/>
+      <c r="AK1" s="129"/>
+      <c r="AL1" s="129"/>
+      <c r="AM1" s="129"/>
+      <c r="AN1" s="129"/>
+      <c r="AO1" s="129"/>
+      <c r="AP1" s="129"/>
+      <c r="AQ1" s="129"/>
+      <c r="AR1" s="129"/>
+      <c r="AS1" s="129"/>
+      <c r="AT1" s="129"/>
+      <c r="AU1" s="129"/>
+      <c r="AV1" s="129"/>
+      <c r="AW1" s="129"/>
+      <c r="AX1" s="129"/>
+      <c r="AY1" s="129"/>
+      <c r="AZ1" s="129"/>
+      <c r="BA1" s="129"/>
+      <c r="BB1" s="129"/>
+      <c r="BC1" s="129"/>
+      <c r="BD1" s="129"/>
+      <c r="BE1" s="129"/>
+      <c r="BF1" s="129"/>
+      <c r="BG1" s="129"/>
+      <c r="BH1" s="129"/>
+      <c r="BI1" s="129"/>
+      <c r="BJ1" s="129"/>
+      <c r="BK1" s="129"/>
+      <c r="BL1" s="129"/>
+      <c r="BM1" s="129"/>
+      <c r="BN1" s="129"/>
+      <c r="BO1" s="129"/>
+      <c r="BP1" s="129"/>
+      <c r="BQ1" s="129"/>
+      <c r="BR1" s="129" t="s">
         <v>102</v>
       </c>
-      <c r="BS1" s="128"/>
-      <c r="BT1" s="128"/>
-      <c r="BU1" s="128"/>
-      <c r="BV1" s="128"/>
-      <c r="BW1" s="128"/>
-      <c r="BX1" s="128" t="s">
+      <c r="BS1" s="129"/>
+      <c r="BT1" s="129"/>
+      <c r="BU1" s="129"/>
+      <c r="BV1" s="129"/>
+      <c r="BW1" s="129"/>
+      <c r="BX1" s="129" t="s">
         <v>104</v>
       </c>
-      <c r="BY1" s="128"/>
-      <c r="BZ1" s="128"/>
-      <c r="CA1" s="128"/>
-      <c r="CB1" s="128"/>
-      <c r="CC1" s="128"/>
-      <c r="CD1" s="128"/>
-      <c r="CE1" s="128"/>
-      <c r="CF1" s="128"/>
-      <c r="CG1" s="128"/>
-      <c r="CH1" s="128"/>
-      <c r="CI1" s="128"/>
-      <c r="CJ1" s="128"/>
-      <c r="CK1" s="128"/>
+      <c r="BY1" s="129"/>
+      <c r="BZ1" s="129"/>
+      <c r="CA1" s="129"/>
+      <c r="CB1" s="129"/>
+      <c r="CC1" s="129"/>
+      <c r="CD1" s="129"/>
+      <c r="CE1" s="129"/>
+      <c r="CF1" s="129"/>
+      <c r="CG1" s="129"/>
+      <c r="CH1" s="129"/>
+      <c r="CI1" s="129"/>
+      <c r="CJ1" s="129"/>
+      <c r="CK1" s="129"/>
       <c r="CL1" s="95"/>
     </row>
     <row r="2" spans="1:92" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -11145,114 +11313,112 @@
       <c r="F2" s="48"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="127"/>
-      <c r="L2" s="127"/>
-      <c r="M2" s="127"/>
-      <c r="N2" s="127"/>
-      <c r="O2" s="127"/>
-      <c r="P2" s="127"/>
-      <c r="Q2" s="126"/>
-      <c r="R2" s="126"/>
-      <c r="S2" s="126"/>
-      <c r="T2" s="126"/>
-      <c r="U2" s="126"/>
-      <c r="V2" s="126"/>
-      <c r="W2" s="131" t="s">
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="128"/>
+      <c r="M2" s="128"/>
+      <c r="N2" s="128"/>
+      <c r="O2" s="128"/>
+      <c r="P2" s="128"/>
+      <c r="Q2" s="127"/>
+      <c r="R2" s="127"/>
+      <c r="S2" s="127"/>
+      <c r="T2" s="127"/>
+      <c r="U2" s="127"/>
+      <c r="V2" s="127"/>
+      <c r="W2" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="X2" s="179"/>
-      <c r="Y2" s="133"/>
-      <c r="Z2" s="133"/>
-      <c r="AA2" s="133"/>
-      <c r="AB2" s="133"/>
-      <c r="AC2" s="133"/>
-      <c r="AD2" s="133"/>
-      <c r="AE2" s="133"/>
-      <c r="AF2" s="133"/>
-      <c r="AG2" s="133"/>
-      <c r="AH2" s="133"/>
-      <c r="AI2" s="133"/>
-      <c r="AJ2" s="133"/>
-      <c r="AK2" s="133"/>
-      <c r="AL2" s="133"/>
-      <c r="AM2" s="133"/>
-      <c r="AN2" s="133"/>
-      <c r="AO2" s="135"/>
-      <c r="AP2" s="129" t="s">
+      <c r="X2" s="180"/>
+      <c r="Y2" s="134"/>
+      <c r="Z2" s="134"/>
+      <c r="AA2" s="134"/>
+      <c r="AB2" s="134"/>
+      <c r="AC2" s="134"/>
+      <c r="AD2" s="134"/>
+      <c r="AE2" s="134"/>
+      <c r="AF2" s="134"/>
+      <c r="AG2" s="134"/>
+      <c r="AH2" s="134"/>
+      <c r="AI2" s="134"/>
+      <c r="AJ2" s="134"/>
+      <c r="AK2" s="134"/>
+      <c r="AL2" s="134"/>
+      <c r="AM2" s="134"/>
+      <c r="AN2" s="134"/>
+      <c r="AO2" s="136"/>
+      <c r="AP2" s="130" t="s">
         <v>12</v>
       </c>
-      <c r="AQ2" s="127"/>
-      <c r="AR2" s="127"/>
-      <c r="AS2" s="130"/>
-      <c r="AT2" s="168" t="s">
+      <c r="AQ2" s="128"/>
+      <c r="AR2" s="128"/>
+      <c r="AS2" s="131"/>
+      <c r="AT2" s="169" t="s">
         <v>6</v>
       </c>
-      <c r="AU2" s="127"/>
-      <c r="AV2" s="127"/>
-      <c r="AW2" s="145" t="s">
+      <c r="AU2" s="128"/>
+      <c r="AV2" s="128"/>
+      <c r="AW2" s="146" t="s">
         <v>101</v>
       </c>
-      <c r="AX2" s="126"/>
-      <c r="AY2" s="126"/>
-      <c r="AZ2" s="126"/>
-      <c r="BA2" s="126"/>
-      <c r="BB2" s="126"/>
-      <c r="BC2" s="126"/>
-      <c r="BD2" s="126"/>
-      <c r="BE2" s="126"/>
-      <c r="BF2" s="126"/>
-      <c r="BG2" s="126"/>
-      <c r="BH2" s="146"/>
-      <c r="BI2" s="145" t="s">
+      <c r="AX2" s="127"/>
+      <c r="AY2" s="127"/>
+      <c r="AZ2" s="127"/>
+      <c r="BA2" s="127"/>
+      <c r="BB2" s="127"/>
+      <c r="BC2" s="127"/>
+      <c r="BD2" s="127"/>
+      <c r="BE2" s="127"/>
+      <c r="BF2" s="127"/>
+      <c r="BG2" s="127"/>
+      <c r="BH2" s="147"/>
+      <c r="BI2" s="146" t="s">
         <v>105</v>
       </c>
-      <c r="BJ2" s="126"/>
-      <c r="BK2" s="126"/>
-      <c r="BL2" s="126"/>
-      <c r="BM2" s="126"/>
-      <c r="BN2" s="126"/>
-      <c r="BO2" s="126"/>
-      <c r="BP2" s="126"/>
-      <c r="BQ2" s="146"/>
-      <c r="BR2" s="131" t="s">
+      <c r="BJ2" s="127"/>
+      <c r="BK2" s="127"/>
+      <c r="BL2" s="127"/>
+      <c r="BM2" s="127"/>
+      <c r="BN2" s="127"/>
+      <c r="BO2" s="127"/>
+      <c r="BP2" s="127"/>
+      <c r="BQ2" s="147"/>
+      <c r="BR2" s="132" t="s">
         <v>106</v>
       </c>
-      <c r="BS2" s="133" t="s">
+      <c r="BS2" s="134" t="s">
         <v>107</v>
       </c>
-      <c r="BT2" s="133"/>
-      <c r="BU2" s="133" t="s">
+      <c r="BT2" s="134"/>
+      <c r="BU2" s="134" t="s">
         <v>108</v>
       </c>
-      <c r="BV2" s="133" t="s">
+      <c r="BV2" s="134" t="s">
         <v>109</v>
       </c>
-      <c r="BW2" s="135"/>
-      <c r="BX2" s="145" t="s">
+      <c r="BW2" s="136"/>
+      <c r="BX2" s="146" t="s">
         <v>110</v>
       </c>
-      <c r="BY2" s="126"/>
-      <c r="BZ2" s="126"/>
-      <c r="CA2" s="126"/>
-      <c r="CB2" s="126"/>
-      <c r="CC2" s="126"/>
-      <c r="CD2" s="126"/>
-      <c r="CE2" s="126"/>
-      <c r="CF2" s="126"/>
-      <c r="CG2" s="126"/>
-      <c r="CH2" s="126"/>
-      <c r="CI2" s="126"/>
-      <c r="CJ2" s="126"/>
-      <c r="CK2" s="146"/>
-      <c r="CL2" s="166" t="s">
+      <c r="BY2" s="127"/>
+      <c r="BZ2" s="127"/>
+      <c r="CA2" s="127"/>
+      <c r="CB2" s="127"/>
+      <c r="CC2" s="127"/>
+      <c r="CD2" s="127"/>
+      <c r="CE2" s="127"/>
+      <c r="CF2" s="127"/>
+      <c r="CG2" s="127"/>
+      <c r="CH2" s="127"/>
+      <c r="CI2" s="127"/>
+      <c r="CJ2" s="127"/>
+      <c r="CK2" s="147"/>
+      <c r="CL2" s="167" t="s">
         <v>13</v>
       </c>
-      <c r="CM2" s="165" t="s">
-        <v>174</v>
-      </c>
-      <c r="CN2" s="165"/>
+      <c r="CM2" s="166"/>
+      <c r="CN2" s="166"/>
     </row>
     <row r="3" spans="1:92" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
@@ -11263,130 +11429,130 @@
       <c r="F3" s="48"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="175" t="s">
+      <c r="I3" s="176" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="157" t="s">
+      <c r="J3" s="158" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="157" t="s">
+      <c r="K3" s="158" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="175" t="s">
+      <c r="L3" s="176" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="175" t="s">
+      <c r="M3" s="176" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="157" t="s">
+      <c r="N3" s="158" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="172" t="s">
+      <c r="O3" s="173" t="s">
         <v>72</v>
       </c>
-      <c r="P3" s="157" t="s">
+      <c r="P3" s="158" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="126"/>
-      <c r="R3" s="126"/>
-      <c r="S3" s="126"/>
-      <c r="T3" s="126"/>
-      <c r="U3" s="126"/>
-      <c r="V3" s="126"/>
-      <c r="W3" s="164" t="s">
+      <c r="Q3" s="127"/>
+      <c r="R3" s="127"/>
+      <c r="S3" s="127"/>
+      <c r="T3" s="127"/>
+      <c r="U3" s="127"/>
+      <c r="V3" s="127"/>
+      <c r="W3" s="165" t="s">
         <v>92</v>
       </c>
-      <c r="X3" s="139"/>
-      <c r="Y3" s="139"/>
-      <c r="Z3" s="139"/>
-      <c r="AA3" s="139"/>
-      <c r="AB3" s="169" t="s">
+      <c r="X3" s="140"/>
+      <c r="Y3" s="140"/>
+      <c r="Z3" s="140"/>
+      <c r="AA3" s="140"/>
+      <c r="AB3" s="170" t="s">
         <v>112</v>
       </c>
-      <c r="AC3" s="152"/>
-      <c r="AD3" s="148"/>
-      <c r="AE3" s="148"/>
-      <c r="AF3" s="148"/>
-      <c r="AG3" s="148"/>
-      <c r="AH3" s="148"/>
-      <c r="AI3" s="148"/>
-      <c r="AJ3" s="182" t="s">
+      <c r="AC3" s="153"/>
+      <c r="AD3" s="149"/>
+      <c r="AE3" s="149"/>
+      <c r="AF3" s="149"/>
+      <c r="AG3" s="149"/>
+      <c r="AH3" s="149"/>
+      <c r="AI3" s="149"/>
+      <c r="AJ3" s="183" t="s">
         <v>113</v>
       </c>
-      <c r="AK3" s="139"/>
-      <c r="AL3" s="139"/>
-      <c r="AM3" s="139"/>
-      <c r="AN3" s="139"/>
-      <c r="AO3" s="140"/>
-      <c r="AP3" s="164" t="s">
+      <c r="AK3" s="140"/>
+      <c r="AL3" s="140"/>
+      <c r="AM3" s="140"/>
+      <c r="AN3" s="140"/>
+      <c r="AO3" s="141"/>
+      <c r="AP3" s="165" t="s">
         <v>5</v>
       </c>
-      <c r="AQ3" s="139"/>
-      <c r="AR3" s="139"/>
-      <c r="AS3" s="169" t="s">
+      <c r="AQ3" s="140"/>
+      <c r="AR3" s="140"/>
+      <c r="AS3" s="170" t="s">
         <v>22</v>
       </c>
-      <c r="AT3" s="157" t="s">
+      <c r="AT3" s="158" t="s">
         <v>7</v>
       </c>
-      <c r="AU3" s="137"/>
-      <c r="AV3" s="137"/>
-      <c r="AW3" s="153" t="s">
+      <c r="AU3" s="138"/>
+      <c r="AV3" s="138"/>
+      <c r="AW3" s="154" t="s">
         <v>133</v>
       </c>
-      <c r="AX3" s="155" t="s">
+      <c r="AX3" s="156" t="s">
         <v>8</v>
       </c>
-      <c r="AY3" s="138" t="s">
+      <c r="AY3" s="139" t="s">
         <v>121</v>
       </c>
-      <c r="AZ3" s="139"/>
-      <c r="BA3" s="139"/>
-      <c r="BB3" s="139"/>
-      <c r="BC3" s="152"/>
-      <c r="BD3" s="138" t="s">
+      <c r="AZ3" s="140"/>
+      <c r="BA3" s="140"/>
+      <c r="BB3" s="140"/>
+      <c r="BC3" s="153"/>
+      <c r="BD3" s="139" t="s">
         <v>123</v>
       </c>
-      <c r="BE3" s="139"/>
-      <c r="BF3" s="139"/>
-      <c r="BG3" s="139"/>
-      <c r="BH3" s="140"/>
-      <c r="BI3" s="147" t="s">
+      <c r="BE3" s="140"/>
+      <c r="BF3" s="140"/>
+      <c r="BG3" s="140"/>
+      <c r="BH3" s="141"/>
+      <c r="BI3" s="148" t="s">
         <v>71</v>
       </c>
-      <c r="BJ3" s="148"/>
-      <c r="BK3" s="148"/>
-      <c r="BL3" s="148"/>
-      <c r="BM3" s="148"/>
-      <c r="BN3" s="148"/>
-      <c r="BO3" s="148"/>
-      <c r="BP3" s="138"/>
-      <c r="BQ3" s="149"/>
-      <c r="BR3" s="132"/>
-      <c r="BS3" s="134"/>
-      <c r="BT3" s="134"/>
-      <c r="BU3" s="134"/>
-      <c r="BV3" s="134"/>
-      <c r="BW3" s="136"/>
-      <c r="BX3" s="147" t="s">
+      <c r="BJ3" s="149"/>
+      <c r="BK3" s="149"/>
+      <c r="BL3" s="149"/>
+      <c r="BM3" s="149"/>
+      <c r="BN3" s="149"/>
+      <c r="BO3" s="149"/>
+      <c r="BP3" s="139"/>
+      <c r="BQ3" s="150"/>
+      <c r="BR3" s="133"/>
+      <c r="BS3" s="135"/>
+      <c r="BT3" s="135"/>
+      <c r="BU3" s="135"/>
+      <c r="BV3" s="135"/>
+      <c r="BW3" s="137"/>
+      <c r="BX3" s="148" t="s">
         <v>111</v>
       </c>
-      <c r="BY3" s="148"/>
-      <c r="BZ3" s="148"/>
-      <c r="CA3" s="148"/>
-      <c r="CB3" s="148"/>
-      <c r="CC3" s="148"/>
-      <c r="CD3" s="148"/>
-      <c r="CE3" s="148"/>
-      <c r="CF3" s="148"/>
-      <c r="CG3" s="148"/>
-      <c r="CH3" s="148"/>
-      <c r="CI3" s="148"/>
-      <c r="CJ3" s="148"/>
-      <c r="CK3" s="149"/>
-      <c r="CL3" s="145"/>
-      <c r="CM3" s="165"/>
-      <c r="CN3" s="165"/>
+      <c r="BY3" s="149"/>
+      <c r="BZ3" s="149"/>
+      <c r="CA3" s="149"/>
+      <c r="CB3" s="149"/>
+      <c r="CC3" s="149"/>
+      <c r="CD3" s="149"/>
+      <c r="CE3" s="149"/>
+      <c r="CF3" s="149"/>
+      <c r="CG3" s="149"/>
+      <c r="CH3" s="149"/>
+      <c r="CI3" s="149"/>
+      <c r="CJ3" s="149"/>
+      <c r="CK3" s="150"/>
+      <c r="CL3" s="146"/>
+      <c r="CM3" s="166"/>
+      <c r="CN3" s="166"/>
     </row>
     <row r="4" spans="1:92" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -11400,7 +11566,7 @@
       </c>
       <c r="D4" s="113" t="str">
         <f>CONCATENATE("Note/20 ( sur ",H6,")")</f>
-        <v>Note/20 ( sur 194)</v>
+        <v>Note/20 ( sur 222)</v>
       </c>
       <c r="E4" s="14" t="str">
         <f>CONCATENATE("Note/20 ( sur ",H7,")")</f>
@@ -11413,17 +11579,17 @@
       </c>
       <c r="H4" s="5" t="str">
         <f>CONCATENATE("Note/",H6)</f>
-        <v>Note/194</v>
-      </c>
-      <c r="I4" s="176"/>
-      <c r="J4" s="156"/>
-      <c r="K4" s="156"/>
-      <c r="L4" s="176"/>
-      <c r="M4" s="176"/>
-      <c r="N4" s="156"/>
-      <c r="O4" s="173"/>
-      <c r="P4" s="156"/>
-      <c r="Q4" s="158" t="s">
+        <v>Note/222</v>
+      </c>
+      <c r="I4" s="177"/>
+      <c r="J4" s="157"/>
+      <c r="K4" s="157"/>
+      <c r="L4" s="177"/>
+      <c r="M4" s="177"/>
+      <c r="N4" s="157"/>
+      <c r="O4" s="174"/>
+      <c r="P4" s="157"/>
+      <c r="Q4" s="159" t="s">
         <v>138</v>
       </c>
       <c r="R4" s="67" t="s">
@@ -11441,196 +11607,196 @@
       <c r="V4" s="64" t="s">
         <v>91</v>
       </c>
-      <c r="W4" s="180" t="s">
+      <c r="W4" s="181" t="s">
         <v>52</v>
       </c>
-      <c r="X4" s="162" t="s">
+      <c r="X4" s="163" t="s">
         <v>10</v>
       </c>
-      <c r="Y4" s="141" t="s">
+      <c r="Y4" s="142" t="s">
         <v>11</v>
       </c>
-      <c r="Z4" s="122" t="s">
+      <c r="Z4" s="123" t="s">
         <v>70</v>
       </c>
-      <c r="AA4" s="141" t="s">
+      <c r="AA4" s="142" t="s">
         <v>73</v>
       </c>
-      <c r="AB4" s="160" t="s">
+      <c r="AB4" s="161" t="s">
         <v>52</v>
       </c>
-      <c r="AC4" s="162" t="s">
+      <c r="AC4" s="163" t="s">
         <v>10</v>
       </c>
-      <c r="AD4" s="162" t="s">
+      <c r="AD4" s="163" t="s">
         <v>11</v>
       </c>
-      <c r="AE4" s="122" t="s">
+      <c r="AE4" s="123" t="s">
         <v>171</v>
       </c>
-      <c r="AF4" s="122" t="s">
+      <c r="AF4" s="123" t="s">
         <v>172</v>
       </c>
-      <c r="AG4" s="122" t="s">
+      <c r="AG4" s="123" t="s">
         <v>173</v>
       </c>
-      <c r="AH4" s="122" t="s">
+      <c r="AH4" s="123" t="s">
         <v>70</v>
       </c>
-      <c r="AI4" s="141" t="s">
+      <c r="AI4" s="142" t="s">
         <v>73</v>
       </c>
-      <c r="AJ4" s="160" t="s">
+      <c r="AJ4" s="161" t="s">
         <v>52</v>
       </c>
-      <c r="AK4" s="162" t="s">
+      <c r="AK4" s="163" t="s">
         <v>10</v>
       </c>
-      <c r="AL4" s="162" t="s">
+      <c r="AL4" s="163" t="s">
         <v>11</v>
       </c>
-      <c r="AM4" s="122" t="s">
+      <c r="AM4" s="123" t="s">
         <v>172</v>
       </c>
-      <c r="AN4" s="122" t="s">
+      <c r="AN4" s="123" t="s">
         <v>70</v>
       </c>
-      <c r="AO4" s="150" t="s">
+      <c r="AO4" s="151" t="s">
         <v>73</v>
       </c>
-      <c r="AP4" s="143" t="s">
+      <c r="AP4" s="144" t="s">
         <v>114</v>
       </c>
-      <c r="AQ4" s="124" t="s">
+      <c r="AQ4" s="125" t="s">
         <v>115</v>
       </c>
-      <c r="AR4" s="125"/>
-      <c r="AS4" s="170"/>
-      <c r="AT4" s="156"/>
-      <c r="AU4" s="126"/>
-      <c r="AV4" s="126"/>
-      <c r="AW4" s="131"/>
-      <c r="AX4" s="133"/>
-      <c r="AY4" s="141" t="s">
+      <c r="AR4" s="126"/>
+      <c r="AS4" s="171"/>
+      <c r="AT4" s="157"/>
+      <c r="AU4" s="127"/>
+      <c r="AV4" s="127"/>
+      <c r="AW4" s="132"/>
+      <c r="AX4" s="134"/>
+      <c r="AY4" s="142" t="s">
         <v>96</v>
       </c>
-      <c r="AZ4" s="141" t="s">
+      <c r="AZ4" s="142" t="s">
         <v>119</v>
       </c>
-      <c r="BA4" s="141" t="s">
+      <c r="BA4" s="142" t="s">
         <v>122</v>
       </c>
-      <c r="BB4" s="141" t="s">
+      <c r="BB4" s="142" t="s">
         <v>124</v>
       </c>
-      <c r="BC4" s="141" t="s">
+      <c r="BC4" s="142" t="s">
         <v>120</v>
       </c>
-      <c r="BD4" s="141" t="s">
+      <c r="BD4" s="142" t="s">
         <v>96</v>
       </c>
-      <c r="BE4" s="141" t="s">
+      <c r="BE4" s="142" t="s">
         <v>119</v>
       </c>
-      <c r="BF4" s="141" t="s">
+      <c r="BF4" s="142" t="s">
         <v>122</v>
       </c>
-      <c r="BG4" s="141" t="s">
+      <c r="BG4" s="142" t="s">
         <v>124</v>
       </c>
-      <c r="BH4" s="141" t="s">
+      <c r="BH4" s="142" t="s">
         <v>120</v>
       </c>
-      <c r="BI4" s="143" t="s">
+      <c r="BI4" s="144" t="s">
         <v>125</v>
       </c>
-      <c r="BJ4" s="141" t="s">
+      <c r="BJ4" s="142" t="s">
         <v>132</v>
       </c>
-      <c r="BK4" s="141" t="s">
+      <c r="BK4" s="142" t="s">
         <v>126</v>
       </c>
-      <c r="BL4" s="141" t="s">
+      <c r="BL4" s="142" t="s">
         <v>127</v>
       </c>
-      <c r="BM4" s="141" t="s">
+      <c r="BM4" s="142" t="s">
         <v>128</v>
       </c>
-      <c r="BN4" s="141" t="s">
+      <c r="BN4" s="142" t="s">
         <v>129</v>
       </c>
-      <c r="BO4" s="141" t="s">
+      <c r="BO4" s="142" t="s">
         <v>130</v>
       </c>
-      <c r="BP4" s="141" t="s">
+      <c r="BP4" s="142" t="s">
         <v>116</v>
       </c>
-      <c r="BQ4" s="150" t="s">
+      <c r="BQ4" s="151" t="s">
         <v>131</v>
       </c>
-      <c r="BR4" s="143" t="s">
+      <c r="BR4" s="144" t="s">
         <v>96</v>
       </c>
-      <c r="BS4" s="141" t="s">
+      <c r="BS4" s="142" t="s">
         <v>97</v>
       </c>
-      <c r="BT4" s="141" t="s">
+      <c r="BT4" s="142" t="s">
         <v>98</v>
       </c>
-      <c r="BU4" s="141" t="s">
+      <c r="BU4" s="142" t="s">
         <v>94</v>
       </c>
-      <c r="BV4" s="141" t="s">
-        <v>99</v>
-      </c>
-      <c r="BW4" s="141" t="s">
+      <c r="BV4" s="142" t="s">
+        <v>99</v>
+      </c>
+      <c r="BW4" s="142" t="s">
         <v>95</v>
       </c>
-      <c r="BX4" s="143" t="s">
+      <c r="BX4" s="144" t="s">
         <v>139</v>
       </c>
-      <c r="BY4" s="141" t="s">
+      <c r="BY4" s="142" t="s">
         <v>140</v>
       </c>
-      <c r="BZ4" s="141" t="s">
+      <c r="BZ4" s="142" t="s">
         <v>141</v>
       </c>
-      <c r="CA4" s="141" t="s">
+      <c r="CA4" s="142" t="s">
         <v>142</v>
       </c>
-      <c r="CB4" s="141" t="s">
+      <c r="CB4" s="142" t="s">
         <v>143</v>
       </c>
-      <c r="CC4" s="141" t="s">
+      <c r="CC4" s="142" t="s">
         <v>144</v>
       </c>
-      <c r="CD4" s="141" t="s">
+      <c r="CD4" s="142" t="s">
         <v>145</v>
       </c>
-      <c r="CE4" s="141" t="s">
+      <c r="CE4" s="142" t="s">
         <v>135</v>
       </c>
-      <c r="CF4" s="141" t="s">
+      <c r="CF4" s="142" t="s">
         <v>134</v>
       </c>
-      <c r="CG4" s="141" t="s">
+      <c r="CG4" s="142" t="s">
         <v>146</v>
       </c>
-      <c r="CH4" s="141" t="s">
+      <c r="CH4" s="142" t="s">
         <v>147</v>
       </c>
-      <c r="CI4" s="141" t="s">
+      <c r="CI4" s="142" t="s">
         <v>148</v>
       </c>
-      <c r="CJ4" s="141" t="s">
+      <c r="CJ4" s="142" t="s">
         <v>149</v>
       </c>
-      <c r="CK4" s="150" t="s">
+      <c r="CK4" s="151" t="s">
         <v>150</v>
       </c>
-      <c r="CL4" s="145"/>
-      <c r="CM4" s="165"/>
-      <c r="CN4" s="165"/>
+      <c r="CL4" s="146"/>
+      <c r="CM4" s="166"/>
+      <c r="CN4" s="166"/>
     </row>
     <row r="5" spans="1:92" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
@@ -11641,15 +11807,15 @@
       <c r="F5" s="14"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
-      <c r="I5" s="177"/>
-      <c r="J5" s="178"/>
-      <c r="K5" s="178"/>
-      <c r="L5" s="177"/>
-      <c r="M5" s="177"/>
-      <c r="N5" s="178"/>
-      <c r="O5" s="174"/>
-      <c r="P5" s="168"/>
-      <c r="Q5" s="159"/>
+      <c r="I5" s="178"/>
+      <c r="J5" s="179"/>
+      <c r="K5" s="179"/>
+      <c r="L5" s="178"/>
+      <c r="M5" s="178"/>
+      <c r="N5" s="179"/>
+      <c r="O5" s="175"/>
+      <c r="P5" s="169"/>
+      <c r="Q5" s="160"/>
       <c r="R5" s="78" t="s">
         <v>134</v>
       </c>
@@ -11665,33 +11831,33 @@
       <c r="V5" s="77" t="s">
         <v>137</v>
       </c>
-      <c r="W5" s="181"/>
-      <c r="X5" s="163"/>
-      <c r="Y5" s="142"/>
-      <c r="Z5" s="123"/>
-      <c r="AA5" s="142"/>
-      <c r="AB5" s="161"/>
-      <c r="AC5" s="163"/>
-      <c r="AD5" s="163"/>
-      <c r="AE5" s="123"/>
-      <c r="AF5" s="123"/>
-      <c r="AG5" s="123"/>
-      <c r="AH5" s="123"/>
-      <c r="AI5" s="142"/>
-      <c r="AJ5" s="161"/>
-      <c r="AK5" s="163"/>
-      <c r="AL5" s="163"/>
-      <c r="AM5" s="123"/>
-      <c r="AN5" s="123"/>
-      <c r="AO5" s="151"/>
-      <c r="AP5" s="144"/>
+      <c r="W5" s="182"/>
+      <c r="X5" s="164"/>
+      <c r="Y5" s="143"/>
+      <c r="Z5" s="124"/>
+      <c r="AA5" s="143"/>
+      <c r="AB5" s="162"/>
+      <c r="AC5" s="164"/>
+      <c r="AD5" s="164"/>
+      <c r="AE5" s="124"/>
+      <c r="AF5" s="124"/>
+      <c r="AG5" s="124"/>
+      <c r="AH5" s="124"/>
+      <c r="AI5" s="143"/>
+      <c r="AJ5" s="162"/>
+      <c r="AK5" s="164"/>
+      <c r="AL5" s="164"/>
+      <c r="AM5" s="124"/>
+      <c r="AN5" s="124"/>
+      <c r="AO5" s="152"/>
+      <c r="AP5" s="145"/>
       <c r="AQ5" s="79" t="s">
         <v>93</v>
       </c>
       <c r="AR5" s="79" t="s">
         <v>116</v>
       </c>
-      <c r="AS5" s="171"/>
+      <c r="AS5" s="172"/>
       <c r="AT5" s="86" t="s">
         <v>100</v>
       </c>
@@ -11701,50 +11867,50 @@
       <c r="AV5" s="87" t="s">
         <v>118</v>
       </c>
-      <c r="AW5" s="154"/>
-      <c r="AX5" s="123"/>
-      <c r="AY5" s="142"/>
-      <c r="AZ5" s="142"/>
-      <c r="BA5" s="142"/>
-      <c r="BB5" s="142"/>
-      <c r="BC5" s="142"/>
-      <c r="BD5" s="142"/>
-      <c r="BE5" s="142"/>
-      <c r="BF5" s="142"/>
-      <c r="BG5" s="142"/>
-      <c r="BH5" s="142"/>
-      <c r="BI5" s="144"/>
-      <c r="BJ5" s="142"/>
-      <c r="BK5" s="142"/>
-      <c r="BL5" s="142"/>
-      <c r="BM5" s="142"/>
-      <c r="BN5" s="142"/>
-      <c r="BO5" s="142"/>
-      <c r="BP5" s="142"/>
-      <c r="BQ5" s="151"/>
-      <c r="BR5" s="144"/>
-      <c r="BS5" s="142"/>
-      <c r="BT5" s="142"/>
-      <c r="BU5" s="142"/>
-      <c r="BV5" s="142"/>
-      <c r="BW5" s="142"/>
-      <c r="BX5" s="144"/>
-      <c r="BY5" s="142"/>
-      <c r="BZ5" s="142"/>
-      <c r="CA5" s="142"/>
-      <c r="CB5" s="142"/>
-      <c r="CC5" s="142"/>
-      <c r="CD5" s="142"/>
-      <c r="CE5" s="142"/>
-      <c r="CF5" s="142"/>
-      <c r="CG5" s="142"/>
-      <c r="CH5" s="142"/>
-      <c r="CI5" s="142"/>
-      <c r="CJ5" s="142"/>
-      <c r="CK5" s="151"/>
-      <c r="CL5" s="167"/>
-      <c r="CM5" s="165"/>
-      <c r="CN5" s="165"/>
+      <c r="AW5" s="155"/>
+      <c r="AX5" s="124"/>
+      <c r="AY5" s="143"/>
+      <c r="AZ5" s="143"/>
+      <c r="BA5" s="143"/>
+      <c r="BB5" s="143"/>
+      <c r="BC5" s="143"/>
+      <c r="BD5" s="143"/>
+      <c r="BE5" s="143"/>
+      <c r="BF5" s="143"/>
+      <c r="BG5" s="143"/>
+      <c r="BH5" s="143"/>
+      <c r="BI5" s="145"/>
+      <c r="BJ5" s="143"/>
+      <c r="BK5" s="143"/>
+      <c r="BL5" s="143"/>
+      <c r="BM5" s="143"/>
+      <c r="BN5" s="143"/>
+      <c r="BO5" s="143"/>
+      <c r="BP5" s="143"/>
+      <c r="BQ5" s="152"/>
+      <c r="BR5" s="145"/>
+      <c r="BS5" s="143"/>
+      <c r="BT5" s="143"/>
+      <c r="BU5" s="143"/>
+      <c r="BV5" s="143"/>
+      <c r="BW5" s="143"/>
+      <c r="BX5" s="145"/>
+      <c r="BY5" s="143"/>
+      <c r="BZ5" s="143"/>
+      <c r="CA5" s="143"/>
+      <c r="CB5" s="143"/>
+      <c r="CC5" s="143"/>
+      <c r="CD5" s="143"/>
+      <c r="CE5" s="143"/>
+      <c r="CF5" s="143"/>
+      <c r="CG5" s="143"/>
+      <c r="CH5" s="143"/>
+      <c r="CI5" s="143"/>
+      <c r="CJ5" s="143"/>
+      <c r="CK5" s="152"/>
+      <c r="CL5" s="168"/>
+      <c r="CM5" s="166"/>
+      <c r="CN5" s="166"/>
     </row>
     <row r="6" spans="1:92" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -11756,7 +11922,7 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5">
         <f>SUM(I6:CL6)</f>
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="I6" s="49">
         <v>2</v>
@@ -11774,13 +11940,13 @@
         <v>0</v>
       </c>
       <c r="N6" s="46">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="O6" s="42">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="P6" s="12">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Q6" s="68">
         <v>1</v>
@@ -11828,7 +11994,7 @@
         <v>4</v>
       </c>
       <c r="AF6" s="104">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG6" s="102">
         <v>3</v>
@@ -11843,13 +12009,13 @@
         <v>1</v>
       </c>
       <c r="AK6" s="80">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AL6" s="63">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AM6" s="102">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN6" s="63">
         <v>1</v>
@@ -11882,7 +12048,7 @@
         <v>0</v>
       </c>
       <c r="AX6" s="12">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AY6" s="12">
         <v>2</v>
@@ -12023,28 +12189,28 @@
         <f>SUM(I7:CL7)</f>
         <v>57</v>
       </c>
-      <c r="I7" s="206">
-        <v>1</v>
-      </c>
-      <c r="J7" s="206">
-        <v>0</v>
-      </c>
-      <c r="K7" s="206">
-        <v>0</v>
-      </c>
-      <c r="L7" s="207">
-        <v>1</v>
-      </c>
-      <c r="M7" s="207">
-        <v>0</v>
-      </c>
-      <c r="N7" s="207">
-        <v>1</v>
-      </c>
-      <c r="O7" s="208">
-        <v>1</v>
-      </c>
-      <c r="P7" s="207">
+      <c r="I7" s="207">
+        <v>1</v>
+      </c>
+      <c r="J7" s="207">
+        <v>0</v>
+      </c>
+      <c r="K7" s="207">
+        <v>0</v>
+      </c>
+      <c r="L7" s="208">
+        <v>1</v>
+      </c>
+      <c r="M7" s="208">
+        <v>0</v>
+      </c>
+      <c r="N7" s="208">
+        <v>1</v>
+      </c>
+      <c r="O7" s="209">
+        <v>1</v>
+      </c>
+      <c r="P7" s="208">
         <v>1</v>
       </c>
       <c r="Q7" s="59">
@@ -12065,208 +12231,208 @@
       <c r="V7" s="59">
         <v>1</v>
       </c>
-      <c r="W7" s="207">
-        <v>0</v>
-      </c>
-      <c r="X7" s="209">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="210">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="210">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="210">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="207">
-        <v>1</v>
-      </c>
-      <c r="AC7" s="209">
-        <v>1</v>
-      </c>
-      <c r="AD7" s="210">
-        <v>1</v>
-      </c>
-      <c r="AE7" s="210">
-        <v>1</v>
-      </c>
-      <c r="AF7" s="210">
-        <v>1</v>
-      </c>
-      <c r="AG7" s="210">
-        <v>1</v>
-      </c>
-      <c r="AH7" s="210">
-        <v>1</v>
-      </c>
-      <c r="AI7" s="210">
-        <v>1</v>
-      </c>
-      <c r="AJ7" s="207">
-        <v>1</v>
-      </c>
-      <c r="AK7" s="209">
-        <v>1</v>
-      </c>
-      <c r="AL7" s="210">
-        <v>1</v>
-      </c>
-      <c r="AM7" s="210">
-        <v>1</v>
-      </c>
-      <c r="AN7" s="210">
-        <v>1</v>
-      </c>
-      <c r="AO7" s="211">
-        <v>1</v>
-      </c>
-      <c r="AP7" s="207">
-        <v>0</v>
-      </c>
-      <c r="AQ7" s="207">
-        <v>1</v>
-      </c>
-      <c r="AR7" s="207">
-        <v>0</v>
-      </c>
-      <c r="AS7" s="207">
-        <v>0</v>
-      </c>
-      <c r="AT7" s="207">
-        <v>1</v>
-      </c>
-      <c r="AU7" s="207">
-        <v>1</v>
-      </c>
-      <c r="AV7" s="207">
-        <v>1</v>
-      </c>
-      <c r="AW7" s="207">
-        <v>0</v>
-      </c>
-      <c r="AX7" s="207">
-        <v>1</v>
-      </c>
-      <c r="AY7" s="207">
-        <v>1</v>
-      </c>
-      <c r="AZ7" s="207">
-        <v>0</v>
-      </c>
-      <c r="BA7" s="207">
-        <v>0</v>
-      </c>
-      <c r="BB7" s="207">
-        <v>0</v>
-      </c>
-      <c r="BC7" s="207">
-        <v>1</v>
-      </c>
-      <c r="BD7" s="207">
-        <v>1</v>
-      </c>
-      <c r="BE7" s="207">
-        <v>0</v>
-      </c>
-      <c r="BF7" s="207">
-        <v>0</v>
-      </c>
-      <c r="BG7" s="207">
-        <v>0</v>
-      </c>
-      <c r="BH7" s="207">
-        <v>1</v>
-      </c>
-      <c r="BI7" s="207">
-        <v>1</v>
-      </c>
-      <c r="BJ7" s="207">
-        <v>1</v>
-      </c>
-      <c r="BK7" s="207">
-        <v>1</v>
-      </c>
-      <c r="BL7" s="207">
-        <v>1</v>
-      </c>
-      <c r="BM7" s="207">
-        <v>1</v>
-      </c>
-      <c r="BN7" s="207">
-        <v>1</v>
-      </c>
-      <c r="BO7" s="207">
-        <v>1</v>
-      </c>
-      <c r="BP7" s="207">
-        <v>0</v>
-      </c>
-      <c r="BQ7" s="207">
-        <v>1</v>
-      </c>
-      <c r="BR7" s="207">
-        <v>0</v>
-      </c>
-      <c r="BS7" s="207">
-        <v>0</v>
-      </c>
-      <c r="BT7" s="207">
-        <v>0</v>
-      </c>
-      <c r="BU7" s="207">
-        <v>0</v>
-      </c>
-      <c r="BV7" s="207">
-        <v>0</v>
-      </c>
-      <c r="BW7" s="207">
-        <v>0</v>
-      </c>
-      <c r="BX7" s="207">
-        <v>1</v>
-      </c>
-      <c r="BY7" s="207">
-        <v>1</v>
-      </c>
-      <c r="BZ7" s="207">
-        <v>1</v>
-      </c>
-      <c r="CA7" s="207">
-        <v>1</v>
-      </c>
-      <c r="CB7" s="207">
-        <v>1</v>
-      </c>
-      <c r="CC7" s="207">
-        <v>1</v>
-      </c>
-      <c r="CD7" s="207">
-        <v>1</v>
-      </c>
-      <c r="CE7" s="207">
-        <v>1</v>
-      </c>
-      <c r="CF7" s="207">
-        <v>1</v>
-      </c>
-      <c r="CG7" s="207">
-        <v>1</v>
-      </c>
-      <c r="CH7" s="207">
-        <v>1</v>
-      </c>
-      <c r="CI7" s="207">
-        <v>1</v>
-      </c>
-      <c r="CJ7" s="207">
-        <v>1</v>
-      </c>
-      <c r="CK7" s="207">
-        <v>1</v>
-      </c>
-      <c r="CL7" s="207">
+      <c r="W7" s="208">
+        <v>0</v>
+      </c>
+      <c r="X7" s="210">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="211">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="211">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="211">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="208">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="210">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="211">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="211">
+        <v>1</v>
+      </c>
+      <c r="AF7" s="211">
+        <v>1</v>
+      </c>
+      <c r="AG7" s="211">
+        <v>1</v>
+      </c>
+      <c r="AH7" s="211">
+        <v>1</v>
+      </c>
+      <c r="AI7" s="211">
+        <v>1</v>
+      </c>
+      <c r="AJ7" s="208">
+        <v>1</v>
+      </c>
+      <c r="AK7" s="210">
+        <v>1</v>
+      </c>
+      <c r="AL7" s="211">
+        <v>1</v>
+      </c>
+      <c r="AM7" s="211">
+        <v>1</v>
+      </c>
+      <c r="AN7" s="211">
+        <v>1</v>
+      </c>
+      <c r="AO7" s="212">
+        <v>1</v>
+      </c>
+      <c r="AP7" s="208">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="208">
+        <v>1</v>
+      </c>
+      <c r="AR7" s="208">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="208">
+        <v>0</v>
+      </c>
+      <c r="AT7" s="208">
+        <v>1</v>
+      </c>
+      <c r="AU7" s="208">
+        <v>1</v>
+      </c>
+      <c r="AV7" s="208">
+        <v>1</v>
+      </c>
+      <c r="AW7" s="208">
+        <v>0</v>
+      </c>
+      <c r="AX7" s="208">
+        <v>1</v>
+      </c>
+      <c r="AY7" s="208">
+        <v>1</v>
+      </c>
+      <c r="AZ7" s="208">
+        <v>0</v>
+      </c>
+      <c r="BA7" s="208">
+        <v>0</v>
+      </c>
+      <c r="BB7" s="208">
+        <v>0</v>
+      </c>
+      <c r="BC7" s="208">
+        <v>1</v>
+      </c>
+      <c r="BD7" s="208">
+        <v>1</v>
+      </c>
+      <c r="BE7" s="208">
+        <v>0</v>
+      </c>
+      <c r="BF7" s="208">
+        <v>0</v>
+      </c>
+      <c r="BG7" s="208">
+        <v>0</v>
+      </c>
+      <c r="BH7" s="208">
+        <v>1</v>
+      </c>
+      <c r="BI7" s="208">
+        <v>1</v>
+      </c>
+      <c r="BJ7" s="208">
+        <v>1</v>
+      </c>
+      <c r="BK7" s="208">
+        <v>1</v>
+      </c>
+      <c r="BL7" s="208">
+        <v>1</v>
+      </c>
+      <c r="BM7" s="208">
+        <v>1</v>
+      </c>
+      <c r="BN7" s="208">
+        <v>1</v>
+      </c>
+      <c r="BO7" s="208">
+        <v>1</v>
+      </c>
+      <c r="BP7" s="208">
+        <v>0</v>
+      </c>
+      <c r="BQ7" s="208">
+        <v>1</v>
+      </c>
+      <c r="BR7" s="208">
+        <v>0</v>
+      </c>
+      <c r="BS7" s="208">
+        <v>0</v>
+      </c>
+      <c r="BT7" s="208">
+        <v>0</v>
+      </c>
+      <c r="BU7" s="208">
+        <v>0</v>
+      </c>
+      <c r="BV7" s="208">
+        <v>0</v>
+      </c>
+      <c r="BW7" s="208">
+        <v>0</v>
+      </c>
+      <c r="BX7" s="208">
+        <v>1</v>
+      </c>
+      <c r="BY7" s="208">
+        <v>1</v>
+      </c>
+      <c r="BZ7" s="208">
+        <v>1</v>
+      </c>
+      <c r="CA7" s="208">
+        <v>1</v>
+      </c>
+      <c r="CB7" s="208">
+        <v>1</v>
+      </c>
+      <c r="CC7" s="208">
+        <v>1</v>
+      </c>
+      <c r="CD7" s="208">
+        <v>1</v>
+      </c>
+      <c r="CE7" s="208">
+        <v>1</v>
+      </c>
+      <c r="CF7" s="208">
+        <v>1</v>
+      </c>
+      <c r="CG7" s="208">
+        <v>1</v>
+      </c>
+      <c r="CH7" s="208">
+        <v>1</v>
+      </c>
+      <c r="CI7" s="208">
+        <v>1</v>
+      </c>
+      <c r="CJ7" s="208">
+        <v>1</v>
+      </c>
+      <c r="CK7" s="208">
+        <v>1</v>
+      </c>
+      <c r="CL7" s="208">
         <v>1</v>
       </c>
       <c r="CM7" s="15">
@@ -12288,119 +12454,119 @@
       <c r="I8" s="103"/>
       <c r="J8" s="103"/>
       <c r="K8" s="103"/>
-      <c r="L8" s="120"/>
-      <c r="M8" s="120"/>
-      <c r="N8" s="120"/>
-      <c r="O8" s="120"/>
-      <c r="P8" s="120"/>
-      <c r="Q8" s="141">
+      <c r="L8" s="121"/>
+      <c r="M8" s="121"/>
+      <c r="N8" s="121"/>
+      <c r="O8" s="121"/>
+      <c r="P8" s="121"/>
+      <c r="Q8" s="142">
         <f>SUM(Q6:V6)</f>
         <v>25</v>
       </c>
-      <c r="R8" s="141"/>
-      <c r="S8" s="141"/>
-      <c r="T8" s="141"/>
-      <c r="U8" s="141"/>
-      <c r="V8" s="141"/>
-      <c r="W8" s="141">
+      <c r="R8" s="142"/>
+      <c r="S8" s="142"/>
+      <c r="T8" s="142"/>
+      <c r="U8" s="142"/>
+      <c r="V8" s="142"/>
+      <c r="W8" s="142">
         <f>SUM(W6:AA6)</f>
         <v>0</v>
       </c>
-      <c r="X8" s="141"/>
-      <c r="Y8" s="141"/>
-      <c r="Z8" s="141"/>
-      <c r="AA8" s="141"/>
-      <c r="AB8" s="141">
+      <c r="X8" s="142"/>
+      <c r="Y8" s="142"/>
+      <c r="Z8" s="142"/>
+      <c r="AA8" s="142"/>
+      <c r="AB8" s="142">
         <f>SUM(AB6:AI6)</f>
-        <v>25</v>
-      </c>
-      <c r="AC8" s="141"/>
-      <c r="AD8" s="141"/>
-      <c r="AE8" s="141"/>
-      <c r="AF8" s="141"/>
-      <c r="AG8" s="141"/>
-      <c r="AH8" s="141"/>
-      <c r="AI8" s="141"/>
-      <c r="AJ8" s="141">
+        <v>26</v>
+      </c>
+      <c r="AC8" s="142"/>
+      <c r="AD8" s="142"/>
+      <c r="AE8" s="142"/>
+      <c r="AF8" s="142"/>
+      <c r="AG8" s="142"/>
+      <c r="AH8" s="142"/>
+      <c r="AI8" s="142"/>
+      <c r="AJ8" s="142">
         <f>SUM(AJ6:AO6)</f>
-        <v>9</v>
-      </c>
-      <c r="AK8" s="141"/>
-      <c r="AL8" s="141"/>
-      <c r="AM8" s="141"/>
-      <c r="AN8" s="141"/>
-      <c r="AO8" s="141"/>
-      <c r="AP8" s="141">
+        <v>13</v>
+      </c>
+      <c r="AK8" s="142"/>
+      <c r="AL8" s="142"/>
+      <c r="AM8" s="142"/>
+      <c r="AN8" s="142"/>
+      <c r="AO8" s="142"/>
+      <c r="AP8" s="142">
         <f>SUM(AP6:AR6)</f>
         <v>2</v>
       </c>
-      <c r="AQ8" s="141"/>
-      <c r="AR8" s="141"/>
-      <c r="AS8" s="213"/>
-      <c r="AT8" s="141">
+      <c r="AQ8" s="142"/>
+      <c r="AR8" s="142"/>
+      <c r="AS8" s="214"/>
+      <c r="AT8" s="142">
         <f>SUM(AT6:AV6)</f>
         <v>5</v>
       </c>
-      <c r="AU8" s="141"/>
-      <c r="AV8" s="141"/>
-      <c r="AW8" s="141">
+      <c r="AU8" s="142"/>
+      <c r="AV8" s="142"/>
+      <c r="AW8" s="142">
         <f>SUM(AW6:BH6)</f>
-        <v>17</v>
-      </c>
-      <c r="AX8" s="141"/>
-      <c r="AY8" s="141"/>
-      <c r="AZ8" s="141"/>
-      <c r="BA8" s="141"/>
-      <c r="BB8" s="141"/>
-      <c r="BC8" s="141"/>
-      <c r="BD8" s="141"/>
-      <c r="BE8" s="141"/>
-      <c r="BF8" s="141"/>
-      <c r="BG8" s="141"/>
-      <c r="BH8" s="141"/>
-      <c r="BI8" s="141">
+        <v>20</v>
+      </c>
+      <c r="AX8" s="142"/>
+      <c r="AY8" s="142"/>
+      <c r="AZ8" s="142"/>
+      <c r="BA8" s="142"/>
+      <c r="BB8" s="142"/>
+      <c r="BC8" s="142"/>
+      <c r="BD8" s="142"/>
+      <c r="BE8" s="142"/>
+      <c r="BF8" s="142"/>
+      <c r="BG8" s="142"/>
+      <c r="BH8" s="142"/>
+      <c r="BI8" s="142">
         <f>SUM(BI6:BQ6)</f>
         <v>28</v>
       </c>
-      <c r="BJ8" s="141"/>
-      <c r="BK8" s="141"/>
-      <c r="BL8" s="141"/>
-      <c r="BM8" s="141"/>
-      <c r="BN8" s="141"/>
-      <c r="BO8" s="141"/>
-      <c r="BP8" s="141"/>
-      <c r="BQ8" s="141"/>
-      <c r="BR8" s="141">
+      <c r="BJ8" s="142"/>
+      <c r="BK8" s="142"/>
+      <c r="BL8" s="142"/>
+      <c r="BM8" s="142"/>
+      <c r="BN8" s="142"/>
+      <c r="BO8" s="142"/>
+      <c r="BP8" s="142"/>
+      <c r="BQ8" s="142"/>
+      <c r="BR8" s="142">
         <f>SUM(BR6:BW6)</f>
         <v>0</v>
       </c>
-      <c r="BS8" s="141"/>
-      <c r="BT8" s="141"/>
-      <c r="BU8" s="141"/>
-      <c r="BV8" s="141"/>
-      <c r="BW8" s="141"/>
-      <c r="BX8" s="141">
+      <c r="BS8" s="142"/>
+      <c r="BT8" s="142"/>
+      <c r="BU8" s="142"/>
+      <c r="BV8" s="142"/>
+      <c r="BW8" s="142"/>
+      <c r="BX8" s="142">
         <f>SUM(BX6:CK6)</f>
         <v>45</v>
       </c>
-      <c r="BY8" s="141"/>
-      <c r="BZ8" s="141"/>
-      <c r="CA8" s="141"/>
-      <c r="CB8" s="141"/>
-      <c r="CC8" s="141"/>
-      <c r="CD8" s="141"/>
-      <c r="CE8" s="141"/>
-      <c r="CF8" s="141"/>
-      <c r="CG8" s="141"/>
-      <c r="CH8" s="141"/>
-      <c r="CI8" s="141"/>
-      <c r="CJ8" s="141"/>
-      <c r="CK8" s="141"/>
-      <c r="CL8" s="120">
+      <c r="BY8" s="142"/>
+      <c r="BZ8" s="142"/>
+      <c r="CA8" s="142"/>
+      <c r="CB8" s="142"/>
+      <c r="CC8" s="142"/>
+      <c r="CD8" s="142"/>
+      <c r="CE8" s="142"/>
+      <c r="CF8" s="142"/>
+      <c r="CG8" s="142"/>
+      <c r="CH8" s="142"/>
+      <c r="CI8" s="142"/>
+      <c r="CJ8" s="142"/>
+      <c r="CK8" s="142"/>
+      <c r="CL8" s="121">
         <f>CL6</f>
         <v>1</v>
       </c>
-      <c r="CM8" s="120"/>
+      <c r="CM8" s="121"/>
     </row>
     <row r="9" spans="1:92" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="98" t="s">
@@ -12410,7 +12576,7 @@
       <c r="C9" s="98"/>
       <c r="D9" s="115">
         <f t="shared" ref="D9:D32" si="0">H9/$H$6*20+CN9*$CN$6</f>
-        <v>17.264948453608248</v>
+        <v>16.999099099099098</v>
       </c>
       <c r="E9" s="16">
         <f t="shared" ref="E9:E28" si="1">G9/$H$7*20+CN9*$CN$7</f>
@@ -12423,7 +12589,7 @@
       </c>
       <c r="H9" s="11">
         <f t="shared" ref="H9:H32" si="3">H36</f>
-        <v>167.47</v>
+        <v>188.69</v>
       </c>
       <c r="I9" s="12">
         <v>1</v>
@@ -12443,7 +12609,7 @@
       <c r="N9" s="12">
         <v>1</v>
       </c>
-      <c r="O9" s="212">
+      <c r="O9" s="213">
         <v>0.5</v>
       </c>
       <c r="P9" s="12">
@@ -12473,13 +12639,13 @@
       <c r="X9" s="12">
         <v>99</v>
       </c>
-      <c r="Y9" s="121">
-        <v>99</v>
-      </c>
-      <c r="Z9" s="121">
-        <v>99</v>
-      </c>
-      <c r="AA9" s="121">
+      <c r="Y9" s="122">
+        <v>99</v>
+      </c>
+      <c r="Z9" s="122">
+        <v>99</v>
+      </c>
+      <c r="AA9" s="122">
         <v>99</v>
       </c>
       <c r="AB9" s="12">
@@ -12488,22 +12654,22 @@
       <c r="AC9" s="80">
         <v>1</v>
       </c>
-      <c r="AD9" s="121">
-        <v>1</v>
-      </c>
-      <c r="AE9" s="121">
-        <v>1</v>
-      </c>
-      <c r="AF9" s="121">
-        <v>1</v>
-      </c>
-      <c r="AG9" s="121">
-        <v>1</v>
-      </c>
-      <c r="AH9" s="121">
-        <v>1</v>
-      </c>
-      <c r="AI9" s="121">
+      <c r="AD9" s="122">
+        <v>1</v>
+      </c>
+      <c r="AE9" s="122">
+        <v>1</v>
+      </c>
+      <c r="AF9" s="122">
+        <v>1</v>
+      </c>
+      <c r="AG9" s="122">
+        <v>1</v>
+      </c>
+      <c r="AH9" s="122">
+        <v>1</v>
+      </c>
+      <c r="AI9" s="122">
         <v>1</v>
       </c>
       <c r="AJ9" s="12">
@@ -12512,16 +12678,16 @@
       <c r="AK9" s="80">
         <v>1</v>
       </c>
-      <c r="AL9" s="121">
-        <v>1</v>
-      </c>
-      <c r="AM9" s="121">
+      <c r="AL9" s="122">
+        <v>1</v>
+      </c>
+      <c r="AM9" s="122">
         <v>0.5</v>
       </c>
-      <c r="AN9" s="121">
-        <v>1</v>
-      </c>
-      <c r="AO9" s="121">
+      <c r="AN9" s="122">
+        <v>1</v>
+      </c>
+      <c r="AO9" s="122">
         <v>1</v>
       </c>
       <c r="AP9" s="12">
@@ -12672,7 +12838,7 @@
       <c r="C10" s="4"/>
       <c r="D10" s="115">
         <f t="shared" si="0"/>
-        <v>15.525257731958764</v>
+        <v>15.895495495495496</v>
       </c>
       <c r="E10" s="16">
         <f t="shared" si="1"/>
@@ -12685,7 +12851,7 @@
       </c>
       <c r="H10" s="11">
         <f t="shared" si="3"/>
-        <v>150.595</v>
+        <v>176.44</v>
       </c>
       <c r="I10" s="92">
         <v>1</v>
@@ -12934,7 +13100,7 @@
       <c r="C11" s="98"/>
       <c r="D11" s="115">
         <f t="shared" si="0"/>
-        <v>11.030927835051546</v>
+        <v>11.824324324324325</v>
       </c>
       <c r="E11" s="16">
         <f t="shared" si="1"/>
@@ -12947,7 +13113,7 @@
       </c>
       <c r="H11" s="11">
         <f t="shared" si="3"/>
-        <v>107</v>
+        <v>131.25</v>
       </c>
       <c r="I11" s="92">
         <v>1</v>
@@ -13196,7 +13362,7 @@
       <c r="C12" s="4"/>
       <c r="D12" s="115">
         <f t="shared" si="0"/>
-        <v>13.52783505154639</v>
+        <v>14.172522522522522</v>
       </c>
       <c r="E12" s="16">
         <f t="shared" si="1"/>
@@ -13209,7 +13375,7 @@
       </c>
       <c r="H12" s="11">
         <f t="shared" si="3"/>
-        <v>131.22</v>
+        <v>157.315</v>
       </c>
       <c r="I12" s="92">
         <v>1</v>
@@ -13458,7 +13624,7 @@
       <c r="C13" s="98"/>
       <c r="D13" s="115">
         <f t="shared" si="0"/>
-        <v>17.388659793814433</v>
+        <v>17.6027027027027</v>
       </c>
       <c r="E13" s="16">
         <f t="shared" si="1"/>
@@ -13471,7 +13637,7 @@
       </c>
       <c r="H13" s="11">
         <f t="shared" si="3"/>
-        <v>168.67000000000002</v>
+        <v>195.39</v>
       </c>
       <c r="I13" s="92">
         <v>0</v>
@@ -13720,7 +13886,7 @@
       <c r="C14" s="98"/>
       <c r="D14" s="115">
         <f t="shared" si="0"/>
-        <v>9.9484536082474229</v>
+        <v>9.9774774774774784</v>
       </c>
       <c r="E14" s="16">
         <f t="shared" si="1"/>
@@ -13733,7 +13899,7 @@
       </c>
       <c r="H14" s="11">
         <f t="shared" si="3"/>
-        <v>96.5</v>
+        <v>110.75</v>
       </c>
       <c r="I14" s="92">
         <v>1</v>
@@ -13982,7 +14148,7 @@
       <c r="C15" s="4"/>
       <c r="D15" s="115">
         <f t="shared" si="0"/>
-        <v>17.835051546391753</v>
+        <v>17.815315315315313</v>
       </c>
       <c r="E15" s="16">
         <f t="shared" si="1"/>
@@ -13995,7 +14161,7 @@
       </c>
       <c r="H15" s="11">
         <f t="shared" si="3"/>
-        <v>173</v>
+        <v>197.75</v>
       </c>
       <c r="I15" s="92">
         <v>0</v>
@@ -14244,7 +14410,7 @@
       <c r="C16" s="4"/>
       <c r="D16" s="115">
         <f t="shared" si="0"/>
-        <v>10.734536082474227</v>
+        <v>10.123873873873874</v>
       </c>
       <c r="E16" s="16">
         <f t="shared" si="1"/>
@@ -14257,7 +14423,7 @@
       </c>
       <c r="H16" s="11">
         <f t="shared" si="3"/>
-        <v>104.125</v>
+        <v>112.375</v>
       </c>
       <c r="I16" s="92">
         <v>0</v>
@@ -14506,7 +14672,7 @@
       <c r="C17" s="4"/>
       <c r="D17" s="115">
         <f t="shared" si="0"/>
-        <v>13.205670103092784</v>
+        <v>13.913513513513514</v>
       </c>
       <c r="E17" s="16">
         <f t="shared" si="1"/>
@@ -14519,7 +14685,7 @@
       </c>
       <c r="H17" s="11">
         <f t="shared" si="3"/>
-        <v>128.095</v>
+        <v>154.44</v>
       </c>
       <c r="I17" s="92">
         <v>1</v>
@@ -14768,7 +14934,7 @@
       <c r="C18" s="4"/>
       <c r="D18" s="115">
         <f t="shared" si="0"/>
-        <v>14.752061855670103</v>
+        <v>15.084684684684683</v>
       </c>
       <c r="E18" s="16">
         <f t="shared" si="1"/>
@@ -14781,7 +14947,7 @@
       </c>
       <c r="H18" s="11">
         <f t="shared" si="3"/>
-        <v>143.095</v>
+        <v>167.44</v>
       </c>
       <c r="I18" s="92">
         <v>0</v>
@@ -15027,7 +15193,7 @@
       <c r="C19" s="98"/>
       <c r="D19" s="115">
         <f t="shared" si="0"/>
-        <v>9.2268041237113412</v>
+        <v>9.8648648648648649</v>
       </c>
       <c r="E19" s="16">
         <f t="shared" si="1"/>
@@ -15040,7 +15206,7 @@
       </c>
       <c r="H19" s="11">
         <f t="shared" si="3"/>
-        <v>89.5</v>
+        <v>109.5</v>
       </c>
       <c r="I19" s="92">
         <v>0</v>
@@ -15289,7 +15455,7 @@
       <c r="C20" s="98"/>
       <c r="D20" s="115">
         <f t="shared" si="0"/>
-        <v>2.2809278350515463</v>
+        <v>2.3536036036036037</v>
       </c>
       <c r="E20" s="16">
         <f t="shared" si="1"/>
@@ -15302,7 +15468,7 @@
       </c>
       <c r="H20" s="11">
         <f t="shared" si="3"/>
-        <v>22.125</v>
+        <v>26.125</v>
       </c>
       <c r="I20" s="92">
         <v>0</v>
@@ -15551,7 +15717,7 @@
       <c r="C21" s="4"/>
       <c r="D21" s="115">
         <f t="shared" si="0"/>
-        <v>7.9896907216494846</v>
+        <v>7.6576576576576567</v>
       </c>
       <c r="E21" s="16">
         <f t="shared" si="1"/>
@@ -15564,7 +15730,7 @@
       </c>
       <c r="H21" s="11">
         <f t="shared" si="3"/>
-        <v>77.5</v>
+        <v>85</v>
       </c>
       <c r="I21" s="92">
         <v>1</v>
@@ -15813,7 +15979,7 @@
       <c r="C22" s="98"/>
       <c r="D22" s="115">
         <f t="shared" si="0"/>
-        <v>18.840206185567009</v>
+        <v>18.93018018018018</v>
       </c>
       <c r="E22" s="16">
         <f t="shared" si="1"/>
@@ -15826,7 +15992,7 @@
       </c>
       <c r="H22" s="11">
         <f t="shared" si="3"/>
-        <v>182.75</v>
+        <v>210.125</v>
       </c>
       <c r="I22" s="92">
         <v>1</v>
@@ -16075,7 +16241,7 @@
       <c r="C23" s="4"/>
       <c r="D23" s="115">
         <f t="shared" si="0"/>
-        <v>6.4561855670103094</v>
+        <v>6.4076576576576567</v>
       </c>
       <c r="E23" s="16">
         <f t="shared" si="1"/>
@@ -16088,7 +16254,7 @@
       </c>
       <c r="H23" s="11">
         <f t="shared" si="3"/>
-        <v>62.625</v>
+        <v>71.125</v>
       </c>
       <c r="I23" s="92">
         <v>1</v>
@@ -16337,7 +16503,7 @@
       <c r="C24" s="4"/>
       <c r="D24" s="115">
         <f t="shared" si="0"/>
-        <v>12.087628865979381</v>
+        <v>11.745495495495495</v>
       </c>
       <c r="E24" s="16">
         <f t="shared" si="1"/>
@@ -16350,7 +16516,7 @@
       </c>
       <c r="H24" s="11">
         <f t="shared" si="3"/>
-        <v>117.25</v>
+        <v>130.375</v>
       </c>
       <c r="I24" s="93">
         <v>0</v>
@@ -16599,7 +16765,7 @@
       <c r="C25" s="4"/>
       <c r="D25" s="115">
         <f t="shared" si="0"/>
-        <v>10.506701030927834</v>
+        <v>10.341441441441441</v>
       </c>
       <c r="E25" s="16">
         <f t="shared" si="1"/>
@@ -16612,7 +16778,7 @@
       </c>
       <c r="H25" s="11">
         <f t="shared" si="3"/>
-        <v>101.91499999999999</v>
+        <v>114.78999999999999</v>
       </c>
       <c r="I25" s="93">
         <v>1</v>
@@ -16861,7 +17027,7 @@
       <c r="C26" s="4"/>
       <c r="D26" s="115">
         <f t="shared" si="0"/>
-        <v>10.077319587628866</v>
+        <v>9.954954954954955</v>
       </c>
       <c r="E26" s="16">
         <f t="shared" si="1"/>
@@ -16874,7 +17040,7 @@
       </c>
       <c r="H26" s="11">
         <f t="shared" si="3"/>
-        <v>97.75</v>
+        <v>110.5</v>
       </c>
       <c r="I26" s="93">
         <v>0</v>
@@ -17123,7 +17289,7 @@
       <c r="C27" s="98"/>
       <c r="D27" s="115">
         <f t="shared" si="0"/>
-        <v>10.528350515463918</v>
+        <v>10.574324324324325</v>
       </c>
       <c r="E27" s="16">
         <f t="shared" si="1"/>
@@ -17136,7 +17302,7 @@
       </c>
       <c r="H27" s="11">
         <f t="shared" si="3"/>
-        <v>102.125</v>
+        <v>117.375</v>
       </c>
       <c r="I27" s="93">
         <v>1</v>
@@ -17385,7 +17551,7 @@
       <c r="C28" s="4"/>
       <c r="D28" s="115">
         <f t="shared" si="0"/>
-        <v>11.283505154639176</v>
+        <v>12.056306306306306</v>
       </c>
       <c r="E28" s="16">
         <f t="shared" si="1"/>
@@ -17398,7 +17564,7 @@
       </c>
       <c r="H28" s="11">
         <f t="shared" si="3"/>
-        <v>109.45</v>
+        <v>133.82499999999999</v>
       </c>
       <c r="I28" s="93">
         <v>0</v>
@@ -17931,7 +18097,7 @@
       <c r="C31" s="103"/>
       <c r="D31" s="115">
         <f t="shared" si="0"/>
-        <v>4.6391752577319592</v>
+        <v>4.0540540540540544</v>
       </c>
       <c r="E31" s="16"/>
       <c r="F31" s="16"/>
@@ -18102,17 +18268,17 @@
       <c r="C32" s="103"/>
       <c r="D32" s="115">
         <f t="shared" si="0"/>
-        <v>14.226804123711341</v>
+        <v>20</v>
       </c>
       <c r="E32" s="16"/>
       <c r="F32" s="16"/>
       <c r="G32" s="11">
         <f t="shared" si="4"/>
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="H32" s="11">
         <f t="shared" si="3"/>
-        <v>138</v>
+        <v>222</v>
       </c>
       <c r="I32" s="92">
         <v>1</v>
@@ -18135,7 +18301,9 @@
       <c r="O32" s="74">
         <v>1</v>
       </c>
-      <c r="P32" s="74"/>
+      <c r="P32" s="74">
+        <v>1</v>
+      </c>
       <c r="Q32" s="73">
         <v>1</v>
       </c>
@@ -18299,21 +18467,51 @@
       <c r="BU32" s="73"/>
       <c r="BV32" s="73"/>
       <c r="BW32" s="92"/>
-      <c r="BX32" s="73"/>
-      <c r="BY32" s="73"/>
-      <c r="BZ32" s="89"/>
-      <c r="CA32" s="73"/>
-      <c r="CB32" s="73"/>
-      <c r="CC32" s="89"/>
-      <c r="CD32" s="73"/>
-      <c r="CE32" s="73"/>
-      <c r="CF32" s="73"/>
-      <c r="CG32" s="73"/>
-      <c r="CH32" s="73"/>
-      <c r="CI32" s="73"/>
-      <c r="CJ32" s="73"/>
-      <c r="CK32" s="73"/>
-      <c r="CL32" s="56"/>
+      <c r="BX32" s="73">
+        <v>1</v>
+      </c>
+      <c r="BY32" s="73">
+        <v>1</v>
+      </c>
+      <c r="BZ32" s="120">
+        <v>1</v>
+      </c>
+      <c r="CA32" s="73">
+        <v>1</v>
+      </c>
+      <c r="CB32" s="73">
+        <v>1</v>
+      </c>
+      <c r="CC32" s="120">
+        <v>1</v>
+      </c>
+      <c r="CD32" s="73">
+        <v>1</v>
+      </c>
+      <c r="CE32" s="73">
+        <v>1</v>
+      </c>
+      <c r="CF32" s="73">
+        <v>1</v>
+      </c>
+      <c r="CG32" s="73">
+        <v>1</v>
+      </c>
+      <c r="CH32" s="73">
+        <v>1</v>
+      </c>
+      <c r="CI32" s="73">
+        <v>1</v>
+      </c>
+      <c r="CJ32" s="73">
+        <v>1</v>
+      </c>
+      <c r="CK32" s="73">
+        <v>1</v>
+      </c>
+      <c r="CL32" s="56">
+        <v>1</v>
+      </c>
       <c r="CM32" s="91">
         <v>0</v>
       </c>
@@ -18340,7 +18538,7 @@
       </c>
       <c r="H33" s="11">
         <f t="shared" ref="H33" si="6">H60</f>
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="I33" s="56">
         <v>1</v>
@@ -18626,7 +18824,7 @@
       </c>
       <c r="P34" s="2">
         <f t="shared" si="7"/>
-        <v>0.75</v>
+        <v>0.76190476190476186</v>
       </c>
       <c r="Q34" s="58">
         <f t="shared" si="7"/>
@@ -18866,63 +19064,63 @@
       </c>
       <c r="BX34" s="58">
         <f t="shared" si="9"/>
-        <v>0.7857142857142857</v>
+        <v>0.79545454545454541</v>
       </c>
       <c r="BY34" s="65">
         <f t="shared" si="9"/>
-        <v>0.32142857142857145</v>
+        <v>0.35227272727272729</v>
       </c>
       <c r="BZ34" s="65">
         <f t="shared" si="9"/>
-        <v>0.65476190476190477</v>
+        <v>0.67045454545454541</v>
       </c>
       <c r="CA34" s="65">
         <f t="shared" si="9"/>
-        <v>0.5714285714285714</v>
+        <v>0.59090909090909094</v>
       </c>
       <c r="CB34" s="65">
         <f t="shared" si="9"/>
-        <v>0.55952380952380953</v>
+        <v>0.57954545454545459</v>
       </c>
       <c r="CC34" s="65">
         <f t="shared" si="9"/>
-        <v>0.5178571428571429</v>
+        <v>0.53977272727272729</v>
       </c>
       <c r="CD34" s="91">
         <f t="shared" ref="CD34:CI34" si="17">AVERAGE(CD9:CD32)</f>
-        <v>0.11904761904761904</v>
+        <v>0.15909090909090909</v>
       </c>
       <c r="CE34" s="91">
         <f t="shared" si="17"/>
-        <v>0.19047619047619047</v>
+        <v>0.22727272727272727</v>
       </c>
       <c r="CF34" s="118">
         <f t="shared" ref="CF34" si="18">AVERAGE(CF9:CF32)</f>
-        <v>0.4642857142857143</v>
+        <v>0.48863636363636365</v>
       </c>
       <c r="CG34" s="91">
         <f t="shared" si="17"/>
-        <v>0.11904761904761904</v>
+        <v>0.15909090909090909</v>
       </c>
       <c r="CH34" s="91">
         <f t="shared" si="17"/>
-        <v>0.11904761904761904</v>
+        <v>0.15909090909090909</v>
       </c>
       <c r="CI34" s="91">
         <f t="shared" si="17"/>
-        <v>0.14285714285714285</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="CJ34" s="65">
         <f t="shared" si="9"/>
-        <v>0.19047619047619047</v>
+        <v>0.22727272727272727</v>
       </c>
       <c r="CK34" s="58">
         <f t="shared" si="9"/>
-        <v>0.33333333333333331</v>
+        <v>0.36363636363636365</v>
       </c>
       <c r="CL34" s="58">
         <f t="shared" si="9"/>
-        <v>0.53749999999999998</v>
+        <v>0.55952380952380953</v>
       </c>
       <c r="CM34" s="85">
         <f>AVERAGE(CM9:CM33)</f>
@@ -18936,7 +19134,7 @@
     <row r="36" spans="1:92" x14ac:dyDescent="0.25">
       <c r="H36" s="2">
         <f t="shared" ref="H36:H60" si="19">SUM(I36:CL36)</f>
-        <v>167.47</v>
+        <v>188.69</v>
       </c>
       <c r="I36" s="2">
         <f t="shared" ref="I36:AJ36" si="20">I9*I$6</f>
@@ -18960,15 +19158,15 @@
       </c>
       <c r="N36" s="2">
         <f t="shared" si="20"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="O36" s="2">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P36" s="2">
         <f t="shared" si="20"/>
-        <v>7.5</v>
+        <v>11.25</v>
       </c>
       <c r="Q36" s="58">
         <f t="shared" si="20"/>
@@ -19032,7 +19230,7 @@
       </c>
       <c r="AF36" s="106">
         <f t="shared" ref="AF36:AG36" si="21">AF9*AF$6</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG36" s="101">
         <f t="shared" si="21"/>
@@ -19052,15 +19250,15 @@
       </c>
       <c r="AK36" s="58">
         <f t="shared" ref="AK36:CN36" si="22">AK9*AK$6</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AL36" s="58">
         <f t="shared" si="22"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AM36" s="101">
         <f t="shared" ref="AM36" si="23">AM9*AM$6</f>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AN36" s="58">
         <f t="shared" si="22"/>
@@ -19104,7 +19302,7 @@
       </c>
       <c r="AX36" s="91">
         <f t="shared" ref="AX36:AY36" si="25">AX9*AX$6</f>
-        <v>2.9699999999999998</v>
+        <v>5.9399999999999995</v>
       </c>
       <c r="AY36" s="91">
         <f t="shared" si="25"/>
@@ -19278,7 +19476,7 @@
     <row r="37" spans="1:92" x14ac:dyDescent="0.25">
       <c r="H37" s="96">
         <f t="shared" si="19"/>
-        <v>150.595</v>
+        <v>176.44</v>
       </c>
       <c r="I37" s="96">
         <f t="shared" ref="I37:BA37" si="32">I10*I$6</f>
@@ -19302,15 +19500,15 @@
       </c>
       <c r="N37" s="96">
         <f t="shared" si="32"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="O37" s="96">
         <f t="shared" si="32"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="P37" s="96">
         <f t="shared" si="32"/>
-        <v>6.25</v>
+        <v>9.375</v>
       </c>
       <c r="Q37" s="96">
         <f t="shared" si="32"/>
@@ -19374,7 +19572,7 @@
       </c>
       <c r="AF37" s="106">
         <f t="shared" ref="AF37:AG37" si="33">AF10*AF$6</f>
-        <v>1.75</v>
+        <v>2.625</v>
       </c>
       <c r="AG37" s="101">
         <f t="shared" si="33"/>
@@ -19394,15 +19592,15 @@
       </c>
       <c r="AK37" s="96">
         <f t="shared" si="32"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AL37" s="96">
         <f t="shared" si="32"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AM37" s="101">
         <f t="shared" ref="AM37" si="34">AM10*AM$6</f>
-        <v>1.75</v>
+        <v>2.625</v>
       </c>
       <c r="AN37" s="96">
         <f t="shared" si="32"/>
@@ -19446,7 +19644,7 @@
       </c>
       <c r="AX37" s="96">
         <f t="shared" si="32"/>
-        <v>2.9699999999999998</v>
+        <v>5.9399999999999995</v>
       </c>
       <c r="AY37" s="96">
         <f t="shared" si="32"/>
@@ -19620,7 +19818,7 @@
     <row r="38" spans="1:92" x14ac:dyDescent="0.25">
       <c r="H38" s="96">
         <f t="shared" si="19"/>
-        <v>107</v>
+        <v>131.25</v>
       </c>
       <c r="I38" s="96">
         <f t="shared" ref="I38:BA38" si="37">I11*I$6</f>
@@ -19644,15 +19842,15 @@
       </c>
       <c r="N38" s="96">
         <f t="shared" si="37"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="O38" s="96">
         <f t="shared" si="37"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="P38" s="96">
         <f t="shared" si="37"/>
-        <v>7.5</v>
+        <v>11.25</v>
       </c>
       <c r="Q38" s="96">
         <f t="shared" si="37"/>
@@ -19716,7 +19914,7 @@
       </c>
       <c r="AF38" s="106">
         <f t="shared" ref="AF38:AG38" si="38">AF11*AF$6</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG38" s="101">
         <f t="shared" si="38"/>
@@ -19736,11 +19934,11 @@
       </c>
       <c r="AK38" s="96">
         <f t="shared" si="37"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AL38" s="96">
         <f t="shared" si="37"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AM38" s="101">
         <f t="shared" ref="AM38" si="39">AM11*AM$6</f>
@@ -19788,7 +19986,7 @@
       </c>
       <c r="AX38" s="96">
         <f t="shared" si="37"/>
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AY38" s="96">
         <f t="shared" si="37"/>
@@ -19962,7 +20160,7 @@
     <row r="39" spans="1:92" x14ac:dyDescent="0.25">
       <c r="H39" s="96">
         <f t="shared" si="19"/>
-        <v>131.22</v>
+        <v>157.315</v>
       </c>
       <c r="I39" s="96">
         <f t="shared" ref="I39:BA39" si="42">I12*I$6</f>
@@ -19986,15 +20184,15 @@
       </c>
       <c r="N39" s="96">
         <f t="shared" si="42"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="O39" s="96">
         <f t="shared" si="42"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="P39" s="96">
         <f t="shared" si="42"/>
-        <v>6.25</v>
+        <v>9.375</v>
       </c>
       <c r="Q39" s="96">
         <f t="shared" si="42"/>
@@ -20058,7 +20256,7 @@
       </c>
       <c r="AF39" s="106">
         <f t="shared" ref="AF39:AG39" si="43">AF12*AF$6</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG39" s="101">
         <f t="shared" si="43"/>
@@ -20078,15 +20276,15 @@
       </c>
       <c r="AK39" s="96">
         <f t="shared" si="42"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AL39" s="96">
         <f t="shared" si="42"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AM39" s="101">
         <f t="shared" ref="AM39" si="44">AM12*AM$6</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN39" s="96">
         <f t="shared" si="42"/>
@@ -20130,7 +20328,7 @@
       </c>
       <c r="AX39" s="96">
         <f t="shared" si="42"/>
-        <v>2.9699999999999998</v>
+        <v>5.9399999999999995</v>
       </c>
       <c r="AY39" s="96">
         <f t="shared" si="42"/>
@@ -20304,7 +20502,7 @@
     <row r="40" spans="1:92" x14ac:dyDescent="0.25">
       <c r="H40" s="96">
         <f t="shared" si="19"/>
-        <v>168.67000000000002</v>
+        <v>195.39</v>
       </c>
       <c r="I40" s="96">
         <f t="shared" ref="I40:BA40" si="47">I13*I$6</f>
@@ -20328,15 +20526,15 @@
       </c>
       <c r="N40" s="96">
         <f t="shared" si="47"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="O40" s="96">
         <f t="shared" si="47"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="P40" s="96">
         <f t="shared" si="47"/>
-        <v>7.5</v>
+        <v>11.25</v>
       </c>
       <c r="Q40" s="96">
         <f t="shared" si="47"/>
@@ -20400,7 +20598,7 @@
       </c>
       <c r="AF40" s="106">
         <f t="shared" ref="AF40:AG40" si="48">AF13*AF$6</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG40" s="101">
         <f t="shared" si="48"/>
@@ -20420,15 +20618,15 @@
       </c>
       <c r="AK40" s="96">
         <f t="shared" si="47"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AL40" s="96">
         <f t="shared" si="47"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AM40" s="101">
         <f t="shared" ref="AM40" si="49">AM13*AM$6</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN40" s="96">
         <f t="shared" si="47"/>
@@ -20472,7 +20670,7 @@
       </c>
       <c r="AX40" s="96">
         <f t="shared" si="47"/>
-        <v>2.9699999999999998</v>
+        <v>5.9399999999999995</v>
       </c>
       <c r="AY40" s="96">
         <f t="shared" si="47"/>
@@ -20646,7 +20844,7 @@
     <row r="41" spans="1:92" x14ac:dyDescent="0.25">
       <c r="H41" s="96">
         <f t="shared" si="19"/>
-        <v>96.5</v>
+        <v>110.75</v>
       </c>
       <c r="I41" s="96">
         <f t="shared" ref="I41:BA41" si="52">I14*I$6</f>
@@ -20670,7 +20868,7 @@
       </c>
       <c r="N41" s="96">
         <f t="shared" si="52"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="O41" s="96">
         <f t="shared" si="52"/>
@@ -20678,7 +20876,7 @@
       </c>
       <c r="P41" s="96">
         <f t="shared" si="52"/>
-        <v>7.5</v>
+        <v>11.25</v>
       </c>
       <c r="Q41" s="96">
         <f t="shared" si="52"/>
@@ -20742,7 +20940,7 @@
       </c>
       <c r="AF41" s="106">
         <f t="shared" ref="AF41:AG41" si="53">AF14*AF$6</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG41" s="101">
         <f t="shared" si="53"/>
@@ -20762,15 +20960,15 @@
       </c>
       <c r="AK41" s="96">
         <f t="shared" si="52"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AL41" s="96">
         <f t="shared" si="52"/>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AM41" s="101">
         <f t="shared" ref="AM41" si="54">AM14*AM$6</f>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AN41" s="96">
         <f t="shared" si="52"/>
@@ -20814,7 +21012,7 @@
       </c>
       <c r="AX41" s="96">
         <f t="shared" si="52"/>
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AY41" s="96">
         <f t="shared" si="52"/>
@@ -20988,7 +21186,7 @@
     <row r="42" spans="1:92" x14ac:dyDescent="0.25">
       <c r="H42" s="96">
         <f t="shared" si="19"/>
-        <v>173</v>
+        <v>197.75</v>
       </c>
       <c r="I42" s="96">
         <f t="shared" ref="I42:BA42" si="57">I15*I$6</f>
@@ -21012,15 +21210,15 @@
       </c>
       <c r="N42" s="96">
         <f t="shared" si="57"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="O42" s="96">
         <f t="shared" si="57"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="P42" s="96">
         <f t="shared" si="57"/>
-        <v>7.5</v>
+        <v>11.25</v>
       </c>
       <c r="Q42" s="96">
         <f t="shared" si="57"/>
@@ -21084,7 +21282,7 @@
       </c>
       <c r="AF42" s="106">
         <f t="shared" ref="AF42:AG42" si="58">AF15*AF$6</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG42" s="101">
         <f t="shared" si="58"/>
@@ -21104,15 +21302,15 @@
       </c>
       <c r="AK42" s="96">
         <f t="shared" si="57"/>
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AL42" s="96">
         <f t="shared" si="57"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AM42" s="101">
         <f t="shared" ref="AM42" si="59">AM15*AM$6</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN42" s="96">
         <f t="shared" si="57"/>
@@ -21156,7 +21354,7 @@
       </c>
       <c r="AX42" s="96">
         <f t="shared" si="57"/>
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AY42" s="96">
         <f t="shared" si="57"/>
@@ -21330,7 +21528,7 @@
     <row r="43" spans="1:92" x14ac:dyDescent="0.25">
       <c r="H43" s="96">
         <f t="shared" si="19"/>
-        <v>104.125</v>
+        <v>112.375</v>
       </c>
       <c r="I43" s="96">
         <f t="shared" ref="I43:BA43" si="62">I16*I$6</f>
@@ -21362,7 +21560,7 @@
       </c>
       <c r="P43" s="96">
         <f t="shared" si="62"/>
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="Q43" s="96">
         <f t="shared" si="62"/>
@@ -21426,7 +21624,7 @@
       </c>
       <c r="AF43" s="106">
         <f t="shared" ref="AF43:AG43" si="63">AF16*AF$6</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG43" s="101">
         <f t="shared" si="63"/>
@@ -21446,15 +21644,15 @@
       </c>
       <c r="AK43" s="96">
         <f t="shared" si="62"/>
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
       <c r="AL43" s="96">
         <f t="shared" si="62"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AM43" s="101">
         <f t="shared" ref="AM43" si="64">AM16*AM$6</f>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AN43" s="96">
         <f t="shared" si="62"/>
@@ -21498,7 +21696,7 @@
       </c>
       <c r="AX43" s="96">
         <f t="shared" si="62"/>
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AY43" s="96">
         <f t="shared" si="62"/>
@@ -21672,7 +21870,7 @@
     <row r="44" spans="1:92" x14ac:dyDescent="0.25">
       <c r="H44" s="96">
         <f t="shared" si="19"/>
-        <v>128.095</v>
+        <v>154.44</v>
       </c>
       <c r="I44" s="96">
         <f t="shared" ref="I44:BA44" si="67">I17*I$6</f>
@@ -21696,15 +21894,15 @@
       </c>
       <c r="N44" s="96">
         <f t="shared" si="67"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="O44" s="96">
         <f t="shared" si="67"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="P44" s="96">
         <f t="shared" si="67"/>
-        <v>8.75</v>
+        <v>13.125</v>
       </c>
       <c r="Q44" s="96">
         <f t="shared" si="67"/>
@@ -21768,7 +21966,7 @@
       </c>
       <c r="AF44" s="106">
         <f t="shared" ref="AF44:AG44" si="68">AF17*AF$6</f>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AG44" s="101">
         <f t="shared" si="68"/>
@@ -21788,15 +21986,15 @@
       </c>
       <c r="AK44" s="96">
         <f t="shared" si="67"/>
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AL44" s="96">
         <f t="shared" si="67"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AM44" s="101">
         <f t="shared" ref="AM44" si="69">AM17*AM$6</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN44" s="96">
         <f t="shared" si="67"/>
@@ -21840,7 +22038,7 @@
       </c>
       <c r="AX44" s="96">
         <f t="shared" si="67"/>
-        <v>2.9699999999999998</v>
+        <v>5.9399999999999995</v>
       </c>
       <c r="AY44" s="96">
         <f t="shared" si="67"/>
@@ -22014,7 +22212,7 @@
     <row r="45" spans="1:92" x14ac:dyDescent="0.25">
       <c r="H45" s="96">
         <f t="shared" si="19"/>
-        <v>143.095</v>
+        <v>167.44</v>
       </c>
       <c r="I45" s="96">
         <f t="shared" ref="I45:BA45" si="72">I18*I$6</f>
@@ -22038,15 +22236,15 @@
       </c>
       <c r="N45" s="96">
         <f t="shared" si="72"/>
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="O45" s="96">
         <f t="shared" si="72"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="P45" s="96">
         <f t="shared" si="72"/>
-        <v>8.75</v>
+        <v>13.125</v>
       </c>
       <c r="Q45" s="96">
         <f t="shared" si="72"/>
@@ -22110,7 +22308,7 @@
       </c>
       <c r="AF45" s="106">
         <f t="shared" ref="AF45:AG45" si="73">AF18*AF$6</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG45" s="101">
         <f t="shared" si="73"/>
@@ -22130,15 +22328,15 @@
       </c>
       <c r="AK45" s="96">
         <f t="shared" si="72"/>
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AL45" s="96">
         <f t="shared" si="72"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AM45" s="101">
         <f t="shared" ref="AM45" si="74">AM18*AM$6</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN45" s="96">
         <f t="shared" si="72"/>
@@ -22182,7 +22380,7 @@
       </c>
       <c r="AX45" s="96">
         <f t="shared" si="72"/>
-        <v>2.9699999999999998</v>
+        <v>5.9399999999999995</v>
       </c>
       <c r="AY45" s="96">
         <f t="shared" si="72"/>
@@ -22356,7 +22554,7 @@
     <row r="46" spans="1:92" x14ac:dyDescent="0.25">
       <c r="H46" s="96">
         <f t="shared" si="19"/>
-        <v>89.5</v>
+        <v>109.5</v>
       </c>
       <c r="I46" s="96">
         <f t="shared" ref="I46:BA46" si="77">I19*I$6</f>
@@ -22384,11 +22582,11 @@
       </c>
       <c r="O46" s="96">
         <f t="shared" si="77"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="P46" s="96">
         <f t="shared" si="77"/>
-        <v>7.5</v>
+        <v>11.25</v>
       </c>
       <c r="Q46" s="96">
         <f t="shared" si="77"/>
@@ -22452,7 +22650,7 @@
       </c>
       <c r="AF46" s="106">
         <f t="shared" ref="AF46:AG46" si="78">AF19*AF$6</f>
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="AG46" s="101">
         <f t="shared" si="78"/>
@@ -22472,15 +22670,15 @@
       </c>
       <c r="AK46" s="96">
         <f t="shared" si="77"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AL46" s="96">
         <f t="shared" si="77"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AM46" s="101">
         <f t="shared" ref="AM46" si="79">AM19*AM$6</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN46" s="96">
         <f t="shared" si="77"/>
@@ -22524,7 +22722,7 @@
       </c>
       <c r="AX46" s="96">
         <f t="shared" si="77"/>
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AY46" s="96">
         <f t="shared" si="77"/>
@@ -22698,7 +22896,7 @@
     <row r="47" spans="1:92" x14ac:dyDescent="0.25">
       <c r="H47" s="96">
         <f t="shared" si="19"/>
-        <v>22.125</v>
+        <v>26.125</v>
       </c>
       <c r="I47" s="96">
         <f t="shared" ref="I47:BA47" si="82">I20*I$6</f>
@@ -22730,7 +22928,7 @@
       </c>
       <c r="P47" s="96">
         <f t="shared" si="82"/>
-        <v>7.5</v>
+        <v>11.25</v>
       </c>
       <c r="Q47" s="96">
         <f t="shared" si="82"/>
@@ -22814,7 +23012,7 @@
       </c>
       <c r="AK47" s="96">
         <f t="shared" si="82"/>
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AL47" s="96">
         <f t="shared" si="82"/>
@@ -23040,7 +23238,7 @@
     <row r="48" spans="1:92" x14ac:dyDescent="0.25">
       <c r="H48" s="96">
         <f t="shared" si="19"/>
-        <v>77.5</v>
+        <v>85</v>
       </c>
       <c r="I48" s="96">
         <f t="shared" ref="I48:BA48" si="87">I21*I$6</f>
@@ -23072,7 +23270,7 @@
       </c>
       <c r="P48" s="96">
         <f t="shared" si="87"/>
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="Q48" s="96">
         <f t="shared" si="87"/>
@@ -23136,7 +23334,7 @@
       </c>
       <c r="AF48" s="106">
         <f t="shared" ref="AF48:AG48" si="88">AF21*AF$6</f>
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AG48" s="101">
         <f t="shared" si="88"/>
@@ -23156,15 +23354,15 @@
       </c>
       <c r="AK48" s="96">
         <f t="shared" si="87"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AL48" s="96">
         <f t="shared" si="87"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AM48" s="101">
         <f t="shared" ref="AM48" si="89">AM21*AM$6</f>
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AN48" s="96">
         <f t="shared" si="87"/>
@@ -23208,7 +23406,7 @@
       </c>
       <c r="AX48" s="96">
         <f t="shared" si="87"/>
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AY48" s="96">
         <f t="shared" si="87"/>
@@ -23385,7 +23583,7 @@
       <c r="F49" s="15"/>
       <c r="H49" s="96">
         <f t="shared" si="19"/>
-        <v>182.75</v>
+        <v>210.125</v>
       </c>
       <c r="I49" s="96">
         <f t="shared" ref="I49:BA49" si="92">I22*I$6</f>
@@ -23409,15 +23607,15 @@
       </c>
       <c r="N49" s="96">
         <f t="shared" si="92"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="O49" s="96">
         <f t="shared" si="92"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="P49" s="96">
         <f t="shared" si="92"/>
-        <v>8.75</v>
+        <v>13.125</v>
       </c>
       <c r="Q49" s="96">
         <f t="shared" si="92"/>
@@ -23481,7 +23679,7 @@
       </c>
       <c r="AF49" s="106">
         <f t="shared" ref="AF49:AG49" si="93">AF22*AF$6</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG49" s="101">
         <f t="shared" si="93"/>
@@ -23501,15 +23699,15 @@
       </c>
       <c r="AK49" s="96">
         <f t="shared" si="92"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AL49" s="96">
         <f t="shared" si="92"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AM49" s="101">
         <f t="shared" ref="AM49" si="94">AM22*AM$6</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN49" s="96">
         <f t="shared" si="92"/>
@@ -23553,7 +23751,7 @@
       </c>
       <c r="AX49" s="96">
         <f t="shared" si="92"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AY49" s="96">
         <f t="shared" si="92"/>
@@ -23730,7 +23928,7 @@
       <c r="F50" s="15"/>
       <c r="H50" s="96">
         <f t="shared" si="19"/>
-        <v>62.625</v>
+        <v>71.125</v>
       </c>
       <c r="I50" s="96">
         <f t="shared" ref="I50:BA50" si="97">I23*I$6</f>
@@ -23762,7 +23960,7 @@
       </c>
       <c r="P50" s="96">
         <f t="shared" si="97"/>
-        <v>7.5</v>
+        <v>11.25</v>
       </c>
       <c r="Q50" s="96">
         <f t="shared" si="97"/>
@@ -23826,7 +24024,7 @@
       </c>
       <c r="AF50" s="106">
         <f t="shared" ref="AF50:AG50" si="98">AF23*AF$6</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG50" s="101">
         <f t="shared" si="98"/>
@@ -23846,15 +24044,15 @@
       </c>
       <c r="AK50" s="96">
         <f t="shared" si="97"/>
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AL50" s="96">
         <f t="shared" si="97"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AM50" s="101">
         <f t="shared" ref="AM50" si="99">AM23*AM$6</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN50" s="96">
         <f t="shared" si="97"/>
@@ -23898,7 +24096,7 @@
       </c>
       <c r="AX50" s="96">
         <f t="shared" si="97"/>
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AY50" s="96">
         <f t="shared" si="97"/>
@@ -24075,7 +24273,7 @@
       <c r="F51" s="15"/>
       <c r="H51" s="96">
         <f t="shared" si="19"/>
-        <v>117.25</v>
+        <v>130.375</v>
       </c>
       <c r="I51" s="96">
         <f t="shared" ref="I51:BA51" si="102">I24*I$6</f>
@@ -24099,7 +24297,7 @@
       </c>
       <c r="N51" s="96">
         <f t="shared" si="102"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="O51" s="96">
         <f t="shared" si="102"/>
@@ -24107,7 +24305,7 @@
       </c>
       <c r="P51" s="96">
         <f t="shared" si="102"/>
-        <v>8.75</v>
+        <v>13.125</v>
       </c>
       <c r="Q51" s="96">
         <f t="shared" si="102"/>
@@ -24171,7 +24369,7 @@
       </c>
       <c r="AF51" s="106">
         <f t="shared" ref="AF51:AG51" si="103">AF24*AF$6</f>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AG51" s="101">
         <f t="shared" si="103"/>
@@ -24191,15 +24389,15 @@
       </c>
       <c r="AK51" s="96">
         <f t="shared" si="102"/>
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AL51" s="96">
         <f t="shared" si="102"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AM51" s="101">
         <f t="shared" ref="AM51" si="104">AM24*AM$6</f>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AN51" s="96">
         <f t="shared" si="102"/>
@@ -24243,7 +24441,7 @@
       </c>
       <c r="AX51" s="96">
         <f t="shared" si="102"/>
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AY51" s="96">
         <f t="shared" si="102"/>
@@ -24420,7 +24618,7 @@
       <c r="F52" s="15"/>
       <c r="H52" s="96">
         <f t="shared" si="19"/>
-        <v>101.91499999999999</v>
+        <v>114.78999999999999</v>
       </c>
       <c r="I52" s="96">
         <f t="shared" ref="I52:BW60" si="107">I25*I$6</f>
@@ -24444,7 +24642,7 @@
       </c>
       <c r="N52" s="96">
         <f t="shared" si="107"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="O52" s="96">
         <f t="shared" si="107"/>
@@ -24452,7 +24650,7 @@
       </c>
       <c r="P52" s="96">
         <f t="shared" si="107"/>
-        <v>8.75</v>
+        <v>13.125</v>
       </c>
       <c r="Q52" s="96">
         <f t="shared" si="107"/>
@@ -24516,7 +24714,7 @@
       </c>
       <c r="AF52" s="106">
         <f t="shared" ref="AF52:AG52" si="108">AF25*AF$6</f>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AG52" s="101">
         <f t="shared" si="108"/>
@@ -24536,15 +24734,15 @@
       </c>
       <c r="AK52" s="96">
         <f t="shared" si="107"/>
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AL52" s="96">
         <f t="shared" si="107"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AM52" s="101">
         <f t="shared" ref="AM52" si="109">AM25*AM$6</f>
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AN52" s="96">
         <f t="shared" si="107"/>
@@ -24588,7 +24786,7 @@
       </c>
       <c r="AX52" s="96">
         <f t="shared" si="107"/>
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AY52" s="96">
         <f t="shared" si="107"/>
@@ -24765,7 +24963,7 @@
       <c r="F53" s="15"/>
       <c r="H53" s="96">
         <f t="shared" si="19"/>
-        <v>97.75</v>
+        <v>110.5</v>
       </c>
       <c r="I53" s="96">
         <f t="shared" ref="I53:BA53" si="112">I26*I$6</f>
@@ -24789,7 +24987,7 @@
       </c>
       <c r="N53" s="96">
         <f t="shared" si="112"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="O53" s="96">
         <f t="shared" si="112"/>
@@ -24797,7 +24995,7 @@
       </c>
       <c r="P53" s="96">
         <f t="shared" si="112"/>
-        <v>7.5</v>
+        <v>11.25</v>
       </c>
       <c r="Q53" s="96">
         <f t="shared" si="112"/>
@@ -24881,15 +25079,15 @@
       </c>
       <c r="AK53" s="96">
         <f t="shared" si="112"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AL53" s="96">
         <f t="shared" si="112"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AM53" s="101">
         <f t="shared" ref="AM53" si="114">AM26*AM$6</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN53" s="96">
         <f t="shared" si="112"/>
@@ -24933,7 +25131,7 @@
       </c>
       <c r="AX53" s="96">
         <f t="shared" si="112"/>
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AY53" s="96">
         <f t="shared" si="112"/>
@@ -25110,7 +25308,7 @@
       <c r="F54" s="15"/>
       <c r="H54" s="96">
         <f t="shared" si="19"/>
-        <v>102.125</v>
+        <v>117.375</v>
       </c>
       <c r="I54" s="96">
         <f t="shared" ref="I54:BA54" si="117">I27*I$6</f>
@@ -25134,7 +25332,7 @@
       </c>
       <c r="N54" s="96">
         <f t="shared" si="117"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="O54" s="96">
         <f t="shared" si="117"/>
@@ -25142,7 +25340,7 @@
       </c>
       <c r="P54" s="96">
         <f t="shared" si="117"/>
-        <v>7.5</v>
+        <v>11.25</v>
       </c>
       <c r="Q54" s="96">
         <f t="shared" si="117"/>
@@ -25206,7 +25404,7 @@
       </c>
       <c r="AF54" s="106">
         <f t="shared" ref="AF54:AG54" si="118">AF27*AF$6</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG54" s="101">
         <f t="shared" si="118"/>
@@ -25226,15 +25424,15 @@
       </c>
       <c r="AK54" s="96">
         <f t="shared" si="117"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AL54" s="96">
         <f t="shared" si="117"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AM54" s="101">
         <f t="shared" ref="AM54" si="119">AM27*AM$6</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN54" s="96">
         <f t="shared" si="117"/>
@@ -25278,7 +25476,7 @@
       </c>
       <c r="AX54" s="96">
         <f t="shared" si="117"/>
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AY54" s="96">
         <f t="shared" si="117"/>
@@ -25452,7 +25650,7 @@
     <row r="55" spans="4:92" x14ac:dyDescent="0.25">
       <c r="H55" s="96">
         <f t="shared" si="19"/>
-        <v>109.45</v>
+        <v>133.82499999999999</v>
       </c>
       <c r="I55" s="96">
         <f t="shared" ref="I55:BA55" si="122">I28*I$6</f>
@@ -25476,15 +25674,15 @@
       </c>
       <c r="N55" s="96">
         <f t="shared" si="122"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="O55" s="96">
         <f t="shared" si="122"/>
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="P55" s="96">
         <f t="shared" si="122"/>
-        <v>8.75</v>
+        <v>13.125</v>
       </c>
       <c r="Q55" s="96">
         <f t="shared" si="122"/>
@@ -25548,7 +25746,7 @@
       </c>
       <c r="AF55" s="106">
         <f t="shared" ref="AF55:AG55" si="123">AF28*AF$6</f>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AG55" s="101">
         <f t="shared" si="123"/>
@@ -25568,15 +25766,15 @@
       </c>
       <c r="AK55" s="96">
         <f t="shared" si="122"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AL55" s="96">
         <f t="shared" si="122"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AM55" s="101">
         <f t="shared" ref="AM55" si="124">AM28*AM$6</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN55" s="96">
         <f t="shared" si="122"/>
@@ -25620,7 +25818,7 @@
       </c>
       <c r="AX55" s="96">
         <f t="shared" si="122"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AY55" s="96">
         <f t="shared" si="122"/>
@@ -26832,7 +27030,7 @@
       <c r="F59" s="15"/>
       <c r="H59" s="96">
         <f t="shared" si="19"/>
-        <v>138</v>
+        <v>222</v>
       </c>
       <c r="I59" s="96">
         <f t="shared" ref="I59:BA59" si="142">I32*I$6</f>
@@ -26856,15 +27054,15 @@
       </c>
       <c r="N59" s="96">
         <f t="shared" si="142"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="O59" s="96">
         <f t="shared" si="142"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="P59" s="96">
         <f t="shared" si="142"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Q59" s="96">
         <f t="shared" si="142"/>
@@ -26928,7 +27126,7 @@
       </c>
       <c r="AF59" s="106">
         <f t="shared" ref="AF59:AG59" si="143">AF32*AF$6</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG59" s="101">
         <f t="shared" si="143"/>
@@ -26948,15 +27146,15 @@
       </c>
       <c r="AK59" s="96">
         <f t="shared" si="142"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AL59" s="96">
         <f t="shared" si="142"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AM59" s="101">
         <f t="shared" ref="AM59" si="144">AM32*AM$6</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN59" s="96">
         <f t="shared" si="142"/>
@@ -27000,7 +27198,7 @@
       </c>
       <c r="AX59" s="96">
         <f t="shared" si="142"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AY59" s="96">
         <f t="shared" si="142"/>
@@ -27104,63 +27302,63 @@
       </c>
       <c r="BX59" s="96">
         <f t="shared" ref="BX59:CN59" si="145">BX32*BX$6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY59" s="96">
         <f t="shared" si="145"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BZ59" s="96">
         <f t="shared" si="145"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CA59" s="96">
         <f t="shared" si="145"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CB59" s="96">
         <f t="shared" si="145"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CC59" s="96">
         <f t="shared" si="145"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CD59" s="96">
         <f t="shared" si="145"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CE59" s="96">
         <f t="shared" si="145"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CF59" s="118">
         <f t="shared" ref="CF59" si="146">CF32*CF$6</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CG59" s="96">
         <f t="shared" si="145"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CH59" s="96">
         <f t="shared" si="145"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CI59" s="96">
         <f t="shared" si="145"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CJ59" s="96">
         <f t="shared" si="145"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CK59" s="96">
         <f t="shared" si="145"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CL59" s="96">
         <f t="shared" si="145"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CM59" s="96">
         <f t="shared" si="145"/>
@@ -27177,7 +27375,7 @@
       <c r="F60" s="15"/>
       <c r="H60" s="96">
         <f t="shared" si="19"/>
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="I60" s="96">
         <f t="shared" ref="I60:BA60" si="147">I33*I$6</f>
@@ -27201,15 +27399,15 @@
       </c>
       <c r="N60" s="96">
         <f t="shared" si="147"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="O60" s="96">
         <f t="shared" si="147"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="P60" s="96">
         <f t="shared" si="147"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Q60" s="96">
         <f t="shared" si="147"/>
@@ -27273,7 +27471,7 @@
       </c>
       <c r="AF60" s="106">
         <f t="shared" ref="AF60:AG60" si="148">AF33*AF$6</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG60" s="101">
         <f t="shared" si="148"/>
@@ -27293,15 +27491,15 @@
       </c>
       <c r="AK60" s="96">
         <f t="shared" si="147"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AL60" s="96">
         <f t="shared" si="147"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AM60" s="101">
         <f t="shared" ref="AM60" si="149">AM33*AM$6</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN60" s="96">
         <f t="shared" si="147"/>
@@ -27345,7 +27543,7 @@
       </c>
       <c r="AX60" s="96">
         <f t="shared" si="147"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AY60" s="96">
         <f t="shared" si="147"/>
@@ -35514,7 +35712,7 @@
     <row r="88" spans="4:92" x14ac:dyDescent="0.25">
       <c r="H88" s="96">
         <f t="shared" si="152"/>
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="I88" s="96">
         <f t="shared" ref="I88:BW88" si="272">I32*I$7</f>
@@ -35546,7 +35744,7 @@
       </c>
       <c r="P88" s="96">
         <f t="shared" si="272"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q88" s="96">
         <f t="shared" si="272"/>
@@ -35786,63 +35984,63 @@
       </c>
       <c r="BX88" s="96">
         <f t="shared" ref="BX88:CN88" si="275">BX32*BX$7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY88" s="96">
         <f t="shared" si="275"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ88" s="96">
         <f t="shared" si="275"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA88" s="96">
         <f t="shared" si="275"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB88" s="96">
         <f t="shared" si="275"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC88" s="96">
         <f t="shared" si="275"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD88" s="96">
         <f t="shared" si="275"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE88" s="96">
         <f t="shared" si="275"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF88" s="118">
         <f t="shared" ref="CF88" si="276">CF32*CF$7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG88" s="96">
         <f t="shared" si="275"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH88" s="96">
         <f t="shared" si="275"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI88" s="96">
         <f t="shared" si="275"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ88" s="96">
         <f t="shared" si="275"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CK88" s="96">
         <f t="shared" si="275"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL88" s="96">
         <f t="shared" si="275"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CM88" s="96">
         <f t="shared" si="275"/>
@@ -36336,184 +36534,275 @@
     <mergeCell ref="BJ4:BJ5"/>
   </mergeCells>
   <conditionalFormatting sqref="D9:F23 D33:F33 E32:F32">
-    <cfRule type="cellIs" dxfId="992" priority="1261" operator="between">
+    <cfRule type="cellIs" dxfId="1016" priority="1285" operator="between">
       <formula>8</formula>
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="991" priority="1262" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1015" priority="1286" operator="lessThan">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CN9:CN21 CA9:CC23 BX9:BY23 AS9:AV23 CJ9:CL23 CJ32:CL33 AS32:AV33 BX32:BY33 CA32:CC33 AH32:AL33 AN33:AP33 AN9:AO23 J9:AD11 AH9:AL23 AN32:AO32 J12:O23 Q12:AD23 J32:AD33">
-    <cfRule type="cellIs" dxfId="990" priority="1256" operator="equal">
+  <conditionalFormatting sqref="CN9:CN21 CA9:CC23 BX9:BY23 AS9:AV23 CJ9:CL23 CJ33:CL33 AS32:AV33 BX33:BY33 CA33:CC33 AH32:AL33 AN33:AP33 AN9:AO23 J9:AD11 AH9:AL23 AN32:AO32 J12:O23 Q12:AD23 J32:AD33 CL32">
+    <cfRule type="cellIs" dxfId="1014" priority="1280" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="989" priority="1257" operator="between">
+    <cfRule type="cellIs" dxfId="1013" priority="1281" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="988" priority="1258" operator="between">
+    <cfRule type="cellIs" dxfId="1012" priority="1282" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ9:AQ19 AQ21">
-    <cfRule type="cellIs" dxfId="987" priority="1232" operator="equal">
+    <cfRule type="cellIs" dxfId="1011" priority="1256" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="986" priority="1233" operator="between">
+    <cfRule type="cellIs" dxfId="1010" priority="1257" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="985" priority="1234" operator="between">
+    <cfRule type="cellIs" dxfId="1009" priority="1258" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ22:AQ23 AQ33">
-    <cfRule type="cellIs" dxfId="984" priority="1229" operator="equal">
+    <cfRule type="cellIs" dxfId="1008" priority="1253" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="983" priority="1230" operator="between">
+    <cfRule type="cellIs" dxfId="1007" priority="1254" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="982" priority="1231" operator="between">
+    <cfRule type="cellIs" dxfId="1006" priority="1255" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE9 AE17:AE22 AE32:AE33 AE11:AE14">
-    <cfRule type="cellIs" dxfId="981" priority="1205" operator="equal">
+    <cfRule type="cellIs" dxfId="1005" priority="1229" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="980" priority="1206" operator="between">
+    <cfRule type="cellIs" dxfId="1004" priority="1230" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="979" priority="1207" operator="between">
+    <cfRule type="cellIs" dxfId="1003" priority="1231" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BZ9:BZ23 BZ33">
-    <cfRule type="cellIs" dxfId="978" priority="1190" operator="equal">
+    <cfRule type="cellIs" dxfId="1002" priority="1214" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="977" priority="1191" operator="between">
+    <cfRule type="cellIs" dxfId="1001" priority="1215" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="976" priority="1192" operator="between">
+    <cfRule type="cellIs" dxfId="1000" priority="1216" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE15">
-    <cfRule type="cellIs" dxfId="975" priority="1184" operator="equal">
+    <cfRule type="cellIs" dxfId="999" priority="1208" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="974" priority="1185" operator="between">
+    <cfRule type="cellIs" dxfId="998" priority="1209" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="973" priority="1186" operator="between">
+    <cfRule type="cellIs" dxfId="997" priority="1210" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR33">
-    <cfRule type="cellIs" dxfId="972" priority="1172" operator="equal">
+    <cfRule type="cellIs" dxfId="996" priority="1196" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="971" priority="1173" operator="between">
+    <cfRule type="cellIs" dxfId="995" priority="1197" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="970" priority="1174" operator="between">
+    <cfRule type="cellIs" dxfId="994" priority="1198" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ20">
-    <cfRule type="cellIs" dxfId="969" priority="1145" operator="equal">
+    <cfRule type="cellIs" dxfId="993" priority="1169" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="968" priority="1146" operator="between">
+    <cfRule type="cellIs" dxfId="992" priority="1170" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="967" priority="1147" operator="between">
+    <cfRule type="cellIs" dxfId="991" priority="1171" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ32">
-    <cfRule type="cellIs" dxfId="966" priority="1133" operator="equal">
+    <cfRule type="cellIs" dxfId="990" priority="1157" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="965" priority="1134" operator="between">
+    <cfRule type="cellIs" dxfId="989" priority="1158" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="964" priority="1135" operator="between">
+    <cfRule type="cellIs" dxfId="988" priority="1159" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CM9:CM21">
-    <cfRule type="cellIs" dxfId="963" priority="1109" operator="equal">
+    <cfRule type="cellIs" dxfId="987" priority="1133" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="962" priority="1110" operator="between">
+    <cfRule type="cellIs" dxfId="986" priority="1134" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="961" priority="1111" operator="between">
+    <cfRule type="cellIs" dxfId="985" priority="1135" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BZ32">
-    <cfRule type="cellIs" dxfId="960" priority="1103" operator="equal">
+  <conditionalFormatting sqref="BC9:BD23 BH9:BH23 AZ33 BG33:BH33 AW33 BC33:BE33 BC32:BD32 BH32">
+    <cfRule type="cellIs" dxfId="981" priority="1124" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="959" priority="1104" operator="between">
+    <cfRule type="cellIs" dxfId="980" priority="1125" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="958" priority="1105" operator="between">
+    <cfRule type="cellIs" dxfId="979" priority="1126" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BC9:BD23 BH9:BH23 AZ33 BG33:BH33 AW33 BC33:BE33 BC32:BD32 BH32">
-    <cfRule type="cellIs" dxfId="957" priority="1100" operator="equal">
+  <conditionalFormatting sqref="BA33">
+    <cfRule type="cellIs" dxfId="978" priority="1121" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="956" priority="1101" operator="between">
+    <cfRule type="cellIs" dxfId="977" priority="1122" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="955" priority="1102" operator="between">
+    <cfRule type="cellIs" dxfId="976" priority="1123" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BA33">
-    <cfRule type="cellIs" dxfId="954" priority="1097" operator="equal">
+  <conditionalFormatting sqref="BL9:BO23 BI9:BJ23 BQ9:BQ23 BQ32:BQ33 BI32:BJ33 BL32:BO33">
+    <cfRule type="cellIs" dxfId="975" priority="1115" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="953" priority="1098" operator="between">
+    <cfRule type="cellIs" dxfId="974" priority="1116" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="952" priority="1099" operator="between">
+    <cfRule type="cellIs" dxfId="973" priority="1117" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BL9:BO23 BI9:BJ23 BQ9:BQ23 BQ32:BQ33 BI32:BJ33 BL32:BO33">
+  <conditionalFormatting sqref="BK9:BK23 BK33">
+    <cfRule type="cellIs" dxfId="972" priority="1112" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="971" priority="1113" operator="between">
+      <formula>0.01</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="970" priority="1114" operator="between">
+      <formula>0.26</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BK32">
+    <cfRule type="cellIs" dxfId="969" priority="1109" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="968" priority="1110" operator="between">
+      <formula>0.01</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="967" priority="1111" operator="between">
+      <formula>0.26</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BU9:BW23 BR9:BS23 BR32:BS33 BU32:BW33">
+    <cfRule type="cellIs" dxfId="966" priority="1106" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="965" priority="1107" operator="between">
+      <formula>0.01</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="964" priority="1108" operator="between">
+      <formula>0.26</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BT9:BT23 BT33">
+    <cfRule type="cellIs" dxfId="963" priority="1103" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="962" priority="1104" operator="between">
+      <formula>0.01</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="961" priority="1105" operator="between">
+      <formula>0.26</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BT32">
+    <cfRule type="cellIs" dxfId="960" priority="1100" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="959" priority="1101" operator="between">
+      <formula>0.01</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="958" priority="1102" operator="between">
+      <formula>0.26</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BB33">
+    <cfRule type="cellIs" dxfId="957" priority="1097" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="956" priority="1098" operator="between">
+      <formula>0.01</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="955" priority="1099" operator="between">
+      <formula>0.26</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BF33">
+    <cfRule type="cellIs" dxfId="954" priority="1094" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="953" priority="1095" operator="between">
+      <formula>0.01</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="952" priority="1096" operator="between">
+      <formula>0.26</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BP9:BP23 BP32:BP33">
     <cfRule type="cellIs" dxfId="951" priority="1091" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -36526,7 +36815,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BK9:BK23 BK33">
+  <conditionalFormatting sqref="AY9:AY23 AY32:AY33">
     <cfRule type="cellIs" dxfId="948" priority="1088" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -36539,7 +36828,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BK32">
+  <conditionalFormatting sqref="AX9:AX23 AX32:AX33">
     <cfRule type="cellIs" dxfId="945" priority="1085" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -36552,7 +36841,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BU9:BW23 BR9:BS23 BR32:BS33 BU32:BW33">
+  <conditionalFormatting sqref="CD9:CD23 CD33">
     <cfRule type="cellIs" dxfId="942" priority="1082" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -36565,7 +36854,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BT9:BT23 BT33">
+  <conditionalFormatting sqref="CE9:CE23 CE33">
     <cfRule type="cellIs" dxfId="939" priority="1079" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -36578,7 +36867,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BT32">
+  <conditionalFormatting sqref="CG9:CG23 CG33">
     <cfRule type="cellIs" dxfId="936" priority="1076" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -36591,7 +36880,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BB33">
+  <conditionalFormatting sqref="CH9:CH23 CH33">
     <cfRule type="cellIs" dxfId="933" priority="1073" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -36604,7 +36893,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BF33">
+  <conditionalFormatting sqref="CI9:CI23 CI33">
     <cfRule type="cellIs" dxfId="930" priority="1070" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -36617,7 +36906,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BP9:BP23 BP32:BP33">
+  <conditionalFormatting sqref="CN22:CN23 CN32">
     <cfRule type="cellIs" dxfId="927" priority="1067" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -36630,7 +36919,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY9:AY23 AY32:AY33">
+  <conditionalFormatting sqref="CM22:CM23 CM32">
     <cfRule type="cellIs" dxfId="924" priority="1064" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -36643,7 +36932,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX9:AX23 AX32:AX33">
+  <conditionalFormatting sqref="I9:I23 I32">
     <cfRule type="cellIs" dxfId="921" priority="1061" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -36656,237 +36945,237 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CD9:CD23 CD32:CD33">
-    <cfRule type="cellIs" dxfId="918" priority="1058" operator="equal">
+  <conditionalFormatting sqref="D24:F24">
+    <cfRule type="cellIs" dxfId="918" priority="1059" operator="between">
+      <formula>8</formula>
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="917" priority="1060" operator="lessThan">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CJ24:CL24 J24:O24 AS24:AV24 BX24:BY24 CA24:CC24 AH24:AL24 AN24 Q24:AD24">
+    <cfRule type="cellIs" dxfId="916" priority="1056" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="917" priority="1059" operator="between">
+    <cfRule type="cellIs" dxfId="915" priority="1057" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="916" priority="1060" operator="between">
+    <cfRule type="cellIs" dxfId="914" priority="1058" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CE9:CE23 CE32:CE33">
-    <cfRule type="cellIs" dxfId="915" priority="1055" operator="equal">
+  <conditionalFormatting sqref="AE24">
+    <cfRule type="cellIs" dxfId="913" priority="1053" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="914" priority="1056" operator="between">
+    <cfRule type="cellIs" dxfId="912" priority="1054" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="913" priority="1057" operator="between">
+    <cfRule type="cellIs" dxfId="911" priority="1055" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CG9:CG23 CG32:CG33">
-    <cfRule type="cellIs" dxfId="912" priority="1052" operator="equal">
+  <conditionalFormatting sqref="AQ24">
+    <cfRule type="cellIs" dxfId="910" priority="1050" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="911" priority="1053" operator="between">
+    <cfRule type="cellIs" dxfId="909" priority="1051" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="910" priority="1054" operator="between">
+    <cfRule type="cellIs" dxfId="908" priority="1052" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CH9:CH23 CH32:CH33">
-    <cfRule type="cellIs" dxfId="909" priority="1049" operator="equal">
+  <conditionalFormatting sqref="BZ24">
+    <cfRule type="cellIs" dxfId="907" priority="1044" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="908" priority="1050" operator="between">
+    <cfRule type="cellIs" dxfId="906" priority="1045" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="907" priority="1051" operator="between">
+    <cfRule type="cellIs" dxfId="905" priority="1046" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CI9:CI23 CI32:CI33">
-    <cfRule type="cellIs" dxfId="906" priority="1046" operator="equal">
+  <conditionalFormatting sqref="BH24 BC24:BD24">
+    <cfRule type="cellIs" dxfId="904" priority="1041" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="905" priority="1047" operator="between">
+    <cfRule type="cellIs" dxfId="903" priority="1042" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="904" priority="1048" operator="between">
+    <cfRule type="cellIs" dxfId="902" priority="1043" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CN22:CN23 CN32">
-    <cfRule type="cellIs" dxfId="903" priority="1043" operator="equal">
+  <conditionalFormatting sqref="BQ24 BI24:BJ24 BL24:BO24">
+    <cfRule type="cellIs" dxfId="901" priority="1035" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="902" priority="1044" operator="between">
+    <cfRule type="cellIs" dxfId="900" priority="1036" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="901" priority="1045" operator="between">
+    <cfRule type="cellIs" dxfId="899" priority="1037" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CM22:CM23 CM32">
-    <cfRule type="cellIs" dxfId="900" priority="1040" operator="equal">
+  <conditionalFormatting sqref="BK24">
+    <cfRule type="cellIs" dxfId="898" priority="1032" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="899" priority="1041" operator="between">
+    <cfRule type="cellIs" dxfId="897" priority="1033" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="898" priority="1042" operator="between">
+    <cfRule type="cellIs" dxfId="896" priority="1034" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I9:I23 I32">
-    <cfRule type="cellIs" dxfId="897" priority="1037" operator="equal">
+  <conditionalFormatting sqref="BR24:BS24 BU24:BW24">
+    <cfRule type="cellIs" dxfId="895" priority="1029" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="896" priority="1038" operator="between">
+    <cfRule type="cellIs" dxfId="894" priority="1030" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="895" priority="1039" operator="between">
+    <cfRule type="cellIs" dxfId="893" priority="1031" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D24:F24">
-    <cfRule type="cellIs" dxfId="894" priority="1035" operator="between">
-      <formula>8</formula>
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="893" priority="1036" operator="lessThan">
-      <formula>8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CJ24:CL24 J24:O24 AS24:AV24 BX24:BY24 CA24:CC24 AH24:AL24 AN24 Q24:AD24">
-    <cfRule type="cellIs" dxfId="892" priority="1032" operator="equal">
+  <conditionalFormatting sqref="BT24">
+    <cfRule type="cellIs" dxfId="892" priority="1026" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="891" priority="1033" operator="between">
+    <cfRule type="cellIs" dxfId="891" priority="1027" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="890" priority="1034" operator="between">
+    <cfRule type="cellIs" dxfId="890" priority="1028" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE24">
-    <cfRule type="cellIs" dxfId="889" priority="1029" operator="equal">
+  <conditionalFormatting sqref="BP24">
+    <cfRule type="cellIs" dxfId="889" priority="1017" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="888" priority="1030" operator="between">
+    <cfRule type="cellIs" dxfId="888" priority="1018" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="887" priority="1031" operator="between">
+    <cfRule type="cellIs" dxfId="887" priority="1019" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ24">
-    <cfRule type="cellIs" dxfId="886" priority="1026" operator="equal">
+  <conditionalFormatting sqref="AY24">
+    <cfRule type="cellIs" dxfId="886" priority="1014" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="885" priority="1027" operator="between">
+    <cfRule type="cellIs" dxfId="885" priority="1015" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="884" priority="1028" operator="between">
+    <cfRule type="cellIs" dxfId="884" priority="1016" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BZ24">
-    <cfRule type="cellIs" dxfId="883" priority="1020" operator="equal">
+  <conditionalFormatting sqref="AX24">
+    <cfRule type="cellIs" dxfId="883" priority="1011" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="882" priority="1021" operator="between">
+    <cfRule type="cellIs" dxfId="882" priority="1012" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="881" priority="1022" operator="between">
+    <cfRule type="cellIs" dxfId="881" priority="1013" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BH24 BC24:BD24">
-    <cfRule type="cellIs" dxfId="880" priority="1017" operator="equal">
+  <conditionalFormatting sqref="CD24">
+    <cfRule type="cellIs" dxfId="880" priority="1008" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="879" priority="1018" operator="between">
+    <cfRule type="cellIs" dxfId="879" priority="1009" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="878" priority="1019" operator="between">
+    <cfRule type="cellIs" dxfId="878" priority="1010" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BQ24 BI24:BJ24 BL24:BO24">
-    <cfRule type="cellIs" dxfId="877" priority="1011" operator="equal">
+  <conditionalFormatting sqref="CE24">
+    <cfRule type="cellIs" dxfId="877" priority="1005" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="876" priority="1012" operator="between">
+    <cfRule type="cellIs" dxfId="876" priority="1006" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="875" priority="1013" operator="between">
+    <cfRule type="cellIs" dxfId="875" priority="1007" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BK24">
-    <cfRule type="cellIs" dxfId="874" priority="1008" operator="equal">
+  <conditionalFormatting sqref="CG24">
+    <cfRule type="cellIs" dxfId="874" priority="1002" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="873" priority="1009" operator="between">
+    <cfRule type="cellIs" dxfId="873" priority="1003" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="872" priority="1010" operator="between">
+    <cfRule type="cellIs" dxfId="872" priority="1004" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BR24:BS24 BU24:BW24">
-    <cfRule type="cellIs" dxfId="871" priority="1005" operator="equal">
+  <conditionalFormatting sqref="CH24">
+    <cfRule type="cellIs" dxfId="871" priority="999" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="870" priority="1006" operator="between">
+    <cfRule type="cellIs" dxfId="870" priority="1000" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="869" priority="1007" operator="between">
+    <cfRule type="cellIs" dxfId="869" priority="1001" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BT24">
-    <cfRule type="cellIs" dxfId="868" priority="1002" operator="equal">
+  <conditionalFormatting sqref="CI24">
+    <cfRule type="cellIs" dxfId="868" priority="996" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="867" priority="1003" operator="between">
+    <cfRule type="cellIs" dxfId="867" priority="997" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="866" priority="1004" operator="between">
+    <cfRule type="cellIs" dxfId="866" priority="998" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BP24">
+  <conditionalFormatting sqref="CN24">
     <cfRule type="cellIs" dxfId="865" priority="993" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -36899,7 +37188,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY24">
+  <conditionalFormatting sqref="CM24">
     <cfRule type="cellIs" dxfId="862" priority="990" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -36912,7 +37201,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX24">
+  <conditionalFormatting sqref="I24">
     <cfRule type="cellIs" dxfId="859" priority="987" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -36925,237 +37214,237 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CD24">
-    <cfRule type="cellIs" dxfId="856" priority="984" operator="equal">
+  <conditionalFormatting sqref="D25:F25">
+    <cfRule type="cellIs" dxfId="856" priority="985" operator="between">
+      <formula>8</formula>
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="855" priority="986" operator="lessThan">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CJ25:CL25 J25:O25 AS25:AV25 BX25:BY25 CA25:CC25 AH25:AI25 AN25:AO25 AL25 AC25:AD25 Q25:AA25">
+    <cfRule type="cellIs" dxfId="854" priority="982" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="855" priority="985" operator="between">
+    <cfRule type="cellIs" dxfId="853" priority="983" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="854" priority="986" operator="between">
+    <cfRule type="cellIs" dxfId="852" priority="984" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CE24">
-    <cfRule type="cellIs" dxfId="853" priority="981" operator="equal">
+  <conditionalFormatting sqref="AE25">
+    <cfRule type="cellIs" dxfId="851" priority="979" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="852" priority="982" operator="between">
+    <cfRule type="cellIs" dxfId="850" priority="980" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="851" priority="983" operator="between">
+    <cfRule type="cellIs" dxfId="849" priority="981" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CG24">
-    <cfRule type="cellIs" dxfId="850" priority="978" operator="equal">
+  <conditionalFormatting sqref="AQ25">
+    <cfRule type="cellIs" dxfId="848" priority="976" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="849" priority="979" operator="between">
+    <cfRule type="cellIs" dxfId="847" priority="977" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="848" priority="980" operator="between">
+    <cfRule type="cellIs" dxfId="846" priority="978" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CH24">
-    <cfRule type="cellIs" dxfId="847" priority="975" operator="equal">
+  <conditionalFormatting sqref="BZ25">
+    <cfRule type="cellIs" dxfId="845" priority="970" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="846" priority="976" operator="between">
+    <cfRule type="cellIs" dxfId="844" priority="971" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="845" priority="977" operator="between">
+    <cfRule type="cellIs" dxfId="843" priority="972" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CI24">
-    <cfRule type="cellIs" dxfId="844" priority="972" operator="equal">
+  <conditionalFormatting sqref="BH25 BC25:BD25">
+    <cfRule type="cellIs" dxfId="842" priority="967" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="843" priority="973" operator="between">
+    <cfRule type="cellIs" dxfId="841" priority="968" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="842" priority="974" operator="between">
+    <cfRule type="cellIs" dxfId="840" priority="969" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CN24">
-    <cfRule type="cellIs" dxfId="841" priority="969" operator="equal">
+  <conditionalFormatting sqref="BQ25 BI25:BJ25 BL25:BO25">
+    <cfRule type="cellIs" dxfId="839" priority="961" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="840" priority="970" operator="between">
+    <cfRule type="cellIs" dxfId="838" priority="962" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="839" priority="971" operator="between">
+    <cfRule type="cellIs" dxfId="837" priority="963" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CM24">
-    <cfRule type="cellIs" dxfId="838" priority="966" operator="equal">
+  <conditionalFormatting sqref="BK25">
+    <cfRule type="cellIs" dxfId="836" priority="958" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="837" priority="967" operator="between">
+    <cfRule type="cellIs" dxfId="835" priority="959" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="836" priority="968" operator="between">
+    <cfRule type="cellIs" dxfId="834" priority="960" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I24">
-    <cfRule type="cellIs" dxfId="835" priority="963" operator="equal">
+  <conditionalFormatting sqref="BR25:BS25 BU25:BW25">
+    <cfRule type="cellIs" dxfId="833" priority="955" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="834" priority="964" operator="between">
+    <cfRule type="cellIs" dxfId="832" priority="956" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="833" priority="965" operator="between">
+    <cfRule type="cellIs" dxfId="831" priority="957" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D25:F25">
-    <cfRule type="cellIs" dxfId="832" priority="961" operator="between">
-      <formula>8</formula>
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="831" priority="962" operator="lessThan">
-      <formula>8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CJ25:CL25 J25:O25 AS25:AV25 BX25:BY25 CA25:CC25 AH25:AI25 AN25:AO25 AL25 AC25:AD25 Q25:AA25">
-    <cfRule type="cellIs" dxfId="830" priority="958" operator="equal">
+  <conditionalFormatting sqref="BT25">
+    <cfRule type="cellIs" dxfId="830" priority="952" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="829" priority="959" operator="between">
+    <cfRule type="cellIs" dxfId="829" priority="953" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="828" priority="960" operator="between">
+    <cfRule type="cellIs" dxfId="828" priority="954" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE25">
-    <cfRule type="cellIs" dxfId="827" priority="955" operator="equal">
+  <conditionalFormatting sqref="BP25">
+    <cfRule type="cellIs" dxfId="827" priority="943" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="826" priority="956" operator="between">
+    <cfRule type="cellIs" dxfId="826" priority="944" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="825" priority="957" operator="between">
+    <cfRule type="cellIs" dxfId="825" priority="945" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ25">
-    <cfRule type="cellIs" dxfId="824" priority="952" operator="equal">
+  <conditionalFormatting sqref="AY25">
+    <cfRule type="cellIs" dxfId="824" priority="940" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="823" priority="953" operator="between">
+    <cfRule type="cellIs" dxfId="823" priority="941" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="822" priority="954" operator="between">
+    <cfRule type="cellIs" dxfId="822" priority="942" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BZ25">
-    <cfRule type="cellIs" dxfId="821" priority="946" operator="equal">
+  <conditionalFormatting sqref="AX25">
+    <cfRule type="cellIs" dxfId="821" priority="937" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="820" priority="947" operator="between">
+    <cfRule type="cellIs" dxfId="820" priority="938" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="819" priority="948" operator="between">
+    <cfRule type="cellIs" dxfId="819" priority="939" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BH25 BC25:BD25">
-    <cfRule type="cellIs" dxfId="818" priority="943" operator="equal">
+  <conditionalFormatting sqref="CD25">
+    <cfRule type="cellIs" dxfId="818" priority="934" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="817" priority="944" operator="between">
+    <cfRule type="cellIs" dxfId="817" priority="935" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="816" priority="945" operator="between">
+    <cfRule type="cellIs" dxfId="816" priority="936" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BQ25 BI25:BJ25 BL25:BO25">
-    <cfRule type="cellIs" dxfId="815" priority="937" operator="equal">
+  <conditionalFormatting sqref="CE25">
+    <cfRule type="cellIs" dxfId="815" priority="931" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="814" priority="938" operator="between">
+    <cfRule type="cellIs" dxfId="814" priority="932" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="813" priority="939" operator="between">
+    <cfRule type="cellIs" dxfId="813" priority="933" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BK25">
-    <cfRule type="cellIs" dxfId="812" priority="934" operator="equal">
+  <conditionalFormatting sqref="CG25">
+    <cfRule type="cellIs" dxfId="812" priority="928" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="811" priority="935" operator="between">
+    <cfRule type="cellIs" dxfId="811" priority="929" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="810" priority="936" operator="between">
+    <cfRule type="cellIs" dxfId="810" priority="930" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BR25:BS25 BU25:BW25">
-    <cfRule type="cellIs" dxfId="809" priority="931" operator="equal">
+  <conditionalFormatting sqref="CH25">
+    <cfRule type="cellIs" dxfId="809" priority="925" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="808" priority="932" operator="between">
+    <cfRule type="cellIs" dxfId="808" priority="926" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="807" priority="933" operator="between">
+    <cfRule type="cellIs" dxfId="807" priority="927" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BT25">
-    <cfRule type="cellIs" dxfId="806" priority="928" operator="equal">
+  <conditionalFormatting sqref="CI25">
+    <cfRule type="cellIs" dxfId="806" priority="922" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="805" priority="929" operator="between">
+    <cfRule type="cellIs" dxfId="805" priority="923" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="804" priority="930" operator="between">
+    <cfRule type="cellIs" dxfId="804" priority="924" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BP25">
+  <conditionalFormatting sqref="CN25">
     <cfRule type="cellIs" dxfId="803" priority="919" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -37168,7 +37457,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY25">
+  <conditionalFormatting sqref="CM25">
     <cfRule type="cellIs" dxfId="800" priority="916" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -37181,7 +37470,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX25">
+  <conditionalFormatting sqref="I25">
     <cfRule type="cellIs" dxfId="797" priority="913" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -37194,237 +37483,237 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CD25">
-    <cfRule type="cellIs" dxfId="794" priority="910" operator="equal">
+  <conditionalFormatting sqref="D26:F26">
+    <cfRule type="cellIs" dxfId="794" priority="911" operator="between">
+      <formula>8</formula>
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="793" priority="912" operator="lessThan">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CJ26:CL26 J26:O26 AS26:AV26 BX26:BY26 CA26:CC26 AH26:AL26 AN26:AO26 Q26:AD26">
+    <cfRule type="cellIs" dxfId="792" priority="908" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="793" priority="911" operator="between">
+    <cfRule type="cellIs" dxfId="791" priority="909" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="792" priority="912" operator="between">
+    <cfRule type="cellIs" dxfId="790" priority="910" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CE25">
-    <cfRule type="cellIs" dxfId="791" priority="907" operator="equal">
+  <conditionalFormatting sqref="AE26">
+    <cfRule type="cellIs" dxfId="789" priority="905" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="790" priority="908" operator="between">
+    <cfRule type="cellIs" dxfId="788" priority="906" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="789" priority="909" operator="between">
+    <cfRule type="cellIs" dxfId="787" priority="907" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CG25">
-    <cfRule type="cellIs" dxfId="788" priority="904" operator="equal">
+  <conditionalFormatting sqref="AQ26">
+    <cfRule type="cellIs" dxfId="786" priority="902" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="787" priority="905" operator="between">
+    <cfRule type="cellIs" dxfId="785" priority="903" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="786" priority="906" operator="between">
+    <cfRule type="cellIs" dxfId="784" priority="904" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CH25">
-    <cfRule type="cellIs" dxfId="785" priority="901" operator="equal">
+  <conditionalFormatting sqref="BZ26">
+    <cfRule type="cellIs" dxfId="783" priority="896" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="784" priority="902" operator="between">
+    <cfRule type="cellIs" dxfId="782" priority="897" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="783" priority="903" operator="between">
+    <cfRule type="cellIs" dxfId="781" priority="898" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CI25">
-    <cfRule type="cellIs" dxfId="782" priority="898" operator="equal">
+  <conditionalFormatting sqref="BH26 BC26:BD26">
+    <cfRule type="cellIs" dxfId="780" priority="893" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="781" priority="899" operator="between">
+    <cfRule type="cellIs" dxfId="779" priority="894" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="780" priority="900" operator="between">
+    <cfRule type="cellIs" dxfId="778" priority="895" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CN25">
-    <cfRule type="cellIs" dxfId="779" priority="895" operator="equal">
+  <conditionalFormatting sqref="BQ26 BI26:BJ26 BL26:BO26">
+    <cfRule type="cellIs" dxfId="777" priority="887" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="778" priority="896" operator="between">
+    <cfRule type="cellIs" dxfId="776" priority="888" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="777" priority="897" operator="between">
+    <cfRule type="cellIs" dxfId="775" priority="889" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CM25">
-    <cfRule type="cellIs" dxfId="776" priority="892" operator="equal">
+  <conditionalFormatting sqref="BK26">
+    <cfRule type="cellIs" dxfId="774" priority="884" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="775" priority="893" operator="between">
+    <cfRule type="cellIs" dxfId="773" priority="885" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="774" priority="894" operator="between">
+    <cfRule type="cellIs" dxfId="772" priority="886" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I25">
-    <cfRule type="cellIs" dxfId="773" priority="889" operator="equal">
+  <conditionalFormatting sqref="BR26:BS26 BU26:BW26">
+    <cfRule type="cellIs" dxfId="771" priority="881" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="772" priority="890" operator="between">
+    <cfRule type="cellIs" dxfId="770" priority="882" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="771" priority="891" operator="between">
+    <cfRule type="cellIs" dxfId="769" priority="883" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D26:F26">
-    <cfRule type="cellIs" dxfId="770" priority="887" operator="between">
-      <formula>8</formula>
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="769" priority="888" operator="lessThan">
-      <formula>8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CJ26:CL26 J26:O26 AS26:AV26 BX26:BY26 CA26:CC26 AH26:AL26 AN26:AO26 Q26:AD26">
-    <cfRule type="cellIs" dxfId="768" priority="884" operator="equal">
+  <conditionalFormatting sqref="BT26">
+    <cfRule type="cellIs" dxfId="768" priority="878" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="767" priority="885" operator="between">
+    <cfRule type="cellIs" dxfId="767" priority="879" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="766" priority="886" operator="between">
+    <cfRule type="cellIs" dxfId="766" priority="880" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE26">
-    <cfRule type="cellIs" dxfId="765" priority="881" operator="equal">
+  <conditionalFormatting sqref="BP26">
+    <cfRule type="cellIs" dxfId="765" priority="869" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="764" priority="882" operator="between">
+    <cfRule type="cellIs" dxfId="764" priority="870" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="763" priority="883" operator="between">
+    <cfRule type="cellIs" dxfId="763" priority="871" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ26">
-    <cfRule type="cellIs" dxfId="762" priority="878" operator="equal">
+  <conditionalFormatting sqref="AY26">
+    <cfRule type="cellIs" dxfId="762" priority="866" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="761" priority="879" operator="between">
+    <cfRule type="cellIs" dxfId="761" priority="867" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="760" priority="880" operator="between">
+    <cfRule type="cellIs" dxfId="760" priority="868" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BZ26">
-    <cfRule type="cellIs" dxfId="759" priority="872" operator="equal">
+  <conditionalFormatting sqref="AX26">
+    <cfRule type="cellIs" dxfId="759" priority="863" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="758" priority="873" operator="between">
+    <cfRule type="cellIs" dxfId="758" priority="864" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="757" priority="874" operator="between">
+    <cfRule type="cellIs" dxfId="757" priority="865" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BH26 BC26:BD26">
-    <cfRule type="cellIs" dxfId="756" priority="869" operator="equal">
+  <conditionalFormatting sqref="CD26">
+    <cfRule type="cellIs" dxfId="756" priority="860" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="755" priority="870" operator="between">
+    <cfRule type="cellIs" dxfId="755" priority="861" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="754" priority="871" operator="between">
+    <cfRule type="cellIs" dxfId="754" priority="862" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BQ26 BI26:BJ26 BL26:BO26">
-    <cfRule type="cellIs" dxfId="753" priority="863" operator="equal">
+  <conditionalFormatting sqref="CE26">
+    <cfRule type="cellIs" dxfId="753" priority="857" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="752" priority="864" operator="between">
+    <cfRule type="cellIs" dxfId="752" priority="858" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="751" priority="865" operator="between">
+    <cfRule type="cellIs" dxfId="751" priority="859" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BK26">
-    <cfRule type="cellIs" dxfId="750" priority="860" operator="equal">
+  <conditionalFormatting sqref="CG26">
+    <cfRule type="cellIs" dxfId="750" priority="854" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="749" priority="861" operator="between">
+    <cfRule type="cellIs" dxfId="749" priority="855" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="748" priority="862" operator="between">
+    <cfRule type="cellIs" dxfId="748" priority="856" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BR26:BS26 BU26:BW26">
-    <cfRule type="cellIs" dxfId="747" priority="857" operator="equal">
+  <conditionalFormatting sqref="CH26">
+    <cfRule type="cellIs" dxfId="747" priority="851" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="746" priority="858" operator="between">
+    <cfRule type="cellIs" dxfId="746" priority="852" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="745" priority="859" operator="between">
+    <cfRule type="cellIs" dxfId="745" priority="853" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BT26">
-    <cfRule type="cellIs" dxfId="744" priority="854" operator="equal">
+  <conditionalFormatting sqref="CI26">
+    <cfRule type="cellIs" dxfId="744" priority="848" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="743" priority="855" operator="between">
+    <cfRule type="cellIs" dxfId="743" priority="849" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="742" priority="856" operator="between">
+    <cfRule type="cellIs" dxfId="742" priority="850" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BP26">
+  <conditionalFormatting sqref="CN26">
     <cfRule type="cellIs" dxfId="741" priority="845" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -37437,7 +37726,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY26">
+  <conditionalFormatting sqref="CM26">
     <cfRule type="cellIs" dxfId="738" priority="842" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -37450,7 +37739,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX26">
+  <conditionalFormatting sqref="I26">
     <cfRule type="cellIs" dxfId="735" priority="839" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -37463,224 +37752,224 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CD26">
-    <cfRule type="cellIs" dxfId="732" priority="836" operator="equal">
+  <conditionalFormatting sqref="D27:F27">
+    <cfRule type="cellIs" dxfId="732" priority="837" operator="between">
+      <formula>8</formula>
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="731" priority="838" operator="lessThan">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CJ27:CL27 J27:O27 AS27:AV27 BX27:BY27 CA27:CC27 AH27:AI27 AN27 AK27:AL27 AC27:AD27 Q27:AA27">
+    <cfRule type="cellIs" dxfId="730" priority="834" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="731" priority="837" operator="between">
+    <cfRule type="cellIs" dxfId="729" priority="835" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="730" priority="838" operator="between">
+    <cfRule type="cellIs" dxfId="728" priority="836" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CE26">
-    <cfRule type="cellIs" dxfId="729" priority="833" operator="equal">
+  <conditionalFormatting sqref="AQ27">
+    <cfRule type="cellIs" dxfId="727" priority="828" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="728" priority="834" operator="between">
+    <cfRule type="cellIs" dxfId="726" priority="829" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="727" priority="835" operator="between">
+    <cfRule type="cellIs" dxfId="725" priority="830" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CG26">
-    <cfRule type="cellIs" dxfId="726" priority="830" operator="equal">
+  <conditionalFormatting sqref="BZ27">
+    <cfRule type="cellIs" dxfId="724" priority="822" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="725" priority="831" operator="between">
+    <cfRule type="cellIs" dxfId="723" priority="823" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="724" priority="832" operator="between">
+    <cfRule type="cellIs" dxfId="722" priority="824" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CH26">
-    <cfRule type="cellIs" dxfId="723" priority="827" operator="equal">
+  <conditionalFormatting sqref="BH27 BC27:BD27">
+    <cfRule type="cellIs" dxfId="721" priority="819" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="722" priority="828" operator="between">
+    <cfRule type="cellIs" dxfId="720" priority="820" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="721" priority="829" operator="between">
+    <cfRule type="cellIs" dxfId="719" priority="821" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CI26">
-    <cfRule type="cellIs" dxfId="720" priority="824" operator="equal">
+  <conditionalFormatting sqref="BQ27 BI27:BJ27 BL27:BO27">
+    <cfRule type="cellIs" dxfId="718" priority="813" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="719" priority="825" operator="between">
+    <cfRule type="cellIs" dxfId="717" priority="814" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="718" priority="826" operator="between">
+    <cfRule type="cellIs" dxfId="716" priority="815" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CN26">
-    <cfRule type="cellIs" dxfId="717" priority="821" operator="equal">
+  <conditionalFormatting sqref="BK27">
+    <cfRule type="cellIs" dxfId="715" priority="810" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="716" priority="822" operator="between">
+    <cfRule type="cellIs" dxfId="714" priority="811" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="715" priority="823" operator="between">
+    <cfRule type="cellIs" dxfId="713" priority="812" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CM26">
-    <cfRule type="cellIs" dxfId="714" priority="818" operator="equal">
+  <conditionalFormatting sqref="BR27:BS27 BU27:BW27">
+    <cfRule type="cellIs" dxfId="712" priority="807" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="713" priority="819" operator="between">
+    <cfRule type="cellIs" dxfId="711" priority="808" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="712" priority="820" operator="between">
+    <cfRule type="cellIs" dxfId="710" priority="809" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I26">
-    <cfRule type="cellIs" dxfId="711" priority="815" operator="equal">
+  <conditionalFormatting sqref="BT27">
+    <cfRule type="cellIs" dxfId="709" priority="804" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="710" priority="816" operator="between">
+    <cfRule type="cellIs" dxfId="708" priority="805" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="709" priority="817" operator="between">
+    <cfRule type="cellIs" dxfId="707" priority="806" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27:F27">
-    <cfRule type="cellIs" dxfId="708" priority="813" operator="between">
-      <formula>8</formula>
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="707" priority="814" operator="lessThan">
-      <formula>8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CJ27:CL27 J27:O27 AS27:AV27 BX27:BY27 CA27:CC27 AH27:AI27 AN27 AK27:AL27 AC27:AD27 Q27:AA27">
-    <cfRule type="cellIs" dxfId="706" priority="810" operator="equal">
+  <conditionalFormatting sqref="BP27">
+    <cfRule type="cellIs" dxfId="706" priority="795" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="705" priority="811" operator="between">
+    <cfRule type="cellIs" dxfId="705" priority="796" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="704" priority="812" operator="between">
+    <cfRule type="cellIs" dxfId="704" priority="797" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ27">
-    <cfRule type="cellIs" dxfId="703" priority="804" operator="equal">
+  <conditionalFormatting sqref="AY27">
+    <cfRule type="cellIs" dxfId="703" priority="792" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="702" priority="805" operator="between">
+    <cfRule type="cellIs" dxfId="702" priority="793" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="701" priority="806" operator="between">
+    <cfRule type="cellIs" dxfId="701" priority="794" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BZ27">
-    <cfRule type="cellIs" dxfId="700" priority="798" operator="equal">
+  <conditionalFormatting sqref="AX27">
+    <cfRule type="cellIs" dxfId="700" priority="789" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="699" priority="799" operator="between">
+    <cfRule type="cellIs" dxfId="699" priority="790" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="698" priority="800" operator="between">
+    <cfRule type="cellIs" dxfId="698" priority="791" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BH27 BC27:BD27">
-    <cfRule type="cellIs" dxfId="697" priority="795" operator="equal">
+  <conditionalFormatting sqref="CD27">
+    <cfRule type="cellIs" dxfId="697" priority="786" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="696" priority="796" operator="between">
+    <cfRule type="cellIs" dxfId="696" priority="787" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="695" priority="797" operator="between">
+    <cfRule type="cellIs" dxfId="695" priority="788" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BQ27 BI27:BJ27 BL27:BO27">
-    <cfRule type="cellIs" dxfId="694" priority="789" operator="equal">
+  <conditionalFormatting sqref="CE27">
+    <cfRule type="cellIs" dxfId="694" priority="783" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="693" priority="790" operator="between">
+    <cfRule type="cellIs" dxfId="693" priority="784" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="692" priority="791" operator="between">
+    <cfRule type="cellIs" dxfId="692" priority="785" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BK27">
-    <cfRule type="cellIs" dxfId="691" priority="786" operator="equal">
+  <conditionalFormatting sqref="CG27">
+    <cfRule type="cellIs" dxfId="691" priority="780" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="690" priority="787" operator="between">
+    <cfRule type="cellIs" dxfId="690" priority="781" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="689" priority="788" operator="between">
+    <cfRule type="cellIs" dxfId="689" priority="782" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BR27:BS27 BU27:BW27">
-    <cfRule type="cellIs" dxfId="688" priority="783" operator="equal">
+  <conditionalFormatting sqref="CH27">
+    <cfRule type="cellIs" dxfId="688" priority="777" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="687" priority="784" operator="between">
+    <cfRule type="cellIs" dxfId="687" priority="778" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="686" priority="785" operator="between">
+    <cfRule type="cellIs" dxfId="686" priority="779" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BT27">
-    <cfRule type="cellIs" dxfId="685" priority="780" operator="equal">
+  <conditionalFormatting sqref="CI27">
+    <cfRule type="cellIs" dxfId="685" priority="774" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="684" priority="781" operator="between">
+    <cfRule type="cellIs" dxfId="684" priority="775" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="683" priority="782" operator="between">
+    <cfRule type="cellIs" dxfId="683" priority="776" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BP27">
+  <conditionalFormatting sqref="CN27">
     <cfRule type="cellIs" dxfId="682" priority="771" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -37693,7 +37982,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY27">
+  <conditionalFormatting sqref="CM27">
     <cfRule type="cellIs" dxfId="679" priority="768" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -37706,7 +37995,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX27">
+  <conditionalFormatting sqref="I27">
     <cfRule type="cellIs" dxfId="676" priority="765" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -37719,237 +38008,237 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CD27">
-    <cfRule type="cellIs" dxfId="673" priority="762" operator="equal">
+  <conditionalFormatting sqref="D28:F28 D29:D32">
+    <cfRule type="cellIs" dxfId="673" priority="763" operator="between">
+      <formula>8</formula>
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="672" priority="764" operator="lessThan">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CJ28:CL28 J28:O28 AS28:AV28 BX28:BY28 CA28:CC28 AH28:AL28 AN28:AO28 AD28 Q28:AB28">
+    <cfRule type="cellIs" dxfId="671" priority="760" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="672" priority="763" operator="between">
+    <cfRule type="cellIs" dxfId="670" priority="761" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="671" priority="764" operator="between">
+    <cfRule type="cellIs" dxfId="669" priority="762" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CE27">
-    <cfRule type="cellIs" dxfId="670" priority="759" operator="equal">
+  <conditionalFormatting sqref="AE28">
+    <cfRule type="cellIs" dxfId="668" priority="757" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="669" priority="760" operator="between">
+    <cfRule type="cellIs" dxfId="667" priority="758" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="668" priority="761" operator="between">
+    <cfRule type="cellIs" dxfId="666" priority="759" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CG27">
-    <cfRule type="cellIs" dxfId="667" priority="756" operator="equal">
+  <conditionalFormatting sqref="AQ28">
+    <cfRule type="cellIs" dxfId="665" priority="754" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="666" priority="757" operator="between">
+    <cfRule type="cellIs" dxfId="664" priority="755" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="665" priority="758" operator="between">
+    <cfRule type="cellIs" dxfId="663" priority="756" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CH27">
-    <cfRule type="cellIs" dxfId="664" priority="753" operator="equal">
+  <conditionalFormatting sqref="BZ28">
+    <cfRule type="cellIs" dxfId="662" priority="748" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="663" priority="754" operator="between">
+    <cfRule type="cellIs" dxfId="661" priority="749" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="662" priority="755" operator="between">
+    <cfRule type="cellIs" dxfId="660" priority="750" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CI27">
-    <cfRule type="cellIs" dxfId="661" priority="750" operator="equal">
+  <conditionalFormatting sqref="BH28 BC28:BD28">
+    <cfRule type="cellIs" dxfId="659" priority="745" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="660" priority="751" operator="between">
+    <cfRule type="cellIs" dxfId="658" priority="746" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="659" priority="752" operator="between">
+    <cfRule type="cellIs" dxfId="657" priority="747" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CN27">
-    <cfRule type="cellIs" dxfId="658" priority="747" operator="equal">
+  <conditionalFormatting sqref="BQ28 BI28:BJ28 BL28:BO28">
+    <cfRule type="cellIs" dxfId="656" priority="739" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="657" priority="748" operator="between">
+    <cfRule type="cellIs" dxfId="655" priority="740" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="656" priority="749" operator="between">
+    <cfRule type="cellIs" dxfId="654" priority="741" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CM27">
-    <cfRule type="cellIs" dxfId="655" priority="744" operator="equal">
+  <conditionalFormatting sqref="BK28">
+    <cfRule type="cellIs" dxfId="653" priority="736" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="654" priority="745" operator="between">
+    <cfRule type="cellIs" dxfId="652" priority="737" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="653" priority="746" operator="between">
+    <cfRule type="cellIs" dxfId="651" priority="738" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I27">
-    <cfRule type="cellIs" dxfId="652" priority="741" operator="equal">
+  <conditionalFormatting sqref="BR28:BS28 BU28:BW28">
+    <cfRule type="cellIs" dxfId="650" priority="733" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="651" priority="742" operator="between">
+    <cfRule type="cellIs" dxfId="649" priority="734" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="650" priority="743" operator="between">
+    <cfRule type="cellIs" dxfId="648" priority="735" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D28:F28 D29:D32">
-    <cfRule type="cellIs" dxfId="649" priority="739" operator="between">
-      <formula>8</formula>
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="648" priority="740" operator="lessThan">
-      <formula>8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CJ28:CL28 J28:O28 AS28:AV28 BX28:BY28 CA28:CC28 AH28:AL28 AN28:AO28 AD28 Q28:AB28">
-    <cfRule type="cellIs" dxfId="647" priority="736" operator="equal">
+  <conditionalFormatting sqref="BT28">
+    <cfRule type="cellIs" dxfId="647" priority="730" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="646" priority="737" operator="between">
+    <cfRule type="cellIs" dxfId="646" priority="731" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="645" priority="738" operator="between">
+    <cfRule type="cellIs" dxfId="645" priority="732" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE28">
-    <cfRule type="cellIs" dxfId="644" priority="733" operator="equal">
+  <conditionalFormatting sqref="BP28">
+    <cfRule type="cellIs" dxfId="644" priority="721" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="643" priority="734" operator="between">
+    <cfRule type="cellIs" dxfId="643" priority="722" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="642" priority="735" operator="between">
+    <cfRule type="cellIs" dxfId="642" priority="723" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ28">
-    <cfRule type="cellIs" dxfId="641" priority="730" operator="equal">
+  <conditionalFormatting sqref="AY28">
+    <cfRule type="cellIs" dxfId="641" priority="718" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="640" priority="731" operator="between">
+    <cfRule type="cellIs" dxfId="640" priority="719" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="639" priority="732" operator="between">
+    <cfRule type="cellIs" dxfId="639" priority="720" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BZ28">
-    <cfRule type="cellIs" dxfId="638" priority="724" operator="equal">
+  <conditionalFormatting sqref="AX28">
+    <cfRule type="cellIs" dxfId="638" priority="715" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="637" priority="725" operator="between">
+    <cfRule type="cellIs" dxfId="637" priority="716" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="636" priority="726" operator="between">
+    <cfRule type="cellIs" dxfId="636" priority="717" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BH28 BC28:BD28">
-    <cfRule type="cellIs" dxfId="635" priority="721" operator="equal">
+  <conditionalFormatting sqref="CD28">
+    <cfRule type="cellIs" dxfId="635" priority="712" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="634" priority="722" operator="between">
+    <cfRule type="cellIs" dxfId="634" priority="713" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="633" priority="723" operator="between">
+    <cfRule type="cellIs" dxfId="633" priority="714" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BQ28 BI28:BJ28 BL28:BO28">
-    <cfRule type="cellIs" dxfId="632" priority="715" operator="equal">
+  <conditionalFormatting sqref="CE28">
+    <cfRule type="cellIs" dxfId="632" priority="709" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="631" priority="716" operator="between">
+    <cfRule type="cellIs" dxfId="631" priority="710" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="630" priority="717" operator="between">
+    <cfRule type="cellIs" dxfId="630" priority="711" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BK28">
-    <cfRule type="cellIs" dxfId="629" priority="712" operator="equal">
+  <conditionalFormatting sqref="CG28">
+    <cfRule type="cellIs" dxfId="629" priority="706" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="628" priority="713" operator="between">
+    <cfRule type="cellIs" dxfId="628" priority="707" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="627" priority="714" operator="between">
+    <cfRule type="cellIs" dxfId="627" priority="708" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BR28:BS28 BU28:BW28">
-    <cfRule type="cellIs" dxfId="626" priority="709" operator="equal">
+  <conditionalFormatting sqref="CH28">
+    <cfRule type="cellIs" dxfId="626" priority="703" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="625" priority="710" operator="between">
+    <cfRule type="cellIs" dxfId="625" priority="704" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="624" priority="711" operator="between">
+    <cfRule type="cellIs" dxfId="624" priority="705" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BT28">
-    <cfRule type="cellIs" dxfId="623" priority="706" operator="equal">
+  <conditionalFormatting sqref="CI28">
+    <cfRule type="cellIs" dxfId="623" priority="700" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="622" priority="707" operator="between">
+    <cfRule type="cellIs" dxfId="622" priority="701" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="621" priority="708" operator="between">
+    <cfRule type="cellIs" dxfId="621" priority="702" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BP28">
+  <conditionalFormatting sqref="CN28">
     <cfRule type="cellIs" dxfId="620" priority="697" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -37962,7 +38251,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY28">
+  <conditionalFormatting sqref="CM28">
     <cfRule type="cellIs" dxfId="617" priority="694" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -37975,7 +38264,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX28">
+  <conditionalFormatting sqref="I28">
     <cfRule type="cellIs" dxfId="614" priority="691" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -37988,237 +38277,237 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CD28">
-    <cfRule type="cellIs" dxfId="611" priority="688" operator="equal">
+  <conditionalFormatting sqref="E29:F29">
+    <cfRule type="cellIs" dxfId="611" priority="689" operator="between">
+      <formula>8</formula>
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="610" priority="690" operator="lessThan">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CJ29:CL29 J29:O29 AS29:AV29 BX29:BY29 CA29:CC29 AH29:AL29 AN29:AO29 Q29:AD29">
+    <cfRule type="cellIs" dxfId="609" priority="686" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="610" priority="689" operator="between">
+    <cfRule type="cellIs" dxfId="608" priority="687" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="609" priority="690" operator="between">
+    <cfRule type="cellIs" dxfId="607" priority="688" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CE28">
-    <cfRule type="cellIs" dxfId="608" priority="685" operator="equal">
+  <conditionalFormatting sqref="AE29">
+    <cfRule type="cellIs" dxfId="606" priority="683" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="607" priority="686" operator="between">
+    <cfRule type="cellIs" dxfId="605" priority="684" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="606" priority="687" operator="between">
+    <cfRule type="cellIs" dxfId="604" priority="685" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CG28">
-    <cfRule type="cellIs" dxfId="605" priority="682" operator="equal">
+  <conditionalFormatting sqref="AQ29">
+    <cfRule type="cellIs" dxfId="603" priority="680" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="604" priority="683" operator="between">
+    <cfRule type="cellIs" dxfId="602" priority="681" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="603" priority="684" operator="between">
+    <cfRule type="cellIs" dxfId="601" priority="682" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CH28">
-    <cfRule type="cellIs" dxfId="602" priority="679" operator="equal">
+  <conditionalFormatting sqref="BZ29">
+    <cfRule type="cellIs" dxfId="600" priority="674" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="601" priority="680" operator="between">
+    <cfRule type="cellIs" dxfId="599" priority="675" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="600" priority="681" operator="between">
+    <cfRule type="cellIs" dxfId="598" priority="676" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CI28">
-    <cfRule type="cellIs" dxfId="599" priority="676" operator="equal">
+  <conditionalFormatting sqref="BH29 BC29:BD29">
+    <cfRule type="cellIs" dxfId="597" priority="671" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="598" priority="677" operator="between">
+    <cfRule type="cellIs" dxfId="596" priority="672" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="597" priority="678" operator="between">
+    <cfRule type="cellIs" dxfId="595" priority="673" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CN28">
-    <cfRule type="cellIs" dxfId="596" priority="673" operator="equal">
+  <conditionalFormatting sqref="BQ29 BI29:BJ29 BL29:BO29">
+    <cfRule type="cellIs" dxfId="594" priority="665" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="595" priority="674" operator="between">
+    <cfRule type="cellIs" dxfId="593" priority="666" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="594" priority="675" operator="between">
+    <cfRule type="cellIs" dxfId="592" priority="667" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CM28">
-    <cfRule type="cellIs" dxfId="593" priority="670" operator="equal">
+  <conditionalFormatting sqref="BK29">
+    <cfRule type="cellIs" dxfId="591" priority="662" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="592" priority="671" operator="between">
+    <cfRule type="cellIs" dxfId="590" priority="663" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="591" priority="672" operator="between">
+    <cfRule type="cellIs" dxfId="589" priority="664" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I28">
-    <cfRule type="cellIs" dxfId="590" priority="667" operator="equal">
+  <conditionalFormatting sqref="BR29:BS29 BU29:BW29">
+    <cfRule type="cellIs" dxfId="588" priority="659" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="589" priority="668" operator="between">
+    <cfRule type="cellIs" dxfId="587" priority="660" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="588" priority="669" operator="between">
+    <cfRule type="cellIs" dxfId="586" priority="661" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E29:F29">
-    <cfRule type="cellIs" dxfId="587" priority="665" operator="between">
-      <formula>8</formula>
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="586" priority="666" operator="lessThan">
-      <formula>8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CJ29:CL29 J29:O29 AS29:AV29 BX29:BY29 CA29:CC29 AH29:AL29 AN29:AO29 Q29:AD29">
-    <cfRule type="cellIs" dxfId="585" priority="662" operator="equal">
+  <conditionalFormatting sqref="BT29">
+    <cfRule type="cellIs" dxfId="585" priority="656" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="584" priority="663" operator="between">
+    <cfRule type="cellIs" dxfId="584" priority="657" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="583" priority="664" operator="between">
+    <cfRule type="cellIs" dxfId="583" priority="658" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE29">
-    <cfRule type="cellIs" dxfId="582" priority="659" operator="equal">
+  <conditionalFormatting sqref="BP29">
+    <cfRule type="cellIs" dxfId="582" priority="647" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="581" priority="660" operator="between">
+    <cfRule type="cellIs" dxfId="581" priority="648" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="580" priority="661" operator="between">
+    <cfRule type="cellIs" dxfId="580" priority="649" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ29">
-    <cfRule type="cellIs" dxfId="579" priority="656" operator="equal">
+  <conditionalFormatting sqref="AY29">
+    <cfRule type="cellIs" dxfId="579" priority="644" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="578" priority="657" operator="between">
+    <cfRule type="cellIs" dxfId="578" priority="645" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="577" priority="658" operator="between">
+    <cfRule type="cellIs" dxfId="577" priority="646" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BZ29">
-    <cfRule type="cellIs" dxfId="576" priority="650" operator="equal">
+  <conditionalFormatting sqref="AX29">
+    <cfRule type="cellIs" dxfId="576" priority="641" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="575" priority="651" operator="between">
+    <cfRule type="cellIs" dxfId="575" priority="642" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="574" priority="652" operator="between">
+    <cfRule type="cellIs" dxfId="574" priority="643" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BH29 BC29:BD29">
-    <cfRule type="cellIs" dxfId="573" priority="647" operator="equal">
+  <conditionalFormatting sqref="CD29">
+    <cfRule type="cellIs" dxfId="573" priority="638" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="572" priority="648" operator="between">
+    <cfRule type="cellIs" dxfId="572" priority="639" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="571" priority="649" operator="between">
+    <cfRule type="cellIs" dxfId="571" priority="640" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BQ29 BI29:BJ29 BL29:BO29">
-    <cfRule type="cellIs" dxfId="570" priority="641" operator="equal">
+  <conditionalFormatting sqref="CE29">
+    <cfRule type="cellIs" dxfId="570" priority="635" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="569" priority="642" operator="between">
+    <cfRule type="cellIs" dxfId="569" priority="636" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="568" priority="643" operator="between">
+    <cfRule type="cellIs" dxfId="568" priority="637" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BK29">
-    <cfRule type="cellIs" dxfId="567" priority="638" operator="equal">
+  <conditionalFormatting sqref="CG29">
+    <cfRule type="cellIs" dxfId="567" priority="632" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="566" priority="639" operator="between">
+    <cfRule type="cellIs" dxfId="566" priority="633" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="565" priority="640" operator="between">
+    <cfRule type="cellIs" dxfId="565" priority="634" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BR29:BS29 BU29:BW29">
-    <cfRule type="cellIs" dxfId="564" priority="635" operator="equal">
+  <conditionalFormatting sqref="CH29">
+    <cfRule type="cellIs" dxfId="564" priority="629" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="563" priority="636" operator="between">
+    <cfRule type="cellIs" dxfId="563" priority="630" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="562" priority="637" operator="between">
+    <cfRule type="cellIs" dxfId="562" priority="631" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BT29">
-    <cfRule type="cellIs" dxfId="561" priority="632" operator="equal">
+  <conditionalFormatting sqref="CI29">
+    <cfRule type="cellIs" dxfId="561" priority="626" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="560" priority="633" operator="between">
+    <cfRule type="cellIs" dxfId="560" priority="627" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="559" priority="634" operator="between">
+    <cfRule type="cellIs" dxfId="559" priority="628" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BP29">
+  <conditionalFormatting sqref="CN29">
     <cfRule type="cellIs" dxfId="558" priority="623" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -38231,7 +38520,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY29">
+  <conditionalFormatting sqref="CM29">
     <cfRule type="cellIs" dxfId="555" priority="620" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -38244,7 +38533,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX29">
+  <conditionalFormatting sqref="I29">
     <cfRule type="cellIs" dxfId="552" priority="617" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -38257,237 +38546,237 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CD29">
-    <cfRule type="cellIs" dxfId="549" priority="614" operator="equal">
+  <conditionalFormatting sqref="E30:F30">
+    <cfRule type="cellIs" dxfId="549" priority="615" operator="between">
+      <formula>8</formula>
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="548" priority="616" operator="lessThan">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CJ30:CL30 J30:O30 AS30:AV30 BX30:BY30 CA30:CC30 AH30:AL30 AN30:AO30 Q30:AD30">
+    <cfRule type="cellIs" dxfId="547" priority="612" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="548" priority="615" operator="between">
+    <cfRule type="cellIs" dxfId="546" priority="613" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="547" priority="616" operator="between">
+    <cfRule type="cellIs" dxfId="545" priority="614" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CE29">
-    <cfRule type="cellIs" dxfId="546" priority="611" operator="equal">
+  <conditionalFormatting sqref="AE30">
+    <cfRule type="cellIs" dxfId="544" priority="609" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="545" priority="612" operator="between">
+    <cfRule type="cellIs" dxfId="543" priority="610" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="544" priority="613" operator="between">
+    <cfRule type="cellIs" dxfId="542" priority="611" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CG29">
-    <cfRule type="cellIs" dxfId="543" priority="608" operator="equal">
+  <conditionalFormatting sqref="AQ30">
+    <cfRule type="cellIs" dxfId="541" priority="606" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="542" priority="609" operator="between">
+    <cfRule type="cellIs" dxfId="540" priority="607" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="541" priority="610" operator="between">
+    <cfRule type="cellIs" dxfId="539" priority="608" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CH29">
-    <cfRule type="cellIs" dxfId="540" priority="605" operator="equal">
+  <conditionalFormatting sqref="BZ30">
+    <cfRule type="cellIs" dxfId="538" priority="600" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="539" priority="606" operator="between">
+    <cfRule type="cellIs" dxfId="537" priority="601" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="538" priority="607" operator="between">
+    <cfRule type="cellIs" dxfId="536" priority="602" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CI29">
-    <cfRule type="cellIs" dxfId="537" priority="602" operator="equal">
+  <conditionalFormatting sqref="BH30 BC30:BD30">
+    <cfRule type="cellIs" dxfId="535" priority="597" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="536" priority="603" operator="between">
+    <cfRule type="cellIs" dxfId="534" priority="598" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="535" priority="604" operator="between">
+    <cfRule type="cellIs" dxfId="533" priority="599" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CN29">
-    <cfRule type="cellIs" dxfId="534" priority="599" operator="equal">
+  <conditionalFormatting sqref="BQ30 BI30:BJ30 BL30:BO30">
+    <cfRule type="cellIs" dxfId="532" priority="591" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="533" priority="600" operator="between">
+    <cfRule type="cellIs" dxfId="531" priority="592" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="532" priority="601" operator="between">
+    <cfRule type="cellIs" dxfId="530" priority="593" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CM29">
-    <cfRule type="cellIs" dxfId="531" priority="596" operator="equal">
+  <conditionalFormatting sqref="BK30">
+    <cfRule type="cellIs" dxfId="529" priority="588" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="530" priority="597" operator="between">
+    <cfRule type="cellIs" dxfId="528" priority="589" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="529" priority="598" operator="between">
+    <cfRule type="cellIs" dxfId="527" priority="590" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I29">
-    <cfRule type="cellIs" dxfId="528" priority="593" operator="equal">
+  <conditionalFormatting sqref="BR30:BS30 BU30:BW30">
+    <cfRule type="cellIs" dxfId="526" priority="585" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="527" priority="594" operator="between">
+    <cfRule type="cellIs" dxfId="525" priority="586" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="526" priority="595" operator="between">
+    <cfRule type="cellIs" dxfId="524" priority="587" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E30:F30">
-    <cfRule type="cellIs" dxfId="525" priority="591" operator="between">
-      <formula>8</formula>
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="524" priority="592" operator="lessThan">
-      <formula>8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CJ30:CL30 J30:O30 AS30:AV30 BX30:BY30 CA30:CC30 AH30:AL30 AN30:AO30 Q30:AD30">
-    <cfRule type="cellIs" dxfId="523" priority="588" operator="equal">
+  <conditionalFormatting sqref="BT30">
+    <cfRule type="cellIs" dxfId="523" priority="582" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="522" priority="589" operator="between">
+    <cfRule type="cellIs" dxfId="522" priority="583" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="521" priority="590" operator="between">
+    <cfRule type="cellIs" dxfId="521" priority="584" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE30">
-    <cfRule type="cellIs" dxfId="520" priority="585" operator="equal">
+  <conditionalFormatting sqref="BP30">
+    <cfRule type="cellIs" dxfId="520" priority="573" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="519" priority="586" operator="between">
+    <cfRule type="cellIs" dxfId="519" priority="574" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="518" priority="587" operator="between">
+    <cfRule type="cellIs" dxfId="518" priority="575" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ30">
-    <cfRule type="cellIs" dxfId="517" priority="582" operator="equal">
+  <conditionalFormatting sqref="AY30">
+    <cfRule type="cellIs" dxfId="517" priority="570" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="516" priority="583" operator="between">
+    <cfRule type="cellIs" dxfId="516" priority="571" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="515" priority="584" operator="between">
+    <cfRule type="cellIs" dxfId="515" priority="572" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BZ30">
-    <cfRule type="cellIs" dxfId="514" priority="576" operator="equal">
+  <conditionalFormatting sqref="AX30">
+    <cfRule type="cellIs" dxfId="514" priority="567" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="513" priority="577" operator="between">
+    <cfRule type="cellIs" dxfId="513" priority="568" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="512" priority="578" operator="between">
+    <cfRule type="cellIs" dxfId="512" priority="569" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BH30 BC30:BD30">
-    <cfRule type="cellIs" dxfId="511" priority="573" operator="equal">
+  <conditionalFormatting sqref="CD30">
+    <cfRule type="cellIs" dxfId="511" priority="564" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="510" priority="574" operator="between">
+    <cfRule type="cellIs" dxfId="510" priority="565" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="509" priority="575" operator="between">
+    <cfRule type="cellIs" dxfId="509" priority="566" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BQ30 BI30:BJ30 BL30:BO30">
-    <cfRule type="cellIs" dxfId="508" priority="567" operator="equal">
+  <conditionalFormatting sqref="CE30">
+    <cfRule type="cellIs" dxfId="508" priority="561" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="507" priority="568" operator="between">
+    <cfRule type="cellIs" dxfId="507" priority="562" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="506" priority="569" operator="between">
+    <cfRule type="cellIs" dxfId="506" priority="563" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BK30">
-    <cfRule type="cellIs" dxfId="505" priority="564" operator="equal">
+  <conditionalFormatting sqref="CG30">
+    <cfRule type="cellIs" dxfId="505" priority="558" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="504" priority="565" operator="between">
+    <cfRule type="cellIs" dxfId="504" priority="559" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="503" priority="566" operator="between">
+    <cfRule type="cellIs" dxfId="503" priority="560" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BR30:BS30 BU30:BW30">
-    <cfRule type="cellIs" dxfId="502" priority="561" operator="equal">
+  <conditionalFormatting sqref="CH30">
+    <cfRule type="cellIs" dxfId="502" priority="555" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="501" priority="562" operator="between">
+    <cfRule type="cellIs" dxfId="501" priority="556" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="500" priority="563" operator="between">
+    <cfRule type="cellIs" dxfId="500" priority="557" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BT30">
-    <cfRule type="cellIs" dxfId="499" priority="558" operator="equal">
+  <conditionalFormatting sqref="CI30">
+    <cfRule type="cellIs" dxfId="499" priority="552" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="498" priority="559" operator="between">
+    <cfRule type="cellIs" dxfId="498" priority="553" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="497" priority="560" operator="between">
+    <cfRule type="cellIs" dxfId="497" priority="554" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BP30">
+  <conditionalFormatting sqref="CN30">
     <cfRule type="cellIs" dxfId="496" priority="549" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -38500,7 +38789,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY30">
+  <conditionalFormatting sqref="CM30">
     <cfRule type="cellIs" dxfId="493" priority="546" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -38513,7 +38802,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX30">
+  <conditionalFormatting sqref="I30">
     <cfRule type="cellIs" dxfId="490" priority="543" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -38526,237 +38815,237 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CD30">
-    <cfRule type="cellIs" dxfId="487" priority="540" operator="equal">
+  <conditionalFormatting sqref="E31:F31">
+    <cfRule type="cellIs" dxfId="487" priority="541" operator="between">
+      <formula>8</formula>
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="486" priority="542" operator="lessThan">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CJ31:CL31 J31:O31 AS31:AV31 BX31:BY31 CA31:CC31 AH31:AL31 AN31:AO31 Q31:AD31">
+    <cfRule type="cellIs" dxfId="485" priority="538" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="486" priority="541" operator="between">
+    <cfRule type="cellIs" dxfId="484" priority="539" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="485" priority="542" operator="between">
+    <cfRule type="cellIs" dxfId="483" priority="540" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CE30">
-    <cfRule type="cellIs" dxfId="484" priority="537" operator="equal">
+  <conditionalFormatting sqref="AE31">
+    <cfRule type="cellIs" dxfId="482" priority="535" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="483" priority="538" operator="between">
+    <cfRule type="cellIs" dxfId="481" priority="536" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="482" priority="539" operator="between">
+    <cfRule type="cellIs" dxfId="480" priority="537" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CG30">
-    <cfRule type="cellIs" dxfId="481" priority="534" operator="equal">
+  <conditionalFormatting sqref="AQ31">
+    <cfRule type="cellIs" dxfId="479" priority="532" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="480" priority="535" operator="between">
+    <cfRule type="cellIs" dxfId="478" priority="533" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="479" priority="536" operator="between">
+    <cfRule type="cellIs" dxfId="477" priority="534" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CH30">
-    <cfRule type="cellIs" dxfId="478" priority="531" operator="equal">
+  <conditionalFormatting sqref="BZ31">
+    <cfRule type="cellIs" dxfId="476" priority="526" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="477" priority="532" operator="between">
+    <cfRule type="cellIs" dxfId="475" priority="527" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="476" priority="533" operator="between">
+    <cfRule type="cellIs" dxfId="474" priority="528" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CI30">
-    <cfRule type="cellIs" dxfId="475" priority="528" operator="equal">
+  <conditionalFormatting sqref="BH31 BC31:BD31">
+    <cfRule type="cellIs" dxfId="473" priority="523" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="474" priority="529" operator="between">
+    <cfRule type="cellIs" dxfId="472" priority="524" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="473" priority="530" operator="between">
+    <cfRule type="cellIs" dxfId="471" priority="525" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CN30">
-    <cfRule type="cellIs" dxfId="472" priority="525" operator="equal">
+  <conditionalFormatting sqref="BQ31 BI31:BJ31 BL31:BO31">
+    <cfRule type="cellIs" dxfId="470" priority="517" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="471" priority="526" operator="between">
+    <cfRule type="cellIs" dxfId="469" priority="518" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="470" priority="527" operator="between">
+    <cfRule type="cellIs" dxfId="468" priority="519" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CM30">
-    <cfRule type="cellIs" dxfId="469" priority="522" operator="equal">
+  <conditionalFormatting sqref="BK31">
+    <cfRule type="cellIs" dxfId="467" priority="514" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="468" priority="523" operator="between">
+    <cfRule type="cellIs" dxfId="466" priority="515" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="467" priority="524" operator="between">
+    <cfRule type="cellIs" dxfId="465" priority="516" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I30">
-    <cfRule type="cellIs" dxfId="466" priority="519" operator="equal">
+  <conditionalFormatting sqref="BR31:BS31 BU31:BW31">
+    <cfRule type="cellIs" dxfId="464" priority="511" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="465" priority="520" operator="between">
+    <cfRule type="cellIs" dxfId="463" priority="512" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="464" priority="521" operator="between">
+    <cfRule type="cellIs" dxfId="462" priority="513" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E31:F31">
-    <cfRule type="cellIs" dxfId="463" priority="517" operator="between">
-      <formula>8</formula>
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="462" priority="518" operator="lessThan">
-      <formula>8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CJ31:CL31 J31:O31 AS31:AV31 BX31:BY31 CA31:CC31 AH31:AL31 AN31:AO31 Q31:AD31">
-    <cfRule type="cellIs" dxfId="461" priority="514" operator="equal">
+  <conditionalFormatting sqref="BT31">
+    <cfRule type="cellIs" dxfId="461" priority="508" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="460" priority="515" operator="between">
+    <cfRule type="cellIs" dxfId="460" priority="509" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="459" priority="516" operator="between">
+    <cfRule type="cellIs" dxfId="459" priority="510" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE31">
-    <cfRule type="cellIs" dxfId="458" priority="511" operator="equal">
+  <conditionalFormatting sqref="BP31">
+    <cfRule type="cellIs" dxfId="458" priority="499" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="457" priority="512" operator="between">
+    <cfRule type="cellIs" dxfId="457" priority="500" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="456" priority="513" operator="between">
+    <cfRule type="cellIs" dxfId="456" priority="501" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ31">
-    <cfRule type="cellIs" dxfId="455" priority="508" operator="equal">
+  <conditionalFormatting sqref="AY31">
+    <cfRule type="cellIs" dxfId="455" priority="496" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="454" priority="509" operator="between">
+    <cfRule type="cellIs" dxfId="454" priority="497" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="453" priority="510" operator="between">
+    <cfRule type="cellIs" dxfId="453" priority="498" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BZ31">
-    <cfRule type="cellIs" dxfId="452" priority="502" operator="equal">
+  <conditionalFormatting sqref="AX31">
+    <cfRule type="cellIs" dxfId="452" priority="493" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="451" priority="503" operator="between">
+    <cfRule type="cellIs" dxfId="451" priority="494" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="450" priority="504" operator="between">
+    <cfRule type="cellIs" dxfId="450" priority="495" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BH31 BC31:BD31">
-    <cfRule type="cellIs" dxfId="449" priority="499" operator="equal">
+  <conditionalFormatting sqref="CD31">
+    <cfRule type="cellIs" dxfId="449" priority="490" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="448" priority="500" operator="between">
+    <cfRule type="cellIs" dxfId="448" priority="491" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="447" priority="501" operator="between">
+    <cfRule type="cellIs" dxfId="447" priority="492" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BQ31 BI31:BJ31 BL31:BO31">
-    <cfRule type="cellIs" dxfId="446" priority="493" operator="equal">
+  <conditionalFormatting sqref="CE31">
+    <cfRule type="cellIs" dxfId="446" priority="487" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="445" priority="494" operator="between">
+    <cfRule type="cellIs" dxfId="445" priority="488" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="444" priority="495" operator="between">
+    <cfRule type="cellIs" dxfId="444" priority="489" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BK31">
-    <cfRule type="cellIs" dxfId="443" priority="490" operator="equal">
+  <conditionalFormatting sqref="CG31">
+    <cfRule type="cellIs" dxfId="443" priority="484" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="442" priority="491" operator="between">
+    <cfRule type="cellIs" dxfId="442" priority="485" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="441" priority="492" operator="between">
+    <cfRule type="cellIs" dxfId="441" priority="486" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BR31:BS31 BU31:BW31">
-    <cfRule type="cellIs" dxfId="440" priority="487" operator="equal">
+  <conditionalFormatting sqref="CH31">
+    <cfRule type="cellIs" dxfId="440" priority="481" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="439" priority="488" operator="between">
+    <cfRule type="cellIs" dxfId="439" priority="482" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="438" priority="489" operator="between">
+    <cfRule type="cellIs" dxfId="438" priority="483" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BT31">
-    <cfRule type="cellIs" dxfId="437" priority="484" operator="equal">
+  <conditionalFormatting sqref="CI31">
+    <cfRule type="cellIs" dxfId="437" priority="478" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="436" priority="485" operator="between">
+    <cfRule type="cellIs" dxfId="436" priority="479" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="435" priority="486" operator="between">
+    <cfRule type="cellIs" dxfId="435" priority="480" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BP31">
+  <conditionalFormatting sqref="CN31">
     <cfRule type="cellIs" dxfId="434" priority="475" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -38769,7 +39058,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY31">
+  <conditionalFormatting sqref="CM31">
     <cfRule type="cellIs" dxfId="431" priority="472" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -38782,7 +39071,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX31">
+  <conditionalFormatting sqref="I31">
     <cfRule type="cellIs" dxfId="428" priority="469" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -38795,124 +39084,124 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CD31">
-    <cfRule type="cellIs" dxfId="425" priority="466" operator="equal">
+  <conditionalFormatting sqref="AM32:AM33 AM9:AM23">
+    <cfRule type="cellIs" dxfId="425" priority="439" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="424" priority="467" operator="between">
+    <cfRule type="cellIs" dxfId="424" priority="440" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="423" priority="468" operator="between">
+    <cfRule type="cellIs" dxfId="423" priority="441" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CE31">
-    <cfRule type="cellIs" dxfId="422" priority="463" operator="equal">
+  <conditionalFormatting sqref="AM26">
+    <cfRule type="cellIs" dxfId="422" priority="430" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="421" priority="464" operator="between">
+    <cfRule type="cellIs" dxfId="421" priority="431" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="420" priority="465" operator="between">
+    <cfRule type="cellIs" dxfId="420" priority="432" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CG31">
-    <cfRule type="cellIs" dxfId="419" priority="460" operator="equal">
+  <conditionalFormatting sqref="AM27">
+    <cfRule type="cellIs" dxfId="419" priority="427" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="418" priority="461" operator="between">
+    <cfRule type="cellIs" dxfId="418" priority="428" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="417" priority="462" operator="between">
+    <cfRule type="cellIs" dxfId="417" priority="429" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CH31">
-    <cfRule type="cellIs" dxfId="416" priority="457" operator="equal">
+  <conditionalFormatting sqref="AM28">
+    <cfRule type="cellIs" dxfId="416" priority="424" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="415" priority="458" operator="between">
+    <cfRule type="cellIs" dxfId="415" priority="425" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="414" prior